--- a/temp/stable_test.xlsx
+++ b/temp/stable_test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="292">
   <si>
     <t>华英农业</t>
   </si>
@@ -28,694 +28,727 @@
     <t>time</t>
   </si>
   <si>
-    <t>2019-06-11 10:17:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 09:53:00</t>
-  </si>
-  <si>
-    <t>2019-06-10 14:41:00</t>
-  </si>
-  <si>
-    <t>2019-06-10 13:34:00</t>
-  </si>
-  <si>
-    <t>2019-06-10 09:44:00</t>
-  </si>
-  <si>
-    <t>2019-06-05 14:46:00</t>
-  </si>
-  <si>
-    <t>2019-06-04 13:52:00</t>
-  </si>
-  <si>
-    <t>2019-06-04 10:13:00</t>
-  </si>
-  <si>
-    <t>2019-05-31 13:36:00</t>
-  </si>
-  <si>
-    <t>2019-05-30 10:19:00</t>
-  </si>
-  <si>
-    <t>2019-05-30 10:07:00</t>
-  </si>
-  <si>
-    <t>2019-05-29 14:43:00</t>
-  </si>
-  <si>
-    <t>2019-05-29 13:16:00</t>
-  </si>
-  <si>
-    <t>2019-05-28 13:57:00</t>
-  </si>
-  <si>
-    <t>2019-05-27 11:14:00</t>
-  </si>
-  <si>
-    <t>2019-05-27 10:06:00</t>
-  </si>
-  <si>
-    <t>2019-05-27 09:47:00</t>
-  </si>
-  <si>
-    <t>2019-05-24 13:08:00</t>
-  </si>
-  <si>
-    <t>2019-05-24 10:23:00</t>
-  </si>
-  <si>
-    <t>2019-05-24 10:08:00</t>
-  </si>
-  <si>
-    <t>2019-05-23 13:59:00</t>
-  </si>
-  <si>
-    <t>2019-05-23 13:49:00</t>
-  </si>
-  <si>
-    <t>2019-05-23 11:20:00</t>
-  </si>
-  <si>
-    <t>2019-05-23 11:13:00</t>
-  </si>
-  <si>
-    <t>2019-05-23 10:56:00</t>
-  </si>
-  <si>
-    <t>2019-05-22 11:08:00</t>
-  </si>
-  <si>
-    <t>2019-05-22 10:25:00</t>
-  </si>
-  <si>
-    <t>2019-05-22 10:16:00</t>
-  </si>
-  <si>
-    <t>2019-05-20 11:10:00</t>
-  </si>
-  <si>
-    <t>2019-05-20 10:12:00</t>
-  </si>
-  <si>
-    <t>2019-05-16 14:43:00</t>
-  </si>
-  <si>
-    <t>2019-05-16 14:21:00</t>
-  </si>
-  <si>
-    <t>2019-05-16 14:13:00</t>
-  </si>
-  <si>
-    <t>2019-05-16 13:10:00</t>
-  </si>
-  <si>
-    <t>2019-05-15 13:33:00</t>
-  </si>
-  <si>
-    <t>2019-05-15 11:12:00</t>
-  </si>
-  <si>
-    <t>2019-05-15 11:04:00</t>
-  </si>
-  <si>
-    <t>2019-05-15 10:23:00</t>
-  </si>
-  <si>
-    <t>2019-05-14 11:08:00</t>
-  </si>
-  <si>
-    <t>2019-05-10 14:06:00</t>
-  </si>
-  <si>
-    <t>2019-05-10 09:35:00</t>
-  </si>
-  <si>
-    <t>2019-05-09 13:42:00</t>
-  </si>
-  <si>
-    <t>2019-05-09 13:04:00</t>
-  </si>
-  <si>
-    <t>2019-05-09 10:32:00</t>
-  </si>
-  <si>
-    <t>2019-05-08 13:58:00</t>
-  </si>
-  <si>
-    <t>2019-05-08 13:29:00</t>
-  </si>
-  <si>
-    <t>2019-05-08 09:52:00</t>
-  </si>
-  <si>
-    <t>2019-05-07 10:51:00</t>
-  </si>
-  <si>
-    <t>2019-05-06 14:38:00</t>
-  </si>
-  <si>
-    <t>2019-05-06 13:31:00</t>
-  </si>
-  <si>
-    <t>2019-04-30 13:04:00</t>
+    <t>2019-06-11 13:32:00</t>
+  </si>
+  <si>
+    <t>2019-06-10 15:00:00</t>
+  </si>
+  <si>
+    <t>2019-06-10 13:39:00</t>
+  </si>
+  <si>
+    <t>2019-06-05 13:22:00</t>
+  </si>
+  <si>
+    <t>2019-06-05 11:10:00</t>
+  </si>
+  <si>
+    <t>2019-06-04 09:30:00</t>
+  </si>
+  <si>
+    <t>2019-06-03 13:28:00</t>
+  </si>
+  <si>
+    <t>2019-06-03 10:59:00</t>
+  </si>
+  <si>
+    <t>2019-06-03 10:31:00</t>
+  </si>
+  <si>
+    <t>2019-06-03 10:07:00</t>
+  </si>
+  <si>
+    <t>2019-05-31 14:48:00</t>
+  </si>
+  <si>
+    <t>2019-05-31 13:51:00</t>
+  </si>
+  <si>
+    <t>2019-05-31 10:24:00</t>
+  </si>
+  <si>
+    <t>2019-05-30 14:32:00</t>
+  </si>
+  <si>
+    <t>2019-05-30 13:18:00</t>
+  </si>
+  <si>
+    <t>2019-05-29 14:14:00</t>
+  </si>
+  <si>
+    <t>2019-05-28 13:46:00</t>
+  </si>
+  <si>
+    <t>2019-05-28 09:52:00</t>
+  </si>
+  <si>
+    <t>2019-05-24 13:16:00</t>
+  </si>
+  <si>
+    <t>2019-05-24 11:09:00</t>
+  </si>
+  <si>
+    <t>2019-05-23 11:24:00</t>
+  </si>
+  <si>
+    <t>2019-05-23 09:39:00</t>
+  </si>
+  <si>
+    <t>2019-05-21 10:25:00</t>
+  </si>
+  <si>
+    <t>2019-05-21 09:50:00</t>
+  </si>
+  <si>
+    <t>2019-05-21 09:37:00</t>
+  </si>
+  <si>
+    <t>2019-05-20 10:54:00</t>
+  </si>
+  <si>
+    <t>2019-05-20 10:15:00</t>
+  </si>
+  <si>
+    <t>2019-05-20 10:05:00</t>
+  </si>
+  <si>
+    <t>2019-05-17 14:19:00</t>
+  </si>
+  <si>
+    <t>2019-05-17 10:45:00</t>
+  </si>
+  <si>
+    <t>2019-05-17 10:32:00</t>
+  </si>
+  <si>
+    <t>2019-05-16 10:08:00</t>
+  </si>
+  <si>
+    <t>2019-05-15 14:38:00</t>
+  </si>
+  <si>
+    <t>2019-05-15 14:28:00</t>
+  </si>
+  <si>
+    <t>2019-05-15 10:51:00</t>
+  </si>
+  <si>
+    <t>2019-05-13 14:45:00</t>
+  </si>
+  <si>
+    <t>2019-05-10 14:24:00</t>
+  </si>
+  <si>
+    <t>2019-05-09 10:46:00</t>
+  </si>
+  <si>
+    <t>2019-05-08 10:31:00</t>
+  </si>
+  <si>
+    <t>2019-05-08 10:03:00</t>
+  </si>
+  <si>
+    <t>2019-05-08 09:31:00</t>
+  </si>
+  <si>
+    <t>2019-05-07 14:16:00</t>
+  </si>
+  <si>
+    <t>2019-05-07 11:13:00</t>
+  </si>
+  <si>
+    <t>2019-04-30 11:16:00</t>
   </si>
   <si>
     <t>2019-04-30 10:54:00</t>
   </si>
   <si>
-    <t>2019-04-30 10:23:00</t>
-  </si>
-  <si>
-    <t>2019-04-29 14:15:00</t>
-  </si>
-  <si>
-    <t>2019-04-29 13:10:00</t>
-  </si>
-  <si>
-    <t>2019-04-29 10:20:00</t>
-  </si>
-  <si>
-    <t>2019-04-29 10:09:00</t>
-  </si>
-  <si>
-    <t>2019-04-26 13:22:00</t>
-  </si>
-  <si>
-    <t>2019-04-26 11:24:00</t>
-  </si>
-  <si>
-    <t>2019-04-25 14:57:00</t>
-  </si>
-  <si>
-    <t>2019-04-25 14:21:00</t>
-  </si>
-  <si>
-    <t>2019-04-25 13:57:00</t>
-  </si>
-  <si>
-    <t>2019-04-25 13:37:00</t>
-  </si>
-  <si>
-    <t>2019-04-25 13:17:00</t>
-  </si>
-  <si>
-    <t>2019-04-24 14:11:00</t>
-  </si>
-  <si>
-    <t>2019-04-24 13:24:00</t>
-  </si>
-  <si>
-    <t>2019-04-24 13:23:00</t>
-  </si>
-  <si>
-    <t>2019-04-24 09:38:00</t>
-  </si>
-  <si>
-    <t>2019-04-23 14:34:00</t>
-  </si>
-  <si>
-    <t>2019-04-23 10:45:00</t>
+    <t>2019-04-30 09:31:00</t>
+  </si>
+  <si>
+    <t>2019-04-29 09:30:00</t>
+  </si>
+  <si>
+    <t>2019-04-26 14:44:00</t>
+  </si>
+  <si>
+    <t>2019-04-26 11:30:00</t>
+  </si>
+  <si>
+    <t>2019-04-25 11:02:00</t>
+  </si>
+  <si>
+    <t>2019-04-25 10:37:00</t>
+  </si>
+  <si>
+    <t>2019-04-25 10:02:00</t>
+  </si>
+  <si>
+    <t>2019-04-24 14:43:00</t>
+  </si>
+  <si>
+    <t>2019-04-24 14:06:00</t>
+  </si>
+  <si>
+    <t>2019-04-24 10:45:00</t>
+  </si>
+  <si>
+    <t>2019-04-23 14:23:00</t>
+  </si>
+  <si>
+    <t>2019-04-23 14:19:00</t>
+  </si>
+  <si>
+    <t>2019-04-23 10:42:00</t>
+  </si>
+  <si>
+    <t>2019-04-23 09:49:00</t>
   </si>
   <si>
     <t>2019-04-22 09:36:00</t>
   </si>
   <si>
-    <t>2019-04-22 09:35:00</t>
-  </si>
-  <si>
-    <t>2019-04-19 11:19:00</t>
-  </si>
-  <si>
-    <t>2019-04-19 10:58:00</t>
-  </si>
-  <si>
-    <t>2019-04-18 13:46:00</t>
-  </si>
-  <si>
-    <t>2019-04-18 10:04:00</t>
-  </si>
-  <si>
-    <t>2019-04-17 13:45:00</t>
-  </si>
-  <si>
-    <t>2019-04-17 13:23:00</t>
-  </si>
-  <si>
-    <t>2019-04-17 11:14:00</t>
-  </si>
-  <si>
-    <t>2019-04-17 10:16:00</t>
-  </si>
-  <si>
-    <t>2019-04-16 14:16:00</t>
-  </si>
-  <si>
-    <t>2019-04-16 10:56:00</t>
-  </si>
-  <si>
-    <t>2019-04-16 09:58:00</t>
-  </si>
-  <si>
-    <t>2019-04-15 13:44:00</t>
-  </si>
-  <si>
-    <t>2019-04-15 11:08:00</t>
+    <t>2019-04-19 14:02:00</t>
+  </si>
+  <si>
+    <t>2019-04-19 13:56:00</t>
+  </si>
+  <si>
+    <t>2019-04-19 11:07:00</t>
+  </si>
+  <si>
+    <t>2019-04-19 10:59:00</t>
+  </si>
+  <si>
+    <t>2019-04-19 09:44:00</t>
+  </si>
+  <si>
+    <t>2019-04-18 11:30:00</t>
+  </si>
+  <si>
+    <t>2019-04-18 10:42:00</t>
+  </si>
+  <si>
+    <t>2019-04-17 14:30:00</t>
+  </si>
+  <si>
+    <t>2019-04-17 13:31:00</t>
+  </si>
+  <si>
+    <t>2019-04-17 11:16:00</t>
+  </si>
+  <si>
+    <t>2019-04-16 14:39:00</t>
+  </si>
+  <si>
+    <t>2019-04-16 13:29:00</t>
+  </si>
+  <si>
+    <t>2019-04-15 13:43:00</t>
+  </si>
+  <si>
+    <t>2019-04-15 13:36:00</t>
+  </si>
+  <si>
+    <t>2019-04-15 13:17:00</t>
   </si>
   <si>
     <t>2019-04-15 10:55:00</t>
   </si>
   <si>
-    <t>2019-04-12 14:17:00</t>
-  </si>
-  <si>
-    <t>2019-04-12 13:35:00</t>
-  </si>
-  <si>
-    <t>2019-04-11 14:31:00</t>
-  </si>
-  <si>
-    <t>2019-04-11 13:51:00</t>
-  </si>
-  <si>
-    <t>2019-04-11 13:31:00</t>
-  </si>
-  <si>
-    <t>2019-04-11 10:51:00</t>
-  </si>
-  <si>
-    <t>2019-04-09 14:37:00</t>
-  </si>
-  <si>
-    <t>2019-04-09 14:17:00</t>
-  </si>
-  <si>
-    <t>2019-04-09 14:03:00</t>
-  </si>
-  <si>
-    <t>2019-04-09 10:40:00</t>
-  </si>
-  <si>
-    <t>2019-04-08 14:08:00</t>
-  </si>
-  <si>
-    <t>2019-04-08 13:30:00</t>
-  </si>
-  <si>
-    <t>2019-04-08 13:12:00</t>
-  </si>
-  <si>
-    <t>2019-04-08 10:57:00</t>
-  </si>
-  <si>
-    <t>2019-04-08 10:28:00</t>
-  </si>
-  <si>
-    <t>2019-04-08 10:16:00</t>
-  </si>
-  <si>
-    <t>2019-04-04 14:08:00</t>
-  </si>
-  <si>
-    <t>2019-04-04 13:58:00</t>
-  </si>
-  <si>
-    <t>2019-04-03 14:15:00</t>
-  </si>
-  <si>
-    <t>2019-04-03 13:52:00</t>
-  </si>
-  <si>
-    <t>2019-04-03 13:07:00</t>
-  </si>
-  <si>
-    <t>2019-04-03 09:42:00</t>
-  </si>
-  <si>
-    <t>2019-04-01 14:18:00</t>
-  </si>
-  <si>
-    <t>2019-04-01 09:45:00</t>
-  </si>
-  <si>
-    <t>2019-03-29 13:17:00</t>
-  </si>
-  <si>
-    <t>2019-03-29 11:27:00</t>
-  </si>
-  <si>
-    <t>2019-03-29 11:24:00</t>
-  </si>
-  <si>
-    <t>2019-03-29 10:53:00</t>
-  </si>
-  <si>
-    <t>2019-03-28 10:06:00</t>
-  </si>
-  <si>
-    <t>2019-03-27 14:30:00</t>
-  </si>
-  <si>
-    <t>2019-03-27 13:51:00</t>
-  </si>
-  <si>
-    <t>2019-03-27 13:36:00</t>
-  </si>
-  <si>
-    <t>2019-03-27 09:48:00</t>
-  </si>
-  <si>
-    <t>2019-03-26 13:44:00</t>
-  </si>
-  <si>
-    <t>2019-03-26 10:07:00</t>
-  </si>
-  <si>
-    <t>2019-03-22 14:17:00</t>
-  </si>
-  <si>
-    <t>2019-03-22 10:45:00</t>
-  </si>
-  <si>
-    <t>2019-03-20 11:00:00</t>
-  </si>
-  <si>
-    <t>2019-03-20 10:34:00</t>
-  </si>
-  <si>
-    <t>2019-03-19 14:37:00</t>
-  </si>
-  <si>
-    <t>2019-03-19 10:24:00</t>
-  </si>
-  <si>
-    <t>2019-03-18 13:03:00</t>
-  </si>
-  <si>
-    <t>2019-03-18 10:51:00</t>
-  </si>
-  <si>
-    <t>2019-03-18 10:28:00</t>
-  </si>
-  <si>
-    <t>2019-03-15 11:16:00</t>
-  </si>
-  <si>
-    <t>2019-03-15 11:02:00</t>
-  </si>
-  <si>
-    <t>2019-03-14 13:44:00</t>
-  </si>
-  <si>
-    <t>2019-03-13 14:15:00</t>
-  </si>
-  <si>
-    <t>2019-03-13 10:17:00</t>
-  </si>
-  <si>
-    <t>2019-03-12 14:35:00</t>
-  </si>
-  <si>
-    <t>2019-03-12 13:29:00</t>
-  </si>
-  <si>
-    <t>2019-03-11 11:20:00</t>
-  </si>
-  <si>
-    <t>2019-03-11 10:21:00</t>
-  </si>
-  <si>
-    <t>2019-03-07 10:36:00</t>
-  </si>
-  <si>
-    <t>2019-03-06 14:21:00</t>
-  </si>
-  <si>
-    <t>2019-03-06 10:50:00</t>
-  </si>
-  <si>
-    <t>2019-03-05 14:50:00</t>
-  </si>
-  <si>
-    <t>2019-03-05 13:26:00</t>
-  </si>
-  <si>
-    <t>2019-03-05 10:44:00</t>
-  </si>
-  <si>
-    <t>2019-03-04 14:43:00</t>
-  </si>
-  <si>
-    <t>2019-03-04 11:20:00</t>
-  </si>
-  <si>
-    <t>2019-03-01 10:38:00</t>
-  </si>
-  <si>
-    <t>2019-03-01 10:21:00</t>
-  </si>
-  <si>
-    <t>2019-03-01 10:07:00</t>
-  </si>
-  <si>
-    <t>2019-03-01 09:38:00</t>
-  </si>
-  <si>
-    <t>2019-03-01 09:31:00</t>
-  </si>
-  <si>
-    <t>2019-02-28 14:26:00</t>
-  </si>
-  <si>
-    <t>2019-02-28 13:12:00</t>
-  </si>
-  <si>
-    <t>2019-02-27 13:57:00</t>
-  </si>
-  <si>
-    <t>2019-02-27 10:44:00</t>
-  </si>
-  <si>
-    <t>2019-02-27 10:04:00</t>
-  </si>
-  <si>
-    <t>2019-02-26 14:20:00</t>
-  </si>
-  <si>
-    <t>2019-02-26 10:05:00</t>
-  </si>
-  <si>
-    <t>2019-02-26 09:57:00</t>
-  </si>
-  <si>
-    <t>2019-02-25 14:51:00</t>
-  </si>
-  <si>
-    <t>2019-02-22 14:03:00</t>
-  </si>
-  <si>
-    <t>2019-02-22 13:22:00</t>
-  </si>
-  <si>
-    <t>2019-02-21 14:36:00</t>
-  </si>
-  <si>
-    <t>2019-02-21 11:11:00</t>
-  </si>
-  <si>
-    <t>2019-02-21 10:56:00</t>
-  </si>
-  <si>
-    <t>2019-02-19 14:16:00</t>
-  </si>
-  <si>
-    <t>2019-02-19 13:45:00</t>
-  </si>
-  <si>
-    <t>2019-02-19 10:27:00</t>
-  </si>
-  <si>
-    <t>2019-02-18 11:06:00</t>
-  </si>
-  <si>
-    <t>2019-02-18 10:33:00</t>
-  </si>
-  <si>
-    <t>2019-02-18 10:17:00</t>
-  </si>
-  <si>
-    <t>2019-02-15 13:31:00</t>
-  </si>
-  <si>
-    <t>2019-02-15 11:11:00</t>
-  </si>
-  <si>
-    <t>2019-02-14 13:58:00</t>
-  </si>
-  <si>
-    <t>2019-02-14 13:21:00</t>
-  </si>
-  <si>
-    <t>2019-02-14 10:25:00</t>
-  </si>
-  <si>
-    <t>2019-02-13 14:05:00</t>
-  </si>
-  <si>
-    <t>2019-02-13 11:08:00</t>
-  </si>
-  <si>
-    <t>2019-02-13 10:38:00</t>
-  </si>
-  <si>
-    <t>2019-02-12 13:54:00</t>
-  </si>
-  <si>
-    <t>2019-02-12 13:01:00</t>
-  </si>
-  <si>
-    <t>2019-02-12 11:18:00</t>
-  </si>
-  <si>
-    <t>2019-02-11 13:58:00</t>
-  </si>
-  <si>
-    <t>2019-02-11 13:56:00</t>
-  </si>
-  <si>
-    <t>2019-02-11 13:24:00</t>
-  </si>
-  <si>
-    <t>2019-02-01 14:47:00</t>
+    <t>2019-04-15 10:54:00</t>
+  </si>
+  <si>
+    <t>2019-04-15 10:44:00</t>
+  </si>
+  <si>
+    <t>2019-04-15 09:35:00</t>
+  </si>
+  <si>
+    <t>2019-04-12 13:41:00</t>
+  </si>
+  <si>
+    <t>2019-04-12 10:58:00</t>
+  </si>
+  <si>
+    <t>2019-04-11 14:01:00</t>
+  </si>
+  <si>
+    <t>2019-04-11 13:45:00</t>
+  </si>
+  <si>
+    <t>2019-04-11 10:40:00</t>
+  </si>
+  <si>
+    <t>2019-04-11 10:11:00</t>
+  </si>
+  <si>
+    <t>2019-04-11 10:10:00</t>
+  </si>
+  <si>
+    <t>2019-04-10 14:48:00</t>
+  </si>
+  <si>
+    <t>2019-04-10 10:59:00</t>
+  </si>
+  <si>
+    <t>2019-04-10 10:44:00</t>
+  </si>
+  <si>
+    <t>2019-04-10 10:22:00</t>
+  </si>
+  <si>
+    <t>2019-04-09 14:46:00</t>
+  </si>
+  <si>
+    <t>2019-04-04 14:20:00</t>
+  </si>
+  <si>
+    <t>2019-04-04 10:55:00</t>
+  </si>
+  <si>
+    <t>2019-04-03 14:27:00</t>
+  </si>
+  <si>
+    <t>2019-04-03 10:41:00</t>
+  </si>
+  <si>
+    <t>2019-04-02 14:35:00</t>
+  </si>
+  <si>
+    <t>2019-03-29 14:15:00</t>
+  </si>
+  <si>
+    <t>2019-03-29 11:09:00</t>
+  </si>
+  <si>
+    <t>2019-03-29 11:08:00</t>
+  </si>
+  <si>
+    <t>2019-03-29 11:07:00</t>
+  </si>
+  <si>
+    <t>2019-03-28 14:31:00</t>
+  </si>
+  <si>
+    <t>2019-03-28 14:22:00</t>
+  </si>
+  <si>
+    <t>2019-03-28 13:05:00</t>
+  </si>
+  <si>
+    <t>2019-03-28 11:18:00</t>
+  </si>
+  <si>
+    <t>2019-03-28 11:15:00</t>
+  </si>
+  <si>
+    <t>2019-03-27 14:03:00</t>
+  </si>
+  <si>
+    <t>2019-03-27 09:45:00</t>
+  </si>
+  <si>
+    <t>2019-03-25 14:00:00</t>
+  </si>
+  <si>
+    <t>2019-03-25 13:23:00</t>
+  </si>
+  <si>
+    <t>2019-03-25 10:29:00</t>
+  </si>
+  <si>
+    <t>2019-03-22 13:11:00</t>
+  </si>
+  <si>
+    <t>2019-03-22 10:55:00</t>
+  </si>
+  <si>
+    <t>2019-03-21 14:13:00</t>
+  </si>
+  <si>
+    <t>2019-03-21 11:05:00</t>
+  </si>
+  <si>
+    <t>2019-03-21 10:57:00</t>
+  </si>
+  <si>
+    <t>2019-03-20 11:26:00</t>
+  </si>
+  <si>
+    <t>2019-03-20 10:37:00</t>
+  </si>
+  <si>
+    <t>2019-03-20 09:50:00</t>
+  </si>
+  <si>
+    <t>2019-03-20 09:38:00</t>
+  </si>
+  <si>
+    <t>2019-03-19 13:59:00</t>
+  </si>
+  <si>
+    <t>2019-03-19 09:33:00</t>
+  </si>
+  <si>
+    <t>2019-03-18 10:07:00</t>
+  </si>
+  <si>
+    <t>2019-03-15 14:45:00</t>
+  </si>
+  <si>
+    <t>2019-03-15 13:29:00</t>
+  </si>
+  <si>
+    <t>2019-03-15 13:06:00</t>
+  </si>
+  <si>
+    <t>2019-03-15 09:51:00</t>
+  </si>
+  <si>
+    <t>2019-03-14 14:16:00</t>
+  </si>
+  <si>
+    <t>2019-03-14 13:31:00</t>
+  </si>
+  <si>
+    <t>2019-03-14 13:26:00</t>
+  </si>
+  <si>
+    <t>2019-03-14 10:05:00</t>
+  </si>
+  <si>
+    <t>2019-03-14 09:54:00</t>
+  </si>
+  <si>
+    <t>2019-03-13 14:31:00</t>
+  </si>
+  <si>
+    <t>2019-03-13 14:06:00</t>
+  </si>
+  <si>
+    <t>2019-03-13 13:45:00</t>
+  </si>
+  <si>
+    <t>2019-03-13 09:45:00</t>
+  </si>
+  <si>
+    <t>2019-03-12 11:21:00</t>
+  </si>
+  <si>
+    <t>2019-03-12 10:08:00</t>
+  </si>
+  <si>
+    <t>2019-03-11 14:57:00</t>
+  </si>
+  <si>
+    <t>2019-03-11 14:14:00</t>
+  </si>
+  <si>
+    <t>2019-03-11 11:25:00</t>
+  </si>
+  <si>
+    <t>2019-03-11 10:28:00</t>
+  </si>
+  <si>
+    <t>2019-03-07 13:01:00</t>
+  </si>
+  <si>
+    <t>2019-03-07 09:38:00</t>
+  </si>
+  <si>
+    <t>2019-03-06 14:29:00</t>
+  </si>
+  <si>
+    <t>2019-03-06 14:08:00</t>
+  </si>
+  <si>
+    <t>2019-03-06 11:04:00</t>
+  </si>
+  <si>
+    <t>2019-03-06 10:54:00</t>
+  </si>
+  <si>
+    <t>2019-03-05 14:13:00</t>
+  </si>
+  <si>
+    <t>2019-03-05 10:43:00</t>
+  </si>
+  <si>
+    <t>2019-03-04 11:01:00</t>
+  </si>
+  <si>
+    <t>2019-03-04 10:35:00</t>
+  </si>
+  <si>
+    <t>2019-03-01 13:01:00</t>
+  </si>
+  <si>
+    <t>2019-02-28 13:56:00</t>
+  </si>
+  <si>
+    <t>2019-02-28 13:42:00</t>
+  </si>
+  <si>
+    <t>2019-02-27 14:17:00</t>
+  </si>
+  <si>
+    <t>2019-02-27 13:23:00</t>
+  </si>
+  <si>
+    <t>2019-02-26 13:16:00</t>
+  </si>
+  <si>
+    <t>2019-02-25 14:13:00</t>
+  </si>
+  <si>
+    <t>2019-02-25 11:00:00</t>
+  </si>
+  <si>
+    <t>2019-02-25 09:41:00</t>
+  </si>
+  <si>
+    <t>2019-02-21 14:38:00</t>
+  </si>
+  <si>
+    <t>2019-02-21 13:23:00</t>
+  </si>
+  <si>
+    <t>2019-02-21 11:26:00</t>
+  </si>
+  <si>
+    <t>2019-02-21 10:29:00</t>
+  </si>
+  <si>
+    <t>2019-02-21 09:57:00</t>
+  </si>
+  <si>
+    <t>2019-02-19 14:30:00</t>
+  </si>
+  <si>
+    <t>2019-02-19 11:15:00</t>
+  </si>
+  <si>
+    <t>2019-02-19 10:11:00</t>
+  </si>
+  <si>
+    <t>2019-02-18 13:46:00</t>
+  </si>
+  <si>
+    <t>2019-02-18 13:19:00</t>
+  </si>
+  <si>
+    <t>2019-02-15 13:57:00</t>
+  </si>
+  <si>
+    <t>2019-02-15 11:13:00</t>
+  </si>
+  <si>
+    <t>2019-02-15 10:53:00</t>
+  </si>
+  <si>
+    <t>2019-02-15 10:26:00</t>
+  </si>
+  <si>
+    <t>2019-02-14 14:51:00</t>
+  </si>
+  <si>
+    <t>2019-02-14 13:39:00</t>
+  </si>
+  <si>
+    <t>2019-02-14 13:04:00</t>
+  </si>
+  <si>
+    <t>2019-02-14 10:33:00</t>
+  </si>
+  <si>
+    <t>2019-02-14 10:23:00</t>
+  </si>
+  <si>
+    <t>2019-02-13 14:56:00</t>
+  </si>
+  <si>
+    <t>2019-02-13 10:02:00</t>
+  </si>
+  <si>
+    <t>2019-02-12 14:40:00</t>
+  </si>
+  <si>
+    <t>2019-02-12 14:30:00</t>
+  </si>
+  <si>
+    <t>2019-02-12 13:38:00</t>
+  </si>
+  <si>
+    <t>2019-02-12 09:34:00</t>
+  </si>
+  <si>
+    <t>2019-02-11 10:04:00</t>
+  </si>
+  <si>
+    <t>2019-02-11 09:39:00</t>
+  </si>
+  <si>
+    <t>2019-02-11 09:30:00</t>
   </si>
   <si>
     <t>2019-02-01 14:25:00</t>
   </si>
   <si>
-    <t>2019-02-01 13:41:00</t>
-  </si>
-  <si>
-    <t>2019-02-01 10:24:00</t>
-  </si>
-  <si>
-    <t>2019-01-30 13:39:00</t>
-  </si>
-  <si>
-    <t>2019-01-30 10:19:00</t>
-  </si>
-  <si>
-    <t>2019-01-29 13:51:00</t>
-  </si>
-  <si>
-    <t>2019-01-29 13:39:00</t>
-  </si>
-  <si>
-    <t>2019-01-29 10:22:00</t>
-  </si>
-  <si>
-    <t>2019-01-29 09:31:00</t>
-  </si>
-  <si>
-    <t>2019-01-28 14:17:00</t>
-  </si>
-  <si>
-    <t>2019-01-28 10:01:00</t>
+    <t>2019-02-01 14:23:00</t>
+  </si>
+  <si>
+    <t>2019-02-01 14:08:00</t>
+  </si>
+  <si>
+    <t>2019-02-01 09:56:00</t>
+  </si>
+  <si>
+    <t>2019-01-31 14:52:00</t>
+  </si>
+  <si>
+    <t>2019-01-30 15:00:00</t>
+  </si>
+  <si>
+    <t>2019-01-30 11:09:00</t>
+  </si>
+  <si>
+    <t>2019-01-30 11:02:00</t>
+  </si>
+  <si>
+    <t>2019-01-29 14:55:00</t>
+  </si>
+  <si>
+    <t>2019-01-29 14:43:00</t>
+  </si>
+  <si>
+    <t>2019-01-29 10:45:00</t>
+  </si>
+  <si>
+    <t>2019-01-28 13:01:00</t>
+  </si>
+  <si>
+    <t>2019-01-28 11:12:00</t>
+  </si>
+  <si>
+    <t>2019-01-28 09:34:00</t>
   </si>
   <si>
     <t>2019-01-25 13:54:00</t>
   </si>
   <si>
-    <t>2019-01-25 11:00:00</t>
-  </si>
-  <si>
-    <t>2019-01-23 14:19:00</t>
-  </si>
-  <si>
-    <t>2019-01-23 13:14:00</t>
-  </si>
-  <si>
-    <t>2019-01-23 10:57:00</t>
-  </si>
-  <si>
-    <t>2019-01-22 14:14:00</t>
-  </si>
-  <si>
-    <t>2019-01-22 13:12:00</t>
-  </si>
-  <si>
-    <t>2019-01-21 14:25:00</t>
-  </si>
-  <si>
-    <t>2019-01-18 13:28:00</t>
-  </si>
-  <si>
-    <t>2019-01-18 11:16:00</t>
-  </si>
-  <si>
-    <t>2019-01-18 10:01:00</t>
-  </si>
-  <si>
-    <t>2019-01-18 09:31:00</t>
-  </si>
-  <si>
-    <t>2019-01-17 14:57:00</t>
-  </si>
-  <si>
-    <t>2019-01-17 10:06:00</t>
-  </si>
-  <si>
-    <t>2019-01-17 09:48:00</t>
-  </si>
-  <si>
-    <t>2019-01-17 09:30:00</t>
-  </si>
-  <si>
-    <t>2019-01-16 13:01:00</t>
-  </si>
-  <si>
-    <t>2019-01-16 09:44:00</t>
-  </si>
-  <si>
-    <t>2019-01-15 11:30:00</t>
-  </si>
-  <si>
-    <t>2019-01-15 09:31:00</t>
-  </si>
-  <si>
-    <t>2019-01-14 13:06:00</t>
-  </si>
-  <si>
-    <t>2019-01-14 10:48:00</t>
-  </si>
-  <si>
-    <t>2019-01-14 10:28:00</t>
-  </si>
-  <si>
-    <t>2019-01-14 09:39:00</t>
-  </si>
-  <si>
-    <t>2019-01-14 09:30:00</t>
-  </si>
-  <si>
-    <t>2019-01-11 14:56:00</t>
-  </si>
-  <si>
-    <t>2019-01-11 13:54:00</t>
-  </si>
-  <si>
-    <t>2019-01-11 10:54:00</t>
-  </si>
-  <si>
-    <t>2019-01-10 13:11:00</t>
-  </si>
-  <si>
-    <t>2019-01-09 10:18:00</t>
-  </si>
-  <si>
-    <t>2019-01-08 13:17:00</t>
-  </si>
-  <si>
-    <t>2019-01-08 10:03:00</t>
+    <t>2019-01-25 10:36:00</t>
+  </si>
+  <si>
+    <t>2019-01-25 10:24:00</t>
+  </si>
+  <si>
+    <t>2019-01-24 14:32:00</t>
+  </si>
+  <si>
+    <t>2019-01-24 10:17:00</t>
+  </si>
+  <si>
+    <t>2019-01-23 14:00:00</t>
+  </si>
+  <si>
+    <t>2019-01-23 13:38:00</t>
+  </si>
+  <si>
+    <t>2019-01-23 11:27:00</t>
+  </si>
+  <si>
+    <t>2019-01-22 14:21:00</t>
+  </si>
+  <si>
+    <t>2019-01-22 14:13:00</t>
+  </si>
+  <si>
+    <t>2019-01-22 10:47:00</t>
+  </si>
+  <si>
+    <t>2019-01-21 13:48:00</t>
+  </si>
+  <si>
+    <t>2019-01-18 14:54:00</t>
+  </si>
+  <si>
+    <t>2019-01-18 11:24:00</t>
+  </si>
+  <si>
+    <t>2019-01-18 11:20:00</t>
+  </si>
+  <si>
+    <t>2019-01-18 10:14:00</t>
+  </si>
+  <si>
+    <t>2019-01-17 13:32:00</t>
+  </si>
+  <si>
+    <t>2019-01-17 13:01:00</t>
+  </si>
+  <si>
+    <t>2019-01-17 10:36:00</t>
+  </si>
+  <si>
+    <t>2019-01-16 09:48:00</t>
+  </si>
+  <si>
+    <t>2019-01-16 09:35:00</t>
+  </si>
+  <si>
+    <t>2019-01-15 10:02:00</t>
+  </si>
+  <si>
+    <t>2019-01-15 09:49:00</t>
+  </si>
+  <si>
+    <t>2019-01-11 13:16:00</t>
+  </si>
+  <si>
+    <t>2019-01-10 14:46:00</t>
+  </si>
+  <si>
+    <t>2019-01-10 13:39:00</t>
+  </si>
+  <si>
+    <t>2019-01-10 10:39:00</t>
+  </si>
+  <si>
+    <t>2019-01-10 10:01:00</t>
+  </si>
+  <si>
+    <t>2019-01-10 09:32:00</t>
+  </si>
+  <si>
+    <t>2019-01-09 15:00:00</t>
+  </si>
+  <si>
+    <t>2019-01-09 13:48:00</t>
+  </si>
+  <si>
+    <t>2019-01-09 13:01:00</t>
+  </si>
+  <si>
+    <t>2019-01-09 10:30:00</t>
+  </si>
+  <si>
+    <t>2019-01-09 09:48:00</t>
+  </si>
+  <si>
+    <t>2019-01-08 14:32:00</t>
+  </si>
+  <si>
+    <t>2019-01-08 14:17:00</t>
+  </si>
+  <si>
+    <t>2019-01-08 13:08:00</t>
+  </si>
+  <si>
+    <t>2019-01-08 10:51:00</t>
+  </si>
+  <si>
+    <t>2019-01-07 14:33:00</t>
   </si>
   <si>
     <t>2019-01-07 14:27:00</t>
@@ -724,142 +757,121 @@
     <t>2019-01-07 13:34:00</t>
   </si>
   <si>
-    <t>2019-01-07 10:45:00</t>
-  </si>
-  <si>
-    <t>2019-01-04 13:52:00</t>
-  </si>
-  <si>
-    <t>2019-01-04 10:11:00</t>
-  </si>
-  <si>
-    <t>2019-01-03 14:54:00</t>
-  </si>
-  <si>
-    <t>2019-01-03 14:42:00</t>
-  </si>
-  <si>
-    <t>2019-01-03 14:39:00</t>
-  </si>
-  <si>
-    <t>2019-01-03 14:35:00</t>
-  </si>
-  <si>
-    <t>2019-01-03 14:12:00</t>
-  </si>
-  <si>
-    <t>2019-01-03 13:37:00</t>
-  </si>
-  <si>
-    <t>2019-01-02 13:27:00</t>
-  </si>
-  <si>
-    <t>2019-01-02 11:07:00</t>
-  </si>
-  <si>
-    <t>2019-01-02 10:51:00</t>
-  </si>
-  <si>
-    <t>2018-12-28 13:39:00</t>
-  </si>
-  <si>
-    <t>2018-12-28 11:29:00</t>
-  </si>
-  <si>
-    <t>2018-12-28 10:57:00</t>
-  </si>
-  <si>
-    <t>2018-12-27 14:23:00</t>
-  </si>
-  <si>
-    <t>2018-12-27 11:21:00</t>
-  </si>
-  <si>
-    <t>2018-12-27 10:00:00</t>
-  </si>
-  <si>
-    <t>2018-12-27 09:36:00</t>
-  </si>
-  <si>
-    <t>2018-12-25 14:59:00</t>
-  </si>
-  <si>
-    <t>2018-12-25 13:13:00</t>
-  </si>
-  <si>
-    <t>2018-12-25 11:22:00</t>
-  </si>
-  <si>
-    <t>2018-12-25 09:31:00</t>
-  </si>
-  <si>
-    <t>2018-12-24 13:04:00</t>
-  </si>
-  <si>
-    <t>2018-12-24 11:22:00</t>
-  </si>
-  <si>
-    <t>2018-12-24 09:58:00</t>
-  </si>
-  <si>
-    <t>2018-12-24 09:53:00</t>
-  </si>
-  <si>
-    <t>2018-12-21 13:28:00</t>
-  </si>
-  <si>
-    <t>2018-12-21 11:01:00</t>
-  </si>
-  <si>
-    <t>2018-12-20 13:55:00</t>
-  </si>
-  <si>
-    <t>2018-12-19 14:24:00</t>
+    <t>2019-01-04 14:28:00</t>
+  </si>
+  <si>
+    <t>2019-01-04 13:15:00</t>
+  </si>
+  <si>
+    <t>2019-01-04 10:44:00</t>
+  </si>
+  <si>
+    <t>2019-01-04 10:42:00</t>
+  </si>
+  <si>
+    <t>2019-01-03 14:24:00</t>
+  </si>
+  <si>
+    <t>2019-01-03 10:20:00</t>
+  </si>
+  <si>
+    <t>2019-01-03 09:59:00</t>
+  </si>
+  <si>
+    <t>2019-01-02 14:20:00</t>
+  </si>
+  <si>
+    <t>2019-01-02 11:00:00</t>
+  </si>
+  <si>
+    <t>2018-12-26 14:01:00</t>
+  </si>
+  <si>
+    <t>2018-12-26 13:58:00</t>
+  </si>
+  <si>
+    <t>2018-12-26 13:46:00</t>
+  </si>
+  <si>
+    <t>2018-12-26 13:20:00</t>
+  </si>
+  <si>
+    <t>2018-12-26 10:56:00</t>
+  </si>
+  <si>
+    <t>2018-12-25 14:52:00</t>
+  </si>
+  <si>
+    <t>2018-12-25 14:11:00</t>
+  </si>
+  <si>
+    <t>2018-12-25 11:15:00</t>
+  </si>
+  <si>
+    <t>2018-12-21 11:21:00</t>
   </si>
   <si>
     <t>2018-12-19 14:22:00</t>
   </si>
   <si>
-    <t>2018-12-19 09:49:00</t>
-  </si>
-  <si>
-    <t>2018-12-19 09:45:00</t>
+    <t>2018-12-19 14:11:00</t>
+  </si>
+  <si>
+    <t>2018-12-19 13:38:00</t>
+  </si>
+  <si>
+    <t>2018-12-19 10:37:00</t>
+  </si>
+  <si>
+    <t>2018-12-19 10:01:00</t>
+  </si>
+  <si>
+    <t>2018-12-19 09:59:00</t>
+  </si>
+  <si>
+    <t>2018-12-17 13:23:00</t>
   </si>
   <si>
     <t>2018-12-14 14:27:00</t>
   </si>
   <si>
-    <t>2018-12-14 13:53:00</t>
-  </si>
-  <si>
-    <t>2018-12-14 13:22:00</t>
+    <t>2018-12-14 14:00:00</t>
+  </si>
+  <si>
+    <t>2018-12-14 13:44:00</t>
+  </si>
+  <si>
+    <t>2018-12-14 13:19:00</t>
+  </si>
+  <si>
+    <t>2018-12-14 09:31:00</t>
+  </si>
+  <si>
+    <t>2018-12-13 14:12:00</t>
+  </si>
+  <si>
+    <t>2018-12-13 14:08:00</t>
+  </si>
+  <si>
+    <t>2018-12-13 13:47:00</t>
+  </si>
+  <si>
+    <t>2018-12-13 13:17:00</t>
   </si>
   <si>
     <t>2018-12-13 10:46:00</t>
   </si>
   <si>
-    <t>2018-12-13 10:42:00</t>
-  </si>
-  <si>
-    <t>2018-12-13 10:30:00</t>
-  </si>
-  <si>
-    <t>2018-12-13 10:05:00</t>
-  </si>
-  <si>
-    <t>2018-12-13 09:53:00</t>
-  </si>
-  <si>
-    <t>2018-12-11 14:29:00</t>
-  </si>
-  <si>
-    <t>2018-12-11 14:28:00</t>
-  </si>
-  <si>
-    <t>2018-12-10 14:03:00</t>
-  </si>
-  <si>
-    <t>2018-12-10 10:20:00</t>
+    <t>2018-12-12 14:47:00</t>
+  </si>
+  <si>
+    <t>2018-12-12 11:19:00</t>
+  </si>
+  <si>
+    <t>2018-12-10 13:05:00</t>
+  </si>
+  <si>
+    <t>2018-12-10 10:14:00</t>
   </si>
   <si>
     <t>2018-12-07 14:50:00</t>
@@ -868,19 +880,16 @@
     <t>2018-12-07 13:47:00</t>
   </si>
   <si>
-    <t>2018-12-07 13:35:00</t>
-  </si>
-  <si>
-    <t>2018-12-07 10:50:00</t>
-  </si>
-  <si>
-    <t>2018-12-07 10:48:00</t>
-  </si>
-  <si>
-    <t>2018-12-07 10:26:00</t>
-  </si>
-  <si>
     <t>2018-12-06 14:51:00</t>
+  </si>
+  <si>
+    <t>2018-12-06 14:39:00</t>
+  </si>
+  <si>
+    <t>2018-12-06 13:03:00</t>
+  </si>
+  <si>
+    <t>2018-12-06 09:55:00</t>
   </si>
 </sst>
 </file>
@@ -1238,7 +1247,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D286"/>
+  <dimension ref="A1:D289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1263,13 +1272,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>6.54</v>
+        <v>6.63</v>
       </c>
       <c r="C2">
-        <v>6.520752813157332</v>
+        <v>6.663783501590943</v>
       </c>
       <c r="D2">
-        <v>-0.01924718684266846</v>
+        <v>0.03378350159094268</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1277,13 +1286,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>6.59</v>
+        <v>6.39</v>
       </c>
       <c r="C3">
-        <v>6.502198902819561</v>
+        <v>6.416800346807046</v>
       </c>
       <c r="D3">
-        <v>-0.0878010971804386</v>
+        <v>0.02680034680704679</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1294,10 +1303,10 @@
         <v>6.39</v>
       </c>
       <c r="C4">
-        <v>6.398919159355014</v>
+        <v>6.404004523079673</v>
       </c>
       <c r="D4">
-        <v>0.008919159355014195</v>
+        <v>0.0140045230796737</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1305,13 +1314,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>6.4</v>
+        <v>6.69</v>
       </c>
       <c r="C5">
-        <v>6.422032025143949</v>
+        <v>6.603522039149111</v>
       </c>
       <c r="D5">
-        <v>0.02203202514394853</v>
+        <v>-0.08647796085088899</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1319,13 +1328,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>6.35</v>
+        <v>6.64</v>
       </c>
       <c r="C6">
-        <v>6.334108685290314</v>
+        <v>6.536339651072399</v>
       </c>
       <c r="D6">
-        <v>-0.01589131470968574</v>
+        <v>-0.1036603489276011</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1333,13 +1342,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>6.64</v>
+        <v>6.85</v>
       </c>
       <c r="C7">
-        <v>6.560952647622292</v>
+        <v>6.658177395379217</v>
       </c>
       <c r="D7">
-        <v>-0.07904735237770755</v>
+        <v>-0.1918226046207829</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1347,13 +1356,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>6.55</v>
+        <v>6.9</v>
       </c>
       <c r="C8">
-        <v>6.55515515443097</v>
+        <v>6.728339863119014</v>
       </c>
       <c r="D8">
-        <v>0.005155154430970477</v>
+        <v>-0.1716601368809867</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1361,13 +1370,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>6.62</v>
+        <v>6.94</v>
       </c>
       <c r="C9">
-        <v>6.584714975240294</v>
+        <v>6.757356886605316</v>
       </c>
       <c r="D9">
-        <v>-0.0352850247597063</v>
+        <v>-0.1826431133946844</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1375,13 +1384,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>7.08</v>
+        <v>6.99</v>
       </c>
       <c r="C10">
-        <v>6.986760885823234</v>
+        <v>6.77375183180009</v>
       </c>
       <c r="D10">
-        <v>-0.09323911417676634</v>
+        <v>-0.2162481681999102</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1389,13 +1398,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>7.22</v>
+        <v>7.02</v>
       </c>
       <c r="C11">
-        <v>7.211940990893117</v>
+        <v>6.777096368462384</v>
       </c>
       <c r="D11">
-        <v>-0.00805900910688262</v>
+        <v>-0.2429036315376161</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1403,13 +1412,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>7.26</v>
+        <v>7.06</v>
       </c>
       <c r="C12">
-        <v>7.235888609736818</v>
+        <v>6.989188108954182</v>
       </c>
       <c r="D12">
-        <v>-0.02411139026318132</v>
+        <v>-0.07081189104581753</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1417,13 +1426,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>7.13</v>
+        <v>7.06</v>
       </c>
       <c r="C13">
-        <v>7.327883830912647</v>
+        <v>6.990088592265697</v>
       </c>
       <c r="D13">
-        <v>0.1978838309126472</v>
+        <v>-0.0699114077343026</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1431,13 +1440,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>7.06</v>
+        <v>7.09</v>
       </c>
       <c r="C14">
-        <v>7.28352270965757</v>
+        <v>7.075560606707042</v>
       </c>
       <c r="D14">
-        <v>0.22352270965757</v>
+        <v>-0.01443939329295763</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1445,13 +1454,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>7.17</v>
+        <v>7.18</v>
       </c>
       <c r="C15">
-        <v>7.336921416096835</v>
+        <v>7.188068409109509</v>
       </c>
       <c r="D15">
-        <v>0.1669214160968355</v>
+        <v>0.008068409109509567</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1459,13 +1468,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>6.86</v>
+        <v>7.15</v>
       </c>
       <c r="C16">
-        <v>7.248589864710294</v>
+        <v>7.192486479081746</v>
       </c>
       <c r="D16">
-        <v>0.3885898647102932</v>
+        <v>0.04248647908174608</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1473,13 +1482,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>6.86</v>
+        <v>7.1</v>
       </c>
       <c r="C17">
-        <v>7.252520442658103</v>
+        <v>7.343787908936533</v>
       </c>
       <c r="D17">
-        <v>0.3925204426581024</v>
+        <v>0.2437879089365333</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1487,13 +1496,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>6.93</v>
+        <v>7.18</v>
       </c>
       <c r="C18">
-        <v>7.32897308300768</v>
+        <v>7.349319160147904</v>
       </c>
       <c r="D18">
-        <v>0.3989730830076805</v>
+        <v>0.1693191601479045</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1501,13 +1510,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>6.87</v>
+        <v>7.08</v>
       </c>
       <c r="C19">
-        <v>7.258572289703666</v>
+        <v>7.269567759103757</v>
       </c>
       <c r="D19">
-        <v>0.3885722897036663</v>
+        <v>0.189567759103757</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1515,13 +1524,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="C20">
-        <v>7.430006766716815</v>
+        <v>7.299941166754398</v>
       </c>
       <c r="D20">
-        <v>0.430006766716815</v>
+        <v>0.3999411667543979</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1529,13 +1538,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>6.95</v>
+        <v>6.98</v>
       </c>
       <c r="C21">
-        <v>7.402707320884003</v>
+        <v>7.425265001337588</v>
       </c>
       <c r="D21">
-        <v>0.4527073208840031</v>
+        <v>0.4452650013375878</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1543,13 +1552,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>6.94</v>
+        <v>7.04</v>
       </c>
       <c r="C22">
-        <v>7.422649394190671</v>
+        <v>7.52250406656749</v>
       </c>
       <c r="D22">
-        <v>0.4826493941906707</v>
+        <v>0.4825040665674898</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1557,13 +1566,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>6.95</v>
+        <v>7.09</v>
       </c>
       <c r="C23">
-        <v>7.428525329472459</v>
+        <v>7.470220126433348</v>
       </c>
       <c r="D23">
-        <v>0.4785253294724585</v>
+        <v>0.3802201264333478</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1571,13 +1580,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>7.04</v>
+        <v>7.21</v>
       </c>
       <c r="C24">
-        <v>7.542383665219042</v>
+        <v>7.53045731200531</v>
       </c>
       <c r="D24">
-        <v>0.5023836652190417</v>
+        <v>0.3204573120053098</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1585,13 +1594,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>7.07</v>
+        <v>7.24</v>
       </c>
       <c r="C25">
-        <v>7.534908913482687</v>
+        <v>7.470545519981806</v>
       </c>
       <c r="D25">
-        <v>0.4649089134826863</v>
+        <v>0.2305455199818054</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1599,13 +1608,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>7.14</v>
+        <v>7.15</v>
       </c>
       <c r="C26">
-        <v>7.58830564021806</v>
+        <v>7.394262806659392</v>
       </c>
       <c r="D26">
-        <v>0.4483056402180603</v>
+        <v>0.2442628066593917</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1613,13 +1622,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>7.28</v>
+        <v>7.15</v>
       </c>
       <c r="C27">
-        <v>7.567263526041616</v>
+        <v>7.327324885693812</v>
       </c>
       <c r="D27">
-        <v>0.2872635260416159</v>
+        <v>0.1773248856938112</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1627,13 +1636,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>7.2</v>
+        <v>6.95</v>
       </c>
       <c r="C28">
-        <v>7.531662191715629</v>
+        <v>7.21801936664387</v>
       </c>
       <c r="D28">
-        <v>0.3316621917156288</v>
+        <v>0.2680193666438697</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1641,13 +1650,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>7.25</v>
+        <v>6.95</v>
       </c>
       <c r="C29">
-        <v>7.576844284311614</v>
+        <v>7.177110414615385</v>
       </c>
       <c r="D29">
-        <v>0.3268442843116137</v>
+        <v>0.2271104146153853</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1655,13 +1664,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>7.07</v>
+        <v>7.58</v>
       </c>
       <c r="C30">
-        <v>7.272582728853711</v>
+        <v>7.462158063665904</v>
       </c>
       <c r="D30">
-        <v>0.2025827288537112</v>
+        <v>-0.1178419363340959</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1669,13 +1678,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>6.99</v>
+        <v>7.72</v>
       </c>
       <c r="C31">
-        <v>7.221543198823577</v>
+        <v>7.583911972380233</v>
       </c>
       <c r="D31">
-        <v>0.2315431988235765</v>
+        <v>-0.1360880276197669</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1683,13 +1692,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>7.37</v>
+        <v>7.7</v>
       </c>
       <c r="C32">
-        <v>7.429822304504388</v>
+        <v>7.556998144467316</v>
       </c>
       <c r="D32">
-        <v>0.05982230450438752</v>
+        <v>-0.1430018555326846</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1697,13 +1706,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>7.37</v>
+        <v>7.48</v>
       </c>
       <c r="C33">
-        <v>7.436121083825315</v>
+        <v>7.421245313615718</v>
       </c>
       <c r="D33">
-        <v>0.06612108382531456</v>
+        <v>-0.05875468638428227</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1711,13 +1720,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>7.38</v>
+        <v>7.3</v>
       </c>
       <c r="C34">
-        <v>7.442787512671632</v>
+        <v>7.402962965553727</v>
       </c>
       <c r="D34">
-        <v>0.06278751267163241</v>
+        <v>0.1029629655537274</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1725,13 +1734,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>7.39</v>
+        <v>7.33</v>
       </c>
       <c r="C35">
-        <v>7.464995363384592</v>
+        <v>7.44157127277358</v>
       </c>
       <c r="D35">
-        <v>0.07499536338459212</v>
+        <v>0.1115712727735803</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1739,13 +1748,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>7.27</v>
+        <v>7.28</v>
       </c>
       <c r="C36">
-        <v>7.365992017170464</v>
+        <v>7.313486081531756</v>
       </c>
       <c r="D36">
-        <v>0.09599201717046491</v>
+        <v>0.03348608153175547</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1753,13 +1762,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>7.26</v>
+        <v>7.19</v>
       </c>
       <c r="C37">
-        <v>7.327121849400504</v>
+        <v>7.234378506697182</v>
       </c>
       <c r="D37">
-        <v>0.06712184940050392</v>
+        <v>0.04437850669718202</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1767,13 +1776,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>7.25</v>
+        <v>7.44</v>
       </c>
       <c r="C38">
-        <v>7.325411710197157</v>
+        <v>7.438041404445193</v>
       </c>
       <c r="D38">
-        <v>0.07541171019715698</v>
+        <v>-0.001958595554807374</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1781,13 +1790,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>7.17</v>
+        <v>7.12</v>
       </c>
       <c r="C39">
-        <v>7.25229460158311</v>
+        <v>7.016232253964199</v>
       </c>
       <c r="D39">
-        <v>0.08229460158310964</v>
+        <v>-0.1037677460358015</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1795,13 +1804,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>7.26</v>
+        <v>7.87</v>
       </c>
       <c r="C40">
-        <v>7.241455071944925</v>
+        <v>7.313435049678007</v>
       </c>
       <c r="D40">
-        <v>-0.01854492805507491</v>
+        <v>-0.5565649503219934</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1809,13 +1818,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>7.3</v>
+        <v>7.9</v>
       </c>
       <c r="C41">
-        <v>7.298188655274952</v>
+        <v>7.321904621216276</v>
       </c>
       <c r="D41">
-        <v>-0.001811344725047626</v>
+        <v>-0.5780953787837246</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1823,13 +1832,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>7.34</v>
+        <v>8.01</v>
       </c>
       <c r="C42">
-        <v>7.2522348193793</v>
+        <v>7.282430720311326</v>
       </c>
       <c r="D42">
-        <v>-0.08776518062069982</v>
+        <v>-0.7275692796886739</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1837,13 +1846,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>7.19</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="C43">
-        <v>7.150541169717762</v>
+        <v>7.648983894282721</v>
       </c>
       <c r="D43">
-        <v>-0.03945883028223829</v>
+        <v>-0.4610161057172784</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1851,13 +1860,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>7.06</v>
+        <v>8.4</v>
       </c>
       <c r="C44">
-        <v>7.008904923964499</v>
+        <v>7.879528536225437</v>
       </c>
       <c r="D44">
-        <v>-0.05109507603550068</v>
+        <v>-0.5204714637745633</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1865,13 +1874,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>7.2</v>
+        <v>7.73</v>
       </c>
       <c r="C45">
-        <v>7.088732145920138</v>
+        <v>8.246835363035721</v>
       </c>
       <c r="D45">
-        <v>-0.1112678540798617</v>
+        <v>0.516835363035721</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1879,13 +1888,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>7.73</v>
+        <v>7.75</v>
       </c>
       <c r="C46">
-        <v>7.267094452938846</v>
+        <v>8.244161660540886</v>
       </c>
       <c r="D46">
-        <v>-0.4629055470611547</v>
+        <v>0.4941616605408861</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1893,13 +1902,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>7.8</v>
+        <v>7.53</v>
       </c>
       <c r="C47">
-        <v>7.288666857312514</v>
+        <v>8.05565850878223</v>
       </c>
       <c r="D47">
-        <v>-0.5113331426874863</v>
+        <v>0.5256585087822296</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1907,13 +1916,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>7.95</v>
+        <v>8.25</v>
       </c>
       <c r="C48">
-        <v>7.2830492797387</v>
+        <v>8.188413905366769</v>
       </c>
       <c r="D48">
-        <v>-0.6669507202613003</v>
+        <v>-0.06158609463323117</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1921,13 +1930,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>8.119999999999999</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="C49">
-        <v>7.810239187269941</v>
+        <v>8.120935014420557</v>
       </c>
       <c r="D49">
-        <v>-0.3097608127300582</v>
+        <v>-0.3290649855794427</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1935,13 +1944,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>7.72</v>
+        <v>8.44</v>
       </c>
       <c r="C50">
-        <v>7.807970128220186</v>
+        <v>7.902237295816767</v>
       </c>
       <c r="D50">
-        <v>0.08797012822018591</v>
+        <v>-0.5377627041832325</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1949,13 +1958,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>7.78</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C51">
-        <v>7.826774700057683</v>
+        <v>8.343181784770771</v>
       </c>
       <c r="D51">
-        <v>0.04677470005768303</v>
+        <v>-0.8568182152292287</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1963,13 +1972,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>7.86</v>
+        <v>9.32</v>
       </c>
       <c r="C52">
-        <v>8.285151473803934</v>
+        <v>8.391736064730495</v>
       </c>
       <c r="D52">
-        <v>0.4251514738039335</v>
+        <v>-0.9282639352695057</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1977,13 +1986,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>7.75</v>
+        <v>9.31</v>
       </c>
       <c r="C53">
-        <v>8.241559453785408</v>
+        <v>8.336114125762425</v>
       </c>
       <c r="D53">
-        <v>0.491559453785408</v>
+        <v>-0.9738858742375758</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1991,13 +2000,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>7.62</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="C54">
-        <v>8.124711593813499</v>
+        <v>8.168468715241932</v>
       </c>
       <c r="D54">
-        <v>0.5047115938134992</v>
+        <v>-0.701531284758067</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2005,13 +2014,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>7.69</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="C55">
-        <v>8.20474294159958</v>
+        <v>8.214813199964638</v>
       </c>
       <c r="D55">
-        <v>0.5147429415995797</v>
+        <v>-0.6751868000353625</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2019,13 +2028,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>7.76</v>
+        <v>8.84</v>
       </c>
       <c r="C56">
-        <v>8.243395266460825</v>
+        <v>8.165031663473496</v>
       </c>
       <c r="D56">
-        <v>0.4833952664608248</v>
+        <v>-0.6749683365265042</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2033,13 +2042,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>7.84</v>
+        <v>8.92</v>
       </c>
       <c r="C57">
-        <v>8.195976489679746</v>
+        <v>8.164960781123444</v>
       </c>
       <c r="D57">
-        <v>0.3559764896797457</v>
+        <v>-0.755039218876556</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2047,13 +2056,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>7.91</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="C58">
-        <v>8.295644988832777</v>
+        <v>8.150763664959801</v>
       </c>
       <c r="D58">
-        <v>0.3856449888327766</v>
+        <v>-0.7992363350401988</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2061,13 +2070,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>8.470000000000001</v>
+        <v>8.48</v>
       </c>
       <c r="C59">
-        <v>8.001976811050969</v>
+        <v>7.98454349593379</v>
       </c>
       <c r="D59">
-        <v>-0.4680231889490312</v>
+        <v>-0.4954565040662109</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2075,13 +2084,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>8.470000000000001</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="C60">
-        <v>7.929722953337304</v>
+        <v>8.070739331374075</v>
       </c>
       <c r="D60">
-        <v>-0.5402770466626965</v>
+        <v>-0.5692606686259261</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2089,13 +2098,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>9.119999999999999</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="C61">
-        <v>8.169411509896703</v>
+        <v>8.104930496857552</v>
       </c>
       <c r="D61">
-        <v>-0.9505884901032964</v>
+        <v>-0.03506950314244861</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2103,13 +2112,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>9.09</v>
+        <v>8.02</v>
       </c>
       <c r="C62">
-        <v>8.293396499476652</v>
+        <v>8.032992369884326</v>
       </c>
       <c r="D62">
-        <v>-0.7966035005233483</v>
+        <v>0.01299236988432639</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2117,13 +2126,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>9.220000000000001</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="C63">
-        <v>8.326748366396508</v>
+        <v>8.035547803125414</v>
       </c>
       <c r="D63">
-        <v>-0.8932516336034926</v>
+        <v>0.00554780312541503</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2131,13 +2140,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>9.23</v>
+        <v>8.01</v>
       </c>
       <c r="C64">
-        <v>8.319006547017951</v>
+        <v>8.059487306627087</v>
       </c>
       <c r="D64">
-        <v>-0.9109934529820496</v>
+        <v>0.04948730662708734</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2145,13 +2154,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>9.210000000000001</v>
+        <v>8</v>
       </c>
       <c r="C65">
-        <v>8.337969686063719</v>
+        <v>8.025559552216365</v>
       </c>
       <c r="D65">
-        <v>-0.8720303139362819</v>
+        <v>0.02555955221636452</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2159,13 +2168,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>8.83</v>
+        <v>8.09</v>
       </c>
       <c r="C66">
-        <v>8.19228003872607</v>
+        <v>8.125226090039408</v>
       </c>
       <c r="D66">
-        <v>-0.6377199612739304</v>
+        <v>0.03522609003940858</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2173,13 +2182,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>8.949999999999999</v>
+        <v>8.32</v>
       </c>
       <c r="C67">
-        <v>8.173038465939454</v>
+        <v>8.174694151064568</v>
       </c>
       <c r="D67">
-        <v>-0.7769615340605451</v>
+        <v>-0.1453058489354326</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2187,13 +2196,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>8.949999999999999</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="C68">
-        <v>8.171472453862899</v>
+        <v>8.227714905180214</v>
       </c>
       <c r="D68">
-        <v>-0.7785275461371004</v>
+        <v>-0.3022850948197853</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2201,13 +2210,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>8.720000000000001</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C69">
-        <v>8.171990543539369</v>
+        <v>8.127310122912295</v>
       </c>
       <c r="D69">
-        <v>-0.5480094564606315</v>
+        <v>-0.2326898770877044</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2215,13 +2224,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>8.960000000000001</v>
+        <v>8.52</v>
       </c>
       <c r="C70">
-        <v>8.131754539889442</v>
+        <v>8.212497169017599</v>
       </c>
       <c r="D70">
-        <v>-0.8282454601105584</v>
+        <v>-0.3075028309824006</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2229,13 +2238,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>8.380000000000001</v>
+        <v>8.25</v>
       </c>
       <c r="C71">
-        <v>7.959632430722198</v>
+        <v>8.033412770734468</v>
       </c>
       <c r="D71">
-        <v>-0.4203675692778024</v>
+        <v>-0.2165872292655315</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2243,13 +2252,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>8.140000000000001</v>
+        <v>7.94</v>
       </c>
       <c r="C72">
-        <v>8.106214201895089</v>
+        <v>7.915132803074651</v>
       </c>
       <c r="D72">
-        <v>-0.03378579810491189</v>
+        <v>-0.02486719692534933</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2257,13 +2266,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>8.08</v>
+        <v>7.7</v>
       </c>
       <c r="C73">
-        <v>8.069410313949845</v>
+        <v>7.76050088451487</v>
       </c>
       <c r="D73">
-        <v>-0.01058968605015487</v>
+        <v>0.06050088451486957</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2271,13 +2280,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>8.01</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="C74">
-        <v>8.05294562393088</v>
+        <v>8.032284553253518</v>
       </c>
       <c r="D74">
-        <v>0.04294562393087986</v>
+        <v>-0.1077154467464823</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2285,13 +2294,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>8</v>
+        <v>8.18</v>
       </c>
       <c r="C75">
-        <v>8.029046189797144</v>
+        <v>8.065239275373411</v>
       </c>
       <c r="D75">
-        <v>0.02904618979714435</v>
+        <v>-0.1147607246265885</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2299,13 +2308,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>8.300000000000001</v>
+        <v>8.17</v>
       </c>
       <c r="C76">
-        <v>8.194453852864953</v>
+        <v>8.066110717239312</v>
       </c>
       <c r="D76">
-        <v>-0.1055461471350476</v>
+        <v>-0.1038892827606883</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2313,13 +2322,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>8.59</v>
+        <v>8.18</v>
       </c>
       <c r="C77">
-        <v>8.248047874890183</v>
+        <v>8.186988647178016</v>
       </c>
       <c r="D77">
-        <v>-0.3419521251098168</v>
+        <v>0.006988647178015839</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2327,13 +2336,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>8.44</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="C78">
-        <v>8.194304324426001</v>
+        <v>8.181880200661084</v>
       </c>
       <c r="D78">
-        <v>-0.2456956755739981</v>
+        <v>-0.03811979933891685</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2341,13 +2350,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>8.52</v>
+        <v>8.18</v>
       </c>
       <c r="C79">
-        <v>8.20799890179466</v>
+        <v>8.144369250816641</v>
       </c>
       <c r="D79">
-        <v>-0.3120010982053394</v>
+        <v>-0.03563074918335829</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2355,13 +2364,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>8.26</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="C80">
-        <v>8.003913825390654</v>
+        <v>8.186950877696177</v>
       </c>
       <c r="D80">
-        <v>-0.2560861746093455</v>
+        <v>0.04695087769617601</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2369,13 +2378,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>7.98</v>
+        <v>8.1</v>
       </c>
       <c r="C81">
-        <v>7.900087746169621</v>
+        <v>8.03761688468089</v>
       </c>
       <c r="D81">
-        <v>-0.07991225383037914</v>
+        <v>-0.06238311531910945</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2383,13 +2392,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>7.8</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="C82">
-        <v>7.829597833261962</v>
+        <v>8.09027146577899</v>
       </c>
       <c r="D82">
-        <v>0.02959783326196241</v>
+        <v>0.05027146577899089</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2400,10 +2409,10 @@
         <v>7.66</v>
       </c>
       <c r="C83">
-        <v>7.666211803865055</v>
+        <v>7.865589780214811</v>
       </c>
       <c r="D83">
-        <v>0.006211803865054932</v>
+        <v>0.2055897802148108</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2411,13 +2420,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>7.61</v>
+        <v>7.66</v>
       </c>
       <c r="C84">
-        <v>7.578456832300134</v>
+        <v>7.814260945030747</v>
       </c>
       <c r="D84">
-        <v>-0.03154316769986654</v>
+        <v>0.1542609450307468</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2425,13 +2434,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>8.15</v>
+        <v>7.68</v>
       </c>
       <c r="C85">
-        <v>8.013325090525418</v>
+        <v>7.912746516740262</v>
       </c>
       <c r="D85">
-        <v>-0.1366749094745821</v>
+        <v>0.2327465167402627</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2439,13 +2448,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>8.19</v>
+        <v>7.47</v>
       </c>
       <c r="C86">
-        <v>8.167166987646345</v>
+        <v>7.859132167138662</v>
       </c>
       <c r="D86">
-        <v>-0.02283301235365442</v>
+        <v>0.3891321671386621</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2453,13 +2462,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>8.18</v>
+        <v>7.47</v>
       </c>
       <c r="C87">
-        <v>8.187453721787044</v>
+        <v>7.840203826796118</v>
       </c>
       <c r="D87">
-        <v>0.007453721787044287</v>
+        <v>0.3702038267961179</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2467,13 +2476,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>8.08</v>
+        <v>7.48</v>
       </c>
       <c r="C88">
-        <v>8.025508551493482</v>
+        <v>7.71900558023325</v>
       </c>
       <c r="D88">
-        <v>-0.05449144850651777</v>
+        <v>0.2390055802332496</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2481,13 +2490,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>8.119999999999999</v>
+        <v>7.51</v>
       </c>
       <c r="C89">
-        <v>8.060407737794277</v>
+        <v>7.629449739008449</v>
       </c>
       <c r="D89">
-        <v>-0.05959226220572234</v>
+        <v>0.1194497390084495</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2495,13 +2504,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>7.67</v>
+        <v>7.49</v>
       </c>
       <c r="C90">
-        <v>7.905184172310525</v>
+        <v>7.624256879427702</v>
       </c>
       <c r="D90">
-        <v>0.2351841723105252</v>
+        <v>0.1342568794277019</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2509,13 +2518,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>7.66</v>
+        <v>7.48</v>
       </c>
       <c r="C91">
-        <v>7.849828763958966</v>
+        <v>7.594570074791206</v>
       </c>
       <c r="D91">
-        <v>0.1898287639589658</v>
+        <v>0.1145700747912057</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2523,13 +2532,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>7.66</v>
+        <v>7.58</v>
       </c>
       <c r="C92">
-        <v>7.848177917884721</v>
+        <v>7.526979937901825</v>
       </c>
       <c r="D92">
-        <v>0.1881779178847207</v>
+        <v>-0.05302006209817467</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2537,13 +2546,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>7.73</v>
+        <v>7.67</v>
       </c>
       <c r="C93">
-        <v>7.940505061221653</v>
+        <v>7.936550582894369</v>
       </c>
       <c r="D93">
-        <v>0.210505061221653</v>
+        <v>0.2665505828943688</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2551,13 +2560,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>7.56</v>
+        <v>7.64</v>
       </c>
       <c r="C94">
-        <v>7.501677087267657</v>
+        <v>7.885951471729594</v>
       </c>
       <c r="D94">
-        <v>-0.05832291273234258</v>
+        <v>0.2459514717295939</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2565,13 +2574,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>7.55</v>
+        <v>7.63</v>
       </c>
       <c r="C95">
-        <v>7.445849821975763</v>
+        <v>7.912135216487003</v>
       </c>
       <c r="D95">
-        <v>-0.1041501780242369</v>
+        <v>0.2821352164870028</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2579,13 +2588,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>7.56</v>
+        <v>7.61</v>
       </c>
       <c r="C96">
-        <v>7.524855199761703</v>
+        <v>7.823222020933367</v>
       </c>
       <c r="D96">
-        <v>-0.0351448002382968</v>
+        <v>0.2132220209333671</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2593,13 +2602,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>7.59</v>
+        <v>7.63</v>
       </c>
       <c r="C97">
-        <v>7.559732040752237</v>
+        <v>7.930550593147129</v>
       </c>
       <c r="D97">
-        <v>-0.03026795924776238</v>
+        <v>0.3005505931471291</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2607,13 +2616,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>7.63</v>
+        <v>7.37</v>
       </c>
       <c r="C98">
-        <v>7.794839010505749</v>
+        <v>7.628075259104514</v>
       </c>
       <c r="D98">
-        <v>0.1648390105057489</v>
+        <v>0.2580752591045137</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2621,13 +2630,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="C99">
-        <v>7.77744613797719</v>
+        <v>7.583428827167967</v>
       </c>
       <c r="D99">
-        <v>0.1774461379771903</v>
+        <v>0.2834288271679668</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2635,13 +2644,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="C100">
-        <v>7.753108577647215</v>
+        <v>7.575802434789876</v>
       </c>
       <c r="D100">
-        <v>0.153108577647215</v>
+        <v>0.2758024347898758</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2649,13 +2658,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>7.7</v>
+        <v>7.3</v>
       </c>
       <c r="C101">
-        <v>7.911364393129785</v>
+        <v>7.585260725819896</v>
       </c>
       <c r="D101">
-        <v>0.2113643931297853</v>
+        <v>0.2852607258198958</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2663,13 +2672,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>7.65</v>
+        <v>7.15</v>
       </c>
       <c r="C102">
-        <v>7.918793819219818</v>
+        <v>7.414166769121763</v>
       </c>
       <c r="D102">
-        <v>0.2687938192198178</v>
+        <v>0.2641667691217622</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2677,13 +2686,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>7.68</v>
+        <v>7.17</v>
       </c>
       <c r="C103">
-        <v>7.944988370655349</v>
+        <v>7.443852213497656</v>
       </c>
       <c r="D103">
-        <v>0.2649883706553489</v>
+        <v>0.2738522134976558</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2691,13 +2700,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>7.64</v>
+        <v>7.19</v>
       </c>
       <c r="C104">
-        <v>7.904168539060187</v>
+        <v>7.414794595946332</v>
       </c>
       <c r="D104">
-        <v>0.2641685390601873</v>
+        <v>0.2247945959463316</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2705,13 +2714,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>7.61</v>
+        <v>7.16</v>
       </c>
       <c r="C105">
-        <v>7.87174914496512</v>
+        <v>7.427820339411208</v>
       </c>
       <c r="D105">
-        <v>0.2617491449651199</v>
+        <v>0.267820339411208</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2719,13 +2728,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>7.61</v>
+        <v>7.17</v>
       </c>
       <c r="C106">
-        <v>7.871845818309319</v>
+        <v>7.436744700000278</v>
       </c>
       <c r="D106">
-        <v>0.2618458183093191</v>
+        <v>0.2667447000002783</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2733,13 +2742,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>7.61</v>
+        <v>7.18</v>
       </c>
       <c r="C107">
-        <v>7.884866546068336</v>
+        <v>7.510962314939023</v>
       </c>
       <c r="D107">
-        <v>0.2748665460683357</v>
+        <v>0.3309623149390228</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2747,13 +2756,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>7.64</v>
+        <v>7.6</v>
       </c>
       <c r="C108">
-        <v>7.887803389157765</v>
+        <v>7.60072187953491</v>
       </c>
       <c r="D108">
-        <v>0.2478033891577658</v>
+        <v>0.0007218795349102081</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2761,13 +2770,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>7.71</v>
+        <v>7.85</v>
       </c>
       <c r="C109">
-        <v>7.786909958732588</v>
+        <v>7.991770154091603</v>
       </c>
       <c r="D109">
-        <v>0.0769099587325881</v>
+        <v>0.1417701540916037</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2775,13 +2784,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>7.68</v>
+        <v>7.88</v>
       </c>
       <c r="C110">
-        <v>7.964102532169598</v>
+        <v>8.022398379685239</v>
       </c>
       <c r="D110">
-        <v>0.284102532169598</v>
+        <v>0.1423983796852388</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2789,13 +2798,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>7.75</v>
+        <v>7.89</v>
       </c>
       <c r="C111">
-        <v>7.911965080886668</v>
+        <v>8.028559633637283</v>
       </c>
       <c r="D111">
-        <v>0.1619650808866684</v>
+        <v>0.138559633637283</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2803,13 +2812,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>7.32</v>
+        <v>7.92</v>
       </c>
       <c r="C112">
-        <v>7.593568103981452</v>
+        <v>8.009934407546194</v>
       </c>
       <c r="D112">
-        <v>0.2735681039814519</v>
+        <v>0.08993440754619364</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2817,13 +2826,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>7.32</v>
+        <v>7.98</v>
       </c>
       <c r="C113">
-        <v>7.576727134962507</v>
+        <v>7.989017417492405</v>
       </c>
       <c r="D113">
-        <v>0.2567271349625067</v>
+        <v>0.009017417492404256</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2831,13 +2840,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>7.32</v>
+        <v>8.23</v>
       </c>
       <c r="C114">
-        <v>7.55628310835707</v>
+        <v>8.199401144538591</v>
       </c>
       <c r="D114">
-        <v>0.2362831083570693</v>
+        <v>-0.03059885546140961</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2845,13 +2854,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>7.3</v>
+        <v>8.19</v>
       </c>
       <c r="C115">
-        <v>7.513388420624153</v>
+        <v>8.08043274262759</v>
       </c>
       <c r="D115">
-        <v>0.2133884206241534</v>
+        <v>-0.1095672573724098</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2859,13 +2868,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>7.26</v>
+        <v>8.17</v>
       </c>
       <c r="C116">
-        <v>7.476469104179841</v>
+        <v>8.100900451644097</v>
       </c>
       <c r="D116">
-        <v>0.2164691041798417</v>
+        <v>-0.06909954835590248</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2873,13 +2882,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>7.08</v>
+        <v>8.19</v>
       </c>
       <c r="C117">
-        <v>7.527523473550671</v>
+        <v>7.972828340482132</v>
       </c>
       <c r="D117">
-        <v>0.447523473550671</v>
+        <v>-0.2171716595178674</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2887,13 +2896,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>7.14</v>
+        <v>8.42</v>
       </c>
       <c r="C118">
-        <v>7.497395401771378</v>
+        <v>8.080526844935363</v>
       </c>
       <c r="D118">
-        <v>0.3573954017713783</v>
+        <v>-0.3394731550646366</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2901,13 +2910,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>7.28</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="C119">
-        <v>7.540912142622691</v>
+        <v>8.147256985038322</v>
       </c>
       <c r="D119">
-        <v>0.2609121426226908</v>
+        <v>-0.322743014961679</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2915,13 +2924,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>7.56</v>
+        <v>8.49</v>
       </c>
       <c r="C120">
-        <v>7.595541112409423</v>
+        <v>8.142471052449725</v>
       </c>
       <c r="D120">
-        <v>0.03554111240942337</v>
+        <v>-0.3475289475502752</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2929,13 +2938,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>7.91</v>
+        <v>8.34</v>
       </c>
       <c r="C121">
-        <v>7.880261281786238</v>
+        <v>8.171174134815651</v>
       </c>
       <c r="D121">
-        <v>-0.02973871821376228</v>
+        <v>-0.1688258651843491</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2943,13 +2952,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>8.02</v>
+        <v>8.17</v>
       </c>
       <c r="C122">
-        <v>7.959945959697436</v>
+        <v>8.234421388233006</v>
       </c>
       <c r="D122">
-        <v>-0.060054040302564</v>
+        <v>0.06442138823300603</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2957,13 +2966,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>7.98</v>
+        <v>7.95</v>
       </c>
       <c r="C123">
-        <v>8.128240795759417</v>
+        <v>7.993708699415856</v>
       </c>
       <c r="D123">
-        <v>0.148240795759417</v>
+        <v>0.04370869941585553</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2971,13 +2980,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>8.01</v>
+        <v>8.24</v>
       </c>
       <c r="C124">
-        <v>8.030597643555357</v>
+        <v>8.389244684834956</v>
       </c>
       <c r="D124">
-        <v>0.02059764355535698</v>
+        <v>0.1492446848349562</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2985,13 +2994,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>8.32</v>
+        <v>8.24</v>
       </c>
       <c r="C125">
-        <v>8.095106888534289</v>
+        <v>8.334666023313307</v>
       </c>
       <c r="D125">
-        <v>-0.2248931114657111</v>
+        <v>0.09466602331330698</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2999,13 +3008,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>8.41</v>
+        <v>8.35</v>
       </c>
       <c r="C126">
-        <v>8.075762139893877</v>
+        <v>8.445489501373856</v>
       </c>
       <c r="D126">
-        <v>-0.3342378601061231</v>
+        <v>0.09548950137385681</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3013,13 +3022,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>8.369999999999999</v>
+        <v>8.32</v>
       </c>
       <c r="C127">
-        <v>8.179522449365052</v>
+        <v>8.367227764999384</v>
       </c>
       <c r="D127">
-        <v>-0.190477550634947</v>
+        <v>0.04722776499938419</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3027,13 +3036,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>8.34</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="C128">
-        <v>8.269756395220972</v>
+        <v>8.262760315459094</v>
       </c>
       <c r="D128">
-        <v>-0.07024360477902825</v>
+        <v>0.1327603154590928</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3041,13 +3050,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>8.26</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="C129">
-        <v>8.178115671098146</v>
+        <v>8.325320096968969</v>
       </c>
       <c r="D129">
-        <v>-0.08188432890185382</v>
+        <v>0.04532009696896999</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3055,13 +3064,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>8.289999999999999</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="C130">
-        <v>8.155302240506195</v>
+        <v>8.315277908986427</v>
       </c>
       <c r="D130">
-        <v>-0.1346977594938039</v>
+        <v>0.1052779089864266</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3069,13 +3078,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>8.01</v>
+        <v>8.52</v>
       </c>
       <c r="C131">
-        <v>8.034062867124119</v>
+        <v>8.548082617650461</v>
       </c>
       <c r="D131">
-        <v>0.02406286712411898</v>
+        <v>0.02808261765046183</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3083,13 +3092,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="C132">
-        <v>8.499968807886047</v>
+        <v>8.645328221335088</v>
       </c>
       <c r="D132">
-        <v>0.09996880788604656</v>
+        <v>0.04532822133508851</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3097,13 +3106,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>8.390000000000001</v>
+        <v>9.17</v>
       </c>
       <c r="C133">
-        <v>8.486266271829564</v>
+        <v>8.895417209870914</v>
       </c>
       <c r="D133">
-        <v>0.09626627182956327</v>
+        <v>-0.2745827901290863</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3111,13 +3120,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>8.19</v>
+        <v>9.24</v>
       </c>
       <c r="C134">
-        <v>8.303103178563662</v>
+        <v>9.032677340651858</v>
       </c>
       <c r="D134">
-        <v>0.1131031785636623</v>
+        <v>-0.2073226593481419</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3125,13 +3134,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>9.17</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="C135">
-        <v>8.90190028074778</v>
+        <v>9.165491471802206</v>
       </c>
       <c r="D135">
-        <v>-0.2680997192522199</v>
+        <v>-0.1945085281977939</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3139,13 +3148,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>10.02</v>
+        <v>10.43</v>
       </c>
       <c r="C136">
-        <v>9.409255269929742</v>
+        <v>9.54031511810896</v>
       </c>
       <c r="D136">
-        <v>-0.6107447300702571</v>
+        <v>-0.8896848818910392</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3153,13 +3162,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>9.58</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="C137">
-        <v>9.299970052860679</v>
+        <v>9.252436718724521</v>
       </c>
       <c r="D137">
-        <v>-0.2800299471393206</v>
+        <v>-0.2075632812754797</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3167,13 +3176,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>9.58</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="C138">
-        <v>9.318359220276518</v>
+        <v>9.237419904598958</v>
       </c>
       <c r="D138">
-        <v>-0.2616407797234821</v>
+        <v>-0.1325800954010408</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3181,13 +3190,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>8.460000000000001</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="C139">
-        <v>8.322830093642322</v>
+        <v>8.711453383889829</v>
       </c>
       <c r="D139">
-        <v>-0.1371699063576788</v>
+        <v>0.001453383889828075</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3195,13 +3204,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>8.25</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="C140">
-        <v>8.150225365284163</v>
+        <v>8.530374042662466</v>
       </c>
       <c r="D140">
-        <v>-0.09977463471583725</v>
+        <v>-0.1796259573375352</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3209,13 +3218,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>7.63</v>
+        <v>8.49</v>
       </c>
       <c r="C141">
-        <v>8.13355193520861</v>
+        <v>8.369112138627706</v>
       </c>
       <c r="D141">
-        <v>0.50355193520861</v>
+        <v>-0.1208878613722941</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3223,13 +3232,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>7.76</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="C142">
-        <v>8.015651457488062</v>
+        <v>8.2908305940412</v>
       </c>
       <c r="D142">
-        <v>0.255651457488062</v>
+        <v>-0.07916940595879929</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3240,10 +3249,10 @@
         <v>7.66</v>
       </c>
       <c r="C143">
-        <v>7.910808465731682</v>
+        <v>8.192171325882747</v>
       </c>
       <c r="D143">
-        <v>0.2508084657316818</v>
+        <v>0.5321713258827465</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3251,13 +3260,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>7.8</v>
+        <v>7.84</v>
       </c>
       <c r="C144">
-        <v>7.881465163414363</v>
+        <v>8.153752183588519</v>
       </c>
       <c r="D144">
-        <v>0.0814651634143635</v>
+        <v>0.3137521835885195</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3265,13 +3274,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>7.8</v>
+        <v>7.76</v>
       </c>
       <c r="C145">
-        <v>7.843682838156678</v>
+        <v>8.005020071849071</v>
       </c>
       <c r="D145">
-        <v>0.04368283815667784</v>
+        <v>0.2450200718490709</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3279,13 +3288,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>8.09</v>
+        <v>7.71</v>
       </c>
       <c r="C146">
-        <v>8.063048816725846</v>
+        <v>8.008193967950195</v>
       </c>
       <c r="D146">
-        <v>-0.02695118327415358</v>
+        <v>0.298193967950195</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3293,13 +3302,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>7.47</v>
+        <v>7.64</v>
       </c>
       <c r="C147">
-        <v>7.682336340820816</v>
+        <v>7.883172429108321</v>
       </c>
       <c r="D147">
-        <v>0.2123363408208165</v>
+        <v>0.2431724291083217</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3307,13 +3316,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>7.7</v>
+        <v>7.66</v>
       </c>
       <c r="C148">
-        <v>7.833878981301567</v>
+        <v>7.869637346027173</v>
       </c>
       <c r="D148">
-        <v>0.1338789813015664</v>
+        <v>0.209637346027173</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3321,13 +3330,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>7.35</v>
+        <v>7.81</v>
       </c>
       <c r="C149">
-        <v>7.367702725844349</v>
+        <v>7.84017215784669</v>
       </c>
       <c r="D149">
-        <v>0.01770272584434984</v>
+        <v>0.03017215784669069</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3335,13 +3344,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>7.17</v>
+        <v>8.09</v>
       </c>
       <c r="C150">
-        <v>7.291107937729317</v>
+        <v>8.072552470865812</v>
       </c>
       <c r="D150">
-        <v>0.1211079377293167</v>
+        <v>-0.01744752913418779</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3349,13 +3358,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>7.14</v>
+        <v>7.6</v>
       </c>
       <c r="C151">
-        <v>7.22951900666561</v>
+        <v>7.805270222057101</v>
       </c>
       <c r="D151">
-        <v>0.08951900666561041</v>
+        <v>0.2052702220571012</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3363,13 +3372,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>7.2</v>
+        <v>7.52</v>
       </c>
       <c r="C152">
-        <v>7.229306131212647</v>
+        <v>7.724167597370397</v>
       </c>
       <c r="D152">
-        <v>0.02930613121264702</v>
+        <v>0.2041675973703976</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3377,13 +3386,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>7.12</v>
+        <v>7.23</v>
       </c>
       <c r="C153">
-        <v>7.211304034443538</v>
+        <v>7.323822130302241</v>
       </c>
       <c r="D153">
-        <v>0.09130403444353785</v>
+        <v>0.0938221303022404</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3391,13 +3400,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>6.98</v>
+        <v>7.02</v>
       </c>
       <c r="C154">
-        <v>7.096471703327659</v>
+        <v>7.138040817574873</v>
       </c>
       <c r="D154">
-        <v>0.1164717033276581</v>
+        <v>0.1180408175748733</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3408,10 +3417,10 @@
         <v>7.05</v>
       </c>
       <c r="C155">
-        <v>7.108338090611669</v>
+        <v>7.132840523771656</v>
       </c>
       <c r="D155">
-        <v>0.05833809061166928</v>
+        <v>0.08284052377165629</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3419,13 +3428,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>7.17</v>
+        <v>7.23</v>
       </c>
       <c r="C156">
-        <v>7.188934551678052</v>
+        <v>7.212129675686593</v>
       </c>
       <c r="D156">
-        <v>0.01893455167805236</v>
+        <v>-0.01787032431340752</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3436,10 +3445,10 @@
         <v>7.29</v>
       </c>
       <c r="C157">
-        <v>7.228622478458412</v>
+        <v>7.264321157773918</v>
       </c>
       <c r="D157">
-        <v>-0.06137752154158793</v>
+        <v>-0.02567884222608185</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3447,13 +3456,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>7.28</v>
+        <v>7.75</v>
       </c>
       <c r="C158">
-        <v>7.194772930267794</v>
+        <v>7.56596511885247</v>
       </c>
       <c r="D158">
-        <v>-0.0852270697322064</v>
+        <v>-0.1840348811475296</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3461,13 +3470,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>7.77</v>
+        <v>7.18</v>
       </c>
       <c r="C159">
-        <v>7.544372646516379</v>
+        <v>7.195141384954494</v>
       </c>
       <c r="D159">
-        <v>-0.2256273534836204</v>
+        <v>0.01514138495449391</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3475,13 +3484,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>7.46</v>
+        <v>7.15</v>
       </c>
       <c r="C160">
-        <v>7.421866517541366</v>
+        <v>7.097647122446774</v>
       </c>
       <c r="D160">
-        <v>-0.03813348245863413</v>
+        <v>-0.05235287755322648</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3489,13 +3498,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>7.49</v>
+        <v>6.92</v>
       </c>
       <c r="C161">
-        <v>7.374766389998857</v>
+        <v>6.862903164176271</v>
       </c>
       <c r="D161">
-        <v>-0.1152336100011428</v>
+        <v>-0.05709683582372893</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3503,13 +3512,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>7.16</v>
+        <v>7.23</v>
       </c>
       <c r="C162">
-        <v>7.226605223276175</v>
+        <v>6.627073188125338</v>
       </c>
       <c r="D162">
-        <v>0.06660522327617535</v>
+        <v>-0.6029268118746627</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3517,13 +3526,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>7.02</v>
+        <v>7.5</v>
       </c>
       <c r="C163">
-        <v>6.708863909244142</v>
+        <v>6.800491651875308</v>
       </c>
       <c r="D163">
-        <v>-0.3111360907558574</v>
+        <v>-0.6995083481246924</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3531,13 +3540,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>7.03</v>
+        <v>7.47</v>
       </c>
       <c r="C164">
-        <v>6.60479058510502</v>
+        <v>6.730482542888951</v>
       </c>
       <c r="D164">
-        <v>-0.4252094148949803</v>
+        <v>-0.7395174571110488</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3545,13 +3554,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>7.22</v>
+        <v>6.93</v>
       </c>
       <c r="C165">
-        <v>6.630277970752909</v>
+        <v>6.661195856449848</v>
       </c>
       <c r="D165">
-        <v>-0.5897220292470911</v>
+        <v>-0.2688041435501516</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3559,13 +3568,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>7.17</v>
+        <v>6.98</v>
       </c>
       <c r="C166">
-        <v>6.773740810708269</v>
+        <v>6.690970156507864</v>
       </c>
       <c r="D166">
-        <v>-0.3962591892917313</v>
+        <v>-0.2890298434921368</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3573,13 +3582,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>7.26</v>
+        <v>6.64</v>
       </c>
       <c r="C167">
-        <v>6.785705779693227</v>
+        <v>6.34848197539855</v>
       </c>
       <c r="D167">
-        <v>-0.4742942203067724</v>
+        <v>-0.2915180246014497</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3587,13 +3596,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>6.65</v>
+        <v>6.61</v>
       </c>
       <c r="C168">
-        <v>6.330579978478236</v>
+        <v>6.427617381172204</v>
       </c>
       <c r="D168">
-        <v>-0.3194200215217649</v>
+        <v>-0.1823826188277966</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3601,13 +3610,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>6.68</v>
+        <v>6.52</v>
       </c>
       <c r="C169">
-        <v>6.358052355255834</v>
+        <v>6.351083539414495</v>
       </c>
       <c r="D169">
-        <v>-0.3219476447441654</v>
+        <v>-0.1689164605855042</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3615,13 +3624,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>6.59</v>
+        <v>6.79</v>
       </c>
       <c r="C170">
-        <v>6.343284262759697</v>
+        <v>6.344294505544659</v>
       </c>
       <c r="D170">
-        <v>-0.2467157372403026</v>
+        <v>-0.4457054944553409</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3629,13 +3638,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>6.77</v>
+        <v>6.78</v>
       </c>
       <c r="C171">
-        <v>6.306698997024736</v>
+        <v>6.326336420905084</v>
       </c>
       <c r="D171">
-        <v>-0.463301002975264</v>
+        <v>-0.4536635790949166</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3643,13 +3652,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>6.67</v>
+        <v>6.36</v>
       </c>
       <c r="C172">
-        <v>6.297941434490703</v>
+        <v>6.087882036301807</v>
       </c>
       <c r="D172">
-        <v>-0.3720585655092972</v>
+        <v>-0.272117963698193</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3657,13 +3666,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>6.58</v>
+        <v>6.07</v>
       </c>
       <c r="C173">
-        <v>6.250775690991823</v>
+        <v>6.098243545044206</v>
       </c>
       <c r="D173">
-        <v>-0.3292243090081772</v>
+        <v>0.02824354504420601</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3671,13 +3680,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>6.36</v>
+        <v>6.02</v>
       </c>
       <c r="C174">
-        <v>6.0781115856126</v>
+        <v>6.065318748191397</v>
       </c>
       <c r="D174">
-        <v>-0.2818884143874003</v>
+        <v>0.0453187481913977</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3685,13 +3694,13 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>6.06</v>
+        <v>5.96</v>
       </c>
       <c r="C175">
-        <v>6.082630557266771</v>
+        <v>6.01393635294226</v>
       </c>
       <c r="D175">
-        <v>0.02263055726677177</v>
+        <v>0.05393635294226051</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3699,13 +3708,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>5.74</v>
+        <v>5.78</v>
       </c>
       <c r="C176">
-        <v>6.057239210608776</v>
+        <v>6.059668031337798</v>
       </c>
       <c r="D176">
-        <v>0.3172392106087756</v>
+        <v>0.2796680313377973</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3713,13 +3722,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>5.74</v>
+        <v>5.75</v>
       </c>
       <c r="C177">
-        <v>6.061624556803597</v>
+        <v>6.057311056800901</v>
       </c>
       <c r="D177">
-        <v>0.3216245568035969</v>
+        <v>0.3073110568009012</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3727,13 +3736,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>5.75</v>
+        <v>5.72</v>
       </c>
       <c r="C178">
-        <v>6.064598533427226</v>
+        <v>6.041961527969359</v>
       </c>
       <c r="D178">
-        <v>0.3145985334272261</v>
+        <v>0.3219615279693588</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3741,13 +3750,13 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>5.72</v>
+        <v>5.73</v>
       </c>
       <c r="C179">
-        <v>6.042052735508239</v>
+        <v>6.056911071791315</v>
       </c>
       <c r="D179">
-        <v>0.3220527355082394</v>
+        <v>0.3269110717913142</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3755,13 +3764,13 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>5.68</v>
+        <v>5.76</v>
       </c>
       <c r="C180">
-        <v>5.952196108930519</v>
+        <v>6.059578696485926</v>
       </c>
       <c r="D180">
-        <v>0.2721961089305189</v>
+        <v>0.2995786964859262</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3769,13 +3778,13 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>5.65</v>
+        <v>5.71</v>
       </c>
       <c r="C181">
-        <v>5.93217896783476</v>
+        <v>6.05064951498082</v>
       </c>
       <c r="D181">
-        <v>0.2821789678347599</v>
+        <v>0.3406495149808197</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3783,13 +3792,13 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>5.68</v>
+        <v>5.65</v>
       </c>
       <c r="C182">
-        <v>5.918826198409297</v>
+        <v>5.912500278644312</v>
       </c>
       <c r="D182">
-        <v>0.2388261984092974</v>
+        <v>0.2625002786443114</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3797,13 +3806,13 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>5.71</v>
+        <v>5.69</v>
       </c>
       <c r="C183">
-        <v>5.939253534851193</v>
+        <v>5.933786223013905</v>
       </c>
       <c r="D183">
-        <v>0.2292535348511935</v>
+        <v>0.2437862230139043</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3811,13 +3820,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>5.71</v>
+        <v>5.67</v>
       </c>
       <c r="C184">
-        <v>5.936026892851615</v>
+        <v>5.922521182826114</v>
       </c>
       <c r="D184">
-        <v>0.2260268928516149</v>
+        <v>0.252521182826114</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3825,13 +3834,13 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>5.69</v>
+        <v>5.67</v>
       </c>
       <c r="C185">
-        <v>5.891950994019609</v>
+        <v>5.926568521638722</v>
       </c>
       <c r="D185">
-        <v>0.2019509940196089</v>
+        <v>0.2565685216387221</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3839,13 +3848,13 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>5.7</v>
+        <v>5.72</v>
       </c>
       <c r="C186">
-        <v>5.890796117397405</v>
+        <v>5.905951871472008</v>
       </c>
       <c r="D186">
-        <v>0.1907961173974053</v>
+        <v>0.1859518714720085</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3853,13 +3862,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>5.74</v>
+        <v>5.53</v>
       </c>
       <c r="C187">
-        <v>5.879787437145067</v>
+        <v>5.749539346113932</v>
       </c>
       <c r="D187">
-        <v>0.1397874371450669</v>
+        <v>0.2195393461139314</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3867,13 +3876,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>5.47</v>
+        <v>5.52</v>
       </c>
       <c r="C188">
-        <v>5.651711620751875</v>
+        <v>5.722705188081153</v>
       </c>
       <c r="D188">
-        <v>0.1817116207518756</v>
+        <v>0.2027051880811532</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3881,13 +3890,13 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>5.49</v>
+        <v>5.48</v>
       </c>
       <c r="C189">
-        <v>5.666087718493371</v>
+        <v>5.668026264712128</v>
       </c>
       <c r="D189">
-        <v>0.1760877184933705</v>
+        <v>0.1880262647121276</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3895,13 +3904,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>5.45</v>
+        <v>5.49</v>
       </c>
       <c r="C190">
-        <v>5.638406993061089</v>
+        <v>5.666104295377719</v>
       </c>
       <c r="D190">
-        <v>0.188406993061089</v>
+        <v>0.1761042953777183</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3909,13 +3918,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>5.42</v>
+        <v>5.49</v>
       </c>
       <c r="C191">
-        <v>5.643985290780412</v>
+        <v>5.666184074635603</v>
       </c>
       <c r="D191">
-        <v>0.2239852907804121</v>
+        <v>0.1761840746356027</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3923,13 +3932,13 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>5.5</v>
+        <v>5.45</v>
       </c>
       <c r="C192">
-        <v>5.574601041025593</v>
+        <v>5.645749942929188</v>
       </c>
       <c r="D192">
-        <v>0.07460104102559306</v>
+        <v>0.1957499429291882</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3937,13 +3946,13 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>5.6</v>
+        <v>5.36</v>
       </c>
       <c r="C193">
-        <v>5.603843473102332</v>
+        <v>5.637830707712454</v>
       </c>
       <c r="D193">
-        <v>0.00384347310233224</v>
+        <v>0.2778307077124538</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3951,13 +3960,13 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>5.62</v>
+        <v>5.35</v>
       </c>
       <c r="C194">
-        <v>5.620109593494849</v>
+        <v>5.600536840623879</v>
       </c>
       <c r="D194">
-        <v>0.0001095934948489585</v>
+        <v>0.2505368406238793</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3965,13 +3974,13 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>5.7</v>
+        <v>5.33</v>
       </c>
       <c r="C195">
-        <v>5.625328434705231</v>
+        <v>5.559526477652196</v>
       </c>
       <c r="D195">
-        <v>-0.0746715652947687</v>
+        <v>0.2295264776521959</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3979,13 +3988,13 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>5.58</v>
+        <v>5.52</v>
       </c>
       <c r="C196">
-        <v>5.583776590914123</v>
+        <v>5.587824507630928</v>
       </c>
       <c r="D196">
-        <v>0.00377659091412319</v>
+        <v>0.06782450763092829</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3993,13 +4002,13 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>5.82</v>
+        <v>5.51</v>
       </c>
       <c r="C197">
-        <v>5.658524274044579</v>
+        <v>5.564625021639674</v>
       </c>
       <c r="D197">
-        <v>-0.1614757259554214</v>
+        <v>0.05462502163967375</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4007,13 +4016,13 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>5.76</v>
+        <v>5.69</v>
       </c>
       <c r="C198">
-        <v>5.666634880952314</v>
+        <v>5.62946110690275</v>
       </c>
       <c r="D198">
-        <v>-0.09336511904768585</v>
+        <v>-0.06053889309725058</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4021,13 +4030,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="C199">
-        <v>5.707438613525548</v>
+        <v>5.634842540407148</v>
       </c>
       <c r="D199">
-        <v>-0.192561386474452</v>
+        <v>0.03484254040714863</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4035,13 +4044,13 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>5.83</v>
+        <v>5.56</v>
       </c>
       <c r="C200">
-        <v>5.645699145618726</v>
+        <v>5.585801400429433</v>
       </c>
       <c r="D200">
-        <v>-0.1843008543812736</v>
+        <v>0.02580140042943313</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4049,13 +4058,13 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>5.99</v>
+        <v>5.86</v>
       </c>
       <c r="C201">
-        <v>5.654615036797948</v>
+        <v>5.670262189251432</v>
       </c>
       <c r="D201">
-        <v>-0.3353849632020527</v>
+        <v>-0.1897378107485679</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4063,13 +4072,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>5.37</v>
+        <v>5.9</v>
       </c>
       <c r="C202">
-        <v>5.451421335305643</v>
+        <v>5.692840867670934</v>
       </c>
       <c r="D202">
-        <v>0.08142133530564255</v>
+        <v>-0.2071591323290667</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4077,13 +4086,13 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>5.3</v>
+        <v>5.89</v>
       </c>
       <c r="C203">
-        <v>5.426106558242536</v>
+        <v>5.655169568916338</v>
       </c>
       <c r="D203">
-        <v>0.1261065582425358</v>
+        <v>-0.2348304310836618</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4091,13 +4100,13 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>5.3</v>
+        <v>5.83</v>
       </c>
       <c r="C204">
-        <v>5.430745433560199</v>
+        <v>5.645101205636933</v>
       </c>
       <c r="D204">
-        <v>0.1307454335601994</v>
+        <v>-0.1848987943630673</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4105,13 +4114,13 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>5.27</v>
+        <v>5.99</v>
       </c>
       <c r="C205">
-        <v>5.417755866465328</v>
+        <v>5.654889161205413</v>
       </c>
       <c r="D205">
-        <v>0.147755866465328</v>
+        <v>-0.3351108387945869</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4119,13 +4128,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>5.27</v>
+        <v>6.03</v>
       </c>
       <c r="C206">
-        <v>5.4372125664793</v>
+        <v>5.658318543368995</v>
       </c>
       <c r="D206">
-        <v>0.1672125664793001</v>
+        <v>-0.3716814566310056</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4133,13 +4142,13 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>5.21</v>
+        <v>5.98</v>
       </c>
       <c r="C207">
-        <v>5.486540749446903</v>
+        <v>5.604387433261455</v>
       </c>
       <c r="D207">
-        <v>0.2765407494469025</v>
+        <v>-0.3756125667385453</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4147,13 +4156,13 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>4.98</v>
+        <v>5.47</v>
       </c>
       <c r="C208">
-        <v>5.400811954607768</v>
+        <v>5.504886467758905</v>
       </c>
       <c r="D208">
-        <v>0.4208119546077675</v>
+        <v>0.03488646775890558</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4161,13 +4170,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>4.98</v>
+        <v>5.32</v>
       </c>
       <c r="C209">
-        <v>5.38526852554868</v>
+        <v>5.427454450859615</v>
       </c>
       <c r="D209">
-        <v>0.4052685255486796</v>
+        <v>0.1074544508596142</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4175,13 +4184,13 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>5.01</v>
+        <v>5.35</v>
       </c>
       <c r="C210">
-        <v>5.411815334884672</v>
+        <v>5.427167223064148</v>
       </c>
       <c r="D210">
-        <v>0.401815334884672</v>
+        <v>0.07716722306414869</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4189,13 +4198,13 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>4.99</v>
+        <v>5.31</v>
       </c>
       <c r="C211">
-        <v>5.410309570160601</v>
+        <v>5.419932470790223</v>
       </c>
       <c r="D211">
-        <v>0.420309570160601</v>
+        <v>0.1099324707902234</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4203,13 +4212,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="C212">
-        <v>5.369246876191758</v>
+        <v>5.407198762526249</v>
       </c>
       <c r="D212">
-        <v>0.3692468761917578</v>
+        <v>0.1571987625262485</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4217,13 +4226,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>5</v>
+        <v>5.26</v>
       </c>
       <c r="C213">
-        <v>5.380275540587695</v>
+        <v>5.416704756668064</v>
       </c>
       <c r="D213">
-        <v>0.3802755405876947</v>
+        <v>0.1567047566680637</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4231,13 +4240,13 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>5.01</v>
+        <v>5.26</v>
       </c>
       <c r="C214">
-        <v>5.367117451653332</v>
+        <v>5.44927161606321</v>
       </c>
       <c r="D214">
-        <v>0.3571174516533322</v>
+        <v>0.18927161606321</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4245,13 +4254,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>5.1</v>
+        <v>5.19</v>
       </c>
       <c r="C215">
-        <v>5.414248941771083</v>
+        <v>5.46205737630818</v>
       </c>
       <c r="D215">
-        <v>0.3142489417710834</v>
+        <v>0.2720573763081795</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4259,13 +4268,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>5.08</v>
+        <v>5</v>
       </c>
       <c r="C216">
-        <v>5.415124582724927</v>
+        <v>5.432670587824048</v>
       </c>
       <c r="D216">
-        <v>0.3351245827249265</v>
+        <v>0.432670587824048</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4273,13 +4282,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>5.14</v>
+        <v>4.97</v>
       </c>
       <c r="C217">
-        <v>5.438708379365304</v>
+        <v>5.393242753880233</v>
       </c>
       <c r="D217">
-        <v>0.298708379365304</v>
+        <v>0.423242753880233</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4287,13 +4296,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>5.14</v>
+        <v>4.98</v>
       </c>
       <c r="C218">
-        <v>5.383333737761044</v>
+        <v>5.388970895999374</v>
       </c>
       <c r="D218">
-        <v>0.2433337377610441</v>
+        <v>0.4089708959993734</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4301,13 +4310,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>5.09</v>
+        <v>4.99</v>
       </c>
       <c r="C219">
-        <v>5.331027776311011</v>
+        <v>5.390077123088923</v>
       </c>
       <c r="D219">
-        <v>0.2410277763110109</v>
+        <v>0.4000771230889226</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4315,13 +4324,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>5.13</v>
+        <v>5</v>
       </c>
       <c r="C220">
-        <v>5.275591220618892</v>
+        <v>5.419984745678453</v>
       </c>
       <c r="D220">
-        <v>0.1455912206188925</v>
+        <v>0.4199847456784527</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4329,13 +4338,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>5.14</v>
+        <v>5.04</v>
       </c>
       <c r="C221">
-        <v>5.304238744639532</v>
+        <v>5.443865405446579</v>
       </c>
       <c r="D221">
-        <v>0.1642387446395324</v>
+        <v>0.4038654054465791</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4343,13 +4352,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>5.16</v>
+        <v>5.01</v>
       </c>
       <c r="C222">
-        <v>5.315052402305993</v>
+        <v>5.392096598976372</v>
       </c>
       <c r="D222">
-        <v>0.1550524023059925</v>
+        <v>0.3820965989763723</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4357,13 +4366,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>5.11</v>
+        <v>5.15</v>
       </c>
       <c r="C223">
-        <v>5.313182269757608</v>
+        <v>5.434964392636386</v>
       </c>
       <c r="D223">
-        <v>0.2031822697576073</v>
+        <v>0.2849643926363852</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4371,13 +4380,13 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>5.14</v>
+        <v>5.13</v>
       </c>
       <c r="C224">
-        <v>5.300057156714914</v>
+        <v>5.430575522058482</v>
       </c>
       <c r="D224">
-        <v>0.1600571567149141</v>
+        <v>0.300575522058482</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4385,13 +4394,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>5.13</v>
+        <v>5.09</v>
       </c>
       <c r="C225">
-        <v>5.301743061016994</v>
+        <v>5.298927894810581</v>
       </c>
       <c r="D225">
-        <v>0.1717430610169943</v>
+        <v>0.2089278948105813</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4399,13 +4408,13 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>5.1</v>
+        <v>5.09</v>
       </c>
       <c r="C226">
-        <v>5.273861976344859</v>
+        <v>5.330725234005496</v>
       </c>
       <c r="D226">
-        <v>0.1738619763448597</v>
+        <v>0.2407252340054962</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4413,13 +4422,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>5.07</v>
+        <v>5.09</v>
       </c>
       <c r="C227">
-        <v>5.233681449359729</v>
+        <v>5.2587700489999</v>
       </c>
       <c r="D227">
-        <v>0.1636814493597285</v>
+        <v>0.1687700489999004</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4427,13 +4436,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>5.08</v>
+        <v>5.07</v>
       </c>
       <c r="C228">
-        <v>5.294917684685787</v>
+        <v>5.253366053381</v>
       </c>
       <c r="D228">
-        <v>0.214917684685787</v>
+        <v>0.1833660533809995</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4441,13 +4450,13 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>5.15</v>
+        <v>5.08</v>
       </c>
       <c r="C229">
-        <v>5.315639309556996</v>
+        <v>5.292641233252389</v>
       </c>
       <c r="D229">
-        <v>0.1656393095569957</v>
+        <v>0.2126412332523886</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4455,13 +4464,13 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>5.08</v>
+        <v>5.04</v>
       </c>
       <c r="C230">
-        <v>5.226347723186036</v>
+        <v>5.242671022891281</v>
       </c>
       <c r="D230">
-        <v>0.1463477231860359</v>
+        <v>0.2026710228912805</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4469,13 +4478,13 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>5.06</v>
+        <v>5.07</v>
       </c>
       <c r="C231">
-        <v>5.230124615877259</v>
+        <v>5.245339151419768</v>
       </c>
       <c r="D231">
-        <v>0.1701246158772589</v>
+        <v>0.1753391514197675</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4483,13 +4492,13 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>5.09</v>
+        <v>5.06</v>
       </c>
       <c r="C232">
-        <v>5.239718655110574</v>
+        <v>5.25766507300079</v>
       </c>
       <c r="D232">
-        <v>0.1497186551105738</v>
+        <v>0.1976650730007901</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4497,13 +4506,13 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>5.05</v>
+        <v>5.07</v>
       </c>
       <c r="C233">
-        <v>5.218579399765048</v>
+        <v>5.263299315392859</v>
       </c>
       <c r="D233">
-        <v>0.168579399765048</v>
+        <v>0.1932993153928591</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4511,13 +4520,13 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>5.05</v>
+        <v>5.12</v>
       </c>
       <c r="C234">
-        <v>5.227493329395713</v>
+        <v>5.335264309808506</v>
       </c>
       <c r="D234">
-        <v>0.1774933293957135</v>
+        <v>0.2152643098085054</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4525,13 +4534,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>4.95</v>
+        <v>5.14</v>
       </c>
       <c r="C235">
-        <v>5.102062475066017</v>
+        <v>5.332991065820912</v>
       </c>
       <c r="D235">
-        <v>0.1520624750660167</v>
+        <v>0.1929910658209124</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4539,13 +4548,13 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>4.88</v>
+        <v>5.16</v>
       </c>
       <c r="C236">
-        <v>4.995029247283371</v>
+        <v>5.331331993874193</v>
       </c>
       <c r="D236">
-        <v>0.1150292472833714</v>
+        <v>0.1713319938741931</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4553,13 +4562,13 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>4.89</v>
+        <v>5.12</v>
       </c>
       <c r="C237">
-        <v>4.983927030381597</v>
+        <v>5.31141986900223</v>
       </c>
       <c r="D237">
-        <v>0.09392703038159755</v>
+        <v>0.19141986900223</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4567,13 +4576,13 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>4.88</v>
+        <v>5.11</v>
       </c>
       <c r="C238">
-        <v>4.983026063444663</v>
+        <v>5.217217884154766</v>
       </c>
       <c r="D238">
-        <v>0.1030260634446636</v>
+        <v>0.1072178841547657</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4581,13 +4590,13 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>4.89</v>
+        <v>5.11</v>
       </c>
       <c r="C239">
-        <v>4.980961395158703</v>
+        <v>5.209247433390108</v>
       </c>
       <c r="D239">
-        <v>0.09096139515870316</v>
+        <v>0.09924743339010789</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4595,13 +4604,13 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>4.93</v>
+        <v>5.06</v>
       </c>
       <c r="C240">
-        <v>4.996638980186971</v>
+        <v>5.215663297790308</v>
       </c>
       <c r="D240">
-        <v>0.0666389801869709</v>
+        <v>0.1556632977903085</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4609,13 +4618,13 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>4.95</v>
+        <v>5.05</v>
       </c>
       <c r="C241">
-        <v>5.005375588137825</v>
+        <v>5.209776025365009</v>
       </c>
       <c r="D241">
-        <v>0.05537558813782528</v>
+        <v>0.1597760253650087</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4623,13 +4632,13 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>4.97</v>
+        <v>5.08</v>
       </c>
       <c r="C242">
-        <v>4.996412200072838</v>
+        <v>5.245905449572279</v>
       </c>
       <c r="D242">
-        <v>0.02641220007283795</v>
+        <v>0.1659054495722794</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4637,13 +4646,13 @@
         <v>245</v>
       </c>
       <c r="B243">
-        <v>5.1</v>
+        <v>5.09</v>
       </c>
       <c r="C243">
-        <v>4.977912196199357</v>
+        <v>5.239838143263589</v>
       </c>
       <c r="D243">
-        <v>-0.1220878038006425</v>
+        <v>0.1498381432635894</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4651,13 +4660,13 @@
         <v>246</v>
       </c>
       <c r="B244">
-        <v>5.13</v>
+        <v>5.05</v>
       </c>
       <c r="C244">
-        <v>5.003171323570609</v>
+        <v>5.218696603669218</v>
       </c>
       <c r="D244">
-        <v>-0.1268286764293913</v>
+        <v>0.1686966036692183</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4665,13 +4674,13 @@
         <v>247</v>
       </c>
       <c r="B245">
-        <v>5.15</v>
+        <v>4.98</v>
       </c>
       <c r="C245">
-        <v>5.000919488732775</v>
+        <v>5.119871253170794</v>
       </c>
       <c r="D245">
-        <v>-0.1490805112672255</v>
+        <v>0.1398712531707931</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -4679,13 +4688,13 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>5.19</v>
+        <v>4.98</v>
       </c>
       <c r="C246">
-        <v>5.041703474514687</v>
+        <v>5.111217252966427</v>
       </c>
       <c r="D246">
-        <v>-0.1482965254853132</v>
+        <v>0.1312172529664268</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -4693,13 +4702,13 @@
         <v>249</v>
       </c>
       <c r="B247">
-        <v>5.2</v>
+        <v>4.95</v>
       </c>
       <c r="C247">
-        <v>4.992056256142346</v>
+        <v>5.050264859753235</v>
       </c>
       <c r="D247">
-        <v>-0.2079437438576539</v>
+        <v>0.100264859753235</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -4707,13 +4716,13 @@
         <v>250</v>
       </c>
       <c r="B248">
-        <v>5.21</v>
+        <v>4.93</v>
       </c>
       <c r="C248">
-        <v>5.017794683216271</v>
+        <v>5.039043315390994</v>
       </c>
       <c r="D248">
-        <v>-0.1922053167837285</v>
+        <v>0.109043315390994</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -4721,13 +4730,13 @@
         <v>251</v>
       </c>
       <c r="B249">
-        <v>5.15</v>
+        <v>4.94</v>
       </c>
       <c r="C249">
-        <v>5.077979326786718</v>
+        <v>4.996383841223367</v>
       </c>
       <c r="D249">
-        <v>-0.07202067321328265</v>
+        <v>0.05638384122336682</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -4735,13 +4744,13 @@
         <v>252</v>
       </c>
       <c r="B250">
-        <v>5.23</v>
+        <v>5.06</v>
       </c>
       <c r="C250">
-        <v>5.109679412558494</v>
+        <v>5.024168419927116</v>
       </c>
       <c r="D250">
-        <v>-0.1203205874415065</v>
+        <v>-0.0358315800728839</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -4749,13 +4758,13 @@
         <v>253</v>
       </c>
       <c r="B251">
-        <v>5.26</v>
+        <v>5.09</v>
       </c>
       <c r="C251">
-        <v>5.152719225471071</v>
+        <v>5.034889307751485</v>
       </c>
       <c r="D251">
-        <v>-0.1072807745289293</v>
+        <v>-0.0551106922485145</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -4763,13 +4772,13 @@
         <v>254</v>
       </c>
       <c r="B252">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="C252">
-        <v>5.192854359994428</v>
+        <v>4.992893089532852</v>
       </c>
       <c r="D252">
-        <v>-0.1071456400055721</v>
+        <v>-0.1071069104671478</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -4777,13 +4786,13 @@
         <v>255</v>
       </c>
       <c r="B253">
-        <v>5.25</v>
+        <v>5.14</v>
       </c>
       <c r="C253">
-        <v>5.130929417264223</v>
+        <v>5.007234099394354</v>
       </c>
       <c r="D253">
-        <v>-0.1190705827357768</v>
+        <v>-0.1327659006056461</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -4791,13 +4800,13 @@
         <v>256</v>
       </c>
       <c r="B254">
-        <v>5.19</v>
+        <v>5.23</v>
       </c>
       <c r="C254">
-        <v>5.03886746442204</v>
+        <v>5.08930586439491</v>
       </c>
       <c r="D254">
-        <v>-0.1511325355779602</v>
+        <v>-0.1406941356050906</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -4805,13 +4814,13 @@
         <v>257</v>
       </c>
       <c r="B255">
-        <v>5.17</v>
+        <v>5.23</v>
       </c>
       <c r="C255">
-        <v>5.008157949661657</v>
+        <v>5.092998662199366</v>
       </c>
       <c r="D255">
-        <v>-0.1618420503383433</v>
+        <v>-0.1370013378006343</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -4819,13 +4828,13 @@
         <v>258</v>
       </c>
       <c r="B256">
-        <v>5.27</v>
+        <v>5.23</v>
       </c>
       <c r="C256">
-        <v>5.102705830104869</v>
+        <v>5.087999881714024</v>
       </c>
       <c r="D256">
-        <v>-0.1672941698951309</v>
+        <v>-0.1420001182859769</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -4833,13 +4842,13 @@
         <v>259</v>
       </c>
       <c r="B257">
-        <v>5.33</v>
+        <v>5.25</v>
       </c>
       <c r="C257">
-        <v>5.151878618354315</v>
+        <v>5.100750721655506</v>
       </c>
       <c r="D257">
-        <v>-0.1781213816456848</v>
+        <v>-0.1492492783444943</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -4847,13 +4856,13 @@
         <v>260</v>
       </c>
       <c r="B258">
-        <v>5.34</v>
+        <v>5.29</v>
       </c>
       <c r="C258">
-        <v>5.155913656258313</v>
+        <v>5.106177632840393</v>
       </c>
       <c r="D258">
-        <v>-0.1840863437416864</v>
+        <v>-0.1838223671596069</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -4861,13 +4870,13 @@
         <v>261</v>
       </c>
       <c r="B259">
-        <v>5.36</v>
+        <v>5.25</v>
       </c>
       <c r="C259">
-        <v>5.131437282435416</v>
+        <v>5.119706483633538</v>
       </c>
       <c r="D259">
-        <v>-0.2285627175645848</v>
+        <v>-0.1302935163664616</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -4875,13 +4884,13 @@
         <v>262</v>
       </c>
       <c r="B260">
-        <v>5.35</v>
+        <v>5.25</v>
       </c>
       <c r="C260">
-        <v>5.101544176672734</v>
+        <v>5.125530300916849</v>
       </c>
       <c r="D260">
-        <v>-0.2484558233272658</v>
+        <v>-0.1244696990831509</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -4889,13 +4898,13 @@
         <v>263</v>
       </c>
       <c r="B261">
-        <v>5.29</v>
+        <v>5.16</v>
       </c>
       <c r="C261">
-        <v>5.103487282740351</v>
+        <v>5.020190891511016</v>
       </c>
       <c r="D261">
-        <v>-0.1865127172596486</v>
+        <v>-0.1398091084889836</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -4903,13 +4912,13 @@
         <v>264</v>
       </c>
       <c r="B262">
-        <v>5.33</v>
+        <v>5.3</v>
       </c>
       <c r="C262">
-        <v>5.117072178799626</v>
+        <v>5.10455047795207</v>
       </c>
       <c r="D262">
-        <v>-0.212927821200374</v>
+        <v>-0.1954495220479302</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -4917,13 +4926,13 @@
         <v>265</v>
       </c>
       <c r="B263">
-        <v>5.28</v>
+        <v>5.38</v>
       </c>
       <c r="C263">
-        <v>5.157196124279382</v>
+        <v>5.17172073483983</v>
       </c>
       <c r="D263">
-        <v>-0.122803875720618</v>
+        <v>-0.2082792651601704</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -4931,13 +4940,13 @@
         <v>266</v>
       </c>
       <c r="B264">
-        <v>5.38</v>
+        <v>5.36</v>
       </c>
       <c r="C264">
-        <v>5.166707647955407</v>
+        <v>5.164872904516002</v>
       </c>
       <c r="D264">
-        <v>-0.2132923520445926</v>
+        <v>-0.1951270954839988</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -4945,13 +4954,13 @@
         <v>267</v>
       </c>
       <c r="B265">
-        <v>5.38</v>
+        <v>5.36</v>
       </c>
       <c r="C265">
-        <v>5.170785359204743</v>
+        <v>5.186020064351209</v>
       </c>
       <c r="D265">
-        <v>-0.2092146407952571</v>
+        <v>-0.1739799356487914</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -4959,13 +4968,13 @@
         <v>268</v>
       </c>
       <c r="B266">
-        <v>5.41</v>
+        <v>5.37</v>
       </c>
       <c r="C266">
-        <v>5.2027262307843</v>
+        <v>5.175799850018712</v>
       </c>
       <c r="D266">
-        <v>-0.2072737692156998</v>
+        <v>-0.1942001499812882</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -4973,13 +4982,13 @@
         <v>269</v>
       </c>
       <c r="B267">
-        <v>5.42</v>
+        <v>5.41</v>
       </c>
       <c r="C267">
-        <v>5.210745789523504</v>
+        <v>5.194615086677255</v>
       </c>
       <c r="D267">
-        <v>-0.2092542104764963</v>
+        <v>-0.2153849133227448</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -4987,13 +4996,13 @@
         <v>270</v>
       </c>
       <c r="B268">
-        <v>5.65</v>
+        <v>5.41</v>
       </c>
       <c r="C268">
-        <v>5.284191895876134</v>
+        <v>5.204648089647516</v>
       </c>
       <c r="D268">
-        <v>-0.3658081041238663</v>
+        <v>-0.2053519103524843</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5001,13 +5010,13 @@
         <v>271</v>
       </c>
       <c r="B269">
-        <v>5.69</v>
+        <v>5.54</v>
       </c>
       <c r="C269">
-        <v>5.300558563235686</v>
+        <v>5.257187162147701</v>
       </c>
       <c r="D269">
-        <v>-0.3894414367643142</v>
+        <v>-0.2828128378522994</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5015,13 +5024,13 @@
         <v>272</v>
       </c>
       <c r="B270">
-        <v>5.74</v>
+        <v>5.65</v>
       </c>
       <c r="C270">
-        <v>5.337840808802282</v>
+        <v>5.284563017664536</v>
       </c>
       <c r="D270">
-        <v>-0.4021591911977183</v>
+        <v>-0.3654369823354644</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5029,13 +5038,13 @@
         <v>273</v>
       </c>
       <c r="B271">
-        <v>5.52</v>
+        <v>5.68</v>
       </c>
       <c r="C271">
-        <v>5.404371828744877</v>
+        <v>5.294593029681077</v>
       </c>
       <c r="D271">
-        <v>-0.115628171255123</v>
+        <v>-0.3854069703189227</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5043,13 +5052,13 @@
         <v>274</v>
       </c>
       <c r="B272">
-        <v>5.54</v>
+        <v>5.71</v>
       </c>
       <c r="C272">
-        <v>5.39762775811165</v>
+        <v>5.314131249999998</v>
       </c>
       <c r="D272">
-        <v>-0.1423722418883502</v>
+        <v>-0.3958687500000018</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5057,13 +5066,13 @@
         <v>275</v>
       </c>
       <c r="B273">
-        <v>5.53</v>
+        <v>5.74</v>
       </c>
       <c r="C273">
-        <v>5.374678255764538</v>
+        <v>5.339979634660904</v>
       </c>
       <c r="D273">
-        <v>-0.1553217442354624</v>
+        <v>-0.4000203653390964</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5071,13 +5080,13 @@
         <v>276</v>
       </c>
       <c r="B274">
-        <v>5.49</v>
+        <v>5.72</v>
       </c>
       <c r="C274">
-        <v>5.309411814385591</v>
+        <v>5.390786981977747</v>
       </c>
       <c r="D274">
-        <v>-0.1805881856144094</v>
+        <v>-0.3292130180222532</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5085,13 +5094,13 @@
         <v>277</v>
       </c>
       <c r="B275">
-        <v>5.51</v>
+        <v>5.54</v>
       </c>
       <c r="C275">
-        <v>5.311390338864875</v>
+        <v>5.4093276385257</v>
       </c>
       <c r="D275">
-        <v>-0.1986096611351247</v>
+        <v>-0.1306723614742999</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5099,13 +5108,13 @@
         <v>278</v>
       </c>
       <c r="B276">
-        <v>5.48</v>
+        <v>5.53</v>
       </c>
       <c r="C276">
-        <v>5.326021843417076</v>
+        <v>5.404097433498268</v>
       </c>
       <c r="D276">
-        <v>-0.1539781565829248</v>
+        <v>-0.1259025665017326</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5113,13 +5122,13 @@
         <v>279</v>
       </c>
       <c r="B277">
-        <v>5.47</v>
+        <v>5.55</v>
       </c>
       <c r="C277">
-        <v>5.326018170091199</v>
+        <v>5.406183436341894</v>
       </c>
       <c r="D277">
-        <v>-0.1439818299088005</v>
+        <v>-0.1438165636581061</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5127,13 +5136,13 @@
         <v>280</v>
       </c>
       <c r="B278">
-        <v>5.55</v>
+        <v>5.56</v>
       </c>
       <c r="C278">
-        <v>5.353697348411254</v>
+        <v>5.432600052273004</v>
       </c>
       <c r="D278">
-        <v>-0.1963026515887458</v>
+        <v>-0.127399947726996</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5141,13 +5150,13 @@
         <v>281</v>
       </c>
       <c r="B279">
-        <v>5.56</v>
+        <v>5.52</v>
       </c>
       <c r="C279">
-        <v>5.357895162167319</v>
+        <v>5.405199497911535</v>
       </c>
       <c r="D279">
-        <v>-0.2021048378326809</v>
+        <v>-0.1148005020884648</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5155,13 +5164,13 @@
         <v>282</v>
       </c>
       <c r="B280">
-        <v>5.66</v>
+        <v>5.52</v>
       </c>
       <c r="C280">
-        <v>5.388550553974174</v>
+        <v>5.390122695681565</v>
       </c>
       <c r="D280">
-        <v>-0.2714494460258265</v>
+        <v>-0.1298773043184349</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5169,13 +5178,13 @@
         <v>283</v>
       </c>
       <c r="B281">
-        <v>5.68</v>
+        <v>5.53</v>
       </c>
       <c r="C281">
-        <v>5.375546954521651</v>
+        <v>5.369228942189884</v>
       </c>
       <c r="D281">
-        <v>-0.3044530454783487</v>
+        <v>-0.1607710578101162</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5183,13 +5192,13 @@
         <v>284</v>
       </c>
       <c r="B282">
-        <v>5.68</v>
+        <v>5.55</v>
       </c>
       <c r="C282">
-        <v>5.404492938588772</v>
+        <v>5.346040189740594</v>
       </c>
       <c r="D282">
-        <v>-0.2755070614112274</v>
+        <v>-0.2039598102594056</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5197,13 +5206,13 @@
         <v>285</v>
       </c>
       <c r="B283">
-        <v>5.65</v>
+        <v>5.57</v>
       </c>
       <c r="C283">
-        <v>5.337037423015575</v>
+        <v>5.342996286020475</v>
       </c>
       <c r="D283">
-        <v>-0.3129625769844253</v>
+        <v>-0.2270037139795251</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5211,13 +5220,13 @@
         <v>286</v>
       </c>
       <c r="B284">
-        <v>5.64</v>
+        <v>5.66</v>
       </c>
       <c r="C284">
-        <v>5.344730395000193</v>
+        <v>5.389265652507096</v>
       </c>
       <c r="D284">
-        <v>-0.2952696049998069</v>
+        <v>-0.2707343474929038</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5225,13 +5234,13 @@
         <v>287</v>
       </c>
       <c r="B285">
-        <v>5.67</v>
+        <v>5.68</v>
       </c>
       <c r="C285">
-        <v>5.345017875430138</v>
+        <v>5.376399480040981</v>
       </c>
       <c r="D285">
-        <v>-0.3249821245698623</v>
+        <v>-0.3036005199590184</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5242,10 +5251,52 @@
         <v>5.67</v>
       </c>
       <c r="C286">
-        <v>5.360108733732138</v>
+        <v>5.361410954592283</v>
       </c>
       <c r="D286">
-        <v>-0.3098912662678615</v>
+        <v>-0.3085890454077171</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B287">
+        <v>5.69</v>
+      </c>
+      <c r="C287">
+        <v>5.380495627898111</v>
+      </c>
+      <c r="D287">
+        <v>-0.3095043721018893</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B288">
+        <v>5.68</v>
+      </c>
+      <c r="C288">
+        <v>5.398152813284148</v>
+      </c>
+      <c r="D288">
+        <v>-0.2818471867158516</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B289">
+        <v>5.79</v>
+      </c>
+      <c r="C289">
+        <v>5.485565103525771</v>
+      </c>
+      <c r="D289">
+        <v>-0.3044348964742287</v>
       </c>
     </row>
   </sheetData>

--- a/temp/stable_test.xlsx
+++ b/temp/stable_test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="294">
   <si>
     <t>华英农业</t>
   </si>
@@ -28,862 +28,868 @@
     <t>time</t>
   </si>
   <si>
-    <t>2019-06-11 13:32:00</t>
-  </si>
-  <si>
-    <t>2019-06-10 15:00:00</t>
-  </si>
-  <si>
-    <t>2019-06-10 13:39:00</t>
-  </si>
-  <si>
-    <t>2019-06-05 13:22:00</t>
-  </si>
-  <si>
-    <t>2019-06-05 11:10:00</t>
-  </si>
-  <si>
-    <t>2019-06-04 09:30:00</t>
-  </si>
-  <si>
-    <t>2019-06-03 13:28:00</t>
-  </si>
-  <si>
-    <t>2019-06-03 10:59:00</t>
-  </si>
-  <si>
-    <t>2019-06-03 10:31:00</t>
-  </si>
-  <si>
-    <t>2019-06-03 10:07:00</t>
-  </si>
-  <si>
-    <t>2019-05-31 14:48:00</t>
-  </si>
-  <si>
-    <t>2019-05-31 13:51:00</t>
-  </si>
-  <si>
-    <t>2019-05-31 10:24:00</t>
-  </si>
-  <si>
-    <t>2019-05-30 14:32:00</t>
-  </si>
-  <si>
-    <t>2019-05-30 13:18:00</t>
-  </si>
-  <si>
-    <t>2019-05-29 14:14:00</t>
-  </si>
-  <si>
-    <t>2019-05-28 13:46:00</t>
-  </si>
-  <si>
-    <t>2019-05-28 09:52:00</t>
-  </si>
-  <si>
-    <t>2019-05-24 13:16:00</t>
-  </si>
-  <si>
-    <t>2019-05-24 11:09:00</t>
-  </si>
-  <si>
-    <t>2019-05-23 11:24:00</t>
-  </si>
-  <si>
-    <t>2019-05-23 09:39:00</t>
-  </si>
-  <si>
-    <t>2019-05-21 10:25:00</t>
-  </si>
-  <si>
-    <t>2019-05-21 09:50:00</t>
-  </si>
-  <si>
-    <t>2019-05-21 09:37:00</t>
-  </si>
-  <si>
-    <t>2019-05-20 10:54:00</t>
-  </si>
-  <si>
-    <t>2019-05-20 10:15:00</t>
-  </si>
-  <si>
-    <t>2019-05-20 10:05:00</t>
-  </si>
-  <si>
-    <t>2019-05-17 14:19:00</t>
-  </si>
-  <si>
-    <t>2019-05-17 10:45:00</t>
-  </si>
-  <si>
-    <t>2019-05-17 10:32:00</t>
-  </si>
-  <si>
-    <t>2019-05-16 10:08:00</t>
-  </si>
-  <si>
-    <t>2019-05-15 14:38:00</t>
-  </si>
-  <si>
-    <t>2019-05-15 14:28:00</t>
-  </si>
-  <si>
-    <t>2019-05-15 10:51:00</t>
-  </si>
-  <si>
-    <t>2019-05-13 14:45:00</t>
-  </si>
-  <si>
-    <t>2019-05-10 14:24:00</t>
-  </si>
-  <si>
-    <t>2019-05-09 10:46:00</t>
-  </si>
-  <si>
-    <t>2019-05-08 10:31:00</t>
-  </si>
-  <si>
-    <t>2019-05-08 10:03:00</t>
-  </si>
-  <si>
-    <t>2019-05-08 09:31:00</t>
-  </si>
-  <si>
-    <t>2019-05-07 14:16:00</t>
-  </si>
-  <si>
-    <t>2019-05-07 11:13:00</t>
-  </si>
-  <si>
-    <t>2019-04-30 11:16:00</t>
-  </si>
-  <si>
-    <t>2019-04-30 10:54:00</t>
-  </si>
-  <si>
-    <t>2019-04-30 09:31:00</t>
-  </si>
-  <si>
-    <t>2019-04-29 09:30:00</t>
-  </si>
-  <si>
-    <t>2019-04-26 14:44:00</t>
-  </si>
-  <si>
-    <t>2019-04-26 11:30:00</t>
-  </si>
-  <si>
-    <t>2019-04-25 11:02:00</t>
-  </si>
-  <si>
-    <t>2019-04-25 10:37:00</t>
-  </si>
-  <si>
-    <t>2019-04-25 10:02:00</t>
-  </si>
-  <si>
-    <t>2019-04-24 14:43:00</t>
-  </si>
-  <si>
-    <t>2019-04-24 14:06:00</t>
-  </si>
-  <si>
-    <t>2019-04-24 10:45:00</t>
-  </si>
-  <si>
-    <t>2019-04-23 14:23:00</t>
-  </si>
-  <si>
-    <t>2019-04-23 14:19:00</t>
-  </si>
-  <si>
-    <t>2019-04-23 10:42:00</t>
-  </si>
-  <si>
-    <t>2019-04-23 09:49:00</t>
-  </si>
-  <si>
-    <t>2019-04-22 09:36:00</t>
-  </si>
-  <si>
-    <t>2019-04-19 14:02:00</t>
-  </si>
-  <si>
-    <t>2019-04-19 13:56:00</t>
-  </si>
-  <si>
-    <t>2019-04-19 11:07:00</t>
-  </si>
-  <si>
-    <t>2019-04-19 10:59:00</t>
-  </si>
-  <si>
-    <t>2019-04-19 09:44:00</t>
-  </si>
-  <si>
-    <t>2019-04-18 11:30:00</t>
-  </si>
-  <si>
-    <t>2019-04-18 10:42:00</t>
+    <t>2019-06-13 14:23:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 13:10:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 14:41:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 10:07:00</t>
+  </si>
+  <si>
+    <t>2019-06-11 14:07:00</t>
+  </si>
+  <si>
+    <t>2019-06-11 14:03:00</t>
+  </si>
+  <si>
+    <t>2019-06-11 13:35:00</t>
+  </si>
+  <si>
+    <t>2019-06-11 10:30:00</t>
+  </si>
+  <si>
+    <t>2019-06-10 14:34:00</t>
+  </si>
+  <si>
+    <t>2019-06-10 13:03:00</t>
+  </si>
+  <si>
+    <t>2019-06-04 14:47:00</t>
+  </si>
+  <si>
+    <t>2019-06-04 11:22:00</t>
+  </si>
+  <si>
+    <t>2019-06-04 10:29:00</t>
+  </si>
+  <si>
+    <t>2019-06-03 14:53:00</t>
+  </si>
+  <si>
+    <t>2019-06-03 14:51:00</t>
+  </si>
+  <si>
+    <t>2019-06-03 13:51:00</t>
+  </si>
+  <si>
+    <t>2019-06-03 13:09:00</t>
+  </si>
+  <si>
+    <t>2019-06-03 11:27:00</t>
+  </si>
+  <si>
+    <t>2019-06-03 11:24:00</t>
+  </si>
+  <si>
+    <t>2019-06-03 10:43:00</t>
+  </si>
+  <si>
+    <t>2019-06-03 10:00:00</t>
+  </si>
+  <si>
+    <t>2019-05-31 14:30:00</t>
+  </si>
+  <si>
+    <t>2019-05-31 09:30:00</t>
+  </si>
+  <si>
+    <t>2019-05-30 13:09:00</t>
+  </si>
+  <si>
+    <t>2019-05-30 10:25:00</t>
+  </si>
+  <si>
+    <t>2019-05-29 11:26:00</t>
+  </si>
+  <si>
+    <t>2019-05-28 14:31:00</t>
+  </si>
+  <si>
+    <t>2019-05-28 14:09:00</t>
+  </si>
+  <si>
+    <t>2019-05-28 13:06:00</t>
+  </si>
+  <si>
+    <t>2019-05-28 10:44:00</t>
+  </si>
+  <si>
+    <t>2019-05-28 09:58:00</t>
+  </si>
+  <si>
+    <t>2019-05-27 14:21:00</t>
+  </si>
+  <si>
+    <t>2019-05-27 10:51:00</t>
+  </si>
+  <si>
+    <t>2019-05-27 10:39:00</t>
+  </si>
+  <si>
+    <t>2019-05-24 10:57:00</t>
+  </si>
+  <si>
+    <t>2019-05-23 13:54:00</t>
+  </si>
+  <si>
+    <t>2019-05-23 10:59:00</t>
+  </si>
+  <si>
+    <t>2019-05-23 09:38:00</t>
+  </si>
+  <si>
+    <t>2019-05-22 13:55:00</t>
+  </si>
+  <si>
+    <t>2019-05-22 13:45:00</t>
+  </si>
+  <si>
+    <t>2019-05-22 13:04:00</t>
+  </si>
+  <si>
+    <t>2019-05-20 09:51:00</t>
+  </si>
+  <si>
+    <t>2019-05-17 13:07:00</t>
+  </si>
+  <si>
+    <t>2019-05-17 10:21:00</t>
+  </si>
+  <si>
+    <t>2019-05-16 14:53:00</t>
+  </si>
+  <si>
+    <t>2019-05-16 10:02:00</t>
+  </si>
+  <si>
+    <t>2019-05-15 14:10:00</t>
+  </si>
+  <si>
+    <t>2019-05-15 13:27:00</t>
+  </si>
+  <si>
+    <t>2019-05-13 13:54:00</t>
+  </si>
+  <si>
+    <t>2019-05-13 10:57:00</t>
+  </si>
+  <si>
+    <t>2019-05-13 10:52:00</t>
+  </si>
+  <si>
+    <t>2019-05-13 10:44:00</t>
+  </si>
+  <si>
+    <t>2019-05-10 14:52:00</t>
+  </si>
+  <si>
+    <t>2019-05-10 10:04:00</t>
+  </si>
+  <si>
+    <t>2019-05-09 13:48:00</t>
+  </si>
+  <si>
+    <t>2019-05-09 10:39:00</t>
+  </si>
+  <si>
+    <t>2019-05-09 10:04:00</t>
+  </si>
+  <si>
+    <t>2019-05-08 11:09:00</t>
+  </si>
+  <si>
+    <t>2019-05-08 10:39:00</t>
+  </si>
+  <si>
+    <t>2019-05-07 14:15:00</t>
+  </si>
+  <si>
+    <t>2019-05-07 09:47:00</t>
+  </si>
+  <si>
+    <t>2019-05-06 14:52:00</t>
+  </si>
+  <si>
+    <t>2019-05-06 14:49:00</t>
+  </si>
+  <si>
+    <t>2019-04-29 14:16:00</t>
+  </si>
+  <si>
+    <t>2019-04-29 14:15:00</t>
+  </si>
+  <si>
+    <t>2019-04-29 10:30:00</t>
+  </si>
+  <si>
+    <t>2019-04-26 13:37:00</t>
+  </si>
+  <si>
+    <t>2019-04-26 13:06:00</t>
+  </si>
+  <si>
+    <t>2019-04-25 11:16:00</t>
+  </si>
+  <si>
+    <t>2019-04-25 10:32:00</t>
+  </si>
+  <si>
+    <t>2019-04-24 14:44:00</t>
+  </si>
+  <si>
+    <t>2019-04-24 14:21:00</t>
+  </si>
+  <si>
+    <t>2019-04-24 13:22:00</t>
+  </si>
+  <si>
+    <t>2019-04-24 13:12:00</t>
+  </si>
+  <si>
+    <t>2019-04-24 10:53:00</t>
+  </si>
+  <si>
+    <t>2019-04-24 10:49:00</t>
+  </si>
+  <si>
+    <t>2019-04-23 13:18:00</t>
+  </si>
+  <si>
+    <t>2019-04-23 13:01:00</t>
+  </si>
+  <si>
+    <t>2019-04-23 10:51:00</t>
+  </si>
+  <si>
+    <t>2019-04-19 14:48:00</t>
+  </si>
+  <si>
+    <t>2019-04-19 14:00:00</t>
+  </si>
+  <si>
+    <t>2019-04-19 13:18:00</t>
+  </si>
+  <si>
+    <t>2019-04-19 10:16:00</t>
+  </si>
+  <si>
+    <t>2019-04-18 13:49:00</t>
+  </si>
+  <si>
+    <t>2019-04-18 09:52:00</t>
   </si>
   <si>
     <t>2019-04-17 14:30:00</t>
   </si>
   <si>
-    <t>2019-04-17 13:31:00</t>
-  </si>
-  <si>
-    <t>2019-04-17 11:16:00</t>
-  </si>
-  <si>
-    <t>2019-04-16 14:39:00</t>
-  </si>
-  <si>
-    <t>2019-04-16 13:29:00</t>
-  </si>
-  <si>
-    <t>2019-04-15 13:43:00</t>
-  </si>
-  <si>
-    <t>2019-04-15 13:36:00</t>
-  </si>
-  <si>
-    <t>2019-04-15 13:17:00</t>
-  </si>
-  <si>
-    <t>2019-04-15 10:55:00</t>
-  </si>
-  <si>
-    <t>2019-04-15 10:54:00</t>
-  </si>
-  <si>
-    <t>2019-04-15 10:44:00</t>
-  </si>
-  <si>
-    <t>2019-04-15 09:35:00</t>
-  </si>
-  <si>
-    <t>2019-04-12 13:41:00</t>
-  </si>
-  <si>
-    <t>2019-04-12 10:58:00</t>
-  </si>
-  <si>
-    <t>2019-04-11 14:01:00</t>
-  </si>
-  <si>
-    <t>2019-04-11 13:45:00</t>
-  </si>
-  <si>
-    <t>2019-04-11 10:40:00</t>
-  </si>
-  <si>
-    <t>2019-04-11 10:11:00</t>
-  </si>
-  <si>
-    <t>2019-04-11 10:10:00</t>
-  </si>
-  <si>
-    <t>2019-04-10 14:48:00</t>
-  </si>
-  <si>
-    <t>2019-04-10 10:59:00</t>
-  </si>
-  <si>
-    <t>2019-04-10 10:44:00</t>
-  </si>
-  <si>
-    <t>2019-04-10 10:22:00</t>
-  </si>
-  <si>
-    <t>2019-04-09 14:46:00</t>
-  </si>
-  <si>
-    <t>2019-04-04 14:20:00</t>
-  </si>
-  <si>
-    <t>2019-04-04 10:55:00</t>
-  </si>
-  <si>
-    <t>2019-04-03 14:27:00</t>
-  </si>
-  <si>
-    <t>2019-04-03 10:41:00</t>
-  </si>
-  <si>
-    <t>2019-04-02 14:35:00</t>
-  </si>
-  <si>
-    <t>2019-03-29 14:15:00</t>
-  </si>
-  <si>
-    <t>2019-03-29 11:09:00</t>
-  </si>
-  <si>
-    <t>2019-03-29 11:08:00</t>
-  </si>
-  <si>
-    <t>2019-03-29 11:07:00</t>
-  </si>
-  <si>
-    <t>2019-03-28 14:31:00</t>
-  </si>
-  <si>
-    <t>2019-03-28 14:22:00</t>
-  </si>
-  <si>
-    <t>2019-03-28 13:05:00</t>
-  </si>
-  <si>
-    <t>2019-03-28 11:18:00</t>
-  </si>
-  <si>
-    <t>2019-03-28 11:15:00</t>
-  </si>
-  <si>
-    <t>2019-03-27 14:03:00</t>
-  </si>
-  <si>
-    <t>2019-03-27 09:45:00</t>
-  </si>
-  <si>
-    <t>2019-03-25 14:00:00</t>
-  </si>
-  <si>
-    <t>2019-03-25 13:23:00</t>
-  </si>
-  <si>
-    <t>2019-03-25 10:29:00</t>
-  </si>
-  <si>
-    <t>2019-03-22 13:11:00</t>
-  </si>
-  <si>
-    <t>2019-03-22 10:55:00</t>
-  </si>
-  <si>
-    <t>2019-03-21 14:13:00</t>
-  </si>
-  <si>
-    <t>2019-03-21 11:05:00</t>
-  </si>
-  <si>
-    <t>2019-03-21 10:57:00</t>
-  </si>
-  <si>
-    <t>2019-03-20 11:26:00</t>
-  </si>
-  <si>
-    <t>2019-03-20 10:37:00</t>
-  </si>
-  <si>
-    <t>2019-03-20 09:50:00</t>
-  </si>
-  <si>
-    <t>2019-03-20 09:38:00</t>
-  </si>
-  <si>
-    <t>2019-03-19 13:59:00</t>
-  </si>
-  <si>
-    <t>2019-03-19 09:33:00</t>
-  </si>
-  <si>
-    <t>2019-03-18 10:07:00</t>
-  </si>
-  <si>
-    <t>2019-03-15 14:45:00</t>
-  </si>
-  <si>
-    <t>2019-03-15 13:29:00</t>
-  </si>
-  <si>
-    <t>2019-03-15 13:06:00</t>
-  </si>
-  <si>
-    <t>2019-03-15 09:51:00</t>
-  </si>
-  <si>
-    <t>2019-03-14 14:16:00</t>
-  </si>
-  <si>
-    <t>2019-03-14 13:31:00</t>
-  </si>
-  <si>
-    <t>2019-03-14 13:26:00</t>
-  </si>
-  <si>
-    <t>2019-03-14 10:05:00</t>
-  </si>
-  <si>
-    <t>2019-03-14 09:54:00</t>
-  </si>
-  <si>
-    <t>2019-03-13 14:31:00</t>
-  </si>
-  <si>
-    <t>2019-03-13 14:06:00</t>
-  </si>
-  <si>
-    <t>2019-03-13 13:45:00</t>
-  </si>
-  <si>
-    <t>2019-03-13 09:45:00</t>
-  </si>
-  <si>
-    <t>2019-03-12 11:21:00</t>
-  </si>
-  <si>
-    <t>2019-03-12 10:08:00</t>
-  </si>
-  <si>
-    <t>2019-03-11 14:57:00</t>
-  </si>
-  <si>
-    <t>2019-03-11 14:14:00</t>
-  </si>
-  <si>
-    <t>2019-03-11 11:25:00</t>
-  </si>
-  <si>
-    <t>2019-03-11 10:28:00</t>
-  </si>
-  <si>
-    <t>2019-03-07 13:01:00</t>
-  </si>
-  <si>
-    <t>2019-03-07 09:38:00</t>
-  </si>
-  <si>
-    <t>2019-03-06 14:29:00</t>
-  </si>
-  <si>
-    <t>2019-03-06 14:08:00</t>
-  </si>
-  <si>
-    <t>2019-03-06 11:04:00</t>
-  </si>
-  <si>
-    <t>2019-03-06 10:54:00</t>
-  </si>
-  <si>
-    <t>2019-03-05 14:13:00</t>
-  </si>
-  <si>
-    <t>2019-03-05 10:43:00</t>
-  </si>
-  <si>
-    <t>2019-03-04 11:01:00</t>
-  </si>
-  <si>
-    <t>2019-03-04 10:35:00</t>
-  </si>
-  <si>
-    <t>2019-03-01 13:01:00</t>
-  </si>
-  <si>
-    <t>2019-02-28 13:56:00</t>
-  </si>
-  <si>
-    <t>2019-02-28 13:42:00</t>
-  </si>
-  <si>
-    <t>2019-02-27 14:17:00</t>
-  </si>
-  <si>
-    <t>2019-02-27 13:23:00</t>
-  </si>
-  <si>
-    <t>2019-02-26 13:16:00</t>
-  </si>
-  <si>
-    <t>2019-02-25 14:13:00</t>
-  </si>
-  <si>
-    <t>2019-02-25 11:00:00</t>
-  </si>
-  <si>
-    <t>2019-02-25 09:41:00</t>
-  </si>
-  <si>
-    <t>2019-02-21 14:38:00</t>
-  </si>
-  <si>
-    <t>2019-02-21 13:23:00</t>
-  </si>
-  <si>
-    <t>2019-02-21 11:26:00</t>
-  </si>
-  <si>
-    <t>2019-02-21 10:29:00</t>
-  </si>
-  <si>
-    <t>2019-02-21 09:57:00</t>
-  </si>
-  <si>
-    <t>2019-02-19 14:30:00</t>
-  </si>
-  <si>
-    <t>2019-02-19 11:15:00</t>
-  </si>
-  <si>
-    <t>2019-02-19 10:11:00</t>
-  </si>
-  <si>
-    <t>2019-02-18 13:46:00</t>
-  </si>
-  <si>
-    <t>2019-02-18 13:19:00</t>
-  </si>
-  <si>
-    <t>2019-02-15 13:57:00</t>
-  </si>
-  <si>
-    <t>2019-02-15 11:13:00</t>
-  </si>
-  <si>
-    <t>2019-02-15 10:53:00</t>
-  </si>
-  <si>
-    <t>2019-02-15 10:26:00</t>
-  </si>
-  <si>
-    <t>2019-02-14 14:51:00</t>
-  </si>
-  <si>
-    <t>2019-02-14 13:39:00</t>
-  </si>
-  <si>
-    <t>2019-02-14 13:04:00</t>
-  </si>
-  <si>
-    <t>2019-02-14 10:33:00</t>
-  </si>
-  <si>
-    <t>2019-02-14 10:23:00</t>
-  </si>
-  <si>
-    <t>2019-02-13 14:56:00</t>
-  </si>
-  <si>
-    <t>2019-02-13 10:02:00</t>
-  </si>
-  <si>
-    <t>2019-02-12 14:40:00</t>
-  </si>
-  <si>
-    <t>2019-02-12 14:30:00</t>
-  </si>
-  <si>
-    <t>2019-02-12 13:38:00</t>
-  </si>
-  <si>
-    <t>2019-02-12 09:34:00</t>
-  </si>
-  <si>
-    <t>2019-02-11 10:04:00</t>
-  </si>
-  <si>
-    <t>2019-02-11 09:39:00</t>
-  </si>
-  <si>
-    <t>2019-02-11 09:30:00</t>
-  </si>
-  <si>
-    <t>2019-02-01 14:25:00</t>
-  </si>
-  <si>
-    <t>2019-02-01 14:23:00</t>
-  </si>
-  <si>
-    <t>2019-02-01 14:08:00</t>
-  </si>
-  <si>
-    <t>2019-02-01 09:56:00</t>
-  </si>
-  <si>
-    <t>2019-01-31 14:52:00</t>
-  </si>
-  <si>
-    <t>2019-01-30 15:00:00</t>
+    <t>2019-04-17 10:41:00</t>
+  </si>
+  <si>
+    <t>2019-04-17 10:30:00</t>
+  </si>
+  <si>
+    <t>2019-04-10 14:46:00</t>
+  </si>
+  <si>
+    <t>2019-04-10 14:11:00</t>
+  </si>
+  <si>
+    <t>2019-04-10 10:11:00</t>
+  </si>
+  <si>
+    <t>2019-04-10 09:35:00</t>
+  </si>
+  <si>
+    <t>2019-04-09 14:53:00</t>
+  </si>
+  <si>
+    <t>2019-04-09 14:51:00</t>
+  </si>
+  <si>
+    <t>2019-04-09 09:38:00</t>
+  </si>
+  <si>
+    <t>2019-04-09 09:35:00</t>
+  </si>
+  <si>
+    <t>2019-04-08 14:48:00</t>
+  </si>
+  <si>
+    <t>2019-04-08 14:14:00</t>
+  </si>
+  <si>
+    <t>2019-04-08 13:11:00</t>
+  </si>
+  <si>
+    <t>2019-04-04 14:06:00</t>
+  </si>
+  <si>
+    <t>2019-04-04 11:08:00</t>
+  </si>
+  <si>
+    <t>2019-04-03 10:58:00</t>
+  </si>
+  <si>
+    <t>2019-04-02 14:39:00</t>
+  </si>
+  <si>
+    <t>2019-04-02 11:12:00</t>
+  </si>
+  <si>
+    <t>2019-04-02 10:12:00</t>
+  </si>
+  <si>
+    <t>2019-04-01 14:45:00</t>
+  </si>
+  <si>
+    <t>2019-04-01 13:44:00</t>
+  </si>
+  <si>
+    <t>2019-04-01 10:41:00</t>
+  </si>
+  <si>
+    <t>2019-04-01 09:48:00</t>
+  </si>
+  <si>
+    <t>2019-03-29 14:40:00</t>
+  </si>
+  <si>
+    <t>2019-03-29 14:20:00</t>
+  </si>
+  <si>
+    <t>2019-03-29 13:30:00</t>
+  </si>
+  <si>
+    <t>2019-03-29 11:10:00</t>
+  </si>
+  <si>
+    <t>2019-03-29 09:43:00</t>
+  </si>
+  <si>
+    <t>2019-03-28 14:41:00</t>
+  </si>
+  <si>
+    <t>2019-03-28 11:19:00</t>
+  </si>
+  <si>
+    <t>2019-03-28 10:55:00</t>
+  </si>
+  <si>
+    <t>2019-03-28 10:13:00</t>
+  </si>
+  <si>
+    <t>2019-03-27 13:02:00</t>
+  </si>
+  <si>
+    <t>2019-03-27 10:57:00</t>
+  </si>
+  <si>
+    <t>2019-03-26 11:02:00</t>
+  </si>
+  <si>
+    <t>2019-03-25 10:01:00</t>
+  </si>
+  <si>
+    <t>2019-03-22 10:58:00</t>
+  </si>
+  <si>
+    <t>2019-03-22 09:47:00</t>
+  </si>
+  <si>
+    <t>2019-03-21 14:41:00</t>
+  </si>
+  <si>
+    <t>2019-03-20 11:20:00</t>
+  </si>
+  <si>
+    <t>2019-03-20 11:01:00</t>
+  </si>
+  <si>
+    <t>2019-03-20 10:16:00</t>
+  </si>
+  <si>
+    <t>2019-03-19 13:58:00</t>
+  </si>
+  <si>
+    <t>2019-03-18 14:08:00</t>
+  </si>
+  <si>
+    <t>2019-03-15 14:53:00</t>
+  </si>
+  <si>
+    <t>2019-03-15 13:30:00</t>
+  </si>
+  <si>
+    <t>2019-03-14 13:57:00</t>
+  </si>
+  <si>
+    <t>2019-03-14 11:07:00</t>
+  </si>
+  <si>
+    <t>2019-03-14 10:47:00</t>
+  </si>
+  <si>
+    <t>2019-03-14 09:31:00</t>
+  </si>
+  <si>
+    <t>2019-03-13 14:45:00</t>
+  </si>
+  <si>
+    <t>2019-03-13 14:02:00</t>
+  </si>
+  <si>
+    <t>2019-03-13 10:47:00</t>
+  </si>
+  <si>
+    <t>2019-03-12 14:20:00</t>
+  </si>
+  <si>
+    <t>2019-03-12 13:17:00</t>
+  </si>
+  <si>
+    <t>2019-03-12 10:22:00</t>
+  </si>
+  <si>
+    <t>2019-03-08 09:30:00</t>
+  </si>
+  <si>
+    <t>2019-03-07 14:00:00</t>
+  </si>
+  <si>
+    <t>2019-03-07 10:13:00</t>
+  </si>
+  <si>
+    <t>2019-03-07 10:04:00</t>
+  </si>
+  <si>
+    <t>2019-03-06 14:47:00</t>
+  </si>
+  <si>
+    <t>2019-03-06 11:09:00</t>
+  </si>
+  <si>
+    <t>2019-03-05 13:42:00</t>
+  </si>
+  <si>
+    <t>2019-03-05 13:18:00</t>
+  </si>
+  <si>
+    <t>2019-03-05 10:15:00</t>
+  </si>
+  <si>
+    <t>2019-03-04 14:27:00</t>
+  </si>
+  <si>
+    <t>2019-03-04 14:16:00</t>
+  </si>
+  <si>
+    <t>2019-03-04 11:26:00</t>
+  </si>
+  <si>
+    <t>2019-03-04 11:10:00</t>
+  </si>
+  <si>
+    <t>2019-03-04 10:47:00</t>
+  </si>
+  <si>
+    <t>2019-03-04 10:12:00</t>
+  </si>
+  <si>
+    <t>2019-03-01 15:00:00</t>
+  </si>
+  <si>
+    <t>2019-03-01 10:16:00</t>
+  </si>
+  <si>
+    <t>2019-02-28 14:49:00</t>
+  </si>
+  <si>
+    <t>2019-02-28 14:05:00</t>
+  </si>
+  <si>
+    <t>2019-02-28 11:22:00</t>
+  </si>
+  <si>
+    <t>2019-02-26 10:41:00</t>
+  </si>
+  <si>
+    <t>2019-02-25 11:10:00</t>
+  </si>
+  <si>
+    <t>2019-02-25 10:43:00</t>
+  </si>
+  <si>
+    <t>2019-02-25 09:52:00</t>
+  </si>
+  <si>
+    <t>2019-02-22 13:22:00</t>
+  </si>
+  <si>
+    <t>2019-02-22 10:44:00</t>
+  </si>
+  <si>
+    <t>2019-02-22 10:28:00</t>
+  </si>
+  <si>
+    <t>2019-02-22 09:53:00</t>
+  </si>
+  <si>
+    <t>2019-02-21 13:22:00</t>
+  </si>
+  <si>
+    <t>2019-02-21 13:02:00</t>
+  </si>
+  <si>
+    <t>2019-02-21 10:18:00</t>
+  </si>
+  <si>
+    <t>2019-02-21 09:32:00</t>
+  </si>
+  <si>
+    <t>2019-02-20 14:25:00</t>
+  </si>
+  <si>
+    <t>2019-02-20 14:08:00</t>
+  </si>
+  <si>
+    <t>2019-02-19 14:53:00</t>
+  </si>
+  <si>
+    <t>2019-02-19 14:51:00</t>
+  </si>
+  <si>
+    <t>2019-02-19 14:19:00</t>
+  </si>
+  <si>
+    <t>2019-02-19 10:51:00</t>
+  </si>
+  <si>
+    <t>2019-02-18 11:24:00</t>
+  </si>
+  <si>
+    <t>2019-02-18 10:51:00</t>
+  </si>
+  <si>
+    <t>2019-02-18 10:17:00</t>
+  </si>
+  <si>
+    <t>2019-02-15 14:35:00</t>
+  </si>
+  <si>
+    <t>2019-02-15 11:18:00</t>
+  </si>
+  <si>
+    <t>2019-02-14 13:40:00</t>
+  </si>
+  <si>
+    <t>2019-02-14 13:17:00</t>
+  </si>
+  <si>
+    <t>2019-02-14 10:45:00</t>
+  </si>
+  <si>
+    <t>2019-02-13 13:37:00</t>
+  </si>
+  <si>
+    <t>2019-02-13 13:03:00</t>
+  </si>
+  <si>
+    <t>2019-02-13 11:25:00</t>
+  </si>
+  <si>
+    <t>2019-02-13 10:51:00</t>
+  </si>
+  <si>
+    <t>2019-02-13 10:46:00</t>
+  </si>
+  <si>
+    <t>2019-02-12 10:45:00</t>
+  </si>
+  <si>
+    <t>2019-02-11 14:26:00</t>
+  </si>
+  <si>
+    <t>2019-02-11 13:01:00</t>
+  </si>
+  <si>
+    <t>2019-02-01 14:30:00</t>
+  </si>
+  <si>
+    <t>2019-01-31 13:43:00</t>
+  </si>
+  <si>
+    <t>2019-01-31 10:33:00</t>
+  </si>
+  <si>
+    <t>2019-01-30 13:36:00</t>
+  </si>
+  <si>
+    <t>2019-01-30 13:02:00</t>
   </si>
   <si>
     <t>2019-01-30 11:09:00</t>
   </si>
   <si>
-    <t>2019-01-30 11:02:00</t>
-  </si>
-  <si>
-    <t>2019-01-29 14:55:00</t>
-  </si>
-  <si>
-    <t>2019-01-29 14:43:00</t>
-  </si>
-  <si>
-    <t>2019-01-29 10:45:00</t>
-  </si>
-  <si>
-    <t>2019-01-28 13:01:00</t>
-  </si>
-  <si>
-    <t>2019-01-28 11:12:00</t>
-  </si>
-  <si>
-    <t>2019-01-28 09:34:00</t>
-  </si>
-  <si>
-    <t>2019-01-25 13:54:00</t>
-  </si>
-  <si>
-    <t>2019-01-25 10:36:00</t>
-  </si>
-  <si>
-    <t>2019-01-25 10:24:00</t>
-  </si>
-  <si>
-    <t>2019-01-24 14:32:00</t>
-  </si>
-  <si>
-    <t>2019-01-24 10:17:00</t>
-  </si>
-  <si>
-    <t>2019-01-23 14:00:00</t>
-  </si>
-  <si>
-    <t>2019-01-23 13:38:00</t>
-  </si>
-  <si>
-    <t>2019-01-23 11:27:00</t>
-  </si>
-  <si>
-    <t>2019-01-22 14:21:00</t>
-  </si>
-  <si>
-    <t>2019-01-22 14:13:00</t>
-  </si>
-  <si>
-    <t>2019-01-22 10:47:00</t>
-  </si>
-  <si>
-    <t>2019-01-21 13:48:00</t>
+    <t>2019-01-30 09:57:00</t>
+  </si>
+  <si>
+    <t>2019-01-30 09:40:00</t>
+  </si>
+  <si>
+    <t>2019-01-28 10:24:00</t>
+  </si>
+  <si>
+    <t>2019-01-25 14:37:00</t>
+  </si>
+  <si>
+    <t>2019-01-25 14:25:00</t>
+  </si>
+  <si>
+    <t>2019-01-25 13:52:00</t>
+  </si>
+  <si>
+    <t>2019-01-24 14:15:00</t>
+  </si>
+  <si>
+    <t>2019-01-23 14:58:00</t>
+  </si>
+  <si>
+    <t>2019-01-23 13:04:00</t>
+  </si>
+  <si>
+    <t>2019-01-23 10:56:00</t>
+  </si>
+  <si>
+    <t>2019-01-22 11:11:00</t>
+  </si>
+  <si>
+    <t>2019-01-22 10:03:00</t>
   </si>
   <si>
     <t>2019-01-18 14:54:00</t>
   </si>
   <si>
-    <t>2019-01-18 11:24:00</t>
-  </si>
-  <si>
-    <t>2019-01-18 11:20:00</t>
-  </si>
-  <si>
-    <t>2019-01-18 10:14:00</t>
-  </si>
-  <si>
-    <t>2019-01-17 13:32:00</t>
-  </si>
-  <si>
-    <t>2019-01-17 13:01:00</t>
-  </si>
-  <si>
-    <t>2019-01-17 10:36:00</t>
-  </si>
-  <si>
-    <t>2019-01-16 09:48:00</t>
-  </si>
-  <si>
-    <t>2019-01-16 09:35:00</t>
-  </si>
-  <si>
-    <t>2019-01-15 10:02:00</t>
-  </si>
-  <si>
-    <t>2019-01-15 09:49:00</t>
-  </si>
-  <si>
-    <t>2019-01-11 13:16:00</t>
-  </si>
-  <si>
-    <t>2019-01-10 14:46:00</t>
-  </si>
-  <si>
-    <t>2019-01-10 13:39:00</t>
-  </si>
-  <si>
-    <t>2019-01-10 10:39:00</t>
-  </si>
-  <si>
-    <t>2019-01-10 10:01:00</t>
-  </si>
-  <si>
-    <t>2019-01-10 09:32:00</t>
-  </si>
-  <si>
-    <t>2019-01-09 15:00:00</t>
-  </si>
-  <si>
-    <t>2019-01-09 13:48:00</t>
-  </si>
-  <si>
-    <t>2019-01-09 13:01:00</t>
-  </si>
-  <si>
-    <t>2019-01-09 10:30:00</t>
-  </si>
-  <si>
-    <t>2019-01-09 09:48:00</t>
+    <t>2019-01-18 13:44:00</t>
+  </si>
+  <si>
+    <t>2019-01-18 13:17:00</t>
+  </si>
+  <si>
+    <t>2019-01-18 11:15:00</t>
+  </si>
+  <si>
+    <t>2019-01-18 11:11:00</t>
+  </si>
+  <si>
+    <t>2019-01-18 10:01:00</t>
+  </si>
+  <si>
+    <t>2019-01-17 11:16:00</t>
+  </si>
+  <si>
+    <t>2019-01-15 13:59:00</t>
+  </si>
+  <si>
+    <t>2019-01-15 13:05:00</t>
+  </si>
+  <si>
+    <t>2019-01-15 10:29:00</t>
+  </si>
+  <si>
+    <t>2019-01-14 13:28:00</t>
+  </si>
+  <si>
+    <t>2019-01-14 10:35:00</t>
+  </si>
+  <si>
+    <t>2019-01-11 14:58:00</t>
+  </si>
+  <si>
+    <t>2019-01-11 14:32:00</t>
+  </si>
+  <si>
+    <t>2019-01-11 14:00:00</t>
+  </si>
+  <si>
+    <t>2019-01-10 13:54:00</t>
+  </si>
+  <si>
+    <t>2019-01-10 10:25:00</t>
+  </si>
+  <si>
+    <t>2019-01-10 10:02:00</t>
+  </si>
+  <si>
+    <t>2019-01-09 13:34:00</t>
+  </si>
+  <si>
+    <t>2019-01-09 13:26:00</t>
+  </si>
+  <si>
+    <t>2019-01-09 11:28:00</t>
   </si>
   <si>
     <t>2019-01-08 14:32:00</t>
   </si>
   <si>
-    <t>2019-01-08 14:17:00</t>
-  </si>
-  <si>
-    <t>2019-01-08 13:08:00</t>
-  </si>
-  <si>
-    <t>2019-01-08 10:51:00</t>
-  </si>
-  <si>
-    <t>2019-01-07 14:33:00</t>
-  </si>
-  <si>
-    <t>2019-01-07 14:27:00</t>
-  </si>
-  <si>
-    <t>2019-01-07 13:34:00</t>
-  </si>
-  <si>
-    <t>2019-01-04 14:28:00</t>
-  </si>
-  <si>
-    <t>2019-01-04 13:15:00</t>
-  </si>
-  <si>
-    <t>2019-01-04 10:44:00</t>
-  </si>
-  <si>
-    <t>2019-01-04 10:42:00</t>
-  </si>
-  <si>
-    <t>2019-01-03 14:24:00</t>
+    <t>2019-01-08 10:48:00</t>
+  </si>
+  <si>
+    <t>2019-01-08 09:49:00</t>
+  </si>
+  <si>
+    <t>2019-01-08 09:45:00</t>
+  </si>
+  <si>
+    <t>2019-01-07 14:22:00</t>
+  </si>
+  <si>
+    <t>2019-01-07 14:01:00</t>
+  </si>
+  <si>
+    <t>2019-01-07 10:59:00</t>
+  </si>
+  <si>
+    <t>2019-01-04 14:47:00</t>
+  </si>
+  <si>
+    <t>2019-01-04 13:52:00</t>
+  </si>
+  <si>
+    <t>2019-01-04 10:09:00</t>
+  </si>
+  <si>
+    <t>2019-01-04 09:38:00</t>
+  </si>
+  <si>
+    <t>2019-01-03 14:37:00</t>
+  </si>
+  <si>
+    <t>2019-01-03 14:26:00</t>
+  </si>
+  <si>
+    <t>2019-01-03 14:12:00</t>
+  </si>
+  <si>
+    <t>2019-01-03 10:22:00</t>
   </si>
   <si>
     <t>2019-01-03 10:20:00</t>
   </si>
   <si>
-    <t>2019-01-03 09:59:00</t>
-  </si>
-  <si>
-    <t>2019-01-02 14:20:00</t>
-  </si>
-  <si>
-    <t>2019-01-02 11:00:00</t>
-  </si>
-  <si>
-    <t>2018-12-26 14:01:00</t>
-  </si>
-  <si>
-    <t>2018-12-26 13:58:00</t>
-  </si>
-  <si>
-    <t>2018-12-26 13:46:00</t>
-  </si>
-  <si>
-    <t>2018-12-26 13:20:00</t>
+    <t>2019-01-02 14:21:00</t>
+  </si>
+  <si>
+    <t>2019-01-02 13:43:00</t>
+  </si>
+  <si>
+    <t>2019-01-02 09:45:00</t>
+  </si>
+  <si>
+    <t>2018-12-28 14:56:00</t>
+  </si>
+  <si>
+    <t>2018-12-28 11:03:00</t>
+  </si>
+  <si>
+    <t>2018-12-28 10:57:00</t>
+  </si>
+  <si>
+    <t>2018-12-27 11:11:00</t>
+  </si>
+  <si>
+    <t>2018-12-26 13:07:00</t>
   </si>
   <si>
     <t>2018-12-26 10:56:00</t>
   </si>
   <si>
-    <t>2018-12-25 14:52:00</t>
-  </si>
-  <si>
     <t>2018-12-25 14:11:00</t>
   </si>
   <si>
-    <t>2018-12-25 11:15:00</t>
-  </si>
-  <si>
-    <t>2018-12-21 11:21:00</t>
-  </si>
-  <si>
-    <t>2018-12-19 14:22:00</t>
-  </si>
-  <si>
-    <t>2018-12-19 14:11:00</t>
+    <t>2018-12-25 13:58:00</t>
+  </si>
+  <si>
+    <t>2018-12-25 10:30:00</t>
+  </si>
+  <si>
+    <t>2018-12-25 09:31:00</t>
+  </si>
+  <si>
+    <t>2018-12-24 13:24:00</t>
+  </si>
+  <si>
+    <t>2018-12-24 10:49:00</t>
   </si>
   <si>
     <t>2018-12-19 13:38:00</t>
   </si>
   <si>
-    <t>2018-12-19 10:37:00</t>
-  </si>
-  <si>
-    <t>2018-12-19 10:01:00</t>
-  </si>
-  <si>
-    <t>2018-12-19 09:59:00</t>
-  </si>
-  <si>
-    <t>2018-12-17 13:23:00</t>
-  </si>
-  <si>
-    <t>2018-12-14 14:27:00</t>
-  </si>
-  <si>
-    <t>2018-12-14 14:00:00</t>
-  </si>
-  <si>
-    <t>2018-12-14 13:44:00</t>
-  </si>
-  <si>
-    <t>2018-12-14 13:19:00</t>
-  </si>
-  <si>
-    <t>2018-12-14 09:31:00</t>
-  </si>
-  <si>
-    <t>2018-12-13 14:12:00</t>
-  </si>
-  <si>
-    <t>2018-12-13 14:08:00</t>
-  </si>
-  <si>
-    <t>2018-12-13 13:47:00</t>
-  </si>
-  <si>
-    <t>2018-12-13 13:17:00</t>
+    <t>2018-12-19 10:09:00</t>
+  </si>
+  <si>
+    <t>2018-12-19 09:45:00</t>
+  </si>
+  <si>
+    <t>2018-12-17 14:59:00</t>
+  </si>
+  <si>
+    <t>2018-12-14 10:35:00</t>
+  </si>
+  <si>
+    <t>2018-12-14 09:36:00</t>
+  </si>
+  <si>
+    <t>2018-12-13 13:30:00</t>
   </si>
   <si>
     <t>2018-12-13 10:46:00</t>
   </si>
   <si>
-    <t>2018-12-12 14:47:00</t>
-  </si>
-  <si>
-    <t>2018-12-12 11:19:00</t>
-  </si>
-  <si>
-    <t>2018-12-10 13:05:00</t>
-  </si>
-  <si>
-    <t>2018-12-10 10:14:00</t>
-  </si>
-  <si>
-    <t>2018-12-07 14:50:00</t>
+    <t>2018-12-13 10:36:00</t>
+  </si>
+  <si>
+    <t>2018-12-13 10:00:00</t>
+  </si>
+  <si>
+    <t>2018-12-13 09:53:00</t>
+  </si>
+  <si>
+    <t>2018-12-12 14:12:00</t>
+  </si>
+  <si>
+    <t>2018-12-11 14:39:00</t>
+  </si>
+  <si>
+    <t>2018-12-11 14:28:00</t>
+  </si>
+  <si>
+    <t>2018-12-10 10:20:00</t>
+  </si>
+  <si>
+    <t>2018-12-10 10:04:00</t>
   </si>
   <si>
     <t>2018-12-07 13:47:00</t>
   </si>
   <si>
+    <t>2018-12-07 10:48:00</t>
+  </si>
+  <si>
+    <t>2018-12-07 10:26:00</t>
+  </si>
+  <si>
+    <t>2018-12-07 10:10:00</t>
+  </si>
+  <si>
     <t>2018-12-06 14:51:00</t>
   </si>
   <si>
-    <t>2018-12-06 14:39:00</t>
+    <t>2018-12-06 13:52:00</t>
   </si>
   <si>
     <t>2018-12-06 13:03:00</t>
@@ -1247,7 +1253,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D289"/>
+  <dimension ref="A1:D291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1272,13 +1278,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>6.63</v>
+        <v>6.71</v>
       </c>
       <c r="C2">
-        <v>6.663783501590943</v>
+        <v>6.692541469890328</v>
       </c>
       <c r="D2">
-        <v>0.03378350159094268</v>
+        <v>-0.01745853010967213</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1286,13 +1292,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>6.39</v>
+        <v>6.75</v>
       </c>
       <c r="C3">
-        <v>6.416800346807046</v>
+        <v>6.714386579294144</v>
       </c>
       <c r="D3">
-        <v>0.02680034680704679</v>
+        <v>-0.0356134207058556</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1300,13 +1306,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6.39</v>
+        <v>6.81</v>
       </c>
       <c r="C4">
-        <v>6.404004523079673</v>
+        <v>6.658338913537508</v>
       </c>
       <c r="D4">
-        <v>0.0140045230796737</v>
+        <v>-0.1516610864624921</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1314,13 +1320,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>6.69</v>
+        <v>6.67</v>
       </c>
       <c r="C5">
-        <v>6.603522039149111</v>
+        <v>6.703084070791531</v>
       </c>
       <c r="D5">
-        <v>-0.08647796085088899</v>
+        <v>0.03308407079153142</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1328,13 +1334,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>6.64</v>
+        <v>6.67</v>
       </c>
       <c r="C6">
-        <v>6.536339651072399</v>
+        <v>6.715894781515811</v>
       </c>
       <c r="D6">
-        <v>-0.1036603489276011</v>
+        <v>0.04589478151581083</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1342,13 +1348,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>6.85</v>
+        <v>6.65</v>
       </c>
       <c r="C7">
-        <v>6.658177395379217</v>
+        <v>6.711347067101384</v>
       </c>
       <c r="D7">
-        <v>-0.1918226046207829</v>
+        <v>0.0613470671013836</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1356,13 +1362,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>6.9</v>
+        <v>6.65</v>
       </c>
       <c r="C8">
-        <v>6.728339863119014</v>
+        <v>6.666838188913902</v>
       </c>
       <c r="D8">
-        <v>-0.1716601368809867</v>
+        <v>0.01683818891390132</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1370,13 +1376,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>6.94</v>
+        <v>6.55</v>
       </c>
       <c r="C9">
-        <v>6.757356886605316</v>
+        <v>6.559471707713096</v>
       </c>
       <c r="D9">
-        <v>-0.1826431133946844</v>
+        <v>0.009471707713095689</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1384,13 +1390,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>6.99</v>
+        <v>6.38</v>
       </c>
       <c r="C10">
-        <v>6.77375183180009</v>
+        <v>6.384848088405663</v>
       </c>
       <c r="D10">
-        <v>-0.2162481681999102</v>
+        <v>0.004848088405663198</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1398,13 +1404,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>7.02</v>
+        <v>6.43</v>
       </c>
       <c r="C11">
-        <v>6.777096368462384</v>
+        <v>6.454945284529812</v>
       </c>
       <c r="D11">
-        <v>-0.2429036315376161</v>
+        <v>0.02494528452981193</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1412,13 +1418,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>7.06</v>
+        <v>6.51</v>
       </c>
       <c r="C12">
-        <v>6.989188108954182</v>
+        <v>6.563849045100108</v>
       </c>
       <c r="D12">
-        <v>-0.07081189104581753</v>
+        <v>0.05384904510010813</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1426,13 +1432,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>7.06</v>
+        <v>6.58</v>
       </c>
       <c r="C13">
-        <v>6.990088592265697</v>
+        <v>6.633520757354972</v>
       </c>
       <c r="D13">
-        <v>-0.0699114077343026</v>
+        <v>0.0535207573549723</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1440,13 +1446,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>7.09</v>
+        <v>6.61</v>
       </c>
       <c r="C14">
-        <v>7.075560606707042</v>
+        <v>6.543776632193305</v>
       </c>
       <c r="D14">
-        <v>-0.01443939329295763</v>
+        <v>-0.06622336780669524</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1454,13 +1460,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>7.18</v>
+        <v>6.86</v>
       </c>
       <c r="C15">
-        <v>7.188068409109509</v>
+        <v>6.654143441606172</v>
       </c>
       <c r="D15">
-        <v>0.008068409109509567</v>
+        <v>-0.2058565583938288</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1468,13 +1474,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>7.15</v>
+        <v>6.88</v>
       </c>
       <c r="C16">
-        <v>7.192486479081746</v>
+        <v>6.657760583720755</v>
       </c>
       <c r="D16">
-        <v>0.04248647908174608</v>
+        <v>-0.2222394162792449</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1482,13 +1488,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>7.1</v>
+        <v>6.94</v>
       </c>
       <c r="C17">
-        <v>7.343787908936533</v>
+        <v>6.7668041950476</v>
       </c>
       <c r="D17">
-        <v>0.2437879089365333</v>
+        <v>-0.1731958049524005</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1496,13 +1502,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>7.18</v>
+        <v>6.92</v>
       </c>
       <c r="C18">
-        <v>7.349319160147904</v>
+        <v>6.705286968294249</v>
       </c>
       <c r="D18">
-        <v>0.1693191601479045</v>
+        <v>-0.2147130317057506</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1510,13 +1516,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>7.08</v>
+        <v>6.88</v>
       </c>
       <c r="C19">
-        <v>7.269567759103757</v>
+        <v>6.675976265727757</v>
       </c>
       <c r="D19">
-        <v>0.189567759103757</v>
+        <v>-0.2040237342722433</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1524,13 +1530,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>6.9</v>
+        <v>6.85</v>
       </c>
       <c r="C20">
-        <v>7.299941166754398</v>
+        <v>6.67978313494571</v>
       </c>
       <c r="D20">
-        <v>0.3999411667543979</v>
+        <v>-0.1702168650542895</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1538,13 +1544,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>6.98</v>
+        <v>6.96</v>
       </c>
       <c r="C21">
-        <v>7.425265001337588</v>
+        <v>6.763985625071971</v>
       </c>
       <c r="D21">
-        <v>0.4452650013375878</v>
+        <v>-0.196014374928029</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1552,13 +1558,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>7.04</v>
+        <v>7.05</v>
       </c>
       <c r="C22">
-        <v>7.52250406656749</v>
+        <v>6.816188711841907</v>
       </c>
       <c r="D22">
-        <v>0.4825040665674898</v>
+        <v>-0.2338112881580932</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1566,13 +1572,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>7.09</v>
+        <v>7.05</v>
       </c>
       <c r="C23">
-        <v>7.470220126433348</v>
+        <v>6.99551109250605</v>
       </c>
       <c r="D23">
-        <v>0.3802201264333478</v>
+        <v>-0.0544889074939503</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1580,13 +1586,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>7.21</v>
+        <v>7.23</v>
       </c>
       <c r="C24">
-        <v>7.53045731200531</v>
+        <v>7.142198767371667</v>
       </c>
       <c r="D24">
-        <v>0.3204573120053098</v>
+        <v>-0.08780123262833328</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1594,13 +1600,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>7.24</v>
+        <v>7.19</v>
       </c>
       <c r="C25">
-        <v>7.470545519981806</v>
+        <v>7.209355265310895</v>
       </c>
       <c r="D25">
-        <v>0.2305455199818054</v>
+        <v>0.01935526531089504</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1608,13 +1614,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>7.15</v>
+        <v>7.22</v>
       </c>
       <c r="C26">
-        <v>7.394262806659392</v>
+        <v>7.224749792553068</v>
       </c>
       <c r="D26">
-        <v>0.2442628066593917</v>
+        <v>0.004749792553067955</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1622,13 +1628,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>7.15</v>
+        <v>7.08</v>
       </c>
       <c r="C27">
-        <v>7.327324885693812</v>
+        <v>7.287176758220408</v>
       </c>
       <c r="D27">
-        <v>0.1773248856938112</v>
+        <v>0.2071767582204078</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1636,13 +1642,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>6.95</v>
+        <v>7.1</v>
       </c>
       <c r="C28">
-        <v>7.21801936664387</v>
+        <v>7.302519107979711</v>
       </c>
       <c r="D28">
-        <v>0.2680193666438697</v>
+        <v>0.2025191079797111</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1650,13 +1656,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>6.95</v>
+        <v>7.1</v>
       </c>
       <c r="C29">
-        <v>7.177110414615385</v>
+        <v>7.326513531286251</v>
       </c>
       <c r="D29">
-        <v>0.2271104146153853</v>
+        <v>0.2265135312862512</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1664,13 +1670,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>7.58</v>
+        <v>7.25</v>
       </c>
       <c r="C30">
-        <v>7.462158063665904</v>
+        <v>7.38917647800155</v>
       </c>
       <c r="D30">
-        <v>-0.1178419363340959</v>
+        <v>0.1391764780015503</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1678,13 +1684,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>7.72</v>
+        <v>7.12</v>
       </c>
       <c r="C31">
-        <v>7.583911972380233</v>
+        <v>7.286037444614994</v>
       </c>
       <c r="D31">
-        <v>-0.1360880276197669</v>
+        <v>0.1660374446149939</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1692,13 +1698,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>7.7</v>
+        <v>7.07</v>
       </c>
       <c r="C32">
-        <v>7.556998144467316</v>
+        <v>7.252125091003634</v>
       </c>
       <c r="D32">
-        <v>-0.1430018555326846</v>
+        <v>0.1821250910036341</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1706,13 +1712,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>7.48</v>
+        <v>7.02</v>
       </c>
       <c r="C33">
-        <v>7.421245313615718</v>
+        <v>7.494386450597814</v>
       </c>
       <c r="D33">
-        <v>-0.05875468638428227</v>
+        <v>0.4743864505978141</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1720,13 +1726,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>7.3</v>
+        <v>6.88</v>
       </c>
       <c r="C34">
-        <v>7.402962965553727</v>
+        <v>7.226701089786539</v>
       </c>
       <c r="D34">
-        <v>0.1029629655537274</v>
+        <v>0.3467010897865395</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1734,13 +1740,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>7.33</v>
+        <v>6.86</v>
       </c>
       <c r="C35">
-        <v>7.44157127277358</v>
+        <v>7.231559893081599</v>
       </c>
       <c r="D35">
-        <v>0.1115712727735803</v>
+        <v>0.3715598930815984</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1748,13 +1754,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>7.28</v>
+        <v>6.96</v>
       </c>
       <c r="C36">
-        <v>7.313486081531756</v>
+        <v>7.433884327199877</v>
       </c>
       <c r="D36">
-        <v>0.03348608153175547</v>
+        <v>0.4738843271998769</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1762,13 +1768,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>7.19</v>
+        <v>6.94</v>
       </c>
       <c r="C37">
-        <v>7.234378506697182</v>
+        <v>7.411917477225213</v>
       </c>
       <c r="D37">
-        <v>0.04437850669718202</v>
+        <v>0.4719174772252126</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1776,13 +1782,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>7.44</v>
+        <v>7.12</v>
       </c>
       <c r="C38">
-        <v>7.438041404445193</v>
+        <v>7.56994299936815</v>
       </c>
       <c r="D38">
-        <v>-0.001958595554807374</v>
+        <v>0.4499429993681501</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1790,13 +1796,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>7.12</v>
+        <v>7.11</v>
       </c>
       <c r="C39">
-        <v>7.016232253964199</v>
+        <v>7.458295044925299</v>
       </c>
       <c r="D39">
-        <v>-0.1037677460358015</v>
+        <v>0.3482950449252984</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1804,13 +1810,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>7.87</v>
+        <v>7.17</v>
       </c>
       <c r="C40">
-        <v>7.313435049678007</v>
+        <v>7.485490696539792</v>
       </c>
       <c r="D40">
-        <v>-0.5565649503219934</v>
+        <v>0.3154906965397917</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1818,13 +1824,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>7.9</v>
+        <v>7.18</v>
       </c>
       <c r="C41">
-        <v>7.321904621216276</v>
+        <v>7.463730922980218</v>
       </c>
       <c r="D41">
-        <v>-0.5780953787837246</v>
+        <v>0.2837309229802187</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1832,13 +1838,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>8.01</v>
+        <v>7.23</v>
       </c>
       <c r="C42">
-        <v>7.282430720311326</v>
+        <v>7.540162062348168</v>
       </c>
       <c r="D42">
-        <v>-0.7275692796886739</v>
+        <v>0.3101620623481676</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1846,13 +1852,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>8.109999999999999</v>
+        <v>6.86</v>
       </c>
       <c r="C43">
-        <v>7.648983894282721</v>
+        <v>7.096714021345813</v>
       </c>
       <c r="D43">
-        <v>-0.4610161057172784</v>
+        <v>0.2367140213458123</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1860,13 +1866,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>8.4</v>
+        <v>7.72</v>
       </c>
       <c r="C44">
-        <v>7.879528536225437</v>
+        <v>7.534268999958865</v>
       </c>
       <c r="D44">
-        <v>-0.5204714637745633</v>
+        <v>-0.1857310000411347</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1874,13 +1880,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>7.73</v>
+        <v>7.65</v>
       </c>
       <c r="C45">
-        <v>8.246835363035721</v>
+        <v>7.541722311245282</v>
       </c>
       <c r="D45">
-        <v>0.516835363035721</v>
+        <v>-0.1082776887547183</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1888,13 +1894,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>7.75</v>
+        <v>7.36</v>
       </c>
       <c r="C46">
-        <v>8.244161660540886</v>
+        <v>7.447276495073524</v>
       </c>
       <c r="D46">
-        <v>0.4941616605408861</v>
+        <v>0.08727649507352364</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1902,13 +1908,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>7.53</v>
+        <v>7.5</v>
       </c>
       <c r="C47">
-        <v>8.05565850878223</v>
+        <v>7.431238752926927</v>
       </c>
       <c r="D47">
-        <v>0.5256585087822296</v>
+        <v>-0.06876124707307341</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1916,13 +1922,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>8.25</v>
+        <v>7.3</v>
       </c>
       <c r="C48">
-        <v>8.188413905366769</v>
+        <v>7.418746635661872</v>
       </c>
       <c r="D48">
-        <v>-0.06158609463323117</v>
+        <v>0.1187466356618723</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1930,13 +1936,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>8.449999999999999</v>
+        <v>7.27</v>
       </c>
       <c r="C49">
-        <v>8.120935014420557</v>
+        <v>7.379868746348613</v>
       </c>
       <c r="D49">
-        <v>-0.3290649855794427</v>
+        <v>0.1098687463486137</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1944,13 +1950,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>8.44</v>
+        <v>7.24</v>
       </c>
       <c r="C50">
-        <v>7.902237295816767</v>
+        <v>7.270459281323722</v>
       </c>
       <c r="D50">
-        <v>-0.5377627041832325</v>
+        <v>0.03045928132372211</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1958,13 +1964,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>9.199999999999999</v>
+        <v>7.3</v>
       </c>
       <c r="C51">
-        <v>8.343181784770771</v>
+        <v>7.321246831237755</v>
       </c>
       <c r="D51">
-        <v>-0.8568182152292287</v>
+        <v>0.02124683123775473</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1972,13 +1978,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>9.32</v>
+        <v>7.3</v>
       </c>
       <c r="C52">
-        <v>8.391736064730495</v>
+        <v>7.319383268184628</v>
       </c>
       <c r="D52">
-        <v>-0.9282639352695057</v>
+        <v>0.01938326818462865</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1986,13 +1992,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>9.31</v>
+        <v>7.29</v>
       </c>
       <c r="C53">
-        <v>8.336114125762425</v>
+        <v>7.307151392414712</v>
       </c>
       <c r="D53">
-        <v>-0.9738858742375758</v>
+        <v>0.01715139241471153</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2000,13 +2006,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>8.869999999999999</v>
+        <v>7.43</v>
       </c>
       <c r="C54">
-        <v>8.168468715241932</v>
+        <v>7.489470460498181</v>
       </c>
       <c r="D54">
-        <v>-0.701531284758067</v>
+        <v>0.05947046049818105</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2014,13 +2020,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>8.890000000000001</v>
+        <v>7.49</v>
       </c>
       <c r="C55">
-        <v>8.214813199964638</v>
+        <v>7.474958995349816</v>
       </c>
       <c r="D55">
-        <v>-0.6751868000353625</v>
+        <v>-0.01504100465018432</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2028,13 +2034,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>8.84</v>
+        <v>7.22</v>
       </c>
       <c r="C56">
-        <v>8.165031663473496</v>
+        <v>7.159680071666166</v>
       </c>
       <c r="D56">
-        <v>-0.6749683365265042</v>
+        <v>-0.06031992833383359</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2042,13 +2048,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>8.92</v>
+        <v>7.21</v>
       </c>
       <c r="C57">
-        <v>8.164960781123444</v>
+        <v>7.073746557026455</v>
       </c>
       <c r="D57">
-        <v>-0.755039218876556</v>
+        <v>-0.1362534429735449</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2056,13 +2062,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>8.949999999999999</v>
+        <v>7.24</v>
       </c>
       <c r="C58">
-        <v>8.150763664959801</v>
+        <v>7.143284461534211</v>
       </c>
       <c r="D58">
-        <v>-0.7992363350401988</v>
+        <v>-0.09671553846578895</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2070,13 +2076,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>8.48</v>
+        <v>7.85</v>
       </c>
       <c r="C59">
-        <v>7.98454349593379</v>
+        <v>7.306089253170706</v>
       </c>
       <c r="D59">
-        <v>-0.4954565040662109</v>
+        <v>-0.5439107468292939</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2084,13 +2090,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>8.640000000000001</v>
+        <v>7.93</v>
       </c>
       <c r="C60">
-        <v>8.070739331374075</v>
+        <v>7.287373769837833</v>
       </c>
       <c r="D60">
-        <v>-0.5692606686259261</v>
+        <v>-0.6426262301621666</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2098,13 +2104,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>8.140000000000001</v>
+        <v>8.15</v>
       </c>
       <c r="C61">
-        <v>8.104930496857552</v>
+        <v>7.656984167594572</v>
       </c>
       <c r="D61">
-        <v>-0.03506950314244861</v>
+        <v>-0.4930158324054279</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2112,13 +2118,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>8.02</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="C62">
-        <v>8.032992369884326</v>
+        <v>7.856979628633443</v>
       </c>
       <c r="D62">
-        <v>0.01299236988432639</v>
+        <v>-0.1930203713665577</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2126,13 +2132,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>8.029999999999999</v>
+        <v>7.75</v>
       </c>
       <c r="C63">
-        <v>8.035547803125414</v>
+        <v>7.944814876219121</v>
       </c>
       <c r="D63">
-        <v>0.00554780312541503</v>
+        <v>0.1948148762191213</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2140,13 +2146,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>8.01</v>
+        <v>7.62</v>
       </c>
       <c r="C64">
-        <v>8.059487306627087</v>
+        <v>7.873521866288987</v>
       </c>
       <c r="D64">
-        <v>0.04948730662708734</v>
+        <v>0.2535218662889873</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2154,13 +2160,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>8</v>
+        <v>7.63</v>
       </c>
       <c r="C65">
-        <v>8.025559552216365</v>
+        <v>8.188666369279119</v>
       </c>
       <c r="D65">
-        <v>0.02555955221636452</v>
+        <v>0.5586663692791189</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2168,13 +2174,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>8.09</v>
+        <v>7.69</v>
       </c>
       <c r="C66">
-        <v>8.125226090039408</v>
+        <v>8.209392281644993</v>
       </c>
       <c r="D66">
-        <v>0.03522609003940858</v>
+        <v>0.5193922816449925</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2182,13 +2188,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>8.32</v>
+        <v>7.74</v>
       </c>
       <c r="C67">
-        <v>8.174694151064568</v>
+        <v>8.208279452154212</v>
       </c>
       <c r="D67">
-        <v>-0.1453058489354326</v>
+        <v>0.4682794521542117</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2196,13 +2202,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>8.529999999999999</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="C68">
-        <v>8.227714905180214</v>
+        <v>8.002517144280009</v>
       </c>
       <c r="D68">
-        <v>-0.3022850948197853</v>
+        <v>-0.5374828557199898</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2210,13 +2216,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>8.359999999999999</v>
+        <v>8.43</v>
       </c>
       <c r="C69">
-        <v>8.127310122912295</v>
+        <v>7.892823651827655</v>
       </c>
       <c r="D69">
-        <v>-0.2326898770877044</v>
+        <v>-0.5371763481723448</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2224,13 +2230,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>8.52</v>
+        <v>9.26</v>
       </c>
       <c r="C70">
-        <v>8.212497169017599</v>
+        <v>8.367295042158471</v>
       </c>
       <c r="D70">
-        <v>-0.3075028309824006</v>
+        <v>-0.8927049578415289</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2238,13 +2244,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>8.25</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="C71">
-        <v>8.033412770734468</v>
+        <v>8.397541319741508</v>
       </c>
       <c r="D71">
-        <v>-0.2165872292655315</v>
+        <v>-0.8924586802584908</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2252,13 +2258,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>7.94</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="C72">
-        <v>7.915132803074651</v>
+        <v>8.188776695541932</v>
       </c>
       <c r="D72">
-        <v>-0.02486719692534933</v>
+        <v>-0.7012233044580682</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2266,13 +2272,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>7.7</v>
+        <v>8.82</v>
       </c>
       <c r="C73">
-        <v>7.76050088451487</v>
+        <v>8.155343310884358</v>
       </c>
       <c r="D73">
-        <v>0.06050088451486957</v>
+        <v>-0.6646566891156418</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2280,13 +2286,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>8.140000000000001</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="C74">
-        <v>8.032284553253518</v>
+        <v>8.179056116581444</v>
       </c>
       <c r="D74">
-        <v>-0.1077154467464823</v>
+        <v>-0.7909438834185565</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2294,13 +2300,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>8.18</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="C75">
-        <v>8.065239275373411</v>
+        <v>8.186648820466985</v>
       </c>
       <c r="D75">
-        <v>-0.1147607246265885</v>
+        <v>-0.7833511795330157</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2308,13 +2314,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>8.17</v>
+        <v>8.91</v>
       </c>
       <c r="C76">
-        <v>8.066110717239312</v>
+        <v>8.195260906890104</v>
       </c>
       <c r="D76">
-        <v>-0.1038892827606883</v>
+        <v>-0.7147390931098965</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2322,13 +2328,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>8.18</v>
+        <v>8.84</v>
       </c>
       <c r="C77">
-        <v>8.186988647178016</v>
+        <v>8.183644498529006</v>
       </c>
       <c r="D77">
-        <v>0.006988647178015839</v>
+        <v>-0.6563555014709941</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2336,13 +2342,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>8.220000000000001</v>
+        <v>9.15</v>
       </c>
       <c r="C78">
-        <v>8.181880200661084</v>
+        <v>8.119357903751697</v>
       </c>
       <c r="D78">
-        <v>-0.03811979933891685</v>
+        <v>-1.030642096248304</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2350,13 +2356,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>8.18</v>
+        <v>9</v>
       </c>
       <c r="C79">
-        <v>8.144369250816641</v>
+        <v>8.095688716541664</v>
       </c>
       <c r="D79">
-        <v>-0.03563074918335829</v>
+        <v>-0.9043112834583358</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2364,13 +2370,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>8.140000000000001</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="C80">
-        <v>8.186950877696177</v>
+        <v>7.967461371544191</v>
       </c>
       <c r="D80">
-        <v>0.04695087769617601</v>
+        <v>-0.4925386284558098</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2378,13 +2384,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>8.1</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="C81">
-        <v>8.03761688468089</v>
+        <v>8.088716972120435</v>
       </c>
       <c r="D81">
-        <v>-0.06238311531910945</v>
+        <v>0.03871697212043479</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2392,13 +2398,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>8.039999999999999</v>
+        <v>8.02</v>
       </c>
       <c r="C82">
-        <v>8.09027146577899</v>
+        <v>8.031427987281022</v>
       </c>
       <c r="D82">
-        <v>0.05027146577899089</v>
+        <v>0.01142798728102257</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2406,13 +2412,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>7.66</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="C83">
-        <v>7.865589780214811</v>
+        <v>8.045738403663309</v>
       </c>
       <c r="D83">
-        <v>0.2055897802148108</v>
+        <v>-0.004261596336691653</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2420,13 +2426,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>7.66</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="C84">
-        <v>7.814260945030747</v>
+        <v>8.139066077551602</v>
       </c>
       <c r="D84">
-        <v>0.1542609450307468</v>
+        <v>0.08906607755160145</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2434,13 +2440,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>7.68</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="C85">
-        <v>7.912746516740262</v>
+        <v>8.186094215482207</v>
       </c>
       <c r="D85">
-        <v>0.2327465167402627</v>
+        <v>-0.1039057845177922</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2448,13 +2454,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>7.47</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="C86">
-        <v>7.859132167138662</v>
+        <v>8.244278399326726</v>
       </c>
       <c r="D86">
-        <v>0.3891321671386621</v>
+        <v>-0.2257216006732747</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2462,13 +2468,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>7.47</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C87">
-        <v>7.840203826796118</v>
+        <v>8.126187776070273</v>
       </c>
       <c r="D87">
-        <v>0.3702038267961179</v>
+        <v>-0.2338122239297267</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2476,13 +2482,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>7.48</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="C88">
-        <v>7.71900558023325</v>
+        <v>7.911270951801519</v>
       </c>
       <c r="D88">
-        <v>0.2390055802332496</v>
+        <v>-0.1287290481984797</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2490,13 +2496,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>7.51</v>
+        <v>7.97</v>
       </c>
       <c r="C89">
-        <v>7.629449739008449</v>
+        <v>7.887641891641474</v>
       </c>
       <c r="D89">
-        <v>0.1194497390084495</v>
+        <v>-0.08235810835852586</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2504,13 +2510,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>7.49</v>
+        <v>7.48</v>
       </c>
       <c r="C90">
-        <v>7.624256879427702</v>
+        <v>7.710474413793138</v>
       </c>
       <c r="D90">
-        <v>0.1342568794277019</v>
+        <v>0.2304744137931376</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2518,13 +2524,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>7.48</v>
+        <v>7.5</v>
       </c>
       <c r="C91">
-        <v>7.594570074791206</v>
+        <v>7.718045807097361</v>
       </c>
       <c r="D91">
-        <v>0.1145700747912057</v>
+        <v>0.2180458070973614</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2532,13 +2538,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>7.58</v>
+        <v>7.5</v>
       </c>
       <c r="C92">
-        <v>7.526979937901825</v>
+        <v>7.560746785037681</v>
       </c>
       <c r="D92">
-        <v>-0.05302006209817467</v>
+        <v>0.06074678503768105</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2546,13 +2552,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>7.67</v>
+        <v>7.47</v>
       </c>
       <c r="C93">
-        <v>7.936550582894369</v>
+        <v>7.519140199779656</v>
       </c>
       <c r="D93">
-        <v>0.2665505828943688</v>
+        <v>0.04914019977965634</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2560,13 +2566,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>7.64</v>
+        <v>7.57</v>
       </c>
       <c r="C94">
-        <v>7.885951471729594</v>
+        <v>7.54497203817823</v>
       </c>
       <c r="D94">
-        <v>0.2459514717295939</v>
+        <v>-0.02502796182177036</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2574,13 +2580,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>7.63</v>
+        <v>7.59</v>
       </c>
       <c r="C95">
-        <v>7.912135216487003</v>
+        <v>7.546494607918241</v>
       </c>
       <c r="D95">
-        <v>0.2821352164870028</v>
+        <v>-0.04350539208175874</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2588,13 +2594,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>7.61</v>
+        <v>7.67</v>
       </c>
       <c r="C96">
-        <v>7.823222020933367</v>
+        <v>7.514229344791747</v>
       </c>
       <c r="D96">
-        <v>0.2132220209333671</v>
+        <v>-0.1557706552082525</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2602,13 +2608,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>7.63</v>
+        <v>7.64</v>
       </c>
       <c r="C97">
-        <v>7.930550593147129</v>
+        <v>7.498746455833844</v>
       </c>
       <c r="D97">
-        <v>0.3005505931471291</v>
+        <v>-0.1412535441661555</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2616,13 +2622,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>7.37</v>
+        <v>7.63</v>
       </c>
       <c r="C98">
-        <v>7.628075259104514</v>
+        <v>7.891241498420897</v>
       </c>
       <c r="D98">
-        <v>0.2580752591045137</v>
+        <v>0.2612414984208966</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2630,13 +2636,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>7.3</v>
+        <v>7.61</v>
       </c>
       <c r="C99">
-        <v>7.583428827167967</v>
+        <v>7.790445819712332</v>
       </c>
       <c r="D99">
-        <v>0.2834288271679668</v>
+        <v>0.1804458197123315</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2644,13 +2650,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>7.3</v>
+        <v>7.59</v>
       </c>
       <c r="C100">
-        <v>7.575802434789876</v>
+        <v>7.765969750694351</v>
       </c>
       <c r="D100">
-        <v>0.2758024347898758</v>
+        <v>0.1759697506943514</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2658,13 +2664,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>7.3</v>
+        <v>7.64</v>
       </c>
       <c r="C101">
-        <v>7.585260725819896</v>
+        <v>7.895966567567195</v>
       </c>
       <c r="D101">
-        <v>0.2852607258198958</v>
+        <v>0.2559665675671949</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2672,13 +2678,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>7.15</v>
+        <v>7.62</v>
       </c>
       <c r="C102">
-        <v>7.414166769121763</v>
+        <v>7.910375952313982</v>
       </c>
       <c r="D102">
-        <v>0.2641667691217622</v>
+        <v>0.2903759523139824</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2686,13 +2692,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>7.17</v>
+        <v>7.62</v>
       </c>
       <c r="C103">
-        <v>7.443852213497656</v>
+        <v>7.827963733914224</v>
       </c>
       <c r="D103">
-        <v>0.2738522134976558</v>
+        <v>0.207963733914224</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2700,13 +2706,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>7.19</v>
+        <v>7.63</v>
       </c>
       <c r="C104">
-        <v>7.414794595946332</v>
+        <v>7.909350940295981</v>
       </c>
       <c r="D104">
-        <v>0.2247945959463316</v>
+        <v>0.2793509402959815</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2714,13 +2720,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>7.16</v>
+        <v>7.67</v>
       </c>
       <c r="C105">
-        <v>7.427820339411208</v>
+        <v>7.884385093628699</v>
       </c>
       <c r="D105">
-        <v>0.267820339411208</v>
+        <v>0.2143850936286995</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2728,13 +2734,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>7.17</v>
+        <v>7.66</v>
       </c>
       <c r="C106">
-        <v>7.436744700000278</v>
+        <v>7.905098258517393</v>
       </c>
       <c r="D106">
-        <v>0.2667447000002783</v>
+        <v>0.2450982585173929</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2742,13 +2748,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>7.18</v>
+        <v>7.72</v>
       </c>
       <c r="C107">
-        <v>7.510962314939023</v>
+        <v>7.982593039275145</v>
       </c>
       <c r="D107">
-        <v>0.3309623149390228</v>
+        <v>0.2625930392751448</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2756,13 +2762,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>7.6</v>
+        <v>7.66</v>
       </c>
       <c r="C108">
-        <v>7.60072187953491</v>
+        <v>7.970965588798814</v>
       </c>
       <c r="D108">
-        <v>0.0007218795349102081</v>
+        <v>0.3109655887988136</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2770,13 +2776,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>7.85</v>
+        <v>7.64</v>
       </c>
       <c r="C109">
-        <v>7.991770154091603</v>
+        <v>7.936904682903988</v>
       </c>
       <c r="D109">
-        <v>0.1417701540916037</v>
+        <v>0.2969046829039881</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2784,13 +2790,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>7.88</v>
+        <v>7.75</v>
       </c>
       <c r="C110">
-        <v>8.022398379685239</v>
+        <v>7.961706458069081</v>
       </c>
       <c r="D110">
-        <v>0.1423983796852388</v>
+        <v>0.2117064580690808</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2798,13 +2804,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>7.89</v>
+        <v>7.37</v>
       </c>
       <c r="C111">
-        <v>8.028559633637283</v>
+        <v>7.675682741629211</v>
       </c>
       <c r="D111">
-        <v>0.138559633637283</v>
+        <v>0.3056827416292114</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2812,13 +2818,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>7.92</v>
+        <v>7.36</v>
       </c>
       <c r="C112">
-        <v>8.009934407546194</v>
+        <v>7.659657837670498</v>
       </c>
       <c r="D112">
-        <v>0.08993440754619364</v>
+        <v>0.2996578376704973</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2826,13 +2832,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>7.98</v>
+        <v>7.34</v>
       </c>
       <c r="C113">
-        <v>7.989017417492405</v>
+        <v>7.604445194427592</v>
       </c>
       <c r="D113">
-        <v>0.009017417492404256</v>
+        <v>0.2644451944275925</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2840,13 +2846,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>8.23</v>
+        <v>7.31</v>
       </c>
       <c r="C114">
-        <v>8.199401144538591</v>
+        <v>7.585659019539191</v>
       </c>
       <c r="D114">
-        <v>-0.03059885546140961</v>
+        <v>0.2756590195391917</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2854,13 +2860,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>8.19</v>
+        <v>7.21</v>
       </c>
       <c r="C115">
-        <v>8.08043274262759</v>
+        <v>7.416377354437389</v>
       </c>
       <c r="D115">
-        <v>-0.1095672573724098</v>
+        <v>0.2063773544373886</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2868,13 +2874,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>8.17</v>
+        <v>7.12</v>
       </c>
       <c r="C116">
-        <v>8.100900451644097</v>
+        <v>7.395106047549044</v>
       </c>
       <c r="D116">
-        <v>-0.06909954835590248</v>
+        <v>0.2751060475490439</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2882,13 +2888,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>8.19</v>
+        <v>7.18</v>
       </c>
       <c r="C117">
-        <v>7.972828340482132</v>
+        <v>7.4373545677084</v>
       </c>
       <c r="D117">
-        <v>-0.2171716595178674</v>
+        <v>0.2573545677084006</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2896,13 +2902,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>8.42</v>
+        <v>7.22</v>
       </c>
       <c r="C118">
-        <v>8.080526844935363</v>
+        <v>7.484991983759157</v>
       </c>
       <c r="D118">
-        <v>-0.3394731550646366</v>
+        <v>0.264991983759157</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2910,13 +2916,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>8.470000000000001</v>
+        <v>7.27</v>
       </c>
       <c r="C119">
-        <v>8.147256985038322</v>
+        <v>7.491522657615363</v>
       </c>
       <c r="D119">
-        <v>-0.322743014961679</v>
+        <v>0.2215226576153633</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2924,13 +2930,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>8.49</v>
+        <v>7.45</v>
       </c>
       <c r="C120">
-        <v>8.142471052449725</v>
+        <v>7.564393483985814</v>
       </c>
       <c r="D120">
-        <v>-0.3475289475502752</v>
+        <v>0.1143934839858138</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2938,13 +2944,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>8.34</v>
+        <v>7.48</v>
       </c>
       <c r="C121">
-        <v>8.171174134815651</v>
+        <v>7.600928200114208</v>
       </c>
       <c r="D121">
-        <v>-0.1688258651843491</v>
+        <v>0.1209282001142071</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2952,13 +2958,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>8.17</v>
+        <v>7.93</v>
       </c>
       <c r="C122">
-        <v>8.234421388233006</v>
+        <v>7.906334979647283</v>
       </c>
       <c r="D122">
-        <v>0.06442138823300603</v>
+        <v>-0.02366502035271623</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2966,13 +2972,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>7.95</v>
+        <v>7.82</v>
       </c>
       <c r="C123">
-        <v>7.993708699415856</v>
+        <v>7.95301105255194</v>
       </c>
       <c r="D123">
-        <v>0.04370869941585553</v>
+        <v>0.1330110525519395</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2980,13 +2986,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>8.24</v>
+        <v>7.97</v>
       </c>
       <c r="C124">
-        <v>8.389244684834956</v>
+        <v>7.996549257020751</v>
       </c>
       <c r="D124">
-        <v>0.1492446848349562</v>
+        <v>0.0265492570207515</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2994,13 +3000,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>8.24</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="C125">
-        <v>8.334666023313307</v>
+        <v>8.111404188756964</v>
       </c>
       <c r="D125">
-        <v>0.09466602331330698</v>
+        <v>-0.008595811243035101</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3011,10 +3017,10 @@
         <v>8.35</v>
       </c>
       <c r="C126">
-        <v>8.445489501373856</v>
+        <v>8.27303484411013</v>
       </c>
       <c r="D126">
-        <v>0.09548950137385681</v>
+        <v>-0.07696515588986941</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3022,13 +3028,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>8.32</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C127">
-        <v>8.367227764999384</v>
+        <v>7.986006117528849</v>
       </c>
       <c r="D127">
-        <v>0.04722776499938419</v>
+        <v>-0.2139938824711507</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3036,13 +3042,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>8.130000000000001</v>
+        <v>8.32</v>
       </c>
       <c r="C128">
-        <v>8.262760315459094</v>
+        <v>8.093097103298755</v>
       </c>
       <c r="D128">
-        <v>0.1327603154590928</v>
+        <v>-0.2269028967012456</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3050,13 +3056,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>8.279999999999999</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C129">
-        <v>8.325320096968969</v>
+        <v>8.05773433076388</v>
       </c>
       <c r="D129">
-        <v>0.04532009696896999</v>
+        <v>-0.3022656692361192</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3064,13 +3070,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>8.210000000000001</v>
+        <v>8.33</v>
       </c>
       <c r="C130">
-        <v>8.315277908986427</v>
+        <v>8.1694159021984</v>
       </c>
       <c r="D130">
-        <v>0.1052779089864266</v>
+        <v>-0.1605840978015998</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3078,13 +3084,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>8.52</v>
+        <v>8.16</v>
       </c>
       <c r="C131">
-        <v>8.548082617650461</v>
+        <v>8.146981050620353</v>
       </c>
       <c r="D131">
-        <v>0.02808261765046183</v>
+        <v>-0.01301894937964754</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3092,13 +3098,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>8.6</v>
+        <v>8.17</v>
       </c>
       <c r="C132">
-        <v>8.645328221335088</v>
+        <v>8.335938380214515</v>
       </c>
       <c r="D132">
-        <v>0.04532822133508851</v>
+        <v>0.1659383802145147</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3106,13 +3112,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>9.17</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="C133">
-        <v>8.895417209870914</v>
+        <v>8.328897611254581</v>
       </c>
       <c r="D133">
-        <v>-0.2745827901290863</v>
+        <v>0.04889761125458136</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3120,13 +3126,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>9.24</v>
+        <v>8.24</v>
       </c>
       <c r="C134">
-        <v>9.032677340651858</v>
+        <v>8.33682248787245</v>
       </c>
       <c r="D134">
-        <v>-0.2073226593481419</v>
+        <v>0.09682248787244951</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3134,13 +3140,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>9.359999999999999</v>
+        <v>8.43</v>
       </c>
       <c r="C135">
-        <v>9.165491471802206</v>
+        <v>8.490618901564419</v>
       </c>
       <c r="D135">
-        <v>-0.1945085281977939</v>
+        <v>0.0606189015644194</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3148,13 +3154,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>10.43</v>
+        <v>8.31</v>
       </c>
       <c r="C136">
-        <v>9.54031511810896</v>
+        <v>8.461220484913959</v>
       </c>
       <c r="D136">
-        <v>-0.8896848818910392</v>
+        <v>0.1512204849139582</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3162,13 +3168,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>9.460000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="C137">
-        <v>9.252436718724521</v>
+        <v>8.656936926658032</v>
       </c>
       <c r="D137">
-        <v>-0.2075632812754797</v>
+        <v>-0.2430630733419683</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3176,13 +3182,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>9.369999999999999</v>
+        <v>9.01</v>
       </c>
       <c r="C138">
-        <v>9.237419904598958</v>
+        <v>8.806849628984702</v>
       </c>
       <c r="D138">
-        <v>-0.1325800954010408</v>
+        <v>-0.2031503710152975</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3190,13 +3196,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>8.710000000000001</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="C139">
-        <v>8.711453383889829</v>
+        <v>9.057331909201839</v>
       </c>
       <c r="D139">
-        <v>0.001453383889828075</v>
+        <v>-0.1526680907981621</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3204,13 +3210,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>8.710000000000001</v>
+        <v>10.45</v>
       </c>
       <c r="C140">
-        <v>8.530374042662466</v>
+        <v>9.524453755449487</v>
       </c>
       <c r="D140">
-        <v>-0.1796259573375352</v>
+        <v>-0.925546244550512</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3218,13 +3224,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>8.49</v>
+        <v>9.58</v>
       </c>
       <c r="C141">
-        <v>8.369112138627706</v>
+        <v>9.236453092020623</v>
       </c>
       <c r="D141">
-        <v>-0.1208878613722941</v>
+        <v>-0.3435469079793769</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3232,13 +3238,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>8.369999999999999</v>
+        <v>9.58</v>
       </c>
       <c r="C142">
-        <v>8.2908305940412</v>
+        <v>9.335537553138325</v>
       </c>
       <c r="D142">
-        <v>-0.07916940595879929</v>
+        <v>-0.2444624468616752</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3246,13 +3252,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>7.66</v>
+        <v>9.32</v>
       </c>
       <c r="C143">
-        <v>8.192171325882747</v>
+        <v>9.197378916677815</v>
       </c>
       <c r="D143">
-        <v>0.5321713258827465</v>
+        <v>-0.1226210833221852</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3260,13 +3266,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>7.84</v>
+        <v>7.6</v>
       </c>
       <c r="C144">
-        <v>8.153752183588519</v>
+        <v>7.983492819354444</v>
       </c>
       <c r="D144">
-        <v>0.3137521835885195</v>
+        <v>0.3834928193544442</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3274,13 +3280,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>7.76</v>
+        <v>7.68</v>
       </c>
       <c r="C145">
-        <v>8.005020071849071</v>
+        <v>8.222233391039776</v>
       </c>
       <c r="D145">
-        <v>0.2450200718490709</v>
+        <v>0.5422333910397761</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3288,13 +3294,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>7.71</v>
+        <v>7.74</v>
       </c>
       <c r="C146">
-        <v>8.008193967950195</v>
+        <v>8.176867073025855</v>
       </c>
       <c r="D146">
-        <v>0.298193967950195</v>
+        <v>0.436867073025855</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3302,13 +3308,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>7.64</v>
+        <v>7.85</v>
       </c>
       <c r="C147">
-        <v>7.883172429108321</v>
+        <v>8.239122067848005</v>
       </c>
       <c r="D147">
-        <v>0.2431724291083217</v>
+        <v>0.389122067848005</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3316,13 +3322,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>7.66</v>
+        <v>7.76</v>
       </c>
       <c r="C148">
-        <v>7.869637346027173</v>
+        <v>8.063609406071247</v>
       </c>
       <c r="D148">
-        <v>0.209637346027173</v>
+        <v>0.3036094060712475</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3330,13 +3336,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>7.81</v>
+        <v>7.65</v>
       </c>
       <c r="C149">
-        <v>7.84017215784669</v>
+        <v>7.89817019606569</v>
       </c>
       <c r="D149">
-        <v>0.03017215784669069</v>
+        <v>0.2481701960656899</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3344,13 +3350,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>8.09</v>
+        <v>7.75</v>
       </c>
       <c r="C150">
-        <v>8.072552470865812</v>
+        <v>7.808170066466271</v>
       </c>
       <c r="D150">
-        <v>-0.01744752913418779</v>
+        <v>0.05817006646627121</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3358,13 +3364,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>7.6</v>
+        <v>7.84</v>
       </c>
       <c r="C151">
-        <v>7.805270222057101</v>
+        <v>7.905392873534066</v>
       </c>
       <c r="D151">
-        <v>0.2052702220571012</v>
+        <v>0.06539287353406564</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3372,13 +3378,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>7.52</v>
+        <v>7.72</v>
       </c>
       <c r="C152">
-        <v>7.724167597370397</v>
+        <v>7.958647264796269</v>
       </c>
       <c r="D152">
-        <v>0.2041675973703976</v>
+        <v>0.2386472647962696</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3386,13 +3392,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>7.23</v>
+        <v>7.54</v>
       </c>
       <c r="C153">
-        <v>7.323822130302241</v>
+        <v>7.720127741104873</v>
       </c>
       <c r="D153">
-        <v>0.0938221303022404</v>
+        <v>0.1801277411048732</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3400,13 +3406,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>7.02</v>
+        <v>7.51</v>
       </c>
       <c r="C154">
-        <v>7.138040817574873</v>
+        <v>7.686444884925404</v>
       </c>
       <c r="D154">
-        <v>0.1180408175748733</v>
+        <v>0.1764448849254041</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3414,13 +3420,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>7.05</v>
+        <v>7.69</v>
       </c>
       <c r="C155">
-        <v>7.132840523771656</v>
+        <v>7.858340319505958</v>
       </c>
       <c r="D155">
-        <v>0.08284052377165629</v>
+        <v>0.1683403195059574</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3428,13 +3434,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>7.23</v>
+        <v>7.75</v>
       </c>
       <c r="C156">
-        <v>7.212129675686593</v>
+        <v>7.843645190107132</v>
       </c>
       <c r="D156">
-        <v>-0.01787032431340752</v>
+        <v>0.09364519010713224</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3442,13 +3448,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>7.29</v>
+        <v>7.53</v>
       </c>
       <c r="C157">
-        <v>7.264321157773918</v>
+        <v>7.773615382622774</v>
       </c>
       <c r="D157">
-        <v>-0.02567884222608185</v>
+        <v>0.2436153826227736</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3456,13 +3462,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>7.75</v>
+        <v>7.5</v>
       </c>
       <c r="C158">
-        <v>7.56596511885247</v>
+        <v>7.70106411303796</v>
       </c>
       <c r="D158">
-        <v>-0.1840348811475296</v>
+        <v>0.20106411303796</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3470,13 +3476,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>7.18</v>
+        <v>7.24</v>
       </c>
       <c r="C159">
-        <v>7.195141384954494</v>
+        <v>7.44653472922483</v>
       </c>
       <c r="D159">
-        <v>0.01514138495449391</v>
+        <v>0.2065347292248294</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3484,13 +3490,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>7.15</v>
+        <v>7.18</v>
       </c>
       <c r="C160">
-        <v>7.097647122446774</v>
+        <v>7.281787037832803</v>
       </c>
       <c r="D160">
-        <v>-0.05235287755322648</v>
+        <v>0.1017870378328034</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3498,13 +3504,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>6.92</v>
+        <v>7.01</v>
       </c>
       <c r="C161">
-        <v>6.862903164176271</v>
+        <v>7.109261078158205</v>
       </c>
       <c r="D161">
-        <v>-0.05709683582372893</v>
+        <v>0.09926107815820551</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3512,13 +3518,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>7.23</v>
+        <v>7.02</v>
       </c>
       <c r="C162">
-        <v>6.627073188125338</v>
+        <v>7.096016491368648</v>
       </c>
       <c r="D162">
-        <v>-0.6029268118746627</v>
+        <v>0.07601649136864808</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3526,13 +3532,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>7.5</v>
+        <v>7.03</v>
       </c>
       <c r="C163">
-        <v>6.800491651875308</v>
+        <v>7.028913393565185</v>
       </c>
       <c r="D163">
-        <v>-0.6995083481246924</v>
+        <v>-0.001086606434815174</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3540,13 +3546,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>7.47</v>
+        <v>7.53</v>
       </c>
       <c r="C164">
-        <v>6.730482542888951</v>
+        <v>7.338423307324113</v>
       </c>
       <c r="D164">
-        <v>-0.7395174571110488</v>
+        <v>-0.1915766926758868</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3554,13 +3560,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>6.93</v>
+        <v>7.16</v>
       </c>
       <c r="C165">
-        <v>6.661195856449848</v>
+        <v>7.095208687631922</v>
       </c>
       <c r="D165">
-        <v>-0.2688041435501516</v>
+        <v>-0.06479131236807767</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3568,13 +3574,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>6.98</v>
+        <v>7.22</v>
       </c>
       <c r="C166">
-        <v>6.690970156507864</v>
+        <v>7.122173097598541</v>
       </c>
       <c r="D166">
-        <v>-0.2890298434921368</v>
+        <v>-0.09782690240145886</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3582,13 +3588,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>6.64</v>
+        <v>7.04</v>
       </c>
       <c r="C167">
-        <v>6.34848197539855</v>
+        <v>6.919685893778796</v>
       </c>
       <c r="D167">
-        <v>-0.2915180246014497</v>
+        <v>-0.1203141062212039</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3596,13 +3602,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>6.61</v>
+        <v>7.03</v>
       </c>
       <c r="C168">
-        <v>6.427617381172204</v>
+        <v>6.606072926149782</v>
       </c>
       <c r="D168">
-        <v>-0.1823826188277966</v>
+        <v>-0.4239270738502183</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3610,13 +3616,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>6.52</v>
+        <v>6.91</v>
       </c>
       <c r="C169">
-        <v>6.351083539414495</v>
+        <v>6.471659870574056</v>
       </c>
       <c r="D169">
-        <v>-0.1689164605855042</v>
+        <v>-0.4383401294259439</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3624,13 +3630,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>6.79</v>
+        <v>6.97</v>
       </c>
       <c r="C170">
-        <v>6.344294505544659</v>
+        <v>6.519074172354598</v>
       </c>
       <c r="D170">
-        <v>-0.4457054944553409</v>
+        <v>-0.4509258276454018</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3638,13 +3644,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>6.78</v>
+        <v>7.24</v>
       </c>
       <c r="C171">
-        <v>6.326336420905084</v>
+        <v>6.629322188519986</v>
       </c>
       <c r="D171">
-        <v>-0.4536635790949166</v>
+        <v>-0.6106778114800147</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3652,13 +3658,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>6.36</v>
+        <v>7.51</v>
       </c>
       <c r="C172">
-        <v>6.087882036301807</v>
+        <v>6.816531335323335</v>
       </c>
       <c r="D172">
-        <v>-0.272117963698193</v>
+        <v>-0.693468664676665</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3666,13 +3672,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>6.07</v>
+        <v>7.65</v>
       </c>
       <c r="C173">
-        <v>6.098243545044206</v>
+        <v>6.748919177888835</v>
       </c>
       <c r="D173">
-        <v>0.02824354504420601</v>
+        <v>-0.9010808221111652</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3680,13 +3686,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>6.02</v>
+        <v>6.89</v>
       </c>
       <c r="C174">
-        <v>6.065318748191397</v>
+        <v>6.625338564914207</v>
       </c>
       <c r="D174">
-        <v>0.0453187481913977</v>
+        <v>-0.2646614350857925</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3694,13 +3700,13 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>5.96</v>
+        <v>6.97</v>
       </c>
       <c r="C175">
-        <v>6.01393635294226</v>
+        <v>6.754065631110262</v>
       </c>
       <c r="D175">
-        <v>0.05393635294226051</v>
+        <v>-0.2159343688897382</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3708,13 +3714,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>5.78</v>
+        <v>7.09</v>
       </c>
       <c r="C176">
-        <v>6.059668031337798</v>
+        <v>6.594302692405384</v>
       </c>
       <c r="D176">
-        <v>0.2796680313377973</v>
+        <v>-0.4956973075946163</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3722,13 +3728,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>5.75</v>
+        <v>7.02</v>
       </c>
       <c r="C177">
-        <v>6.057311056800901</v>
+        <v>6.603296350980896</v>
       </c>
       <c r="D177">
-        <v>0.3073110568009012</v>
+        <v>-0.4167036490191034</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3736,13 +3742,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>5.72</v>
+        <v>6.61</v>
       </c>
       <c r="C178">
-        <v>6.041961527969359</v>
+        <v>6.383277838789617</v>
       </c>
       <c r="D178">
-        <v>0.3219615279693588</v>
+        <v>-0.2267221612103834</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3750,13 +3756,13 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>5.73</v>
+        <v>6.63</v>
       </c>
       <c r="C179">
-        <v>6.056911071791315</v>
+        <v>6.387737003584641</v>
       </c>
       <c r="D179">
-        <v>0.3269110717913142</v>
+        <v>-0.2422629964153584</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3764,13 +3770,13 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>5.76</v>
+        <v>6.64</v>
       </c>
       <c r="C180">
-        <v>6.059578696485926</v>
+        <v>6.340755990303116</v>
       </c>
       <c r="D180">
-        <v>0.2995786964859262</v>
+        <v>-0.299244009696884</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3778,13 +3784,13 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>5.71</v>
+        <v>6.6</v>
       </c>
       <c r="C181">
-        <v>6.05064951498082</v>
+        <v>6.390636971745261</v>
       </c>
       <c r="D181">
-        <v>0.3406495149808197</v>
+        <v>-0.2093630282547387</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3792,13 +3798,13 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>5.65</v>
+        <v>6.81</v>
       </c>
       <c r="C182">
-        <v>5.912500278644312</v>
+        <v>6.309663667315766</v>
       </c>
       <c r="D182">
-        <v>0.2625002786443114</v>
+        <v>-0.5003363326842338</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3806,13 +3812,13 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>5.69</v>
+        <v>6.77</v>
       </c>
       <c r="C183">
-        <v>5.933786223013905</v>
+        <v>6.310673610137639</v>
       </c>
       <c r="D183">
-        <v>0.2437862230139043</v>
+        <v>-0.4593263898623601</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3820,13 +3826,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>5.67</v>
+        <v>6.58</v>
       </c>
       <c r="C184">
-        <v>5.922521182826114</v>
+        <v>6.25034332952319</v>
       </c>
       <c r="D184">
-        <v>0.252521182826114</v>
+        <v>-0.32965667047681</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3834,13 +3840,13 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>5.67</v>
+        <v>6.26</v>
       </c>
       <c r="C185">
-        <v>5.926568521638722</v>
+        <v>6.037847900640815</v>
       </c>
       <c r="D185">
-        <v>0.2565685216387221</v>
+        <v>-0.2221520993591852</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3848,13 +3854,13 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>5.72</v>
+        <v>6.09</v>
       </c>
       <c r="C186">
-        <v>5.905951871472008</v>
+        <v>6.102066305716702</v>
       </c>
       <c r="D186">
-        <v>0.1859518714720085</v>
+        <v>0.01206630571670253</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3862,13 +3868,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>5.53</v>
+        <v>5.76</v>
       </c>
       <c r="C187">
-        <v>5.749539346113932</v>
+        <v>6.06384109445978</v>
       </c>
       <c r="D187">
-        <v>0.2195393461139314</v>
+        <v>0.3038410944597807</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3876,13 +3882,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>5.52</v>
+        <v>5.74</v>
       </c>
       <c r="C188">
-        <v>5.722705188081153</v>
+        <v>6.06039635327952</v>
       </c>
       <c r="D188">
-        <v>0.2027051880811532</v>
+        <v>0.32039635327952</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3890,13 +3896,13 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>5.48</v>
+        <v>5.73</v>
       </c>
       <c r="C189">
-        <v>5.668026264712128</v>
+        <v>6.050114155871656</v>
       </c>
       <c r="D189">
-        <v>0.1880262647121276</v>
+        <v>0.3201141558716554</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3904,13 +3910,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>5.49</v>
+        <v>5.69</v>
       </c>
       <c r="C190">
-        <v>5.666104295377719</v>
+        <v>6.006032247189173</v>
       </c>
       <c r="D190">
-        <v>0.1761042953777183</v>
+        <v>0.316032247189173</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3918,13 +3924,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>5.49</v>
+        <v>5.67</v>
       </c>
       <c r="C191">
-        <v>5.666184074635603</v>
+        <v>5.991086202754571</v>
       </c>
       <c r="D191">
-        <v>0.1761840746356027</v>
+        <v>0.3210862027545716</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3932,13 +3938,13 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>5.45</v>
+        <v>5.68</v>
       </c>
       <c r="C192">
-        <v>5.645749942929188</v>
+        <v>5.99300622365211</v>
       </c>
       <c r="D192">
-        <v>0.1957499429291882</v>
+        <v>0.3130062236521098</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3946,13 +3952,13 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>5.36</v>
+        <v>5.69</v>
       </c>
       <c r="C193">
-        <v>5.637830707712454</v>
+        <v>5.952960822393964</v>
       </c>
       <c r="D193">
-        <v>0.2778307077124538</v>
+        <v>0.2629608223939632</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3960,13 +3966,13 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>5.35</v>
+        <v>5.71</v>
       </c>
       <c r="C194">
-        <v>5.600536840623879</v>
+        <v>5.960314301667159</v>
       </c>
       <c r="D194">
-        <v>0.2505368406238793</v>
+        <v>0.2503143016671592</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3974,13 +3980,13 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>5.33</v>
+        <v>5.77</v>
       </c>
       <c r="C195">
-        <v>5.559526477652196</v>
+        <v>5.912617390629261</v>
       </c>
       <c r="D195">
-        <v>0.2295264776521959</v>
+        <v>0.1426173906292618</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3988,13 +3994,13 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>5.52</v>
+        <v>5.67</v>
       </c>
       <c r="C196">
-        <v>5.587824507630928</v>
+        <v>5.882377934803104</v>
       </c>
       <c r="D196">
-        <v>0.06782450763092829</v>
+        <v>0.2123779348031043</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4002,13 +4008,13 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>5.51</v>
+        <v>5.77</v>
       </c>
       <c r="C197">
-        <v>5.564625021639674</v>
+        <v>5.861509498584946</v>
       </c>
       <c r="D197">
-        <v>0.05462502163967375</v>
+        <v>0.09150949858494606</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4016,13 +4022,13 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>5.69</v>
+        <v>5.48</v>
       </c>
       <c r="C198">
-        <v>5.62946110690275</v>
+        <v>5.653392709331374</v>
       </c>
       <c r="D198">
-        <v>-0.06053889309725058</v>
+        <v>0.1733927093313739</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4030,13 +4036,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>5.6</v>
+        <v>5.38</v>
       </c>
       <c r="C199">
-        <v>5.634842540407148</v>
+        <v>5.629955382386314</v>
       </c>
       <c r="D199">
-        <v>0.03484254040714863</v>
+        <v>0.2499553823863137</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4044,13 +4050,13 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>5.56</v>
+        <v>5.41</v>
       </c>
       <c r="C200">
-        <v>5.585801400429433</v>
+        <v>5.664386354427261</v>
       </c>
       <c r="D200">
-        <v>0.02580140042943313</v>
+        <v>0.2543863544272611</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4058,13 +4064,13 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>5.86</v>
+        <v>5.48</v>
       </c>
       <c r="C201">
-        <v>5.670262189251432</v>
+        <v>5.568109793043252</v>
       </c>
       <c r="D201">
-        <v>-0.1897378107485679</v>
+        <v>0.08810979304325173</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4072,13 +4078,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>5.9</v>
+        <v>5.55</v>
       </c>
       <c r="C202">
-        <v>5.692840867670934</v>
+        <v>5.588518472903811</v>
       </c>
       <c r="D202">
-        <v>-0.2071591323290667</v>
+        <v>0.03851847290381105</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4086,13 +4092,13 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>5.89</v>
+        <v>5.52</v>
       </c>
       <c r="C203">
-        <v>5.655169568916338</v>
+        <v>5.58692308466064</v>
       </c>
       <c r="D203">
-        <v>-0.2348304310836618</v>
+        <v>0.06692308466064034</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4100,13 +4106,13 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>5.83</v>
+        <v>5.62</v>
       </c>
       <c r="C204">
-        <v>5.645101205636933</v>
+        <v>5.621562712170174</v>
       </c>
       <c r="D204">
-        <v>-0.1848987943630673</v>
+        <v>0.00156271217017423</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4114,13 +4120,13 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>5.99</v>
+        <v>5.67</v>
       </c>
       <c r="C205">
-        <v>5.654889161205413</v>
+        <v>5.619735589640488</v>
       </c>
       <c r="D205">
-        <v>-0.3351108387945869</v>
+        <v>-0.05026441035951201</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4128,13 +4134,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>6.03</v>
+        <v>5.85</v>
       </c>
       <c r="C206">
-        <v>5.658318543368995</v>
+        <v>5.698742636675497</v>
       </c>
       <c r="D206">
-        <v>-0.3716814566310056</v>
+        <v>-0.1512573633245022</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4142,13 +4148,13 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>5.98</v>
+        <v>5.93</v>
       </c>
       <c r="C207">
-        <v>5.604387433261455</v>
+        <v>5.608555429401903</v>
       </c>
       <c r="D207">
-        <v>-0.3756125667385453</v>
+        <v>-0.3214445705980964</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4156,13 +4162,13 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>5.47</v>
+        <v>5.82</v>
       </c>
       <c r="C208">
-        <v>5.504886467758905</v>
+        <v>5.632903444910708</v>
       </c>
       <c r="D208">
-        <v>0.03488646775890558</v>
+        <v>-0.1870965550892922</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4170,13 +4176,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>5.32</v>
+        <v>5.83</v>
       </c>
       <c r="C209">
-        <v>5.427454450859615</v>
+        <v>5.647849941798404</v>
       </c>
       <c r="D209">
-        <v>0.1074544508596142</v>
+        <v>-0.1821500582015965</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4184,13 +4190,13 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>5.35</v>
+        <v>5.98</v>
       </c>
       <c r="C210">
-        <v>5.427167223064148</v>
+        <v>5.615228258595645</v>
       </c>
       <c r="D210">
-        <v>0.07716722306414869</v>
+        <v>-0.3647717414043559</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4198,13 +4204,13 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>5.31</v>
+        <v>5.43</v>
       </c>
       <c r="C211">
-        <v>5.419932470790223</v>
+        <v>5.482168009267905</v>
       </c>
       <c r="D211">
-        <v>0.1099324707902234</v>
+        <v>0.05216800926790555</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4212,13 +4218,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>5.25</v>
+        <v>5.31</v>
       </c>
       <c r="C212">
-        <v>5.407198762526249</v>
+        <v>5.413761594818999</v>
       </c>
       <c r="D212">
-        <v>0.1571987625262485</v>
+        <v>0.1037615948189989</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4226,13 +4232,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>5.26</v>
+        <v>5.29</v>
       </c>
       <c r="C213">
-        <v>5.416704756668064</v>
+        <v>5.431362200872044</v>
       </c>
       <c r="D213">
-        <v>0.1567047566680637</v>
+        <v>0.1413622008720443</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4240,13 +4246,13 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>5.26</v>
+        <v>5.27</v>
       </c>
       <c r="C214">
-        <v>5.44927161606321</v>
+        <v>5.43496504909923</v>
       </c>
       <c r="D214">
-        <v>0.18927161606321</v>
+        <v>0.16496504909923</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4254,13 +4260,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>5.19</v>
+        <v>5.18</v>
       </c>
       <c r="C215">
-        <v>5.46205737630818</v>
+        <v>5.424758653129214</v>
       </c>
       <c r="D215">
-        <v>0.2720573763081795</v>
+        <v>0.2447586531292139</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4271,10 +4277,10 @@
         <v>5</v>
       </c>
       <c r="C216">
-        <v>5.432670587824048</v>
+        <v>5.432497913635377</v>
       </c>
       <c r="D216">
-        <v>0.432670587824048</v>
+        <v>0.4324979136353768</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4282,13 +4288,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>4.97</v>
+        <v>4.98</v>
       </c>
       <c r="C217">
-        <v>5.393242753880233</v>
+        <v>5.402606140775934</v>
       </c>
       <c r="D217">
-        <v>0.423242753880233</v>
+        <v>0.4226061407759332</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4299,10 +4305,10 @@
         <v>4.98</v>
       </c>
       <c r="C218">
-        <v>5.388970895999374</v>
+        <v>5.407467590430864</v>
       </c>
       <c r="D218">
-        <v>0.4089708959993734</v>
+        <v>0.4274675904308634</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4310,13 +4316,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>4.99</v>
+        <v>4.96</v>
       </c>
       <c r="C219">
-        <v>5.390077123088923</v>
+        <v>5.385092578155367</v>
       </c>
       <c r="D219">
-        <v>0.4000771230889226</v>
+        <v>0.4250925781553674</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4324,13 +4330,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>5</v>
+        <v>4.94</v>
       </c>
       <c r="C220">
-        <v>5.419984745678453</v>
+        <v>5.366584827217032</v>
       </c>
       <c r="D220">
-        <v>0.4199847456784527</v>
+        <v>0.4265848272170318</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4338,13 +4344,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>5.04</v>
+        <v>5.01</v>
       </c>
       <c r="C221">
-        <v>5.443865405446579</v>
+        <v>5.411496737662061</v>
       </c>
       <c r="D221">
-        <v>0.4038654054465791</v>
+        <v>0.4014967376620611</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4352,13 +4358,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>5.01</v>
+        <v>5.02</v>
       </c>
       <c r="C222">
-        <v>5.392096598976372</v>
+        <v>5.416544421558052</v>
       </c>
       <c r="D222">
-        <v>0.3820965989763723</v>
+        <v>0.3965444215580529</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4366,13 +4372,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>5.15</v>
+        <v>5.14</v>
       </c>
       <c r="C223">
-        <v>5.434964392636386</v>
+        <v>5.393867987819773</v>
       </c>
       <c r="D223">
-        <v>0.2849643926363852</v>
+        <v>0.2538679878197732</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4383,10 +4389,10 @@
         <v>5.13</v>
       </c>
       <c r="C224">
-        <v>5.430575522058482</v>
+        <v>5.37090805510986</v>
       </c>
       <c r="D224">
-        <v>0.300575522058482</v>
+        <v>0.2409080551098599</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4397,10 +4403,10 @@
         <v>5.09</v>
       </c>
       <c r="C225">
-        <v>5.298927894810581</v>
+        <v>5.312292519479493</v>
       </c>
       <c r="D225">
-        <v>0.2089278948105813</v>
+        <v>0.2222925194794936</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4408,13 +4414,13 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>5.09</v>
+        <v>5.1</v>
       </c>
       <c r="C226">
-        <v>5.330725234005496</v>
+        <v>5.294089402098209</v>
       </c>
       <c r="D226">
-        <v>0.2407252340054962</v>
+        <v>0.1940894020982089</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4422,13 +4428,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>5.09</v>
+        <v>5.16</v>
       </c>
       <c r="C227">
-        <v>5.2587700489999</v>
+        <v>5.31844460758562</v>
       </c>
       <c r="D227">
-        <v>0.1687700489999004</v>
+        <v>0.1584446075856203</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4436,13 +4442,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>5.07</v>
+        <v>5.13</v>
       </c>
       <c r="C228">
-        <v>5.253366053381</v>
+        <v>5.30393777360953</v>
       </c>
       <c r="D228">
-        <v>0.1833660533809995</v>
+        <v>0.1739377736095298</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4450,13 +4456,13 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>5.08</v>
+        <v>5.14</v>
       </c>
       <c r="C229">
-        <v>5.292641233252389</v>
+        <v>5.30937945391341</v>
       </c>
       <c r="D229">
-        <v>0.2126412332523886</v>
+        <v>0.1693794539134101</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4464,13 +4470,13 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>5.04</v>
+        <v>5.12</v>
       </c>
       <c r="C230">
-        <v>5.242671022891281</v>
+        <v>5.266050824954666</v>
       </c>
       <c r="D230">
-        <v>0.2026710228912805</v>
+        <v>0.1460508249546661</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4481,10 +4487,10 @@
         <v>5.07</v>
       </c>
       <c r="C231">
-        <v>5.245339151419768</v>
+        <v>5.283741431121729</v>
       </c>
       <c r="D231">
-        <v>0.1753391514197675</v>
+        <v>0.2137414311217292</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4495,10 +4501,10 @@
         <v>5.06</v>
       </c>
       <c r="C232">
-        <v>5.25766507300079</v>
+        <v>5.258044557586452</v>
       </c>
       <c r="D232">
-        <v>0.1976650730007901</v>
+        <v>0.198044557586452</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4509,10 +4515,10 @@
         <v>5.07</v>
       </c>
       <c r="C233">
-        <v>5.263299315392859</v>
+        <v>5.248763379963954</v>
       </c>
       <c r="D233">
-        <v>0.1932993153928591</v>
+        <v>0.1787633799639536</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4520,13 +4526,13 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>5.12</v>
+        <v>5.13</v>
       </c>
       <c r="C234">
-        <v>5.335264309808506</v>
+        <v>5.336510405609484</v>
       </c>
       <c r="D234">
-        <v>0.2152643098085054</v>
+        <v>0.2065104056094844</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4537,10 +4543,10 @@
         <v>5.14</v>
       </c>
       <c r="C235">
-        <v>5.332991065820912</v>
+        <v>5.334270650306786</v>
       </c>
       <c r="D235">
-        <v>0.1929910658209124</v>
+        <v>0.1942706503067866</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4548,13 +4554,13 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>5.16</v>
+        <v>5.14</v>
       </c>
       <c r="C236">
-        <v>5.331331993874193</v>
+        <v>5.326738878291668</v>
       </c>
       <c r="D236">
-        <v>0.1713319938741931</v>
+        <v>0.1867388782916679</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4562,13 +4568,13 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>5.12</v>
+        <v>5.11</v>
       </c>
       <c r="C237">
-        <v>5.31141986900223</v>
+        <v>5.216310999093112</v>
       </c>
       <c r="D237">
-        <v>0.19141986900223</v>
+        <v>0.1063109990931119</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4576,13 +4582,13 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>5.11</v>
+        <v>5.06</v>
       </c>
       <c r="C238">
-        <v>5.217217884154766</v>
+        <v>5.206274946210639</v>
       </c>
       <c r="D238">
-        <v>0.1072178841547657</v>
+        <v>0.1462749462106396</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4590,13 +4596,13 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>5.11</v>
+        <v>5.08</v>
       </c>
       <c r="C239">
-        <v>5.209247433390108</v>
+        <v>5.243770342940946</v>
       </c>
       <c r="D239">
-        <v>0.09924743339010789</v>
+        <v>0.1637703429409463</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4604,13 +4610,13 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>5.06</v>
+        <v>5.07</v>
       </c>
       <c r="C240">
-        <v>5.215663297790308</v>
+        <v>5.253587957739466</v>
       </c>
       <c r="D240">
-        <v>0.1556632977903085</v>
+        <v>0.1835879577394657</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4618,13 +4624,13 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>5.05</v>
+        <v>5.08</v>
       </c>
       <c r="C241">
-        <v>5.209776025365009</v>
+        <v>5.234775532140084</v>
       </c>
       <c r="D241">
-        <v>0.1597760253650087</v>
+        <v>0.1547755321400839</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4632,13 +4638,13 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>5.08</v>
+        <v>5.06</v>
       </c>
       <c r="C242">
-        <v>5.245905449572279</v>
+        <v>5.231630023245803</v>
       </c>
       <c r="D242">
-        <v>0.1659054495722794</v>
+        <v>0.171630023245803</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4646,13 +4652,13 @@
         <v>245</v>
       </c>
       <c r="B243">
-        <v>5.09</v>
+        <v>5.05</v>
       </c>
       <c r="C243">
-        <v>5.239838143263589</v>
+        <v>5.239678403294311</v>
       </c>
       <c r="D243">
-        <v>0.1498381432635894</v>
+        <v>0.1896784032943115</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4660,13 +4666,13 @@
         <v>246</v>
       </c>
       <c r="B244">
-        <v>5.05</v>
+        <v>4.99</v>
       </c>
       <c r="C244">
-        <v>5.218696603669218</v>
+        <v>5.142826946237511</v>
       </c>
       <c r="D244">
-        <v>0.1686966036692183</v>
+        <v>0.1528269462375107</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4674,13 +4680,13 @@
         <v>247</v>
       </c>
       <c r="B245">
-        <v>4.98</v>
+        <v>4.95</v>
       </c>
       <c r="C245">
-        <v>5.119871253170794</v>
+        <v>5.102100649853785</v>
       </c>
       <c r="D245">
-        <v>0.1398712531707931</v>
+        <v>0.1521006498537849</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -4688,13 +4694,13 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>4.98</v>
+        <v>4.9</v>
       </c>
       <c r="C246">
-        <v>5.111217252966427</v>
+        <v>5.00027471838613</v>
       </c>
       <c r="D246">
-        <v>0.1312172529664268</v>
+        <v>0.1002747183861299</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -4702,13 +4708,13 @@
         <v>249</v>
       </c>
       <c r="B247">
-        <v>4.95</v>
+        <v>4.86</v>
       </c>
       <c r="C247">
-        <v>5.050264859753235</v>
+        <v>4.98422641154572</v>
       </c>
       <c r="D247">
-        <v>0.100264859753235</v>
+        <v>0.1242264115457195</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -4716,13 +4722,13 @@
         <v>250</v>
       </c>
       <c r="B248">
-        <v>4.93</v>
+        <v>4.92</v>
       </c>
       <c r="C248">
-        <v>5.039043315390994</v>
+        <v>4.988028860600757</v>
       </c>
       <c r="D248">
-        <v>0.109043315390994</v>
+        <v>0.06802886060075686</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -4730,13 +4736,13 @@
         <v>251</v>
       </c>
       <c r="B249">
-        <v>4.94</v>
+        <v>4.93</v>
       </c>
       <c r="C249">
-        <v>4.996383841223367</v>
+        <v>4.991029463435906</v>
       </c>
       <c r="D249">
-        <v>0.05638384122336682</v>
+        <v>0.0610294634359061</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -4744,13 +4750,13 @@
         <v>252</v>
       </c>
       <c r="B250">
-        <v>5.06</v>
+        <v>4.95</v>
       </c>
       <c r="C250">
-        <v>5.024168419927116</v>
+        <v>5.006202283137812</v>
       </c>
       <c r="D250">
-        <v>-0.0358315800728839</v>
+        <v>0.05620228313781173</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -4758,13 +4764,13 @@
         <v>253</v>
       </c>
       <c r="B251">
-        <v>5.09</v>
+        <v>5.07</v>
       </c>
       <c r="C251">
-        <v>5.034889307751485</v>
+        <v>5.020655471955322</v>
       </c>
       <c r="D251">
-        <v>-0.0551106922485145</v>
+        <v>-0.04934452804467782</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -4772,13 +4778,13 @@
         <v>254</v>
       </c>
       <c r="B252">
-        <v>5.1</v>
+        <v>5.06</v>
       </c>
       <c r="C252">
-        <v>4.992893089532852</v>
+        <v>5.024298702204367</v>
       </c>
       <c r="D252">
-        <v>-0.1071069104671478</v>
+        <v>-0.03570129779563214</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -4786,13 +4792,13 @@
         <v>255</v>
       </c>
       <c r="B253">
-        <v>5.14</v>
+        <v>5.1</v>
       </c>
       <c r="C253">
-        <v>5.007234099394354</v>
+        <v>4.992772787075582</v>
       </c>
       <c r="D253">
-        <v>-0.1327659006056461</v>
+        <v>-0.1072272129244176</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -4800,13 +4806,13 @@
         <v>256</v>
       </c>
       <c r="B254">
-        <v>5.23</v>
+        <v>5.1</v>
       </c>
       <c r="C254">
-        <v>5.08930586439491</v>
+        <v>4.982097747612771</v>
       </c>
       <c r="D254">
-        <v>-0.1406941356050906</v>
+        <v>-0.1179022523872284</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -4814,13 +4820,13 @@
         <v>257</v>
       </c>
       <c r="B255">
-        <v>5.23</v>
+        <v>5.15</v>
       </c>
       <c r="C255">
-        <v>5.092998662199366</v>
+        <v>5.042578637432241</v>
       </c>
       <c r="D255">
-        <v>-0.1370013378006343</v>
+        <v>-0.1074213625677594</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -4828,13 +4834,13 @@
         <v>258</v>
       </c>
       <c r="B256">
-        <v>5.23</v>
+        <v>5.17</v>
       </c>
       <c r="C256">
-        <v>5.087999881714024</v>
+        <v>5.033860113757694</v>
       </c>
       <c r="D256">
-        <v>-0.1420001182859769</v>
+        <v>-0.1361398862423062</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -4842,13 +4848,13 @@
         <v>259</v>
       </c>
       <c r="B257">
-        <v>5.25</v>
+        <v>5.23</v>
       </c>
       <c r="C257">
-        <v>5.100750721655506</v>
+        <v>5.032525344696682</v>
       </c>
       <c r="D257">
-        <v>-0.1492492783444943</v>
+        <v>-0.1974746553033189</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -4856,13 +4862,13 @@
         <v>260</v>
       </c>
       <c r="B258">
-        <v>5.29</v>
+        <v>5.21</v>
       </c>
       <c r="C258">
-        <v>5.106177632840393</v>
+        <v>5.017784327067229</v>
       </c>
       <c r="D258">
-        <v>-0.1838223671596069</v>
+        <v>-0.1922156729327709</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -4870,13 +4876,13 @@
         <v>261</v>
       </c>
       <c r="B259">
-        <v>5.25</v>
+        <v>5.22</v>
       </c>
       <c r="C259">
-        <v>5.119706483633538</v>
+        <v>5.110435052224616</v>
       </c>
       <c r="D259">
-        <v>-0.1302935163664616</v>
+        <v>-0.1095649477753833</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -4887,10 +4893,10 @@
         <v>5.25</v>
       </c>
       <c r="C260">
-        <v>5.125530300916849</v>
+        <v>5.10665532871975</v>
       </c>
       <c r="D260">
-        <v>-0.1244696990831509</v>
+        <v>-0.14334467128025</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -4898,13 +4904,13 @@
         <v>263</v>
       </c>
       <c r="B261">
-        <v>5.16</v>
+        <v>5.29</v>
       </c>
       <c r="C261">
-        <v>5.020190891511016</v>
+        <v>5.106503861667029</v>
       </c>
       <c r="D261">
-        <v>-0.1398091084889836</v>
+        <v>-0.1834961383329707</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -4912,13 +4918,13 @@
         <v>264</v>
       </c>
       <c r="B262">
-        <v>5.3</v>
+        <v>5.25</v>
       </c>
       <c r="C262">
-        <v>5.10455047795207</v>
+        <v>5.125654274906957</v>
       </c>
       <c r="D262">
-        <v>-0.1954495220479302</v>
+        <v>-0.1243457250930433</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -4926,13 +4932,13 @@
         <v>265</v>
       </c>
       <c r="B263">
-        <v>5.38</v>
+        <v>5.25</v>
       </c>
       <c r="C263">
-        <v>5.17172073483983</v>
+        <v>5.103795649665047</v>
       </c>
       <c r="D263">
-        <v>-0.2082792651601704</v>
+        <v>-0.146204350334953</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -4940,13 +4946,13 @@
         <v>266</v>
       </c>
       <c r="B264">
-        <v>5.36</v>
+        <v>5.13</v>
       </c>
       <c r="C264">
-        <v>5.164872904516002</v>
+        <v>5.036729342903717</v>
       </c>
       <c r="D264">
-        <v>-0.1951270954839988</v>
+        <v>-0.09327065709628268</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -4954,13 +4960,13 @@
         <v>267</v>
       </c>
       <c r="B265">
-        <v>5.36</v>
+        <v>5.27</v>
       </c>
       <c r="C265">
-        <v>5.186020064351209</v>
+        <v>5.103195655149459</v>
       </c>
       <c r="D265">
-        <v>-0.1739799356487914</v>
+        <v>-0.1668043448505401</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -4968,13 +4974,13 @@
         <v>268</v>
       </c>
       <c r="B266">
-        <v>5.37</v>
+        <v>5.34</v>
       </c>
       <c r="C266">
-        <v>5.175799850018712</v>
+        <v>5.161568525526246</v>
       </c>
       <c r="D266">
-        <v>-0.1942001499812882</v>
+        <v>-0.1784314744737543</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -4982,13 +4988,13 @@
         <v>269</v>
       </c>
       <c r="B267">
-        <v>5.41</v>
+        <v>5.32</v>
       </c>
       <c r="C267">
-        <v>5.194615086677255</v>
+        <v>5.135044960847754</v>
       </c>
       <c r="D267">
-        <v>-0.2153849133227448</v>
+        <v>-0.1849550391522463</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -4996,13 +5002,13 @@
         <v>270</v>
       </c>
       <c r="B268">
-        <v>5.41</v>
+        <v>5.36</v>
       </c>
       <c r="C268">
-        <v>5.204648089647516</v>
+        <v>5.186785599485633</v>
       </c>
       <c r="D268">
-        <v>-0.2053519103524843</v>
+        <v>-0.1732144005143672</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5010,13 +5016,13 @@
         <v>271</v>
       </c>
       <c r="B269">
-        <v>5.54</v>
+        <v>5.4</v>
       </c>
       <c r="C269">
-        <v>5.257187162147701</v>
+        <v>5.190629409427869</v>
       </c>
       <c r="D269">
-        <v>-0.2828128378522994</v>
+        <v>-0.2093705905721315</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5024,13 +5030,13 @@
         <v>272</v>
       </c>
       <c r="B270">
-        <v>5.65</v>
+        <v>5.42</v>
       </c>
       <c r="C270">
-        <v>5.284563017664536</v>
+        <v>5.212003580192544</v>
       </c>
       <c r="D270">
-        <v>-0.3654369823354644</v>
+        <v>-0.207996419807456</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5038,13 +5044,13 @@
         <v>273</v>
       </c>
       <c r="B271">
-        <v>5.68</v>
+        <v>5.5</v>
       </c>
       <c r="C271">
-        <v>5.294593029681077</v>
+        <v>5.268162519038313</v>
       </c>
       <c r="D271">
-        <v>-0.3854069703189227</v>
+        <v>-0.231837480961687</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5052,13 +5058,13 @@
         <v>274</v>
       </c>
       <c r="B272">
-        <v>5.71</v>
+        <v>5.7</v>
       </c>
       <c r="C272">
-        <v>5.314131249999998</v>
+        <v>5.335259790750497</v>
       </c>
       <c r="D272">
-        <v>-0.3958687500000018</v>
+        <v>-0.3647402092495033</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5066,13 +5072,13 @@
         <v>275</v>
       </c>
       <c r="B273">
-        <v>5.74</v>
+        <v>5.73</v>
       </c>
       <c r="C273">
-        <v>5.339979634660904</v>
+        <v>5.371030173495697</v>
       </c>
       <c r="D273">
-        <v>-0.4000203653390964</v>
+        <v>-0.3589698265043033</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5080,13 +5086,13 @@
         <v>276</v>
       </c>
       <c r="B274">
-        <v>5.72</v>
+        <v>5.56</v>
       </c>
       <c r="C274">
-        <v>5.390786981977747</v>
+        <v>5.419046589979791</v>
       </c>
       <c r="D274">
-        <v>-0.3292130180222532</v>
+        <v>-0.1409534100202086</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5094,13 +5100,13 @@
         <v>277</v>
       </c>
       <c r="B275">
-        <v>5.54</v>
+        <v>5.52</v>
       </c>
       <c r="C275">
-        <v>5.4093276385257</v>
+        <v>5.405809111468873</v>
       </c>
       <c r="D275">
-        <v>-0.1306723614742999</v>
+        <v>-0.1141908885311267</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5108,13 +5114,13 @@
         <v>278</v>
       </c>
       <c r="B276">
-        <v>5.53</v>
+        <v>5.54</v>
       </c>
       <c r="C276">
-        <v>5.404097433498268</v>
+        <v>5.404187208646155</v>
       </c>
       <c r="D276">
-        <v>-0.1259025665017326</v>
+        <v>-0.1358127913538452</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5122,13 +5128,13 @@
         <v>279</v>
       </c>
       <c r="B277">
-        <v>5.55</v>
+        <v>5.47</v>
       </c>
       <c r="C277">
-        <v>5.406183436341894</v>
+        <v>5.296448959229744</v>
       </c>
       <c r="D277">
-        <v>-0.1438165636581061</v>
+        <v>-0.1735510407702554</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5136,13 +5142,13 @@
         <v>280</v>
       </c>
       <c r="B278">
-        <v>5.56</v>
+        <v>5.51</v>
       </c>
       <c r="C278">
-        <v>5.432600052273004</v>
+        <v>5.312267171895835</v>
       </c>
       <c r="D278">
-        <v>-0.127399947726996</v>
+        <v>-0.197732828104165</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5153,10 +5159,10 @@
         <v>5.52</v>
       </c>
       <c r="C279">
-        <v>5.405199497911535</v>
+        <v>5.387261196332274</v>
       </c>
       <c r="D279">
-        <v>-0.1148005020884648</v>
+        <v>-0.1327388036677259</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5164,13 +5170,13 @@
         <v>282</v>
       </c>
       <c r="B280">
-        <v>5.52</v>
+        <v>5.5</v>
       </c>
       <c r="C280">
-        <v>5.390122695681565</v>
+        <v>5.328022145921256</v>
       </c>
       <c r="D280">
-        <v>-0.1298773043184349</v>
+        <v>-0.1719778540787438</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5178,13 +5184,13 @@
         <v>283</v>
       </c>
       <c r="B281">
-        <v>5.53</v>
+        <v>5.47</v>
       </c>
       <c r="C281">
-        <v>5.369228942189884</v>
+        <v>5.326645477780465</v>
       </c>
       <c r="D281">
-        <v>-0.1607710578101162</v>
+        <v>-0.1433545222195347</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5192,13 +5198,13 @@
         <v>284</v>
       </c>
       <c r="B282">
-        <v>5.55</v>
+        <v>5.56</v>
       </c>
       <c r="C282">
-        <v>5.346040189740594</v>
+        <v>5.359785491189944</v>
       </c>
       <c r="D282">
-        <v>-0.2039598102594056</v>
+        <v>-0.2002145088100553</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5206,13 +5212,13 @@
         <v>285</v>
       </c>
       <c r="B283">
-        <v>5.57</v>
+        <v>5.62</v>
       </c>
       <c r="C283">
-        <v>5.342996286020475</v>
+        <v>5.404738089076959</v>
       </c>
       <c r="D283">
-        <v>-0.2270037139795251</v>
+        <v>-0.2152619109230409</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5220,13 +5226,13 @@
         <v>286</v>
       </c>
       <c r="B284">
-        <v>5.66</v>
+        <v>5.68</v>
       </c>
       <c r="C284">
-        <v>5.389265652507096</v>
+        <v>5.376981110273361</v>
       </c>
       <c r="D284">
-        <v>-0.2707343474929038</v>
+        <v>-0.3030188897266388</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5234,13 +5240,13 @@
         <v>287</v>
       </c>
       <c r="B285">
-        <v>5.68</v>
+        <v>5.64</v>
       </c>
       <c r="C285">
-        <v>5.376399480040981</v>
+        <v>5.345888046471277</v>
       </c>
       <c r="D285">
-        <v>-0.3036005199590184</v>
+        <v>-0.2941119535287227</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5251,10 +5257,10 @@
         <v>5.67</v>
       </c>
       <c r="C286">
-        <v>5.361410954592283</v>
+        <v>5.345814925444678</v>
       </c>
       <c r="D286">
-        <v>-0.3085890454077171</v>
+        <v>-0.3241850745553219</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5262,13 +5268,13 @@
         <v>289</v>
       </c>
       <c r="B287">
-        <v>5.69</v>
+        <v>5.67</v>
       </c>
       <c r="C287">
-        <v>5.380495627898111</v>
+        <v>5.350370610315078</v>
       </c>
       <c r="D287">
-        <v>-0.3095043721018893</v>
+        <v>-0.3196293896849216</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5276,13 +5282,13 @@
         <v>290</v>
       </c>
       <c r="B288">
-        <v>5.68</v>
+        <v>5.67</v>
       </c>
       <c r="C288">
-        <v>5.398152813284148</v>
+        <v>5.362302641690206</v>
       </c>
       <c r="D288">
-        <v>-0.2818471867158516</v>
+        <v>-0.3076973583097935</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5290,13 +5296,41 @@
         <v>291</v>
       </c>
       <c r="B289">
+        <v>5.66</v>
+      </c>
+      <c r="C289">
+        <v>5.378668204780441</v>
+      </c>
+      <c r="D289">
+        <v>-0.2813317952195593</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B290">
+        <v>5.68</v>
+      </c>
+      <c r="C290">
+        <v>5.398559793688742</v>
+      </c>
+      <c r="D290">
+        <v>-0.2814402063112578</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B291">
         <v>5.79</v>
       </c>
-      <c r="C289">
-        <v>5.485565103525771</v>
-      </c>
-      <c r="D289">
-        <v>-0.3044348964742287</v>
+      <c r="C291">
+        <v>5.486306149608929</v>
+      </c>
+      <c r="D291">
+        <v>-0.3036938503910713</v>
       </c>
     </row>
   </sheetData>

--- a/temp/stable_test.xlsx
+++ b/temp/stable_test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="306">
   <si>
     <t>华英农业</t>
   </si>
@@ -28,874 +28,910 @@
     <t>time</t>
   </si>
   <si>
-    <t>2019-06-13 14:23:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 13:10:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 14:41:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 10:07:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 14:07:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 14:03:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 13:35:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 10:30:00</t>
-  </si>
-  <si>
-    <t>2019-06-10 14:34:00</t>
-  </si>
-  <si>
-    <t>2019-06-10 13:03:00</t>
-  </si>
-  <si>
-    <t>2019-06-04 14:47:00</t>
-  </si>
-  <si>
-    <t>2019-06-04 11:22:00</t>
-  </si>
-  <si>
-    <t>2019-06-04 10:29:00</t>
-  </si>
-  <si>
-    <t>2019-06-03 14:53:00</t>
-  </si>
-  <si>
-    <t>2019-06-03 14:51:00</t>
-  </si>
-  <si>
-    <t>2019-06-03 13:51:00</t>
-  </si>
-  <si>
-    <t>2019-06-03 13:09:00</t>
-  </si>
-  <si>
-    <t>2019-06-03 11:27:00</t>
-  </si>
-  <si>
-    <t>2019-06-03 11:24:00</t>
-  </si>
-  <si>
-    <t>2019-06-03 10:43:00</t>
-  </si>
-  <si>
-    <t>2019-06-03 10:00:00</t>
-  </si>
-  <si>
-    <t>2019-05-31 14:30:00</t>
-  </si>
-  <si>
-    <t>2019-05-31 09:30:00</t>
-  </si>
-  <si>
-    <t>2019-05-30 13:09:00</t>
-  </si>
-  <si>
-    <t>2019-05-30 10:25:00</t>
-  </si>
-  <si>
-    <t>2019-05-29 11:26:00</t>
-  </si>
-  <si>
-    <t>2019-05-28 14:31:00</t>
-  </si>
-  <si>
-    <t>2019-05-28 14:09:00</t>
-  </si>
-  <si>
-    <t>2019-05-28 13:06:00</t>
-  </si>
-  <si>
-    <t>2019-05-28 10:44:00</t>
-  </si>
-  <si>
-    <t>2019-05-28 09:58:00</t>
-  </si>
-  <si>
-    <t>2019-05-27 14:21:00</t>
-  </si>
-  <si>
-    <t>2019-05-27 10:51:00</t>
-  </si>
-  <si>
-    <t>2019-05-27 10:39:00</t>
-  </si>
-  <si>
-    <t>2019-05-24 10:57:00</t>
-  </si>
-  <si>
-    <t>2019-05-23 13:54:00</t>
-  </si>
-  <si>
-    <t>2019-05-23 10:59:00</t>
-  </si>
-  <si>
-    <t>2019-05-23 09:38:00</t>
-  </si>
-  <si>
-    <t>2019-05-22 13:55:00</t>
-  </si>
-  <si>
-    <t>2019-05-22 13:45:00</t>
-  </si>
-  <si>
-    <t>2019-05-22 13:04:00</t>
-  </si>
-  <si>
-    <t>2019-05-20 09:51:00</t>
-  </si>
-  <si>
-    <t>2019-05-17 13:07:00</t>
-  </si>
-  <si>
-    <t>2019-05-17 10:21:00</t>
-  </si>
-  <si>
-    <t>2019-05-16 14:53:00</t>
-  </si>
-  <si>
-    <t>2019-05-16 10:02:00</t>
-  </si>
-  <si>
-    <t>2019-05-15 14:10:00</t>
-  </si>
-  <si>
-    <t>2019-05-15 13:27:00</t>
-  </si>
-  <si>
-    <t>2019-05-13 13:54:00</t>
-  </si>
-  <si>
-    <t>2019-05-13 10:57:00</t>
-  </si>
-  <si>
-    <t>2019-05-13 10:52:00</t>
-  </si>
-  <si>
-    <t>2019-05-13 10:44:00</t>
-  </si>
-  <si>
-    <t>2019-05-10 14:52:00</t>
-  </si>
-  <si>
-    <t>2019-05-10 10:04:00</t>
-  </si>
-  <si>
-    <t>2019-05-09 13:48:00</t>
-  </si>
-  <si>
-    <t>2019-05-09 10:39:00</t>
-  </si>
-  <si>
-    <t>2019-05-09 10:04:00</t>
-  </si>
-  <si>
-    <t>2019-05-08 11:09:00</t>
+    <t>2019-06-20 14:56:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 14:03:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 10:48:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 10:38:00</t>
+  </si>
+  <si>
+    <t>2019-06-19 14:58:00</t>
+  </si>
+  <si>
+    <t>2019-06-19 13:33:00</t>
+  </si>
+  <si>
+    <t>2019-06-19 11:28:00</t>
+  </si>
+  <si>
+    <t>2019-06-18 13:57:00</t>
+  </si>
+  <si>
+    <t>2019-06-18 13:07:00</t>
+  </si>
+  <si>
+    <t>2019-06-17 14:53:00</t>
+  </si>
+  <si>
+    <t>2019-06-17 13:31:00</t>
+  </si>
+  <si>
+    <t>2019-06-14 10:01:00</t>
+  </si>
+  <si>
+    <t>2019-06-14 09:49:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 10:48:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 10:47:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 09:39:00</t>
+  </si>
+  <si>
+    <t>2019-06-11 14:40:00</t>
+  </si>
+  <si>
+    <t>2019-06-11 14:34:00</t>
+  </si>
+  <si>
+    <t>2019-06-11 13:49:00</t>
+  </si>
+  <si>
+    <t>2019-06-11 13:44:00</t>
+  </si>
+  <si>
+    <t>2019-06-11 10:40:00</t>
+  </si>
+  <si>
+    <t>2019-06-11 09:52:00</t>
+  </si>
+  <si>
+    <t>2019-06-10 13:24:00</t>
+  </si>
+  <si>
+    <t>2019-06-10 10:56:00</t>
+  </si>
+  <si>
+    <t>2019-06-10 10:30:00</t>
+  </si>
+  <si>
+    <t>2019-06-04 14:17:00</t>
+  </si>
+  <si>
+    <t>2019-06-03 14:27:00</t>
+  </si>
+  <si>
+    <t>2019-06-03 11:01:00</t>
+  </si>
+  <si>
+    <t>2019-05-31 13:49:00</t>
+  </si>
+  <si>
+    <t>2019-05-31 10:35:00</t>
+  </si>
+  <si>
+    <t>2019-05-30 11:20:00</t>
+  </si>
+  <si>
+    <t>2019-05-28 13:42:00</t>
+  </si>
+  <si>
+    <t>2019-05-28 13:26:00</t>
+  </si>
+  <si>
+    <t>2019-05-28 10:36:00</t>
+  </si>
+  <si>
+    <t>2019-05-27 14:22:00</t>
+  </si>
+  <si>
+    <t>2019-05-27 13:46:00</t>
+  </si>
+  <si>
+    <t>2019-05-27 13:43:00</t>
+  </si>
+  <si>
+    <t>2019-05-27 13:36:00</t>
+  </si>
+  <si>
+    <t>2019-05-24 14:20:00</t>
+  </si>
+  <si>
+    <t>2019-05-24 13:35:00</t>
+  </si>
+  <si>
+    <t>2019-05-24 13:02:00</t>
+  </si>
+  <si>
+    <t>2019-05-23 13:44:00</t>
+  </si>
+  <si>
+    <t>2019-05-23 13:19:00</t>
+  </si>
+  <si>
+    <t>2019-05-23 10:12:00</t>
+  </si>
+  <si>
+    <t>2019-05-23 09:40:00</t>
+  </si>
+  <si>
+    <t>2019-05-21 10:41:00</t>
+  </si>
+  <si>
+    <t>2019-05-21 10:15:00</t>
+  </si>
+  <si>
+    <t>2019-05-21 09:37:00</t>
+  </si>
+  <si>
+    <t>2019-05-20 14:45:00</t>
+  </si>
+  <si>
+    <t>2019-05-20 14:29:00</t>
+  </si>
+  <si>
+    <t>2019-05-20 13:34:00</t>
+  </si>
+  <si>
+    <t>2019-05-17 11:00:00</t>
+  </si>
+  <si>
+    <t>2019-05-17 10:58:00</t>
+  </si>
+  <si>
+    <t>2019-05-17 09:35:00</t>
+  </si>
+  <si>
+    <t>2019-05-17 09:34:00</t>
+  </si>
+  <si>
+    <t>2019-05-15 14:24:00</t>
+  </si>
+  <si>
+    <t>2019-05-15 13:15:00</t>
+  </si>
+  <si>
+    <t>2019-05-15 13:12:00</t>
+  </si>
+  <si>
+    <t>2019-05-15 13:10:00</t>
+  </si>
+  <si>
+    <t>2019-05-14 13:01:00</t>
+  </si>
+  <si>
+    <t>2019-05-14 10:13:00</t>
+  </si>
+  <si>
+    <t>2019-05-13 14:41:00</t>
+  </si>
+  <si>
+    <t>2019-05-13 14:18:00</t>
+  </si>
+  <si>
+    <t>2019-05-10 14:26:00</t>
+  </si>
+  <si>
+    <t>2019-05-10 11:26:00</t>
+  </si>
+  <si>
+    <t>2019-05-09 13:59:00</t>
+  </si>
+  <si>
+    <t>2019-05-09 13:53:00</t>
+  </si>
+  <si>
+    <t>2019-05-09 13:23:00</t>
+  </si>
+  <si>
+    <t>2019-05-09 11:03:00</t>
+  </si>
+  <si>
+    <t>2019-05-09 09:40:00</t>
+  </si>
+  <si>
+    <t>2019-05-08 13:46:00</t>
+  </si>
+  <si>
+    <t>2019-05-08 13:04:00</t>
   </si>
   <si>
     <t>2019-05-08 10:39:00</t>
   </si>
   <si>
-    <t>2019-05-07 14:15:00</t>
-  </si>
-  <si>
-    <t>2019-05-07 09:47:00</t>
-  </si>
-  <si>
-    <t>2019-05-06 14:52:00</t>
-  </si>
-  <si>
-    <t>2019-05-06 14:49:00</t>
-  </si>
-  <si>
-    <t>2019-04-29 14:16:00</t>
-  </si>
-  <si>
-    <t>2019-04-29 14:15:00</t>
-  </si>
-  <si>
-    <t>2019-04-29 10:30:00</t>
-  </si>
-  <si>
-    <t>2019-04-26 13:37:00</t>
-  </si>
-  <si>
-    <t>2019-04-26 13:06:00</t>
-  </si>
-  <si>
-    <t>2019-04-25 11:16:00</t>
-  </si>
-  <si>
-    <t>2019-04-25 10:32:00</t>
-  </si>
-  <si>
-    <t>2019-04-24 14:44:00</t>
-  </si>
-  <si>
-    <t>2019-04-24 14:21:00</t>
-  </si>
-  <si>
-    <t>2019-04-24 13:22:00</t>
-  </si>
-  <si>
-    <t>2019-04-24 13:12:00</t>
+    <t>2019-05-08 10:37:00</t>
+  </si>
+  <si>
+    <t>2019-05-08 09:57:00</t>
+  </si>
+  <si>
+    <t>2019-05-07 14:49:00</t>
+  </si>
+  <si>
+    <t>2019-05-07 14:09:00</t>
+  </si>
+  <si>
+    <t>2019-05-07 14:00:00</t>
+  </si>
+  <si>
+    <t>2019-05-07 10:33:00</t>
+  </si>
+  <si>
+    <t>2019-05-07 10:10:00</t>
+  </si>
+  <si>
+    <t>2019-05-06 14:02:00</t>
+  </si>
+  <si>
+    <t>2019-05-06 09:55:00</t>
+  </si>
+  <si>
+    <t>2019-04-30 13:48:00</t>
+  </si>
+  <si>
+    <t>2019-04-29 14:12:00</t>
+  </si>
+  <si>
+    <t>2019-04-29 10:16:00</t>
+  </si>
+  <si>
+    <t>2019-04-29 09:59:00</t>
+  </si>
+  <si>
+    <t>2019-04-26 14:50:00</t>
+  </si>
+  <si>
+    <t>2019-04-26 13:43:00</t>
+  </si>
+  <si>
+    <t>2019-04-26 10:34:00</t>
+  </si>
+  <si>
+    <t>2019-04-26 09:41:00</t>
+  </si>
+  <si>
+    <t>2019-04-25 14:24:00</t>
+  </si>
+  <si>
+    <t>2019-04-24 13:14:00</t>
+  </si>
+  <si>
+    <t>2019-04-24 11:02:00</t>
   </si>
   <si>
     <t>2019-04-24 10:53:00</t>
   </si>
   <si>
-    <t>2019-04-24 10:49:00</t>
-  </si>
-  <si>
-    <t>2019-04-23 13:18:00</t>
-  </si>
-  <si>
-    <t>2019-04-23 13:01:00</t>
-  </si>
-  <si>
-    <t>2019-04-23 10:51:00</t>
-  </si>
-  <si>
-    <t>2019-04-19 14:48:00</t>
-  </si>
-  <si>
-    <t>2019-04-19 14:00:00</t>
-  </si>
-  <si>
-    <t>2019-04-19 13:18:00</t>
-  </si>
-  <si>
-    <t>2019-04-19 10:16:00</t>
-  </si>
-  <si>
-    <t>2019-04-18 13:49:00</t>
-  </si>
-  <si>
-    <t>2019-04-18 09:52:00</t>
-  </si>
-  <si>
-    <t>2019-04-17 14:30:00</t>
-  </si>
-  <si>
-    <t>2019-04-17 10:41:00</t>
-  </si>
-  <si>
-    <t>2019-04-17 10:30:00</t>
-  </si>
-  <si>
-    <t>2019-04-10 14:46:00</t>
-  </si>
-  <si>
-    <t>2019-04-10 14:11:00</t>
-  </si>
-  <si>
-    <t>2019-04-10 10:11:00</t>
-  </si>
-  <si>
-    <t>2019-04-10 09:35:00</t>
-  </si>
-  <si>
-    <t>2019-04-09 14:53:00</t>
-  </si>
-  <si>
-    <t>2019-04-09 14:51:00</t>
-  </si>
-  <si>
-    <t>2019-04-09 09:38:00</t>
-  </si>
-  <si>
-    <t>2019-04-09 09:35:00</t>
-  </si>
-  <si>
-    <t>2019-04-08 14:48:00</t>
-  </si>
-  <si>
-    <t>2019-04-08 14:14:00</t>
-  </si>
-  <si>
-    <t>2019-04-08 13:11:00</t>
-  </si>
-  <si>
-    <t>2019-04-04 14:06:00</t>
-  </si>
-  <si>
-    <t>2019-04-04 11:08:00</t>
-  </si>
-  <si>
-    <t>2019-04-03 10:58:00</t>
-  </si>
-  <si>
-    <t>2019-04-02 14:39:00</t>
-  </si>
-  <si>
-    <t>2019-04-02 11:12:00</t>
-  </si>
-  <si>
-    <t>2019-04-02 10:12:00</t>
-  </si>
-  <si>
-    <t>2019-04-01 14:45:00</t>
-  </si>
-  <si>
-    <t>2019-04-01 13:44:00</t>
-  </si>
-  <si>
-    <t>2019-04-01 10:41:00</t>
-  </si>
-  <si>
-    <t>2019-04-01 09:48:00</t>
-  </si>
-  <si>
-    <t>2019-03-29 14:40:00</t>
-  </si>
-  <si>
-    <t>2019-03-29 14:20:00</t>
-  </si>
-  <si>
-    <t>2019-03-29 13:30:00</t>
-  </si>
-  <si>
-    <t>2019-03-29 11:10:00</t>
-  </si>
-  <si>
-    <t>2019-03-29 09:43:00</t>
-  </si>
-  <si>
-    <t>2019-03-28 14:41:00</t>
-  </si>
-  <si>
-    <t>2019-03-28 11:19:00</t>
-  </si>
-  <si>
-    <t>2019-03-28 10:55:00</t>
-  </si>
-  <si>
-    <t>2019-03-28 10:13:00</t>
-  </si>
-  <si>
-    <t>2019-03-27 13:02:00</t>
-  </si>
-  <si>
-    <t>2019-03-27 10:57:00</t>
-  </si>
-  <si>
-    <t>2019-03-26 11:02:00</t>
-  </si>
-  <si>
-    <t>2019-03-25 10:01:00</t>
-  </si>
-  <si>
-    <t>2019-03-22 10:58:00</t>
-  </si>
-  <si>
-    <t>2019-03-22 09:47:00</t>
-  </si>
-  <si>
-    <t>2019-03-21 14:41:00</t>
-  </si>
-  <si>
-    <t>2019-03-20 11:20:00</t>
-  </si>
-  <si>
-    <t>2019-03-20 11:01:00</t>
-  </si>
-  <si>
-    <t>2019-03-20 10:16:00</t>
-  </si>
-  <si>
-    <t>2019-03-19 13:58:00</t>
-  </si>
-  <si>
-    <t>2019-03-18 14:08:00</t>
-  </si>
-  <si>
-    <t>2019-03-15 14:53:00</t>
-  </si>
-  <si>
-    <t>2019-03-15 13:30:00</t>
-  </si>
-  <si>
-    <t>2019-03-14 13:57:00</t>
-  </si>
-  <si>
-    <t>2019-03-14 11:07:00</t>
-  </si>
-  <si>
-    <t>2019-03-14 10:47:00</t>
-  </si>
-  <si>
-    <t>2019-03-14 09:31:00</t>
-  </si>
-  <si>
-    <t>2019-03-13 14:45:00</t>
-  </si>
-  <si>
-    <t>2019-03-13 14:02:00</t>
-  </si>
-  <si>
-    <t>2019-03-13 10:47:00</t>
-  </si>
-  <si>
-    <t>2019-03-12 14:20:00</t>
-  </si>
-  <si>
-    <t>2019-03-12 13:17:00</t>
-  </si>
-  <si>
-    <t>2019-03-12 10:22:00</t>
-  </si>
-  <si>
-    <t>2019-03-08 09:30:00</t>
-  </si>
-  <si>
-    <t>2019-03-07 14:00:00</t>
-  </si>
-  <si>
-    <t>2019-03-07 10:13:00</t>
-  </si>
-  <si>
-    <t>2019-03-07 10:04:00</t>
-  </si>
-  <si>
-    <t>2019-03-06 14:47:00</t>
-  </si>
-  <si>
-    <t>2019-03-06 11:09:00</t>
-  </si>
-  <si>
-    <t>2019-03-05 13:42:00</t>
-  </si>
-  <si>
-    <t>2019-03-05 13:18:00</t>
-  </si>
-  <si>
-    <t>2019-03-05 10:15:00</t>
-  </si>
-  <si>
-    <t>2019-03-04 14:27:00</t>
-  </si>
-  <si>
-    <t>2019-03-04 14:16:00</t>
-  </si>
-  <si>
-    <t>2019-03-04 11:26:00</t>
-  </si>
-  <si>
-    <t>2019-03-04 11:10:00</t>
-  </si>
-  <si>
-    <t>2019-03-04 10:47:00</t>
-  </si>
-  <si>
-    <t>2019-03-04 10:12:00</t>
-  </si>
-  <si>
-    <t>2019-03-01 15:00:00</t>
-  </si>
-  <si>
-    <t>2019-03-01 10:16:00</t>
-  </si>
-  <si>
-    <t>2019-02-28 14:49:00</t>
-  </si>
-  <si>
-    <t>2019-02-28 14:05:00</t>
-  </si>
-  <si>
-    <t>2019-02-28 11:22:00</t>
-  </si>
-  <si>
-    <t>2019-02-26 10:41:00</t>
-  </si>
-  <si>
-    <t>2019-02-25 11:10:00</t>
-  </si>
-  <si>
-    <t>2019-02-25 10:43:00</t>
-  </si>
-  <si>
-    <t>2019-02-25 09:52:00</t>
-  </si>
-  <si>
-    <t>2019-02-22 13:22:00</t>
-  </si>
-  <si>
-    <t>2019-02-22 10:44:00</t>
-  </si>
-  <si>
-    <t>2019-02-22 10:28:00</t>
-  </si>
-  <si>
-    <t>2019-02-22 09:53:00</t>
-  </si>
-  <si>
-    <t>2019-02-21 13:22:00</t>
-  </si>
-  <si>
-    <t>2019-02-21 13:02:00</t>
-  </si>
-  <si>
-    <t>2019-02-21 10:18:00</t>
-  </si>
-  <si>
-    <t>2019-02-21 09:32:00</t>
-  </si>
-  <si>
-    <t>2019-02-20 14:25:00</t>
-  </si>
-  <si>
-    <t>2019-02-20 14:08:00</t>
-  </si>
-  <si>
-    <t>2019-02-19 14:53:00</t>
-  </si>
-  <si>
-    <t>2019-02-19 14:51:00</t>
-  </si>
-  <si>
-    <t>2019-02-19 14:19:00</t>
-  </si>
-  <si>
-    <t>2019-02-19 10:51:00</t>
-  </si>
-  <si>
-    <t>2019-02-18 11:24:00</t>
-  </si>
-  <si>
-    <t>2019-02-18 10:51:00</t>
-  </si>
-  <si>
-    <t>2019-02-18 10:17:00</t>
-  </si>
-  <si>
-    <t>2019-02-15 14:35:00</t>
-  </si>
-  <si>
-    <t>2019-02-15 11:18:00</t>
-  </si>
-  <si>
-    <t>2019-02-14 13:40:00</t>
-  </si>
-  <si>
-    <t>2019-02-14 13:17:00</t>
-  </si>
-  <si>
-    <t>2019-02-14 10:45:00</t>
-  </si>
-  <si>
-    <t>2019-02-13 13:37:00</t>
-  </si>
-  <si>
-    <t>2019-02-13 13:03:00</t>
+    <t>2019-04-24 10:37:00</t>
+  </si>
+  <si>
+    <t>2019-04-19 13:59:00</t>
+  </si>
+  <si>
+    <t>2019-04-19 13:45:00</t>
+  </si>
+  <si>
+    <t>2019-04-19 09:42:00</t>
+  </si>
+  <si>
+    <t>2019-04-17 13:42:00</t>
+  </si>
+  <si>
+    <t>2019-04-17 09:39:00</t>
+  </si>
+  <si>
+    <t>2019-04-16 13:51:00</t>
+  </si>
+  <si>
+    <t>2019-04-16 10:34:00</t>
+  </si>
+  <si>
+    <t>2019-04-15 11:12:00</t>
+  </si>
+  <si>
+    <t>2019-04-12 14:29:00</t>
+  </si>
+  <si>
+    <t>2019-04-12 14:24:00</t>
+  </si>
+  <si>
+    <t>2019-04-12 10:06:00</t>
+  </si>
+  <si>
+    <t>2019-04-11 11:24:00</t>
+  </si>
+  <si>
+    <t>2019-04-11 09:38:00</t>
+  </si>
+  <si>
+    <t>2019-04-10 14:08:00</t>
+  </si>
+  <si>
+    <t>2019-04-10 11:00:00</t>
+  </si>
+  <si>
+    <t>2019-04-10 10:19:00</t>
+  </si>
+  <si>
+    <t>2019-04-09 10:03:00</t>
+  </si>
+  <si>
+    <t>2019-04-08 14:51:00</t>
+  </si>
+  <si>
+    <t>2019-04-08 11:18:00</t>
+  </si>
+  <si>
+    <t>2019-04-08 10:12:00</t>
+  </si>
+  <si>
+    <t>2019-04-04 13:19:00</t>
+  </si>
+  <si>
+    <t>2019-04-03 14:42:00</t>
+  </si>
+  <si>
+    <t>2019-04-03 14:17:00</t>
+  </si>
+  <si>
+    <t>2019-04-03 11:03:00</t>
+  </si>
+  <si>
+    <t>2019-04-02 13:16:00</t>
+  </si>
+  <si>
+    <t>2019-04-01 13:15:00</t>
+  </si>
+  <si>
+    <t>2019-04-01 13:03:00</t>
+  </si>
+  <si>
+    <t>2019-03-29 13:14:00</t>
+  </si>
+  <si>
+    <t>2019-03-29 11:07:00</t>
+  </si>
+  <si>
+    <t>2019-03-29 10:22:00</t>
+  </si>
+  <si>
+    <t>2019-03-28 11:06:00</t>
+  </si>
+  <si>
+    <t>2019-03-27 13:22:00</t>
+  </si>
+  <si>
+    <t>2019-03-27 13:01:00</t>
+  </si>
+  <si>
+    <t>2019-03-26 11:09:00</t>
+  </si>
+  <si>
+    <t>2019-03-25 14:38:00</t>
+  </si>
+  <si>
+    <t>2019-03-25 14:09:00</t>
+  </si>
+  <si>
+    <t>2019-03-25 13:54:00</t>
+  </si>
+  <si>
+    <t>2019-03-25 11:28:00</t>
+  </si>
+  <si>
+    <t>2019-03-25 10:29:00</t>
+  </si>
+  <si>
+    <t>2019-03-22 13:16:00</t>
+  </si>
+  <si>
+    <t>2019-03-22 13:04:00</t>
+  </si>
+  <si>
+    <t>2019-03-21 11:05:00</t>
+  </si>
+  <si>
+    <t>2019-03-21 10:02:00</t>
+  </si>
+  <si>
+    <t>2019-03-20 10:43:00</t>
+  </si>
+  <si>
+    <t>2019-03-20 10:09:00</t>
+  </si>
+  <si>
+    <t>2019-03-19 14:09:00</t>
+  </si>
+  <si>
+    <t>2019-03-19 14:01:00</t>
+  </si>
+  <si>
+    <t>2019-03-18 14:54:00</t>
+  </si>
+  <si>
+    <t>2019-03-18 13:14:00</t>
+  </si>
+  <si>
+    <t>2019-03-18 11:03:00</t>
+  </si>
+  <si>
+    <t>2019-03-18 10:53:00</t>
+  </si>
+  <si>
+    <t>2019-03-18 10:27:00</t>
+  </si>
+  <si>
+    <t>2019-03-14 13:41:00</t>
+  </si>
+  <si>
+    <t>2019-03-13 13:44:00</t>
+  </si>
+  <si>
+    <t>2019-03-13 10:19:00</t>
+  </si>
+  <si>
+    <t>2019-03-12 13:57:00</t>
+  </si>
+  <si>
+    <t>2019-03-12 11:14:00</t>
+  </si>
+  <si>
+    <t>2019-03-12 10:00:00</t>
+  </si>
+  <si>
+    <t>2019-03-11 14:57:00</t>
+  </si>
+  <si>
+    <t>2019-03-07 14:50:00</t>
+  </si>
+  <si>
+    <t>2019-03-07 09:45:00</t>
+  </si>
+  <si>
+    <t>2019-03-06 11:20:00</t>
+  </si>
+  <si>
+    <t>2019-03-06 11:01:00</t>
+  </si>
+  <si>
+    <t>2019-03-06 10:51:00</t>
+  </si>
+  <si>
+    <t>2019-03-05 13:58:00</t>
+  </si>
+  <si>
+    <t>2019-03-05 13:08:00</t>
+  </si>
+  <si>
+    <t>2019-03-04 13:59:00</t>
+  </si>
+  <si>
+    <t>2019-03-04 13:28:00</t>
+  </si>
+  <si>
+    <t>2019-03-04 09:56:00</t>
+  </si>
+  <si>
+    <t>2019-03-01 13:34:00</t>
+  </si>
+  <si>
+    <t>2019-03-01 13:14:00</t>
+  </si>
+  <si>
+    <t>2019-03-01 10:22:00</t>
+  </si>
+  <si>
+    <t>2019-03-01 09:59:00</t>
+  </si>
+  <si>
+    <t>2019-02-28 13:59:00</t>
+  </si>
+  <si>
+    <t>2019-02-28 13:21:00</t>
+  </si>
+  <si>
+    <t>2019-02-28 10:27:00</t>
+  </si>
+  <si>
+    <t>2019-02-27 15:00:00</t>
+  </si>
+  <si>
+    <t>2019-02-27 14:26:00</t>
+  </si>
+  <si>
+    <t>2019-02-26 10:31:00</t>
+  </si>
+  <si>
+    <t>2019-02-25 09:51:00</t>
+  </si>
+  <si>
+    <t>2019-02-22 14:45:00</t>
+  </si>
+  <si>
+    <t>2019-02-22 14:35:00</t>
+  </si>
+  <si>
+    <t>2019-02-22 14:25:00</t>
+  </si>
+  <si>
+    <t>2019-02-21 14:56:00</t>
+  </si>
+  <si>
+    <t>2019-02-21 14:20:00</t>
+  </si>
+  <si>
+    <t>2019-02-21 14:14:00</t>
+  </si>
+  <si>
+    <t>2019-02-21 14:05:00</t>
+  </si>
+  <si>
+    <t>2019-02-21 09:43:00</t>
+  </si>
+  <si>
+    <t>2019-02-20 10:45:00</t>
+  </si>
+  <si>
+    <t>2019-02-19 10:24:00</t>
+  </si>
+  <si>
+    <t>2019-02-18 14:37:00</t>
+  </si>
+  <si>
+    <t>2019-02-18 14:04:00</t>
+  </si>
+  <si>
+    <t>2019-02-18 13:19:00</t>
+  </si>
+  <si>
+    <t>2019-02-18 10:07:00</t>
+  </si>
+  <si>
+    <t>2019-02-15 14:44:00</t>
+  </si>
+  <si>
+    <t>2019-02-15 10:54:00</t>
+  </si>
+  <si>
+    <t>2019-02-14 14:02:00</t>
+  </si>
+  <si>
+    <t>2019-02-14 10:48:00</t>
+  </si>
+  <si>
+    <t>2019-02-13 13:24:00</t>
+  </si>
+  <si>
+    <t>2019-02-13 13:19:00</t>
   </si>
   <si>
     <t>2019-02-13 11:25:00</t>
   </si>
   <si>
-    <t>2019-02-13 10:51:00</t>
-  </si>
-  <si>
-    <t>2019-02-13 10:46:00</t>
-  </si>
-  <si>
-    <t>2019-02-12 10:45:00</t>
-  </si>
-  <si>
-    <t>2019-02-11 14:26:00</t>
-  </si>
-  <si>
-    <t>2019-02-11 13:01:00</t>
-  </si>
-  <si>
-    <t>2019-02-01 14:30:00</t>
-  </si>
-  <si>
-    <t>2019-01-31 13:43:00</t>
-  </si>
-  <si>
-    <t>2019-01-31 10:33:00</t>
-  </si>
-  <si>
-    <t>2019-01-30 13:36:00</t>
-  </si>
-  <si>
-    <t>2019-01-30 13:02:00</t>
-  </si>
-  <si>
-    <t>2019-01-30 11:09:00</t>
-  </si>
-  <si>
-    <t>2019-01-30 09:57:00</t>
-  </si>
-  <si>
-    <t>2019-01-30 09:40:00</t>
-  </si>
-  <si>
-    <t>2019-01-28 10:24:00</t>
-  </si>
-  <si>
-    <t>2019-01-25 14:37:00</t>
-  </si>
-  <si>
-    <t>2019-01-25 14:25:00</t>
-  </si>
-  <si>
-    <t>2019-01-25 13:52:00</t>
-  </si>
-  <si>
-    <t>2019-01-24 14:15:00</t>
-  </si>
-  <si>
-    <t>2019-01-23 14:58:00</t>
-  </si>
-  <si>
-    <t>2019-01-23 13:04:00</t>
-  </si>
-  <si>
-    <t>2019-01-23 10:56:00</t>
-  </si>
-  <si>
-    <t>2019-01-22 11:11:00</t>
-  </si>
-  <si>
-    <t>2019-01-22 10:03:00</t>
-  </si>
-  <si>
-    <t>2019-01-18 14:54:00</t>
+    <t>2019-02-11 14:19:00</t>
+  </si>
+  <si>
+    <t>2019-02-11 13:49:00</t>
+  </si>
+  <si>
+    <t>2019-02-11 13:12:00</t>
+  </si>
+  <si>
+    <t>2019-02-11 10:25:00</t>
+  </si>
+  <si>
+    <t>2019-02-11 09:59:00</t>
+  </si>
+  <si>
+    <t>2019-02-01 13:41:00</t>
+  </si>
+  <si>
+    <t>2019-02-01 11:21:00</t>
+  </si>
+  <si>
+    <t>2019-01-31 14:03:00</t>
+  </si>
+  <si>
+    <t>2019-01-31 13:26:00</t>
+  </si>
+  <si>
+    <t>2019-01-31 10:36:00</t>
+  </si>
+  <si>
+    <t>2019-01-30 14:29:00</t>
+  </si>
+  <si>
+    <t>2019-01-30 10:26:00</t>
+  </si>
+  <si>
+    <t>2019-01-29 13:32:00</t>
+  </si>
+  <si>
+    <t>2019-01-28 13:42:00</t>
+  </si>
+  <si>
+    <t>2019-01-28 10:26:00</t>
+  </si>
+  <si>
+    <t>2019-01-25 14:02:00</t>
+  </si>
+  <si>
+    <t>2019-01-25 11:11:00</t>
+  </si>
+  <si>
+    <t>2019-01-25 10:53:00</t>
+  </si>
+  <si>
+    <t>2019-01-25 10:33:00</t>
+  </si>
+  <si>
+    <t>2019-01-24 10:14:00</t>
+  </si>
+  <si>
+    <t>2019-01-24 09:39:00</t>
+  </si>
+  <si>
+    <t>2019-01-23 09:45:00</t>
+  </si>
+  <si>
+    <t>2019-01-22 14:08:00</t>
+  </si>
+  <si>
+    <t>2019-01-21 14:35:00</t>
+  </si>
+  <si>
+    <t>2019-01-21 13:02:00</t>
   </si>
   <si>
     <t>2019-01-18 13:44:00</t>
   </si>
   <si>
-    <t>2019-01-18 13:17:00</t>
-  </si>
-  <si>
-    <t>2019-01-18 11:15:00</t>
-  </si>
-  <si>
-    <t>2019-01-18 11:11:00</t>
-  </si>
-  <si>
-    <t>2019-01-18 10:01:00</t>
-  </si>
-  <si>
-    <t>2019-01-17 11:16:00</t>
-  </si>
-  <si>
-    <t>2019-01-15 13:59:00</t>
-  </si>
-  <si>
-    <t>2019-01-15 13:05:00</t>
-  </si>
-  <si>
-    <t>2019-01-15 10:29:00</t>
-  </si>
-  <si>
-    <t>2019-01-14 13:28:00</t>
-  </si>
-  <si>
-    <t>2019-01-14 10:35:00</t>
-  </si>
-  <si>
-    <t>2019-01-11 14:58:00</t>
-  </si>
-  <si>
-    <t>2019-01-11 14:32:00</t>
-  </si>
-  <si>
-    <t>2019-01-11 14:00:00</t>
-  </si>
-  <si>
-    <t>2019-01-10 13:54:00</t>
-  </si>
-  <si>
-    <t>2019-01-10 10:25:00</t>
-  </si>
-  <si>
-    <t>2019-01-10 10:02:00</t>
-  </si>
-  <si>
-    <t>2019-01-09 13:34:00</t>
-  </si>
-  <si>
-    <t>2019-01-09 13:26:00</t>
-  </si>
-  <si>
-    <t>2019-01-09 11:28:00</t>
-  </si>
-  <si>
-    <t>2019-01-08 14:32:00</t>
-  </si>
-  <si>
-    <t>2019-01-08 10:48:00</t>
-  </si>
-  <si>
-    <t>2019-01-08 09:49:00</t>
-  </si>
-  <si>
-    <t>2019-01-08 09:45:00</t>
-  </si>
-  <si>
-    <t>2019-01-07 14:22:00</t>
-  </si>
-  <si>
-    <t>2019-01-07 14:01:00</t>
-  </si>
-  <si>
-    <t>2019-01-07 10:59:00</t>
-  </si>
-  <si>
-    <t>2019-01-04 14:47:00</t>
-  </si>
-  <si>
-    <t>2019-01-04 13:52:00</t>
-  </si>
-  <si>
-    <t>2019-01-04 10:09:00</t>
-  </si>
-  <si>
-    <t>2019-01-04 09:38:00</t>
-  </si>
-  <si>
-    <t>2019-01-03 14:37:00</t>
-  </si>
-  <si>
-    <t>2019-01-03 14:26:00</t>
-  </si>
-  <si>
-    <t>2019-01-03 14:12:00</t>
-  </si>
-  <si>
-    <t>2019-01-03 10:22:00</t>
-  </si>
-  <si>
-    <t>2019-01-03 10:20:00</t>
-  </si>
-  <si>
-    <t>2019-01-02 14:21:00</t>
-  </si>
-  <si>
-    <t>2019-01-02 13:43:00</t>
-  </si>
-  <si>
-    <t>2019-01-02 09:45:00</t>
-  </si>
-  <si>
-    <t>2018-12-28 14:56:00</t>
-  </si>
-  <si>
-    <t>2018-12-28 11:03:00</t>
-  </si>
-  <si>
-    <t>2018-12-28 10:57:00</t>
-  </si>
-  <si>
-    <t>2018-12-27 11:11:00</t>
-  </si>
-  <si>
-    <t>2018-12-26 13:07:00</t>
-  </si>
-  <si>
-    <t>2018-12-26 10:56:00</t>
-  </si>
-  <si>
-    <t>2018-12-25 14:11:00</t>
-  </si>
-  <si>
-    <t>2018-12-25 13:58:00</t>
-  </si>
-  <si>
-    <t>2018-12-25 10:30:00</t>
+    <t>2019-01-17 14:31:00</t>
+  </si>
+  <si>
+    <t>2019-01-17 13:34:00</t>
+  </si>
+  <si>
+    <t>2019-01-17 13:29:00</t>
+  </si>
+  <si>
+    <t>2019-01-17 13:24:00</t>
+  </si>
+  <si>
+    <t>2019-01-17 13:17:00</t>
+  </si>
+  <si>
+    <t>2019-01-17 11:02:00</t>
+  </si>
+  <si>
+    <t>2019-01-17 10:56:00</t>
+  </si>
+  <si>
+    <t>2019-01-16 14:43:00</t>
+  </si>
+  <si>
+    <t>2019-01-16 13:14:00</t>
+  </si>
+  <si>
+    <t>2019-01-15 14:54:00</t>
+  </si>
+  <si>
+    <t>2019-01-15 11:26:00</t>
+  </si>
+  <si>
+    <t>2019-01-14 14:25:00</t>
+  </si>
+  <si>
+    <t>2019-01-14 13:56:00</t>
+  </si>
+  <si>
+    <t>2019-01-14 13:30:00</t>
+  </si>
+  <si>
+    <t>2019-01-14 11:04:00</t>
+  </si>
+  <si>
+    <t>2019-01-14 10:39:00</t>
+  </si>
+  <si>
+    <t>2019-01-14 10:29:00</t>
+  </si>
+  <si>
+    <t>2019-01-14 10:09:00</t>
+  </si>
+  <si>
+    <t>2019-01-14 09:57:00</t>
+  </si>
+  <si>
+    <t>2019-01-11 14:13:00</t>
+  </si>
+  <si>
+    <t>2019-01-11 13:04:00</t>
+  </si>
+  <si>
+    <t>2019-01-11 11:26:00</t>
+  </si>
+  <si>
+    <t>2019-01-11 10:41:00</t>
+  </si>
+  <si>
+    <t>2019-01-10 14:06:00</t>
+  </si>
+  <si>
+    <t>2019-01-09 14:44:00</t>
+  </si>
+  <si>
+    <t>2019-01-09 13:15:00</t>
+  </si>
+  <si>
+    <t>2019-01-09 13:14:00</t>
+  </si>
+  <si>
+    <t>2019-01-09 10:22:00</t>
+  </si>
+  <si>
+    <t>2019-01-09 10:12:00</t>
+  </si>
+  <si>
+    <t>2019-01-08 14:12:00</t>
+  </si>
+  <si>
+    <t>2019-01-08 11:00:00</t>
+  </si>
+  <si>
+    <t>2019-01-08 10:45:00</t>
+  </si>
+  <si>
+    <t>2019-01-08 09:47:00</t>
+  </si>
+  <si>
+    <t>2019-01-04 13:53:00</t>
+  </si>
+  <si>
+    <t>2019-01-04 10:15:00</t>
+  </si>
+  <si>
+    <t>2019-01-03 14:54:00</t>
+  </si>
+  <si>
+    <t>2019-01-03 09:33:00</t>
+  </si>
+  <si>
+    <t>2019-01-02 14:30:00</t>
+  </si>
+  <si>
+    <t>2018-12-28 13:39:00</t>
+  </si>
+  <si>
+    <t>2018-12-28 10:20:00</t>
+  </si>
+  <si>
+    <t>2018-12-27 14:58:00</t>
+  </si>
+  <si>
+    <t>2018-12-27 13:38:00</t>
+  </si>
+  <si>
+    <t>2018-12-25 13:54:00</t>
+  </si>
+  <si>
+    <t>2018-12-25 10:57:00</t>
+  </si>
+  <si>
+    <t>2018-12-25 09:34:00</t>
   </si>
   <si>
     <t>2018-12-25 09:31:00</t>
   </si>
   <si>
-    <t>2018-12-24 13:24:00</t>
-  </si>
-  <si>
-    <t>2018-12-24 10:49:00</t>
-  </si>
-  <si>
-    <t>2018-12-19 13:38:00</t>
+    <t>2018-12-24 13:20:00</t>
+  </si>
+  <si>
+    <t>2018-12-24 11:09:00</t>
+  </si>
+  <si>
+    <t>2018-12-24 10:41:00</t>
+  </si>
+  <si>
+    <t>2018-12-21 10:27:00</t>
+  </si>
+  <si>
+    <t>2018-12-21 09:54:00</t>
+  </si>
+  <si>
+    <t>2018-12-20 14:01:00</t>
+  </si>
+  <si>
+    <t>2018-12-20 10:20:00</t>
+  </si>
+  <si>
+    <t>2018-12-19 14:45:00</t>
+  </si>
+  <si>
+    <t>2018-12-19 13:02:00</t>
+  </si>
+  <si>
+    <t>2018-12-19 10:19:00</t>
   </si>
   <si>
     <t>2018-12-19 10:09:00</t>
   </si>
   <si>
-    <t>2018-12-19 09:45:00</t>
-  </si>
-  <si>
-    <t>2018-12-17 14:59:00</t>
+    <t>2018-12-17 10:18:00</t>
+  </si>
+  <si>
+    <t>2018-12-14 13:44:00</t>
   </si>
   <si>
     <t>2018-12-14 10:35:00</t>
   </si>
   <si>
-    <t>2018-12-14 09:36:00</t>
-  </si>
-  <si>
-    <t>2018-12-13 13:30:00</t>
+    <t>2018-12-14 09:40:00</t>
+  </si>
+  <si>
+    <t>2018-12-13 10:57:00</t>
+  </si>
+  <si>
+    <t>2018-12-13 10:54:00</t>
+  </si>
+  <si>
+    <t>2018-12-13 10:50:00</t>
   </si>
   <si>
     <t>2018-12-13 10:46:00</t>
   </si>
   <si>
-    <t>2018-12-13 10:36:00</t>
-  </si>
-  <si>
-    <t>2018-12-13 10:00:00</t>
-  </si>
-  <si>
-    <t>2018-12-13 09:53:00</t>
-  </si>
-  <si>
-    <t>2018-12-12 14:12:00</t>
-  </si>
-  <si>
-    <t>2018-12-11 14:39:00</t>
-  </si>
-  <si>
-    <t>2018-12-11 14:28:00</t>
-  </si>
-  <si>
-    <t>2018-12-10 10:20:00</t>
+    <t>2018-12-12 14:19:00</t>
+  </si>
+  <si>
+    <t>2018-12-12 10:19:00</t>
+  </si>
+  <si>
+    <t>2018-12-11 13:42:00</t>
+  </si>
+  <si>
+    <t>2018-12-10 13:41:00</t>
+  </si>
+  <si>
+    <t>2018-12-10 13:06:00</t>
+  </si>
+  <si>
+    <t>2018-12-10 10:28:00</t>
+  </si>
+  <si>
+    <t>2018-12-10 10:14:00</t>
   </si>
   <si>
     <t>2018-12-10 10:04:00</t>
   </si>
   <si>
+    <t>2018-12-07 14:50:00</t>
+  </si>
+  <si>
     <t>2018-12-07 13:47:00</t>
   </si>
   <si>
-    <t>2018-12-07 10:48:00</t>
-  </si>
-  <si>
-    <t>2018-12-07 10:26:00</t>
-  </si>
-  <si>
-    <t>2018-12-07 10:10:00</t>
-  </si>
-  <si>
-    <t>2018-12-06 14:51:00</t>
-  </si>
-  <si>
-    <t>2018-12-06 13:52:00</t>
-  </si>
-  <si>
-    <t>2018-12-06 13:03:00</t>
-  </si>
-  <si>
-    <t>2018-12-06 09:55:00</t>
+    <t>2018-12-07 11:01:00</t>
+  </si>
+  <si>
+    <t>2018-12-07 10:50:00</t>
+  </si>
+  <si>
+    <t>2018-12-07 09:44:00</t>
+  </si>
+  <si>
+    <t>2018-12-06 10:47:00</t>
+  </si>
+  <si>
+    <t>2018-12-06 10:28:00</t>
   </si>
 </sst>
 </file>
@@ -1253,7 +1289,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D291"/>
+  <dimension ref="A1:D303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1278,13 +1314,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>6.71</v>
+        <v>6.6</v>
       </c>
       <c r="C2">
-        <v>6.692541469890328</v>
+        <v>6.75851602026847</v>
       </c>
       <c r="D2">
-        <v>-0.01745853010967213</v>
+        <v>0.1585160202684701</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1292,13 +1328,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>6.75</v>
+        <v>6.56</v>
       </c>
       <c r="C3">
-        <v>6.714386579294144</v>
+        <v>6.681979248462778</v>
       </c>
       <c r="D3">
-        <v>-0.0356134207058556</v>
+        <v>0.121979248462778</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1306,13 +1342,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6.81</v>
+        <v>6.45</v>
       </c>
       <c r="C4">
-        <v>6.658338913537508</v>
+        <v>6.608563382402002</v>
       </c>
       <c r="D4">
-        <v>-0.1516610864624921</v>
+        <v>0.1585633824020016</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1320,13 +1356,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>6.67</v>
+        <v>6.48</v>
       </c>
       <c r="C5">
-        <v>6.703084070791531</v>
+        <v>6.621293152401659</v>
       </c>
       <c r="D5">
-        <v>0.03308407079153142</v>
+        <v>0.1412931524016585</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1334,13 +1370,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>6.67</v>
+        <v>6.57</v>
       </c>
       <c r="C6">
-        <v>6.715894781515811</v>
+        <v>6.519293888947072</v>
       </c>
       <c r="D6">
-        <v>0.04589478151581083</v>
+        <v>-0.05070611105292855</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1348,13 +1384,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>6.65</v>
+        <v>6.6</v>
       </c>
       <c r="C7">
-        <v>6.711347067101384</v>
+        <v>6.583626615849983</v>
       </c>
       <c r="D7">
-        <v>0.0613470671013836</v>
+        <v>-0.01637338415001643</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1362,13 +1398,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>6.65</v>
+        <v>6.64</v>
       </c>
       <c r="C8">
-        <v>6.666838188913902</v>
+        <v>6.579546900269399</v>
       </c>
       <c r="D8">
-        <v>0.01683818891390132</v>
+        <v>-0.06045309973060053</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1376,13 +1412,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>6.55</v>
+        <v>6.61</v>
       </c>
       <c r="C9">
-        <v>6.559471707713096</v>
+        <v>6.479349217952606</v>
       </c>
       <c r="D9">
-        <v>0.009471707713095689</v>
+        <v>-0.1306507820473941</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1390,13 +1426,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>6.38</v>
+        <v>6.66</v>
       </c>
       <c r="C10">
-        <v>6.384848088405663</v>
+        <v>6.504252508808042</v>
       </c>
       <c r="D10">
-        <v>0.004848088405663198</v>
+        <v>-0.1557474911919581</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1404,13 +1440,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>6.43</v>
+        <v>6.57</v>
       </c>
       <c r="C11">
-        <v>6.454945284529812</v>
+        <v>6.503002230281439</v>
       </c>
       <c r="D11">
-        <v>0.02494528452981193</v>
+        <v>-0.06699776971856153</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1418,13 +1454,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>6.51</v>
+        <v>6.49</v>
       </c>
       <c r="C12">
-        <v>6.563849045100108</v>
+        <v>6.484622998887392</v>
       </c>
       <c r="D12">
-        <v>0.05384904510010813</v>
+        <v>-0.005377001112607971</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1432,13 +1468,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>6.58</v>
+        <v>6.68</v>
       </c>
       <c r="C13">
-        <v>6.633520757354972</v>
+        <v>6.706962651536053</v>
       </c>
       <c r="D13">
-        <v>0.0535207573549723</v>
+        <v>0.02696265153605282</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1446,13 +1482,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>6.61</v>
+        <v>6.74</v>
       </c>
       <c r="C14">
-        <v>6.543776632193305</v>
+        <v>6.755784125027265</v>
       </c>
       <c r="D14">
-        <v>-0.06622336780669524</v>
+        <v>0.01578412502726501</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1460,13 +1496,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>6.86</v>
+        <v>6.6</v>
       </c>
       <c r="C15">
-        <v>6.654143441606172</v>
+        <v>6.652597968332095</v>
       </c>
       <c r="D15">
-        <v>-0.2058565583938288</v>
+        <v>0.05259796833209585</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1474,13 +1510,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>6.88</v>
+        <v>6.6</v>
       </c>
       <c r="C16">
-        <v>6.657760583720755</v>
+        <v>6.657538547275539</v>
       </c>
       <c r="D16">
-        <v>-0.2222394162792449</v>
+        <v>0.05753854727553964</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1488,13 +1524,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>6.94</v>
+        <v>6.63</v>
       </c>
       <c r="C17">
-        <v>6.7668041950476</v>
+        <v>6.703908427597353</v>
       </c>
       <c r="D17">
-        <v>-0.1731958049524005</v>
+        <v>0.07390842759735339</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1502,13 +1538,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>6.92</v>
+        <v>6.69</v>
       </c>
       <c r="C18">
-        <v>6.705286968294249</v>
+        <v>6.745155583142706</v>
       </c>
       <c r="D18">
-        <v>-0.2147130317057506</v>
+        <v>0.05515558314270574</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1516,13 +1552,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>6.88</v>
+        <v>6.69</v>
       </c>
       <c r="C19">
-        <v>6.675976265727757</v>
+        <v>6.74674125184899</v>
       </c>
       <c r="D19">
-        <v>-0.2040237342722433</v>
+        <v>0.05674125184898937</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1530,13 +1566,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>6.85</v>
+        <v>6.64</v>
       </c>
       <c r="C20">
-        <v>6.67978313494571</v>
+        <v>6.697291252724749</v>
       </c>
       <c r="D20">
-        <v>-0.1702168650542895</v>
+        <v>0.05729125272474977</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1544,13 +1580,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>6.96</v>
+        <v>6.65</v>
       </c>
       <c r="C21">
-        <v>6.763985625071971</v>
+        <v>6.693408043884945</v>
       </c>
       <c r="D21">
-        <v>-0.196014374928029</v>
+        <v>0.0434080438849449</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1558,13 +1594,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>7.05</v>
+        <v>6.57</v>
       </c>
       <c r="C22">
-        <v>6.816188711841907</v>
+        <v>6.60929638116257</v>
       </c>
       <c r="D22">
-        <v>-0.2338112881580932</v>
+        <v>0.03929638116257017</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1572,13 +1608,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>7.05</v>
+        <v>6.58</v>
       </c>
       <c r="C23">
-        <v>6.99551109250605</v>
+        <v>6.531935664954233</v>
       </c>
       <c r="D23">
-        <v>-0.0544889074939503</v>
+        <v>-0.04806433504576724</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1586,13 +1622,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>7.23</v>
+        <v>6.42</v>
       </c>
       <c r="C24">
-        <v>7.142198767371667</v>
+        <v>6.489723810625803</v>
       </c>
       <c r="D24">
-        <v>-0.08780123262833328</v>
+        <v>0.06972381062580268</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1600,13 +1636,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>7.19</v>
+        <v>6.31</v>
       </c>
       <c r="C25">
-        <v>7.209355265310895</v>
+        <v>6.38319949904905</v>
       </c>
       <c r="D25">
-        <v>0.01935526531089504</v>
+        <v>0.07319949904905076</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1614,13 +1650,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>7.22</v>
+        <v>6.34</v>
       </c>
       <c r="C26">
-        <v>7.224749792553068</v>
+        <v>6.374093151890492</v>
       </c>
       <c r="D26">
-        <v>0.004749792553067955</v>
+        <v>0.03409315189049167</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1628,13 +1664,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>7.08</v>
+        <v>6.56</v>
       </c>
       <c r="C27">
-        <v>7.287176758220408</v>
+        <v>6.578165222718209</v>
       </c>
       <c r="D27">
-        <v>0.2071767582204078</v>
+        <v>0.01816522271820897</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1642,13 +1678,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>7.1</v>
+        <v>6.85</v>
       </c>
       <c r="C28">
-        <v>7.302519107979711</v>
+        <v>6.666677155846575</v>
       </c>
       <c r="D28">
-        <v>0.2025191079797111</v>
+        <v>-0.1833228441534249</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1656,13 +1692,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>7.1</v>
+        <v>6.94</v>
       </c>
       <c r="C29">
-        <v>7.326513531286251</v>
+        <v>6.756755175883651</v>
       </c>
       <c r="D29">
-        <v>0.2265135312862512</v>
+        <v>-0.1832448241163496</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1670,13 +1706,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>7.25</v>
+        <v>7.08</v>
       </c>
       <c r="C30">
-        <v>7.38917647800155</v>
+        <v>7.014170734283312</v>
       </c>
       <c r="D30">
-        <v>0.1391764780015503</v>
+        <v>-0.06582926571668857</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1684,13 +1720,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>7.12</v>
+        <v>7.07</v>
       </c>
       <c r="C31">
-        <v>7.286037444614994</v>
+        <v>7.066589664957581</v>
       </c>
       <c r="D31">
-        <v>0.1660374446149939</v>
+        <v>-0.003410335042419277</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1698,13 +1734,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>7.07</v>
+        <v>7.19</v>
       </c>
       <c r="C32">
-        <v>7.252125091003634</v>
+        <v>7.197817213433511</v>
       </c>
       <c r="D32">
-        <v>0.1821250910036341</v>
+        <v>0.00781721343351105</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1712,13 +1748,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>7.02</v>
+        <v>7.18</v>
       </c>
       <c r="C33">
-        <v>7.494386450597814</v>
+        <v>7.338528651252956</v>
       </c>
       <c r="D33">
-        <v>0.4743864505978141</v>
+        <v>0.158528651252956</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1726,13 +1762,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>6.88</v>
+        <v>7.23</v>
       </c>
       <c r="C34">
-        <v>7.226701089786539</v>
+        <v>7.395933530445729</v>
       </c>
       <c r="D34">
-        <v>0.3467010897865395</v>
+        <v>0.165933530445729</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1740,13 +1776,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>6.86</v>
+        <v>7.12</v>
       </c>
       <c r="C35">
-        <v>7.231559893081599</v>
+        <v>7.248702414711675</v>
       </c>
       <c r="D35">
-        <v>0.3715598930815984</v>
+        <v>0.1287024147116744</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1754,13 +1790,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>6.96</v>
+        <v>7.01</v>
       </c>
       <c r="C36">
-        <v>7.433884327199877</v>
+        <v>7.503284184703215</v>
       </c>
       <c r="D36">
-        <v>0.4738843271998769</v>
+        <v>0.4932841847032154</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1768,13 +1804,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>6.94</v>
+        <v>6.95</v>
       </c>
       <c r="C37">
-        <v>7.411917477225213</v>
+        <v>7.381991969223638</v>
       </c>
       <c r="D37">
-        <v>0.4719174772252126</v>
+        <v>0.4319919692236374</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1782,13 +1818,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>7.12</v>
+        <v>6.94</v>
       </c>
       <c r="C38">
-        <v>7.56994299936815</v>
+        <v>7.387053242716418</v>
       </c>
       <c r="D38">
-        <v>0.4499429993681501</v>
+        <v>0.4470532427164171</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1796,13 +1832,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>7.11</v>
+        <v>6.97</v>
       </c>
       <c r="C39">
-        <v>7.458295044925299</v>
+        <v>7.421532513134794</v>
       </c>
       <c r="D39">
-        <v>0.3482950449252984</v>
+        <v>0.4515325131347945</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1810,13 +1846,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>7.17</v>
+        <v>6.83</v>
       </c>
       <c r="C40">
-        <v>7.485490696539792</v>
+        <v>7.272790549837136</v>
       </c>
       <c r="D40">
-        <v>0.3154906965397917</v>
+        <v>0.4427905498371363</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1824,13 +1860,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>7.18</v>
+        <v>6.88</v>
       </c>
       <c r="C41">
-        <v>7.463730922980218</v>
+        <v>7.336755576176435</v>
       </c>
       <c r="D41">
-        <v>0.2837309229802187</v>
+        <v>0.4567555761764348</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1838,13 +1874,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>7.23</v>
+        <v>6.95</v>
       </c>
       <c r="C42">
-        <v>7.540162062348168</v>
+        <v>7.409576223078117</v>
       </c>
       <c r="D42">
-        <v>0.3101620623481676</v>
+        <v>0.4595762230781171</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1852,13 +1888,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>6.86</v>
+        <v>6.96</v>
       </c>
       <c r="C43">
-        <v>7.096714021345813</v>
+        <v>7.440830114623688</v>
       </c>
       <c r="D43">
-        <v>0.2367140213458123</v>
+        <v>0.4808301146236884</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1866,13 +1902,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>7.72</v>
+        <v>6.99</v>
       </c>
       <c r="C44">
-        <v>7.534268999958865</v>
+        <v>7.486366796360919</v>
       </c>
       <c r="D44">
-        <v>-0.1857310000411347</v>
+        <v>0.4963667963609186</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1880,13 +1916,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>7.65</v>
+        <v>7.09</v>
       </c>
       <c r="C45">
-        <v>7.541722311245282</v>
+        <v>7.478672582392056</v>
       </c>
       <c r="D45">
-        <v>-0.1082776887547183</v>
+        <v>0.388672582392056</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1894,13 +1930,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>7.36</v>
+        <v>7.06</v>
       </c>
       <c r="C46">
-        <v>7.447276495073524</v>
+        <v>7.48267367188199</v>
       </c>
       <c r="D46">
-        <v>0.08727649507352364</v>
+        <v>0.4226736718819906</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1908,13 +1944,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>7.5</v>
+        <v>7.24</v>
       </c>
       <c r="C47">
-        <v>7.431238752926927</v>
+        <v>7.597311844455406</v>
       </c>
       <c r="D47">
-        <v>-0.06876124707307341</v>
+        <v>0.3573118444554062</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1922,13 +1958,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>7.3</v>
+        <v>7.19</v>
       </c>
       <c r="C48">
-        <v>7.418746635661872</v>
+        <v>7.52277916502811</v>
       </c>
       <c r="D48">
-        <v>0.1187466356618723</v>
+        <v>0.3327791650281098</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1936,13 +1972,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>7.27</v>
+        <v>7.15</v>
       </c>
       <c r="C49">
-        <v>7.379868746348613</v>
+        <v>7.390543581323989</v>
       </c>
       <c r="D49">
-        <v>0.1098687463486137</v>
+        <v>0.2405435813239887</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1950,13 +1986,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>7.24</v>
+        <v>7.11</v>
       </c>
       <c r="C50">
-        <v>7.270459281323722</v>
+        <v>7.293980006238685</v>
       </c>
       <c r="D50">
-        <v>0.03045928132372211</v>
+        <v>0.1839800062386852</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1964,13 +2000,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>7.3</v>
+        <v>7.02</v>
       </c>
       <c r="C51">
-        <v>7.321246831237755</v>
+        <v>7.283318271664792</v>
       </c>
       <c r="D51">
-        <v>0.02124683123775473</v>
+        <v>0.2633182716647919</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1978,13 +2014,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>7.3</v>
+        <v>7.09</v>
       </c>
       <c r="C52">
-        <v>7.319383268184628</v>
+        <v>7.282315111597399</v>
       </c>
       <c r="D52">
-        <v>0.01938326818462865</v>
+        <v>0.1923151115973987</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1992,13 +2028,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>7.29</v>
+        <v>7.71</v>
       </c>
       <c r="C53">
-        <v>7.307151392414712</v>
+        <v>7.596716844146412</v>
       </c>
       <c r="D53">
-        <v>0.01715139241471153</v>
+        <v>-0.1132831558535878</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2006,13 +2042,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>7.43</v>
+        <v>7.7</v>
       </c>
       <c r="C54">
-        <v>7.489470460498181</v>
+        <v>7.595198025160904</v>
       </c>
       <c r="D54">
-        <v>0.05947046049818105</v>
+        <v>-0.1048019748390958</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2020,13 +2056,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>7.49</v>
+        <v>7.3</v>
       </c>
       <c r="C55">
-        <v>7.474958995349816</v>
+        <v>7.469091112737415</v>
       </c>
       <c r="D55">
-        <v>-0.01504100465018432</v>
+        <v>0.1690911127374148</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2034,13 +2070,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>7.22</v>
+        <v>7.3</v>
       </c>
       <c r="C56">
-        <v>7.159680071666166</v>
+        <v>7.492429904430107</v>
       </c>
       <c r="D56">
-        <v>-0.06031992833383359</v>
+        <v>0.1924299044301074</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2048,13 +2084,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>7.21</v>
+        <v>7.32</v>
       </c>
       <c r="C57">
-        <v>7.073746557026455</v>
+        <v>7.446228305270445</v>
       </c>
       <c r="D57">
-        <v>-0.1362534429735449</v>
+        <v>0.1262283052704447</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2062,13 +2098,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>7.24</v>
+        <v>7.27</v>
       </c>
       <c r="C58">
-        <v>7.143284461534211</v>
+        <v>7.342429559666213</v>
       </c>
       <c r="D58">
-        <v>-0.09671553846578895</v>
+        <v>0.07242955966621345</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2076,13 +2112,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>7.85</v>
+        <v>7.26</v>
       </c>
       <c r="C59">
-        <v>7.306089253170706</v>
+        <v>7.338010623226124</v>
       </c>
       <c r="D59">
-        <v>-0.5439107468292939</v>
+        <v>0.07801062322612395</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2090,13 +2126,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>7.93</v>
+        <v>7.26</v>
       </c>
       <c r="C60">
-        <v>7.287373769837833</v>
+        <v>7.348312773619103</v>
       </c>
       <c r="D60">
-        <v>-0.6426262301621666</v>
+        <v>0.08831277361910317</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2104,13 +2140,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>8.15</v>
+        <v>7.27</v>
       </c>
       <c r="C61">
-        <v>7.656984167594572</v>
+        <v>7.230521787663964</v>
       </c>
       <c r="D61">
-        <v>-0.4930158324054279</v>
+        <v>-0.03947821233603577</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2118,13 +2154,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>8.050000000000001</v>
+        <v>7.18</v>
       </c>
       <c r="C62">
-        <v>7.856979628633443</v>
+        <v>7.263148046421056</v>
       </c>
       <c r="D62">
-        <v>-0.1930203713665577</v>
+        <v>0.08314804642105678</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2132,13 +2168,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>7.75</v>
+        <v>7.21</v>
       </c>
       <c r="C63">
-        <v>7.944814876219121</v>
+        <v>7.243689644602679</v>
       </c>
       <c r="D63">
-        <v>0.1948148762191213</v>
+        <v>0.03368964460267865</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2146,13 +2182,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>7.62</v>
+        <v>7.19</v>
       </c>
       <c r="C64">
-        <v>7.873521866288987</v>
+        <v>7.238083609148184</v>
       </c>
       <c r="D64">
-        <v>0.2535218662889873</v>
+        <v>0.04808360914818355</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2160,13 +2196,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>7.63</v>
+        <v>7.49</v>
       </c>
       <c r="C65">
-        <v>8.188666369279119</v>
+        <v>7.45148536421234</v>
       </c>
       <c r="D65">
-        <v>0.5586663692791189</v>
+        <v>-0.03851463578766001</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2174,13 +2210,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>7.69</v>
+        <v>7.31</v>
       </c>
       <c r="C66">
-        <v>8.209392281644993</v>
+        <v>7.277984574516188</v>
       </c>
       <c r="D66">
-        <v>0.5193922816449925</v>
+        <v>-0.03201542548381209</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2188,13 +2224,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>7.74</v>
+        <v>7.4</v>
       </c>
       <c r="C67">
-        <v>8.208279452154212</v>
+        <v>7.227087059290534</v>
       </c>
       <c r="D67">
-        <v>0.4682794521542117</v>
+        <v>-0.1729129407094661</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2202,13 +2238,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>8.539999999999999</v>
+        <v>7.34</v>
       </c>
       <c r="C68">
-        <v>8.002517144280009</v>
+        <v>7.159642533810334</v>
       </c>
       <c r="D68">
-        <v>-0.5374828557199898</v>
+        <v>-0.1803574661896654</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2216,13 +2252,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>8.43</v>
+        <v>7.16</v>
       </c>
       <c r="C69">
-        <v>7.892823651827655</v>
+        <v>7.151413871789444</v>
       </c>
       <c r="D69">
-        <v>-0.5371763481723448</v>
+        <v>-0.008586128210556154</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2230,13 +2266,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>9.26</v>
+        <v>7.15</v>
       </c>
       <c r="C70">
-        <v>8.367295042158471</v>
+        <v>7.022726260360779</v>
       </c>
       <c r="D70">
-        <v>-0.8927049578415289</v>
+        <v>-0.1272737396392216</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2244,13 +2280,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>9.289999999999999</v>
+        <v>7.28</v>
       </c>
       <c r="C71">
-        <v>8.397541319741508</v>
+        <v>7.173151477063868</v>
       </c>
       <c r="D71">
-        <v>-0.8924586802584908</v>
+        <v>-0.106848522936132</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2258,13 +2294,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>8.890000000000001</v>
+        <v>7.76</v>
       </c>
       <c r="C72">
-        <v>8.188776695541932</v>
+        <v>7.262325944214229</v>
       </c>
       <c r="D72">
-        <v>-0.7012233044580682</v>
+        <v>-0.4976740557857706</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2272,13 +2308,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>8.82</v>
+        <v>7.89</v>
       </c>
       <c r="C73">
-        <v>8.155343310884358</v>
+        <v>7.322378617229337</v>
       </c>
       <c r="D73">
-        <v>-0.6646566891156418</v>
+        <v>-0.5676213827706631</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2286,13 +2322,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>8.970000000000001</v>
+        <v>7.93</v>
       </c>
       <c r="C74">
-        <v>8.179056116581444</v>
+        <v>7.287682243539617</v>
       </c>
       <c r="D74">
-        <v>-0.7909438834185565</v>
+        <v>-0.6423177564603826</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2300,13 +2336,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>8.970000000000001</v>
+        <v>7.85</v>
       </c>
       <c r="C75">
-        <v>8.186648820466985</v>
+        <v>7.26112568608499</v>
       </c>
       <c r="D75">
-        <v>-0.7833511795330157</v>
+        <v>-0.5888743139150101</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2314,13 +2350,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>8.91</v>
+        <v>7.94</v>
       </c>
       <c r="C76">
-        <v>8.195260906890104</v>
+        <v>7.308561385464561</v>
       </c>
       <c r="D76">
-        <v>-0.7147390931098965</v>
+        <v>-0.6314386145354396</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2328,13 +2364,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>8.84</v>
+        <v>8.25</v>
       </c>
       <c r="C77">
-        <v>8.183644498529006</v>
+        <v>7.649972094385653</v>
       </c>
       <c r="D77">
-        <v>-0.6563555014709941</v>
+        <v>-0.6000279056143469</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2342,13 +2378,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>9.15</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="C78">
-        <v>8.119357903751697</v>
+        <v>7.764676946288377</v>
       </c>
       <c r="D78">
-        <v>-1.030642096248304</v>
+        <v>-0.5153230537116222</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2356,13 +2392,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>9</v>
+        <v>8.24</v>
       </c>
       <c r="C79">
-        <v>8.095688716541664</v>
+        <v>7.760179129910087</v>
       </c>
       <c r="D79">
-        <v>-0.9043112834583358</v>
+        <v>-0.4798208700899131</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2370,13 +2406,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>8.460000000000001</v>
+        <v>7.95</v>
       </c>
       <c r="C80">
-        <v>7.967461371544191</v>
+        <v>7.914550034307899</v>
       </c>
       <c r="D80">
-        <v>-0.4925386284558098</v>
+        <v>-0.03544996569210124</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2384,13 +2420,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>8.050000000000001</v>
+        <v>7.93</v>
       </c>
       <c r="C81">
-        <v>8.088716972120435</v>
+        <v>7.81376839867853</v>
       </c>
       <c r="D81">
-        <v>0.03871697212043479</v>
+        <v>-0.1162316013214699</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2398,13 +2434,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>8.02</v>
+        <v>7.6</v>
       </c>
       <c r="C82">
-        <v>8.031427987281022</v>
+        <v>7.766993228088189</v>
       </c>
       <c r="D82">
-        <v>0.01142798728102257</v>
+        <v>0.1669932280881898</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2412,13 +2448,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>8.050000000000001</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="C83">
-        <v>8.045738403663309</v>
+        <v>8.141892329275308</v>
       </c>
       <c r="D83">
-        <v>-0.004261596336691653</v>
+        <v>0.001892329275307247</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2426,13 +2462,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>8.050000000000001</v>
+        <v>7.86</v>
       </c>
       <c r="C84">
-        <v>8.139066077551602</v>
+        <v>8.415795542623963</v>
       </c>
       <c r="D84">
-        <v>0.08906607755160145</v>
+        <v>0.5557955426239625</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2440,13 +2476,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>8.289999999999999</v>
+        <v>7.71</v>
       </c>
       <c r="C85">
-        <v>8.186094215482207</v>
+        <v>8.23825778880847</v>
       </c>
       <c r="D85">
-        <v>-0.1039057845177922</v>
+        <v>0.5282577888084701</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2454,13 +2490,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>8.470000000000001</v>
+        <v>7.83</v>
       </c>
       <c r="C86">
-        <v>8.244278399326726</v>
+        <v>8.209557499866005</v>
       </c>
       <c r="D86">
-        <v>-0.2257216006732747</v>
+        <v>0.3795574998660047</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2468,13 +2504,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>8.359999999999999</v>
+        <v>7.97</v>
       </c>
       <c r="C87">
-        <v>8.126187776070273</v>
+        <v>8.283785512917182</v>
       </c>
       <c r="D87">
-        <v>-0.2338122239297267</v>
+        <v>0.3137855129171827</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2482,13 +2518,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>8.039999999999999</v>
+        <v>8.41</v>
       </c>
       <c r="C88">
-        <v>7.911270951801519</v>
+        <v>8.070526561442563</v>
       </c>
       <c r="D88">
-        <v>-0.1287290481984797</v>
+        <v>-0.3394734385574374</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2496,13 +2532,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>7.97</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="C89">
-        <v>7.887641891641474</v>
+        <v>8.054380225464463</v>
       </c>
       <c r="D89">
-        <v>-0.08235810835852586</v>
+        <v>-0.4956197745355375</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2510,13 +2546,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>7.48</v>
+        <v>8.44</v>
       </c>
       <c r="C90">
-        <v>7.710474413793138</v>
+        <v>7.956908098259639</v>
       </c>
       <c r="D90">
-        <v>0.2304744137931376</v>
+        <v>-0.4830919017403605</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2524,13 +2560,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>7.5</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="C91">
-        <v>7.718045807097361</v>
+        <v>8.205318720373549</v>
       </c>
       <c r="D91">
-        <v>0.2180458070973614</v>
+        <v>-0.9246812796264514</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2538,13 +2574,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>7.5</v>
+        <v>8.98</v>
       </c>
       <c r="C92">
-        <v>7.560746785037681</v>
+        <v>8.211437493027812</v>
       </c>
       <c r="D92">
-        <v>0.06074678503768105</v>
+        <v>-0.768562506972188</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2552,13 +2588,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>7.47</v>
+        <v>9</v>
       </c>
       <c r="C93">
-        <v>7.519140199779656</v>
+        <v>8.182492500870081</v>
       </c>
       <c r="D93">
-        <v>0.04914019977965634</v>
+        <v>-0.8175074991299187</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2566,13 +2602,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>7.57</v>
+        <v>9.06</v>
       </c>
       <c r="C94">
-        <v>7.54497203817823</v>
+        <v>8.236931416278617</v>
       </c>
       <c r="D94">
-        <v>-0.02502796182177036</v>
+        <v>-0.8230685837213834</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2580,13 +2616,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>7.59</v>
+        <v>8.91</v>
       </c>
       <c r="C95">
-        <v>7.546494607918241</v>
+        <v>8.197699460214249</v>
       </c>
       <c r="D95">
-        <v>-0.04350539208175874</v>
+        <v>-0.7123005397857511</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2594,13 +2630,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>7.67</v>
+        <v>8.67</v>
       </c>
       <c r="C96">
-        <v>7.514229344791747</v>
+        <v>8.133519934394343</v>
       </c>
       <c r="D96">
-        <v>-0.1557706552082525</v>
+        <v>-0.536480065605657</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2608,13 +2644,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>7.64</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="C97">
-        <v>7.498746455833844</v>
+        <v>8.02549321522403</v>
       </c>
       <c r="D97">
-        <v>-0.1412535441661555</v>
+        <v>-0.004506784775969663</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2622,13 +2658,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>7.63</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="C98">
-        <v>7.891241498420897</v>
+        <v>8.065055268155389</v>
       </c>
       <c r="D98">
-        <v>0.2612414984208966</v>
+        <v>0.0250552681553895</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2636,13 +2672,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>7.61</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="C99">
-        <v>7.790445819712332</v>
+        <v>8.114207659770731</v>
       </c>
       <c r="D99">
-        <v>0.1804458197123315</v>
+        <v>0.06420765977073017</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2650,13 +2686,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>7.59</v>
+        <v>8.43</v>
       </c>
       <c r="C100">
-        <v>7.765969750694351</v>
+        <v>8.157865016050293</v>
       </c>
       <c r="D100">
-        <v>0.1759697506943514</v>
+        <v>-0.2721349839497069</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2664,13 +2700,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>7.64</v>
+        <v>7.93</v>
       </c>
       <c r="C101">
-        <v>7.895966567567195</v>
+        <v>7.867451486129244</v>
       </c>
       <c r="D101">
-        <v>0.2559665675671949</v>
+        <v>-0.06254851387075533</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2678,13 +2714,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>7.62</v>
+        <v>7.68</v>
       </c>
       <c r="C102">
-        <v>7.910375952313982</v>
+        <v>7.735925879372843</v>
       </c>
       <c r="D102">
-        <v>0.2903759523139824</v>
+        <v>0.05592587937284321</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2692,13 +2728,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>7.62</v>
+        <v>7.66</v>
       </c>
       <c r="C103">
-        <v>7.827963733914224</v>
+        <v>7.625910576697294</v>
       </c>
       <c r="D103">
-        <v>0.207963733914224</v>
+        <v>-0.03408942330270648</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2706,13 +2742,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>7.63</v>
+        <v>8.16</v>
       </c>
       <c r="C104">
-        <v>7.909350940295981</v>
+        <v>8.146336341876793</v>
       </c>
       <c r="D104">
-        <v>0.2793509402959815</v>
+        <v>-0.0136636581232068</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2720,13 +2756,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>7.67</v>
+        <v>8.18</v>
       </c>
       <c r="C105">
-        <v>7.884385093628699</v>
+        <v>8.047613661242215</v>
       </c>
       <c r="D105">
-        <v>0.2143850936286995</v>
+        <v>-0.1323863387577848</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2734,13 +2770,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>7.66</v>
+        <v>8.18</v>
       </c>
       <c r="C106">
-        <v>7.905098258517393</v>
+        <v>8.075520283048311</v>
       </c>
       <c r="D106">
-        <v>0.2450982585173929</v>
+        <v>-0.1044797169516887</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2748,13 +2784,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>7.72</v>
+        <v>7.82</v>
       </c>
       <c r="C107">
-        <v>7.982593039275145</v>
+        <v>8.04462412492262</v>
       </c>
       <c r="D107">
-        <v>0.2625930392751448</v>
+        <v>0.2246241249226202</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2762,13 +2798,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>7.66</v>
+        <v>7.61</v>
       </c>
       <c r="C108">
-        <v>7.970965588798814</v>
+        <v>7.761131703738688</v>
       </c>
       <c r="D108">
-        <v>0.3109655887988136</v>
+        <v>0.1511317037386872</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2776,13 +2812,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>7.64</v>
+        <v>7.52</v>
       </c>
       <c r="C109">
-        <v>7.936904682903988</v>
+        <v>7.792381663414522</v>
       </c>
       <c r="D109">
-        <v>0.2969046829039881</v>
+        <v>0.2723816634145226</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2790,13 +2826,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>7.75</v>
+        <v>7.55</v>
       </c>
       <c r="C110">
-        <v>7.961706458069081</v>
+        <v>7.724751646237003</v>
       </c>
       <c r="D110">
-        <v>0.2117064580690808</v>
+        <v>0.1747516462370031</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2804,13 +2840,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>7.37</v>
+        <v>7.52</v>
       </c>
       <c r="C111">
-        <v>7.675682741629211</v>
+        <v>7.644739450821238</v>
       </c>
       <c r="D111">
-        <v>0.3056827416292114</v>
+        <v>0.1247394508212381</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2818,13 +2854,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>7.36</v>
+        <v>7.48</v>
       </c>
       <c r="C112">
-        <v>7.659657837670498</v>
+        <v>7.606323169307196</v>
       </c>
       <c r="D112">
-        <v>0.2996578376704973</v>
+        <v>0.1263231693071951</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2832,13 +2868,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>7.34</v>
+        <v>7.61</v>
       </c>
       <c r="C113">
-        <v>7.604445194427592</v>
+        <v>7.494056660754353</v>
       </c>
       <c r="D113">
-        <v>0.2644451944275925</v>
+        <v>-0.1159433392456473</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2846,13 +2882,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>7.31</v>
+        <v>7.63</v>
       </c>
       <c r="C114">
-        <v>7.585659019539191</v>
+        <v>7.866882499341575</v>
       </c>
       <c r="D114">
-        <v>0.2756590195391917</v>
+        <v>0.2368824993415748</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2860,13 +2896,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>7.21</v>
+        <v>7.68</v>
       </c>
       <c r="C115">
-        <v>7.416377354437389</v>
+        <v>7.887989114809615</v>
       </c>
       <c r="D115">
-        <v>0.2063773544373886</v>
+        <v>0.2079891148096156</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2874,13 +2910,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>7.12</v>
+        <v>7.69</v>
       </c>
       <c r="C116">
-        <v>7.395106047549044</v>
+        <v>7.995336869092389</v>
       </c>
       <c r="D116">
-        <v>0.2751060475490439</v>
+        <v>0.3053368690923888</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2888,13 +2924,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>7.18</v>
+        <v>7.68</v>
       </c>
       <c r="C117">
-        <v>7.4373545677084</v>
+        <v>7.905996166259264</v>
       </c>
       <c r="D117">
-        <v>0.2573545677084006</v>
+        <v>0.2259961662592644</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2902,13 +2938,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>7.22</v>
+        <v>7.67</v>
       </c>
       <c r="C118">
-        <v>7.484991983759157</v>
+        <v>7.924697738655487</v>
       </c>
       <c r="D118">
-        <v>0.264991983759157</v>
+        <v>0.2546977386554872</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2916,13 +2952,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>7.27</v>
+        <v>7.61</v>
       </c>
       <c r="C119">
-        <v>7.491522657615363</v>
+        <v>7.878254113025761</v>
       </c>
       <c r="D119">
-        <v>0.2215226576153633</v>
+        <v>0.268254113025761</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2930,13 +2966,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>7.45</v>
+        <v>7.61</v>
       </c>
       <c r="C120">
-        <v>7.564393483985814</v>
+        <v>7.838026893620189</v>
       </c>
       <c r="D120">
-        <v>0.1143934839858138</v>
+        <v>0.2280268936201884</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2944,13 +2980,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>7.48</v>
+        <v>7.68</v>
       </c>
       <c r="C121">
-        <v>7.600928200114208</v>
+        <v>7.966768155330172</v>
       </c>
       <c r="D121">
-        <v>0.1209282001142071</v>
+        <v>0.2867681553301722</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2958,13 +2994,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>7.93</v>
+        <v>7.71</v>
       </c>
       <c r="C122">
-        <v>7.906334979647283</v>
+        <v>7.993522423432713</v>
       </c>
       <c r="D122">
-        <v>-0.02366502035271623</v>
+        <v>0.2835224234327134</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2972,13 +3008,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>7.82</v>
+        <v>7.72</v>
       </c>
       <c r="C123">
-        <v>7.95301105255194</v>
+        <v>7.990382002323424</v>
       </c>
       <c r="D123">
-        <v>0.1330110525519395</v>
+        <v>0.2703820023234238</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2986,13 +3022,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>7.97</v>
+        <v>7.32</v>
       </c>
       <c r="C124">
-        <v>7.996549257020751</v>
+        <v>7.582541276937501</v>
       </c>
       <c r="D124">
-        <v>0.0265492570207515</v>
+        <v>0.2625412769375011</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3000,13 +3036,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>8.119999999999999</v>
+        <v>7.3</v>
       </c>
       <c r="C125">
-        <v>8.111404188756964</v>
+        <v>7.588851052285674</v>
       </c>
       <c r="D125">
-        <v>-0.008595811243035101</v>
+        <v>0.2888510522856746</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3014,13 +3050,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>8.35</v>
+        <v>7.39</v>
       </c>
       <c r="C126">
-        <v>8.27303484411013</v>
+        <v>7.483471406592782</v>
       </c>
       <c r="D126">
-        <v>-0.07696515588986941</v>
+        <v>0.09347140659278264</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3028,13 +3064,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>8.199999999999999</v>
+        <v>7.21</v>
       </c>
       <c r="C127">
-        <v>7.986006117528849</v>
+        <v>7.461611039894025</v>
       </c>
       <c r="D127">
-        <v>-0.2139938824711507</v>
+        <v>0.2516110398940254</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3042,13 +3078,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>8.32</v>
+        <v>7.37</v>
       </c>
       <c r="C128">
-        <v>8.093097103298755</v>
+        <v>7.560307619411976</v>
       </c>
       <c r="D128">
-        <v>-0.2269028967012456</v>
+        <v>0.1903076194119757</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3056,13 +3092,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>8.359999999999999</v>
+        <v>7.45</v>
       </c>
       <c r="C129">
-        <v>8.05773433076388</v>
+        <v>7.536476260046157</v>
       </c>
       <c r="D129">
-        <v>-0.3022656692361192</v>
+        <v>0.08647626004615727</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3070,13 +3106,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>8.33</v>
+        <v>7.91</v>
       </c>
       <c r="C130">
-        <v>8.1694159021984</v>
+        <v>7.874498907603936</v>
       </c>
       <c r="D130">
-        <v>-0.1605840978015998</v>
+        <v>-0.03550109239606414</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3084,13 +3120,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>8.16</v>
+        <v>7.85</v>
       </c>
       <c r="C131">
-        <v>8.146981050620353</v>
+        <v>7.98396835092011</v>
       </c>
       <c r="D131">
-        <v>-0.01301894937964754</v>
+        <v>0.1339683509201102</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3098,13 +3134,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>8.17</v>
+        <v>7.87</v>
       </c>
       <c r="C132">
-        <v>8.335938380214515</v>
+        <v>7.987723370600118</v>
       </c>
       <c r="D132">
-        <v>0.1659383802145147</v>
+        <v>0.1177233706001184</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3112,13 +3148,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>8.279999999999999</v>
+        <v>7.86</v>
       </c>
       <c r="C133">
-        <v>8.328897611254581</v>
+        <v>8.015014252947298</v>
       </c>
       <c r="D133">
-        <v>0.04889761125458136</v>
+        <v>0.1550142529472973</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3126,13 +3162,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>8.24</v>
+        <v>7.86</v>
       </c>
       <c r="C134">
-        <v>8.33682248787245</v>
+        <v>7.987072286108877</v>
       </c>
       <c r="D134">
-        <v>0.09682248787244951</v>
+        <v>0.1270722861088762</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3140,13 +3176,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>8.43</v>
+        <v>7.89</v>
       </c>
       <c r="C135">
-        <v>8.490618901564419</v>
+        <v>8.023496397960534</v>
       </c>
       <c r="D135">
-        <v>0.0606189015644194</v>
+        <v>0.1334963979605339</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3154,13 +3190,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>8.31</v>
+        <v>7.9</v>
       </c>
       <c r="C136">
-        <v>8.461220484913959</v>
+        <v>8.011486704777699</v>
       </c>
       <c r="D136">
-        <v>0.1512204849139582</v>
+        <v>0.1114867047776986</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3168,13 +3204,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>8.9</v>
+        <v>7.9</v>
       </c>
       <c r="C137">
-        <v>8.656936926658032</v>
+        <v>7.987882105968325</v>
       </c>
       <c r="D137">
-        <v>-0.2430630733419683</v>
+        <v>0.08788210596832435</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3182,13 +3218,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>9.01</v>
+        <v>8.19</v>
       </c>
       <c r="C138">
-        <v>8.806849628984702</v>
+        <v>8.075933965201862</v>
       </c>
       <c r="D138">
-        <v>-0.2031503710152975</v>
+        <v>-0.114066034798137</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3196,13 +3232,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>9.210000000000001</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="C139">
-        <v>9.057331909201839</v>
+        <v>8.087438207217259</v>
       </c>
       <c r="D139">
-        <v>-0.1526680907981621</v>
+        <v>-0.05256179278274153</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3210,13 +3246,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>10.45</v>
+        <v>8.35</v>
       </c>
       <c r="C140">
-        <v>9.524453755449487</v>
+        <v>8.030710424964276</v>
       </c>
       <c r="D140">
-        <v>-0.925546244550512</v>
+        <v>-0.3192895750357234</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3224,13 +3260,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>9.58</v>
+        <v>8.35</v>
       </c>
       <c r="C141">
-        <v>9.236453092020623</v>
+        <v>7.994467363474525</v>
       </c>
       <c r="D141">
-        <v>-0.3435469079793769</v>
+        <v>-0.3555326365254743</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3238,13 +3274,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>9.58</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="C142">
-        <v>9.335537553138325</v>
+        <v>8.177233671207269</v>
       </c>
       <c r="D142">
-        <v>-0.2444624468616752</v>
+        <v>-0.2127663287927319</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3252,13 +3288,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>9.32</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C143">
-        <v>9.197378916677815</v>
+        <v>8.137931864260276</v>
       </c>
       <c r="D143">
-        <v>-0.1226210833221852</v>
+        <v>-0.2220681357397236</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3266,13 +3302,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>7.6</v>
+        <v>8.26</v>
       </c>
       <c r="C144">
-        <v>7.983492819354444</v>
+        <v>8.273033453539462</v>
       </c>
       <c r="D144">
-        <v>0.3834928193544442</v>
+        <v>0.01303345353946206</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3280,13 +3316,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>7.68</v>
+        <v>8.23</v>
       </c>
       <c r="C145">
-        <v>8.222233391039776</v>
+        <v>8.098049525570801</v>
       </c>
       <c r="D145">
-        <v>0.5422333910397761</v>
+        <v>-0.1319504744291997</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3294,13 +3330,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>7.74</v>
+        <v>8.24</v>
       </c>
       <c r="C146">
-        <v>8.176867073025855</v>
+        <v>8.121683674021424</v>
       </c>
       <c r="D146">
-        <v>0.436867073025855</v>
+        <v>-0.1183163259785758</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3308,13 +3344,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>7.85</v>
+        <v>8.27</v>
       </c>
       <c r="C147">
-        <v>8.239122067848005</v>
+        <v>8.165194888571733</v>
       </c>
       <c r="D147">
-        <v>0.389122067848005</v>
+        <v>-0.1048051114282664</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3322,13 +3358,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>7.76</v>
+        <v>7.99</v>
       </c>
       <c r="C148">
-        <v>8.063609406071247</v>
+        <v>8.022456167842684</v>
       </c>
       <c r="D148">
-        <v>0.3036094060712475</v>
+        <v>0.03245616784268357</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3336,13 +3372,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>7.65</v>
+        <v>8.19</v>
       </c>
       <c r="C149">
-        <v>7.89817019606569</v>
+        <v>8.292712502406562</v>
       </c>
       <c r="D149">
-        <v>0.2481701960656899</v>
+        <v>0.1027125024065629</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3350,13 +3386,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>7.75</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="C150">
-        <v>7.808170066466271</v>
+        <v>9.183875296114739</v>
       </c>
       <c r="D150">
-        <v>0.05817006646627121</v>
+        <v>-0.1961247038852623</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3364,13 +3400,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>7.84</v>
+        <v>9.93</v>
       </c>
       <c r="C151">
-        <v>7.905392873534066</v>
+        <v>9.376764480046075</v>
       </c>
       <c r="D151">
-        <v>0.06539287353406564</v>
+        <v>-0.5532355199539243</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3378,13 +3414,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>7.72</v>
+        <v>9.58</v>
       </c>
       <c r="C152">
-        <v>7.958647264796269</v>
+        <v>9.28126598623761</v>
       </c>
       <c r="D152">
-        <v>0.2386472647962696</v>
+        <v>-0.2987340137623899</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3392,13 +3428,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>7.54</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="C153">
-        <v>7.720127741104873</v>
+        <v>9.273693343778172</v>
       </c>
       <c r="D153">
-        <v>0.1801277411048732</v>
+        <v>-0.186306656221829</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3406,13 +3442,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>7.51</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="C154">
-        <v>7.686444884925404</v>
+        <v>9.202503992391387</v>
       </c>
       <c r="D154">
-        <v>0.1764448849254041</v>
+        <v>-0.0874960076086122</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3420,13 +3456,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>7.69</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="C155">
-        <v>7.858340319505958</v>
+        <v>8.711083254233289</v>
       </c>
       <c r="D155">
-        <v>0.1683403195059574</v>
+        <v>0.001083254233288145</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3434,13 +3470,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>7.75</v>
+        <v>7.74</v>
       </c>
       <c r="C156">
-        <v>7.843645190107132</v>
+        <v>8.236117420653981</v>
       </c>
       <c r="D156">
-        <v>0.09364519010713224</v>
+        <v>0.4961174206539809</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3448,13 +3484,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>7.53</v>
+        <v>7.82</v>
       </c>
       <c r="C157">
-        <v>7.773615382622774</v>
+        <v>8.163967892122974</v>
       </c>
       <c r="D157">
-        <v>0.2436153826227736</v>
+        <v>0.3439678921229739</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3462,13 +3498,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>7.5</v>
+        <v>7.71</v>
       </c>
       <c r="C158">
-        <v>7.70106411303796</v>
+        <v>7.897604788748428</v>
       </c>
       <c r="D158">
-        <v>0.20106411303796</v>
+        <v>0.1876047887484278</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3476,13 +3512,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>7.24</v>
+        <v>7.64</v>
       </c>
       <c r="C159">
-        <v>7.44653472922483</v>
+        <v>7.871759774161182</v>
       </c>
       <c r="D159">
-        <v>0.2065347292248294</v>
+        <v>0.2317597741611825</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3490,13 +3526,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>7.18</v>
+        <v>7.67</v>
       </c>
       <c r="C160">
-        <v>7.281787037832803</v>
+        <v>7.900933931641315</v>
       </c>
       <c r="D160">
-        <v>0.1017870378328034</v>
+        <v>0.2309339316413155</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3504,13 +3540,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>7.01</v>
+        <v>7.75</v>
       </c>
       <c r="C161">
-        <v>7.109261078158205</v>
+        <v>7.802630091013642</v>
       </c>
       <c r="D161">
-        <v>0.09926107815820551</v>
+        <v>0.05263009101364169</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3518,13 +3554,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>7.02</v>
+        <v>7.89</v>
       </c>
       <c r="C162">
-        <v>7.096016491368648</v>
+        <v>7.90112427946474</v>
       </c>
       <c r="D162">
-        <v>0.07601649136864808</v>
+        <v>0.01112427946474082</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3532,13 +3568,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>7.03</v>
+        <v>7.72</v>
       </c>
       <c r="C163">
-        <v>7.028913393565185</v>
+        <v>7.927932827185602</v>
       </c>
       <c r="D163">
-        <v>-0.001086606434815174</v>
+        <v>0.2079328271856022</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3546,13 +3582,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>7.53</v>
+        <v>7.71</v>
       </c>
       <c r="C164">
-        <v>7.338423307324113</v>
+        <v>7.83047050558179</v>
       </c>
       <c r="D164">
-        <v>-0.1915766926758868</v>
+        <v>0.1204705055817898</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3560,13 +3596,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>7.16</v>
+        <v>7.59</v>
       </c>
       <c r="C165">
-        <v>7.095208687631922</v>
+        <v>7.762636593280813</v>
       </c>
       <c r="D165">
-        <v>-0.06479131236807767</v>
+        <v>0.1726365932808136</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3574,13 +3610,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>7.22</v>
+        <v>7.25</v>
       </c>
       <c r="C166">
-        <v>7.122173097598541</v>
+        <v>7.346720786929959</v>
       </c>
       <c r="D166">
-        <v>-0.09782690240145886</v>
+        <v>0.09672078692995889</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3588,13 +3624,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>7.04</v>
+        <v>7.23</v>
       </c>
       <c r="C167">
-        <v>6.919685893778796</v>
+        <v>7.358845742619078</v>
       </c>
       <c r="D167">
-        <v>-0.1203141062212039</v>
+        <v>0.1288457426190774</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3602,13 +3638,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>7.03</v>
+        <v>7.17</v>
       </c>
       <c r="C168">
-        <v>6.606072926149782</v>
+        <v>7.319515566220055</v>
       </c>
       <c r="D168">
-        <v>-0.4239270738502183</v>
+        <v>0.1495155662200549</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3616,13 +3652,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>6.91</v>
+        <v>7.11</v>
       </c>
       <c r="C169">
-        <v>6.471659870574056</v>
+        <v>7.193506835642424</v>
       </c>
       <c r="D169">
-        <v>-0.4383401294259439</v>
+        <v>0.08350683564242356</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3630,13 +3666,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>6.97</v>
+        <v>7.03</v>
       </c>
       <c r="C170">
-        <v>6.519074172354598</v>
+        <v>7.130410503645834</v>
       </c>
       <c r="D170">
-        <v>-0.4509258276454018</v>
+        <v>0.1004105036458336</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3644,13 +3680,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>7.24</v>
+        <v>7.06</v>
       </c>
       <c r="C171">
-        <v>6.629322188519986</v>
+        <v>7.158984411330071</v>
       </c>
       <c r="D171">
-        <v>-0.6106778114800147</v>
+        <v>0.09898441133007108</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3658,13 +3694,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>7.51</v>
+        <v>7.18</v>
       </c>
       <c r="C172">
-        <v>6.816531335323335</v>
+        <v>7.205580559493381</v>
       </c>
       <c r="D172">
-        <v>-0.693468664676665</v>
+        <v>0.02558055949338112</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3672,13 +3708,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>7.65</v>
+        <v>7.2</v>
       </c>
       <c r="C173">
-        <v>6.748919177888835</v>
+        <v>7.169167241009937</v>
       </c>
       <c r="D173">
-        <v>-0.9010808221111652</v>
+        <v>-0.03083275899006299</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3686,13 +3722,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>6.89</v>
+        <v>7.17</v>
       </c>
       <c r="C174">
-        <v>6.625338564914207</v>
+        <v>7.162480212991255</v>
       </c>
       <c r="D174">
-        <v>-0.2646614350857925</v>
+        <v>-0.007519787008744672</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3700,13 +3736,13 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>6.97</v>
+        <v>7.58</v>
       </c>
       <c r="C175">
-        <v>6.754065631110262</v>
+        <v>7.384029172114346</v>
       </c>
       <c r="D175">
-        <v>-0.2159343688897382</v>
+        <v>-0.1959708278856542</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3714,13 +3750,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>7.09</v>
+        <v>7.02</v>
       </c>
       <c r="C176">
-        <v>6.594302692405384</v>
+        <v>6.928668868121539</v>
       </c>
       <c r="D176">
-        <v>-0.4956973075946163</v>
+        <v>-0.09133113187846043</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3728,13 +3764,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>7.02</v>
+        <v>7.17</v>
       </c>
       <c r="C177">
-        <v>6.603296350980896</v>
+        <v>6.759087810820446</v>
       </c>
       <c r="D177">
-        <v>-0.4167036490191034</v>
+        <v>-0.4109121891795535</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3742,13 +3778,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>6.61</v>
+        <v>7.17</v>
       </c>
       <c r="C178">
-        <v>6.383277838789617</v>
+        <v>6.88354918266319</v>
       </c>
       <c r="D178">
-        <v>-0.2267221612103834</v>
+        <v>-0.2864508173368101</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3756,13 +3792,13 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>6.63</v>
+        <v>7.13</v>
       </c>
       <c r="C179">
-        <v>6.387737003584641</v>
+        <v>6.843200034489575</v>
       </c>
       <c r="D179">
-        <v>-0.2422629964153584</v>
+        <v>-0.2867999655104247</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3770,13 +3806,13 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>6.64</v>
+        <v>7.26</v>
       </c>
       <c r="C180">
-        <v>6.340755990303116</v>
+        <v>6.634617709499388</v>
       </c>
       <c r="D180">
-        <v>-0.299244009696884</v>
+        <v>-0.6253822905006121</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3784,13 +3820,13 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>6.6</v>
+        <v>7.22</v>
       </c>
       <c r="C181">
-        <v>6.390636971745261</v>
+        <v>6.66187665710059</v>
       </c>
       <c r="D181">
-        <v>-0.2093630282547387</v>
+        <v>-0.5581233428994095</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3798,13 +3834,13 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>6.81</v>
+        <v>7.28</v>
       </c>
       <c r="C182">
-        <v>6.309663667315766</v>
+        <v>6.723610680420455</v>
       </c>
       <c r="D182">
-        <v>-0.5003363326842338</v>
+        <v>-0.5563893195795453</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3812,13 +3848,13 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>6.77</v>
+        <v>7.3</v>
       </c>
       <c r="C183">
-        <v>6.310673610137639</v>
+        <v>6.716746578497588</v>
       </c>
       <c r="D183">
-        <v>-0.4593263898623601</v>
+        <v>-0.5832534215024117</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3826,13 +3862,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>6.58</v>
+        <v>7.06</v>
       </c>
       <c r="C184">
-        <v>6.25034332952319</v>
+        <v>6.773855064544524</v>
       </c>
       <c r="D184">
-        <v>-0.32965667047681</v>
+        <v>-0.2861449354554759</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3840,13 +3876,13 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>6.26</v>
+        <v>6.95</v>
       </c>
       <c r="C185">
-        <v>6.037847900640815</v>
+        <v>6.631978452301224</v>
       </c>
       <c r="D185">
-        <v>-0.2221520993591852</v>
+        <v>-0.318021547698776</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3854,13 +3890,13 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>6.09</v>
+        <v>6.57</v>
       </c>
       <c r="C186">
-        <v>6.102066305716702</v>
+        <v>6.335796793925986</v>
       </c>
       <c r="D186">
-        <v>0.01206630571670253</v>
+        <v>-0.2342032060740138</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3868,13 +3904,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>5.76</v>
+        <v>6.81</v>
       </c>
       <c r="C187">
-        <v>6.06384109445978</v>
+        <v>6.367265307567289</v>
       </c>
       <c r="D187">
-        <v>0.3038410944597807</v>
+        <v>-0.4427346924327109</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3882,13 +3918,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>5.74</v>
+        <v>6.77</v>
       </c>
       <c r="C188">
-        <v>6.06039635327952</v>
+        <v>6.344412571527183</v>
       </c>
       <c r="D188">
-        <v>0.32039635327952</v>
+        <v>-0.4255874284728165</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3896,13 +3932,13 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>5.73</v>
+        <v>6.78</v>
       </c>
       <c r="C189">
-        <v>6.050114155871656</v>
+        <v>6.325862205741263</v>
       </c>
       <c r="D189">
-        <v>0.3201141558716554</v>
+        <v>-0.4541377942587372</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3910,13 +3946,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>5.69</v>
+        <v>6.48</v>
       </c>
       <c r="C190">
-        <v>6.006032247189173</v>
+        <v>6.229969867130466</v>
       </c>
       <c r="D190">
-        <v>0.316032247189173</v>
+        <v>-0.2500301328695347</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3924,13 +3960,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>5.67</v>
+        <v>6.21</v>
       </c>
       <c r="C191">
-        <v>5.991086202754571</v>
+        <v>6.001252738662876</v>
       </c>
       <c r="D191">
-        <v>0.3210862027545716</v>
+        <v>-0.2087472613371242</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3938,13 +3974,13 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>5.68</v>
+        <v>6.01</v>
       </c>
       <c r="C192">
-        <v>5.99300622365211</v>
+        <v>6.047982830732112</v>
       </c>
       <c r="D192">
-        <v>0.3130062236521098</v>
+        <v>0.03798283073211195</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3952,13 +3988,13 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>5.69</v>
+        <v>5.78</v>
       </c>
       <c r="C193">
-        <v>5.952960822393964</v>
+        <v>6.063353695529429</v>
       </c>
       <c r="D193">
-        <v>0.2629608223939632</v>
+        <v>0.2833536955294287</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3966,13 +4002,13 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>5.71</v>
+        <v>5.72</v>
       </c>
       <c r="C194">
-        <v>5.960314301667159</v>
+        <v>6.040508072305316</v>
       </c>
       <c r="D194">
-        <v>0.2503143016671592</v>
+        <v>0.3205080723053166</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3980,13 +4016,13 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>5.77</v>
+        <v>5.67</v>
       </c>
       <c r="C195">
-        <v>5.912617390629261</v>
+        <v>6.001830269626092</v>
       </c>
       <c r="D195">
-        <v>0.1426173906292618</v>
+        <v>0.3318302696260922</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3997,10 +4033,10 @@
         <v>5.67</v>
       </c>
       <c r="C196">
-        <v>5.882377934803104</v>
+        <v>5.993721345808783</v>
       </c>
       <c r="D196">
-        <v>0.2123779348031043</v>
+        <v>0.3237213458087833</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4008,13 +4044,13 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>5.77</v>
+        <v>5.68</v>
       </c>
       <c r="C197">
-        <v>5.861509498584946</v>
+        <v>5.993483622938172</v>
       </c>
       <c r="D197">
-        <v>0.09150949858494606</v>
+        <v>0.3134836229381719</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4022,13 +4058,13 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>5.48</v>
+        <v>5.67</v>
       </c>
       <c r="C198">
-        <v>5.653392709331374</v>
+        <v>5.875354644091573</v>
       </c>
       <c r="D198">
-        <v>0.1733927093313739</v>
+        <v>0.2053546440915728</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4036,13 +4072,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>5.38</v>
+        <v>5.68</v>
       </c>
       <c r="C199">
-        <v>5.629955382386314</v>
+        <v>5.863134243382666</v>
       </c>
       <c r="D199">
-        <v>0.2499553823863137</v>
+        <v>0.1831342433826659</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4050,13 +4086,13 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>5.41</v>
+        <v>5.74</v>
       </c>
       <c r="C200">
-        <v>5.664386354427261</v>
+        <v>5.86626503517707</v>
       </c>
       <c r="D200">
-        <v>0.2543863544272611</v>
+        <v>0.1262650351770702</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4064,13 +4100,13 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>5.48</v>
+        <v>5.56</v>
       </c>
       <c r="C201">
-        <v>5.568109793043252</v>
+        <v>5.770706677782679</v>
       </c>
       <c r="D201">
-        <v>0.08810979304325173</v>
+        <v>0.2107066777826789</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4078,13 +4114,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>5.55</v>
+        <v>5.52</v>
       </c>
       <c r="C202">
-        <v>5.588518472903811</v>
+        <v>5.730071474483756</v>
       </c>
       <c r="D202">
-        <v>0.03851847290381105</v>
+        <v>0.2100714744837564</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4092,13 +4128,13 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>5.52</v>
+        <v>5.45</v>
       </c>
       <c r="C203">
-        <v>5.58692308466064</v>
+        <v>5.6388069161557</v>
       </c>
       <c r="D203">
-        <v>0.06692308466064034</v>
+        <v>0.1888069161556993</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4106,13 +4142,13 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>5.62</v>
+        <v>5.46</v>
       </c>
       <c r="C204">
-        <v>5.621562712170174</v>
+        <v>5.642939702754608</v>
       </c>
       <c r="D204">
-        <v>0.00156271217017423</v>
+        <v>0.1829397027546085</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4120,13 +4156,13 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>5.67</v>
+        <v>5.36</v>
       </c>
       <c r="C205">
-        <v>5.619735589640488</v>
+        <v>5.5752469766141</v>
       </c>
       <c r="D205">
-        <v>-0.05026441035951201</v>
+        <v>0.2152469766140994</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4134,13 +4170,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>5.85</v>
+        <v>5.38</v>
       </c>
       <c r="C206">
-        <v>5.698742636675497</v>
+        <v>5.658858536227216</v>
       </c>
       <c r="D206">
-        <v>-0.1512573633245022</v>
+        <v>0.278858536227216</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4148,13 +4184,13 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>5.93</v>
+        <v>5.39</v>
       </c>
       <c r="C207">
-        <v>5.608555429401903</v>
+        <v>5.655944713285608</v>
       </c>
       <c r="D207">
-        <v>-0.3214445705980964</v>
+        <v>0.2659447132856085</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4162,13 +4198,13 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>5.82</v>
+        <v>5.41</v>
       </c>
       <c r="C208">
-        <v>5.632903444910708</v>
+        <v>5.555574062461169</v>
       </c>
       <c r="D208">
-        <v>-0.1870965550892922</v>
+        <v>0.1455740624611686</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4176,13 +4212,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>5.83</v>
+        <v>5.56</v>
       </c>
       <c r="C209">
-        <v>5.647849941798404</v>
+        <v>5.600306153790594</v>
       </c>
       <c r="D209">
-        <v>-0.1821500582015965</v>
+        <v>0.04030615379059466</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4190,13 +4226,13 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>5.98</v>
+        <v>5.7</v>
       </c>
       <c r="C210">
-        <v>5.615228258595645</v>
+        <v>5.630264251644377</v>
       </c>
       <c r="D210">
-        <v>-0.3647717414043559</v>
+        <v>-0.06973574835562335</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4204,13 +4240,13 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>5.43</v>
+        <v>5.79</v>
       </c>
       <c r="C211">
-        <v>5.482168009267905</v>
+        <v>5.665254734491088</v>
       </c>
       <c r="D211">
-        <v>0.05216800926790555</v>
+        <v>-0.1247452655089125</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4218,13 +4254,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>5.31</v>
+        <v>5.85</v>
       </c>
       <c r="C212">
-        <v>5.413761594818999</v>
+        <v>5.694014581270425</v>
       </c>
       <c r="D212">
-        <v>0.1037615948189989</v>
+        <v>-0.1559854187295748</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4232,13 +4268,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>5.29</v>
+        <v>5.84</v>
       </c>
       <c r="C213">
-        <v>5.431362200872044</v>
+        <v>5.63199834703177</v>
       </c>
       <c r="D213">
-        <v>0.1413622008720443</v>
+        <v>-0.20800165296823</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4246,13 +4282,13 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>5.27</v>
+        <v>5.95</v>
       </c>
       <c r="C214">
-        <v>5.43496504909923</v>
+        <v>5.631883301591632</v>
       </c>
       <c r="D214">
-        <v>0.16496504909923</v>
+        <v>-0.3181166984083683</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4260,13 +4296,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>5.18</v>
+        <v>5.99</v>
       </c>
       <c r="C215">
-        <v>5.424758653129214</v>
+        <v>5.661140132639726</v>
       </c>
       <c r="D215">
-        <v>0.2447586531292139</v>
+        <v>-0.3288598673602738</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4274,13 +4310,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>5</v>
+        <v>5.98</v>
       </c>
       <c r="C216">
-        <v>5.432497913635377</v>
+        <v>5.650554294742127</v>
       </c>
       <c r="D216">
-        <v>0.4324979136353768</v>
+        <v>-0.3294457052578732</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4288,13 +4324,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>4.98</v>
+        <v>5.49</v>
       </c>
       <c r="C217">
-        <v>5.402606140775934</v>
+        <v>5.493792912394385</v>
       </c>
       <c r="D217">
-        <v>0.4226061407759332</v>
+        <v>0.003792912394384729</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4302,13 +4338,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>4.98</v>
+        <v>5.43</v>
       </c>
       <c r="C218">
-        <v>5.407467590430864</v>
+        <v>5.488180684404387</v>
       </c>
       <c r="D218">
-        <v>0.4274675904308634</v>
+        <v>0.05818068440438751</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4316,13 +4352,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>4.96</v>
+        <v>5.31</v>
       </c>
       <c r="C219">
-        <v>5.385092578155367</v>
+        <v>5.426851498626366</v>
       </c>
       <c r="D219">
-        <v>0.4250925781553674</v>
+        <v>0.1168514986263665</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4330,13 +4366,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>4.94</v>
+        <v>5.26</v>
       </c>
       <c r="C220">
-        <v>5.366584827217032</v>
+        <v>5.416391644483342</v>
       </c>
       <c r="D220">
-        <v>0.4265848272170318</v>
+        <v>0.1563916444833424</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4344,13 +4380,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>5.01</v>
+        <v>5.19</v>
       </c>
       <c r="C221">
-        <v>5.411496737662061</v>
+        <v>5.48472775112381</v>
       </c>
       <c r="D221">
-        <v>0.4014967376620611</v>
+        <v>0.2947277511238093</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4358,13 +4394,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>5.02</v>
+        <v>5.15</v>
       </c>
       <c r="C222">
-        <v>5.416544421558052</v>
+        <v>5.471861676065066</v>
       </c>
       <c r="D222">
-        <v>0.3965444215580529</v>
+        <v>0.3218616760650654</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4372,13 +4408,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>5.14</v>
+        <v>4.98</v>
       </c>
       <c r="C223">
-        <v>5.393867987819773</v>
+        <v>5.403258518602913</v>
       </c>
       <c r="D223">
-        <v>0.2538679878197732</v>
+        <v>0.4232585186029123</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4386,13 +4422,13 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>5.13</v>
+        <v>5</v>
       </c>
       <c r="C224">
-        <v>5.37090805510986</v>
+        <v>5.387190412434862</v>
       </c>
       <c r="D224">
-        <v>0.2409080551098599</v>
+        <v>0.3871904124348617</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4400,13 +4436,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>5.09</v>
+        <v>5.01</v>
       </c>
       <c r="C225">
-        <v>5.312292519479493</v>
+        <v>5.414519292130864</v>
       </c>
       <c r="D225">
-        <v>0.2222925194794936</v>
+        <v>0.404519292130864</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4414,13 +4450,13 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="C226">
-        <v>5.294089402098209</v>
+        <v>5.417624400934615</v>
       </c>
       <c r="D226">
-        <v>0.1940894020982089</v>
+        <v>0.4176244009346153</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4428,13 +4464,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>5.16</v>
+        <v>5.01</v>
       </c>
       <c r="C227">
-        <v>5.31844460758562</v>
+        <v>5.422153772191795</v>
       </c>
       <c r="D227">
-        <v>0.1584446075856203</v>
+        <v>0.4121537721917949</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4442,13 +4478,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>5.13</v>
+        <v>5.02</v>
       </c>
       <c r="C228">
-        <v>5.30393777360953</v>
+        <v>5.419167466833898</v>
       </c>
       <c r="D228">
-        <v>0.1739377736095298</v>
+        <v>0.399167466833898</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4456,13 +4492,13 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>5.14</v>
+        <v>5.02</v>
       </c>
       <c r="C229">
-        <v>5.30937945391341</v>
+        <v>5.427482467290497</v>
       </c>
       <c r="D229">
-        <v>0.1693794539134101</v>
+        <v>0.4074824672904978</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4470,13 +4506,13 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>5.12</v>
+        <v>5.01</v>
       </c>
       <c r="C230">
-        <v>5.266050824954666</v>
+        <v>5.411214249629321</v>
       </c>
       <c r="D230">
-        <v>0.1460508249546661</v>
+        <v>0.4012142496293212</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4484,13 +4520,13 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>5.07</v>
+        <v>5.08</v>
       </c>
       <c r="C231">
-        <v>5.283741431121729</v>
+        <v>5.397896200622705</v>
       </c>
       <c r="D231">
-        <v>0.2137414311217292</v>
+        <v>0.3178962006227053</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4498,13 +4534,13 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>5.06</v>
+        <v>5.08</v>
       </c>
       <c r="C232">
-        <v>5.258044557586452</v>
+        <v>5.411668326185275</v>
       </c>
       <c r="D232">
-        <v>0.198044557586452</v>
+        <v>0.3316683261852749</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4512,13 +4548,13 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>5.07</v>
+        <v>5.15</v>
       </c>
       <c r="C233">
-        <v>5.248763379963954</v>
+        <v>5.417108847072763</v>
       </c>
       <c r="D233">
-        <v>0.1787633799639536</v>
+        <v>0.2671088470727625</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4526,13 +4562,13 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>5.13</v>
+        <v>5.15</v>
       </c>
       <c r="C234">
-        <v>5.336510405609484</v>
+        <v>5.380578890122299</v>
       </c>
       <c r="D234">
-        <v>0.2065104056094844</v>
+        <v>0.2305788901222989</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4540,13 +4576,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>5.14</v>
+        <v>5.12</v>
       </c>
       <c r="C235">
-        <v>5.334270650306786</v>
+        <v>5.297686142649056</v>
       </c>
       <c r="D235">
-        <v>0.1942706503067866</v>
+        <v>0.1776861426490557</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4554,13 +4590,13 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>5.14</v>
+        <v>5.1</v>
       </c>
       <c r="C236">
-        <v>5.326738878291668</v>
+        <v>5.278394565553237</v>
       </c>
       <c r="D236">
-        <v>0.1867388782916679</v>
+        <v>0.1783945655532371</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4568,13 +4604,13 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>5.11</v>
+        <v>5.1</v>
       </c>
       <c r="C237">
-        <v>5.216310999093112</v>
+        <v>5.296900912680822</v>
       </c>
       <c r="D237">
-        <v>0.1063109990931119</v>
+        <v>0.1969009126808228</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4582,13 +4618,13 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>5.06</v>
+        <v>5.14</v>
       </c>
       <c r="C238">
-        <v>5.206274946210639</v>
+        <v>5.294072825067325</v>
       </c>
       <c r="D238">
-        <v>0.1462749462106396</v>
+        <v>0.1540728250673249</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4596,13 +4632,13 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>5.08</v>
+        <v>5.15</v>
       </c>
       <c r="C239">
-        <v>5.243770342940946</v>
+        <v>5.31120074014766</v>
       </c>
       <c r="D239">
-        <v>0.1637703429409463</v>
+        <v>0.1612007401476596</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4610,13 +4646,13 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>5.07</v>
+        <v>5.15</v>
       </c>
       <c r="C240">
-        <v>5.253587957739466</v>
+        <v>5.314747012825206</v>
       </c>
       <c r="D240">
-        <v>0.1835879577394657</v>
+        <v>0.164747012825206</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4624,13 +4660,13 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>5.08</v>
+        <v>5.15</v>
       </c>
       <c r="C241">
-        <v>5.234775532140084</v>
+        <v>5.306982286917846</v>
       </c>
       <c r="D241">
-        <v>0.1547755321400839</v>
+        <v>0.1569822869178452</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4638,13 +4674,13 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>5.06</v>
+        <v>5.13</v>
       </c>
       <c r="C242">
-        <v>5.231630023245803</v>
+        <v>5.303258480325693</v>
       </c>
       <c r="D242">
-        <v>0.171630023245803</v>
+        <v>0.1732584803256936</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4652,13 +4688,13 @@
         <v>245</v>
       </c>
       <c r="B243">
-        <v>5.05</v>
+        <v>5.11</v>
       </c>
       <c r="C243">
-        <v>5.239678403294311</v>
+        <v>5.283428917414872</v>
       </c>
       <c r="D243">
-        <v>0.1896784032943115</v>
+        <v>0.1734289174148715</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4666,13 +4702,13 @@
         <v>246</v>
       </c>
       <c r="B244">
-        <v>4.99</v>
+        <v>5.09</v>
       </c>
       <c r="C244">
-        <v>5.142826946237511</v>
+        <v>5.241694169527872</v>
       </c>
       <c r="D244">
-        <v>0.1528269462375107</v>
+        <v>0.1516941695278717</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4680,13 +4716,13 @@
         <v>247</v>
       </c>
       <c r="B245">
-        <v>4.95</v>
+        <v>5.08</v>
       </c>
       <c r="C245">
-        <v>5.102100649853785</v>
+        <v>5.235474598454212</v>
       </c>
       <c r="D245">
-        <v>0.1521006498537849</v>
+        <v>0.1554745984542123</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -4694,13 +4730,13 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>4.9</v>
+        <v>5.08</v>
       </c>
       <c r="C246">
-        <v>5.00027471838613</v>
+        <v>5.242629559569986</v>
       </c>
       <c r="D246">
-        <v>0.1002747183861299</v>
+        <v>0.1626295595699858</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -4708,13 +4744,13 @@
         <v>249</v>
       </c>
       <c r="B247">
-        <v>4.86</v>
+        <v>5.08</v>
       </c>
       <c r="C247">
-        <v>4.98422641154572</v>
+        <v>5.297866073954753</v>
       </c>
       <c r="D247">
-        <v>0.1242264115457195</v>
+        <v>0.2178660739547524</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -4722,13 +4758,13 @@
         <v>250</v>
       </c>
       <c r="B248">
-        <v>4.92</v>
+        <v>5.08</v>
       </c>
       <c r="C248">
-        <v>4.988028860600757</v>
+        <v>5.28078090600347</v>
       </c>
       <c r="D248">
-        <v>0.06802886060075686</v>
+        <v>0.2007809060034695</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -4736,13 +4772,13 @@
         <v>251</v>
       </c>
       <c r="B249">
-        <v>4.93</v>
+        <v>5.13</v>
       </c>
       <c r="C249">
-        <v>4.991029463435906</v>
+        <v>5.336998610233788</v>
       </c>
       <c r="D249">
-        <v>0.0610294634359061</v>
+        <v>0.2069986102337884</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -4750,13 +4786,13 @@
         <v>252</v>
       </c>
       <c r="B250">
-        <v>4.95</v>
+        <v>5.12</v>
       </c>
       <c r="C250">
-        <v>5.006202283137812</v>
+        <v>5.339255615896517</v>
       </c>
       <c r="D250">
-        <v>0.05620228313781173</v>
+        <v>0.2192556158965173</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -4764,13 +4800,13 @@
         <v>253</v>
       </c>
       <c r="B251">
-        <v>5.07</v>
+        <v>5.16</v>
       </c>
       <c r="C251">
-        <v>5.020655471955322</v>
+        <v>5.317793031264753</v>
       </c>
       <c r="D251">
-        <v>-0.04934452804467782</v>
+        <v>0.1577930312647524</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -4778,13 +4814,13 @@
         <v>254</v>
       </c>
       <c r="B252">
-        <v>5.06</v>
+        <v>5.14</v>
       </c>
       <c r="C252">
-        <v>5.024298702204367</v>
+        <v>5.312436034034608</v>
       </c>
       <c r="D252">
-        <v>-0.03570129779563214</v>
+        <v>0.1724360340346083</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -4795,10 +4831,10 @@
         <v>5.1</v>
       </c>
       <c r="C253">
-        <v>4.992772787075582</v>
+        <v>5.202049964626681</v>
       </c>
       <c r="D253">
-        <v>-0.1072272129244176</v>
+        <v>0.1020499646266817</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -4806,13 +4842,13 @@
         <v>256</v>
       </c>
       <c r="B254">
-        <v>5.1</v>
+        <v>5.04</v>
       </c>
       <c r="C254">
-        <v>4.982097747612771</v>
+        <v>5.21583687821273</v>
       </c>
       <c r="D254">
-        <v>-0.1179022523872284</v>
+        <v>0.1758368782127304</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -4820,13 +4856,13 @@
         <v>257</v>
       </c>
       <c r="B255">
-        <v>5.15</v>
+        <v>5.05</v>
       </c>
       <c r="C255">
-        <v>5.042578637432241</v>
+        <v>5.204342012656335</v>
       </c>
       <c r="D255">
-        <v>-0.1074213625677594</v>
+        <v>0.1543420126563353</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -4834,13 +4870,13 @@
         <v>258</v>
       </c>
       <c r="B256">
-        <v>5.17</v>
+        <v>5.07</v>
       </c>
       <c r="C256">
-        <v>5.033860113757694</v>
+        <v>5.242887438459151</v>
       </c>
       <c r="D256">
-        <v>-0.1361398862423062</v>
+        <v>0.172887438459151</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -4848,13 +4884,13 @@
         <v>259</v>
       </c>
       <c r="B257">
-        <v>5.23</v>
+        <v>4.96</v>
       </c>
       <c r="C257">
-        <v>5.032525344696682</v>
+        <v>5.09853048184582</v>
       </c>
       <c r="D257">
-        <v>-0.1974746553033189</v>
+        <v>0.1385304818458204</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -4862,13 +4898,13 @@
         <v>260</v>
       </c>
       <c r="B258">
-        <v>5.21</v>
+        <v>4.9</v>
       </c>
       <c r="C258">
-        <v>5.017784327067229</v>
+        <v>5.003724652541468</v>
       </c>
       <c r="D258">
-        <v>-0.1922156729327709</v>
+        <v>0.1037246525414677</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -4876,13 +4912,13 @@
         <v>261</v>
       </c>
       <c r="B259">
-        <v>5.22</v>
+        <v>4.89</v>
       </c>
       <c r="C259">
-        <v>5.110435052224616</v>
+        <v>4.987262132134267</v>
       </c>
       <c r="D259">
-        <v>-0.1095649477753833</v>
+        <v>0.09726213213426771</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -4890,13 +4926,13 @@
         <v>262</v>
       </c>
       <c r="B260">
-        <v>5.25</v>
+        <v>5.07</v>
       </c>
       <c r="C260">
-        <v>5.10665532871975</v>
+        <v>4.956248367658083</v>
       </c>
       <c r="D260">
-        <v>-0.14334467128025</v>
+        <v>-0.1137516323419172</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -4904,13 +4940,13 @@
         <v>263</v>
       </c>
       <c r="B261">
-        <v>5.29</v>
+        <v>5.09</v>
       </c>
       <c r="C261">
-        <v>5.106503861667029</v>
+        <v>4.99463635520876</v>
       </c>
       <c r="D261">
-        <v>-0.1834961383329707</v>
+        <v>-0.09536364479123982</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -4918,13 +4954,13 @@
         <v>264</v>
       </c>
       <c r="B262">
-        <v>5.25</v>
+        <v>5.19</v>
       </c>
       <c r="C262">
-        <v>5.125654274906957</v>
+        <v>5.042599873787333</v>
       </c>
       <c r="D262">
-        <v>-0.1243457250930433</v>
+        <v>-0.1474001262126672</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -4932,13 +4968,13 @@
         <v>265</v>
       </c>
       <c r="B263">
-        <v>5.25</v>
+        <v>5.19</v>
       </c>
       <c r="C263">
-        <v>5.103795649665047</v>
+        <v>4.992452716883436</v>
       </c>
       <c r="D263">
-        <v>-0.146204350334953</v>
+        <v>-0.1975472831165641</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -4946,13 +4982,13 @@
         <v>266</v>
       </c>
       <c r="B264">
-        <v>5.13</v>
+        <v>5.07</v>
       </c>
       <c r="C264">
-        <v>5.036729342903717</v>
+        <v>5.031556125883277</v>
       </c>
       <c r="D264">
-        <v>-0.09327065709628268</v>
+        <v>-0.03844387411672301</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -4960,13 +4996,13 @@
         <v>267</v>
       </c>
       <c r="B265">
-        <v>5.27</v>
+        <v>5.18</v>
       </c>
       <c r="C265">
-        <v>5.103195655149459</v>
+        <v>5.080134064474301</v>
       </c>
       <c r="D265">
-        <v>-0.1668043448505401</v>
+        <v>-0.099865935525699</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -4974,13 +5010,13 @@
         <v>268</v>
       </c>
       <c r="B266">
-        <v>5.34</v>
+        <v>5.22</v>
       </c>
       <c r="C266">
-        <v>5.161568525526246</v>
+        <v>5.101021284774406</v>
       </c>
       <c r="D266">
-        <v>-0.1784314744737543</v>
+        <v>-0.1189787152255937</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -4988,13 +5024,13 @@
         <v>269</v>
       </c>
       <c r="B267">
-        <v>5.32</v>
+        <v>5.17</v>
       </c>
       <c r="C267">
-        <v>5.135044960847754</v>
+        <v>5.025584867090775</v>
       </c>
       <c r="D267">
-        <v>-0.1849550391522463</v>
+        <v>-0.1444151329092254</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5002,13 +5038,13 @@
         <v>270</v>
       </c>
       <c r="B268">
-        <v>5.36</v>
+        <v>5.28</v>
       </c>
       <c r="C268">
-        <v>5.186785599485633</v>
+        <v>5.088285595495915</v>
       </c>
       <c r="D268">
-        <v>-0.1732144005143672</v>
+        <v>-0.1917144045040855</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5016,13 +5052,13 @@
         <v>271</v>
       </c>
       <c r="B269">
-        <v>5.4</v>
+        <v>5.27</v>
       </c>
       <c r="C269">
-        <v>5.190629409427869</v>
+        <v>5.10387870308376</v>
       </c>
       <c r="D269">
-        <v>-0.2093705905721315</v>
+        <v>-0.1661212969162396</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5030,13 +5066,13 @@
         <v>272</v>
       </c>
       <c r="B270">
-        <v>5.42</v>
+        <v>5.34</v>
       </c>
       <c r="C270">
-        <v>5.212003580192544</v>
+        <v>5.153437543325216</v>
       </c>
       <c r="D270">
-        <v>-0.207996419807456</v>
+        <v>-0.1865624566747837</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5044,13 +5080,13 @@
         <v>273</v>
       </c>
       <c r="B271">
-        <v>5.5</v>
+        <v>5.34</v>
       </c>
       <c r="C271">
-        <v>5.268162519038313</v>
+        <v>5.161608425676723</v>
       </c>
       <c r="D271">
-        <v>-0.231837480961687</v>
+        <v>-0.1783915743232765</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5058,13 +5094,13 @@
         <v>274</v>
       </c>
       <c r="B272">
-        <v>5.7</v>
+        <v>5.32</v>
       </c>
       <c r="C272">
-        <v>5.335259790750497</v>
+        <v>5.13637010602287</v>
       </c>
       <c r="D272">
-        <v>-0.3647402092495033</v>
+        <v>-0.1836298939771304</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5072,13 +5108,13 @@
         <v>275</v>
       </c>
       <c r="B273">
-        <v>5.73</v>
+        <v>5.3</v>
       </c>
       <c r="C273">
-        <v>5.371030173495697</v>
+        <v>5.117706280335208</v>
       </c>
       <c r="D273">
-        <v>-0.3589698265043033</v>
+        <v>-0.1822937196647922</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5086,13 +5122,13 @@
         <v>276</v>
       </c>
       <c r="B274">
-        <v>5.56</v>
+        <v>5.29</v>
       </c>
       <c r="C274">
-        <v>5.419046589979791</v>
+        <v>5.132797986698051</v>
       </c>
       <c r="D274">
-        <v>-0.1409534100202086</v>
+        <v>-0.1572020133019487</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5100,13 +5136,13 @@
         <v>277</v>
       </c>
       <c r="B275">
-        <v>5.52</v>
+        <v>5.27</v>
       </c>
       <c r="C275">
-        <v>5.405809111468873</v>
+        <v>5.166474828723679</v>
       </c>
       <c r="D275">
-        <v>-0.1141908885311267</v>
+        <v>-0.1035251712763205</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5114,13 +5150,13 @@
         <v>278</v>
       </c>
       <c r="B276">
-        <v>5.54</v>
+        <v>5.35</v>
       </c>
       <c r="C276">
-        <v>5.404187208646155</v>
+        <v>5.115313625535816</v>
       </c>
       <c r="D276">
-        <v>-0.1358127913538452</v>
+        <v>-0.2346863744641841</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5128,13 +5164,13 @@
         <v>279</v>
       </c>
       <c r="B277">
-        <v>5.47</v>
+        <v>5.36</v>
       </c>
       <c r="C277">
-        <v>5.296448959229744</v>
+        <v>5.136213469727661</v>
       </c>
       <c r="D277">
-        <v>-0.1735510407702554</v>
+        <v>-0.2237865302723394</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5142,13 +5178,13 @@
         <v>280</v>
       </c>
       <c r="B278">
-        <v>5.51</v>
+        <v>5.36</v>
       </c>
       <c r="C278">
-        <v>5.312267171895835</v>
+        <v>5.199667975126783</v>
       </c>
       <c r="D278">
-        <v>-0.197732828104165</v>
+        <v>-0.1603320248732176</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5156,13 +5192,13 @@
         <v>281</v>
       </c>
       <c r="B279">
-        <v>5.52</v>
+        <v>5.39</v>
       </c>
       <c r="C279">
-        <v>5.387261196332274</v>
+        <v>5.193958326674895</v>
       </c>
       <c r="D279">
-        <v>-0.1327388036677259</v>
+        <v>-0.1960416733251042</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5170,13 +5206,13 @@
         <v>282</v>
       </c>
       <c r="B280">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="C280">
-        <v>5.328022145921256</v>
+        <v>5.188922376379406</v>
       </c>
       <c r="D280">
-        <v>-0.1719778540787438</v>
+        <v>-0.2110776236205947</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5184,13 +5220,13 @@
         <v>283</v>
       </c>
       <c r="B281">
-        <v>5.47</v>
+        <v>5.49</v>
       </c>
       <c r="C281">
-        <v>5.326645477780465</v>
+        <v>5.167177868128247</v>
       </c>
       <c r="D281">
-        <v>-0.1433545222195347</v>
+        <v>-0.322822131871753</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5198,13 +5234,13 @@
         <v>284</v>
       </c>
       <c r="B282">
-        <v>5.56</v>
+        <v>5.71</v>
       </c>
       <c r="C282">
-        <v>5.359785491189944</v>
+        <v>5.311440407600532</v>
       </c>
       <c r="D282">
-        <v>-0.2002145088100553</v>
+        <v>-0.3985595923994678</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5212,13 +5248,13 @@
         <v>285</v>
       </c>
       <c r="B283">
-        <v>5.62</v>
+        <v>5.7</v>
       </c>
       <c r="C283">
-        <v>5.404738089076959</v>
+        <v>5.332174787787887</v>
       </c>
       <c r="D283">
-        <v>-0.2152619109230409</v>
+        <v>-0.3678252122121135</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5226,13 +5262,13 @@
         <v>286</v>
       </c>
       <c r="B284">
-        <v>5.68</v>
+        <v>5.75</v>
       </c>
       <c r="C284">
-        <v>5.376981110273361</v>
+        <v>5.363630636071635</v>
       </c>
       <c r="D284">
-        <v>-0.3030188897266388</v>
+        <v>-0.386369363928365</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5240,13 +5276,13 @@
         <v>287</v>
       </c>
       <c r="B285">
-        <v>5.64</v>
+        <v>5.53</v>
       </c>
       <c r="C285">
-        <v>5.345888046471277</v>
+        <v>5.416320263633933</v>
       </c>
       <c r="D285">
-        <v>-0.2941119535287227</v>
+        <v>-0.1136797363660671</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5254,13 +5290,13 @@
         <v>288</v>
       </c>
       <c r="B286">
-        <v>5.67</v>
+        <v>5.52</v>
       </c>
       <c r="C286">
-        <v>5.345814925444678</v>
+        <v>5.389169677005183</v>
       </c>
       <c r="D286">
-        <v>-0.3241850745553219</v>
+        <v>-0.1308303229948162</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5268,13 +5304,13 @@
         <v>289</v>
       </c>
       <c r="B287">
-        <v>5.67</v>
+        <v>5.53</v>
       </c>
       <c r="C287">
-        <v>5.350370610315078</v>
+        <v>5.396584345491199</v>
       </c>
       <c r="D287">
-        <v>-0.3196293896849216</v>
+        <v>-0.1334156545088012</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5282,13 +5318,13 @@
         <v>290</v>
       </c>
       <c r="B288">
-        <v>5.67</v>
+        <v>5.52</v>
       </c>
       <c r="C288">
-        <v>5.362302641690206</v>
+        <v>5.402653105551023</v>
       </c>
       <c r="D288">
-        <v>-0.3076973583097935</v>
+        <v>-0.1173468944489766</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5296,13 +5332,13 @@
         <v>291</v>
       </c>
       <c r="B289">
-        <v>5.66</v>
+        <v>5.53</v>
       </c>
       <c r="C289">
-        <v>5.378668204780441</v>
+        <v>5.388302701049195</v>
       </c>
       <c r="D289">
-        <v>-0.2813317952195593</v>
+        <v>-0.1416972989508052</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5310,13 +5346,13 @@
         <v>292</v>
       </c>
       <c r="B290">
-        <v>5.68</v>
+        <v>5.53</v>
       </c>
       <c r="C290">
-        <v>5.398559793688742</v>
+        <v>5.390504038620858</v>
       </c>
       <c r="D290">
-        <v>-0.2814402063112578</v>
+        <v>-0.1394959613791427</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5324,13 +5360,181 @@
         <v>293</v>
       </c>
       <c r="B291">
-        <v>5.79</v>
+        <v>5.5</v>
       </c>
       <c r="C291">
-        <v>5.486306149608929</v>
+        <v>5.34265199216264</v>
       </c>
       <c r="D291">
-        <v>-0.3036938503910713</v>
+        <v>-0.1573480078373599</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B292">
+        <v>5.52</v>
+      </c>
+      <c r="C292">
+        <v>5.335752739636852</v>
+      </c>
+      <c r="D292">
+        <v>-0.1842472603631471</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B293">
+        <v>5.55</v>
+      </c>
+      <c r="C293">
+        <v>5.346504572295085</v>
+      </c>
+      <c r="D293">
+        <v>-0.2034954277049144</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B294">
+        <v>5.58</v>
+      </c>
+      <c r="C294">
+        <v>5.352986048168558</v>
+      </c>
+      <c r="D294">
+        <v>-0.2270139518314416</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B295">
+        <v>5.57</v>
+      </c>
+      <c r="C295">
+        <v>5.342876892902446</v>
+      </c>
+      <c r="D295">
+        <v>-0.2271231070975546</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B296">
+        <v>5.62</v>
+      </c>
+      <c r="C296">
+        <v>5.403688928538758</v>
+      </c>
+      <c r="D296">
+        <v>-0.2163110714612424</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B297">
+        <v>5.66</v>
+      </c>
+      <c r="C297">
+        <v>5.38801010827706</v>
+      </c>
+      <c r="D297">
+        <v>-0.2719898917229404</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B298">
+        <v>5.68</v>
+      </c>
+      <c r="C298">
+        <v>5.375419027908682</v>
+      </c>
+      <c r="D298">
+        <v>-0.3045809720913173</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B299">
+        <v>5.62</v>
+      </c>
+      <c r="C299">
+        <v>5.320777247717304</v>
+      </c>
+      <c r="D299">
+        <v>-0.299222752282696</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B300">
+        <v>5.65</v>
+      </c>
+      <c r="C300">
+        <v>5.336079341976509</v>
+      </c>
+      <c r="D300">
+        <v>-0.3139206580234912</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B301">
+        <v>5.68</v>
+      </c>
+      <c r="C301">
+        <v>5.403784712772348</v>
+      </c>
+      <c r="D301">
+        <v>-0.276215287227652</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B302">
+        <v>5.71</v>
+      </c>
+      <c r="C302">
+        <v>5.429452421199771</v>
+      </c>
+      <c r="D302">
+        <v>-0.2805475788002285</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B303">
+        <v>5.74</v>
+      </c>
+      <c r="C303">
+        <v>5.447579469410591</v>
+      </c>
+      <c r="D303">
+        <v>-0.2924205305894088</v>
       </c>
     </row>
   </sheetData>

--- a/temp/stable_test.xlsx
+++ b/temp/stable_test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="376">
   <si>
     <t>华英农业</t>
   </si>
@@ -28,910 +28,1120 @@
     <t>time</t>
   </si>
   <si>
-    <t>2019-06-20 14:56:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 14:03:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 10:48:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 10:38:00</t>
-  </si>
-  <si>
-    <t>2019-06-19 14:58:00</t>
-  </si>
-  <si>
-    <t>2019-06-19 13:33:00</t>
-  </si>
-  <si>
-    <t>2019-06-19 11:28:00</t>
-  </si>
-  <si>
-    <t>2019-06-18 13:57:00</t>
-  </si>
-  <si>
-    <t>2019-06-18 13:07:00</t>
-  </si>
-  <si>
-    <t>2019-06-17 14:53:00</t>
-  </si>
-  <si>
-    <t>2019-06-17 13:31:00</t>
-  </si>
-  <si>
-    <t>2019-06-14 10:01:00</t>
-  </si>
-  <si>
-    <t>2019-06-14 09:49:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 10:48:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 10:47:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 09:39:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 14:40:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 14:34:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 13:49:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 13:44:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 10:40:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 09:52:00</t>
-  </si>
-  <si>
-    <t>2019-06-10 13:24:00</t>
-  </si>
-  <si>
-    <t>2019-06-10 10:56:00</t>
-  </si>
-  <si>
-    <t>2019-06-10 10:30:00</t>
-  </si>
-  <si>
-    <t>2019-06-04 14:17:00</t>
-  </si>
-  <si>
-    <t>2019-06-03 14:27:00</t>
-  </si>
-  <si>
-    <t>2019-06-03 11:01:00</t>
-  </si>
-  <si>
-    <t>2019-05-31 13:49:00</t>
-  </si>
-  <si>
-    <t>2019-05-31 10:35:00</t>
-  </si>
-  <si>
-    <t>2019-05-30 11:20:00</t>
-  </si>
-  <si>
-    <t>2019-05-28 13:42:00</t>
-  </si>
-  <si>
-    <t>2019-05-28 13:26:00</t>
-  </si>
-  <si>
-    <t>2019-05-28 10:36:00</t>
-  </si>
-  <si>
-    <t>2019-05-27 14:22:00</t>
-  </si>
-  <si>
-    <t>2019-05-27 13:46:00</t>
-  </si>
-  <si>
-    <t>2019-05-27 13:43:00</t>
-  </si>
-  <si>
-    <t>2019-05-27 13:36:00</t>
-  </si>
-  <si>
-    <t>2019-05-24 14:20:00</t>
-  </si>
-  <si>
-    <t>2019-05-24 13:35:00</t>
-  </si>
-  <si>
-    <t>2019-05-24 13:02:00</t>
-  </si>
-  <si>
-    <t>2019-05-23 13:44:00</t>
-  </si>
-  <si>
-    <t>2019-05-23 13:19:00</t>
-  </si>
-  <si>
-    <t>2019-05-23 10:12:00</t>
-  </si>
-  <si>
-    <t>2019-05-23 09:40:00</t>
-  </si>
-  <si>
-    <t>2019-05-21 10:41:00</t>
-  </si>
-  <si>
-    <t>2019-05-21 10:15:00</t>
-  </si>
-  <si>
-    <t>2019-05-21 09:37:00</t>
-  </si>
-  <si>
-    <t>2019-05-20 14:45:00</t>
-  </si>
-  <si>
-    <t>2019-05-20 14:29:00</t>
-  </si>
-  <si>
-    <t>2019-05-20 13:34:00</t>
+    <t>2019-07-31 14:09:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 13:52:00</t>
+  </si>
+  <si>
+    <t>2019-07-30 14:59:00</t>
+  </si>
+  <si>
+    <t>2019-07-30 14:58:00</t>
+  </si>
+  <si>
+    <t>2019-07-30 14:57:00</t>
+  </si>
+  <si>
+    <t>2019-07-30 14:34:00</t>
+  </si>
+  <si>
+    <t>2019-07-30 10:21:00</t>
+  </si>
+  <si>
+    <t>2019-07-30 10:18:00</t>
+  </si>
+  <si>
+    <t>2019-07-26 13:08:00</t>
+  </si>
+  <si>
+    <t>2019-07-26 11:12:00</t>
+  </si>
+  <si>
+    <t>2019-07-25 11:07:00</t>
+  </si>
+  <si>
+    <t>2019-07-24 14:49:00</t>
+  </si>
+  <si>
+    <t>2019-07-24 13:39:00</t>
+  </si>
+  <si>
+    <t>2019-07-24 11:23:00</t>
+  </si>
+  <si>
+    <t>2019-07-23 13:07:00</t>
+  </si>
+  <si>
+    <t>2019-07-23 11:00:00</t>
+  </si>
+  <si>
+    <t>2019-07-22 13:33:00</t>
+  </si>
+  <si>
+    <t>2019-07-22 10:45:00</t>
+  </si>
+  <si>
+    <t>2019-07-19 14:16:00</t>
+  </si>
+  <si>
+    <t>2019-07-19 13:36:00</t>
+  </si>
+  <si>
+    <t>2019-07-19 10:43:00</t>
+  </si>
+  <si>
+    <t>2019-07-18 13:12:00</t>
+  </si>
+  <si>
+    <t>2019-07-18 11:17:00</t>
+  </si>
+  <si>
+    <t>2019-07-16 13:56:00</t>
+  </si>
+  <si>
+    <t>2019-07-15 14:23:00</t>
+  </si>
+  <si>
+    <t>2019-07-15 13:29:00</t>
+  </si>
+  <si>
+    <t>2019-07-15 11:22:00</t>
+  </si>
+  <si>
+    <t>2019-07-15 09:53:00</t>
+  </si>
+  <si>
+    <t>2019-07-15 09:49:00</t>
+  </si>
+  <si>
+    <t>2019-07-15 09:37:00</t>
+  </si>
+  <si>
+    <t>2019-07-12 10:14:00</t>
+  </si>
+  <si>
+    <t>2019-07-12 09:43:00</t>
+  </si>
+  <si>
+    <t>2019-07-11 14:18:00</t>
+  </si>
+  <si>
+    <t>2019-07-11 13:05:00</t>
+  </si>
+  <si>
+    <t>2019-07-11 09:38:00</t>
+  </si>
+  <si>
+    <t>2019-07-10 14:43:00</t>
+  </si>
+  <si>
+    <t>2019-07-10 11:25:00</t>
+  </si>
+  <si>
+    <t>2019-07-09 14:17:00</t>
+  </si>
+  <si>
+    <t>2019-07-09 13:59:00</t>
+  </si>
+  <si>
+    <t>2019-07-09 13:38:00</t>
+  </si>
+  <si>
+    <t>2019-07-09 09:38:00</t>
+  </si>
+  <si>
+    <t>2019-07-08 14:19:00</t>
+  </si>
+  <si>
+    <t>2019-07-08 10:41:00</t>
+  </si>
+  <si>
+    <t>2019-07-08 09:41:00</t>
+  </si>
+  <si>
+    <t>2019-07-08 09:33:00</t>
+  </si>
+  <si>
+    <t>2019-07-05 13:30:00</t>
+  </si>
+  <si>
+    <t>2019-07-05 11:07:00</t>
+  </si>
+  <si>
+    <t>2019-07-04 14:59:00</t>
+  </si>
+  <si>
+    <t>2019-07-04 10:24:00</t>
+  </si>
+  <si>
+    <t>2019-07-03 14:48:00</t>
+  </si>
+  <si>
+    <t>2019-07-03 11:21:00</t>
+  </si>
+  <si>
+    <t>2019-07-03 09:41:00</t>
+  </si>
+  <si>
+    <t>2019-07-02 13:43:00</t>
+  </si>
+  <si>
+    <t>2019-07-02 10:01:00</t>
+  </si>
+  <si>
+    <t>2019-07-01 14:05:00</t>
+  </si>
+  <si>
+    <t>2019-07-01 13:33:00</t>
+  </si>
+  <si>
+    <t>2019-07-01 10:34:00</t>
+  </si>
+  <si>
+    <t>2019-06-27 11:16:00</t>
+  </si>
+  <si>
+    <t>2019-06-26 13:10:00</t>
+  </si>
+  <si>
+    <t>2019-06-26 10:31:00</t>
+  </si>
+  <si>
+    <t>2019-06-26 09:37:00</t>
+  </si>
+  <si>
+    <t>2019-06-25 11:19:00</t>
+  </si>
+  <si>
+    <t>2019-06-24 13:52:00</t>
+  </si>
+  <si>
+    <t>2019-06-24 10:28:00</t>
+  </si>
+  <si>
+    <t>2019-06-21 13:32:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 14:32:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 13:51:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 13:46:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 11:11:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 10:58:00</t>
+  </si>
+  <si>
+    <t>2019-06-19 11:17:00</t>
+  </si>
+  <si>
+    <t>2019-06-18 13:20:00</t>
+  </si>
+  <si>
+    <t>2019-06-18 11:21:00</t>
+  </si>
+  <si>
+    <t>2019-06-18 10:22:00</t>
+  </si>
+  <si>
+    <t>2019-06-18 09:35:00</t>
+  </si>
+  <si>
+    <t>2019-06-17 10:49:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 14:34:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 13:42:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 13:23:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 14:06:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 10:38:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 09:36:00</t>
+  </si>
+  <si>
+    <t>2019-06-11 14:53:00</t>
+  </si>
+  <si>
+    <t>2019-06-11 14:08:00</t>
+  </si>
+  <si>
+    <t>2019-06-11 10:22:00</t>
+  </si>
+  <si>
+    <t>2019-06-11 10:20:00</t>
+  </si>
+  <si>
+    <t>2019-06-11 09:33:00</t>
+  </si>
+  <si>
+    <t>2019-06-10 14:01:00</t>
+  </si>
+  <si>
+    <t>2019-06-06 09:35:00</t>
+  </si>
+  <si>
+    <t>2019-06-05 13:38:00</t>
+  </si>
+  <si>
+    <t>2019-06-04 14:48:00</t>
+  </si>
+  <si>
+    <t>2019-06-04 14:39:00</t>
+  </si>
+  <si>
+    <t>2019-06-04 14:13:00</t>
+  </si>
+  <si>
+    <t>2019-06-04 11:02:00</t>
+  </si>
+  <si>
+    <t>2019-06-04 10:58:00</t>
+  </si>
+  <si>
+    <t>2019-06-04 10:00:00</t>
+  </si>
+  <si>
+    <t>2019-06-04 09:33:00</t>
+  </si>
+  <si>
+    <t>2019-06-03 11:29:00</t>
+  </si>
+  <si>
+    <t>2019-06-03 10:46:00</t>
+  </si>
+  <si>
+    <t>2019-06-03 10:03:00</t>
+  </si>
+  <si>
+    <t>2019-05-31 14:41:00</t>
+  </si>
+  <si>
+    <t>2019-05-31 14:36:00</t>
+  </si>
+  <si>
+    <t>2019-05-31 14:06:00</t>
+  </si>
+  <si>
+    <t>2019-05-31 10:31:00</t>
+  </si>
+  <si>
+    <t>2019-05-31 09:37:00</t>
+  </si>
+  <si>
+    <t>2019-05-29 11:26:00</t>
+  </si>
+  <si>
+    <t>2019-05-29 10:18:00</t>
+  </si>
+  <si>
+    <t>2019-05-28 14:49:00</t>
+  </si>
+  <si>
+    <t>2019-05-28 13:16:00</t>
+  </si>
+  <si>
+    <t>2019-05-24 14:32:00</t>
+  </si>
+  <si>
+    <t>2019-05-24 14:15:00</t>
+  </si>
+  <si>
+    <t>2019-05-24 10:24:00</t>
+  </si>
+  <si>
+    <t>2019-05-24 09:47:00</t>
+  </si>
+  <si>
+    <t>2019-05-23 14:08:00</t>
+  </si>
+  <si>
+    <t>2019-05-23 13:20:00</t>
+  </si>
+  <si>
+    <t>2019-05-23 10:17:00</t>
+  </si>
+  <si>
+    <t>2019-05-22 15:00:00</t>
+  </si>
+  <si>
+    <t>2019-05-22 14:51:00</t>
+  </si>
+  <si>
+    <t>2019-05-22 13:50:00</t>
+  </si>
+  <si>
+    <t>2019-05-21 11:28:00</t>
+  </si>
+  <si>
+    <t>2019-05-21 11:18:00</t>
+  </si>
+  <si>
+    <t>2019-05-21 11:15:00</t>
+  </si>
+  <si>
+    <t>2019-05-21 11:03:00</t>
+  </si>
+  <si>
+    <t>2019-05-21 09:42:00</t>
+  </si>
+  <si>
+    <t>2019-05-20 14:13:00</t>
+  </si>
+  <si>
+    <t>2019-05-17 13:52:00</t>
   </si>
   <si>
     <t>2019-05-17 11:00:00</t>
   </si>
   <si>
-    <t>2019-05-17 10:58:00</t>
-  </si>
-  <si>
-    <t>2019-05-17 09:35:00</t>
-  </si>
-  <si>
-    <t>2019-05-17 09:34:00</t>
-  </si>
-  <si>
-    <t>2019-05-15 14:24:00</t>
-  </si>
-  <si>
-    <t>2019-05-15 13:15:00</t>
-  </si>
-  <si>
-    <t>2019-05-15 13:12:00</t>
-  </si>
-  <si>
-    <t>2019-05-15 13:10:00</t>
-  </si>
-  <si>
-    <t>2019-05-14 13:01:00</t>
-  </si>
-  <si>
-    <t>2019-05-14 10:13:00</t>
-  </si>
-  <si>
-    <t>2019-05-13 14:41:00</t>
-  </si>
-  <si>
-    <t>2019-05-13 14:18:00</t>
-  </si>
-  <si>
-    <t>2019-05-10 14:26:00</t>
-  </si>
-  <si>
-    <t>2019-05-10 11:26:00</t>
-  </si>
-  <si>
-    <t>2019-05-09 13:59:00</t>
-  </si>
-  <si>
-    <t>2019-05-09 13:53:00</t>
-  </si>
-  <si>
-    <t>2019-05-09 13:23:00</t>
-  </si>
-  <si>
-    <t>2019-05-09 11:03:00</t>
-  </si>
-  <si>
-    <t>2019-05-09 09:40:00</t>
-  </si>
-  <si>
-    <t>2019-05-08 13:46:00</t>
-  </si>
-  <si>
-    <t>2019-05-08 13:04:00</t>
-  </si>
-  <si>
-    <t>2019-05-08 10:39:00</t>
-  </si>
-  <si>
-    <t>2019-05-08 10:37:00</t>
-  </si>
-  <si>
-    <t>2019-05-08 09:57:00</t>
-  </si>
-  <si>
-    <t>2019-05-07 14:49:00</t>
-  </si>
-  <si>
-    <t>2019-05-07 14:09:00</t>
-  </si>
-  <si>
-    <t>2019-05-07 14:00:00</t>
-  </si>
-  <si>
-    <t>2019-05-07 10:33:00</t>
-  </si>
-  <si>
-    <t>2019-05-07 10:10:00</t>
-  </si>
-  <si>
-    <t>2019-05-06 14:02:00</t>
-  </si>
-  <si>
-    <t>2019-05-06 09:55:00</t>
-  </si>
-  <si>
-    <t>2019-04-30 13:48:00</t>
-  </si>
-  <si>
-    <t>2019-04-29 14:12:00</t>
-  </si>
-  <si>
-    <t>2019-04-29 10:16:00</t>
-  </si>
-  <si>
-    <t>2019-04-29 09:59:00</t>
-  </si>
-  <si>
-    <t>2019-04-26 14:50:00</t>
-  </si>
-  <si>
-    <t>2019-04-26 13:43:00</t>
-  </si>
-  <si>
-    <t>2019-04-26 10:34:00</t>
-  </si>
-  <si>
-    <t>2019-04-26 09:41:00</t>
-  </si>
-  <si>
-    <t>2019-04-25 14:24:00</t>
-  </si>
-  <si>
-    <t>2019-04-24 13:14:00</t>
-  </si>
-  <si>
-    <t>2019-04-24 11:02:00</t>
-  </si>
-  <si>
-    <t>2019-04-24 10:53:00</t>
-  </si>
-  <si>
-    <t>2019-04-24 10:37:00</t>
-  </si>
-  <si>
-    <t>2019-04-19 13:59:00</t>
-  </si>
-  <si>
-    <t>2019-04-19 13:45:00</t>
-  </si>
-  <si>
-    <t>2019-04-19 09:42:00</t>
-  </si>
-  <si>
-    <t>2019-04-17 13:42:00</t>
-  </si>
-  <si>
-    <t>2019-04-17 09:39:00</t>
-  </si>
-  <si>
-    <t>2019-04-16 13:51:00</t>
-  </si>
-  <si>
-    <t>2019-04-16 10:34:00</t>
-  </si>
-  <si>
-    <t>2019-04-15 11:12:00</t>
-  </si>
-  <si>
-    <t>2019-04-12 14:29:00</t>
-  </si>
-  <si>
-    <t>2019-04-12 14:24:00</t>
-  </si>
-  <si>
-    <t>2019-04-12 10:06:00</t>
-  </si>
-  <si>
-    <t>2019-04-11 11:24:00</t>
-  </si>
-  <si>
-    <t>2019-04-11 09:38:00</t>
-  </si>
-  <si>
-    <t>2019-04-10 14:08:00</t>
-  </si>
-  <si>
-    <t>2019-04-10 11:00:00</t>
-  </si>
-  <si>
-    <t>2019-04-10 10:19:00</t>
-  </si>
-  <si>
-    <t>2019-04-09 10:03:00</t>
-  </si>
-  <si>
-    <t>2019-04-08 14:51:00</t>
-  </si>
-  <si>
-    <t>2019-04-08 11:18:00</t>
-  </si>
-  <si>
-    <t>2019-04-08 10:12:00</t>
-  </si>
-  <si>
-    <t>2019-04-04 13:19:00</t>
-  </si>
-  <si>
-    <t>2019-04-03 14:42:00</t>
-  </si>
-  <si>
-    <t>2019-04-03 14:17:00</t>
-  </si>
-  <si>
-    <t>2019-04-03 11:03:00</t>
-  </si>
-  <si>
-    <t>2019-04-02 13:16:00</t>
-  </si>
-  <si>
-    <t>2019-04-01 13:15:00</t>
-  </si>
-  <si>
-    <t>2019-04-01 13:03:00</t>
-  </si>
-  <si>
-    <t>2019-03-29 13:14:00</t>
-  </si>
-  <si>
-    <t>2019-03-29 11:07:00</t>
-  </si>
-  <si>
-    <t>2019-03-29 10:22:00</t>
-  </si>
-  <si>
-    <t>2019-03-28 11:06:00</t>
-  </si>
-  <si>
-    <t>2019-03-27 13:22:00</t>
-  </si>
-  <si>
-    <t>2019-03-27 13:01:00</t>
-  </si>
-  <si>
-    <t>2019-03-26 11:09:00</t>
-  </si>
-  <si>
-    <t>2019-03-25 14:38:00</t>
-  </si>
-  <si>
-    <t>2019-03-25 14:09:00</t>
-  </si>
-  <si>
-    <t>2019-03-25 13:54:00</t>
-  </si>
-  <si>
-    <t>2019-03-25 11:28:00</t>
-  </si>
-  <si>
-    <t>2019-03-25 10:29:00</t>
-  </si>
-  <si>
-    <t>2019-03-22 13:16:00</t>
-  </si>
-  <si>
-    <t>2019-03-22 13:04:00</t>
-  </si>
-  <si>
-    <t>2019-03-21 11:05:00</t>
-  </si>
-  <si>
-    <t>2019-03-21 10:02:00</t>
-  </si>
-  <si>
-    <t>2019-03-20 10:43:00</t>
-  </si>
-  <si>
-    <t>2019-03-20 10:09:00</t>
-  </si>
-  <si>
-    <t>2019-03-19 14:09:00</t>
-  </si>
-  <si>
-    <t>2019-03-19 14:01:00</t>
-  </si>
-  <si>
-    <t>2019-03-18 14:54:00</t>
-  </si>
-  <si>
-    <t>2019-03-18 13:14:00</t>
-  </si>
-  <si>
-    <t>2019-03-18 11:03:00</t>
-  </si>
-  <si>
-    <t>2019-03-18 10:53:00</t>
-  </si>
-  <si>
-    <t>2019-03-18 10:27:00</t>
-  </si>
-  <si>
-    <t>2019-03-14 13:41:00</t>
-  </si>
-  <si>
-    <t>2019-03-13 13:44:00</t>
-  </si>
-  <si>
-    <t>2019-03-13 10:19:00</t>
-  </si>
-  <si>
-    <t>2019-03-12 13:57:00</t>
-  </si>
-  <si>
-    <t>2019-03-12 11:14:00</t>
-  </si>
-  <si>
-    <t>2019-03-12 10:00:00</t>
-  </si>
-  <si>
-    <t>2019-03-11 14:57:00</t>
-  </si>
-  <si>
-    <t>2019-03-07 14:50:00</t>
-  </si>
-  <si>
-    <t>2019-03-07 09:45:00</t>
-  </si>
-  <si>
-    <t>2019-03-06 11:20:00</t>
-  </si>
-  <si>
-    <t>2019-03-06 11:01:00</t>
-  </si>
-  <si>
-    <t>2019-03-06 10:51:00</t>
-  </si>
-  <si>
-    <t>2019-03-05 13:58:00</t>
-  </si>
-  <si>
-    <t>2019-03-05 13:08:00</t>
-  </si>
-  <si>
-    <t>2019-03-04 13:59:00</t>
-  </si>
-  <si>
-    <t>2019-03-04 13:28:00</t>
-  </si>
-  <si>
-    <t>2019-03-04 09:56:00</t>
-  </si>
-  <si>
-    <t>2019-03-01 13:34:00</t>
-  </si>
-  <si>
-    <t>2019-03-01 13:14:00</t>
-  </si>
-  <si>
-    <t>2019-03-01 10:22:00</t>
-  </si>
-  <si>
-    <t>2019-03-01 09:59:00</t>
-  </si>
-  <si>
-    <t>2019-02-28 13:59:00</t>
-  </si>
-  <si>
-    <t>2019-02-28 13:21:00</t>
-  </si>
-  <si>
-    <t>2019-02-28 10:27:00</t>
-  </si>
-  <si>
-    <t>2019-02-27 15:00:00</t>
-  </si>
-  <si>
-    <t>2019-02-27 14:26:00</t>
-  </si>
-  <si>
-    <t>2019-02-26 10:31:00</t>
-  </si>
-  <si>
-    <t>2019-02-25 09:51:00</t>
-  </si>
-  <si>
-    <t>2019-02-22 14:45:00</t>
-  </si>
-  <si>
-    <t>2019-02-22 14:35:00</t>
-  </si>
-  <si>
-    <t>2019-02-22 14:25:00</t>
-  </si>
-  <si>
-    <t>2019-02-21 14:56:00</t>
-  </si>
-  <si>
-    <t>2019-02-21 14:20:00</t>
-  </si>
-  <si>
-    <t>2019-02-21 14:14:00</t>
-  </si>
-  <si>
-    <t>2019-02-21 14:05:00</t>
-  </si>
-  <si>
-    <t>2019-02-21 09:43:00</t>
-  </si>
-  <si>
-    <t>2019-02-20 10:45:00</t>
-  </si>
-  <si>
-    <t>2019-02-19 10:24:00</t>
-  </si>
-  <si>
-    <t>2019-02-18 14:37:00</t>
-  </si>
-  <si>
-    <t>2019-02-18 14:04:00</t>
-  </si>
-  <si>
-    <t>2019-02-18 13:19:00</t>
-  </si>
-  <si>
-    <t>2019-02-18 10:07:00</t>
-  </si>
-  <si>
-    <t>2019-02-15 14:44:00</t>
-  </si>
-  <si>
-    <t>2019-02-15 10:54:00</t>
-  </si>
-  <si>
-    <t>2019-02-14 14:02:00</t>
-  </si>
-  <si>
-    <t>2019-02-14 10:48:00</t>
-  </si>
-  <si>
-    <t>2019-02-13 13:24:00</t>
-  </si>
-  <si>
-    <t>2019-02-13 13:19:00</t>
-  </si>
-  <si>
-    <t>2019-02-13 11:25:00</t>
-  </si>
-  <si>
-    <t>2019-02-11 14:19:00</t>
-  </si>
-  <si>
-    <t>2019-02-11 13:49:00</t>
-  </si>
-  <si>
-    <t>2019-02-11 13:12:00</t>
-  </si>
-  <si>
-    <t>2019-02-11 10:25:00</t>
-  </si>
-  <si>
-    <t>2019-02-11 09:59:00</t>
-  </si>
-  <si>
-    <t>2019-02-01 13:41:00</t>
-  </si>
-  <si>
-    <t>2019-02-01 11:21:00</t>
-  </si>
-  <si>
-    <t>2019-01-31 14:03:00</t>
-  </si>
-  <si>
-    <t>2019-01-31 13:26:00</t>
-  </si>
-  <si>
-    <t>2019-01-31 10:36:00</t>
-  </si>
-  <si>
-    <t>2019-01-30 14:29:00</t>
-  </si>
-  <si>
-    <t>2019-01-30 10:26:00</t>
-  </si>
-  <si>
-    <t>2019-01-29 13:32:00</t>
-  </si>
-  <si>
-    <t>2019-01-28 13:42:00</t>
-  </si>
-  <si>
-    <t>2019-01-28 10:26:00</t>
-  </si>
-  <si>
-    <t>2019-01-25 14:02:00</t>
-  </si>
-  <si>
-    <t>2019-01-25 11:11:00</t>
+    <t>2019-05-16 11:29:00</t>
+  </si>
+  <si>
+    <t>2019-05-15 14:19:00</t>
+  </si>
+  <si>
+    <t>2019-05-15 13:43:00</t>
+  </si>
+  <si>
+    <t>2019-05-15 13:08:00</t>
+  </si>
+  <si>
+    <t>2019-05-15 10:23:00</t>
+  </si>
+  <si>
+    <t>2019-05-14 13:51:00</t>
+  </si>
+  <si>
+    <t>2019-05-13 14:57:00</t>
+  </si>
+  <si>
+    <t>2019-05-13 14:39:00</t>
+  </si>
+  <si>
+    <t>2019-05-13 14:20:00</t>
+  </si>
+  <si>
+    <t>2019-05-13 10:43:00</t>
+  </si>
+  <si>
+    <t>2019-05-10 13:50:00</t>
+  </si>
+  <si>
+    <t>2019-05-09 13:47:00</t>
+  </si>
+  <si>
+    <t>2019-05-08 10:53:00</t>
+  </si>
+  <si>
+    <t>2019-05-08 10:48:00</t>
+  </si>
+  <si>
+    <t>2019-05-08 10:13:00</t>
+  </si>
+  <si>
+    <t>2019-05-08 09:55:00</t>
+  </si>
+  <si>
+    <t>2019-05-07 11:25:00</t>
+  </si>
+  <si>
+    <t>2019-05-07 10:17:00</t>
+  </si>
+  <si>
+    <t>2019-05-07 09:40:00</t>
+  </si>
+  <si>
+    <t>2019-05-06 13:46:00</t>
+  </si>
+  <si>
+    <t>2019-05-06 13:35:00</t>
+  </si>
+  <si>
+    <t>2019-04-30 14:03:00</t>
+  </si>
+  <si>
+    <t>2019-04-30 13:08:00</t>
+  </si>
+  <si>
+    <t>2019-04-30 11:20:00</t>
+  </si>
+  <si>
+    <t>2019-04-30 10:30:00</t>
+  </si>
+  <si>
+    <t>2019-04-30 09:31:00</t>
+  </si>
+  <si>
+    <t>2019-04-29 14:40:00</t>
+  </si>
+  <si>
+    <t>2019-04-29 10:08:00</t>
+  </si>
+  <si>
+    <t>2019-04-25 13:35:00</t>
+  </si>
+  <si>
+    <t>2019-04-25 10:59:00</t>
+  </si>
+  <si>
+    <t>2019-04-25 10:45:00</t>
+  </si>
+  <si>
+    <t>2019-04-25 10:27:00</t>
+  </si>
+  <si>
+    <t>2019-04-24 14:53:00</t>
+  </si>
+  <si>
+    <t>2019-04-24 10:25:00</t>
+  </si>
+  <si>
+    <t>2019-04-23 10:52:00</t>
+  </si>
+  <si>
+    <t>2019-04-23 10:28:00</t>
+  </si>
+  <si>
+    <t>2019-04-22 09:35:00</t>
+  </si>
+  <si>
+    <t>2019-04-18 11:09:00</t>
+  </si>
+  <si>
+    <t>2019-04-17 14:26:00</t>
+  </si>
+  <si>
+    <t>2019-04-17 13:58:00</t>
+  </si>
+  <si>
+    <t>2019-04-17 13:40:00</t>
+  </si>
+  <si>
+    <t>2019-04-17 13:30:00</t>
+  </si>
+  <si>
+    <t>2019-04-17 11:15:00</t>
+  </si>
+  <si>
+    <t>2019-04-17 11:14:00</t>
+  </si>
+  <si>
+    <t>2019-04-17 09:49:00</t>
+  </si>
+  <si>
+    <t>2019-04-16 13:53:00</t>
+  </si>
+  <si>
+    <t>2019-04-16 10:35:00</t>
+  </si>
+  <si>
+    <t>2019-04-16 09:56:00</t>
+  </si>
+  <si>
+    <t>2019-04-15 14:38:00</t>
+  </si>
+  <si>
+    <t>2019-04-15 13:05:00</t>
+  </si>
+  <si>
+    <t>2019-04-15 09:52:00</t>
+  </si>
+  <si>
+    <t>2019-04-12 13:44:00</t>
+  </si>
+  <si>
+    <t>2019-04-12 13:34:00</t>
+  </si>
+  <si>
+    <t>2019-04-12 10:40:00</t>
+  </si>
+  <si>
+    <t>2019-04-11 13:52:00</t>
+  </si>
+  <si>
+    <t>2019-04-10 13:14:00</t>
+  </si>
+  <si>
+    <t>2019-04-10 10:09:00</t>
+  </si>
+  <si>
+    <t>2019-04-10 09:40:00</t>
+  </si>
+  <si>
+    <t>2019-04-09 14:29:00</t>
+  </si>
+  <si>
+    <t>2019-04-04 14:45:00</t>
+  </si>
+  <si>
+    <t>2019-04-04 13:51:00</t>
+  </si>
+  <si>
+    <t>2019-04-04 10:17:00</t>
+  </si>
+  <si>
+    <t>2019-04-04 10:02:00</t>
+  </si>
+  <si>
+    <t>2019-04-03 14:51:00</t>
+  </si>
+  <si>
+    <t>2019-04-03 13:44:00</t>
+  </si>
+  <si>
+    <t>2019-04-03 10:29:00</t>
+  </si>
+  <si>
+    <t>2019-04-02 14:33:00</t>
+  </si>
+  <si>
+    <t>2019-04-01 09:30:00</t>
+  </si>
+  <si>
+    <t>2019-03-29 14:54:00</t>
+  </si>
+  <si>
+    <t>2019-03-29 10:12:00</t>
+  </si>
+  <si>
+    <t>2019-03-27 10:51:00</t>
+  </si>
+  <si>
+    <t>2019-03-27 10:45:00</t>
+  </si>
+  <si>
+    <t>2019-03-27 10:42:00</t>
+  </si>
+  <si>
+    <t>2019-03-27 10:13:00</t>
+  </si>
+  <si>
+    <t>2019-03-26 14:40:00</t>
+  </si>
+  <si>
+    <t>2019-03-26 10:11:00</t>
+  </si>
+  <si>
+    <t>2019-03-25 13:28:00</t>
+  </si>
+  <si>
+    <t>2019-03-25 10:35:00</t>
+  </si>
+  <si>
+    <t>2019-03-22 14:41:00</t>
+  </si>
+  <si>
+    <t>2019-03-22 13:43:00</t>
+  </si>
+  <si>
+    <t>2019-03-22 11:15:00</t>
+  </si>
+  <si>
+    <t>2019-03-21 11:23:00</t>
+  </si>
+  <si>
+    <t>2019-03-21 11:22:00</t>
+  </si>
+  <si>
+    <t>2019-03-21 10:13:00</t>
+  </si>
+  <si>
+    <t>2019-03-21 10:05:00</t>
+  </si>
+  <si>
+    <t>2019-03-20 14:35:00</t>
+  </si>
+  <si>
+    <t>2019-03-20 09:45:00</t>
+  </si>
+  <si>
+    <t>2019-03-20 09:38:00</t>
+  </si>
+  <si>
+    <t>2019-03-19 10:09:00</t>
+  </si>
+  <si>
+    <t>2019-03-19 09:54:00</t>
+  </si>
+  <si>
+    <t>2019-03-18 10:28:00</t>
+  </si>
+  <si>
+    <t>2019-03-18 09:59:00</t>
+  </si>
+  <si>
+    <t>2019-03-18 09:36:00</t>
+  </si>
+  <si>
+    <t>2019-03-15 13:11:00</t>
+  </si>
+  <si>
+    <t>2019-03-15 10:12:00</t>
+  </si>
+  <si>
+    <t>2019-03-14 13:36:00</t>
+  </si>
+  <si>
+    <t>2019-03-14 10:54:00</t>
+  </si>
+  <si>
+    <t>2019-03-13 14:20:00</t>
+  </si>
+  <si>
+    <t>2019-03-13 09:55:00</t>
+  </si>
+  <si>
+    <t>2019-03-13 09:49:00</t>
+  </si>
+  <si>
+    <t>2019-03-12 14:21:00</t>
+  </si>
+  <si>
+    <t>2019-03-12 10:23:00</t>
+  </si>
+  <si>
+    <t>2019-03-12 09:56:00</t>
+  </si>
+  <si>
+    <t>2019-03-07 09:40:00</t>
+  </si>
+  <si>
+    <t>2019-03-06 14:07:00</t>
+  </si>
+  <si>
+    <t>2019-03-06 13:56:00</t>
+  </si>
+  <si>
+    <t>2019-03-06 09:41:00</t>
+  </si>
+  <si>
+    <t>2019-03-05 13:45:00</t>
+  </si>
+  <si>
+    <t>2019-03-05 13:40:00</t>
+  </si>
+  <si>
+    <t>2019-03-01 14:32:00</t>
+  </si>
+  <si>
+    <t>2019-03-01 14:05:00</t>
+  </si>
+  <si>
+    <t>2019-03-01 13:05:00</t>
+  </si>
+  <si>
+    <t>2019-03-01 10:02:00</t>
+  </si>
+  <si>
+    <t>2019-02-28 14:33:00</t>
+  </si>
+  <si>
+    <t>2019-02-28 14:13:00</t>
+  </si>
+  <si>
+    <t>2019-02-28 13:54:00</t>
+  </si>
+  <si>
+    <t>2019-02-27 14:58:00</t>
+  </si>
+  <si>
+    <t>2019-02-27 10:48:00</t>
+  </si>
+  <si>
+    <t>2019-02-27 10:20:00</t>
+  </si>
+  <si>
+    <t>2019-02-27 10:10:00</t>
+  </si>
+  <si>
+    <t>2019-02-26 14:02:00</t>
+  </si>
+  <si>
+    <t>2019-02-26 10:46:00</t>
+  </si>
+  <si>
+    <t>2019-02-25 14:22:00</t>
+  </si>
+  <si>
+    <t>2019-02-25 10:16:00</t>
+  </si>
+  <si>
+    <t>2019-02-22 10:21:00</t>
+  </si>
+  <si>
+    <t>2019-02-21 13:14:00</t>
+  </si>
+  <si>
+    <t>2019-02-20 13:52:00</t>
+  </si>
+  <si>
+    <t>2019-02-19 14:51:00</t>
+  </si>
+  <si>
+    <t>2019-02-19 14:01:00</t>
+  </si>
+  <si>
+    <t>2019-02-19 11:26:00</t>
+  </si>
+  <si>
+    <t>2019-02-18 14:56:00</t>
+  </si>
+  <si>
+    <t>2019-02-18 13:18:00</t>
+  </si>
+  <si>
+    <t>2019-02-18 10:55:00</t>
+  </si>
+  <si>
+    <t>2019-02-18 10:49:00</t>
+  </si>
+  <si>
+    <t>2019-02-18 10:48:00</t>
+  </si>
+  <si>
+    <t>2019-02-15 14:17:00</t>
+  </si>
+  <si>
+    <t>2019-02-15 10:06:00</t>
+  </si>
+  <si>
+    <t>2019-02-14 13:17:00</t>
+  </si>
+  <si>
+    <t>2019-02-14 10:59:00</t>
+  </si>
+  <si>
+    <t>2019-02-14 09:54:00</t>
+  </si>
+  <si>
+    <t>2019-02-14 09:40:00</t>
+  </si>
+  <si>
+    <t>2019-02-13 14:31:00</t>
+  </si>
+  <si>
+    <t>2019-02-13 13:52:00</t>
+  </si>
+  <si>
+    <t>2019-02-13 13:33:00</t>
+  </si>
+  <si>
+    <t>2019-02-13 13:15:00</t>
+  </si>
+  <si>
+    <t>2019-02-13 11:06:00</t>
+  </si>
+  <si>
+    <t>2019-02-13 10:14:00</t>
+  </si>
+  <si>
+    <t>2019-02-13 10:04:00</t>
+  </si>
+  <si>
+    <t>2019-02-11 14:14:00</t>
+  </si>
+  <si>
+    <t>2019-02-11 13:48:00</t>
+  </si>
+  <si>
+    <t>2019-02-01 13:54:00</t>
+  </si>
+  <si>
+    <t>2019-01-31 14:26:00</t>
+  </si>
+  <si>
+    <t>2019-01-31 14:18:00</t>
+  </si>
+  <si>
+    <t>2019-01-31 13:43:00</t>
+  </si>
+  <si>
+    <t>2019-01-31 13:22:00</t>
+  </si>
+  <si>
+    <t>2019-01-31 10:56:00</t>
+  </si>
+  <si>
+    <t>2019-01-31 10:47:00</t>
+  </si>
+  <si>
+    <t>2019-01-30 11:11:00</t>
+  </si>
+  <si>
+    <t>2019-01-29 14:13:00</t>
+  </si>
+  <si>
+    <t>2019-01-29 11:28:00</t>
+  </si>
+  <si>
+    <t>2019-01-25 15:00:00</t>
+  </si>
+  <si>
+    <t>2019-01-25 14:21:00</t>
+  </si>
+  <si>
+    <t>2019-01-25 13:41:00</t>
   </si>
   <si>
     <t>2019-01-25 10:53:00</t>
   </si>
   <si>
-    <t>2019-01-25 10:33:00</t>
-  </si>
-  <si>
-    <t>2019-01-24 10:14:00</t>
-  </si>
-  <si>
-    <t>2019-01-24 09:39:00</t>
-  </si>
-  <si>
-    <t>2019-01-23 09:45:00</t>
-  </si>
-  <si>
-    <t>2019-01-22 14:08:00</t>
-  </si>
-  <si>
-    <t>2019-01-21 14:35:00</t>
-  </si>
-  <si>
-    <t>2019-01-21 13:02:00</t>
-  </si>
-  <si>
-    <t>2019-01-18 13:44:00</t>
-  </si>
-  <si>
-    <t>2019-01-17 14:31:00</t>
-  </si>
-  <si>
-    <t>2019-01-17 13:34:00</t>
-  </si>
-  <si>
-    <t>2019-01-17 13:29:00</t>
-  </si>
-  <si>
-    <t>2019-01-17 13:24:00</t>
-  </si>
-  <si>
-    <t>2019-01-17 13:17:00</t>
-  </si>
-  <si>
-    <t>2019-01-17 11:02:00</t>
-  </si>
-  <si>
-    <t>2019-01-17 10:56:00</t>
-  </si>
-  <si>
-    <t>2019-01-16 14:43:00</t>
-  </si>
-  <si>
-    <t>2019-01-16 13:14:00</t>
-  </si>
-  <si>
-    <t>2019-01-15 14:54:00</t>
-  </si>
-  <si>
-    <t>2019-01-15 11:26:00</t>
-  </si>
-  <si>
-    <t>2019-01-14 14:25:00</t>
-  </si>
-  <si>
-    <t>2019-01-14 13:56:00</t>
-  </si>
-  <si>
-    <t>2019-01-14 13:30:00</t>
-  </si>
-  <si>
-    <t>2019-01-14 11:04:00</t>
-  </si>
-  <si>
-    <t>2019-01-14 10:39:00</t>
-  </si>
-  <si>
-    <t>2019-01-14 10:29:00</t>
-  </si>
-  <si>
-    <t>2019-01-14 10:09:00</t>
-  </si>
-  <si>
-    <t>2019-01-14 09:57:00</t>
-  </si>
-  <si>
-    <t>2019-01-11 14:13:00</t>
-  </si>
-  <si>
-    <t>2019-01-11 13:04:00</t>
-  </si>
-  <si>
-    <t>2019-01-11 11:26:00</t>
-  </si>
-  <si>
-    <t>2019-01-11 10:41:00</t>
-  </si>
-  <si>
-    <t>2019-01-10 14:06:00</t>
-  </si>
-  <si>
-    <t>2019-01-09 14:44:00</t>
-  </si>
-  <si>
-    <t>2019-01-09 13:15:00</t>
-  </si>
-  <si>
-    <t>2019-01-09 13:14:00</t>
-  </si>
-  <si>
-    <t>2019-01-09 10:22:00</t>
-  </si>
-  <si>
-    <t>2019-01-09 10:12:00</t>
-  </si>
-  <si>
-    <t>2019-01-08 14:12:00</t>
-  </si>
-  <si>
-    <t>2019-01-08 11:00:00</t>
-  </si>
-  <si>
-    <t>2019-01-08 10:45:00</t>
-  </si>
-  <si>
-    <t>2019-01-08 09:47:00</t>
-  </si>
-  <si>
-    <t>2019-01-04 13:53:00</t>
-  </si>
-  <si>
-    <t>2019-01-04 10:15:00</t>
-  </si>
-  <si>
-    <t>2019-01-03 14:54:00</t>
-  </si>
-  <si>
-    <t>2019-01-03 09:33:00</t>
-  </si>
-  <si>
-    <t>2019-01-02 14:30:00</t>
-  </si>
-  <si>
-    <t>2018-12-28 13:39:00</t>
-  </si>
-  <si>
-    <t>2018-12-28 10:20:00</t>
-  </si>
-  <si>
-    <t>2018-12-27 14:58:00</t>
-  </si>
-  <si>
-    <t>2018-12-27 13:38:00</t>
-  </si>
-  <si>
-    <t>2018-12-25 13:54:00</t>
-  </si>
-  <si>
-    <t>2018-12-25 10:57:00</t>
-  </si>
-  <si>
-    <t>2018-12-25 09:34:00</t>
-  </si>
-  <si>
-    <t>2018-12-25 09:31:00</t>
-  </si>
-  <si>
-    <t>2018-12-24 13:20:00</t>
-  </si>
-  <si>
-    <t>2018-12-24 11:09:00</t>
-  </si>
-  <si>
-    <t>2018-12-24 10:41:00</t>
-  </si>
-  <si>
-    <t>2018-12-21 10:27:00</t>
-  </si>
-  <si>
-    <t>2018-12-21 09:54:00</t>
-  </si>
-  <si>
-    <t>2018-12-20 14:01:00</t>
-  </si>
-  <si>
-    <t>2018-12-20 10:20:00</t>
-  </si>
-  <si>
-    <t>2018-12-19 14:45:00</t>
-  </si>
-  <si>
-    <t>2018-12-19 13:02:00</t>
-  </si>
-  <si>
-    <t>2018-12-19 10:19:00</t>
-  </si>
-  <si>
-    <t>2018-12-19 10:09:00</t>
-  </si>
-  <si>
-    <t>2018-12-17 10:18:00</t>
+    <t>2019-01-25 10:40:00</t>
+  </si>
+  <si>
+    <t>2019-01-24 10:38:00</t>
+  </si>
+  <si>
+    <t>2019-01-23 13:30:00</t>
+  </si>
+  <si>
+    <t>2019-01-23 10:17:00</t>
+  </si>
+  <si>
+    <t>2019-01-22 13:19:00</t>
+  </si>
+  <si>
+    <t>2019-01-21 15:00:00</t>
+  </si>
+  <si>
+    <t>2019-01-21 14:22:00</t>
+  </si>
+  <si>
+    <t>2019-01-21 11:17:00</t>
+  </si>
+  <si>
+    <t>2019-01-18 14:20:00</t>
+  </si>
+  <si>
+    <t>2019-01-18 13:16:00</t>
+  </si>
+  <si>
+    <t>2019-01-18 10:36:00</t>
+  </si>
+  <si>
+    <t>2019-01-18 10:06:00</t>
+  </si>
+  <si>
+    <t>2019-01-17 11:03:00</t>
+  </si>
+  <si>
+    <t>2019-01-15 10:41:00</t>
+  </si>
+  <si>
+    <t>2019-01-15 10:32:00</t>
+  </si>
+  <si>
+    <t>2019-01-14 13:39:00</t>
+  </si>
+  <si>
+    <t>2019-01-14 11:25:00</t>
+  </si>
+  <si>
+    <t>2019-01-14 10:23:00</t>
+  </si>
+  <si>
+    <t>2019-01-11 10:42:00</t>
+  </si>
+  <si>
+    <t>2019-01-11 10:32:00</t>
+  </si>
+  <si>
+    <t>2019-01-10 14:26:00</t>
+  </si>
+  <si>
+    <t>2019-01-10 13:36:00</t>
+  </si>
+  <si>
+    <t>2019-01-09 13:17:00</t>
+  </si>
+  <si>
+    <t>2019-01-09 11:01:00</t>
+  </si>
+  <si>
+    <t>2019-01-09 10:02:00</t>
+  </si>
+  <si>
+    <t>2019-01-08 14:03:00</t>
+  </si>
+  <si>
+    <t>2019-01-08 13:53:00</t>
+  </si>
+  <si>
+    <t>2019-01-08 13:43:00</t>
+  </si>
+  <si>
+    <t>2019-01-08 13:08:00</t>
+  </si>
+  <si>
+    <t>2019-01-08 09:43:00</t>
+  </si>
+  <si>
+    <t>2019-01-07 14:15:00</t>
+  </si>
+  <si>
+    <t>2019-01-07 13:23:00</t>
+  </si>
+  <si>
+    <t>2019-01-07 13:03:00</t>
+  </si>
+  <si>
+    <t>2019-01-04 14:08:00</t>
+  </si>
+  <si>
+    <t>2019-01-04 11:22:00</t>
+  </si>
+  <si>
+    <t>2019-01-04 10:20:00</t>
+  </si>
+  <si>
+    <t>2019-01-03 14:53:00</t>
+  </si>
+  <si>
+    <t>2019-01-03 13:23:00</t>
+  </si>
+  <si>
+    <t>2019-01-03 10:13:00</t>
+  </si>
+  <si>
+    <t>2019-01-02 13:10:00</t>
+  </si>
+  <si>
+    <t>2019-01-02 10:33:00</t>
+  </si>
+  <si>
+    <t>2019-01-02 09:44:00</t>
+  </si>
+  <si>
+    <t>2018-12-28 14:02:00</t>
+  </si>
+  <si>
+    <t>2018-12-28 13:04:00</t>
+  </si>
+  <si>
+    <t>2018-12-28 11:17:00</t>
+  </si>
+  <si>
+    <t>2018-12-28 09:33:00</t>
+  </si>
+  <si>
+    <t>2018-12-27 09:44:00</t>
+  </si>
+  <si>
+    <t>2018-12-27 09:35:00</t>
+  </si>
+  <si>
+    <t>2018-12-26 13:21:00</t>
+  </si>
+  <si>
+    <t>2018-12-26 11:25:00</t>
+  </si>
+  <si>
+    <t>2018-12-26 11:23:00</t>
+  </si>
+  <si>
+    <t>2018-12-26 11:15:00</t>
+  </si>
+  <si>
+    <t>2018-12-25 14:28:00</t>
+  </si>
+  <si>
+    <t>2018-12-25 11:03:00</t>
+  </si>
+  <si>
+    <t>2018-12-24 14:45:00</t>
+  </si>
+  <si>
+    <t>2018-12-24 10:44:00</t>
+  </si>
+  <si>
+    <t>2018-12-20 15:00:00</t>
+  </si>
+  <si>
+    <t>2018-12-20 13:36:00</t>
+  </si>
+  <si>
+    <t>2018-12-20 11:07:00</t>
+  </si>
+  <si>
+    <t>2018-12-20 10:36:00</t>
+  </si>
+  <si>
+    <t>2018-12-20 09:55:00</t>
+  </si>
+  <si>
+    <t>2018-12-19 14:24:00</t>
+  </si>
+  <si>
+    <t>2018-12-17 14:38:00</t>
+  </si>
+  <si>
+    <t>2018-12-17 13:36:00</t>
+  </si>
+  <si>
+    <t>2018-12-17 13:32:00</t>
+  </si>
+  <si>
+    <t>2018-12-17 13:22:00</t>
   </si>
   <si>
     <t>2018-12-14 13:44:00</t>
   </si>
   <si>
-    <t>2018-12-14 10:35:00</t>
-  </si>
-  <si>
-    <t>2018-12-14 09:40:00</t>
-  </si>
-  <si>
-    <t>2018-12-13 10:57:00</t>
-  </si>
-  <si>
-    <t>2018-12-13 10:54:00</t>
-  </si>
-  <si>
-    <t>2018-12-13 10:50:00</t>
-  </si>
-  <si>
-    <t>2018-12-13 10:46:00</t>
-  </si>
-  <si>
-    <t>2018-12-12 14:19:00</t>
-  </si>
-  <si>
-    <t>2018-12-12 10:19:00</t>
-  </si>
-  <si>
-    <t>2018-12-11 13:42:00</t>
-  </si>
-  <si>
-    <t>2018-12-10 13:41:00</t>
-  </si>
-  <si>
-    <t>2018-12-10 13:06:00</t>
-  </si>
-  <si>
-    <t>2018-12-10 10:28:00</t>
-  </si>
-  <si>
-    <t>2018-12-10 10:14:00</t>
-  </si>
-  <si>
-    <t>2018-12-10 10:04:00</t>
-  </si>
-  <si>
-    <t>2018-12-07 14:50:00</t>
-  </si>
-  <si>
-    <t>2018-12-07 13:47:00</t>
-  </si>
-  <si>
-    <t>2018-12-07 11:01:00</t>
-  </si>
-  <si>
-    <t>2018-12-07 10:50:00</t>
-  </si>
-  <si>
-    <t>2018-12-07 09:44:00</t>
+    <t>2018-12-13 14:32:00</t>
+  </si>
+  <si>
+    <t>2018-12-13 10:55:00</t>
+  </si>
+  <si>
+    <t>2018-12-13 10:25:00</t>
+  </si>
+  <si>
+    <t>2018-12-12 14:42:00</t>
+  </si>
+  <si>
+    <t>2018-12-12 11:12:00</t>
+  </si>
+  <si>
+    <t>2018-12-12 11:03:00</t>
+  </si>
+  <si>
+    <t>2018-12-11 11:08:00</t>
+  </si>
+  <si>
+    <t>2018-12-10 13:14:00</t>
+  </si>
+  <si>
+    <t>2018-12-10 10:20:00</t>
+  </si>
+  <si>
+    <t>2018-12-06 14:04:00</t>
+  </si>
+  <si>
+    <t>2018-12-06 14:01:00</t>
   </si>
   <si>
     <t>2018-12-06 10:47:00</t>
   </si>
   <si>
-    <t>2018-12-06 10:28:00</t>
+    <t>2018-12-06 10:16:00</t>
+  </si>
+  <si>
+    <t>2018-12-05 09:38:00</t>
   </si>
 </sst>
 </file>
@@ -1289,7 +1499,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D303"/>
+  <dimension ref="A1:D373"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1314,13 +1524,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>6.6</v>
+        <v>6.27</v>
       </c>
       <c r="C2">
-        <v>6.75851602026847</v>
+        <v>6.718665409110177</v>
       </c>
       <c r="D2">
-        <v>0.1585160202684701</v>
+        <v>0.4486654091101769</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1328,13 +1538,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>6.56</v>
+        <v>6.29</v>
       </c>
       <c r="C3">
-        <v>6.681979248462778</v>
+        <v>6.726675730219805</v>
       </c>
       <c r="D3">
-        <v>0.121979248462778</v>
+        <v>0.4366757302198048</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1342,13 +1552,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6.45</v>
+        <v>6.32</v>
       </c>
       <c r="C4">
-        <v>6.608563382402002</v>
+        <v>6.716304443916277</v>
       </c>
       <c r="D4">
-        <v>0.1585633824020016</v>
+        <v>0.3963044439162768</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1356,13 +1566,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>6.48</v>
+        <v>6.32</v>
       </c>
       <c r="C5">
-        <v>6.621293152401659</v>
+        <v>6.716304443916277</v>
       </c>
       <c r="D5">
-        <v>0.1412931524016585</v>
+        <v>0.3963044439162768</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1370,13 +1580,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>6.57</v>
+        <v>6.32</v>
       </c>
       <c r="C6">
-        <v>6.519293888947072</v>
+        <v>6.716753398269169</v>
       </c>
       <c r="D6">
-        <v>-0.05070611105292855</v>
+        <v>0.3967533982691691</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1384,13 +1594,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>6.6</v>
+        <v>6.37</v>
       </c>
       <c r="C7">
-        <v>6.583626615849983</v>
+        <v>6.751669036956233</v>
       </c>
       <c r="D7">
-        <v>-0.01637338415001643</v>
+        <v>0.3816690369562332</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1398,13 +1608,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>6.64</v>
+        <v>6.32</v>
       </c>
       <c r="C8">
-        <v>6.579546900269399</v>
+        <v>6.738433606969046</v>
       </c>
       <c r="D8">
-        <v>-0.06045309973060053</v>
+        <v>0.418433606969046</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1412,13 +1622,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>6.61</v>
+        <v>6.34</v>
       </c>
       <c r="C9">
-        <v>6.479349217952606</v>
+        <v>6.74739511021783</v>
       </c>
       <c r="D9">
-        <v>-0.1306507820473941</v>
+        <v>0.4073951102178306</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1426,13 +1636,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>6.66</v>
+        <v>6.59</v>
       </c>
       <c r="C10">
-        <v>6.504252508808042</v>
+        <v>6.683881715719464</v>
       </c>
       <c r="D10">
-        <v>-0.1557474911919581</v>
+        <v>0.0938817157194638</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1440,13 +1650,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>6.57</v>
+        <v>6.59</v>
       </c>
       <c r="C11">
-        <v>6.503002230281439</v>
+        <v>6.674415294166284</v>
       </c>
       <c r="D11">
-        <v>-0.06699776971856153</v>
+        <v>0.08441529416628413</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1454,13 +1664,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>6.49</v>
+        <v>6.65</v>
       </c>
       <c r="C12">
-        <v>6.484622998887392</v>
+        <v>6.788410164267944</v>
       </c>
       <c r="D12">
-        <v>-0.005377001112607971</v>
+        <v>0.1384101642679436</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1468,13 +1678,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>6.68</v>
+        <v>6.58</v>
       </c>
       <c r="C13">
-        <v>6.706962651536053</v>
+        <v>6.702086499964196</v>
       </c>
       <c r="D13">
-        <v>0.02696265153605282</v>
+        <v>0.1220864999641957</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1482,13 +1692,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>6.74</v>
+        <v>6.6</v>
       </c>
       <c r="C14">
-        <v>6.755784125027265</v>
+        <v>6.72686356127393</v>
       </c>
       <c r="D14">
-        <v>0.01578412502726501</v>
+        <v>0.1268635612739306</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1496,13 +1706,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>6.6</v>
+        <v>6.59</v>
       </c>
       <c r="C15">
-        <v>6.652597968332095</v>
+        <v>6.743927281813537</v>
       </c>
       <c r="D15">
-        <v>0.05259796833209585</v>
+        <v>0.1539272818135373</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1510,13 +1720,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>6.6</v>
+        <v>6.61</v>
       </c>
       <c r="C16">
-        <v>6.657538547275539</v>
+        <v>6.606219508472519</v>
       </c>
       <c r="D16">
-        <v>0.05753854727553964</v>
+        <v>-0.003780491527481722</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1524,13 +1734,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>6.63</v>
+        <v>6.56</v>
       </c>
       <c r="C17">
-        <v>6.703908427597353</v>
+        <v>6.560003911967591</v>
       </c>
       <c r="D17">
-        <v>0.07390842759735339</v>
+        <v>3.91196759164103e-06</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1538,13 +1748,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>6.69</v>
+        <v>6.58</v>
       </c>
       <c r="C18">
-        <v>6.745155583142706</v>
+        <v>6.618492319710542</v>
       </c>
       <c r="D18">
-        <v>0.05515558314270574</v>
+        <v>0.03849231971054223</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1552,13 +1762,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>6.69</v>
+        <v>6.61</v>
       </c>
       <c r="C19">
-        <v>6.74674125184899</v>
+        <v>6.605567916144551</v>
       </c>
       <c r="D19">
-        <v>0.05674125184898937</v>
+        <v>-0.004432083855449243</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1566,13 +1776,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>6.64</v>
+        <v>7.07</v>
       </c>
       <c r="C20">
-        <v>6.697291252724749</v>
+        <v>6.810073842436118</v>
       </c>
       <c r="D20">
-        <v>0.05729125272474977</v>
+        <v>-0.259926157563882</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1580,13 +1790,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>6.65</v>
+        <v>7.09</v>
       </c>
       <c r="C21">
-        <v>6.693408043884945</v>
+        <v>6.803727832368367</v>
       </c>
       <c r="D21">
-        <v>0.0434080438849449</v>
+        <v>-0.2862721676316333</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1594,13 +1804,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>6.57</v>
+        <v>7.15</v>
       </c>
       <c r="C22">
-        <v>6.60929638116257</v>
+        <v>6.872601213395486</v>
       </c>
       <c r="D22">
-        <v>0.03929638116257017</v>
+        <v>-0.2773987866045147</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1608,13 +1818,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>6.58</v>
+        <v>7.15</v>
       </c>
       <c r="C23">
-        <v>6.531935664954233</v>
+        <v>6.769630159230225</v>
       </c>
       <c r="D23">
-        <v>-0.04806433504576724</v>
+        <v>-0.3803698407697755</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1622,13 +1832,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>6.42</v>
+        <v>7.19</v>
       </c>
       <c r="C24">
-        <v>6.489723810625803</v>
+        <v>6.77457690138108</v>
       </c>
       <c r="D24">
-        <v>0.06972381062580268</v>
+        <v>-0.4154230986189207</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1636,13 +1846,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>6.31</v>
+        <v>6.95</v>
       </c>
       <c r="C25">
-        <v>6.38319949904905</v>
+        <v>6.866668204145791</v>
       </c>
       <c r="D25">
-        <v>0.07319949904905076</v>
+        <v>-0.08333179585420947</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1650,13 +1860,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>6.34</v>
+        <v>6.98</v>
       </c>
       <c r="C26">
-        <v>6.374093151890492</v>
+        <v>6.841791200270105</v>
       </c>
       <c r="D26">
-        <v>0.03409315189049167</v>
+        <v>-0.1382087997298953</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1664,13 +1874,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>6.56</v>
+        <v>6.91</v>
       </c>
       <c r="C27">
-        <v>6.578165222718209</v>
+        <v>6.871309917226638</v>
       </c>
       <c r="D27">
-        <v>0.01816522271820897</v>
+        <v>-0.03869008277336228</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1678,13 +1888,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>6.85</v>
+        <v>6.88</v>
       </c>
       <c r="C28">
-        <v>6.666677155846575</v>
+        <v>6.858947572889278</v>
       </c>
       <c r="D28">
-        <v>-0.1833228441534249</v>
+        <v>-0.02105242711072197</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1692,13 +1902,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>6.94</v>
+        <v>6.72</v>
       </c>
       <c r="C29">
-        <v>6.756755175883651</v>
+        <v>6.706128592917686</v>
       </c>
       <c r="D29">
-        <v>-0.1832448241163496</v>
+        <v>-0.0138714070823136</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1706,13 +1916,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>7.08</v>
+        <v>6.75</v>
       </c>
       <c r="C30">
-        <v>7.014170734283312</v>
+        <v>6.703871239940151</v>
       </c>
       <c r="D30">
-        <v>-0.06582926571668857</v>
+        <v>-0.04612876005984923</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1720,13 +1930,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>7.07</v>
+        <v>6.8</v>
       </c>
       <c r="C31">
-        <v>7.066589664957581</v>
+        <v>6.72210089581017</v>
       </c>
       <c r="D31">
-        <v>-0.003410335042419277</v>
+        <v>-0.07789910418982959</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1734,13 +1944,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>7.19</v>
+        <v>6.91</v>
       </c>
       <c r="C32">
-        <v>7.197817213433511</v>
+        <v>6.795270094934697</v>
       </c>
       <c r="D32">
-        <v>0.00781721343351105</v>
+        <v>-0.1147299050653032</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1748,13 +1958,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>7.18</v>
+        <v>6.96</v>
       </c>
       <c r="C33">
-        <v>7.338528651252956</v>
+        <v>6.797474590187363</v>
       </c>
       <c r="D33">
-        <v>0.158528651252956</v>
+        <v>-0.1625254098126367</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1762,13 +1972,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>7.23</v>
+        <v>6.92</v>
       </c>
       <c r="C34">
-        <v>7.395933530445729</v>
+        <v>6.727020588251271</v>
       </c>
       <c r="D34">
-        <v>0.165933530445729</v>
+        <v>-0.1929794117487287</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1776,13 +1986,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>7.12</v>
+        <v>6.98</v>
       </c>
       <c r="C35">
-        <v>7.248702414711675</v>
+        <v>6.788023173324284</v>
       </c>
       <c r="D35">
-        <v>0.1287024147116744</v>
+        <v>-0.1919768266757167</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1790,13 +2000,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>7.01</v>
+        <v>7.04</v>
       </c>
       <c r="C36">
-        <v>7.503284184703215</v>
+        <v>6.812240428912155</v>
       </c>
       <c r="D36">
-        <v>0.4932841847032154</v>
+        <v>-0.2277595710878453</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1804,13 +2014,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>6.95</v>
+        <v>7.04</v>
       </c>
       <c r="C37">
-        <v>7.381991969223638</v>
+        <v>6.75903951123404</v>
       </c>
       <c r="D37">
-        <v>0.4319919692236374</v>
+        <v>-0.2809604887659605</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1818,13 +2028,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>6.94</v>
+        <v>7.27</v>
       </c>
       <c r="C38">
-        <v>7.387053242716418</v>
+        <v>6.834140252975162</v>
       </c>
       <c r="D38">
-        <v>0.4470532427164171</v>
+        <v>-0.4358597470248373</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1832,13 +2042,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>6.97</v>
+        <v>7.39</v>
       </c>
       <c r="C39">
-        <v>7.421532513134794</v>
+        <v>7.020136082405504</v>
       </c>
       <c r="D39">
-        <v>0.4515325131347945</v>
+        <v>-0.369863917594496</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1846,13 +2056,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>6.83</v>
+        <v>7.35</v>
       </c>
       <c r="C40">
-        <v>7.272790549837136</v>
+        <v>7.033748651421284</v>
       </c>
       <c r="D40">
-        <v>0.4427905498371363</v>
+        <v>-0.3162513485787155</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1860,13 +2070,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>6.88</v>
+        <v>7.22</v>
       </c>
       <c r="C41">
-        <v>7.336755576176435</v>
+        <v>6.977236463511735</v>
       </c>
       <c r="D41">
-        <v>0.4567555761764348</v>
+        <v>-0.2427635364882645</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1874,13 +2084,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>6.95</v>
+        <v>7.15</v>
       </c>
       <c r="C42">
-        <v>7.409576223078117</v>
+        <v>7.018201867231802</v>
       </c>
       <c r="D42">
-        <v>0.4595762230781171</v>
+        <v>-0.1317981327681981</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1888,13 +2098,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>6.96</v>
+        <v>7.05</v>
       </c>
       <c r="C43">
-        <v>7.440830114623688</v>
+        <v>6.927449527447994</v>
       </c>
       <c r="D43">
-        <v>0.4808301146236884</v>
+        <v>-0.1225504725520059</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1902,13 +2112,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>6.99</v>
+        <v>7.11</v>
       </c>
       <c r="C44">
-        <v>7.486366796360919</v>
+        <v>6.946557304763632</v>
       </c>
       <c r="D44">
-        <v>0.4963667963609186</v>
+        <v>-0.1634426952363688</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1916,13 +2126,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>7.09</v>
+        <v>7.16</v>
       </c>
       <c r="C45">
-        <v>7.478672582392056</v>
+        <v>6.994012136826315</v>
       </c>
       <c r="D45">
-        <v>0.388672582392056</v>
+        <v>-0.1659878631736849</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1930,13 +2140,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>7.06</v>
+        <v>7.09</v>
       </c>
       <c r="C46">
-        <v>7.48267367188199</v>
+        <v>7.02643292687625</v>
       </c>
       <c r="D46">
-        <v>0.4226736718819906</v>
+        <v>-0.06356707312374965</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1944,13 +2154,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>7.24</v>
+        <v>7.08</v>
       </c>
       <c r="C47">
-        <v>7.597311844455406</v>
+        <v>7.021699741966103</v>
       </c>
       <c r="D47">
-        <v>0.3573118444554062</v>
+        <v>-0.05830025803389738</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1958,13 +2168,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>7.19</v>
+        <v>7.1</v>
       </c>
       <c r="C48">
-        <v>7.52277916502811</v>
+        <v>6.999715255692063</v>
       </c>
       <c r="D48">
-        <v>0.3327791650281098</v>
+        <v>-0.1002847443079364</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1972,13 +2182,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>7.15</v>
+        <v>6.99</v>
       </c>
       <c r="C49">
-        <v>7.390543581323989</v>
+        <v>6.894142237470524</v>
       </c>
       <c r="D49">
-        <v>0.2405435813239887</v>
+        <v>-0.09585776252947653</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1986,13 +2196,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>7.11</v>
+        <v>6.79</v>
       </c>
       <c r="C50">
-        <v>7.293980006238685</v>
+        <v>6.910643652596034</v>
       </c>
       <c r="D50">
-        <v>0.1839800062386852</v>
+        <v>0.1206436525960344</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2000,13 +2210,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>7.02</v>
+        <v>6.79</v>
       </c>
       <c r="C51">
-        <v>7.283318271664792</v>
+        <v>6.852163304347032</v>
       </c>
       <c r="D51">
-        <v>0.2633182716647919</v>
+        <v>0.06216330434703199</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2014,13 +2224,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>7.09</v>
+        <v>6.75</v>
       </c>
       <c r="C52">
-        <v>7.282315111597399</v>
+        <v>6.868633754276617</v>
       </c>
       <c r="D52">
-        <v>0.1923151115973987</v>
+        <v>0.1186337542766172</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2028,13 +2238,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>7.71</v>
+        <v>6.67</v>
       </c>
       <c r="C53">
-        <v>7.596716844146412</v>
+        <v>6.810019533869724</v>
       </c>
       <c r="D53">
-        <v>-0.1132831558535878</v>
+        <v>0.1400195338697241</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2042,13 +2252,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>7.7</v>
+        <v>6.68</v>
       </c>
       <c r="C54">
-        <v>7.595198025160904</v>
+        <v>6.884159542683426</v>
       </c>
       <c r="D54">
-        <v>-0.1048019748390958</v>
+        <v>0.204159542683426</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2056,13 +2266,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>7.3</v>
+        <v>6.68</v>
       </c>
       <c r="C55">
-        <v>7.469091112737415</v>
+        <v>6.923593253823681</v>
       </c>
       <c r="D55">
-        <v>0.1690911127374148</v>
+        <v>0.2435932538236809</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2070,13 +2280,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>7.3</v>
+        <v>6.64</v>
       </c>
       <c r="C56">
-        <v>7.492429904430107</v>
+        <v>6.869739259269467</v>
       </c>
       <c r="D56">
-        <v>0.1924299044301074</v>
+        <v>0.2297392592694676</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2084,13 +2294,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>7.32</v>
+        <v>6.67</v>
       </c>
       <c r="C57">
-        <v>7.446228305270445</v>
+        <v>6.894312341995166</v>
       </c>
       <c r="D57">
-        <v>0.1262283052704447</v>
+        <v>0.2243123419951658</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2098,13 +2308,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>7.27</v>
+        <v>6.55</v>
       </c>
       <c r="C58">
-        <v>7.342429559666213</v>
+        <v>6.770390744876789</v>
       </c>
       <c r="D58">
-        <v>0.07242955966621345</v>
+        <v>0.2203907448767888</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2112,13 +2322,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>7.26</v>
+        <v>6.52</v>
       </c>
       <c r="C59">
-        <v>7.338010623226124</v>
+        <v>6.624519814040587</v>
       </c>
       <c r="D59">
-        <v>0.07801062322612395</v>
+        <v>0.1045198140405876</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2126,13 +2336,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>7.26</v>
+        <v>6.53</v>
       </c>
       <c r="C60">
-        <v>7.348312773619103</v>
+        <v>6.606555234510898</v>
       </c>
       <c r="D60">
-        <v>0.08831277361910317</v>
+        <v>0.07655523451089774</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2140,13 +2350,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>7.27</v>
+        <v>6.58</v>
       </c>
       <c r="C61">
-        <v>7.230521787663964</v>
+        <v>6.592309237746342</v>
       </c>
       <c r="D61">
-        <v>-0.03947821233603577</v>
+        <v>0.01230923774634185</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2154,13 +2364,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>7.18</v>
+        <v>6.54</v>
       </c>
       <c r="C62">
-        <v>7.263148046421056</v>
+        <v>6.62835481061742</v>
       </c>
       <c r="D62">
-        <v>0.08314804642105678</v>
+        <v>0.08835481061742012</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2168,13 +2378,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>7.21</v>
+        <v>6.57</v>
       </c>
       <c r="C63">
-        <v>7.243689644602679</v>
+        <v>6.575228215252107</v>
       </c>
       <c r="D63">
-        <v>0.03368964460267865</v>
+        <v>0.005228215252106594</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2182,13 +2392,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>7.19</v>
+        <v>6.67</v>
       </c>
       <c r="C64">
-        <v>7.238083609148184</v>
+        <v>6.712253923995538</v>
       </c>
       <c r="D64">
-        <v>0.04808360914818355</v>
+        <v>0.0422539239955384</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2196,13 +2406,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>7.49</v>
+        <v>6.54</v>
       </c>
       <c r="C65">
-        <v>7.45148536421234</v>
+        <v>6.686386110651238</v>
       </c>
       <c r="D65">
-        <v>-0.03851463578766001</v>
+        <v>0.1463861106512381</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2210,13 +2420,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>7.31</v>
+        <v>6.61</v>
       </c>
       <c r="C66">
-        <v>7.277984574516188</v>
+        <v>6.769951384200077</v>
       </c>
       <c r="D66">
-        <v>-0.03201542548381209</v>
+        <v>0.1599513842000766</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2224,13 +2434,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>7.4</v>
+        <v>6.57</v>
       </c>
       <c r="C67">
-        <v>7.227087059290534</v>
+        <v>6.664915223474567</v>
       </c>
       <c r="D67">
-        <v>-0.1729129407094661</v>
+        <v>0.09491522347456716</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2238,13 +2448,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>7.34</v>
+        <v>6.57</v>
       </c>
       <c r="C68">
-        <v>7.159642533810334</v>
+        <v>6.633772394311935</v>
       </c>
       <c r="D68">
-        <v>-0.1803574661896654</v>
+        <v>0.06377239431193438</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2252,13 +2462,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>7.16</v>
+        <v>6.55</v>
       </c>
       <c r="C69">
-        <v>7.151413871789444</v>
+        <v>6.623424307176295</v>
       </c>
       <c r="D69">
-        <v>-0.008586128210556154</v>
+        <v>0.07342430717629522</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2266,13 +2476,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>7.15</v>
+        <v>6.48</v>
       </c>
       <c r="C70">
-        <v>7.022726260360779</v>
+        <v>6.63788908043529</v>
       </c>
       <c r="D70">
-        <v>-0.1272737396392216</v>
+        <v>0.1578890804352895</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2280,13 +2490,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>7.28</v>
+        <v>6.47</v>
       </c>
       <c r="C71">
-        <v>7.173151477063868</v>
+        <v>6.59413982325615</v>
       </c>
       <c r="D71">
-        <v>-0.106848522936132</v>
+        <v>0.1241398232561499</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2294,13 +2504,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>7.76</v>
+        <v>6.65</v>
       </c>
       <c r="C72">
-        <v>7.262325944214229</v>
+        <v>6.580503671522454</v>
       </c>
       <c r="D72">
-        <v>-0.4976740557857706</v>
+        <v>-0.0694963284775465</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2308,13 +2518,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>7.89</v>
+        <v>6.61</v>
       </c>
       <c r="C73">
-        <v>7.322378617229337</v>
+        <v>6.50008043498746</v>
       </c>
       <c r="D73">
-        <v>-0.5676213827706631</v>
+        <v>-0.1099195650125404</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2322,13 +2532,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>7.93</v>
+        <v>6.66</v>
       </c>
       <c r="C74">
-        <v>7.287682243539617</v>
+        <v>6.50745232092051</v>
       </c>
       <c r="D74">
-        <v>-0.6423177564603826</v>
+        <v>-0.1525476790794897</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2336,13 +2546,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>7.85</v>
+        <v>6.6</v>
       </c>
       <c r="C75">
-        <v>7.26112568608499</v>
+        <v>6.474828995486872</v>
       </c>
       <c r="D75">
-        <v>-0.5888743139150101</v>
+        <v>-0.1251710045131276</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2350,13 +2560,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>7.94</v>
+        <v>6.58</v>
       </c>
       <c r="C76">
-        <v>7.308561385464561</v>
+        <v>6.491323839391626</v>
       </c>
       <c r="D76">
-        <v>-0.6314386145354396</v>
+        <v>-0.08867616060837413</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2364,13 +2574,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>8.25</v>
+        <v>6.57</v>
       </c>
       <c r="C77">
-        <v>7.649972094385653</v>
+        <v>6.414175714231982</v>
       </c>
       <c r="D77">
-        <v>-0.6000279056143469</v>
+        <v>-0.1558242857680181</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2378,13 +2588,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>8.279999999999999</v>
+        <v>6.74</v>
       </c>
       <c r="C78">
-        <v>7.764676946288377</v>
+        <v>6.707103738534368</v>
       </c>
       <c r="D78">
-        <v>-0.5153230537116222</v>
+        <v>-0.03289626146563229</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2392,13 +2602,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>8.24</v>
+        <v>6.74</v>
       </c>
       <c r="C79">
-        <v>7.760179129910087</v>
+        <v>6.6864372635862</v>
       </c>
       <c r="D79">
-        <v>-0.4798208700899131</v>
+        <v>-0.05356273641380049</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2406,13 +2616,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>7.95</v>
+        <v>6.69</v>
       </c>
       <c r="C80">
-        <v>7.914550034307899</v>
+        <v>6.665601782190727</v>
       </c>
       <c r="D80">
-        <v>-0.03544996569210124</v>
+        <v>-0.02439821780927343</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2420,13 +2630,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>7.93</v>
+        <v>6.76</v>
       </c>
       <c r="C81">
-        <v>7.81376839867853</v>
+        <v>6.628116191788978</v>
       </c>
       <c r="D81">
-        <v>-0.1162316013214699</v>
+        <v>-0.1318838082110219</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2434,13 +2644,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>7.6</v>
+        <v>6.62</v>
       </c>
       <c r="C82">
-        <v>7.766993228088189</v>
+        <v>6.692198392054911</v>
       </c>
       <c r="D82">
-        <v>0.1669932280881898</v>
+        <v>0.07219839205491052</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2448,13 +2658,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>8.140000000000001</v>
+        <v>6.63</v>
       </c>
       <c r="C83">
-        <v>8.141892329275308</v>
+        <v>6.709238684278683</v>
       </c>
       <c r="D83">
-        <v>0.001892329275307247</v>
+        <v>0.07923868427868275</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2462,13 +2672,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>7.86</v>
+        <v>6.68</v>
       </c>
       <c r="C84">
-        <v>8.415795542623963</v>
+        <v>6.737432441278731</v>
       </c>
       <c r="D84">
-        <v>0.5557955426239625</v>
+        <v>0.05743244127873126</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2476,13 +2686,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>7.71</v>
+        <v>6.67</v>
       </c>
       <c r="C85">
-        <v>8.23825778880847</v>
+        <v>6.695214068279753</v>
       </c>
       <c r="D85">
-        <v>0.5282577888084701</v>
+        <v>0.02521406827975348</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2490,13 +2700,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>7.83</v>
+        <v>6.54</v>
       </c>
       <c r="C86">
-        <v>8.209557499866005</v>
+        <v>6.47992812385672</v>
       </c>
       <c r="D86">
-        <v>0.3795574998660047</v>
+        <v>-0.06007187614328036</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2504,13 +2714,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>7.97</v>
+        <v>6.55</v>
       </c>
       <c r="C87">
-        <v>8.283785512917182</v>
+        <v>6.502553919620977</v>
       </c>
       <c r="D87">
-        <v>0.3137855129171827</v>
+        <v>-0.04744608037902243</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2518,13 +2728,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>8.41</v>
+        <v>6.4</v>
       </c>
       <c r="C88">
-        <v>8.070526561442563</v>
+        <v>6.441582004084529</v>
       </c>
       <c r="D88">
-        <v>-0.3394734385574374</v>
+        <v>0.04158200408452828</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2532,13 +2742,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>8.550000000000001</v>
+        <v>6.38</v>
       </c>
       <c r="C89">
-        <v>8.054380225464463</v>
+        <v>6.40839577749664</v>
       </c>
       <c r="D89">
-        <v>-0.4956197745355375</v>
+        <v>0.02839577749664013</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2546,13 +2756,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>8.44</v>
+        <v>6.56</v>
       </c>
       <c r="C90">
-        <v>7.956908098259639</v>
+        <v>6.6290656486901</v>
       </c>
       <c r="D90">
-        <v>-0.4830919017403605</v>
+        <v>0.06906564869010001</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2560,13 +2770,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>9.130000000000001</v>
+        <v>6.66</v>
       </c>
       <c r="C91">
-        <v>8.205318720373549</v>
+        <v>6.526538532754008</v>
       </c>
       <c r="D91">
-        <v>-0.9246812796264514</v>
+        <v>-0.1334614672459917</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2574,13 +2784,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>8.98</v>
+        <v>6.53</v>
       </c>
       <c r="C92">
-        <v>8.211437493027812</v>
+        <v>6.517515722789305</v>
       </c>
       <c r="D92">
-        <v>-0.768562506972188</v>
+        <v>-0.01248427721069501</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2588,13 +2798,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>9</v>
+        <v>6.51</v>
       </c>
       <c r="C93">
-        <v>8.182492500870081</v>
+        <v>6.499672706584455</v>
       </c>
       <c r="D93">
-        <v>-0.8175074991299187</v>
+        <v>-0.0103272934155445</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2602,13 +2812,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>9.06</v>
+        <v>6.56</v>
       </c>
       <c r="C94">
-        <v>8.236931416278617</v>
+        <v>6.521430853442901</v>
       </c>
       <c r="D94">
-        <v>-0.8230685837213834</v>
+        <v>-0.03856914655709875</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2616,13 +2826,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>8.91</v>
+        <v>6.62</v>
       </c>
       <c r="C95">
-        <v>8.197699460214249</v>
+        <v>6.57571318257823</v>
       </c>
       <c r="D95">
-        <v>-0.7123005397857511</v>
+        <v>-0.04428681742176988</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2630,13 +2840,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>8.67</v>
+        <v>6.61</v>
       </c>
       <c r="C96">
-        <v>8.133519934394343</v>
+        <v>6.566777969423065</v>
       </c>
       <c r="D96">
-        <v>-0.536480065605657</v>
+        <v>-0.04322203057693574</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2644,13 +2854,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>8.029999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="C97">
-        <v>8.02549321522403</v>
+        <v>6.621058883015055</v>
       </c>
       <c r="D97">
-        <v>-0.004506784775969663</v>
+        <v>0.02105888301505487</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2658,13 +2868,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>8.039999999999999</v>
+        <v>6.87</v>
       </c>
       <c r="C98">
-        <v>8.065055268155389</v>
+        <v>6.689109791496728</v>
       </c>
       <c r="D98">
-        <v>0.0250552681553895</v>
+        <v>-0.1808902085032722</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2672,13 +2882,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>8.050000000000001</v>
+        <v>6.89</v>
       </c>
       <c r="C99">
-        <v>8.114207659770731</v>
+        <v>6.751268549642939</v>
       </c>
       <c r="D99">
-        <v>0.06420765977073017</v>
+        <v>-0.1387314503570609</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2686,13 +2896,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>8.43</v>
+        <v>6.96</v>
       </c>
       <c r="C100">
-        <v>8.157865016050293</v>
+        <v>6.836573516219309</v>
       </c>
       <c r="D100">
-        <v>-0.2721349839497069</v>
+        <v>-0.1234264837806913</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2700,13 +2910,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>7.93</v>
+        <v>7.03</v>
       </c>
       <c r="C101">
-        <v>7.867451486129244</v>
+        <v>6.853476953485439</v>
       </c>
       <c r="D101">
-        <v>-0.06254851387075533</v>
+        <v>-0.1765230465145615</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2714,13 +2924,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>7.68</v>
+        <v>7.05</v>
       </c>
       <c r="C102">
-        <v>7.735925879372843</v>
+        <v>7.038503799020051</v>
       </c>
       <c r="D102">
-        <v>0.05592587937284321</v>
+        <v>-0.0114962009799493</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2728,13 +2938,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>7.66</v>
+        <v>7.06</v>
       </c>
       <c r="C103">
-        <v>7.625910576697294</v>
+        <v>7.041525528270142</v>
       </c>
       <c r="D103">
-        <v>-0.03408942330270648</v>
+        <v>-0.01847447172985728</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2742,13 +2952,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>8.16</v>
+        <v>7.05</v>
       </c>
       <c r="C104">
-        <v>8.146336341876793</v>
+        <v>7.040479170616345</v>
       </c>
       <c r="D104">
-        <v>-0.0136636581232068</v>
+        <v>-0.009520829383654394</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2756,13 +2966,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>8.18</v>
+        <v>7.08</v>
       </c>
       <c r="C105">
-        <v>8.047613661242215</v>
+        <v>7.167279471528881</v>
       </c>
       <c r="D105">
-        <v>-0.1323863387577848</v>
+        <v>0.08727947152888049</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2770,13 +2980,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>8.18</v>
+        <v>7.09</v>
       </c>
       <c r="C106">
-        <v>8.075520283048311</v>
+        <v>7.164028182368721</v>
       </c>
       <c r="D106">
-        <v>-0.1044797169516887</v>
+        <v>0.07402818236872122</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2784,13 +2994,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>7.82</v>
+        <v>7.08</v>
       </c>
       <c r="C107">
-        <v>8.04462412492262</v>
+        <v>7.205470308749279</v>
       </c>
       <c r="D107">
-        <v>0.2246241249226202</v>
+        <v>0.1254703087492786</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2798,13 +3008,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>7.61</v>
+        <v>7.12</v>
       </c>
       <c r="C108">
-        <v>7.761131703738688</v>
+        <v>7.229289180346504</v>
       </c>
       <c r="D108">
-        <v>0.1511317037386872</v>
+        <v>0.1092891803465035</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2812,13 +3022,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>7.52</v>
+        <v>7.1</v>
       </c>
       <c r="C109">
-        <v>7.792381663414522</v>
+        <v>7.118206891877447</v>
       </c>
       <c r="D109">
-        <v>0.2723816634145226</v>
+        <v>0.01820689187744762</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2826,13 +3036,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>7.55</v>
+        <v>7.21</v>
       </c>
       <c r="C110">
-        <v>7.724751646237003</v>
+        <v>7.255009545879933</v>
       </c>
       <c r="D110">
-        <v>0.1747516462370031</v>
+        <v>0.04500954587993267</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2840,13 +3050,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>7.52</v>
+        <v>6.85</v>
       </c>
       <c r="C111">
-        <v>7.644739450821238</v>
+        <v>7.342229865778798</v>
       </c>
       <c r="D111">
-        <v>0.1247394508212381</v>
+        <v>0.492229865778798</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2854,13 +3064,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>7.48</v>
+        <v>6.82</v>
       </c>
       <c r="C112">
-        <v>7.606323169307196</v>
+        <v>7.24880753612924</v>
       </c>
       <c r="D112">
-        <v>0.1263231693071951</v>
+        <v>0.4288075361292396</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2868,13 +3078,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>7.61</v>
+        <v>6.99</v>
       </c>
       <c r="C113">
-        <v>7.494056660754353</v>
+        <v>7.432416279901574</v>
       </c>
       <c r="D113">
-        <v>-0.1159433392456473</v>
+        <v>0.4424162799015736</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2882,13 +3092,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>7.63</v>
+        <v>7.03</v>
       </c>
       <c r="C114">
-        <v>7.866882499341575</v>
+        <v>7.505228070236814</v>
       </c>
       <c r="D114">
-        <v>0.2368824993415748</v>
+        <v>0.4752280702368141</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2896,13 +3106,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>7.68</v>
+        <v>6.88</v>
       </c>
       <c r="C115">
-        <v>7.887989114809615</v>
+        <v>7.346977184659423</v>
       </c>
       <c r="D115">
-        <v>0.2079891148096156</v>
+        <v>0.4669771846594228</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2910,13 +3120,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>7.69</v>
+        <v>6.99</v>
       </c>
       <c r="C116">
-        <v>7.995336869092389</v>
+        <v>7.46737483857545</v>
       </c>
       <c r="D116">
-        <v>0.3053368690923888</v>
+        <v>0.4773748385754502</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2924,13 +3134,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>7.68</v>
+        <v>7.06</v>
       </c>
       <c r="C117">
-        <v>7.905996166259264</v>
+        <v>7.46766858408534</v>
       </c>
       <c r="D117">
-        <v>0.2259961662592644</v>
+        <v>0.4076685840853402</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2938,13 +3148,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>7.67</v>
+        <v>7.19</v>
       </c>
       <c r="C118">
-        <v>7.924697738655487</v>
+        <v>7.540268160074099</v>
       </c>
       <c r="D118">
-        <v>0.2546977386554872</v>
+        <v>0.3502681600740987</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2952,13 +3162,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>7.61</v>
+        <v>7.18</v>
       </c>
       <c r="C119">
-        <v>7.878254113025761</v>
+        <v>7.503705404623027</v>
       </c>
       <c r="D119">
-        <v>0.268254113025761</v>
+        <v>0.323705404623027</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2966,13 +3176,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>7.61</v>
+        <v>7.2</v>
       </c>
       <c r="C120">
-        <v>7.838026893620189</v>
+        <v>7.440171097924523</v>
       </c>
       <c r="D120">
-        <v>0.2280268936201884</v>
+        <v>0.2401710979245228</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2980,13 +3190,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>7.68</v>
+        <v>7.22</v>
       </c>
       <c r="C121">
-        <v>7.966768155330172</v>
+        <v>7.57692679343706</v>
       </c>
       <c r="D121">
-        <v>0.2867681553301722</v>
+        <v>0.3569267934370606</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2994,13 +3204,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>7.71</v>
+        <v>7.23</v>
       </c>
       <c r="C122">
-        <v>7.993522423432713</v>
+        <v>7.600706716245105</v>
       </c>
       <c r="D122">
-        <v>0.2835224234327134</v>
+        <v>0.3707067162451043</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3008,13 +3218,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>7.72</v>
+        <v>7.23</v>
       </c>
       <c r="C123">
-        <v>7.990382002323424</v>
+        <v>7.602000493668163</v>
       </c>
       <c r="D123">
-        <v>0.2703820023234238</v>
+        <v>0.3720004936681622</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3022,13 +3232,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>7.32</v>
+        <v>7.23</v>
       </c>
       <c r="C124">
-        <v>7.582541276937501</v>
+        <v>7.581324793381395</v>
       </c>
       <c r="D124">
-        <v>0.2625412769375011</v>
+        <v>0.3513247933813943</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3036,13 +3246,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>7.3</v>
+        <v>7.25</v>
       </c>
       <c r="C125">
-        <v>7.588851052285674</v>
+        <v>7.403140715805799</v>
       </c>
       <c r="D125">
-        <v>0.2888510522856746</v>
+        <v>0.1531407158057991</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3050,13 +3260,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>7.39</v>
+        <v>7.04</v>
       </c>
       <c r="C126">
-        <v>7.483471406592782</v>
+        <v>7.238283748193693</v>
       </c>
       <c r="D126">
-        <v>0.09347140659278264</v>
+        <v>0.1982837481936928</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3064,13 +3274,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>7.21</v>
+        <v>7.6</v>
       </c>
       <c r="C127">
-        <v>7.461611039894025</v>
+        <v>7.489770528118477</v>
       </c>
       <c r="D127">
-        <v>0.2516110398940254</v>
+        <v>-0.1102294718815227</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3078,13 +3288,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>7.37</v>
+        <v>7.71</v>
       </c>
       <c r="C128">
-        <v>7.560307619411976</v>
+        <v>7.629210460463742</v>
       </c>
       <c r="D128">
-        <v>0.1903076194119757</v>
+        <v>-0.08078953953625767</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3092,13 +3302,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>7.45</v>
+        <v>7.4</v>
       </c>
       <c r="C129">
-        <v>7.536476260046157</v>
+        <v>7.585978050499801</v>
       </c>
       <c r="D129">
-        <v>0.08647626004615727</v>
+        <v>0.1859780504998003</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3106,13 +3316,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>7.91</v>
+        <v>7.31</v>
       </c>
       <c r="C130">
-        <v>7.874498907603936</v>
+        <v>7.557860343550313</v>
       </c>
       <c r="D130">
-        <v>-0.03550109239606414</v>
+        <v>0.2478603435503137</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3120,13 +3330,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>7.85</v>
+        <v>7.27</v>
       </c>
       <c r="C131">
-        <v>7.98396835092011</v>
+        <v>7.504444252991055</v>
       </c>
       <c r="D131">
-        <v>0.1339683509201102</v>
+        <v>0.2344442529910555</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3134,13 +3344,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>7.87</v>
+        <v>7.26</v>
       </c>
       <c r="C132">
-        <v>7.987723370600118</v>
+        <v>7.461367451955773</v>
       </c>
       <c r="D132">
-        <v>0.1177233706001184</v>
+        <v>0.2013674519557735</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3148,13 +3358,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>7.86</v>
+        <v>7.17</v>
       </c>
       <c r="C133">
-        <v>8.015014252947298</v>
+        <v>7.378504838219426</v>
       </c>
       <c r="D133">
-        <v>0.1550142529472973</v>
+        <v>0.2085048382194259</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3162,13 +3372,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>7.86</v>
+        <v>7.21</v>
       </c>
       <c r="C134">
-        <v>7.987072286108877</v>
+        <v>7.349538659519128</v>
       </c>
       <c r="D134">
-        <v>0.1270722861088762</v>
+        <v>0.1395386595191281</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3176,13 +3386,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>7.89</v>
+        <v>7.2</v>
       </c>
       <c r="C135">
-        <v>8.023496397960534</v>
+        <v>7.353343869645323</v>
       </c>
       <c r="D135">
-        <v>0.1334963979605339</v>
+        <v>0.1533438696453233</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3190,13 +3400,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>7.9</v>
+        <v>7.21</v>
       </c>
       <c r="C136">
-        <v>8.011486704777699</v>
+        <v>7.312063071546019</v>
       </c>
       <c r="D136">
-        <v>0.1114867047776986</v>
+        <v>0.1020630715460191</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3204,13 +3414,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>7.9</v>
+        <v>7.2</v>
       </c>
       <c r="C137">
-        <v>7.987882105968325</v>
+        <v>7.301914617583105</v>
       </c>
       <c r="D137">
-        <v>0.08788210596832435</v>
+        <v>0.1019146175831045</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3218,13 +3428,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>8.19</v>
+        <v>7.28</v>
       </c>
       <c r="C138">
-        <v>8.075933965201862</v>
+        <v>7.342347416254544</v>
       </c>
       <c r="D138">
-        <v>-0.114066034798137</v>
+        <v>0.06234741625454365</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3232,13 +3442,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>8.140000000000001</v>
+        <v>7.31</v>
       </c>
       <c r="C139">
-        <v>8.087438207217259</v>
+        <v>7.285178377457166</v>
       </c>
       <c r="D139">
-        <v>-0.05256179278274153</v>
+        <v>-0.02482162254283349</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3246,13 +3456,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>8.35</v>
+        <v>7.18</v>
       </c>
       <c r="C140">
-        <v>8.030710424964276</v>
+        <v>7.112319271865722</v>
       </c>
       <c r="D140">
-        <v>-0.3192895750357234</v>
+        <v>-0.0676807281342775</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3260,13 +3470,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>8.35</v>
+        <v>7.89</v>
       </c>
       <c r="C141">
-        <v>7.994467363474525</v>
+        <v>7.309418869363959</v>
       </c>
       <c r="D141">
-        <v>-0.3555326365254743</v>
+        <v>-0.5805811306360402</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3274,13 +3484,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>8.390000000000001</v>
+        <v>7.94</v>
       </c>
       <c r="C142">
-        <v>8.177233671207269</v>
+        <v>7.292537609606839</v>
       </c>
       <c r="D142">
-        <v>-0.2127663287927319</v>
+        <v>-0.6474623903931613</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3288,13 +3498,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>8.359999999999999</v>
+        <v>7.75</v>
       </c>
       <c r="C143">
-        <v>8.137931864260276</v>
+        <v>7.196977113547433</v>
       </c>
       <c r="D143">
-        <v>-0.2220681357397236</v>
+        <v>-0.5530228864525668</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3302,13 +3512,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>8.26</v>
+        <v>7.98</v>
       </c>
       <c r="C144">
-        <v>8.273033453539462</v>
+        <v>7.244715952030159</v>
       </c>
       <c r="D144">
-        <v>0.01303345353946206</v>
+        <v>-0.7352840479698415</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3316,13 +3526,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>8.23</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="C145">
-        <v>8.098049525570801</v>
+        <v>7.782428069147397</v>
       </c>
       <c r="D145">
-        <v>-0.1319504744291997</v>
+        <v>-0.4275719308526043</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3330,13 +3540,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>8.24</v>
+        <v>7.95</v>
       </c>
       <c r="C146">
-        <v>8.121683674021424</v>
+        <v>7.825946791056467</v>
       </c>
       <c r="D146">
-        <v>-0.1183163259785758</v>
+        <v>-0.1240532089435336</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3344,13 +3554,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>8.27</v>
+        <v>7.96</v>
       </c>
       <c r="C147">
-        <v>8.165194888571733</v>
+        <v>7.822254884960625</v>
       </c>
       <c r="D147">
-        <v>-0.1048051114282664</v>
+        <v>-0.1377451150393751</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3358,13 +3568,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>7.99</v>
+        <v>7.8</v>
       </c>
       <c r="C148">
-        <v>8.022456167842684</v>
+        <v>7.785401570183536</v>
       </c>
       <c r="D148">
-        <v>0.03245616784268357</v>
+        <v>-0.01459842981646364</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3372,13 +3582,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>8.19</v>
+        <v>7.73</v>
       </c>
       <c r="C149">
-        <v>8.292712502406562</v>
+        <v>7.795220211282764</v>
       </c>
       <c r="D149">
-        <v>0.1027125024065629</v>
+        <v>0.06522021128276378</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3386,13 +3596,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>9.380000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="C150">
-        <v>9.183875296114739</v>
+        <v>8.378843516278916</v>
       </c>
       <c r="D150">
-        <v>-0.1961247038852623</v>
+        <v>0.5788435162789165</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3400,13 +3610,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>9.93</v>
+        <v>7.85</v>
       </c>
       <c r="C151">
-        <v>9.376764480046075</v>
+        <v>8.340446547650071</v>
       </c>
       <c r="D151">
-        <v>-0.5532355199539243</v>
+        <v>0.4904465476500715</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3414,13 +3624,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>9.58</v>
+        <v>7.79</v>
       </c>
       <c r="C152">
-        <v>9.28126598623761</v>
+        <v>8.275751214865732</v>
       </c>
       <c r="D152">
-        <v>-0.2987340137623899</v>
+        <v>0.4857512148657319</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3428,13 +3638,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>9.460000000000001</v>
+        <v>7.62</v>
       </c>
       <c r="C153">
-        <v>9.273693343778172</v>
+        <v>8.11906286462208</v>
       </c>
       <c r="D153">
-        <v>-0.186306656221829</v>
+        <v>0.49906286462208</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3442,13 +3652,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>9.289999999999999</v>
+        <v>7.53</v>
       </c>
       <c r="C154">
-        <v>9.202503992391387</v>
+        <v>7.977347818996369</v>
       </c>
       <c r="D154">
-        <v>-0.0874960076086122</v>
+        <v>0.4473478189963691</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3456,13 +3666,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>8.710000000000001</v>
+        <v>7.63</v>
       </c>
       <c r="C155">
-        <v>8.711083254233289</v>
+        <v>8.167497770332631</v>
       </c>
       <c r="D155">
-        <v>0.001083254233288145</v>
+        <v>0.5374977703326307</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3470,13 +3680,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>7.74</v>
+        <v>7.9</v>
       </c>
       <c r="C156">
-        <v>8.236117420653981</v>
+        <v>8.251887304702537</v>
       </c>
       <c r="D156">
-        <v>0.4961174206539809</v>
+        <v>0.3518873047025366</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3484,13 +3694,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>7.82</v>
+        <v>9.24</v>
       </c>
       <c r="C157">
-        <v>8.163967892122974</v>
+        <v>8.480429900056018</v>
       </c>
       <c r="D157">
-        <v>0.3439678921229739</v>
+        <v>-0.7595700999439821</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3498,13 +3708,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>7.71</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C158">
-        <v>7.897604788748428</v>
+        <v>8.527417908684841</v>
       </c>
       <c r="D158">
-        <v>0.1876047887484278</v>
+        <v>-0.7725820913151598</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3512,13 +3722,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>7.64</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="C159">
-        <v>7.871759774161182</v>
+        <v>8.592079289552688</v>
       </c>
       <c r="D159">
-        <v>0.2317597741611825</v>
+        <v>-0.7679207104473118</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3526,13 +3736,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>7.67</v>
+        <v>9.43</v>
       </c>
       <c r="C160">
-        <v>7.900933931641315</v>
+        <v>8.680130433946951</v>
       </c>
       <c r="D160">
-        <v>0.2309339316413155</v>
+        <v>-0.7498695660530483</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3540,13 +3750,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>7.75</v>
+        <v>8.84</v>
       </c>
       <c r="C161">
-        <v>7.802630091013642</v>
+        <v>8.453888075280279</v>
       </c>
       <c r="D161">
-        <v>0.05263009101364169</v>
+        <v>-0.3861119247197209</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3554,13 +3764,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>7.89</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="C162">
-        <v>7.90112427946474</v>
+        <v>8.243483907116746</v>
       </c>
       <c r="D162">
-        <v>0.01112427946474082</v>
+        <v>-0.396516092883255</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3568,13 +3778,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>7.72</v>
+        <v>8.51</v>
       </c>
       <c r="C163">
-        <v>7.927932827185602</v>
+        <v>8.075149929174929</v>
       </c>
       <c r="D163">
-        <v>0.2079328271856022</v>
+        <v>-0.4348500708250711</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3582,13 +3792,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>7.71</v>
+        <v>8.5</v>
       </c>
       <c r="C164">
-        <v>7.83047050558179</v>
+        <v>8.08369395073165</v>
       </c>
       <c r="D164">
-        <v>0.1204705055817898</v>
+        <v>-0.4163060492683499</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3596,13 +3806,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>7.59</v>
+        <v>8.08</v>
       </c>
       <c r="C165">
-        <v>7.762636593280813</v>
+        <v>7.993889901619545</v>
       </c>
       <c r="D165">
-        <v>0.1726365932808136</v>
+        <v>-0.08611009838045547</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3610,13 +3820,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>7.25</v>
+        <v>8.44</v>
       </c>
       <c r="C166">
-        <v>7.346720786929959</v>
+        <v>8.013559335107905</v>
       </c>
       <c r="D166">
-        <v>0.09672078692995889</v>
+        <v>-0.4264406648920946</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3624,13 +3834,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>7.23</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C167">
-        <v>7.358845742619078</v>
+        <v>7.894625119886847</v>
       </c>
       <c r="D167">
-        <v>0.1288457426190774</v>
+        <v>-0.405374880113154</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3638,13 +3848,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>7.17</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="C168">
-        <v>7.319515566220055</v>
+        <v>7.983369733447997</v>
       </c>
       <c r="D168">
-        <v>0.1495155662200549</v>
+        <v>-0.4866302665520035</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3652,13 +3862,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>7.11</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="C169">
-        <v>7.193506835642424</v>
+        <v>7.953031407065611</v>
       </c>
       <c r="D169">
-        <v>0.08350683564242356</v>
+        <v>-0.4969685929343886</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3666,13 +3876,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>7.03</v>
+        <v>8.52</v>
       </c>
       <c r="C170">
-        <v>7.130410503645834</v>
+        <v>8.015369898356653</v>
       </c>
       <c r="D170">
-        <v>0.1004105036458336</v>
+        <v>-0.5046301016433468</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3680,13 +3890,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>7.06</v>
+        <v>8.24</v>
       </c>
       <c r="C171">
-        <v>7.158984411330071</v>
+        <v>7.896160662406929</v>
       </c>
       <c r="D171">
-        <v>0.09898441133007108</v>
+        <v>-0.3438393375930708</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3694,13 +3904,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>7.18</v>
+        <v>8.26</v>
       </c>
       <c r="C172">
-        <v>7.205580559493381</v>
+        <v>7.877120408762245</v>
       </c>
       <c r="D172">
-        <v>0.02558055949338112</v>
+        <v>-0.3828795912377547</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3708,13 +3918,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>7.2</v>
+        <v>7.93</v>
       </c>
       <c r="C173">
-        <v>7.169167241009937</v>
+        <v>7.696897865786767</v>
       </c>
       <c r="D173">
-        <v>-0.03083275899006299</v>
+        <v>-0.2331021342132331</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3722,13 +3932,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>7.17</v>
+        <v>7.72</v>
       </c>
       <c r="C174">
-        <v>7.162480212991255</v>
+        <v>7.585589328480483</v>
       </c>
       <c r="D174">
-        <v>-0.007519787008744672</v>
+        <v>-0.1344106715195172</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3736,13 +3946,13 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>7.58</v>
+        <v>7.65</v>
       </c>
       <c r="C175">
-        <v>7.384029172114346</v>
+        <v>7.508180385909842</v>
       </c>
       <c r="D175">
-        <v>-0.1959708278856542</v>
+        <v>-0.1418196140901582</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3750,13 +3960,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>7.02</v>
+        <v>7.61</v>
       </c>
       <c r="C176">
-        <v>6.928668868121539</v>
+        <v>7.487528208161466</v>
       </c>
       <c r="D176">
-        <v>-0.09133113187846043</v>
+        <v>-0.1224717918385343</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3764,13 +3974,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>7.17</v>
+        <v>8.09</v>
       </c>
       <c r="C177">
-        <v>6.759087810820446</v>
+        <v>7.841092030801212</v>
       </c>
       <c r="D177">
-        <v>-0.4109121891795535</v>
+        <v>-0.2489079691987879</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3778,13 +3988,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>7.17</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="C178">
-        <v>6.88354918266319</v>
+        <v>7.984056675844968</v>
       </c>
       <c r="D178">
-        <v>-0.2864508173368101</v>
+        <v>-0.135943324155031</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3792,13 +4002,13 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>7.13</v>
+        <v>8.19</v>
       </c>
       <c r="C179">
-        <v>6.843200034489575</v>
+        <v>8.046643469394827</v>
       </c>
       <c r="D179">
-        <v>-0.2867999655104247</v>
+        <v>-0.1433565306051729</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3806,13 +4016,13 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>7.26</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="C180">
-        <v>6.634617709499388</v>
+        <v>7.934918486338054</v>
       </c>
       <c r="D180">
-        <v>-0.6253822905006121</v>
+        <v>-0.1750815136619455</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3820,13 +4030,13 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>7.22</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="C181">
-        <v>6.66187665710059</v>
+        <v>7.942932976812767</v>
       </c>
       <c r="D181">
-        <v>-0.5581233428994095</v>
+        <v>-0.1870670231872342</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3834,13 +4044,13 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>7.28</v>
+        <v>7.98</v>
       </c>
       <c r="C182">
-        <v>6.723610680420455</v>
+        <v>7.953256679756988</v>
       </c>
       <c r="D182">
-        <v>-0.5563893195795453</v>
+        <v>-0.02674332024301229</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3848,13 +4058,13 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>7.3</v>
+        <v>7.67</v>
       </c>
       <c r="C183">
-        <v>6.716746578497588</v>
+        <v>7.813560678746763</v>
       </c>
       <c r="D183">
-        <v>-0.5832534215024117</v>
+        <v>0.1435606787467627</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3862,13 +4072,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>7.06</v>
+        <v>7.52</v>
       </c>
       <c r="C184">
-        <v>6.773855064544524</v>
+        <v>7.753185460843568</v>
       </c>
       <c r="D184">
-        <v>-0.2861449354554759</v>
+        <v>0.2331854608435684</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3876,13 +4086,13 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>6.95</v>
+        <v>7.51</v>
       </c>
       <c r="C185">
-        <v>6.631978452301224</v>
+        <v>7.60895890729399</v>
       </c>
       <c r="D185">
-        <v>-0.318021547698776</v>
+        <v>0.09895890729399071</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3890,13 +4100,13 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>6.57</v>
+        <v>7.48</v>
       </c>
       <c r="C186">
-        <v>6.335796793925986</v>
+        <v>7.642038124667499</v>
       </c>
       <c r="D186">
-        <v>-0.2342032060740138</v>
+        <v>0.1620381246674985</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3904,13 +4114,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>6.81</v>
+        <v>7.55</v>
       </c>
       <c r="C187">
-        <v>6.367265307567289</v>
+        <v>7.635627018280536</v>
       </c>
       <c r="D187">
-        <v>-0.4427346924327109</v>
+        <v>0.08562701828053587</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3918,13 +4128,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>6.77</v>
+        <v>7.63</v>
       </c>
       <c r="C188">
-        <v>6.344412571527183</v>
+        <v>7.970072782530758</v>
       </c>
       <c r="D188">
-        <v>-0.4255874284728165</v>
+        <v>0.3400727825307586</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3932,13 +4142,13 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>6.78</v>
+        <v>7.61</v>
       </c>
       <c r="C189">
-        <v>6.325862205741263</v>
+        <v>7.982248943897996</v>
       </c>
       <c r="D189">
-        <v>-0.4541377942587372</v>
+        <v>0.3722489438979961</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3946,13 +4156,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>6.48</v>
+        <v>7.62</v>
       </c>
       <c r="C190">
-        <v>6.229969867130466</v>
+        <v>7.948601381655859</v>
       </c>
       <c r="D190">
-        <v>-0.2500301328695347</v>
+        <v>0.3286013816558588</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3960,13 +4170,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>6.21</v>
+        <v>7.62</v>
       </c>
       <c r="C191">
-        <v>6.001252738662876</v>
+        <v>7.984474491497094</v>
       </c>
       <c r="D191">
-        <v>-0.2087472613371242</v>
+        <v>0.3644744914970941</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3974,13 +4184,13 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>6.01</v>
+        <v>7.67</v>
       </c>
       <c r="C192">
-        <v>6.047982830732112</v>
+        <v>7.953075073154967</v>
       </c>
       <c r="D192">
-        <v>0.03798283073211195</v>
+        <v>0.2830750731549667</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3988,13 +4198,13 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>5.78</v>
+        <v>7.62</v>
       </c>
       <c r="C193">
-        <v>6.063353695529429</v>
+        <v>7.934390273844718</v>
       </c>
       <c r="D193">
-        <v>0.2833536955294287</v>
+        <v>0.314390273844718</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4002,13 +4212,13 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>5.72</v>
+        <v>7.67</v>
       </c>
       <c r="C194">
-        <v>6.040508072305316</v>
+        <v>7.852336803052705</v>
       </c>
       <c r="D194">
-        <v>0.3205080723053166</v>
+        <v>0.1823368030527046</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4016,13 +4226,13 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>5.67</v>
+        <v>7.63</v>
       </c>
       <c r="C195">
-        <v>6.001830269626092</v>
+        <v>7.871593242926879</v>
       </c>
       <c r="D195">
-        <v>0.3318302696260922</v>
+        <v>0.2415932429268794</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4030,13 +4240,13 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>5.67</v>
+        <v>7.42</v>
       </c>
       <c r="C196">
-        <v>5.993721345808783</v>
+        <v>7.699390460853056</v>
       </c>
       <c r="D196">
-        <v>0.3237213458087833</v>
+        <v>0.2793904608530564</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4044,13 +4254,13 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>5.68</v>
+        <v>7.39</v>
       </c>
       <c r="C197">
-        <v>5.993483622938172</v>
+        <v>7.59380396537226</v>
       </c>
       <c r="D197">
-        <v>0.3134836229381719</v>
+        <v>0.2038039653722601</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4058,13 +4268,13 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>5.67</v>
+        <v>7.28</v>
       </c>
       <c r="C198">
-        <v>5.875354644091573</v>
+        <v>7.332410780103542</v>
       </c>
       <c r="D198">
-        <v>0.2053546440915728</v>
+        <v>0.05241078010354183</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4072,13 +4282,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>5.68</v>
+        <v>7.45</v>
       </c>
       <c r="C199">
-        <v>5.863134243382666</v>
+        <v>7.604618692754674</v>
       </c>
       <c r="D199">
-        <v>0.1831342433826659</v>
+        <v>0.1546186927546733</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4086,13 +4296,13 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>5.74</v>
+        <v>7.44</v>
       </c>
       <c r="C200">
-        <v>5.86626503517707</v>
+        <v>7.581884528405491</v>
       </c>
       <c r="D200">
-        <v>0.1262650351770702</v>
+        <v>0.1418845284054902</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4100,13 +4310,13 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>5.56</v>
+        <v>7.47</v>
       </c>
       <c r="C201">
-        <v>5.770706677782679</v>
+        <v>7.56419827850814</v>
       </c>
       <c r="D201">
-        <v>0.2107066777826789</v>
+        <v>0.09419827850814055</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4114,13 +4324,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>5.52</v>
+        <v>7.36</v>
       </c>
       <c r="C202">
-        <v>5.730071474483756</v>
+        <v>7.559208699324335</v>
       </c>
       <c r="D202">
-        <v>0.2100714744837564</v>
+        <v>0.1992086993243349</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4128,13 +4338,13 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>5.45</v>
+        <v>7.81</v>
       </c>
       <c r="C203">
-        <v>5.6388069161557</v>
+        <v>7.75723681572198</v>
       </c>
       <c r="D203">
-        <v>0.1888069161556993</v>
+        <v>-0.05276318427802007</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4142,13 +4352,13 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>5.46</v>
+        <v>7.98</v>
       </c>
       <c r="C204">
-        <v>5.642939702754608</v>
+        <v>7.935501373347302</v>
       </c>
       <c r="D204">
-        <v>0.1829397027546085</v>
+        <v>-0.04449862665269855</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4156,13 +4366,13 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>5.36</v>
+        <v>7.9</v>
       </c>
       <c r="C205">
-        <v>5.5752469766141</v>
+        <v>7.988021003352733</v>
       </c>
       <c r="D205">
-        <v>0.2152469766140994</v>
+        <v>0.08802100335273266</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4170,13 +4380,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>5.38</v>
+        <v>7.94</v>
       </c>
       <c r="C206">
-        <v>5.658858536227216</v>
+        <v>7.995275782501539</v>
       </c>
       <c r="D206">
-        <v>0.278858536227216</v>
+        <v>0.0552757825015382</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4184,13 +4394,13 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>5.39</v>
+        <v>7.88</v>
       </c>
       <c r="C207">
-        <v>5.655944713285608</v>
+        <v>7.906473353802795</v>
       </c>
       <c r="D207">
-        <v>0.2659447132856085</v>
+        <v>0.02647335380279525</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4198,13 +4408,13 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>5.41</v>
+        <v>7.95</v>
       </c>
       <c r="C208">
-        <v>5.555574062461169</v>
+        <v>8.008053199774469</v>
       </c>
       <c r="D208">
-        <v>0.1455740624611686</v>
+        <v>0.0580531997744691</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4212,13 +4422,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>5.56</v>
+        <v>7.86</v>
       </c>
       <c r="C209">
-        <v>5.600306153790594</v>
+        <v>7.894036553785195</v>
       </c>
       <c r="D209">
-        <v>0.04030615379059466</v>
+        <v>0.03403655378519499</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4226,13 +4436,13 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>5.7</v>
+        <v>8.16</v>
       </c>
       <c r="C210">
-        <v>5.630264251644377</v>
+        <v>8.050272425986794</v>
       </c>
       <c r="D210">
-        <v>-0.06973574835562335</v>
+        <v>-0.1097275740132062</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4240,13 +4450,13 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>5.79</v>
+        <v>8.16</v>
       </c>
       <c r="C211">
-        <v>5.665254734491088</v>
+        <v>8.034464419419134</v>
       </c>
       <c r="D211">
-        <v>-0.1247452655089125</v>
+        <v>-0.1255355805808662</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4254,13 +4464,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>5.85</v>
+        <v>8.26</v>
       </c>
       <c r="C212">
-        <v>5.694014581270425</v>
+        <v>8.107123720123353</v>
       </c>
       <c r="D212">
-        <v>-0.1559854187295748</v>
+        <v>-0.1528762798766472</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4268,13 +4478,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>5.84</v>
+        <v>8.17</v>
       </c>
       <c r="C213">
-        <v>5.63199834703177</v>
+        <v>8.043531387133314</v>
       </c>
       <c r="D213">
-        <v>-0.20800165296823</v>
+        <v>-0.1264686128666863</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4282,13 +4492,13 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>5.95</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="C214">
-        <v>5.631883301591632</v>
+        <v>8.135056443168635</v>
       </c>
       <c r="D214">
-        <v>-0.3181166984083683</v>
+        <v>-0.1549435568313644</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4296,13 +4506,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>5.99</v>
+        <v>8.43</v>
       </c>
       <c r="C215">
-        <v>5.661140132639726</v>
+        <v>8.084779265760883</v>
       </c>
       <c r="D215">
-        <v>-0.3288598673602738</v>
+        <v>-0.3452207342391169</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4310,13 +4520,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>5.98</v>
+        <v>8.49</v>
       </c>
       <c r="C216">
-        <v>5.650554294742127</v>
+        <v>8.15161222703321</v>
       </c>
       <c r="D216">
-        <v>-0.3294457052578732</v>
+        <v>-0.3383877729667901</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4324,13 +4534,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>5.49</v>
+        <v>8.19</v>
       </c>
       <c r="C217">
-        <v>5.493792912394385</v>
+        <v>8.147853099873062</v>
       </c>
       <c r="D217">
-        <v>0.003792912394384729</v>
+        <v>-0.04214690012693723</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4338,13 +4548,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>5.43</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C218">
-        <v>5.488180684404387</v>
+        <v>8.107666023039409</v>
       </c>
       <c r="D218">
-        <v>0.05818068440438751</v>
+        <v>-0.09233397696059065</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4352,13 +4562,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>5.31</v>
+        <v>8.01</v>
       </c>
       <c r="C219">
-        <v>5.426851498626366</v>
+        <v>7.959642646074631</v>
       </c>
       <c r="D219">
-        <v>0.1168514986263665</v>
+        <v>-0.050357353925369</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4366,13 +4576,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>5.26</v>
+        <v>7.98</v>
       </c>
       <c r="C220">
-        <v>5.416391644483342</v>
+        <v>7.909815657736408</v>
       </c>
       <c r="D220">
-        <v>0.1563916444833424</v>
+        <v>-0.07018434226359282</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4380,13 +4590,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>5.19</v>
+        <v>8.43</v>
       </c>
       <c r="C221">
-        <v>5.48472775112381</v>
+        <v>8.187205155306433</v>
       </c>
       <c r="D221">
-        <v>0.2947277511238093</v>
+        <v>-0.2427948446935666</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4394,13 +4604,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>5.15</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="C222">
-        <v>5.471861676065066</v>
+        <v>8.360026983581793</v>
       </c>
       <c r="D222">
-        <v>0.3218616760650654</v>
+        <v>-0.01997301641820748</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4408,13 +4618,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>4.98</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C223">
-        <v>5.403258518602913</v>
+        <v>8.364089151773024</v>
       </c>
       <c r="D223">
-        <v>0.4232585186029123</v>
+        <v>0.004089151773024824</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4422,13 +4632,13 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>5</v>
+        <v>8.23</v>
       </c>
       <c r="C224">
-        <v>5.387190412434862</v>
+        <v>8.381385919887823</v>
       </c>
       <c r="D224">
-        <v>0.3871904124348617</v>
+        <v>0.1513859198878222</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4436,13 +4646,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>5.01</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="C225">
-        <v>5.414519292130864</v>
+        <v>8.538915388788839</v>
       </c>
       <c r="D225">
-        <v>0.404519292130864</v>
+        <v>0.1589153887888379</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4450,13 +4660,13 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>5</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="C226">
-        <v>5.417624400934615</v>
+        <v>9.000081888456609</v>
       </c>
       <c r="D226">
-        <v>0.4176244009346153</v>
+        <v>-0.1399181115433912</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4464,13 +4674,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>5.01</v>
+        <v>10.3</v>
       </c>
       <c r="C227">
-        <v>5.422153772191795</v>
+        <v>9.600730408044317</v>
       </c>
       <c r="D227">
-        <v>0.4121537721917949</v>
+        <v>-0.6992695919556837</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4478,13 +4688,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>5.02</v>
+        <v>10.18</v>
       </c>
       <c r="C228">
-        <v>5.419167466833898</v>
+        <v>9.614617856113204</v>
       </c>
       <c r="D228">
-        <v>0.399167466833898</v>
+        <v>-0.5653821438867954</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4492,13 +4702,13 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>5.02</v>
+        <v>9.58</v>
       </c>
       <c r="C229">
-        <v>5.427482467290497</v>
+        <v>9.299536919278816</v>
       </c>
       <c r="D229">
-        <v>0.4074824672904978</v>
+        <v>-0.2804630807211836</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4506,13 +4716,13 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>5.01</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="C230">
-        <v>5.411214249629321</v>
+        <v>9.193333697357737</v>
       </c>
       <c r="D230">
-        <v>0.4012142496293212</v>
+        <v>-0.09666630264226228</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4520,13 +4730,13 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>5.08</v>
+        <v>8.99</v>
       </c>
       <c r="C231">
-        <v>5.397896200622705</v>
+        <v>9.106204112966866</v>
       </c>
       <c r="D231">
-        <v>0.3178962006227053</v>
+        <v>0.1162041129668658</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4534,13 +4744,13 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>5.08</v>
+        <v>7.85</v>
       </c>
       <c r="C232">
-        <v>5.411668326185275</v>
+        <v>8.279529085595291</v>
       </c>
       <c r="D232">
-        <v>0.3316683261852749</v>
+        <v>0.4295290855952913</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4548,13 +4758,13 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>5.15</v>
+        <v>7.7</v>
       </c>
       <c r="C233">
-        <v>5.417108847072763</v>
+        <v>8.036518925996662</v>
       </c>
       <c r="D233">
-        <v>0.2671088470727625</v>
+        <v>0.3365189259966614</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4562,13 +4772,13 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>5.15</v>
+        <v>7.73</v>
       </c>
       <c r="C234">
-        <v>5.380578890122299</v>
+        <v>8.089747440046088</v>
       </c>
       <c r="D234">
-        <v>0.2305788901222989</v>
+        <v>0.3597474400460872</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4576,13 +4786,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>5.12</v>
+        <v>7.67</v>
       </c>
       <c r="C235">
-        <v>5.297686142649056</v>
+        <v>7.943597740744169</v>
       </c>
       <c r="D235">
-        <v>0.1776861426490557</v>
+        <v>0.2735977407441688</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4590,13 +4800,13 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>5.1</v>
+        <v>7.75</v>
       </c>
       <c r="C236">
-        <v>5.278394565553237</v>
+        <v>7.870428060124938</v>
       </c>
       <c r="D236">
-        <v>0.1783945655532371</v>
+        <v>0.1204280601249383</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4604,13 +4814,13 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>5.1</v>
+        <v>7.76</v>
       </c>
       <c r="C237">
-        <v>5.296900912680822</v>
+        <v>7.860278269632852</v>
       </c>
       <c r="D237">
-        <v>0.1969009126808228</v>
+        <v>0.1002782696328524</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4618,13 +4828,13 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>5.14</v>
+        <v>7.23</v>
       </c>
       <c r="C238">
-        <v>5.294072825067325</v>
+        <v>7.409460475160238</v>
       </c>
       <c r="D238">
-        <v>0.1540728250673249</v>
+        <v>0.1794604751602371</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4632,13 +4842,13 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>5.15</v>
+        <v>7.21</v>
       </c>
       <c r="C239">
-        <v>5.31120074014766</v>
+        <v>7.360158019115012</v>
       </c>
       <c r="D239">
-        <v>0.1612007401476596</v>
+        <v>0.150158019115012</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4646,13 +4856,13 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>5.15</v>
+        <v>7.22</v>
       </c>
       <c r="C240">
-        <v>5.314747012825206</v>
+        <v>7.348194755558199</v>
       </c>
       <c r="D240">
-        <v>0.164747012825206</v>
+        <v>0.1281947555581988</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4660,13 +4870,13 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>5.15</v>
+        <v>7.14</v>
       </c>
       <c r="C241">
-        <v>5.306982286917846</v>
+        <v>7.195065911728122</v>
       </c>
       <c r="D241">
-        <v>0.1569822869178452</v>
+        <v>0.05506591172812225</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4674,13 +4884,13 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>5.13</v>
+        <v>7.02</v>
       </c>
       <c r="C242">
-        <v>5.303258480325693</v>
+        <v>7.13485446752796</v>
       </c>
       <c r="D242">
-        <v>0.1732584803256936</v>
+        <v>0.1148544675279606</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4688,13 +4898,13 @@
         <v>245</v>
       </c>
       <c r="B243">
-        <v>5.11</v>
+        <v>7.03</v>
       </c>
       <c r="C243">
-        <v>5.283428917414872</v>
+        <v>7.092448272564816</v>
       </c>
       <c r="D243">
-        <v>0.1734289174148715</v>
+        <v>0.06244827256481589</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4702,13 +4912,13 @@
         <v>246</v>
       </c>
       <c r="B244">
-        <v>5.09</v>
+        <v>7.03</v>
       </c>
       <c r="C244">
-        <v>5.241694169527872</v>
+        <v>7.109138196597581</v>
       </c>
       <c r="D244">
-        <v>0.1516941695278717</v>
+        <v>0.07913819659758037</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4716,13 +4926,13 @@
         <v>247</v>
       </c>
       <c r="B245">
-        <v>5.08</v>
+        <v>7.21</v>
       </c>
       <c r="C245">
-        <v>5.235474598454212</v>
+        <v>7.18543881841171</v>
       </c>
       <c r="D245">
-        <v>0.1554745984542123</v>
+        <v>-0.02456118158829046</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -4730,13 +4940,13 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>5.08</v>
+        <v>7.3</v>
       </c>
       <c r="C246">
-        <v>5.242629559569986</v>
+        <v>7.252587073649419</v>
       </c>
       <c r="D246">
-        <v>0.1626295595699858</v>
+        <v>-0.0474129263505807</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -4744,13 +4954,13 @@
         <v>249</v>
       </c>
       <c r="B247">
-        <v>5.08</v>
+        <v>7.26</v>
       </c>
       <c r="C247">
-        <v>5.297866073954753</v>
+        <v>7.135904599495165</v>
       </c>
       <c r="D247">
-        <v>0.2178660739547524</v>
+        <v>-0.1240954005048351</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -4758,13 +4968,13 @@
         <v>250</v>
       </c>
       <c r="B248">
-        <v>5.08</v>
+        <v>7.32</v>
       </c>
       <c r="C248">
-        <v>5.28078090600347</v>
+        <v>7.193728509009558</v>
       </c>
       <c r="D248">
-        <v>0.2007809060034695</v>
+        <v>-0.1262714909904421</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -4772,13 +4982,13 @@
         <v>251</v>
       </c>
       <c r="B249">
-        <v>5.13</v>
+        <v>7.69</v>
       </c>
       <c r="C249">
-        <v>5.336998610233788</v>
+        <v>7.445338333915601</v>
       </c>
       <c r="D249">
-        <v>0.2069986102337884</v>
+        <v>-0.2446616660843999</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -4786,13 +4996,13 @@
         <v>252</v>
       </c>
       <c r="B250">
-        <v>5.12</v>
+        <v>7.53</v>
       </c>
       <c r="C250">
-        <v>5.339255615896517</v>
+        <v>7.203954213211112</v>
       </c>
       <c r="D250">
-        <v>0.2192556158965173</v>
+        <v>-0.326045786788888</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -4800,13 +5010,13 @@
         <v>253</v>
       </c>
       <c r="B251">
-        <v>5.16</v>
+        <v>7.17</v>
       </c>
       <c r="C251">
-        <v>5.317793031264753</v>
+        <v>7.085352775073614</v>
       </c>
       <c r="D251">
-        <v>0.1577930312647524</v>
+        <v>-0.08464722492638543</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -4814,13 +5024,13 @@
         <v>254</v>
       </c>
       <c r="B252">
-        <v>5.14</v>
+        <v>7.17</v>
       </c>
       <c r="C252">
-        <v>5.312436034034608</v>
+        <v>6.966967393244637</v>
       </c>
       <c r="D252">
-        <v>0.1724360340346083</v>
+        <v>-0.2030326067553627</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -4828,13 +5038,13 @@
         <v>255</v>
       </c>
       <c r="B253">
-        <v>5.1</v>
+        <v>7.06</v>
       </c>
       <c r="C253">
-        <v>5.202049964626681</v>
+        <v>6.509416234644197</v>
       </c>
       <c r="D253">
-        <v>0.1020499646266817</v>
+        <v>-0.5505837653558023</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -4842,13 +5052,13 @@
         <v>256</v>
       </c>
       <c r="B254">
-        <v>5.04</v>
+        <v>7.57</v>
       </c>
       <c r="C254">
-        <v>5.21583687821273</v>
+        <v>6.738385757385164</v>
       </c>
       <c r="D254">
-        <v>0.1758368782127304</v>
+        <v>-0.8316142426148367</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -4856,13 +5066,13 @@
         <v>257</v>
       </c>
       <c r="B255">
-        <v>5.05</v>
+        <v>6.96</v>
       </c>
       <c r="C255">
-        <v>5.204342012656335</v>
+        <v>6.477129058631434</v>
       </c>
       <c r="D255">
-        <v>0.1543420126563353</v>
+        <v>-0.4828709413685663</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -4870,13 +5080,13 @@
         <v>258</v>
       </c>
       <c r="B256">
-        <v>5.07</v>
+        <v>6.63</v>
       </c>
       <c r="C256">
-        <v>5.242887438459151</v>
+        <v>6.280826258402149</v>
       </c>
       <c r="D256">
-        <v>0.172887438459151</v>
+        <v>-0.3491737415978511</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -4884,13 +5094,13 @@
         <v>259</v>
       </c>
       <c r="B257">
-        <v>4.96</v>
+        <v>6.65</v>
       </c>
       <c r="C257">
-        <v>5.09853048184582</v>
+        <v>6.241295767230909</v>
       </c>
       <c r="D257">
-        <v>0.1385304818458204</v>
+        <v>-0.4087042327690913</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -4898,13 +5108,13 @@
         <v>260</v>
       </c>
       <c r="B258">
-        <v>4.9</v>
+        <v>6.6</v>
       </c>
       <c r="C258">
-        <v>5.003724652541468</v>
+        <v>6.298460574026123</v>
       </c>
       <c r="D258">
-        <v>0.1037246525414677</v>
+        <v>-0.3015394259738766</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -4912,13 +5122,13 @@
         <v>261</v>
       </c>
       <c r="B259">
-        <v>4.89</v>
+        <v>6.81</v>
       </c>
       <c r="C259">
-        <v>4.987262132134267</v>
+        <v>6.343377305876849</v>
       </c>
       <c r="D259">
-        <v>0.09726213213426771</v>
+        <v>-0.4666226941231502</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -4926,13 +5136,13 @@
         <v>262</v>
       </c>
       <c r="B260">
-        <v>5.07</v>
+        <v>6.78</v>
       </c>
       <c r="C260">
-        <v>4.956248367658083</v>
+        <v>6.283096659855595</v>
       </c>
       <c r="D260">
-        <v>-0.1137516323419172</v>
+        <v>-0.4969033401444056</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -4940,13 +5150,13 @@
         <v>263</v>
       </c>
       <c r="B261">
-        <v>5.09</v>
+        <v>6.77</v>
       </c>
       <c r="C261">
-        <v>4.99463635520876</v>
+        <v>6.262374594538102</v>
       </c>
       <c r="D261">
-        <v>-0.09536364479123982</v>
+        <v>-0.5076254054618978</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -4954,13 +5164,13 @@
         <v>264</v>
       </c>
       <c r="B262">
-        <v>5.19</v>
+        <v>6.77</v>
       </c>
       <c r="C262">
-        <v>5.042599873787333</v>
+        <v>6.269970324094047</v>
       </c>
       <c r="D262">
-        <v>-0.1474001262126672</v>
+        <v>-0.500029675905953</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -4968,13 +5178,13 @@
         <v>265</v>
       </c>
       <c r="B263">
-        <v>5.19</v>
+        <v>6.78</v>
       </c>
       <c r="C263">
-        <v>4.992452716883436</v>
+        <v>6.268447740967087</v>
       </c>
       <c r="D263">
-        <v>-0.1975472831165641</v>
+        <v>-0.5115522590329133</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -4982,13 +5192,13 @@
         <v>266</v>
       </c>
       <c r="B264">
-        <v>5.07</v>
+        <v>6.36</v>
       </c>
       <c r="C264">
-        <v>5.031556125883277</v>
+        <v>5.993998091324936</v>
       </c>
       <c r="D264">
-        <v>-0.03844387411672301</v>
+        <v>-0.3660019086750639</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -4996,13 +5206,13 @@
         <v>267</v>
       </c>
       <c r="B265">
-        <v>5.18</v>
+        <v>5.98</v>
       </c>
       <c r="C265">
-        <v>5.080134064474301</v>
+        <v>6.045942256087748</v>
       </c>
       <c r="D265">
-        <v>-0.099865935525699</v>
+        <v>0.06594225608774806</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5010,13 +5220,13 @@
         <v>268</v>
       </c>
       <c r="B266">
-        <v>5.22</v>
+        <v>5.74</v>
       </c>
       <c r="C266">
-        <v>5.101021284774406</v>
+        <v>6.027426227921703</v>
       </c>
       <c r="D266">
-        <v>-0.1189787152255937</v>
+        <v>0.2874262279217028</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5024,13 +5234,13 @@
         <v>269</v>
       </c>
       <c r="B267">
-        <v>5.17</v>
+        <v>5.71</v>
       </c>
       <c r="C267">
-        <v>5.025584867090775</v>
+        <v>6.008621358408121</v>
       </c>
       <c r="D267">
-        <v>-0.1444151329092254</v>
+        <v>0.2986213584081208</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5038,13 +5248,13 @@
         <v>270</v>
       </c>
       <c r="B268">
-        <v>5.28</v>
+        <v>5.79</v>
       </c>
       <c r="C268">
-        <v>5.088285595495915</v>
+        <v>6.03606878402436</v>
       </c>
       <c r="D268">
-        <v>-0.1917144045040855</v>
+        <v>0.2460687840243603</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5052,13 +5262,13 @@
         <v>271</v>
       </c>
       <c r="B269">
-        <v>5.27</v>
+        <v>5.69</v>
       </c>
       <c r="C269">
-        <v>5.10387870308376</v>
+        <v>6.017675759627878</v>
       </c>
       <c r="D269">
-        <v>-0.1661212969162396</v>
+        <v>0.3276757596278772</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5066,13 +5276,13 @@
         <v>272</v>
       </c>
       <c r="B270">
-        <v>5.34</v>
+        <v>5.74</v>
       </c>
       <c r="C270">
-        <v>5.153437543325216</v>
+        <v>6.053650847546839</v>
       </c>
       <c r="D270">
-        <v>-0.1865624566747837</v>
+        <v>0.3136508475468389</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5080,13 +5290,13 @@
         <v>273</v>
       </c>
       <c r="B271">
-        <v>5.34</v>
+        <v>5.74</v>
       </c>
       <c r="C271">
-        <v>5.161608425676723</v>
+        <v>6.034481204041418</v>
       </c>
       <c r="D271">
-        <v>-0.1783915743232765</v>
+        <v>0.2944812040414178</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5094,13 +5304,13 @@
         <v>274</v>
       </c>
       <c r="B272">
-        <v>5.32</v>
+        <v>5.7</v>
       </c>
       <c r="C272">
-        <v>5.13637010602287</v>
+        <v>6.001714655698603</v>
       </c>
       <c r="D272">
-        <v>-0.1836298939771304</v>
+        <v>0.3017146556986026</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5108,13 +5318,13 @@
         <v>275</v>
       </c>
       <c r="B273">
-        <v>5.3</v>
+        <v>5.66</v>
       </c>
       <c r="C273">
-        <v>5.117706280335208</v>
+        <v>5.987164188538566</v>
       </c>
       <c r="D273">
-        <v>-0.1822937196647922</v>
+        <v>0.3271641885385659</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5122,13 +5332,13 @@
         <v>276</v>
       </c>
       <c r="B274">
-        <v>5.29</v>
+        <v>5.69</v>
       </c>
       <c r="C274">
-        <v>5.132797986698051</v>
+        <v>5.955081474455202</v>
       </c>
       <c r="D274">
-        <v>-0.1572020133019487</v>
+        <v>0.2650814744552017</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5136,13 +5346,13 @@
         <v>277</v>
       </c>
       <c r="B275">
-        <v>5.27</v>
+        <v>5.65</v>
       </c>
       <c r="C275">
-        <v>5.166474828723679</v>
+        <v>5.951111590977368</v>
       </c>
       <c r="D275">
-        <v>-0.1035251712763205</v>
+        <v>0.3011115909773672</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5150,13 +5360,13 @@
         <v>278</v>
       </c>
       <c r="B276">
-        <v>5.35</v>
+        <v>5.64</v>
       </c>
       <c r="C276">
-        <v>5.115313625535816</v>
+        <v>5.927793060930108</v>
       </c>
       <c r="D276">
-        <v>-0.2346863744641841</v>
+        <v>0.2877930609301087</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5164,13 +5374,13 @@
         <v>279</v>
       </c>
       <c r="B277">
-        <v>5.36</v>
+        <v>5.71</v>
       </c>
       <c r="C277">
-        <v>5.136213469727661</v>
+        <v>5.911439117625797</v>
       </c>
       <c r="D277">
-        <v>-0.2237865302723394</v>
+        <v>0.2014391176257968</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5178,13 +5388,13 @@
         <v>280</v>
       </c>
       <c r="B278">
-        <v>5.36</v>
+        <v>5.69</v>
       </c>
       <c r="C278">
-        <v>5.199667975126783</v>
+        <v>5.889561693401285</v>
       </c>
       <c r="D278">
-        <v>-0.1603320248732176</v>
+        <v>0.1995616934012849</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5192,13 +5402,13 @@
         <v>281</v>
       </c>
       <c r="B279">
-        <v>5.39</v>
+        <v>5.45</v>
       </c>
       <c r="C279">
-        <v>5.193958326674895</v>
+        <v>5.662511341717538</v>
       </c>
       <c r="D279">
-        <v>-0.1960416733251042</v>
+        <v>0.2125113417175379</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5206,13 +5416,13 @@
         <v>282</v>
       </c>
       <c r="B280">
-        <v>5.4</v>
+        <v>5.32</v>
       </c>
       <c r="C280">
-        <v>5.188922376379406</v>
+        <v>5.591391205818297</v>
       </c>
       <c r="D280">
-        <v>-0.2110776236205947</v>
+        <v>0.271391205818297</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5220,13 +5430,13 @@
         <v>283</v>
       </c>
       <c r="B281">
-        <v>5.49</v>
+        <v>5.31</v>
       </c>
       <c r="C281">
-        <v>5.167177868128247</v>
+        <v>5.587170205909869</v>
       </c>
       <c r="D281">
-        <v>-0.322822131871753</v>
+        <v>0.2771702059098695</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5234,13 +5444,13 @@
         <v>284</v>
       </c>
       <c r="B282">
-        <v>5.71</v>
+        <v>5.38</v>
       </c>
       <c r="C282">
-        <v>5.311440407600532</v>
+        <v>5.648915558377603</v>
       </c>
       <c r="D282">
-        <v>-0.3985595923994678</v>
+        <v>0.2689155583776026</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5248,13 +5458,13 @@
         <v>285</v>
       </c>
       <c r="B283">
-        <v>5.7</v>
+        <v>5.36</v>
       </c>
       <c r="C283">
-        <v>5.332174787787887</v>
+        <v>5.674964616734563</v>
       </c>
       <c r="D283">
-        <v>-0.3678252122121135</v>
+        <v>0.3149646167345628</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5262,13 +5472,13 @@
         <v>286</v>
       </c>
       <c r="B284">
-        <v>5.75</v>
+        <v>5.42</v>
       </c>
       <c r="C284">
-        <v>5.363630636071635</v>
+        <v>5.669773369778914</v>
       </c>
       <c r="D284">
-        <v>-0.386369363928365</v>
+        <v>0.2497733697789144</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5276,13 +5486,13 @@
         <v>287</v>
       </c>
       <c r="B285">
-        <v>5.53</v>
+        <v>5.38</v>
       </c>
       <c r="C285">
-        <v>5.416320263633933</v>
+        <v>5.656528551974414</v>
       </c>
       <c r="D285">
-        <v>-0.1136797363660671</v>
+        <v>0.2765285519744145</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5290,13 +5500,13 @@
         <v>288</v>
       </c>
       <c r="B286">
-        <v>5.52</v>
+        <v>5.54</v>
       </c>
       <c r="C286">
-        <v>5.389169677005183</v>
+        <v>5.586480617205392</v>
       </c>
       <c r="D286">
-        <v>-0.1308303229948162</v>
+        <v>0.04648061720539243</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5304,13 +5514,13 @@
         <v>289</v>
       </c>
       <c r="B287">
-        <v>5.53</v>
+        <v>5.63</v>
       </c>
       <c r="C287">
-        <v>5.396584345491199</v>
+        <v>5.634850699458976</v>
       </c>
       <c r="D287">
-        <v>-0.1334156545088012</v>
+        <v>0.004850699458976315</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5318,13 +5528,13 @@
         <v>290</v>
       </c>
       <c r="B288">
-        <v>5.52</v>
+        <v>5.69</v>
       </c>
       <c r="C288">
-        <v>5.402653105551023</v>
+        <v>5.608788272721602</v>
       </c>
       <c r="D288">
-        <v>-0.1173468944489766</v>
+        <v>-0.08121172727839809</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5332,13 +5542,13 @@
         <v>291</v>
       </c>
       <c r="B289">
-        <v>5.53</v>
+        <v>5.89</v>
       </c>
       <c r="C289">
-        <v>5.388302701049195</v>
+        <v>5.651295744130024</v>
       </c>
       <c r="D289">
-        <v>-0.1416972989508052</v>
+        <v>-0.2387042558699752</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5346,13 +5556,13 @@
         <v>292</v>
       </c>
       <c r="B290">
-        <v>5.53</v>
+        <v>5.85</v>
       </c>
       <c r="C290">
-        <v>5.390504038620858</v>
+        <v>5.644474359107937</v>
       </c>
       <c r="D290">
-        <v>-0.1394959613791427</v>
+        <v>-0.2055256408920627</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5360,13 +5570,13 @@
         <v>293</v>
       </c>
       <c r="B291">
-        <v>5.5</v>
+        <v>5.79</v>
       </c>
       <c r="C291">
-        <v>5.34265199216264</v>
+        <v>5.66416341700767</v>
       </c>
       <c r="D291">
-        <v>-0.1573480078373599</v>
+        <v>-0.1258365829923305</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5374,13 +5584,13 @@
         <v>294</v>
       </c>
       <c r="B292">
-        <v>5.52</v>
+        <v>5.99</v>
       </c>
       <c r="C292">
-        <v>5.335752739636852</v>
+        <v>5.700547108634936</v>
       </c>
       <c r="D292">
-        <v>-0.1842472603631471</v>
+        <v>-0.2894528913650642</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5388,13 +5598,13 @@
         <v>295</v>
       </c>
       <c r="B293">
-        <v>5.55</v>
+        <v>6</v>
       </c>
       <c r="C293">
-        <v>5.346504572295085</v>
+        <v>5.69570835165209</v>
       </c>
       <c r="D293">
-        <v>-0.2034954277049144</v>
+        <v>-0.3042916483479097</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5402,13 +5612,13 @@
         <v>296</v>
       </c>
       <c r="B294">
-        <v>5.58</v>
+        <v>5.66</v>
       </c>
       <c r="C294">
-        <v>5.352986048168558</v>
+        <v>5.550496027428833</v>
       </c>
       <c r="D294">
-        <v>-0.2270139518314416</v>
+        <v>-0.1095039725711668</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -5416,13 +5626,13 @@
         <v>297</v>
       </c>
       <c r="B295">
-        <v>5.57</v>
+        <v>5.36</v>
       </c>
       <c r="C295">
-        <v>5.342876892902446</v>
+        <v>5.447743762335936</v>
       </c>
       <c r="D295">
-        <v>-0.2271231070975546</v>
+        <v>0.08774376233593539</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -5430,13 +5640,13 @@
         <v>298</v>
       </c>
       <c r="B296">
-        <v>5.62</v>
+        <v>5.32</v>
       </c>
       <c r="C296">
-        <v>5.403688928538758</v>
+        <v>5.428634878887722</v>
       </c>
       <c r="D296">
-        <v>-0.2163110714612424</v>
+        <v>0.1086348788877221</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -5444,13 +5654,13 @@
         <v>299</v>
       </c>
       <c r="B297">
-        <v>5.66</v>
+        <v>5.27</v>
       </c>
       <c r="C297">
-        <v>5.38801010827706</v>
+        <v>5.455083378876493</v>
       </c>
       <c r="D297">
-        <v>-0.2719898917229404</v>
+        <v>0.1850833788764934</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -5458,13 +5668,13 @@
         <v>300</v>
       </c>
       <c r="B298">
-        <v>5.68</v>
+        <v>5.18</v>
       </c>
       <c r="C298">
-        <v>5.375419027908682</v>
+        <v>5.481933009975238</v>
       </c>
       <c r="D298">
-        <v>-0.3045809720913173</v>
+        <v>0.3019330099752384</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -5472,13 +5682,13 @@
         <v>301</v>
       </c>
       <c r="B299">
-        <v>5.62</v>
+        <v>5.21</v>
       </c>
       <c r="C299">
-        <v>5.320777247717304</v>
+        <v>5.494167030094125</v>
       </c>
       <c r="D299">
-        <v>-0.299222752282696</v>
+        <v>0.2841670300941255</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -5486,13 +5696,13 @@
         <v>302</v>
       </c>
       <c r="B300">
-        <v>5.65</v>
+        <v>5.13</v>
       </c>
       <c r="C300">
-        <v>5.336079341976509</v>
+        <v>5.466718094286664</v>
       </c>
       <c r="D300">
-        <v>-0.3139206580234912</v>
+        <v>0.3367180942866641</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -5500,13 +5710,13 @@
         <v>303</v>
       </c>
       <c r="B301">
-        <v>5.68</v>
+        <v>4.99</v>
       </c>
       <c r="C301">
-        <v>5.403784712772348</v>
+        <v>5.462250763971699</v>
       </c>
       <c r="D301">
-        <v>-0.276215287227652</v>
+        <v>0.4722507639716991</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -5514,13 +5724,13 @@
         <v>304</v>
       </c>
       <c r="B302">
-        <v>5.71</v>
+        <v>4.97</v>
       </c>
       <c r="C302">
-        <v>5.429452421199771</v>
+        <v>5.455428933253357</v>
       </c>
       <c r="D302">
-        <v>-0.2805475788002285</v>
+        <v>0.485428933253357</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -5528,13 +5738,993 @@
         <v>305</v>
       </c>
       <c r="B303">
-        <v>5.74</v>
+        <v>4.98</v>
       </c>
       <c r="C303">
-        <v>5.447579469410591</v>
+        <v>5.431145932004632</v>
       </c>
       <c r="D303">
-        <v>-0.2924205305894088</v>
+        <v>0.451145932004632</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B304">
+        <v>5.01</v>
+      </c>
+      <c r="C304">
+        <v>5.478009549295257</v>
+      </c>
+      <c r="D304">
+        <v>0.4680095492952567</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B305">
+        <v>5.02</v>
+      </c>
+      <c r="C305">
+        <v>5.490831828104616</v>
+      </c>
+      <c r="D305">
+        <v>0.4708318281046164</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B306">
+        <v>5.11</v>
+      </c>
+      <c r="C306">
+        <v>5.402401131634951</v>
+      </c>
+      <c r="D306">
+        <v>0.2924011316349509</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B307">
+        <v>5.1</v>
+      </c>
+      <c r="C307">
+        <v>5.385931309122366</v>
+      </c>
+      <c r="D307">
+        <v>0.2859313091223665</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B308">
+        <v>5.09</v>
+      </c>
+      <c r="C308">
+        <v>5.384257578208326</v>
+      </c>
+      <c r="D308">
+        <v>0.2942575782083257</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B309">
+        <v>5.13</v>
+      </c>
+      <c r="C309">
+        <v>5.356034425136715</v>
+      </c>
+      <c r="D309">
+        <v>0.2260344251367155</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B310">
+        <v>5.16</v>
+      </c>
+      <c r="C310">
+        <v>5.39760671724851</v>
+      </c>
+      <c r="D310">
+        <v>0.2376067172485099</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B311">
+        <v>5.08</v>
+      </c>
+      <c r="C311">
+        <v>5.303546517127091</v>
+      </c>
+      <c r="D311">
+        <v>0.2235465171270912</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B312">
+        <v>5.09</v>
+      </c>
+      <c r="C312">
+        <v>5.307404164773323</v>
+      </c>
+      <c r="D312">
+        <v>0.2174041647733231</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B313">
+        <v>5.09</v>
+      </c>
+      <c r="C313">
+        <v>5.329559748422049</v>
+      </c>
+      <c r="D313">
+        <v>0.2395597484220495</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B314">
+        <v>5.06</v>
+      </c>
+      <c r="C314">
+        <v>5.332762541725297</v>
+      </c>
+      <c r="D314">
+        <v>0.2727625417252977</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B315">
+        <v>5.14</v>
+      </c>
+      <c r="C315">
+        <v>5.37753789597267</v>
+      </c>
+      <c r="D315">
+        <v>0.2375378959726699</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B316">
+        <v>5.16</v>
+      </c>
+      <c r="C316">
+        <v>5.392249944528904</v>
+      </c>
+      <c r="D316">
+        <v>0.2322499445289035</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B317">
+        <v>5.15</v>
+      </c>
+      <c r="C317">
+        <v>5.367840002923204</v>
+      </c>
+      <c r="D317">
+        <v>0.2178400029232037</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B318">
+        <v>5.08</v>
+      </c>
+      <c r="C318">
+        <v>5.256670659001961</v>
+      </c>
+      <c r="D318">
+        <v>0.1766706590019611</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B319">
+        <v>5.08</v>
+      </c>
+      <c r="C319">
+        <v>5.247333932960355</v>
+      </c>
+      <c r="D319">
+        <v>0.1673339329603545</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B320">
+        <v>5.08</v>
+      </c>
+      <c r="C320">
+        <v>5.248238004804916</v>
+      </c>
+      <c r="D320">
+        <v>0.1682380048049161</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B321">
+        <v>5.06</v>
+      </c>
+      <c r="C321">
+        <v>5.261051094708177</v>
+      </c>
+      <c r="D321">
+        <v>0.2010510947081778</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B322">
+        <v>5.06</v>
+      </c>
+      <c r="C322">
+        <v>5.269372576952716</v>
+      </c>
+      <c r="D322">
+        <v>0.2093725769527159</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="A323" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B323">
+        <v>5.07</v>
+      </c>
+      <c r="C323">
+        <v>5.242907293156296</v>
+      </c>
+      <c r="D323">
+        <v>0.172907293156296</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B324">
+        <v>5.07</v>
+      </c>
+      <c r="C324">
+        <v>5.254317423341639</v>
+      </c>
+      <c r="D324">
+        <v>0.1843174233416383</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="A325" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B325">
+        <v>5.07</v>
+      </c>
+      <c r="C325">
+        <v>5.228009136899264</v>
+      </c>
+      <c r="D325">
+        <v>0.1580091368992633</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="A326" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B326">
+        <v>4.97</v>
+      </c>
+      <c r="C326">
+        <v>5.117163314071997</v>
+      </c>
+      <c r="D326">
+        <v>0.1471633140719968</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="A327" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B327">
+        <v>4.96</v>
+      </c>
+      <c r="C327">
+        <v>5.104976466703793</v>
+      </c>
+      <c r="D327">
+        <v>0.1449764667037927</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="A328" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B328">
+        <v>4.89</v>
+      </c>
+      <c r="C328">
+        <v>5.032538660703548</v>
+      </c>
+      <c r="D328">
+        <v>0.1425386607035479</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="A329" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B329">
+        <v>4.89</v>
+      </c>
+      <c r="C329">
+        <v>5.021124529610644</v>
+      </c>
+      <c r="D329">
+        <v>0.131124529610644</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="A330" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B330">
+        <v>4.96</v>
+      </c>
+      <c r="C330">
+        <v>5.027945857297056</v>
+      </c>
+      <c r="D330">
+        <v>0.06794585729705638</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
+      <c r="A331" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B331">
+        <v>5.09</v>
+      </c>
+      <c r="C331">
+        <v>5.047619830333716</v>
+      </c>
+      <c r="D331">
+        <v>-0.04238016966628422</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="A332" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B332">
+        <v>5.09</v>
+      </c>
+      <c r="C332">
+        <v>5.008423271814231</v>
+      </c>
+      <c r="D332">
+        <v>-0.08157672818576867</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
+      <c r="A333" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B333">
+        <v>5.14</v>
+      </c>
+      <c r="C333">
+        <v>4.995649320979906</v>
+      </c>
+      <c r="D333">
+        <v>-0.1443506790200937</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
+      <c r="A334" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B334">
+        <v>5.15</v>
+      </c>
+      <c r="C334">
+        <v>5.060339251729682</v>
+      </c>
+      <c r="D334">
+        <v>-0.089660748270318</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
+      <c r="A335" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B335">
+        <v>5.18</v>
+      </c>
+      <c r="C335">
+        <v>5.027842574888161</v>
+      </c>
+      <c r="D335">
+        <v>-0.1521574251118389</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
+      <c r="A336" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B336">
+        <v>5.19</v>
+      </c>
+      <c r="C336">
+        <v>5.009637835465989</v>
+      </c>
+      <c r="D336">
+        <v>-0.180362164534011</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
+      <c r="A337" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B337">
+        <v>5.19</v>
+      </c>
+      <c r="C337">
+        <v>4.99556496959126</v>
+      </c>
+      <c r="D337">
+        <v>-0.1944350304087408</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
+      <c r="A338" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B338">
+        <v>5.09</v>
+      </c>
+      <c r="C338">
+        <v>5.017242533540752</v>
+      </c>
+      <c r="D338">
+        <v>-0.0727574664592483</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4">
+      <c r="A339" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B339">
+        <v>5.26</v>
+      </c>
+      <c r="C339">
+        <v>5.162545679483551</v>
+      </c>
+      <c r="D339">
+        <v>-0.09745432051644887</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
+      <c r="A340" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B340">
+        <v>5.31</v>
+      </c>
+      <c r="C340">
+        <v>5.193200639348187</v>
+      </c>
+      <c r="D340">
+        <v>-0.1167993606518127</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4">
+      <c r="A341" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B341">
+        <v>5.24</v>
+      </c>
+      <c r="C341">
+        <v>5.086311955638873</v>
+      </c>
+      <c r="D341">
+        <v>-0.153688044361127</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
+      <c r="A342" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B342">
+        <v>5.24</v>
+      </c>
+      <c r="C342">
+        <v>5.099423755383199</v>
+      </c>
+      <c r="D342">
+        <v>-0.1405762446168008</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4">
+      <c r="A343" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B343">
+        <v>5.25</v>
+      </c>
+      <c r="C343">
+        <v>5.089922066851256</v>
+      </c>
+      <c r="D343">
+        <v>-0.1600779331487443</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
+      <c r="A344" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B344">
+        <v>5.25</v>
+      </c>
+      <c r="C344">
+        <v>5.08849156493643</v>
+      </c>
+      <c r="D344">
+        <v>-0.1615084350635705</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4">
+      <c r="A345" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B345">
+        <v>5.25</v>
+      </c>
+      <c r="C345">
+        <v>5.127864335031291</v>
+      </c>
+      <c r="D345">
+        <v>-0.1221356649687086</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4">
+      <c r="A346" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B346">
+        <v>5.18</v>
+      </c>
+      <c r="C346">
+        <v>5.03458734272803</v>
+      </c>
+      <c r="D346">
+        <v>-0.1454126572719696</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
+      <c r="A347" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B347">
+        <v>5.32</v>
+      </c>
+      <c r="C347">
+        <v>5.140908429707289</v>
+      </c>
+      <c r="D347">
+        <v>-0.1790915702927114</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4">
+      <c r="A348" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B348">
+        <v>5.32</v>
+      </c>
+      <c r="C348">
+        <v>5.153510112075683</v>
+      </c>
+      <c r="D348">
+        <v>-0.1664898879243175</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4">
+      <c r="A349" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B349">
+        <v>5.28</v>
+      </c>
+      <c r="C349">
+        <v>5.158791881789855</v>
+      </c>
+      <c r="D349">
+        <v>-0.121208118210145</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
+      <c r="A350" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B350">
+        <v>5.26</v>
+      </c>
+      <c r="C350">
+        <v>5.082791505956093</v>
+      </c>
+      <c r="D350">
+        <v>-0.1772084940439065</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4">
+      <c r="A351" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B351">
+        <v>5.34</v>
+      </c>
+      <c r="C351">
+        <v>5.13532170808063</v>
+      </c>
+      <c r="D351">
+        <v>-0.2046782919193699</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4">
+      <c r="A352" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B352">
+        <v>5.33</v>
+      </c>
+      <c r="C352">
+        <v>5.090451646457273</v>
+      </c>
+      <c r="D352">
+        <v>-0.2395483535427267</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4">
+      <c r="A353" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B353">
+        <v>5.31</v>
+      </c>
+      <c r="C353">
+        <v>5.068036192396532</v>
+      </c>
+      <c r="D353">
+        <v>-0.2419638076034678</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="A354" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B354">
+        <v>5.38</v>
+      </c>
+      <c r="C354">
+        <v>5.147181051030165</v>
+      </c>
+      <c r="D354">
+        <v>-0.2328189489698351</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
+      <c r="A355" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B355">
+        <v>5.48</v>
+      </c>
+      <c r="C355">
+        <v>5.224968308878419</v>
+      </c>
+      <c r="D355">
+        <v>-0.2550316911215811</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
+      <c r="A356" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B356">
+        <v>5.52</v>
+      </c>
+      <c r="C356">
+        <v>5.223593880445863</v>
+      </c>
+      <c r="D356">
+        <v>-0.2964061195541365</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
+      <c r="A357" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B357">
+        <v>5.53</v>
+      </c>
+      <c r="C357">
+        <v>5.237762796709311</v>
+      </c>
+      <c r="D357">
+        <v>-0.2922372032906893</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
+      <c r="A358" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B358">
+        <v>5.53</v>
+      </c>
+      <c r="C358">
+        <v>5.238860251885751</v>
+      </c>
+      <c r="D358">
+        <v>-0.291139748114249</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
+      <c r="A359" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B359">
+        <v>5.71</v>
+      </c>
+      <c r="C359">
+        <v>5.278562071686075</v>
+      </c>
+      <c r="D359">
+        <v>-0.4314379283139251</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4">
+      <c r="A360" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B360">
+        <v>5.55</v>
+      </c>
+      <c r="C360">
+        <v>5.350589109006738</v>
+      </c>
+      <c r="D360">
+        <v>-0.1994108909932617</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
+      <c r="A361" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B361">
+        <v>5.53</v>
+      </c>
+      <c r="C361">
+        <v>5.342449097311327</v>
+      </c>
+      <c r="D361">
+        <v>-0.187550902688673</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
+      <c r="A362" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B362">
+        <v>5.49</v>
+      </c>
+      <c r="C362">
+        <v>5.295651842404046</v>
+      </c>
+      <c r="D362">
+        <v>-0.1943481575959547</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4">
+      <c r="A363" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B363">
+        <v>5.53</v>
+      </c>
+      <c r="C363">
+        <v>5.36034472648176</v>
+      </c>
+      <c r="D363">
+        <v>-0.1696552735182406</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4">
+      <c r="A364" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B364">
+        <v>5.55</v>
+      </c>
+      <c r="C364">
+        <v>5.340735801189179</v>
+      </c>
+      <c r="D364">
+        <v>-0.2092641988108213</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
+      <c r="A365" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B365">
+        <v>5.52</v>
+      </c>
+      <c r="C365">
+        <v>5.348227527285497</v>
+      </c>
+      <c r="D365">
+        <v>-0.1717724727145029</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4">
+      <c r="A366" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B366">
+        <v>5.52</v>
+      </c>
+      <c r="C366">
+        <v>5.322368417166158</v>
+      </c>
+      <c r="D366">
+        <v>-0.1976315828338411</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4">
+      <c r="A367" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B367">
+        <v>5.55</v>
+      </c>
+      <c r="C367">
+        <v>5.322178704247443</v>
+      </c>
+      <c r="D367">
+        <v>-0.2278212957525572</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="A368" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B368">
+        <v>5.56</v>
+      </c>
+      <c r="C368">
+        <v>5.345468893524761</v>
+      </c>
+      <c r="D368">
+        <v>-0.2145311064752384</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B369">
+        <v>5.68</v>
+      </c>
+      <c r="C369">
+        <v>5.338547735213123</v>
+      </c>
+      <c r="D369">
+        <v>-0.3414522647868772</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B370">
+        <v>5.67</v>
+      </c>
+      <c r="C370">
+        <v>5.340583070313685</v>
+      </c>
+      <c r="D370">
+        <v>-0.3294169296863148</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B371">
+        <v>5.71</v>
+      </c>
+      <c r="C371">
+        <v>5.405759619391016</v>
+      </c>
+      <c r="D371">
+        <v>-0.3042403806089835</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B372">
+        <v>5.77</v>
+      </c>
+      <c r="C372">
+        <v>5.443011046652463</v>
+      </c>
+      <c r="D372">
+        <v>-0.3269889533475361</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B373">
+        <v>5.69</v>
+      </c>
+      <c r="C373">
+        <v>5.42646673419432</v>
+      </c>
+      <c r="D373">
+        <v>-0.2635332658056804</v>
       </c>
     </row>
   </sheetData>

--- a/temp/stable_test.xlsx
+++ b/temp/stable_test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="381">
   <si>
     <t>华英农业</t>
   </si>
@@ -28,1120 +28,1135 @@
     <t>time</t>
   </si>
   <si>
-    <t>2019-07-31 14:09:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 13:52:00</t>
-  </si>
-  <si>
-    <t>2019-07-30 14:59:00</t>
-  </si>
-  <si>
-    <t>2019-07-30 14:58:00</t>
-  </si>
-  <si>
-    <t>2019-07-30 14:57:00</t>
-  </si>
-  <si>
-    <t>2019-07-30 14:34:00</t>
-  </si>
-  <si>
-    <t>2019-07-30 10:21:00</t>
-  </si>
-  <si>
-    <t>2019-07-30 10:18:00</t>
-  </si>
-  <si>
-    <t>2019-07-26 13:08:00</t>
-  </si>
-  <si>
-    <t>2019-07-26 11:12:00</t>
-  </si>
-  <si>
-    <t>2019-07-25 11:07:00</t>
-  </si>
-  <si>
-    <t>2019-07-24 14:49:00</t>
-  </si>
-  <si>
-    <t>2019-07-24 13:39:00</t>
-  </si>
-  <si>
-    <t>2019-07-24 11:23:00</t>
-  </si>
-  <si>
-    <t>2019-07-23 13:07:00</t>
-  </si>
-  <si>
-    <t>2019-07-23 11:00:00</t>
-  </si>
-  <si>
-    <t>2019-07-22 13:33:00</t>
-  </si>
-  <si>
-    <t>2019-07-22 10:45:00</t>
-  </si>
-  <si>
-    <t>2019-07-19 14:16:00</t>
-  </si>
-  <si>
-    <t>2019-07-19 13:36:00</t>
-  </si>
-  <si>
-    <t>2019-07-19 10:43:00</t>
-  </si>
-  <si>
-    <t>2019-07-18 13:12:00</t>
-  </si>
-  <si>
-    <t>2019-07-18 11:17:00</t>
-  </si>
-  <si>
-    <t>2019-07-16 13:56:00</t>
-  </si>
-  <si>
-    <t>2019-07-15 14:23:00</t>
-  </si>
-  <si>
-    <t>2019-07-15 13:29:00</t>
-  </si>
-  <si>
-    <t>2019-07-15 11:22:00</t>
-  </si>
-  <si>
-    <t>2019-07-15 09:53:00</t>
-  </si>
-  <si>
-    <t>2019-07-15 09:49:00</t>
-  </si>
-  <si>
-    <t>2019-07-15 09:37:00</t>
-  </si>
-  <si>
-    <t>2019-07-12 10:14:00</t>
-  </si>
-  <si>
-    <t>2019-07-12 09:43:00</t>
-  </si>
-  <si>
-    <t>2019-07-11 14:18:00</t>
-  </si>
-  <si>
-    <t>2019-07-11 13:05:00</t>
-  </si>
-  <si>
-    <t>2019-07-11 09:38:00</t>
-  </si>
-  <si>
-    <t>2019-07-10 14:43:00</t>
-  </si>
-  <si>
-    <t>2019-07-10 11:25:00</t>
-  </si>
-  <si>
-    <t>2019-07-09 14:17:00</t>
-  </si>
-  <si>
-    <t>2019-07-09 13:59:00</t>
-  </si>
-  <si>
-    <t>2019-07-09 13:38:00</t>
-  </si>
-  <si>
-    <t>2019-07-09 09:38:00</t>
-  </si>
-  <si>
-    <t>2019-07-08 14:19:00</t>
-  </si>
-  <si>
-    <t>2019-07-08 10:41:00</t>
-  </si>
-  <si>
-    <t>2019-07-08 09:41:00</t>
-  </si>
-  <si>
-    <t>2019-07-08 09:33:00</t>
-  </si>
-  <si>
-    <t>2019-07-05 13:30:00</t>
-  </si>
-  <si>
-    <t>2019-07-05 11:07:00</t>
-  </si>
-  <si>
-    <t>2019-07-04 14:59:00</t>
-  </si>
-  <si>
-    <t>2019-07-04 10:24:00</t>
-  </si>
-  <si>
-    <t>2019-07-03 14:48:00</t>
-  </si>
-  <si>
-    <t>2019-07-03 11:21:00</t>
-  </si>
-  <si>
-    <t>2019-07-03 09:41:00</t>
-  </si>
-  <si>
-    <t>2019-07-02 13:43:00</t>
-  </si>
-  <si>
-    <t>2019-07-02 10:01:00</t>
-  </si>
-  <si>
-    <t>2019-07-01 14:05:00</t>
-  </si>
-  <si>
-    <t>2019-07-01 13:33:00</t>
-  </si>
-  <si>
-    <t>2019-07-01 10:34:00</t>
-  </si>
-  <si>
-    <t>2019-06-27 11:16:00</t>
-  </si>
-  <si>
-    <t>2019-06-26 13:10:00</t>
-  </si>
-  <si>
-    <t>2019-06-26 10:31:00</t>
-  </si>
-  <si>
-    <t>2019-06-26 09:37:00</t>
-  </si>
-  <si>
-    <t>2019-06-25 11:19:00</t>
-  </si>
-  <si>
-    <t>2019-06-24 13:52:00</t>
-  </si>
-  <si>
-    <t>2019-06-24 10:28:00</t>
-  </si>
-  <si>
-    <t>2019-06-21 13:32:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 14:32:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 13:51:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 13:46:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 11:11:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 10:58:00</t>
-  </si>
-  <si>
-    <t>2019-06-19 11:17:00</t>
-  </si>
-  <si>
-    <t>2019-06-18 13:20:00</t>
-  </si>
-  <si>
-    <t>2019-06-18 11:21:00</t>
-  </si>
-  <si>
-    <t>2019-06-18 10:22:00</t>
-  </si>
-  <si>
-    <t>2019-06-18 09:35:00</t>
-  </si>
-  <si>
-    <t>2019-06-17 10:49:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 14:34:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 13:42:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 13:23:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 14:06:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 10:38:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 09:36:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 14:53:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 14:08:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 10:22:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 10:20:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 09:33:00</t>
-  </si>
-  <si>
-    <t>2019-06-10 14:01:00</t>
-  </si>
-  <si>
-    <t>2019-06-06 09:35:00</t>
-  </si>
-  <si>
-    <t>2019-06-05 13:38:00</t>
-  </si>
-  <si>
-    <t>2019-06-04 14:48:00</t>
-  </si>
-  <si>
-    <t>2019-06-04 14:39:00</t>
-  </si>
-  <si>
-    <t>2019-06-04 14:13:00</t>
-  </si>
-  <si>
-    <t>2019-06-04 11:02:00</t>
-  </si>
-  <si>
-    <t>2019-06-04 10:58:00</t>
-  </si>
-  <si>
-    <t>2019-06-04 10:00:00</t>
-  </si>
-  <si>
-    <t>2019-06-04 09:33:00</t>
-  </si>
-  <si>
-    <t>2019-06-03 11:29:00</t>
-  </si>
-  <si>
-    <t>2019-06-03 10:46:00</t>
-  </si>
-  <si>
-    <t>2019-06-03 10:03:00</t>
-  </si>
-  <si>
-    <t>2019-05-31 14:41:00</t>
-  </si>
-  <si>
-    <t>2019-05-31 14:36:00</t>
-  </si>
-  <si>
-    <t>2019-05-31 14:06:00</t>
-  </si>
-  <si>
-    <t>2019-05-31 10:31:00</t>
-  </si>
-  <si>
-    <t>2019-05-31 09:37:00</t>
-  </si>
-  <si>
-    <t>2019-05-29 11:26:00</t>
-  </si>
-  <si>
-    <t>2019-05-29 10:18:00</t>
-  </si>
-  <si>
-    <t>2019-05-28 14:49:00</t>
-  </si>
-  <si>
-    <t>2019-05-28 13:16:00</t>
-  </si>
-  <si>
-    <t>2019-05-24 14:32:00</t>
-  </si>
-  <si>
-    <t>2019-05-24 14:15:00</t>
-  </si>
-  <si>
-    <t>2019-05-24 10:24:00</t>
-  </si>
-  <si>
-    <t>2019-05-24 09:47:00</t>
-  </si>
-  <si>
-    <t>2019-05-23 14:08:00</t>
-  </si>
-  <si>
-    <t>2019-05-23 13:20:00</t>
-  </si>
-  <si>
-    <t>2019-05-23 10:17:00</t>
-  </si>
-  <si>
-    <t>2019-05-22 15:00:00</t>
-  </si>
-  <si>
-    <t>2019-05-22 14:51:00</t>
-  </si>
-  <si>
-    <t>2019-05-22 13:50:00</t>
-  </si>
-  <si>
-    <t>2019-05-21 11:28:00</t>
-  </si>
-  <si>
-    <t>2019-05-21 11:18:00</t>
-  </si>
-  <si>
-    <t>2019-05-21 11:15:00</t>
-  </si>
-  <si>
-    <t>2019-05-21 11:03:00</t>
-  </si>
-  <si>
-    <t>2019-05-21 09:42:00</t>
-  </si>
-  <si>
-    <t>2019-05-20 14:13:00</t>
-  </si>
-  <si>
-    <t>2019-05-17 13:52:00</t>
-  </si>
-  <si>
-    <t>2019-05-17 11:00:00</t>
-  </si>
-  <si>
-    <t>2019-05-16 11:29:00</t>
-  </si>
-  <si>
-    <t>2019-05-15 14:19:00</t>
-  </si>
-  <si>
-    <t>2019-05-15 13:43:00</t>
-  </si>
-  <si>
-    <t>2019-05-15 13:08:00</t>
-  </si>
-  <si>
-    <t>2019-05-15 10:23:00</t>
-  </si>
-  <si>
-    <t>2019-05-14 13:51:00</t>
-  </si>
-  <si>
-    <t>2019-05-13 14:57:00</t>
+    <t>2019-08-02 14:10:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 13:03:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 13:02:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 09:46:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 09:41:00</t>
+  </si>
+  <si>
+    <t>2019-08-01 14:39:00</t>
+  </si>
+  <si>
+    <t>2019-08-01 11:21:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 13:20:00</t>
+  </si>
+  <si>
+    <t>2019-07-30 14:42:00</t>
+  </si>
+  <si>
+    <t>2019-07-30 10:17:00</t>
+  </si>
+  <si>
+    <t>2019-07-29 14:00:00</t>
+  </si>
+  <si>
+    <t>2019-07-29 11:23:00</t>
+  </si>
+  <si>
+    <t>2019-07-29 10:58:00</t>
+  </si>
+  <si>
+    <t>2019-07-29 10:46:00</t>
+  </si>
+  <si>
+    <t>2019-07-29 10:13:00</t>
+  </si>
+  <si>
+    <t>2019-07-26 14:52:00</t>
+  </si>
+  <si>
+    <t>2019-07-26 14:13:00</t>
+  </si>
+  <si>
+    <t>2019-07-26 13:24:00</t>
+  </si>
+  <si>
+    <t>2019-07-26 13:11:00</t>
+  </si>
+  <si>
+    <t>2019-07-26 10:56:00</t>
+  </si>
+  <si>
+    <t>2019-07-25 11:29:00</t>
+  </si>
+  <si>
+    <t>2019-07-24 09:40:00</t>
+  </si>
+  <si>
+    <t>2019-07-23 14:52:00</t>
+  </si>
+  <si>
+    <t>2019-07-23 14:46:00</t>
+  </si>
+  <si>
+    <t>2019-07-23 14:00:00</t>
+  </si>
+  <si>
+    <t>2019-07-23 13:49:00</t>
+  </si>
+  <si>
+    <t>2019-07-23 09:47:00</t>
+  </si>
+  <si>
+    <t>2019-07-22 14:29:00</t>
+  </si>
+  <si>
+    <t>2019-07-22 13:40:00</t>
+  </si>
+  <si>
+    <t>2019-07-22 13:15:00</t>
+  </si>
+  <si>
+    <t>2019-07-22 13:10:00</t>
+  </si>
+  <si>
+    <t>2019-07-22 11:29:00</t>
+  </si>
+  <si>
+    <t>2019-07-19 14:33:00</t>
+  </si>
+  <si>
+    <t>2019-07-19 14:18:00</t>
+  </si>
+  <si>
+    <t>2019-07-19 09:40:00</t>
+  </si>
+  <si>
+    <t>2019-07-18 14:24:00</t>
+  </si>
+  <si>
+    <t>2019-07-18 14:18:00</t>
+  </si>
+  <si>
+    <t>2019-07-18 09:57:00</t>
+  </si>
+  <si>
+    <t>2019-07-17 14:06:00</t>
+  </si>
+  <si>
+    <t>2019-07-17 11:12:00</t>
+  </si>
+  <si>
+    <t>2019-07-16 13:44:00</t>
+  </si>
+  <si>
+    <t>2019-07-16 10:28:00</t>
+  </si>
+  <si>
+    <t>2019-07-16 09:41:00</t>
+  </si>
+  <si>
+    <t>2019-07-15 13:38:00</t>
+  </si>
+  <si>
+    <t>2019-07-12 14:29:00</t>
+  </si>
+  <si>
+    <t>2019-07-12 10:46:00</t>
+  </si>
+  <si>
+    <t>2019-07-11 14:32:00</t>
+  </si>
+  <si>
+    <t>2019-07-11 13:20:00</t>
+  </si>
+  <si>
+    <t>2019-07-11 11:22:00</t>
+  </si>
+  <si>
+    <t>2019-07-11 10:37:00</t>
+  </si>
+  <si>
+    <t>2019-07-11 10:19:00</t>
+  </si>
+  <si>
+    <t>2019-07-10 13:21:00</t>
+  </si>
+  <si>
+    <t>2019-07-10 11:22:00</t>
+  </si>
+  <si>
+    <t>2019-07-10 11:14:00</t>
+  </si>
+  <si>
+    <t>2019-07-10 11:10:00</t>
+  </si>
+  <si>
+    <t>2019-07-10 10:41:00</t>
+  </si>
+  <si>
+    <t>2019-07-10 09:41:00</t>
+  </si>
+  <si>
+    <t>2019-07-09 14:00:00</t>
+  </si>
+  <si>
+    <t>2019-07-09 13:22:00</t>
+  </si>
+  <si>
+    <t>2019-07-09 10:09:00</t>
+  </si>
+  <si>
+    <t>2019-07-08 14:17:00</t>
+  </si>
+  <si>
+    <t>2019-07-08 09:47:00</t>
+  </si>
+  <si>
+    <t>2019-07-08 09:31:00</t>
+  </si>
+  <si>
+    <t>2019-07-04 14:00:00</t>
+  </si>
+  <si>
+    <t>2019-07-04 11:01:00</t>
+  </si>
+  <si>
+    <t>2019-07-03 14:58:00</t>
+  </si>
+  <si>
+    <t>2019-07-03 14:36:00</t>
+  </si>
+  <si>
+    <t>2019-07-03 11:10:00</t>
+  </si>
+  <si>
+    <t>2019-06-28 14:32:00</t>
+  </si>
+  <si>
+    <t>2019-06-28 13:27:00</t>
+  </si>
+  <si>
+    <t>2019-06-28 13:23:00</t>
+  </si>
+  <si>
+    <t>2019-06-28 13:04:00</t>
+  </si>
+  <si>
+    <t>2019-06-28 10:14:00</t>
+  </si>
+  <si>
+    <t>2019-06-27 14:49:00</t>
+  </si>
+  <si>
+    <t>2019-06-27 14:10:00</t>
+  </si>
+  <si>
+    <t>2019-06-27 10:22:00</t>
+  </si>
+  <si>
+    <t>2019-06-26 13:57:00</t>
+  </si>
+  <si>
+    <t>2019-06-26 13:54:00</t>
+  </si>
+  <si>
+    <t>2019-06-26 10:02:00</t>
+  </si>
+  <si>
+    <t>2019-06-26 09:51:00</t>
+  </si>
+  <si>
+    <t>2019-06-25 14:55:00</t>
+  </si>
+  <si>
+    <t>2019-06-25 14:36:00</t>
+  </si>
+  <si>
+    <t>2019-06-25 10:37:00</t>
+  </si>
+  <si>
+    <t>2019-06-25 09:45:00</t>
+  </si>
+  <si>
+    <t>2019-06-24 14:04:00</t>
+  </si>
+  <si>
+    <t>2019-06-21 13:44:00</t>
+  </si>
+  <si>
+    <t>2019-06-21 10:09:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 14:44:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 14:02:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 11:12:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 09:56:00</t>
+  </si>
+  <si>
+    <t>2019-06-19 13:32:00</t>
+  </si>
+  <si>
+    <t>2019-06-18 14:45:00</t>
+  </si>
+  <si>
+    <t>2019-06-18 14:40:00</t>
+  </si>
+  <si>
+    <t>2019-06-18 09:52:00</t>
+  </si>
+  <si>
+    <t>2019-06-17 14:33:00</t>
+  </si>
+  <si>
+    <t>2019-06-17 11:21:00</t>
+  </si>
+  <si>
+    <t>2019-06-17 11:02:00</t>
+  </si>
+  <si>
+    <t>2019-06-17 10:42:00</t>
+  </si>
+  <si>
+    <t>2019-06-14 13:02:00</t>
+  </si>
+  <si>
+    <t>2019-06-14 09:49:00</t>
+  </si>
+  <si>
+    <t>2019-06-14 09:34:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 13:46:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 11:27:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 14:47:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 11:29:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 09:30:00</t>
+  </si>
+  <si>
+    <t>2019-06-11 13:56:00</t>
+  </si>
+  <si>
+    <t>2019-06-05 13:36:00</t>
+  </si>
+  <si>
+    <t>2019-06-05 10:05:00</t>
+  </si>
+  <si>
+    <t>2019-06-04 13:41:00</t>
+  </si>
+  <si>
+    <t>2019-06-04 13:27:00</t>
+  </si>
+  <si>
+    <t>2019-06-04 13:03:00</t>
+  </si>
+  <si>
+    <t>2019-06-04 10:09:00</t>
+  </si>
+  <si>
+    <t>2019-06-03 14:08:00</t>
+  </si>
+  <si>
+    <t>2019-06-03 09:30:00</t>
+  </si>
+  <si>
+    <t>2019-05-31 14:13:00</t>
+  </si>
+  <si>
+    <t>2019-05-31 11:09:00</t>
+  </si>
+  <si>
+    <t>2019-05-30 13:58:00</t>
+  </si>
+  <si>
+    <t>2019-05-30 13:57:00</t>
+  </si>
+  <si>
+    <t>2019-05-30 13:55:00</t>
+  </si>
+  <si>
+    <t>2019-05-29 09:46:00</t>
+  </si>
+  <si>
+    <t>2019-05-28 14:09:00</t>
+  </si>
+  <si>
+    <t>2019-05-28 13:58:00</t>
+  </si>
+  <si>
+    <t>2019-05-28 10:09:00</t>
+  </si>
+  <si>
+    <t>2019-05-27 14:30:00</t>
+  </si>
+  <si>
+    <t>2019-05-27 10:49:00</t>
+  </si>
+  <si>
+    <t>2019-05-24 11:18:00</t>
+  </si>
+  <si>
+    <t>2019-05-23 13:14:00</t>
+  </si>
+  <si>
+    <t>2019-05-22 14:52:00</t>
+  </si>
+  <si>
+    <t>2019-05-22 13:25:00</t>
+  </si>
+  <si>
+    <t>2019-05-22 13:04:00</t>
+  </si>
+  <si>
+    <t>2019-05-22 10:10:00</t>
+  </si>
+  <si>
+    <t>2019-05-21 14:29:00</t>
+  </si>
+  <si>
+    <t>2019-05-21 14:13:00</t>
+  </si>
+  <si>
+    <t>2019-05-21 10:54:00</t>
+  </si>
+  <si>
+    <t>2019-05-21 10:34:00</t>
+  </si>
+  <si>
+    <t>2019-05-21 10:02:00</t>
+  </si>
+  <si>
+    <t>2019-05-20 11:25:00</t>
+  </si>
+  <si>
+    <t>2019-05-20 10:43:00</t>
+  </si>
+  <si>
+    <t>2019-05-20 09:51:00</t>
+  </si>
+  <si>
+    <t>2019-05-17 14:59:00</t>
+  </si>
+  <si>
+    <t>2019-05-16 10:30:00</t>
+  </si>
+  <si>
+    <t>2019-05-16 09:57:00</t>
+  </si>
+  <si>
+    <t>2019-05-15 14:30:00</t>
+  </si>
+  <si>
+    <t>2019-05-14 14:50:00</t>
+  </si>
+  <si>
+    <t>2019-05-14 14:39:00</t>
+  </si>
+  <si>
+    <t>2019-05-14 13:02:00</t>
+  </si>
+  <si>
+    <t>2019-05-14 09:50:00</t>
   </si>
   <si>
     <t>2019-05-13 14:39:00</t>
   </si>
   <si>
-    <t>2019-05-13 14:20:00</t>
-  </si>
-  <si>
-    <t>2019-05-13 10:43:00</t>
-  </si>
-  <si>
-    <t>2019-05-10 13:50:00</t>
-  </si>
-  <si>
-    <t>2019-05-09 13:47:00</t>
-  </si>
-  <si>
-    <t>2019-05-08 10:53:00</t>
-  </si>
-  <si>
-    <t>2019-05-08 10:48:00</t>
-  </si>
-  <si>
-    <t>2019-05-08 10:13:00</t>
-  </si>
-  <si>
-    <t>2019-05-08 09:55:00</t>
-  </si>
-  <si>
-    <t>2019-05-07 11:25:00</t>
-  </si>
-  <si>
-    <t>2019-05-07 10:17:00</t>
-  </si>
-  <si>
-    <t>2019-05-07 09:40:00</t>
-  </si>
-  <si>
-    <t>2019-05-06 13:46:00</t>
-  </si>
-  <si>
-    <t>2019-05-06 13:35:00</t>
-  </si>
-  <si>
-    <t>2019-04-30 14:03:00</t>
-  </si>
-  <si>
-    <t>2019-04-30 13:08:00</t>
-  </si>
-  <si>
-    <t>2019-04-30 11:20:00</t>
-  </si>
-  <si>
-    <t>2019-04-30 10:30:00</t>
-  </si>
-  <si>
-    <t>2019-04-30 09:31:00</t>
-  </si>
-  <si>
-    <t>2019-04-29 14:40:00</t>
-  </si>
-  <si>
-    <t>2019-04-29 10:08:00</t>
-  </si>
-  <si>
-    <t>2019-04-25 13:35:00</t>
-  </si>
-  <si>
-    <t>2019-04-25 10:59:00</t>
-  </si>
-  <si>
-    <t>2019-04-25 10:45:00</t>
-  </si>
-  <si>
-    <t>2019-04-25 10:27:00</t>
-  </si>
-  <si>
-    <t>2019-04-24 14:53:00</t>
-  </si>
-  <si>
-    <t>2019-04-24 10:25:00</t>
-  </si>
-  <si>
-    <t>2019-04-23 10:52:00</t>
-  </si>
-  <si>
-    <t>2019-04-23 10:28:00</t>
-  </si>
-  <si>
-    <t>2019-04-22 09:35:00</t>
-  </si>
-  <si>
-    <t>2019-04-18 11:09:00</t>
-  </si>
-  <si>
-    <t>2019-04-17 14:26:00</t>
-  </si>
-  <si>
-    <t>2019-04-17 13:58:00</t>
-  </si>
-  <si>
-    <t>2019-04-17 13:40:00</t>
-  </si>
-  <si>
-    <t>2019-04-17 13:30:00</t>
-  </si>
-  <si>
-    <t>2019-04-17 11:15:00</t>
-  </si>
-  <si>
-    <t>2019-04-17 11:14:00</t>
+    <t>2019-05-13 13:17:00</t>
+  </si>
+  <si>
+    <t>2019-05-13 13:07:00</t>
+  </si>
+  <si>
+    <t>2019-05-10 11:00:00</t>
+  </si>
+  <si>
+    <t>2019-05-09 13:25:00</t>
+  </si>
+  <si>
+    <t>2019-05-09 10:41:00</t>
+  </si>
+  <si>
+    <t>2019-05-08 14:20:00</t>
+  </si>
+  <si>
+    <t>2019-05-08 14:13:00</t>
+  </si>
+  <si>
+    <t>2019-05-06 14:46:00</t>
+  </si>
+  <si>
+    <t>2019-05-06 14:41:00</t>
+  </si>
+  <si>
+    <t>2019-05-06 14:25:00</t>
+  </si>
+  <si>
+    <t>2019-05-06 11:09:00</t>
+  </si>
+  <si>
+    <t>2019-04-30 14:35:00</t>
+  </si>
+  <si>
+    <t>2019-04-30 13:18:00</t>
+  </si>
+  <si>
+    <t>2019-04-29 14:55:00</t>
+  </si>
+  <si>
+    <t>2019-04-29 14:04:00</t>
+  </si>
+  <si>
+    <t>2019-04-29 13:44:00</t>
+  </si>
+  <si>
+    <t>2019-04-29 13:36:00</t>
+  </si>
+  <si>
+    <t>2019-04-26 14:05:00</t>
+  </si>
+  <si>
+    <t>2019-04-26 11:13:00</t>
+  </si>
+  <si>
+    <t>2019-04-26 10:08:00</t>
+  </si>
+  <si>
+    <t>2019-04-26 09:53:00</t>
+  </si>
+  <si>
+    <t>2019-04-25 13:14:00</t>
+  </si>
+  <si>
+    <t>2019-04-25 10:34:00</t>
+  </si>
+  <si>
+    <t>2019-04-23 11:16:00</t>
+  </si>
+  <si>
+    <t>2019-04-19 13:11:00</t>
+  </si>
+  <si>
+    <t>2019-04-19 10:19:00</t>
+  </si>
+  <si>
+    <t>2019-04-19 10:16:00</t>
+  </si>
+  <si>
+    <t>2019-04-18 09:41:00</t>
+  </si>
+  <si>
+    <t>2019-04-17 14:54:00</t>
+  </si>
+  <si>
+    <t>2019-04-17 14:53:00</t>
   </si>
   <si>
     <t>2019-04-17 09:49:00</t>
   </si>
   <si>
-    <t>2019-04-16 13:53:00</t>
-  </si>
-  <si>
-    <t>2019-04-16 10:35:00</t>
-  </si>
-  <si>
-    <t>2019-04-16 09:56:00</t>
-  </si>
-  <si>
-    <t>2019-04-15 14:38:00</t>
-  </si>
-  <si>
-    <t>2019-04-15 13:05:00</t>
-  </si>
-  <si>
-    <t>2019-04-15 09:52:00</t>
-  </si>
-  <si>
-    <t>2019-04-12 13:44:00</t>
-  </si>
-  <si>
-    <t>2019-04-12 13:34:00</t>
-  </si>
-  <si>
-    <t>2019-04-12 10:40:00</t>
-  </si>
-  <si>
-    <t>2019-04-11 13:52:00</t>
-  </si>
-  <si>
-    <t>2019-04-10 13:14:00</t>
-  </si>
-  <si>
-    <t>2019-04-10 10:09:00</t>
-  </si>
-  <si>
-    <t>2019-04-10 09:40:00</t>
-  </si>
-  <si>
-    <t>2019-04-09 14:29:00</t>
-  </si>
-  <si>
-    <t>2019-04-04 14:45:00</t>
-  </si>
-  <si>
-    <t>2019-04-04 13:51:00</t>
-  </si>
-  <si>
-    <t>2019-04-04 10:17:00</t>
-  </si>
-  <si>
-    <t>2019-04-04 10:02:00</t>
-  </si>
-  <si>
-    <t>2019-04-03 14:51:00</t>
-  </si>
-  <si>
-    <t>2019-04-03 13:44:00</t>
-  </si>
-  <si>
-    <t>2019-04-03 10:29:00</t>
-  </si>
-  <si>
-    <t>2019-04-02 14:33:00</t>
-  </si>
-  <si>
-    <t>2019-04-01 09:30:00</t>
-  </si>
-  <si>
-    <t>2019-03-29 14:54:00</t>
-  </si>
-  <si>
-    <t>2019-03-29 10:12:00</t>
-  </si>
-  <si>
-    <t>2019-03-27 10:51:00</t>
-  </si>
-  <si>
-    <t>2019-03-27 10:45:00</t>
-  </si>
-  <si>
-    <t>2019-03-27 10:42:00</t>
-  </si>
-  <si>
-    <t>2019-03-27 10:13:00</t>
-  </si>
-  <si>
-    <t>2019-03-26 14:40:00</t>
-  </si>
-  <si>
-    <t>2019-03-26 10:11:00</t>
-  </si>
-  <si>
-    <t>2019-03-25 13:28:00</t>
-  </si>
-  <si>
-    <t>2019-03-25 10:35:00</t>
-  </si>
-  <si>
-    <t>2019-03-22 14:41:00</t>
-  </si>
-  <si>
-    <t>2019-03-22 13:43:00</t>
-  </si>
-  <si>
-    <t>2019-03-22 11:15:00</t>
-  </si>
-  <si>
-    <t>2019-03-21 11:23:00</t>
-  </si>
-  <si>
-    <t>2019-03-21 11:22:00</t>
-  </si>
-  <si>
-    <t>2019-03-21 10:13:00</t>
-  </si>
-  <si>
-    <t>2019-03-21 10:05:00</t>
-  </si>
-  <si>
-    <t>2019-03-20 14:35:00</t>
-  </si>
-  <si>
-    <t>2019-03-20 09:45:00</t>
-  </si>
-  <si>
-    <t>2019-03-20 09:38:00</t>
-  </si>
-  <si>
-    <t>2019-03-19 10:09:00</t>
-  </si>
-  <si>
-    <t>2019-03-19 09:54:00</t>
-  </si>
-  <si>
-    <t>2019-03-18 10:28:00</t>
-  </si>
-  <si>
-    <t>2019-03-18 09:59:00</t>
-  </si>
-  <si>
-    <t>2019-03-18 09:36:00</t>
-  </si>
-  <si>
-    <t>2019-03-15 13:11:00</t>
-  </si>
-  <si>
-    <t>2019-03-15 10:12:00</t>
-  </si>
-  <si>
-    <t>2019-03-14 13:36:00</t>
-  </si>
-  <si>
-    <t>2019-03-14 10:54:00</t>
-  </si>
-  <si>
-    <t>2019-03-13 14:20:00</t>
-  </si>
-  <si>
-    <t>2019-03-13 09:55:00</t>
-  </si>
-  <si>
-    <t>2019-03-13 09:49:00</t>
-  </si>
-  <si>
-    <t>2019-03-12 14:21:00</t>
-  </si>
-  <si>
-    <t>2019-03-12 10:23:00</t>
-  </si>
-  <si>
-    <t>2019-03-12 09:56:00</t>
-  </si>
-  <si>
-    <t>2019-03-07 09:40:00</t>
-  </si>
-  <si>
-    <t>2019-03-06 14:07:00</t>
-  </si>
-  <si>
-    <t>2019-03-06 13:56:00</t>
-  </si>
-  <si>
-    <t>2019-03-06 09:41:00</t>
-  </si>
-  <si>
-    <t>2019-03-05 13:45:00</t>
+    <t>2019-04-16 13:58:00</t>
+  </si>
+  <si>
+    <t>2019-04-16 13:32:00</t>
+  </si>
+  <si>
+    <t>2019-04-15 14:50:00</t>
+  </si>
+  <si>
+    <t>2019-04-15 14:20:00</t>
+  </si>
+  <si>
+    <t>2019-04-11 10:40:00</t>
+  </si>
+  <si>
+    <t>2019-04-10 14:51:00</t>
+  </si>
+  <si>
+    <t>2019-04-10 11:17:00</t>
+  </si>
+  <si>
+    <t>2019-04-10 10:10:00</t>
+  </si>
+  <si>
+    <t>2019-04-09 13:15:00</t>
+  </si>
+  <si>
+    <t>2019-04-09 10:05:00</t>
+  </si>
+  <si>
+    <t>2019-04-04 15:00:00</t>
+  </si>
+  <si>
+    <t>2019-04-04 11:16:00</t>
+  </si>
+  <si>
+    <t>2019-04-04 10:50:00</t>
+  </si>
+  <si>
+    <t>2019-04-04 09:33:00</t>
+  </si>
+  <si>
+    <t>2019-04-03 14:41:00</t>
+  </si>
+  <si>
+    <t>2019-04-03 13:54:00</t>
+  </si>
+  <si>
+    <t>2019-04-03 11:28:00</t>
+  </si>
+  <si>
+    <t>2019-04-03 09:50:00</t>
+  </si>
+  <si>
+    <t>2019-04-03 09:45:00</t>
+  </si>
+  <si>
+    <t>2019-04-02 13:41:00</t>
+  </si>
+  <si>
+    <t>2019-04-01 14:29:00</t>
+  </si>
+  <si>
+    <t>2019-04-01 14:22:00</t>
+  </si>
+  <si>
+    <t>2019-04-01 13:03:00</t>
+  </si>
+  <si>
+    <t>2019-04-01 10:30:00</t>
+  </si>
+  <si>
+    <t>2019-03-29 11:21:00</t>
+  </si>
+  <si>
+    <t>2019-03-29 10:27:00</t>
+  </si>
+  <si>
+    <t>2019-03-29 10:21:00</t>
+  </si>
+  <si>
+    <t>2019-03-28 14:24:00</t>
+  </si>
+  <si>
+    <t>2019-03-28 09:37:00</t>
+  </si>
+  <si>
+    <t>2019-03-27 13:26:00</t>
+  </si>
+  <si>
+    <t>2019-03-27 10:22:00</t>
+  </si>
+  <si>
+    <t>2019-03-26 11:01:00</t>
+  </si>
+  <si>
+    <t>2019-03-25 13:55:00</t>
+  </si>
+  <si>
+    <t>2019-03-25 11:18:00</t>
+  </si>
+  <si>
+    <t>2019-03-25 09:55:00</t>
+  </si>
+  <si>
+    <t>2019-03-21 14:58:00</t>
+  </si>
+  <si>
+    <t>2019-03-21 14:24:00</t>
+  </si>
+  <si>
+    <t>2019-03-21 13:55:00</t>
+  </si>
+  <si>
+    <t>2019-03-21 13:29:00</t>
+  </si>
+  <si>
+    <t>2019-03-21 10:41:00</t>
+  </si>
+  <si>
+    <t>2019-03-20 13:21:00</t>
+  </si>
+  <si>
+    <t>2019-03-20 09:52:00</t>
+  </si>
+  <si>
+    <t>2019-03-19 14:31:00</t>
+  </si>
+  <si>
+    <t>2019-03-19 14:09:00</t>
+  </si>
+  <si>
+    <t>2019-03-13 14:11:00</t>
+  </si>
+  <si>
+    <t>2019-03-13 13:51:00</t>
+  </si>
+  <si>
+    <t>2019-03-13 10:11:00</t>
+  </si>
+  <si>
+    <t>2019-03-12 11:12:00</t>
+  </si>
+  <si>
+    <t>2019-03-12 10:48:00</t>
+  </si>
+  <si>
+    <t>2019-03-12 10:46:00</t>
+  </si>
+  <si>
+    <t>2019-03-11 13:49:00</t>
+  </si>
+  <si>
+    <t>2019-03-07 14:57:00</t>
+  </si>
+  <si>
+    <t>2019-03-07 14:37:00</t>
+  </si>
+  <si>
+    <t>2019-03-07 10:26:00</t>
+  </si>
+  <si>
+    <t>2019-03-06 10:06:00</t>
+  </si>
+  <si>
+    <t>2019-03-06 09:37:00</t>
   </si>
   <si>
     <t>2019-03-05 13:40:00</t>
   </si>
   <si>
-    <t>2019-03-01 14:32:00</t>
-  </si>
-  <si>
-    <t>2019-03-01 14:05:00</t>
-  </si>
-  <si>
-    <t>2019-03-01 13:05:00</t>
+    <t>2019-03-05 13:24:00</t>
+  </si>
+  <si>
+    <t>2019-03-05 13:20:00</t>
+  </si>
+  <si>
+    <t>2019-03-05 11:15:00</t>
+  </si>
+  <si>
+    <t>2019-03-05 10:12:00</t>
+  </si>
+  <si>
+    <t>2019-03-05 09:32:00</t>
+  </si>
+  <si>
+    <t>2019-03-01 14:50:00</t>
+  </si>
+  <si>
+    <t>2019-03-01 14:44:00</t>
+  </si>
+  <si>
+    <t>2019-03-01 14:43:00</t>
+  </si>
+  <si>
+    <t>2019-03-01 13:20:00</t>
+  </si>
+  <si>
+    <t>2019-03-01 10:13:00</t>
   </si>
   <si>
     <t>2019-03-01 10:02:00</t>
   </si>
   <si>
-    <t>2019-02-28 14:33:00</t>
-  </si>
-  <si>
-    <t>2019-02-28 14:13:00</t>
-  </si>
-  <si>
-    <t>2019-02-28 13:54:00</t>
-  </si>
-  <si>
-    <t>2019-02-27 14:58:00</t>
-  </si>
-  <si>
-    <t>2019-02-27 10:48:00</t>
-  </si>
-  <si>
-    <t>2019-02-27 10:20:00</t>
-  </si>
-  <si>
-    <t>2019-02-27 10:10:00</t>
-  </si>
-  <si>
-    <t>2019-02-26 14:02:00</t>
-  </si>
-  <si>
-    <t>2019-02-26 10:46:00</t>
-  </si>
-  <si>
-    <t>2019-02-25 14:22:00</t>
-  </si>
-  <si>
-    <t>2019-02-25 10:16:00</t>
-  </si>
-  <si>
-    <t>2019-02-22 10:21:00</t>
-  </si>
-  <si>
-    <t>2019-02-21 13:14:00</t>
-  </si>
-  <si>
-    <t>2019-02-20 13:52:00</t>
-  </si>
-  <si>
-    <t>2019-02-19 14:51:00</t>
-  </si>
-  <si>
-    <t>2019-02-19 14:01:00</t>
-  </si>
-  <si>
-    <t>2019-02-19 11:26:00</t>
-  </si>
-  <si>
-    <t>2019-02-18 14:56:00</t>
-  </si>
-  <si>
-    <t>2019-02-18 13:18:00</t>
-  </si>
-  <si>
-    <t>2019-02-18 10:55:00</t>
-  </si>
-  <si>
-    <t>2019-02-18 10:49:00</t>
-  </si>
-  <si>
-    <t>2019-02-18 10:48:00</t>
-  </si>
-  <si>
-    <t>2019-02-15 14:17:00</t>
-  </si>
-  <si>
-    <t>2019-02-15 10:06:00</t>
+    <t>2019-02-28 10:27:00</t>
+  </si>
+  <si>
+    <t>2019-02-27 13:50:00</t>
+  </si>
+  <si>
+    <t>2019-02-27 10:33:00</t>
+  </si>
+  <si>
+    <t>2019-02-26 14:54:00</t>
+  </si>
+  <si>
+    <t>2019-02-26 13:54:00</t>
+  </si>
+  <si>
+    <t>2019-02-25 14:13:00</t>
+  </si>
+  <si>
+    <t>2019-02-25 10:21:00</t>
+  </si>
+  <si>
+    <t>2019-02-21 14:00:00</t>
+  </si>
+  <si>
+    <t>2019-02-21 13:24:00</t>
+  </si>
+  <si>
+    <t>2019-02-21 10:58:00</t>
+  </si>
+  <si>
+    <t>2019-02-19 14:45:00</t>
+  </si>
+  <si>
+    <t>2019-02-19 14:41:00</t>
+  </si>
+  <si>
+    <t>2019-02-19 13:31:00</t>
+  </si>
+  <si>
+    <t>2019-02-19 13:10:00</t>
+  </si>
+  <si>
+    <t>2019-02-19 11:12:00</t>
+  </si>
+  <si>
+    <t>2019-02-19 10:51:00</t>
+  </si>
+  <si>
+    <t>2019-02-18 14:10:00</t>
+  </si>
+  <si>
+    <t>2019-02-18 13:25:00</t>
+  </si>
+  <si>
+    <t>2019-02-18 11:28:00</t>
+  </si>
+  <si>
+    <t>2019-02-15 10:09:00</t>
+  </si>
+  <si>
+    <t>2019-02-15 09:51:00</t>
+  </si>
+  <si>
+    <t>2019-02-14 14:39:00</t>
   </si>
   <si>
     <t>2019-02-14 13:17:00</t>
   </si>
   <si>
-    <t>2019-02-14 10:59:00</t>
-  </si>
-  <si>
-    <t>2019-02-14 09:54:00</t>
-  </si>
-  <si>
-    <t>2019-02-14 09:40:00</t>
-  </si>
-  <si>
-    <t>2019-02-13 14:31:00</t>
-  </si>
-  <si>
-    <t>2019-02-13 13:52:00</t>
-  </si>
-  <si>
-    <t>2019-02-13 13:33:00</t>
+    <t>2019-02-14 10:37:00</t>
+  </si>
+  <si>
+    <t>2019-02-13 14:39:00</t>
   </si>
   <si>
     <t>2019-02-13 13:15:00</t>
   </si>
   <si>
-    <t>2019-02-13 11:06:00</t>
-  </si>
-  <si>
     <t>2019-02-13 10:14:00</t>
   </si>
   <si>
-    <t>2019-02-13 10:04:00</t>
-  </si>
-  <si>
-    <t>2019-02-11 14:14:00</t>
-  </si>
-  <si>
-    <t>2019-02-11 13:48:00</t>
-  </si>
-  <si>
-    <t>2019-02-01 13:54:00</t>
-  </si>
-  <si>
-    <t>2019-01-31 14:26:00</t>
-  </si>
-  <si>
-    <t>2019-01-31 14:18:00</t>
-  </si>
-  <si>
-    <t>2019-01-31 13:43:00</t>
-  </si>
-  <si>
-    <t>2019-01-31 13:22:00</t>
-  </si>
-  <si>
-    <t>2019-01-31 10:56:00</t>
-  </si>
-  <si>
-    <t>2019-01-31 10:47:00</t>
-  </si>
-  <si>
-    <t>2019-01-30 11:11:00</t>
-  </si>
-  <si>
-    <t>2019-01-29 14:13:00</t>
-  </si>
-  <si>
-    <t>2019-01-29 11:28:00</t>
-  </si>
-  <si>
-    <t>2019-01-25 15:00:00</t>
-  </si>
-  <si>
-    <t>2019-01-25 14:21:00</t>
-  </si>
-  <si>
-    <t>2019-01-25 13:41:00</t>
-  </si>
-  <si>
-    <t>2019-01-25 10:53:00</t>
+    <t>2019-02-13 09:59:00</t>
+  </si>
+  <si>
+    <t>2019-02-12 13:19:00</t>
+  </si>
+  <si>
+    <t>2019-02-12 11:05:00</t>
+  </si>
+  <si>
+    <t>2019-02-12 10:43:00</t>
+  </si>
+  <si>
+    <t>2019-02-01 10:57:00</t>
+  </si>
+  <si>
+    <t>2019-01-31 13:53:00</t>
+  </si>
+  <si>
+    <t>2019-01-30 14:43:00</t>
+  </si>
+  <si>
+    <t>2019-01-30 11:00:00</t>
+  </si>
+  <si>
+    <t>2019-01-30 10:21:00</t>
+  </si>
+  <si>
+    <t>2019-01-30 10:08:00</t>
+  </si>
+  <si>
+    <t>2019-01-29 10:56:00</t>
+  </si>
+  <si>
+    <t>2019-01-28 13:46:00</t>
+  </si>
+  <si>
+    <t>2019-01-28 10:28:00</t>
+  </si>
+  <si>
+    <t>2019-01-25 14:37:00</t>
   </si>
   <si>
     <t>2019-01-25 10:40:00</t>
   </si>
   <si>
-    <t>2019-01-24 10:38:00</t>
-  </si>
-  <si>
-    <t>2019-01-23 13:30:00</t>
-  </si>
-  <si>
-    <t>2019-01-23 10:17:00</t>
-  </si>
-  <si>
-    <t>2019-01-22 13:19:00</t>
-  </si>
-  <si>
-    <t>2019-01-21 15:00:00</t>
-  </si>
-  <si>
-    <t>2019-01-21 14:22:00</t>
-  </si>
-  <si>
-    <t>2019-01-21 11:17:00</t>
-  </si>
-  <si>
-    <t>2019-01-18 14:20:00</t>
-  </si>
-  <si>
-    <t>2019-01-18 13:16:00</t>
-  </si>
-  <si>
-    <t>2019-01-18 10:36:00</t>
-  </si>
-  <si>
-    <t>2019-01-18 10:06:00</t>
-  </si>
-  <si>
-    <t>2019-01-17 11:03:00</t>
-  </si>
-  <si>
-    <t>2019-01-15 10:41:00</t>
-  </si>
-  <si>
-    <t>2019-01-15 10:32:00</t>
-  </si>
-  <si>
-    <t>2019-01-14 13:39:00</t>
-  </si>
-  <si>
-    <t>2019-01-14 11:25:00</t>
-  </si>
-  <si>
-    <t>2019-01-14 10:23:00</t>
-  </si>
-  <si>
-    <t>2019-01-11 10:42:00</t>
-  </si>
-  <si>
-    <t>2019-01-11 10:32:00</t>
-  </si>
-  <si>
-    <t>2019-01-10 14:26:00</t>
-  </si>
-  <si>
-    <t>2019-01-10 13:36:00</t>
-  </si>
-  <si>
-    <t>2019-01-09 13:17:00</t>
-  </si>
-  <si>
-    <t>2019-01-09 11:01:00</t>
-  </si>
-  <si>
-    <t>2019-01-09 10:02:00</t>
+    <t>2019-01-24 14:40:00</t>
+  </si>
+  <si>
+    <t>2019-01-24 14:23:00</t>
+  </si>
+  <si>
+    <t>2019-01-24 10:14:00</t>
+  </si>
+  <si>
+    <t>2019-01-24 09:46:00</t>
+  </si>
+  <si>
+    <t>2019-01-23 14:58:00</t>
+  </si>
+  <si>
+    <t>2019-01-21 14:21:00</t>
+  </si>
+  <si>
+    <t>2019-01-21 13:14:00</t>
+  </si>
+  <si>
+    <t>2019-01-21 10:52:00</t>
+  </si>
+  <si>
+    <t>2019-01-21 10:47:00</t>
+  </si>
+  <si>
+    <t>2019-01-18 14:18:00</t>
+  </si>
+  <si>
+    <t>2019-01-18 14:15:00</t>
+  </si>
+  <si>
+    <t>2019-01-18 13:31:00</t>
+  </si>
+  <si>
+    <t>2019-01-18 13:30:00</t>
+  </si>
+  <si>
+    <t>2019-01-18 13:18:00</t>
+  </si>
+  <si>
+    <t>2019-01-17 13:52:00</t>
+  </si>
+  <si>
+    <t>2019-01-17 13:36:00</t>
+  </si>
+  <si>
+    <t>2019-01-17 10:47:00</t>
+  </si>
+  <si>
+    <t>2019-01-16 10:32:00</t>
+  </si>
+  <si>
+    <t>2019-01-16 09:33:00</t>
+  </si>
+  <si>
+    <t>2019-01-15 13:50:00</t>
+  </si>
+  <si>
+    <t>2019-01-15 11:26:00</t>
+  </si>
+  <si>
+    <t>2019-01-14 14:11:00</t>
+  </si>
+  <si>
+    <t>2019-01-14 10:49:00</t>
+  </si>
+  <si>
+    <t>2019-01-14 09:59:00</t>
+  </si>
+  <si>
+    <t>2019-01-11 14:56:00</t>
+  </si>
+  <si>
+    <t>2019-01-11 14:05:00</t>
+  </si>
+  <si>
+    <t>2019-01-10 14:07:00</t>
+  </si>
+  <si>
+    <t>2019-01-10 13:55:00</t>
+  </si>
+  <si>
+    <t>2019-01-09 14:27:00</t>
+  </si>
+  <si>
+    <t>2019-01-09 14:17:00</t>
+  </si>
+  <si>
+    <t>2019-01-09 13:51:00</t>
+  </si>
+  <si>
+    <t>2019-01-09 13:46:00</t>
+  </si>
+  <si>
+    <t>2019-01-09 13:29:00</t>
+  </si>
+  <si>
+    <t>2019-01-09 13:15:00</t>
+  </si>
+  <si>
+    <t>2019-01-09 10:18:00</t>
   </si>
   <si>
     <t>2019-01-08 14:03:00</t>
   </si>
   <si>
-    <t>2019-01-08 13:53:00</t>
-  </si>
-  <si>
-    <t>2019-01-08 13:43:00</t>
-  </si>
-  <si>
-    <t>2019-01-08 13:08:00</t>
-  </si>
-  <si>
     <t>2019-01-08 09:43:00</t>
   </si>
   <si>
+    <t>2019-01-07 14:18:00</t>
+  </si>
+  <si>
     <t>2019-01-07 14:15:00</t>
   </si>
   <si>
-    <t>2019-01-07 13:23:00</t>
-  </si>
-  <si>
-    <t>2019-01-07 13:03:00</t>
-  </si>
-  <si>
-    <t>2019-01-04 14:08:00</t>
-  </si>
-  <si>
-    <t>2019-01-04 11:22:00</t>
-  </si>
-  <si>
-    <t>2019-01-04 10:20:00</t>
-  </si>
-  <si>
-    <t>2019-01-03 14:53:00</t>
-  </si>
-  <si>
-    <t>2019-01-03 13:23:00</t>
-  </si>
-  <si>
-    <t>2019-01-03 10:13:00</t>
-  </si>
-  <si>
-    <t>2019-01-02 13:10:00</t>
-  </si>
-  <si>
-    <t>2019-01-02 10:33:00</t>
-  </si>
-  <si>
-    <t>2019-01-02 09:44:00</t>
-  </si>
-  <si>
-    <t>2018-12-28 14:02:00</t>
-  </si>
-  <si>
-    <t>2018-12-28 13:04:00</t>
-  </si>
-  <si>
-    <t>2018-12-28 11:17:00</t>
-  </si>
-  <si>
-    <t>2018-12-28 09:33:00</t>
-  </si>
-  <si>
-    <t>2018-12-27 09:44:00</t>
-  </si>
-  <si>
-    <t>2018-12-27 09:35:00</t>
+    <t>2019-01-07 11:11:00</t>
+  </si>
+  <si>
+    <t>2019-01-07 10:01:00</t>
+  </si>
+  <si>
+    <t>2019-01-04 14:28:00</t>
+  </si>
+  <si>
+    <t>2019-01-04 11:29:00</t>
+  </si>
+  <si>
+    <t>2019-01-03 14:57:00</t>
+  </si>
+  <si>
+    <t>2019-01-03 14:35:00</t>
+  </si>
+  <si>
+    <t>2019-01-03 10:41:00</t>
+  </si>
+  <si>
+    <t>2019-01-02 10:34:00</t>
+  </si>
+  <si>
+    <t>2019-01-02 10:17:00</t>
+  </si>
+  <si>
+    <t>2019-01-02 09:38:00</t>
+  </si>
+  <si>
+    <t>2018-12-28 10:10:00</t>
+  </si>
+  <si>
+    <t>2018-12-27 09:50:00</t>
+  </si>
+  <si>
+    <t>2018-12-26 13:32:00</t>
   </si>
   <si>
     <t>2018-12-26 13:21:00</t>
   </si>
   <si>
-    <t>2018-12-26 11:25:00</t>
-  </si>
-  <si>
-    <t>2018-12-26 11:23:00</t>
-  </si>
-  <si>
-    <t>2018-12-26 11:15:00</t>
-  </si>
-  <si>
-    <t>2018-12-25 14:28:00</t>
-  </si>
-  <si>
-    <t>2018-12-25 11:03:00</t>
-  </si>
-  <si>
-    <t>2018-12-24 14:45:00</t>
-  </si>
-  <si>
-    <t>2018-12-24 10:44:00</t>
-  </si>
-  <si>
-    <t>2018-12-20 15:00:00</t>
+    <t>2018-12-26 13:08:00</t>
+  </si>
+  <si>
+    <t>2018-12-26 10:09:00</t>
+  </si>
+  <si>
+    <t>2018-12-25 13:13:00</t>
+  </si>
+  <si>
+    <t>2018-12-24 13:31:00</t>
+  </si>
+  <si>
+    <t>2018-12-24 13:24:00</t>
+  </si>
+  <si>
+    <t>2018-12-24 09:32:00</t>
+  </si>
+  <si>
+    <t>2018-12-21 10:36:00</t>
+  </si>
+  <si>
+    <t>2018-12-21 10:01:00</t>
+  </si>
+  <si>
+    <t>2018-12-20 14:22:00</t>
   </si>
   <si>
     <t>2018-12-20 13:36:00</t>
   </si>
   <si>
-    <t>2018-12-20 11:07:00</t>
-  </si>
-  <si>
-    <t>2018-12-20 10:36:00</t>
-  </si>
-  <si>
-    <t>2018-12-20 09:55:00</t>
-  </si>
-  <si>
-    <t>2018-12-19 14:24:00</t>
-  </si>
-  <si>
-    <t>2018-12-17 14:38:00</t>
-  </si>
-  <si>
-    <t>2018-12-17 13:36:00</t>
-  </si>
-  <si>
-    <t>2018-12-17 13:32:00</t>
-  </si>
-  <si>
-    <t>2018-12-17 13:22:00</t>
-  </si>
-  <si>
-    <t>2018-12-14 13:44:00</t>
-  </si>
-  <si>
-    <t>2018-12-13 14:32:00</t>
-  </si>
-  <si>
-    <t>2018-12-13 10:55:00</t>
-  </si>
-  <si>
-    <t>2018-12-13 10:25:00</t>
+    <t>2018-12-20 13:34:00</t>
+  </si>
+  <si>
+    <t>2018-12-20 10:24:00</t>
+  </si>
+  <si>
+    <t>2018-12-19 13:14:00</t>
+  </si>
+  <si>
+    <t>2018-12-17 14:08:00</t>
+  </si>
+  <si>
+    <t>2018-12-17 10:57:00</t>
+  </si>
+  <si>
+    <t>2018-12-17 10:18:00</t>
+  </si>
+  <si>
+    <t>2018-12-14 14:56:00</t>
+  </si>
+  <si>
+    <t>2018-12-13 14:13:00</t>
   </si>
   <si>
     <t>2018-12-12 14:42:00</t>
   </si>
   <si>
+    <t>2018-12-12 13:59:00</t>
+  </si>
+  <si>
+    <t>2018-12-12 13:37:00</t>
+  </si>
+  <si>
     <t>2018-12-12 11:12:00</t>
   </si>
   <si>
     <t>2018-12-12 11:03:00</t>
   </si>
   <si>
-    <t>2018-12-11 11:08:00</t>
-  </si>
-  <si>
-    <t>2018-12-10 13:14:00</t>
-  </si>
-  <si>
-    <t>2018-12-10 10:20:00</t>
-  </si>
-  <si>
-    <t>2018-12-06 14:04:00</t>
+    <t>2018-12-11 14:04:00</t>
+  </si>
+  <si>
+    <t>2018-12-11 11:14:00</t>
+  </si>
+  <si>
+    <t>2018-12-11 09:39:00</t>
+  </si>
+  <si>
+    <t>2018-12-10 14:30:00</t>
+  </si>
+  <si>
+    <t>2018-12-10 13:15:00</t>
   </si>
   <si>
     <t>2018-12-06 14:01:00</t>
   </si>
   <si>
-    <t>2018-12-06 10:47:00</t>
+    <t>2018-12-06 13:44:00</t>
+  </si>
+  <si>
+    <t>2018-12-06 13:03:00</t>
+  </si>
+  <si>
+    <t>2018-12-06 10:28:00</t>
   </si>
   <si>
     <t>2018-12-06 10:16:00</t>
-  </si>
-  <si>
-    <t>2018-12-05 09:38:00</t>
   </si>
 </sst>
 </file>
@@ -1499,7 +1514,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D373"/>
+  <dimension ref="A1:D378"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1524,13 +1539,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>6.27</v>
+        <v>6.1</v>
       </c>
       <c r="C2">
-        <v>6.718665409110177</v>
+        <v>6.480933570956761</v>
       </c>
       <c r="D2">
-        <v>0.4486654091101769</v>
+        <v>0.3809335709567616</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1538,13 +1553,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>6.29</v>
+        <v>6.08</v>
       </c>
       <c r="C3">
-        <v>6.726675730219805</v>
+        <v>6.425737139113023</v>
       </c>
       <c r="D3">
-        <v>0.4366757302198048</v>
+        <v>0.3457371391130231</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1552,13 +1567,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6.32</v>
+        <v>6.07</v>
       </c>
       <c r="C4">
-        <v>6.716304443916277</v>
+        <v>6.431527391635315</v>
       </c>
       <c r="D4">
-        <v>0.3963044439162768</v>
+        <v>0.361527391635315</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1566,13 +1581,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>6.32</v>
+        <v>6.09</v>
       </c>
       <c r="C5">
-        <v>6.716304443916277</v>
+        <v>6.557968829649166</v>
       </c>
       <c r="D5">
-        <v>0.3963044439162768</v>
+        <v>0.4679688296491662</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1580,13 +1595,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>6.32</v>
+        <v>6.04</v>
       </c>
       <c r="C6">
-        <v>6.716753398269169</v>
+        <v>6.540547092412032</v>
       </c>
       <c r="D6">
-        <v>0.3967533982691691</v>
+        <v>0.5005470924120319</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1594,13 +1609,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>6.37</v>
+        <v>6.09</v>
       </c>
       <c r="C7">
-        <v>6.751669036956233</v>
+        <v>6.654280700753135</v>
       </c>
       <c r="D7">
-        <v>0.3816690369562332</v>
+        <v>0.5642807007531356</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1608,13 +1623,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>6.32</v>
+        <v>6.23</v>
       </c>
       <c r="C8">
-        <v>6.738433606969046</v>
+        <v>6.645941254352453</v>
       </c>
       <c r="D8">
-        <v>0.418433606969046</v>
+        <v>0.4159412543524521</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1622,13 +1637,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>6.34</v>
+        <v>6.29</v>
       </c>
       <c r="C9">
-        <v>6.74739511021783</v>
+        <v>6.579590242691264</v>
       </c>
       <c r="D9">
-        <v>0.4073951102178306</v>
+        <v>0.289590242691264</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1636,13 +1651,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>6.59</v>
+        <v>6.35</v>
       </c>
       <c r="C10">
-        <v>6.683881715719464</v>
+        <v>6.586395420861912</v>
       </c>
       <c r="D10">
-        <v>0.0938817157194638</v>
+        <v>0.2363954208619123</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1650,13 +1665,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>6.59</v>
+        <v>6.33</v>
       </c>
       <c r="C11">
-        <v>6.674415294166284</v>
+        <v>6.648021732035923</v>
       </c>
       <c r="D11">
-        <v>0.08441529416628413</v>
+        <v>0.3180217320359233</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1664,13 +1679,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>6.65</v>
+        <v>6.35</v>
       </c>
       <c r="C12">
-        <v>6.788410164267944</v>
+        <v>6.656478178133213</v>
       </c>
       <c r="D12">
-        <v>0.1384101642679436</v>
+        <v>0.3064781781332133</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1678,13 +1693,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>6.58</v>
+        <v>6.38</v>
       </c>
       <c r="C13">
-        <v>6.702086499964196</v>
+        <v>6.620976022193712</v>
       </c>
       <c r="D13">
-        <v>0.1220864999641957</v>
+        <v>0.2409760221937125</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1692,13 +1707,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>6.6</v>
+        <v>6.31</v>
       </c>
       <c r="C14">
-        <v>6.72686356127393</v>
+        <v>6.618554336256462</v>
       </c>
       <c r="D14">
-        <v>0.1268635612739306</v>
+        <v>0.3085543362564627</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1706,13 +1721,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>6.59</v>
+        <v>6.32</v>
       </c>
       <c r="C15">
-        <v>6.743927281813537</v>
+        <v>6.609595118758396</v>
       </c>
       <c r="D15">
-        <v>0.1539272818135373</v>
+        <v>0.2895951187583954</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1720,13 +1735,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>6.61</v>
+        <v>6.14</v>
       </c>
       <c r="C16">
-        <v>6.606219508472519</v>
+        <v>6.587187817941501</v>
       </c>
       <c r="D16">
-        <v>-0.003780491527481722</v>
+        <v>0.4471878179415016</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1734,13 +1749,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>6.56</v>
+        <v>6.61</v>
       </c>
       <c r="C17">
-        <v>6.560003911967591</v>
+        <v>6.67776988609096</v>
       </c>
       <c r="D17">
-        <v>3.91196759164103e-06</v>
+        <v>0.06776988609095991</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1748,13 +1763,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>6.58</v>
+        <v>6.6</v>
       </c>
       <c r="C18">
-        <v>6.618492319710542</v>
+        <v>6.679063170683028</v>
       </c>
       <c r="D18">
-        <v>0.03849231971054223</v>
+        <v>0.07906317068302826</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1762,13 +1777,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>6.61</v>
+        <v>6.58</v>
       </c>
       <c r="C19">
-        <v>6.605567916144551</v>
+        <v>6.640788495284726</v>
       </c>
       <c r="D19">
-        <v>-0.004432083855449243</v>
+        <v>0.06078849528472574</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1776,13 +1791,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>7.07</v>
+        <v>6.6</v>
       </c>
       <c r="C20">
-        <v>6.810073842436118</v>
+        <v>6.620136315330113</v>
       </c>
       <c r="D20">
-        <v>-0.259926157563882</v>
+        <v>0.02013631533011306</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1790,13 +1805,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>7.09</v>
+        <v>6.58</v>
       </c>
       <c r="C21">
-        <v>6.803727832368367</v>
+        <v>6.598168251946747</v>
       </c>
       <c r="D21">
-        <v>-0.2862721676316333</v>
+        <v>0.0181682519467472</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1804,13 +1819,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>7.15</v>
+        <v>6.65</v>
       </c>
       <c r="C22">
-        <v>6.872601213395486</v>
+        <v>6.745824938500956</v>
       </c>
       <c r="D22">
-        <v>-0.2773987866045147</v>
+        <v>0.09582493850095553</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1818,13 +1833,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>7.15</v>
+        <v>6.66</v>
       </c>
       <c r="C23">
-        <v>6.769630159230225</v>
+        <v>6.64139309501315</v>
       </c>
       <c r="D23">
-        <v>-0.3803698407697755</v>
+        <v>-0.01860690498685003</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1832,13 +1847,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>7.19</v>
+        <v>6.61</v>
       </c>
       <c r="C24">
-        <v>6.77457690138108</v>
+        <v>6.558431443356469</v>
       </c>
       <c r="D24">
-        <v>-0.4154230986189207</v>
+        <v>-0.05156855664353177</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1846,13 +1861,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>6.95</v>
+        <v>6.62</v>
       </c>
       <c r="C25">
-        <v>6.866668204145791</v>
+        <v>6.562406542517392</v>
       </c>
       <c r="D25">
-        <v>-0.08333179585420947</v>
+        <v>-0.05759345748260802</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1860,13 +1875,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>6.98</v>
+        <v>6.63</v>
       </c>
       <c r="C26">
-        <v>6.841791200270105</v>
+        <v>6.557538213602877</v>
       </c>
       <c r="D26">
-        <v>-0.1382087997298953</v>
+        <v>-0.07246178639712308</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1874,13 +1889,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>6.91</v>
+        <v>6.62</v>
       </c>
       <c r="C27">
-        <v>6.871309917226638</v>
+        <v>6.555937774008248</v>
       </c>
       <c r="D27">
-        <v>-0.03869008277336228</v>
+        <v>-0.06406222599175226</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1888,13 +1903,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>6.88</v>
+        <v>6.59</v>
       </c>
       <c r="C28">
-        <v>6.858947572889278</v>
+        <v>6.513658281991033</v>
       </c>
       <c r="D28">
-        <v>-0.02105242711072197</v>
+        <v>-0.07634171800896716</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1902,13 +1917,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>6.72</v>
+        <v>6.55</v>
       </c>
       <c r="C29">
-        <v>6.706128592917686</v>
+        <v>6.484224235529599</v>
       </c>
       <c r="D29">
-        <v>-0.0138714070823136</v>
+        <v>-0.06577576447040112</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1916,13 +1931,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>6.75</v>
+        <v>6.58</v>
       </c>
       <c r="C30">
-        <v>6.703871239940151</v>
+        <v>6.555448028137929</v>
       </c>
       <c r="D30">
-        <v>-0.04612876005984923</v>
+        <v>-0.02455197186207059</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1930,13 +1945,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>6.8</v>
+        <v>6.59</v>
       </c>
       <c r="C31">
-        <v>6.72210089581017</v>
+        <v>6.558041305254589</v>
       </c>
       <c r="D31">
-        <v>-0.07789910418982959</v>
+        <v>-0.03195869474541091</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1944,13 +1959,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>6.91</v>
+        <v>6.61</v>
       </c>
       <c r="C32">
-        <v>6.795270094934697</v>
+        <v>6.552806112771954</v>
       </c>
       <c r="D32">
-        <v>-0.1147299050653032</v>
+        <v>-0.05719388722804641</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1958,13 +1973,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>6.96</v>
+        <v>6.65</v>
       </c>
       <c r="C33">
-        <v>6.797474590187363</v>
+        <v>6.592111263953679</v>
       </c>
       <c r="D33">
-        <v>-0.1625254098126367</v>
+        <v>-0.05788873604632094</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1972,13 +1987,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>6.92</v>
+        <v>7.02</v>
       </c>
       <c r="C34">
-        <v>6.727020588251271</v>
+        <v>6.751040722432938</v>
       </c>
       <c r="D34">
-        <v>-0.1929794117487287</v>
+        <v>-0.2689592775670615</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1986,13 +2001,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>6.98</v>
+        <v>7.07</v>
       </c>
       <c r="C35">
-        <v>6.788023173324284</v>
+        <v>6.742727111237643</v>
       </c>
       <c r="D35">
-        <v>-0.1919768266757167</v>
+        <v>-0.3272728887623568</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2000,13 +2015,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>7.04</v>
+        <v>7.13</v>
       </c>
       <c r="C36">
-        <v>6.812240428912155</v>
+        <v>6.758757732944046</v>
       </c>
       <c r="D36">
-        <v>-0.2277595710878453</v>
+        <v>-0.3712422670559539</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2014,13 +2029,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>7.04</v>
+        <v>7.19</v>
       </c>
       <c r="C37">
-        <v>6.75903951123404</v>
+        <v>6.759197073863485</v>
       </c>
       <c r="D37">
-        <v>-0.2809604887659605</v>
+        <v>-0.4308029261365158</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2028,13 +2043,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>7.27</v>
+        <v>7.2</v>
       </c>
       <c r="C38">
-        <v>6.834140252975162</v>
+        <v>6.764597350373599</v>
       </c>
       <c r="D38">
-        <v>-0.4358597470248373</v>
+        <v>-0.4354026496264014</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2042,13 +2057,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>7.39</v>
+        <v>7.05</v>
       </c>
       <c r="C39">
-        <v>7.020136082405504</v>
+        <v>6.736088565020832</v>
       </c>
       <c r="D39">
-        <v>-0.369863917594496</v>
+        <v>-0.3139114349791674</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2056,13 +2071,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>7.35</v>
+        <v>7.06</v>
       </c>
       <c r="C40">
-        <v>7.033748651421284</v>
+        <v>6.758244374355719</v>
       </c>
       <c r="D40">
-        <v>-0.3162513485787155</v>
+        <v>-0.3017556256442804</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2070,13 +2085,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>7.22</v>
+        <v>7.08</v>
       </c>
       <c r="C41">
-        <v>6.977236463511735</v>
+        <v>6.727670847628481</v>
       </c>
       <c r="D41">
-        <v>-0.2427635364882645</v>
+        <v>-0.3523291523715191</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2084,13 +2099,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>7.15</v>
+        <v>6.94</v>
       </c>
       <c r="C42">
-        <v>7.018201867231802</v>
+        <v>6.817864597570351</v>
       </c>
       <c r="D42">
-        <v>-0.1317981327681981</v>
+        <v>-0.1221354024296497</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2098,13 +2113,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>7.05</v>
+        <v>6.96</v>
       </c>
       <c r="C43">
-        <v>6.927449527447994</v>
+        <v>6.869234016501663</v>
       </c>
       <c r="D43">
-        <v>-0.1225504725520059</v>
+        <v>-0.0907659834983372</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2112,13 +2127,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>7.11</v>
+        <v>6.96</v>
       </c>
       <c r="C44">
-        <v>6.946557304763632</v>
+        <v>6.854730204383257</v>
       </c>
       <c r="D44">
-        <v>-0.1634426952363688</v>
+        <v>-0.105269795616743</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2126,13 +2141,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>7.16</v>
+        <v>6.94</v>
       </c>
       <c r="C45">
-        <v>6.994012136826315</v>
+        <v>6.832706975011606</v>
       </c>
       <c r="D45">
-        <v>-0.1659878631736849</v>
+        <v>-0.1072930249883948</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2140,13 +2155,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>7.09</v>
+        <v>6.92</v>
       </c>
       <c r="C46">
-        <v>7.02643292687625</v>
+        <v>6.790623533515312</v>
       </c>
       <c r="D46">
-        <v>-0.06356707312374965</v>
+        <v>-0.1293764664846879</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2154,13 +2169,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>7.08</v>
+        <v>6.86</v>
       </c>
       <c r="C47">
-        <v>7.021699741966103</v>
+        <v>6.683165466898958</v>
       </c>
       <c r="D47">
-        <v>-0.05830025803389738</v>
+        <v>-0.1768345331010428</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2168,13 +2183,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>7.1</v>
+        <v>6.93</v>
       </c>
       <c r="C48">
-        <v>6.999715255692063</v>
+        <v>6.718758365222728</v>
       </c>
       <c r="D48">
-        <v>-0.1002847443079364</v>
+        <v>-0.2112416347772719</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2182,13 +2197,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>6.99</v>
+        <v>7</v>
       </c>
       <c r="C49">
-        <v>6.894142237470524</v>
+        <v>6.763218280702539</v>
       </c>
       <c r="D49">
-        <v>-0.09585776252947653</v>
+        <v>-0.2367817192974613</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2196,13 +2211,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>6.79</v>
+        <v>6.98</v>
       </c>
       <c r="C50">
-        <v>6.910643652596034</v>
+        <v>6.75976861948832</v>
       </c>
       <c r="D50">
-        <v>0.1206436525960344</v>
+        <v>-0.2202313805116809</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2210,13 +2225,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>6.79</v>
+        <v>7.05</v>
       </c>
       <c r="C51">
-        <v>6.852163304347032</v>
+        <v>6.774066571748188</v>
       </c>
       <c r="D51">
-        <v>0.06216330434703199</v>
+        <v>-0.275933428251812</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2224,13 +2239,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>6.75</v>
+        <v>7.05</v>
       </c>
       <c r="C52">
-        <v>6.868633754276617</v>
+        <v>6.825595262815945</v>
       </c>
       <c r="D52">
-        <v>0.1186337542766172</v>
+        <v>-0.224404737184055</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2238,13 +2253,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>6.67</v>
+        <v>7.24</v>
       </c>
       <c r="C53">
-        <v>6.810019533869724</v>
+        <v>6.815556320439057</v>
       </c>
       <c r="D53">
-        <v>0.1400195338697241</v>
+        <v>-0.4244436795609428</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2252,13 +2267,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>6.68</v>
+        <v>7.3</v>
       </c>
       <c r="C54">
-        <v>6.884159542683426</v>
+        <v>6.826106075402063</v>
       </c>
       <c r="D54">
-        <v>0.204159542683426</v>
+        <v>-0.4738939245979372</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2266,13 +2281,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>6.68</v>
+        <v>7.33</v>
       </c>
       <c r="C55">
-        <v>6.923593253823681</v>
+        <v>6.837517336381612</v>
       </c>
       <c r="D55">
-        <v>0.2435932538236809</v>
+        <v>-0.4924826636183877</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2280,13 +2295,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>6.64</v>
+        <v>7.3</v>
       </c>
       <c r="C56">
-        <v>6.869739259269467</v>
+        <v>6.85299066296025</v>
       </c>
       <c r="D56">
-        <v>0.2297392592694676</v>
+        <v>-0.4470093370397494</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2294,13 +2309,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>6.67</v>
+        <v>7.28</v>
       </c>
       <c r="C57">
-        <v>6.894312341995166</v>
+        <v>6.83202985095677</v>
       </c>
       <c r="D57">
-        <v>0.2243123419951658</v>
+        <v>-0.44797014904323</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2308,13 +2323,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>6.55</v>
+        <v>7.34</v>
       </c>
       <c r="C58">
-        <v>6.770390744876789</v>
+        <v>6.874326568113011</v>
       </c>
       <c r="D58">
-        <v>0.2203907448767888</v>
+        <v>-0.4656734318869891</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2322,13 +2337,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>6.52</v>
+        <v>7.34</v>
       </c>
       <c r="C59">
-        <v>6.624519814040587</v>
+        <v>7.002017355890576</v>
       </c>
       <c r="D59">
-        <v>0.1045198140405876</v>
+        <v>-0.3379826441094238</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2336,13 +2351,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>6.53</v>
+        <v>7.23</v>
       </c>
       <c r="C60">
-        <v>6.606555234510898</v>
+        <v>6.954307090717458</v>
       </c>
       <c r="D60">
-        <v>0.07655523451089774</v>
+        <v>-0.275692909282542</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2350,13 +2365,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>6.58</v>
+        <v>7.11</v>
       </c>
       <c r="C61">
-        <v>6.592309237746342</v>
+        <v>6.992273396304901</v>
       </c>
       <c r="D61">
-        <v>0.01230923774634185</v>
+        <v>-0.1177266036950995</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2364,13 +2379,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>6.54</v>
+        <v>7.06</v>
       </c>
       <c r="C62">
-        <v>6.62835481061742</v>
+        <v>6.933966001877083</v>
       </c>
       <c r="D62">
-        <v>0.08835481061742012</v>
+        <v>-0.1260339981229164</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2378,13 +2393,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>6.57</v>
+        <v>7.06</v>
       </c>
       <c r="C63">
-        <v>6.575228215252107</v>
+        <v>6.970484829803603</v>
       </c>
       <c r="D63">
-        <v>0.005228215252106594</v>
+        <v>-0.08951517019639699</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2392,13 +2407,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>6.67</v>
+        <v>7.06</v>
       </c>
       <c r="C64">
-        <v>6.712253923995538</v>
+        <v>7.028373992216</v>
       </c>
       <c r="D64">
-        <v>0.0422539239955384</v>
+        <v>-0.03162600778399938</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2406,13 +2421,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>6.54</v>
+        <v>6.7</v>
       </c>
       <c r="C65">
-        <v>6.686386110651238</v>
+        <v>6.900052513104932</v>
       </c>
       <c r="D65">
-        <v>0.1463861106512381</v>
+        <v>0.2000525131049313</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2420,13 +2435,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>6.61</v>
+        <v>6.71</v>
       </c>
       <c r="C66">
-        <v>6.769951384200077</v>
+        <v>6.865766271310902</v>
       </c>
       <c r="D66">
-        <v>0.1599513842000766</v>
+        <v>0.1557662713109016</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2434,13 +2449,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>6.57</v>
+        <v>6.8</v>
       </c>
       <c r="C67">
-        <v>6.664915223474567</v>
+        <v>6.850182190131108</v>
       </c>
       <c r="D67">
-        <v>0.09491522347456716</v>
+        <v>0.0501821901311077</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2448,13 +2463,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>6.57</v>
+        <v>6.76</v>
       </c>
       <c r="C68">
-        <v>6.633772394311935</v>
+        <v>6.811313341738915</v>
       </c>
       <c r="D68">
-        <v>0.06377239431193438</v>
+        <v>0.05131334173891489</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2462,13 +2477,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>6.55</v>
+        <v>6.68</v>
       </c>
       <c r="C69">
-        <v>6.623424307176295</v>
+        <v>6.813928132245167</v>
       </c>
       <c r="D69">
-        <v>0.07342430717629522</v>
+        <v>0.1339281322451669</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2476,13 +2491,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>6.48</v>
+        <v>6.51</v>
       </c>
       <c r="C70">
-        <v>6.63788908043529</v>
+        <v>6.660467492688712</v>
       </c>
       <c r="D70">
-        <v>0.1578890804352895</v>
+        <v>0.150467492688712</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2490,13 +2505,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>6.47</v>
+        <v>6.49</v>
       </c>
       <c r="C71">
-        <v>6.59413982325615</v>
+        <v>6.638867487483999</v>
       </c>
       <c r="D71">
-        <v>0.1241398232561499</v>
+        <v>0.148867487483999</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2504,13 +2519,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>6.65</v>
+        <v>6.48</v>
       </c>
       <c r="C72">
-        <v>6.580503671522454</v>
+        <v>6.640486614871559</v>
       </c>
       <c r="D72">
-        <v>-0.0694963284775465</v>
+        <v>0.1604866148715587</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2518,13 +2533,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>6.61</v>
+        <v>6.49</v>
       </c>
       <c r="C73">
-        <v>6.50008043498746</v>
+        <v>6.627816308161632</v>
       </c>
       <c r="D73">
-        <v>-0.1099195650125404</v>
+        <v>0.1378163081616322</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2532,13 +2547,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>6.66</v>
+        <v>6.54</v>
       </c>
       <c r="C74">
-        <v>6.50745232092051</v>
+        <v>6.674587835171662</v>
       </c>
       <c r="D74">
-        <v>-0.1525476790794897</v>
+        <v>0.1345878351716623</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2546,13 +2561,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>6.6</v>
+        <v>6.59</v>
       </c>
       <c r="C75">
-        <v>6.474828995486872</v>
+        <v>6.693421127163536</v>
       </c>
       <c r="D75">
-        <v>-0.1251710045131276</v>
+        <v>0.1034211271635357</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2563,10 +2578,10 @@
         <v>6.58</v>
       </c>
       <c r="C76">
-        <v>6.491323839391626</v>
+        <v>6.678364861580734</v>
       </c>
       <c r="D76">
-        <v>-0.08867616060837413</v>
+        <v>0.09836486158073399</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2574,13 +2589,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>6.57</v>
+        <v>6.56</v>
       </c>
       <c r="C77">
-        <v>6.414175714231982</v>
+        <v>6.659671866682388</v>
       </c>
       <c r="D77">
-        <v>-0.1558242857680181</v>
+        <v>0.09967186668238792</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2588,13 +2603,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>6.74</v>
+        <v>6.52</v>
       </c>
       <c r="C78">
-        <v>6.707103738534368</v>
+        <v>6.587412206568819</v>
       </c>
       <c r="D78">
-        <v>-0.03289626146563229</v>
+        <v>0.06741220656881985</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2602,13 +2617,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>6.74</v>
+        <v>6.52</v>
       </c>
       <c r="C79">
-        <v>6.6864372635862</v>
+        <v>6.587936508386306</v>
       </c>
       <c r="D79">
-        <v>-0.05356273641380049</v>
+        <v>0.06793650838630683</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2616,13 +2631,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>6.69</v>
+        <v>6.55</v>
       </c>
       <c r="C80">
-        <v>6.665601782190727</v>
+        <v>6.611518742084888</v>
       </c>
       <c r="D80">
-        <v>-0.02439821780927343</v>
+        <v>0.06151874208488817</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2630,13 +2645,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>6.76</v>
+        <v>6.58</v>
       </c>
       <c r="C81">
-        <v>6.628116191788978</v>
+        <v>6.65442215551198</v>
       </c>
       <c r="D81">
-        <v>-0.1318838082110219</v>
+        <v>0.07442215551198039</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2644,13 +2659,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>6.62</v>
+        <v>6.57</v>
       </c>
       <c r="C82">
-        <v>6.692198392054911</v>
+        <v>6.642529913667444</v>
       </c>
       <c r="D82">
-        <v>0.07219839205491052</v>
+        <v>0.07252991366744332</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2658,13 +2673,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>6.63</v>
+        <v>6.56</v>
       </c>
       <c r="C83">
-        <v>6.709238684278683</v>
+        <v>6.615931365575289</v>
       </c>
       <c r="D83">
-        <v>0.07923868427868275</v>
+        <v>0.05593136557528933</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2672,13 +2687,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>6.68</v>
+        <v>6.59</v>
       </c>
       <c r="C84">
-        <v>6.737432441278731</v>
+        <v>6.627352809739843</v>
       </c>
       <c r="D84">
-        <v>0.05743244127873126</v>
+        <v>0.03735280973984345</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2686,13 +2701,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>6.67</v>
+        <v>6.66</v>
       </c>
       <c r="C85">
-        <v>6.695214068279753</v>
+        <v>6.688557351919762</v>
       </c>
       <c r="D85">
-        <v>0.02521406827975348</v>
+        <v>0.02855735191976194</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2700,13 +2715,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>6.54</v>
+        <v>6.67</v>
       </c>
       <c r="C86">
-        <v>6.47992812385672</v>
+        <v>6.714242379575746</v>
       </c>
       <c r="D86">
-        <v>-0.06007187614328036</v>
+        <v>0.04424237957574562</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2714,13 +2729,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>6.55</v>
+        <v>6.6</v>
       </c>
       <c r="C87">
-        <v>6.502553919620977</v>
+        <v>6.762601447926992</v>
       </c>
       <c r="D87">
-        <v>-0.04744608037902243</v>
+        <v>0.1626014479269919</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2728,13 +2743,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>6.4</v>
+        <v>6.62</v>
       </c>
       <c r="C88">
-        <v>6.441582004084529</v>
+        <v>6.731355137983826</v>
       </c>
       <c r="D88">
-        <v>0.04158200408452828</v>
+        <v>0.1113551379838258</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2742,13 +2757,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>6.38</v>
+        <v>6.55</v>
       </c>
       <c r="C89">
-        <v>6.40839577749664</v>
+        <v>6.681376042546882</v>
       </c>
       <c r="D89">
-        <v>0.02839577749664013</v>
+        <v>0.131376042546882</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2759,10 +2774,10 @@
         <v>6.56</v>
       </c>
       <c r="C90">
-        <v>6.6290656486901</v>
+        <v>6.639959086876791</v>
       </c>
       <c r="D90">
-        <v>0.06906564869010001</v>
+        <v>0.07995908687679165</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2770,13 +2785,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>6.66</v>
+        <v>6.5</v>
       </c>
       <c r="C91">
-        <v>6.526538532754008</v>
+        <v>6.679020080071453</v>
       </c>
       <c r="D91">
-        <v>-0.1334614672459917</v>
+        <v>0.179020080071453</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2784,13 +2799,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>6.53</v>
+        <v>6.41</v>
       </c>
       <c r="C92">
-        <v>6.517515722789305</v>
+        <v>6.483865839878213</v>
       </c>
       <c r="D92">
-        <v>-0.01248427721069501</v>
+        <v>0.07386583987821282</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2798,13 +2813,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>6.51</v>
+        <v>6.6</v>
       </c>
       <c r="C93">
-        <v>6.499672706584455</v>
+        <v>6.584496883731592</v>
       </c>
       <c r="D93">
-        <v>-0.0103272934155445</v>
+        <v>-0.01550311626840717</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2812,13 +2827,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>6.56</v>
+        <v>6.57</v>
       </c>
       <c r="C94">
-        <v>6.521430853442901</v>
+        <v>6.486641619876725</v>
       </c>
       <c r="D94">
-        <v>-0.03856914655709875</v>
+        <v>-0.08335838012327557</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2826,13 +2841,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>6.62</v>
+        <v>6.59</v>
       </c>
       <c r="C95">
-        <v>6.57571318257823</v>
+        <v>6.504234230757588</v>
       </c>
       <c r="D95">
-        <v>-0.04428681742176988</v>
+        <v>-0.0857657692424123</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2840,13 +2855,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>6.61</v>
+        <v>6.64</v>
       </c>
       <c r="C96">
-        <v>6.566777969423065</v>
+        <v>6.453226554458119</v>
       </c>
       <c r="D96">
-        <v>-0.04322203057693574</v>
+        <v>-0.1867734455418804</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2854,13 +2869,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>6.6</v>
+        <v>6.57</v>
       </c>
       <c r="C97">
-        <v>6.621058883015055</v>
+        <v>6.375943932744201</v>
       </c>
       <c r="D97">
-        <v>0.02105888301505487</v>
+        <v>-0.1940560672557989</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2868,13 +2883,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>6.87</v>
+        <v>6.54</v>
       </c>
       <c r="C98">
-        <v>6.689109791496728</v>
+        <v>6.407986514116189</v>
       </c>
       <c r="D98">
-        <v>-0.1808902085032722</v>
+        <v>-0.1320134858838111</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2882,13 +2897,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>6.89</v>
+        <v>6.54</v>
       </c>
       <c r="C99">
-        <v>6.751268549642939</v>
+        <v>6.436023664884509</v>
       </c>
       <c r="D99">
-        <v>-0.1387314503570609</v>
+        <v>-0.1039763351154912</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2896,13 +2911,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>6.96</v>
+        <v>6.55</v>
       </c>
       <c r="C100">
-        <v>6.836573516219309</v>
+        <v>6.420885974828099</v>
       </c>
       <c r="D100">
-        <v>-0.1234264837806913</v>
+        <v>-0.1291140251719005</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2910,13 +2925,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>7.03</v>
+        <v>6.75</v>
       </c>
       <c r="C101">
-        <v>6.853476953485439</v>
+        <v>6.601518861244328</v>
       </c>
       <c r="D101">
-        <v>-0.1765230465145615</v>
+        <v>-0.1484811387556721</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2924,13 +2939,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>7.05</v>
+        <v>6.74</v>
       </c>
       <c r="C102">
-        <v>7.038503799020051</v>
+        <v>6.699162406295937</v>
       </c>
       <c r="D102">
-        <v>-0.0114962009799493</v>
+        <v>-0.04083759370406348</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2938,13 +2953,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>7.06</v>
+        <v>6.73</v>
       </c>
       <c r="C103">
-        <v>7.041525528270142</v>
+        <v>6.700717585027926</v>
       </c>
       <c r="D103">
-        <v>-0.01847447172985728</v>
+        <v>-0.02928241497207473</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2952,13 +2967,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>7.05</v>
+        <v>6.73</v>
       </c>
       <c r="C104">
-        <v>7.040479170616345</v>
+        <v>6.67734243064881</v>
       </c>
       <c r="D104">
-        <v>-0.009520829383654394</v>
+        <v>-0.05265756935119015</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2966,13 +2981,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>7.08</v>
+        <v>6.73</v>
       </c>
       <c r="C105">
-        <v>7.167279471528881</v>
+        <v>6.633719463833796</v>
       </c>
       <c r="D105">
-        <v>0.08727947152888049</v>
+        <v>-0.09628053616620491</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2980,13 +2995,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>7.09</v>
+        <v>6.79</v>
       </c>
       <c r="C106">
-        <v>7.164028182368721</v>
+        <v>6.617096115987945</v>
       </c>
       <c r="D106">
-        <v>0.07402818236872122</v>
+        <v>-0.1729038840120554</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2994,13 +3009,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>7.08</v>
+        <v>6.8</v>
       </c>
       <c r="C107">
-        <v>7.205470308749279</v>
+        <v>6.666273494680638</v>
       </c>
       <c r="D107">
-        <v>0.1254703087492786</v>
+        <v>-0.1337265053193617</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3008,13 +3023,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>7.12</v>
+        <v>6.69</v>
       </c>
       <c r="C108">
-        <v>7.229289180346504</v>
+        <v>6.685613769075264</v>
       </c>
       <c r="D108">
-        <v>0.1092891803465035</v>
+        <v>-0.004386230924736445</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3022,13 +3037,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>7.1</v>
+        <v>6.65</v>
       </c>
       <c r="C109">
-        <v>7.118206891877447</v>
+        <v>6.672768861718255</v>
       </c>
       <c r="D109">
-        <v>0.01820689187744762</v>
+        <v>0.0227688617182551</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3036,13 +3051,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>7.21</v>
+        <v>6.66</v>
       </c>
       <c r="C110">
-        <v>7.255009545879933</v>
+        <v>6.503775266579567</v>
       </c>
       <c r="D110">
-        <v>0.04500954587993267</v>
+        <v>-0.1562247334204336</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3050,13 +3065,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>6.85</v>
+        <v>6.45</v>
       </c>
       <c r="C111">
-        <v>7.342229865778798</v>
+        <v>6.40203622897306</v>
       </c>
       <c r="D111">
-        <v>0.492229865778798</v>
+        <v>-0.04796377102694027</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3064,13 +3079,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>6.82</v>
+        <v>6.56</v>
       </c>
       <c r="C112">
-        <v>7.24880753612924</v>
+        <v>6.514811389335685</v>
       </c>
       <c r="D112">
-        <v>0.4288075361292396</v>
+        <v>-0.04518861066431423</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3078,13 +3093,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>6.99</v>
+        <v>6.58</v>
       </c>
       <c r="C113">
-        <v>7.432416279901574</v>
+        <v>6.533014610140281</v>
       </c>
       <c r="D113">
-        <v>0.4424162799015736</v>
+        <v>-0.04698538985971901</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3092,13 +3107,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>7.03</v>
+        <v>6.55</v>
       </c>
       <c r="C114">
-        <v>7.505228070236814</v>
+        <v>6.532599904170711</v>
       </c>
       <c r="D114">
-        <v>0.4752280702368141</v>
+        <v>-0.01740009582928881</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3106,13 +3121,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>6.88</v>
+        <v>6.67</v>
       </c>
       <c r="C115">
-        <v>7.346977184659423</v>
+        <v>6.605573285500686</v>
       </c>
       <c r="D115">
-        <v>0.4669771846594228</v>
+        <v>-0.06442671449931403</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3120,13 +3135,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>6.99</v>
+        <v>6.87</v>
       </c>
       <c r="C116">
-        <v>7.46737483857545</v>
+        <v>6.79493497100942</v>
       </c>
       <c r="D116">
-        <v>0.4773748385754502</v>
+        <v>-0.0750650289905801</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3134,13 +3149,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>7.06</v>
+        <v>7</v>
       </c>
       <c r="C117">
-        <v>7.46766858408534</v>
+        <v>6.962418665569279</v>
       </c>
       <c r="D117">
-        <v>0.4076685840853402</v>
+        <v>-0.03758133443072076</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3148,13 +3163,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>7.19</v>
+        <v>7.05</v>
       </c>
       <c r="C118">
-        <v>7.540268160074099</v>
+        <v>7.057836737892661</v>
       </c>
       <c r="D118">
-        <v>0.3502681600740987</v>
+        <v>0.007836737892660928</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3162,13 +3177,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>7.18</v>
+        <v>7.13</v>
       </c>
       <c r="C119">
-        <v>7.503705404623027</v>
+        <v>7.139079545268322</v>
       </c>
       <c r="D119">
-        <v>0.323705404623027</v>
+        <v>0.009079545268321887</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3176,13 +3191,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>7.2</v>
+        <v>7.12</v>
       </c>
       <c r="C120">
-        <v>7.440171097924523</v>
+        <v>7.108447728279279</v>
       </c>
       <c r="D120">
-        <v>0.2401710979245228</v>
+        <v>-0.01155227172072149</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3190,13 +3205,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>7.22</v>
+        <v>7.1</v>
       </c>
       <c r="C121">
-        <v>7.57692679343706</v>
+        <v>7.09360056304355</v>
       </c>
       <c r="D121">
-        <v>0.3569267934370606</v>
+        <v>-0.006399436956449733</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3204,13 +3219,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>7.23</v>
+        <v>7.11</v>
       </c>
       <c r="C122">
-        <v>7.600706716245105</v>
+        <v>7.098342670293725</v>
       </c>
       <c r="D122">
-        <v>0.3707067162451043</v>
+        <v>-0.0116573297062752</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3218,13 +3233,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>7.23</v>
+        <v>7.05</v>
       </c>
       <c r="C123">
-        <v>7.602000493668163</v>
+        <v>7.182936907844905</v>
       </c>
       <c r="D123">
-        <v>0.3720004936681622</v>
+        <v>0.132936907844905</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3232,13 +3247,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>7.23</v>
+        <v>7.1</v>
       </c>
       <c r="C124">
-        <v>7.581324793381395</v>
+        <v>7.18823883005874</v>
       </c>
       <c r="D124">
-        <v>0.3513247933813943</v>
+        <v>0.08823883005874045</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3246,13 +3261,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>7.25</v>
+        <v>7.16</v>
       </c>
       <c r="C125">
-        <v>7.403140715805799</v>
+        <v>7.221872581447855</v>
       </c>
       <c r="D125">
-        <v>0.1531407158057991</v>
+        <v>0.06187258144785446</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3260,13 +3275,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>7.04</v>
+        <v>7.08</v>
       </c>
       <c r="C126">
-        <v>7.238283748193693</v>
+        <v>7.121107480816542</v>
       </c>
       <c r="D126">
-        <v>0.1982837481936928</v>
+        <v>0.04110748081654236</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3274,13 +3289,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="C127">
-        <v>7.489770528118477</v>
+        <v>7.504326546888667</v>
       </c>
       <c r="D127">
-        <v>-0.1102294718815227</v>
+        <v>0.5043265468886666</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3288,13 +3303,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>7.71</v>
+        <v>6.87</v>
       </c>
       <c r="C128">
-        <v>7.629210460463742</v>
+        <v>7.221881554964828</v>
       </c>
       <c r="D128">
-        <v>-0.08078953953625767</v>
+        <v>0.3518815549648275</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3302,13 +3317,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>7.4</v>
+        <v>6.96</v>
       </c>
       <c r="C129">
-        <v>7.585978050499801</v>
+        <v>7.446182218791634</v>
       </c>
       <c r="D129">
-        <v>0.1859780504998003</v>
+        <v>0.486182218791634</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3316,13 +3331,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>7.31</v>
+        <v>7</v>
       </c>
       <c r="C130">
-        <v>7.557860343550313</v>
+        <v>7.452185617258646</v>
       </c>
       <c r="D130">
-        <v>0.2478603435503137</v>
+        <v>0.452185617258646</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3330,13 +3345,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>7.27</v>
+        <v>7.19</v>
       </c>
       <c r="C131">
-        <v>7.504444252991055</v>
+        <v>7.51127202565173</v>
       </c>
       <c r="D131">
-        <v>0.2344442529910555</v>
+        <v>0.3212720256517292</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3344,13 +3359,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>7.26</v>
+        <v>7.21</v>
       </c>
       <c r="C132">
-        <v>7.461367451955773</v>
+        <v>7.456447919104489</v>
       </c>
       <c r="D132">
-        <v>0.2013674519557735</v>
+        <v>0.2464479191044893</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3358,13 +3373,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>7.17</v>
+        <v>7.23</v>
       </c>
       <c r="C133">
-        <v>7.378504838219426</v>
+        <v>7.491737700659643</v>
       </c>
       <c r="D133">
-        <v>0.2085048382194259</v>
+        <v>0.2617377006596424</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3375,10 +3390,10 @@
         <v>7.21</v>
       </c>
       <c r="C134">
-        <v>7.349538659519128</v>
+        <v>7.493045612612615</v>
       </c>
       <c r="D134">
-        <v>0.1395386595191281</v>
+        <v>0.2830456126126153</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3386,13 +3401,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>7.2</v>
+        <v>7.29</v>
       </c>
       <c r="C135">
-        <v>7.353343869645323</v>
+        <v>7.543833572186712</v>
       </c>
       <c r="D135">
-        <v>0.1533438696453233</v>
+        <v>0.2538335721867115</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3400,13 +3415,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>7.21</v>
+        <v>7.31</v>
       </c>
       <c r="C136">
-        <v>7.312063071546019</v>
+        <v>7.553624455516776</v>
       </c>
       <c r="D136">
-        <v>0.1020630715460191</v>
+        <v>0.2436244555167759</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3414,13 +3429,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>7.2</v>
+        <v>7.22</v>
       </c>
       <c r="C137">
-        <v>7.301914617583105</v>
+        <v>7.571889670559004</v>
       </c>
       <c r="D137">
-        <v>0.1019146175831045</v>
+        <v>0.3518896705590047</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3428,13 +3443,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>7.28</v>
+        <v>7.25</v>
       </c>
       <c r="C138">
-        <v>7.342347416254544</v>
+        <v>7.563379919506614</v>
       </c>
       <c r="D138">
-        <v>0.06234741625454365</v>
+        <v>0.3133799195066143</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3442,13 +3457,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>7.31</v>
+        <v>7.2</v>
       </c>
       <c r="C139">
-        <v>7.285178377457166</v>
+        <v>7.464201119429314</v>
       </c>
       <c r="D139">
-        <v>-0.02482162254283349</v>
+        <v>0.2642011194293135</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3456,13 +3471,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>7.18</v>
+        <v>7.09</v>
       </c>
       <c r="C140">
-        <v>7.112319271865722</v>
+        <v>7.278862237303628</v>
       </c>
       <c r="D140">
-        <v>-0.0676807281342775</v>
+        <v>0.1888622373036277</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3470,13 +3485,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>7.89</v>
+        <v>7.02</v>
       </c>
       <c r="C141">
-        <v>7.309418869363959</v>
+        <v>7.28952662119684</v>
       </c>
       <c r="D141">
-        <v>-0.5805811306360402</v>
+        <v>0.2695266211968406</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3484,13 +3499,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>7.94</v>
+        <v>6.86</v>
       </c>
       <c r="C142">
-        <v>7.292537609606839</v>
+        <v>7.087108158347657</v>
       </c>
       <c r="D142">
-        <v>-0.6474623903931613</v>
+        <v>0.2271081583476571</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3498,13 +3513,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>7.75</v>
+        <v>7.54</v>
       </c>
       <c r="C143">
-        <v>7.196977113547433</v>
+        <v>7.425475784939186</v>
       </c>
       <c r="D143">
-        <v>-0.5530228864525668</v>
+        <v>-0.1145242150608139</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3512,13 +3527,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>7.98</v>
+        <v>7.42</v>
       </c>
       <c r="C144">
-        <v>7.244715952030159</v>
+        <v>7.602275960158495</v>
       </c>
       <c r="D144">
-        <v>-0.7352840479698415</v>
+        <v>0.1822759601584956</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3526,13 +3541,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>8.210000000000001</v>
+        <v>7.48</v>
       </c>
       <c r="C145">
-        <v>7.782428069147397</v>
+        <v>7.538409933741663</v>
       </c>
       <c r="D145">
-        <v>-0.4275719308526043</v>
+        <v>0.05840993374166281</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3540,13 +3555,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>7.95</v>
+        <v>7.33</v>
       </c>
       <c r="C146">
-        <v>7.825946791056467</v>
+        <v>7.571294132054204</v>
       </c>
       <c r="D146">
-        <v>-0.1240532089435336</v>
+        <v>0.2412941320542039</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3554,13 +3569,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>7.96</v>
+        <v>7.13</v>
       </c>
       <c r="C147">
-        <v>7.822254884960625</v>
+        <v>7.316943690950765</v>
       </c>
       <c r="D147">
-        <v>-0.1377451150393751</v>
+        <v>0.1869436909507654</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3568,13 +3583,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>7.8</v>
+        <v>7.17</v>
       </c>
       <c r="C148">
-        <v>7.785401570183536</v>
+        <v>7.34650729114119</v>
       </c>
       <c r="D148">
-        <v>-0.01459842981646364</v>
+        <v>0.1765072911411902</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3582,13 +3597,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>7.73</v>
+        <v>7.26</v>
       </c>
       <c r="C149">
-        <v>7.795220211282764</v>
+        <v>7.40307175771288</v>
       </c>
       <c r="D149">
-        <v>0.06522021128276378</v>
+        <v>0.1430717577128799</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3596,13 +3611,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>7.8</v>
+        <v>7.05</v>
       </c>
       <c r="C150">
-        <v>8.378843516278916</v>
+        <v>7.321329574734227</v>
       </c>
       <c r="D150">
-        <v>0.5788435162789165</v>
+        <v>0.271329574734227</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3610,13 +3625,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>7.85</v>
+        <v>7.21</v>
       </c>
       <c r="C151">
-        <v>8.340446547650071</v>
+        <v>7.323243128836973</v>
       </c>
       <c r="D151">
-        <v>0.4904465476500715</v>
+        <v>0.1132431288369729</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3624,13 +3639,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>7.79</v>
+        <v>7.27</v>
       </c>
       <c r="C152">
-        <v>8.275751214865732</v>
+        <v>7.300917365345788</v>
       </c>
       <c r="D152">
-        <v>0.4857512148657319</v>
+        <v>0.03091736534578793</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3638,13 +3653,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>7.62</v>
+        <v>7.29</v>
       </c>
       <c r="C153">
-        <v>8.11906286462208</v>
+        <v>7.302928555477287</v>
       </c>
       <c r="D153">
-        <v>0.49906286462208</v>
+        <v>0.01292855547728688</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3652,13 +3667,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>7.53</v>
+        <v>7.37</v>
       </c>
       <c r="C154">
-        <v>7.977347818996369</v>
+        <v>7.285696109365322</v>
       </c>
       <c r="D154">
-        <v>0.4473478189963691</v>
+        <v>-0.08430389063467825</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3666,13 +3681,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>7.63</v>
+        <v>7.12</v>
       </c>
       <c r="C155">
-        <v>8.167497770332631</v>
+        <v>7.046103510218002</v>
       </c>
       <c r="D155">
-        <v>0.5374977703326307</v>
+        <v>-0.07389648978199848</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3680,13 +3695,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>7.9</v>
+        <v>7.19</v>
       </c>
       <c r="C156">
-        <v>8.251887304702537</v>
+        <v>6.956247775559163</v>
       </c>
       <c r="D156">
-        <v>0.3518873047025366</v>
+        <v>-0.2337522244408374</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3694,13 +3709,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>9.24</v>
+        <v>7.7</v>
       </c>
       <c r="C157">
-        <v>8.480429900056018</v>
+        <v>7.074665547871536</v>
       </c>
       <c r="D157">
-        <v>-0.7595700999439821</v>
+        <v>-0.6253344521284641</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3708,13 +3723,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>9.300000000000001</v>
+        <v>7.72</v>
       </c>
       <c r="C158">
-        <v>8.527417908684841</v>
+        <v>7.109802483186131</v>
       </c>
       <c r="D158">
-        <v>-0.7725820913151598</v>
+        <v>-0.6101975168138685</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3722,13 +3737,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>9.359999999999999</v>
+        <v>7.68</v>
       </c>
       <c r="C159">
-        <v>8.592079289552688</v>
+        <v>7.794695994635028</v>
       </c>
       <c r="D159">
-        <v>-0.7679207104473118</v>
+        <v>0.1146959946350279</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3736,13 +3751,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>9.43</v>
+        <v>7.74</v>
       </c>
       <c r="C160">
-        <v>8.680130433946951</v>
+        <v>7.812463274945785</v>
       </c>
       <c r="D160">
-        <v>-0.7498695660530483</v>
+        <v>0.07246327494578431</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3750,13 +3765,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>8.84</v>
+        <v>7.73</v>
       </c>
       <c r="C161">
-        <v>8.453888075280279</v>
+        <v>7.789169819958838</v>
       </c>
       <c r="D161">
-        <v>-0.3861119247197209</v>
+        <v>0.05916981995883752</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3764,13 +3779,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>8.640000000000001</v>
+        <v>7.98</v>
       </c>
       <c r="C162">
-        <v>8.243483907116746</v>
+        <v>7.882751916445384</v>
       </c>
       <c r="D162">
-        <v>-0.396516092883255</v>
+        <v>-0.09724808355461612</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3778,13 +3793,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>8.51</v>
+        <v>7.76</v>
       </c>
       <c r="C163">
-        <v>8.075149929174929</v>
+        <v>8.368551627840301</v>
       </c>
       <c r="D163">
-        <v>-0.4348500708250711</v>
+        <v>0.6085516278403009</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3792,13 +3807,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>8.5</v>
+        <v>7.84</v>
       </c>
       <c r="C164">
-        <v>8.08369395073165</v>
+        <v>8.318254999347516</v>
       </c>
       <c r="D164">
-        <v>-0.4163060492683499</v>
+        <v>0.4782549993475165</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3806,13 +3821,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>8.08</v>
+        <v>7.52</v>
       </c>
       <c r="C165">
-        <v>7.993889901619545</v>
+        <v>8.049632630912711</v>
       </c>
       <c r="D165">
-        <v>-0.08611009838045547</v>
+        <v>0.5296326309127117</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3820,13 +3835,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>8.44</v>
+        <v>7.72</v>
       </c>
       <c r="C166">
-        <v>8.013559335107905</v>
+        <v>8.204224808899625</v>
       </c>
       <c r="D166">
-        <v>-0.4264406648920946</v>
+        <v>0.4842248088996248</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3834,13 +3849,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>8.300000000000001</v>
+        <v>7.87</v>
       </c>
       <c r="C167">
-        <v>7.894625119886847</v>
+        <v>8.304139253289293</v>
       </c>
       <c r="D167">
-        <v>-0.405374880113154</v>
+        <v>0.4341392532892927</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3848,13 +3863,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>8.470000000000001</v>
+        <v>7.82</v>
       </c>
       <c r="C168">
-        <v>7.983369733447997</v>
+        <v>8.272750781753878</v>
       </c>
       <c r="D168">
-        <v>-0.4866302665520035</v>
+        <v>0.4527507817538776</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3862,13 +3877,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>8.449999999999999</v>
+        <v>8.44</v>
       </c>
       <c r="C169">
-        <v>7.953031407065611</v>
+        <v>8.031529233619544</v>
       </c>
       <c r="D169">
-        <v>-0.4969685929343886</v>
+        <v>-0.4084707663804554</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3876,13 +3891,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>8.52</v>
+        <v>8.48</v>
       </c>
       <c r="C170">
-        <v>8.015369898356653</v>
+        <v>8.033505320121805</v>
       </c>
       <c r="D170">
-        <v>-0.5046301016433468</v>
+        <v>-0.4464946798781959</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3890,13 +3905,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>8.24</v>
+        <v>8.35</v>
       </c>
       <c r="C171">
-        <v>7.896160662406929</v>
+        <v>8.030113229580341</v>
       </c>
       <c r="D171">
-        <v>-0.3438393375930708</v>
+        <v>-0.3198867704196591</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3904,13 +3919,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>8.26</v>
+        <v>8.35</v>
       </c>
       <c r="C172">
-        <v>7.877120408762245</v>
+        <v>7.915088919982438</v>
       </c>
       <c r="D172">
-        <v>-0.3828795912377547</v>
+        <v>-0.434911080017562</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3918,13 +3933,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>7.93</v>
+        <v>9.25</v>
       </c>
       <c r="C173">
-        <v>7.696897865786767</v>
+        <v>8.54495995492851</v>
       </c>
       <c r="D173">
-        <v>-0.2331021342132331</v>
+        <v>-0.70504004507149</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3932,13 +3947,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>7.72</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="C174">
-        <v>7.585589328480483</v>
+        <v>8.62659351661283</v>
       </c>
       <c r="D174">
-        <v>-0.1344106715195172</v>
+        <v>-0.733406483387169</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3946,13 +3961,13 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>7.65</v>
+        <v>8.6</v>
       </c>
       <c r="C175">
-        <v>7.508180385909842</v>
+        <v>8.125771250159435</v>
       </c>
       <c r="D175">
-        <v>-0.1418196140901582</v>
+        <v>-0.4742287498405648</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3960,13 +3975,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>7.61</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="C176">
-        <v>7.487528208161466</v>
+        <v>7.936364715287189</v>
       </c>
       <c r="D176">
-        <v>-0.1224717918385343</v>
+        <v>-0.09363528471281057</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3974,13 +3989,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>8.09</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="C177">
-        <v>7.841092030801212</v>
+        <v>7.956911058110972</v>
       </c>
       <c r="D177">
-        <v>-0.2489079691987879</v>
+        <v>-0.09308894188902883</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3988,13 +4003,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>8.119999999999999</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="C178">
-        <v>7.984056675844968</v>
+        <v>7.961916216243711</v>
       </c>
       <c r="D178">
-        <v>-0.135943324155031</v>
+        <v>-0.08808378375628934</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4002,13 +4017,13 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>8.19</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="C179">
-        <v>8.046643469394827</v>
+        <v>7.963371349765673</v>
       </c>
       <c r="D179">
-        <v>-0.1433565306051729</v>
+        <v>-0.4066286502343264</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4016,13 +4031,13 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>8.109999999999999</v>
+        <v>8.44</v>
       </c>
       <c r="C180">
-        <v>7.934918486338054</v>
+        <v>7.962146028334432</v>
       </c>
       <c r="D180">
-        <v>-0.1750815136619455</v>
+        <v>-0.4778539716655672</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4030,13 +4045,13 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>8.130000000000001</v>
+        <v>8.43</v>
       </c>
       <c r="C181">
-        <v>7.942932976812767</v>
+        <v>7.968210405943719</v>
       </c>
       <c r="D181">
-        <v>-0.1870670231872342</v>
+        <v>-0.4617895940562811</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4044,13 +4059,13 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>7.98</v>
+        <v>7.93</v>
       </c>
       <c r="C182">
-        <v>7.953256679756988</v>
+        <v>7.716445562272288</v>
       </c>
       <c r="D182">
-        <v>-0.02674332024301229</v>
+        <v>-0.2135544377277121</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4058,13 +4073,13 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>7.67</v>
+        <v>7.73</v>
       </c>
       <c r="C183">
-        <v>7.813560678746763</v>
+        <v>7.603306897456823</v>
       </c>
       <c r="D183">
-        <v>0.1435606787467627</v>
+        <v>-0.126693102543177</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4072,13 +4087,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>7.52</v>
+        <v>7.68</v>
       </c>
       <c r="C184">
-        <v>7.753185460843568</v>
+        <v>7.585504562418745</v>
       </c>
       <c r="D184">
-        <v>0.2331854608435684</v>
+        <v>-0.094495437581255</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4086,13 +4101,13 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>7.51</v>
+        <v>8.01</v>
       </c>
       <c r="C185">
-        <v>7.60895890729399</v>
+        <v>7.770241743153111</v>
       </c>
       <c r="D185">
-        <v>0.09895890729399071</v>
+        <v>-0.2397582568468888</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4100,13 +4115,13 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>7.48</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="C186">
-        <v>7.642038124667499</v>
+        <v>7.874053499116233</v>
       </c>
       <c r="D186">
-        <v>0.1620381246674985</v>
+        <v>-0.2359465008837667</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4114,13 +4129,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>7.55</v>
+        <v>7.68</v>
       </c>
       <c r="C187">
-        <v>7.635627018280536</v>
+        <v>7.866806098125805</v>
       </c>
       <c r="D187">
-        <v>0.08562701828053587</v>
+        <v>0.1868060981258051</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4128,13 +4143,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>7.63</v>
+        <v>7.48</v>
       </c>
       <c r="C188">
-        <v>7.970072782530758</v>
+        <v>7.756596542348955</v>
       </c>
       <c r="D188">
-        <v>0.3400727825307586</v>
+        <v>0.2765965423489547</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4142,13 +4157,13 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>7.61</v>
+        <v>7.5</v>
       </c>
       <c r="C189">
-        <v>7.982248943897996</v>
+        <v>7.769300794248551</v>
       </c>
       <c r="D189">
-        <v>0.3722489438979961</v>
+        <v>0.2693007942485508</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4156,13 +4171,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>7.62</v>
+        <v>7.5</v>
       </c>
       <c r="C190">
-        <v>7.948601381655859</v>
+        <v>7.638395554232922</v>
       </c>
       <c r="D190">
-        <v>0.3286013816558588</v>
+        <v>0.1383955542329218</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4170,13 +4185,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>7.62</v>
+        <v>7.58</v>
       </c>
       <c r="C191">
-        <v>7.984474491497094</v>
+        <v>7.752182893431675</v>
       </c>
       <c r="D191">
-        <v>0.3644744914970941</v>
+        <v>0.1721828934316747</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4184,13 +4199,13 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>7.67</v>
+        <v>7.61</v>
       </c>
       <c r="C192">
-        <v>7.953075073154967</v>
+        <v>7.771674568881455</v>
       </c>
       <c r="D192">
-        <v>0.2830750731549667</v>
+        <v>0.1616745688814545</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4198,13 +4213,13 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>7.62</v>
+        <v>7.6</v>
       </c>
       <c r="C193">
-        <v>7.934390273844718</v>
+        <v>8.043787933663458</v>
       </c>
       <c r="D193">
-        <v>0.314390273844718</v>
+        <v>0.443787933663458</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4212,13 +4227,13 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>7.67</v>
+        <v>7.61</v>
       </c>
       <c r="C194">
-        <v>7.852336803052705</v>
+        <v>7.915221300273101</v>
       </c>
       <c r="D194">
-        <v>0.1823368030527046</v>
+        <v>0.305221300273101</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4229,10 +4244,10 @@
         <v>7.63</v>
       </c>
       <c r="C195">
-        <v>7.871593242926879</v>
+        <v>7.897276467171835</v>
       </c>
       <c r="D195">
-        <v>0.2415932429268794</v>
+        <v>0.2672764671718353</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4240,13 +4255,13 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>7.42</v>
+        <v>7.7</v>
       </c>
       <c r="C196">
-        <v>7.699390460853056</v>
+        <v>8.043540291361426</v>
       </c>
       <c r="D196">
-        <v>0.2793904608530564</v>
+        <v>0.3435402913614256</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4254,13 +4269,13 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>7.39</v>
+        <v>7.65</v>
       </c>
       <c r="C197">
-        <v>7.59380396537226</v>
+        <v>7.937833161427681</v>
       </c>
       <c r="D197">
-        <v>0.2038039653722601</v>
+        <v>0.287833161427681</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4268,13 +4283,13 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>7.28</v>
+        <v>7.62</v>
       </c>
       <c r="C198">
-        <v>7.332410780103542</v>
+        <v>7.913882911825626</v>
       </c>
       <c r="D198">
-        <v>0.05241078010354183</v>
+        <v>0.2938829118256256</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4282,13 +4297,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>7.45</v>
+        <v>7.61</v>
       </c>
       <c r="C199">
-        <v>7.604618692754674</v>
+        <v>7.853859189089267</v>
       </c>
       <c r="D199">
-        <v>0.1546186927546733</v>
+        <v>0.2438591890892665</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4296,13 +4311,13 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>7.44</v>
+        <v>7.66</v>
       </c>
       <c r="C200">
-        <v>7.581884528405491</v>
+        <v>7.772950095053302</v>
       </c>
       <c r="D200">
-        <v>0.1418845284054902</v>
+        <v>0.1129500950533018</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4310,13 +4325,13 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>7.47</v>
+        <v>7.69</v>
       </c>
       <c r="C201">
-        <v>7.56419827850814</v>
+        <v>7.785247475091081</v>
       </c>
       <c r="D201">
-        <v>0.09419827850814055</v>
+        <v>0.09524747509108078</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4324,13 +4339,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>7.36</v>
+        <v>7.63</v>
       </c>
       <c r="C202">
-        <v>7.559208699324335</v>
+        <v>7.776071136124102</v>
       </c>
       <c r="D202">
-        <v>0.1992086993243349</v>
+        <v>0.1460711361241023</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4338,13 +4353,13 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>7.81</v>
+        <v>7.69</v>
       </c>
       <c r="C203">
-        <v>7.75723681572198</v>
+        <v>7.876845255829121</v>
       </c>
       <c r="D203">
-        <v>-0.05276318427802007</v>
+        <v>0.1868452558291205</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4352,13 +4367,13 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>7.98</v>
+        <v>7.7</v>
       </c>
       <c r="C204">
-        <v>7.935501373347302</v>
+        <v>7.889167216859891</v>
       </c>
       <c r="D204">
-        <v>-0.04449862665269855</v>
+        <v>0.1891672168598904</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4366,13 +4381,13 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>7.9</v>
+        <v>7.72</v>
       </c>
       <c r="C205">
-        <v>7.988021003352733</v>
+        <v>7.930299713120611</v>
       </c>
       <c r="D205">
-        <v>0.08802100335273266</v>
+        <v>0.2102997131206115</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4380,13 +4395,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>7.94</v>
+        <v>7.63</v>
       </c>
       <c r="C206">
-        <v>7.995275782501539</v>
+        <v>7.904061667180466</v>
       </c>
       <c r="D206">
-        <v>0.0552757825015382</v>
+        <v>0.2740616671804661</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4394,13 +4409,13 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>7.88</v>
+        <v>7.28</v>
       </c>
       <c r="C207">
-        <v>7.906473353802795</v>
+        <v>7.458331704205634</v>
       </c>
       <c r="D207">
-        <v>0.02647335380279525</v>
+        <v>0.1783317042056334</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4408,13 +4423,13 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>7.95</v>
+        <v>7.33</v>
       </c>
       <c r="C208">
-        <v>8.008053199774469</v>
+        <v>7.372884499730281</v>
       </c>
       <c r="D208">
-        <v>0.0580531997744691</v>
+        <v>0.04288449973028108</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4422,13 +4437,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>7.86</v>
+        <v>7.29</v>
       </c>
       <c r="C209">
-        <v>7.894036553785195</v>
+        <v>7.383687099381246</v>
       </c>
       <c r="D209">
-        <v>0.03403655378519499</v>
+        <v>0.09368709938124642</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4436,13 +4451,13 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>8.16</v>
+        <v>7.14</v>
       </c>
       <c r="C210">
-        <v>8.050272425986794</v>
+        <v>7.312200368913482</v>
       </c>
       <c r="D210">
-        <v>-0.1097275740132062</v>
+        <v>0.1722003689134821</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4450,13 +4465,13 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>8.16</v>
+        <v>7.21</v>
       </c>
       <c r="C211">
-        <v>8.034464419419134</v>
+        <v>7.372386173755869</v>
       </c>
       <c r="D211">
-        <v>-0.1255355805808662</v>
+        <v>0.1623861737558689</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4464,13 +4479,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>8.26</v>
+        <v>7.37</v>
       </c>
       <c r="C212">
-        <v>8.107123720123353</v>
+        <v>7.500076373764671</v>
       </c>
       <c r="D212">
-        <v>-0.1528762798766472</v>
+        <v>0.1300763737646706</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4478,13 +4493,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>8.17</v>
+        <v>7.45</v>
       </c>
       <c r="C213">
-        <v>8.043531387133314</v>
+        <v>7.602118329880897</v>
       </c>
       <c r="D213">
-        <v>-0.1264686128666863</v>
+        <v>0.1521183298808966</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4492,13 +4507,13 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>8.289999999999999</v>
+        <v>7.96</v>
       </c>
       <c r="C214">
-        <v>8.135056443168635</v>
+        <v>7.881358366159983</v>
       </c>
       <c r="D214">
-        <v>-0.1549435568313644</v>
+        <v>-0.0786416338400171</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4506,13 +4521,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>8.43</v>
+        <v>7.86</v>
       </c>
       <c r="C215">
-        <v>8.084779265760883</v>
+        <v>7.986501778852833</v>
       </c>
       <c r="D215">
-        <v>-0.3452207342391169</v>
+        <v>0.1265017788528331</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4520,13 +4535,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>8.49</v>
+        <v>7.85</v>
       </c>
       <c r="C216">
-        <v>8.15161222703321</v>
+        <v>7.91048000877022</v>
       </c>
       <c r="D216">
-        <v>-0.3383877729667901</v>
+        <v>0.06048000877022019</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4534,13 +4549,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>8.19</v>
+        <v>7.79</v>
       </c>
       <c r="C217">
-        <v>8.147853099873062</v>
+        <v>7.881308872365437</v>
       </c>
       <c r="D217">
-        <v>-0.04214690012693723</v>
+        <v>0.09130887236543739</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4548,13 +4563,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>8.199999999999999</v>
+        <v>8.27</v>
       </c>
       <c r="C218">
-        <v>8.107666023039409</v>
+        <v>8.213705184687827</v>
       </c>
       <c r="D218">
-        <v>-0.09233397696059065</v>
+        <v>-0.05629481531217273</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4562,13 +4577,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>8.01</v>
+        <v>8.4</v>
       </c>
       <c r="C219">
-        <v>7.959642646074631</v>
+        <v>8.334354308854506</v>
       </c>
       <c r="D219">
-        <v>-0.050357353925369</v>
+        <v>-0.06564569114549457</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4576,13 +4591,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>7.98</v>
+        <v>8.18</v>
       </c>
       <c r="C220">
-        <v>7.909815657736408</v>
+        <v>8.147845306584808</v>
       </c>
       <c r="D220">
-        <v>-0.07018434226359282</v>
+        <v>-0.03215469341519217</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4590,13 +4605,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>8.43</v>
+        <v>8.23</v>
       </c>
       <c r="C221">
-        <v>8.187205155306433</v>
+        <v>8.138372700568675</v>
       </c>
       <c r="D221">
-        <v>-0.2427948446935666</v>
+        <v>-0.09162729943132497</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4604,13 +4619,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>8.380000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C222">
-        <v>8.360026983581793</v>
+        <v>8.077477355684039</v>
       </c>
       <c r="D222">
-        <v>-0.01997301641820748</v>
+        <v>-0.1225226443159606</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4618,13 +4633,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>8.359999999999999</v>
+        <v>8.17</v>
       </c>
       <c r="C223">
-        <v>8.364089151773024</v>
+        <v>7.975230850231272</v>
       </c>
       <c r="D223">
-        <v>0.004089151773024824</v>
+        <v>-0.1947691497687281</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4632,13 +4647,13 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>8.23</v>
+        <v>8.48</v>
       </c>
       <c r="C224">
-        <v>8.381385919887823</v>
+        <v>8.135840937581511</v>
       </c>
       <c r="D224">
-        <v>0.1513859198878222</v>
+        <v>-0.3441590624184894</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4646,13 +4661,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>8.380000000000001</v>
+        <v>8.31</v>
       </c>
       <c r="C225">
-        <v>8.538915388788839</v>
+        <v>8.212735297422865</v>
       </c>
       <c r="D225">
-        <v>0.1589153887888379</v>
+        <v>-0.09726470257713515</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4660,13 +4675,13 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>9.140000000000001</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="C226">
-        <v>9.000081888456609</v>
+        <v>8.243718571924928</v>
       </c>
       <c r="D226">
-        <v>-0.1399181115433912</v>
+        <v>-0.1462814280750724</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4674,13 +4689,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>10.3</v>
+        <v>9.18</v>
       </c>
       <c r="C227">
-        <v>9.600730408044317</v>
+        <v>9.010993397982498</v>
       </c>
       <c r="D227">
-        <v>-0.6992695919556837</v>
+        <v>-0.1690066020175021</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4688,13 +4703,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>10.18</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C228">
-        <v>9.614617856113204</v>
+        <v>9.12375458652634</v>
       </c>
       <c r="D228">
-        <v>-0.5653821438867954</v>
+        <v>-0.1762454134736604</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4702,13 +4717,13 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>9.58</v>
+        <v>9.98</v>
       </c>
       <c r="C229">
-        <v>9.299536919278816</v>
+        <v>9.473665682045771</v>
       </c>
       <c r="D229">
-        <v>-0.2804630807211836</v>
+        <v>-0.506334317954229</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4716,13 +4731,13 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>9.289999999999999</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="C230">
-        <v>9.193333697357737</v>
+        <v>9.237697043278203</v>
       </c>
       <c r="D230">
-        <v>-0.09666630264226228</v>
+        <v>-0.2323029567217976</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4730,13 +4745,13 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>8.99</v>
+        <v>9.4</v>
       </c>
       <c r="C231">
-        <v>9.106204112966866</v>
+        <v>9.236868182238632</v>
       </c>
       <c r="D231">
-        <v>0.1162041129668658</v>
+        <v>-0.1631318177613679</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4744,13 +4759,13 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>7.85</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="C232">
-        <v>8.279529085595291</v>
+        <v>9.215650608224328</v>
       </c>
       <c r="D232">
-        <v>0.4295290855952913</v>
+        <v>-0.1643493917756729</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4758,13 +4773,13 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>7.7</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="C233">
-        <v>8.036518925996662</v>
+        <v>8.660222705543692</v>
       </c>
       <c r="D233">
-        <v>0.3365189259966614</v>
+        <v>0.03022270554369122</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4775,10 +4790,10 @@
         <v>7.73</v>
       </c>
       <c r="C234">
-        <v>8.089747440046088</v>
+        <v>8.348680283384219</v>
       </c>
       <c r="D234">
-        <v>0.3597474400460872</v>
+        <v>0.6186802833842187</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4786,13 +4801,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>7.67</v>
+        <v>7.77</v>
       </c>
       <c r="C235">
-        <v>7.943597740744169</v>
+        <v>8.421523951175537</v>
       </c>
       <c r="D235">
-        <v>0.2735977407441688</v>
+        <v>0.6515239511755375</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4803,10 +4818,10 @@
         <v>7.75</v>
       </c>
       <c r="C236">
-        <v>7.870428060124938</v>
+        <v>8.351275737893573</v>
       </c>
       <c r="D236">
-        <v>0.1204280601249383</v>
+        <v>0.6012757378935731</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4814,13 +4829,13 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>7.76</v>
+        <v>7.51</v>
       </c>
       <c r="C237">
-        <v>7.860278269632852</v>
+        <v>7.849890625808099</v>
       </c>
       <c r="D237">
-        <v>0.1002782696328524</v>
+        <v>0.3398906258080991</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4828,13 +4843,13 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>7.23</v>
+        <v>7.62</v>
       </c>
       <c r="C238">
-        <v>7.409460475160238</v>
+        <v>7.946934751769657</v>
       </c>
       <c r="D238">
-        <v>0.1794604751602371</v>
+        <v>0.3269347517696568</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4842,13 +4857,13 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>7.21</v>
+        <v>7.76</v>
       </c>
       <c r="C239">
-        <v>7.360158019115012</v>
+        <v>7.860765132542396</v>
       </c>
       <c r="D239">
-        <v>0.150158019115012</v>
+        <v>0.1007651325423957</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4856,13 +4871,13 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>7.22</v>
+        <v>7.8</v>
       </c>
       <c r="C240">
-        <v>7.348194755558199</v>
+        <v>7.914031159716458</v>
       </c>
       <c r="D240">
-        <v>0.1281947555581988</v>
+        <v>0.1140311597164585</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4870,13 +4885,13 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>7.14</v>
+        <v>7.82</v>
       </c>
       <c r="C241">
-        <v>7.195065911728122</v>
+        <v>7.894348291816787</v>
       </c>
       <c r="D241">
-        <v>0.05506591172812225</v>
+        <v>0.07434829181678637</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4884,13 +4899,13 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>7.02</v>
+        <v>7.89</v>
       </c>
       <c r="C242">
-        <v>7.13485446752796</v>
+        <v>7.898071820599871</v>
       </c>
       <c r="D242">
-        <v>0.1148544675279606</v>
+        <v>0.008071820599870883</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4898,13 +4913,13 @@
         <v>245</v>
       </c>
       <c r="B243">
-        <v>7.03</v>
+        <v>7.71</v>
       </c>
       <c r="C243">
-        <v>7.092448272564816</v>
+        <v>7.898032440496857</v>
       </c>
       <c r="D243">
-        <v>0.06244827256481589</v>
+        <v>0.1880324404968574</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4912,13 +4927,13 @@
         <v>246</v>
       </c>
       <c r="B244">
-        <v>7.03</v>
+        <v>7.53</v>
       </c>
       <c r="C244">
-        <v>7.109138196597581</v>
+        <v>7.712463632204157</v>
       </c>
       <c r="D244">
-        <v>0.07913819659758037</v>
+        <v>0.1824636322041568</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4926,13 +4941,13 @@
         <v>247</v>
       </c>
       <c r="B245">
-        <v>7.21</v>
+        <v>7.26</v>
       </c>
       <c r="C245">
-        <v>7.18543881841171</v>
+        <v>7.450122406950575</v>
       </c>
       <c r="D245">
-        <v>-0.02456118158829046</v>
+        <v>0.1901224069505751</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -4940,13 +4955,13 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>7.3</v>
+        <v>7.27</v>
       </c>
       <c r="C246">
-        <v>7.252587073649419</v>
+        <v>7.43995828555035</v>
       </c>
       <c r="D246">
-        <v>-0.0474129263505807</v>
+        <v>0.1699582855503508</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -4954,13 +4969,13 @@
         <v>249</v>
       </c>
       <c r="B247">
-        <v>7.26</v>
+        <v>7.28</v>
       </c>
       <c r="C247">
-        <v>7.135904599495165</v>
+        <v>7.442326264763782</v>
       </c>
       <c r="D247">
-        <v>-0.1240954005048351</v>
+        <v>0.1623262647637818</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -4968,13 +4983,13 @@
         <v>250</v>
       </c>
       <c r="B248">
-        <v>7.32</v>
+        <v>7.25</v>
       </c>
       <c r="C248">
-        <v>7.193728509009558</v>
+        <v>7.387502706727195</v>
       </c>
       <c r="D248">
-        <v>-0.1262714909904421</v>
+        <v>0.1375027067271954</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -4982,13 +4997,13 @@
         <v>251</v>
       </c>
       <c r="B249">
-        <v>7.69</v>
+        <v>7.15</v>
       </c>
       <c r="C249">
-        <v>7.445338333915601</v>
+        <v>7.267220040684975</v>
       </c>
       <c r="D249">
-        <v>-0.2446616660843999</v>
+        <v>0.117220040684975</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -4996,13 +5011,13 @@
         <v>252</v>
       </c>
       <c r="B250">
-        <v>7.53</v>
+        <v>7.14</v>
       </c>
       <c r="C250">
-        <v>7.203954213211112</v>
+        <v>7.212776326250625</v>
       </c>
       <c r="D250">
-        <v>-0.326045786788888</v>
+        <v>0.07277632625062491</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5010,13 +5025,13 @@
         <v>253</v>
       </c>
       <c r="B251">
-        <v>7.17</v>
+        <v>7.18</v>
       </c>
       <c r="C251">
-        <v>7.085352775073614</v>
+        <v>7.281059276177285</v>
       </c>
       <c r="D251">
-        <v>-0.08464722492638543</v>
+        <v>0.1010592761772848</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5024,13 +5039,13 @@
         <v>254</v>
       </c>
       <c r="B252">
-        <v>7.17</v>
+        <v>7.26</v>
       </c>
       <c r="C252">
-        <v>6.966967393244637</v>
+        <v>7.244508971646592</v>
       </c>
       <c r="D252">
-        <v>-0.2030326067553627</v>
+        <v>-0.01549102835340754</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5038,13 +5053,13 @@
         <v>255</v>
       </c>
       <c r="B253">
-        <v>7.06</v>
+        <v>7.31</v>
       </c>
       <c r="C253">
-        <v>6.509416234644197</v>
+        <v>7.215806430073728</v>
       </c>
       <c r="D253">
-        <v>-0.5505837653558023</v>
+        <v>-0.09419356992627126</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5055,10 +5070,10 @@
         <v>7.57</v>
       </c>
       <c r="C254">
-        <v>6.738385757385164</v>
+        <v>7.368843040078595</v>
       </c>
       <c r="D254">
-        <v>-0.8316142426148367</v>
+        <v>-0.2011569599214056</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5066,13 +5081,13 @@
         <v>257</v>
       </c>
       <c r="B255">
-        <v>6.96</v>
+        <v>7.7</v>
       </c>
       <c r="C255">
-        <v>6.477129058631434</v>
+        <v>7.468256496762432</v>
       </c>
       <c r="D255">
-        <v>-0.4828709413685663</v>
+        <v>-0.2317435032375679</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5080,13 +5095,13 @@
         <v>258</v>
       </c>
       <c r="B256">
-        <v>6.63</v>
+        <v>7.18</v>
       </c>
       <c r="C256">
-        <v>6.280826258402149</v>
+        <v>7.059476143047759</v>
       </c>
       <c r="D256">
-        <v>-0.3491737415978511</v>
+        <v>-0.1205238569522411</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5094,13 +5109,13 @@
         <v>259</v>
       </c>
       <c r="B257">
-        <v>6.65</v>
+        <v>7.19</v>
       </c>
       <c r="C257">
-        <v>6.241295767230909</v>
+        <v>6.958866927872077</v>
       </c>
       <c r="D257">
-        <v>-0.4087042327690913</v>
+        <v>-0.2311330721279239</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5108,13 +5123,13 @@
         <v>260</v>
       </c>
       <c r="B258">
-        <v>6.6</v>
+        <v>7.35</v>
       </c>
       <c r="C258">
-        <v>6.298460574026123</v>
+        <v>6.582494182169791</v>
       </c>
       <c r="D258">
-        <v>-0.3015394259738766</v>
+        <v>-0.7675058178302088</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5122,13 +5137,13 @@
         <v>261</v>
       </c>
       <c r="B259">
-        <v>6.81</v>
+        <v>7.48</v>
       </c>
       <c r="C259">
-        <v>6.343377305876849</v>
+        <v>6.668529250021274</v>
       </c>
       <c r="D259">
-        <v>-0.4666226941231502</v>
+        <v>-0.8114707499787261</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5136,13 +5151,13 @@
         <v>262</v>
       </c>
       <c r="B260">
-        <v>6.78</v>
+        <v>7.19</v>
       </c>
       <c r="C260">
-        <v>6.283096659855595</v>
+        <v>6.667367609030636</v>
       </c>
       <c r="D260">
-        <v>-0.4969033401444056</v>
+        <v>-0.5226323909693642</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5150,13 +5165,13 @@
         <v>263</v>
       </c>
       <c r="B261">
-        <v>6.77</v>
+        <v>6.67</v>
       </c>
       <c r="C261">
-        <v>6.262374594538102</v>
+        <v>6.228293326244065</v>
       </c>
       <c r="D261">
-        <v>-0.5076254054618978</v>
+        <v>-0.4417066737559345</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5164,13 +5179,13 @@
         <v>264</v>
       </c>
       <c r="B262">
-        <v>6.77</v>
+        <v>6.68</v>
       </c>
       <c r="C262">
-        <v>6.269970324094047</v>
+        <v>6.218726573352617</v>
       </c>
       <c r="D262">
-        <v>-0.500029675905953</v>
+        <v>-0.4612734266473826</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5178,13 +5193,13 @@
         <v>265</v>
       </c>
       <c r="B263">
-        <v>6.78</v>
+        <v>6.68</v>
       </c>
       <c r="C263">
-        <v>6.268447740967087</v>
+        <v>6.19948045674778</v>
       </c>
       <c r="D263">
-        <v>-0.5115522590329133</v>
+        <v>-0.4805195432522193</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5192,13 +5207,13 @@
         <v>266</v>
       </c>
       <c r="B264">
-        <v>6.36</v>
+        <v>6.63</v>
       </c>
       <c r="C264">
-        <v>5.993998091324936</v>
+        <v>6.19591023193882</v>
       </c>
       <c r="D264">
-        <v>-0.3660019086750639</v>
+        <v>-0.4340897680611802</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5206,13 +5221,13 @@
         <v>267</v>
       </c>
       <c r="B265">
-        <v>5.98</v>
+        <v>6.62</v>
       </c>
       <c r="C265">
-        <v>6.045942256087748</v>
+        <v>6.238257945958804</v>
       </c>
       <c r="D265">
-        <v>0.06594225608774806</v>
+        <v>-0.3817420540411964</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5220,13 +5235,13 @@
         <v>268</v>
       </c>
       <c r="B266">
-        <v>5.74</v>
+        <v>6.6</v>
       </c>
       <c r="C266">
-        <v>6.027426227921703</v>
+        <v>6.230570023399659</v>
       </c>
       <c r="D266">
-        <v>0.2874262279217028</v>
+        <v>-0.3694299766003404</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5234,13 +5249,13 @@
         <v>269</v>
       </c>
       <c r="B267">
-        <v>5.71</v>
+        <v>6.76</v>
       </c>
       <c r="C267">
-        <v>6.008621358408121</v>
+        <v>6.27399936596402</v>
       </c>
       <c r="D267">
-        <v>0.2986213584081208</v>
+        <v>-0.4860006340359799</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5248,13 +5263,13 @@
         <v>270</v>
       </c>
       <c r="B268">
-        <v>5.79</v>
+        <v>6.8</v>
       </c>
       <c r="C268">
-        <v>6.03606878402436</v>
+        <v>6.257052238375783</v>
       </c>
       <c r="D268">
-        <v>0.2460687840243603</v>
+        <v>-0.5429477616242169</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5262,13 +5277,13 @@
         <v>271</v>
       </c>
       <c r="B269">
-        <v>5.69</v>
+        <v>6.81</v>
       </c>
       <c r="C269">
-        <v>6.017675759627878</v>
+        <v>6.243793466313241</v>
       </c>
       <c r="D269">
-        <v>0.3276757596278772</v>
+        <v>-0.566206533686759</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5276,13 +5291,13 @@
         <v>272</v>
       </c>
       <c r="B270">
-        <v>5.74</v>
+        <v>5.99</v>
       </c>
       <c r="C270">
-        <v>6.053650847546839</v>
+        <v>6.014948699946972</v>
       </c>
       <c r="D270">
-        <v>0.3136508475468389</v>
+        <v>0.02494869994697169</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5290,13 +5305,13 @@
         <v>273</v>
       </c>
       <c r="B271">
-        <v>5.74</v>
+        <v>5.87</v>
       </c>
       <c r="C271">
-        <v>6.034481204041418</v>
+        <v>6.02662612843217</v>
       </c>
       <c r="D271">
-        <v>0.2944812040414178</v>
+        <v>0.1566261284321699</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5304,13 +5319,13 @@
         <v>274</v>
       </c>
       <c r="B272">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="C272">
-        <v>6.001714655698603</v>
+        <v>6.03118183380607</v>
       </c>
       <c r="D272">
-        <v>0.3017146556986026</v>
+        <v>0.2311818338060698</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5318,13 +5333,13 @@
         <v>275</v>
       </c>
       <c r="B273">
-        <v>5.66</v>
+        <v>5.74</v>
       </c>
       <c r="C273">
-        <v>5.987164188538566</v>
+        <v>6.009437949751643</v>
       </c>
       <c r="D273">
-        <v>0.3271641885385659</v>
+        <v>0.2694379497516426</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5332,13 +5347,13 @@
         <v>276</v>
       </c>
       <c r="B274">
-        <v>5.69</v>
+        <v>5.74</v>
       </c>
       <c r="C274">
-        <v>5.955081474455202</v>
+        <v>6.030857888647354</v>
       </c>
       <c r="D274">
-        <v>0.2650814744552017</v>
+        <v>0.2908578886473538</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5346,13 +5361,13 @@
         <v>277</v>
       </c>
       <c r="B275">
-        <v>5.65</v>
+        <v>5.71</v>
       </c>
       <c r="C275">
-        <v>5.951111590977368</v>
+        <v>6.026518704165635</v>
       </c>
       <c r="D275">
-        <v>0.3011115909773672</v>
+        <v>0.3165187041656354</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5360,13 +5375,13 @@
         <v>278</v>
       </c>
       <c r="B276">
-        <v>5.64</v>
+        <v>5.66</v>
       </c>
       <c r="C276">
-        <v>5.927793060930108</v>
+        <v>5.967232611971081</v>
       </c>
       <c r="D276">
-        <v>0.2877930609301087</v>
+        <v>0.3072326119710809</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5374,13 +5389,13 @@
         <v>279</v>
       </c>
       <c r="B277">
-        <v>5.71</v>
+        <v>5.65</v>
       </c>
       <c r="C277">
-        <v>5.911439117625797</v>
+        <v>5.934149450139728</v>
       </c>
       <c r="D277">
-        <v>0.2014391176257968</v>
+        <v>0.2841494501397275</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5388,13 +5403,13 @@
         <v>280</v>
       </c>
       <c r="B278">
-        <v>5.69</v>
+        <v>5.64</v>
       </c>
       <c r="C278">
-        <v>5.889561693401285</v>
+        <v>5.909553099103224</v>
       </c>
       <c r="D278">
-        <v>0.1995616934012849</v>
+        <v>0.2695530991032244</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5402,13 +5417,13 @@
         <v>281</v>
       </c>
       <c r="B279">
-        <v>5.45</v>
+        <v>5.68</v>
       </c>
       <c r="C279">
-        <v>5.662511341717538</v>
+        <v>5.938598544032555</v>
       </c>
       <c r="D279">
-        <v>0.2125113417175379</v>
+        <v>0.2585985440325551</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5416,13 +5431,13 @@
         <v>282</v>
       </c>
       <c r="B280">
-        <v>5.32</v>
+        <v>5.76</v>
       </c>
       <c r="C280">
-        <v>5.591391205818297</v>
+        <v>5.938242424910598</v>
       </c>
       <c r="D280">
-        <v>0.271391205818297</v>
+        <v>0.1782424249105983</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5430,13 +5445,13 @@
         <v>283</v>
       </c>
       <c r="B281">
-        <v>5.31</v>
+        <v>5.79</v>
       </c>
       <c r="C281">
-        <v>5.587170205909869</v>
+        <v>5.924499070262401</v>
       </c>
       <c r="D281">
-        <v>0.2771702059098695</v>
+        <v>0.1344990702624012</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5444,13 +5459,13 @@
         <v>284</v>
       </c>
       <c r="B282">
-        <v>5.38</v>
+        <v>5.43</v>
       </c>
       <c r="C282">
-        <v>5.648915558377603</v>
+        <v>5.618704548018352</v>
       </c>
       <c r="D282">
-        <v>0.2689155583776026</v>
+        <v>0.188704548018352</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5458,13 +5473,13 @@
         <v>285</v>
       </c>
       <c r="B283">
-        <v>5.36</v>
+        <v>5.37</v>
       </c>
       <c r="C283">
-        <v>5.674964616734563</v>
+        <v>5.596710427112521</v>
       </c>
       <c r="D283">
-        <v>0.3149646167345628</v>
+        <v>0.2267104271125211</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5472,13 +5487,13 @@
         <v>286</v>
       </c>
       <c r="B284">
-        <v>5.42</v>
+        <v>5.39</v>
       </c>
       <c r="C284">
-        <v>5.669773369778914</v>
+        <v>5.573301478806052</v>
       </c>
       <c r="D284">
-        <v>0.2497733697789144</v>
+        <v>0.1833014788060519</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5486,13 +5501,13 @@
         <v>287</v>
       </c>
       <c r="B285">
-        <v>5.38</v>
+        <v>5.52</v>
       </c>
       <c r="C285">
-        <v>5.656528551974414</v>
+        <v>5.556823445430688</v>
       </c>
       <c r="D285">
-        <v>0.2765285519744145</v>
+        <v>0.03682344543068794</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5500,13 +5515,13 @@
         <v>288</v>
       </c>
       <c r="B286">
-        <v>5.54</v>
+        <v>5.61</v>
       </c>
       <c r="C286">
-        <v>5.586480617205392</v>
+        <v>5.599929994528406</v>
       </c>
       <c r="D286">
-        <v>0.04648061720539243</v>
+        <v>-0.01007000547159453</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5514,13 +5529,13 @@
         <v>289</v>
       </c>
       <c r="B287">
-        <v>5.63</v>
+        <v>5.61</v>
       </c>
       <c r="C287">
-        <v>5.634850699458976</v>
+        <v>5.618817171661094</v>
       </c>
       <c r="D287">
-        <v>0.004850699458976315</v>
+        <v>0.008817171661093859</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5528,13 +5543,13 @@
         <v>290</v>
       </c>
       <c r="B288">
-        <v>5.69</v>
+        <v>5.68</v>
       </c>
       <c r="C288">
-        <v>5.608788272721602</v>
+        <v>5.572378363812367</v>
       </c>
       <c r="D288">
-        <v>-0.08121172727839809</v>
+        <v>-0.1076216361876323</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5542,13 +5557,13 @@
         <v>291</v>
       </c>
       <c r="B289">
-        <v>5.89</v>
+        <v>5.77</v>
       </c>
       <c r="C289">
-        <v>5.651295744130024</v>
+        <v>5.695847478622136</v>
       </c>
       <c r="D289">
-        <v>-0.2387042558699752</v>
+        <v>-0.07415252137786332</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5556,13 +5571,13 @@
         <v>292</v>
       </c>
       <c r="B290">
-        <v>5.85</v>
+        <v>5.84</v>
       </c>
       <c r="C290">
-        <v>5.644474359107937</v>
+        <v>5.728341218487213</v>
       </c>
       <c r="D290">
-        <v>-0.2055256408920627</v>
+        <v>-0.1116587815127872</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5570,13 +5585,13 @@
         <v>293</v>
       </c>
       <c r="B291">
-        <v>5.79</v>
+        <v>5.93</v>
       </c>
       <c r="C291">
-        <v>5.66416341700767</v>
+        <v>5.650146920294116</v>
       </c>
       <c r="D291">
-        <v>-0.1258365829923305</v>
+        <v>-0.2798530797058838</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5584,13 +5599,13 @@
         <v>294</v>
       </c>
       <c r="B292">
-        <v>5.99</v>
+        <v>6</v>
       </c>
       <c r="C292">
-        <v>5.700547108634936</v>
+        <v>5.703414320886942</v>
       </c>
       <c r="D292">
-        <v>-0.2894528913650642</v>
+        <v>-0.2965856791130577</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5598,13 +5613,13 @@
         <v>295</v>
       </c>
       <c r="B293">
-        <v>6</v>
+        <v>5.98</v>
       </c>
       <c r="C293">
-        <v>5.69570835165209</v>
+        <v>5.633044768598499</v>
       </c>
       <c r="D293">
-        <v>-0.3042916483479097</v>
+        <v>-0.3469552314015019</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5612,13 +5627,13 @@
         <v>296</v>
       </c>
       <c r="B294">
-        <v>5.66</v>
+        <v>5.98</v>
       </c>
       <c r="C294">
-        <v>5.550496027428833</v>
+        <v>5.638880354706206</v>
       </c>
       <c r="D294">
-        <v>-0.1095039725711668</v>
+        <v>-0.3411196452937943</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -5626,13 +5641,13 @@
         <v>297</v>
       </c>
       <c r="B295">
-        <v>5.36</v>
+        <v>5.49</v>
       </c>
       <c r="C295">
-        <v>5.447743762335936</v>
+        <v>5.541501246904309</v>
       </c>
       <c r="D295">
-        <v>0.08774376233593539</v>
+        <v>0.05150124690430857</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -5640,13 +5655,13 @@
         <v>298</v>
       </c>
       <c r="B296">
-        <v>5.32</v>
+        <v>5.5</v>
       </c>
       <c r="C296">
-        <v>5.428634878887722</v>
+        <v>5.526724638067263</v>
       </c>
       <c r="D296">
-        <v>0.1086348788877221</v>
+        <v>0.02672463806726277</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -5654,13 +5669,13 @@
         <v>299</v>
       </c>
       <c r="B297">
-        <v>5.27</v>
+        <v>5.43</v>
       </c>
       <c r="C297">
-        <v>5.455083378876493</v>
+        <v>5.504215110550467</v>
       </c>
       <c r="D297">
-        <v>0.1850833788764934</v>
+        <v>0.07421511055046714</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -5668,13 +5683,13 @@
         <v>300</v>
       </c>
       <c r="B298">
-        <v>5.18</v>
+        <v>5.19</v>
       </c>
       <c r="C298">
-        <v>5.481933009975238</v>
+        <v>5.496795535052176</v>
       </c>
       <c r="D298">
-        <v>0.3019330099752384</v>
+        <v>0.3067955350521752</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -5682,13 +5697,13 @@
         <v>301</v>
       </c>
       <c r="B299">
-        <v>5.21</v>
+        <v>5.14</v>
       </c>
       <c r="C299">
-        <v>5.494167030094125</v>
+        <v>5.48488154002024</v>
       </c>
       <c r="D299">
-        <v>0.2841670300941255</v>
+        <v>0.3448815400202401</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -5696,13 +5711,13 @@
         <v>302</v>
       </c>
       <c r="B300">
-        <v>5.13</v>
+        <v>5.08</v>
       </c>
       <c r="C300">
-        <v>5.466718094286664</v>
+        <v>5.461814058086867</v>
       </c>
       <c r="D300">
-        <v>0.3367180942866641</v>
+        <v>0.3818140580868672</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -5710,13 +5725,13 @@
         <v>303</v>
       </c>
       <c r="B301">
-        <v>4.99</v>
+        <v>5.07</v>
       </c>
       <c r="C301">
-        <v>5.462250763971699</v>
+        <v>5.458773561666256</v>
       </c>
       <c r="D301">
-        <v>0.4722507639716991</v>
+        <v>0.3887735616662553</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -5724,13 +5739,13 @@
         <v>304</v>
       </c>
       <c r="B302">
-        <v>4.97</v>
+        <v>4.98</v>
       </c>
       <c r="C302">
-        <v>5.455428933253357</v>
+        <v>5.464742078618009</v>
       </c>
       <c r="D302">
-        <v>0.485428933253357</v>
+        <v>0.4847420786180088</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -5738,13 +5753,13 @@
         <v>305</v>
       </c>
       <c r="B303">
-        <v>4.98</v>
+        <v>4.99</v>
       </c>
       <c r="C303">
-        <v>5.431145932004632</v>
+        <v>5.461993263272952</v>
       </c>
       <c r="D303">
-        <v>0.451145932004632</v>
+        <v>0.4719932632729513</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -5752,13 +5767,13 @@
         <v>306</v>
       </c>
       <c r="B304">
-        <v>5.01</v>
+        <v>4.97</v>
       </c>
       <c r="C304">
-        <v>5.478009549295257</v>
+        <v>5.450967154133348</v>
       </c>
       <c r="D304">
-        <v>0.4680095492952567</v>
+        <v>0.4809671541333485</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -5766,13 +5781,13 @@
         <v>307</v>
       </c>
       <c r="B305">
-        <v>5.02</v>
+        <v>4.98</v>
       </c>
       <c r="C305">
-        <v>5.490831828104616</v>
+        <v>5.450463677071047</v>
       </c>
       <c r="D305">
-        <v>0.4708318281046164</v>
+        <v>0.4704636770710469</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -5780,13 +5795,13 @@
         <v>308</v>
       </c>
       <c r="B306">
-        <v>5.11</v>
+        <v>4.99</v>
       </c>
       <c r="C306">
-        <v>5.402401131634951</v>
+        <v>5.4543451613426</v>
       </c>
       <c r="D306">
-        <v>0.2924011316349509</v>
+        <v>0.4643451613425995</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -5794,13 +5809,13 @@
         <v>309</v>
       </c>
       <c r="B307">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="C307">
-        <v>5.385931309122366</v>
+        <v>5.494682331327905</v>
       </c>
       <c r="D307">
-        <v>0.2859313091223665</v>
+        <v>0.4946823313279047</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -5808,13 +5823,13 @@
         <v>310</v>
       </c>
       <c r="B308">
-        <v>5.09</v>
+        <v>5.01</v>
       </c>
       <c r="C308">
-        <v>5.384257578208326</v>
+        <v>5.49649396461222</v>
       </c>
       <c r="D308">
-        <v>0.2942575782083257</v>
+        <v>0.4864939646122206</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -5822,13 +5837,13 @@
         <v>311</v>
       </c>
       <c r="B309">
-        <v>5.13</v>
+        <v>4.99</v>
       </c>
       <c r="C309">
-        <v>5.356034425136715</v>
+        <v>5.461070541559836</v>
       </c>
       <c r="D309">
-        <v>0.2260344251367155</v>
+        <v>0.4710705415598362</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -5836,13 +5851,13 @@
         <v>312</v>
       </c>
       <c r="B310">
-        <v>5.16</v>
+        <v>5.12</v>
       </c>
       <c r="C310">
-        <v>5.39760671724851</v>
+        <v>5.503979494068622</v>
       </c>
       <c r="D310">
-        <v>0.2376067172485099</v>
+        <v>0.3839794940686216</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -5850,13 +5865,13 @@
         <v>313</v>
       </c>
       <c r="B311">
-        <v>5.08</v>
+        <v>5.12</v>
       </c>
       <c r="C311">
-        <v>5.303546517127091</v>
+        <v>5.490467949727892</v>
       </c>
       <c r="D311">
-        <v>0.2235465171270912</v>
+        <v>0.3704679497278915</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -5864,13 +5879,13 @@
         <v>314</v>
       </c>
       <c r="B312">
-        <v>5.09</v>
+        <v>5.13</v>
       </c>
       <c r="C312">
-        <v>5.307404164773323</v>
+        <v>5.453900782763339</v>
       </c>
       <c r="D312">
-        <v>0.2174041647733231</v>
+        <v>0.3239007827633396</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -5878,13 +5893,13 @@
         <v>315</v>
       </c>
       <c r="B313">
-        <v>5.09</v>
+        <v>5.15</v>
       </c>
       <c r="C313">
-        <v>5.329559748422049</v>
+        <v>5.456513649462345</v>
       </c>
       <c r="D313">
-        <v>0.2395597484220495</v>
+        <v>0.3065136494623442</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -5892,13 +5907,13 @@
         <v>316</v>
       </c>
       <c r="B314">
-        <v>5.06</v>
+        <v>5.11</v>
       </c>
       <c r="C314">
-        <v>5.332762541725297</v>
+        <v>5.388753249852252</v>
       </c>
       <c r="D314">
-        <v>0.2727625417252977</v>
+        <v>0.2787532498522518</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -5909,10 +5924,10 @@
         <v>5.14</v>
       </c>
       <c r="C315">
-        <v>5.37753789597267</v>
+        <v>5.408579598214539</v>
       </c>
       <c r="D315">
-        <v>0.2375378959726699</v>
+        <v>0.2685795982145391</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -5920,13 +5935,13 @@
         <v>318</v>
       </c>
       <c r="B316">
-        <v>5.16</v>
+        <v>5.14</v>
       </c>
       <c r="C316">
-        <v>5.392249944528904</v>
+        <v>5.392765044021532</v>
       </c>
       <c r="D316">
-        <v>0.2322499445289035</v>
+        <v>0.2527650440215323</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -5934,13 +5949,13 @@
         <v>319</v>
       </c>
       <c r="B317">
-        <v>5.15</v>
+        <v>5.13</v>
       </c>
       <c r="C317">
-        <v>5.367840002923204</v>
+        <v>5.371401552175764</v>
       </c>
       <c r="D317">
-        <v>0.2178400029232037</v>
+        <v>0.2414015521757644</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -5948,13 +5963,13 @@
         <v>320</v>
       </c>
       <c r="B318">
-        <v>5.08</v>
+        <v>5.12</v>
       </c>
       <c r="C318">
-        <v>5.256670659001961</v>
+        <v>5.345962662778359</v>
       </c>
       <c r="D318">
-        <v>0.1766706590019611</v>
+        <v>0.2259626627783593</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -5962,13 +5977,13 @@
         <v>321</v>
       </c>
       <c r="B319">
-        <v>5.08</v>
+        <v>5.07</v>
       </c>
       <c r="C319">
-        <v>5.247333932960355</v>
+        <v>5.347096307849949</v>
       </c>
       <c r="D319">
-        <v>0.1673339329603545</v>
+        <v>0.2770963078499484</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -5976,13 +5991,13 @@
         <v>322</v>
       </c>
       <c r="B320">
-        <v>5.08</v>
+        <v>5.07</v>
       </c>
       <c r="C320">
-        <v>5.248238004804916</v>
+        <v>5.335957995505964</v>
       </c>
       <c r="D320">
-        <v>0.1682380048049161</v>
+        <v>0.2659579955059641</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -5990,13 +6005,13 @@
         <v>323</v>
       </c>
       <c r="B321">
-        <v>5.06</v>
+        <v>5.12</v>
       </c>
       <c r="C321">
-        <v>5.261051094708177</v>
+        <v>5.357409528853655</v>
       </c>
       <c r="D321">
-        <v>0.2010510947081778</v>
+        <v>0.2374095288536546</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6004,13 +6019,13 @@
         <v>324</v>
       </c>
       <c r="B322">
-        <v>5.06</v>
+        <v>5.12</v>
       </c>
       <c r="C322">
-        <v>5.269372576952716</v>
+        <v>5.367606048230503</v>
       </c>
       <c r="D322">
-        <v>0.2093725769527159</v>
+        <v>0.2476060482305025</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6018,13 +6033,13 @@
         <v>325</v>
       </c>
       <c r="B323">
-        <v>5.07</v>
+        <v>5.12</v>
       </c>
       <c r="C323">
-        <v>5.242907293156296</v>
+        <v>5.38074774058013</v>
       </c>
       <c r="D323">
-        <v>0.172907293156296</v>
+        <v>0.2607477405801299</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6032,13 +6047,13 @@
         <v>326</v>
       </c>
       <c r="B324">
-        <v>5.07</v>
+        <v>5.13</v>
       </c>
       <c r="C324">
-        <v>5.254317423341639</v>
+        <v>5.383535164432622</v>
       </c>
       <c r="D324">
-        <v>0.1843174233416383</v>
+        <v>0.2535351644326225</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6046,13 +6061,13 @@
         <v>327</v>
       </c>
       <c r="B325">
-        <v>5.07</v>
+        <v>5.13</v>
       </c>
       <c r="C325">
-        <v>5.228009136899264</v>
+        <v>5.384768953142762</v>
       </c>
       <c r="D325">
-        <v>0.1580091368992633</v>
+        <v>0.2547689531427624</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6060,13 +6075,13 @@
         <v>328</v>
       </c>
       <c r="B326">
-        <v>4.97</v>
+        <v>5.13</v>
       </c>
       <c r="C326">
-        <v>5.117163314071997</v>
+        <v>5.3807055801079</v>
       </c>
       <c r="D326">
-        <v>0.1471633140719968</v>
+        <v>0.2507055801079003</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6074,13 +6089,13 @@
         <v>329</v>
       </c>
       <c r="B327">
-        <v>4.96</v>
+        <v>5.15</v>
       </c>
       <c r="C327">
-        <v>5.104976466703793</v>
+        <v>5.368001765651556</v>
       </c>
       <c r="D327">
-        <v>0.1449764667037927</v>
+        <v>0.2180017656515556</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6088,13 +6103,13 @@
         <v>330</v>
       </c>
       <c r="B328">
-        <v>4.89</v>
+        <v>5.08</v>
       </c>
       <c r="C328">
-        <v>5.032538660703548</v>
+        <v>5.260170687744354</v>
       </c>
       <c r="D328">
-        <v>0.1425386607035479</v>
+        <v>0.1801706877443543</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6102,13 +6117,13 @@
         <v>331</v>
       </c>
       <c r="B329">
-        <v>4.89</v>
+        <v>5.06</v>
       </c>
       <c r="C329">
-        <v>5.021124529610644</v>
+        <v>5.265252884700013</v>
       </c>
       <c r="D329">
-        <v>0.131124529610644</v>
+        <v>0.2052528847000135</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6116,13 +6131,13 @@
         <v>332</v>
       </c>
       <c r="B330">
-        <v>4.96</v>
+        <v>5.08</v>
       </c>
       <c r="C330">
-        <v>5.027945857297056</v>
+        <v>5.244796655060875</v>
       </c>
       <c r="D330">
-        <v>0.06794585729705638</v>
+        <v>0.1647966550608748</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6130,13 +6145,13 @@
         <v>333</v>
       </c>
       <c r="B331">
-        <v>5.09</v>
+        <v>5.07</v>
       </c>
       <c r="C331">
-        <v>5.047619830333716</v>
+        <v>5.238998348009297</v>
       </c>
       <c r="D331">
-        <v>-0.04238016966628422</v>
+        <v>0.1689983480092971</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6144,13 +6159,13 @@
         <v>334</v>
       </c>
       <c r="B332">
-        <v>5.09</v>
+        <v>5.05</v>
       </c>
       <c r="C332">
-        <v>5.008423271814231</v>
+        <v>5.224133309026087</v>
       </c>
       <c r="D332">
-        <v>-0.08157672818576867</v>
+        <v>0.1741333090260868</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6158,13 +6173,13 @@
         <v>335</v>
       </c>
       <c r="B333">
-        <v>5.14</v>
+        <v>5.03</v>
       </c>
       <c r="C333">
-        <v>4.995649320979906</v>
+        <v>5.182524093457265</v>
       </c>
       <c r="D333">
-        <v>-0.1443506790200937</v>
+        <v>0.1525240934572647</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6172,13 +6187,13 @@
         <v>336</v>
       </c>
       <c r="B334">
-        <v>5.15</v>
+        <v>4.98</v>
       </c>
       <c r="C334">
-        <v>5.060339251729682</v>
+        <v>5.13145859715712</v>
       </c>
       <c r="D334">
-        <v>-0.089660748270318</v>
+        <v>0.1514585971571192</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6186,13 +6201,13 @@
         <v>337</v>
       </c>
       <c r="B335">
-        <v>5.18</v>
+        <v>4.98</v>
       </c>
       <c r="C335">
-        <v>5.027842574888161</v>
+        <v>5.127664133312217</v>
       </c>
       <c r="D335">
-        <v>-0.1521574251118389</v>
+        <v>0.1476641333122171</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6200,13 +6215,13 @@
         <v>338</v>
       </c>
       <c r="B336">
-        <v>5.19</v>
+        <v>4.91</v>
       </c>
       <c r="C336">
-        <v>5.009637835465989</v>
+        <v>5.038516925648039</v>
       </c>
       <c r="D336">
-        <v>-0.180362164534011</v>
+        <v>0.1285169256480385</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6214,13 +6229,13 @@
         <v>339</v>
       </c>
       <c r="B337">
-        <v>5.19</v>
+        <v>4.93</v>
       </c>
       <c r="C337">
-        <v>4.99556496959126</v>
+        <v>5.041956263838452</v>
       </c>
       <c r="D337">
-        <v>-0.1944350304087408</v>
+        <v>0.1119562638384526</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6228,13 +6243,13 @@
         <v>340</v>
       </c>
       <c r="B338">
-        <v>5.09</v>
+        <v>5.06</v>
       </c>
       <c r="C338">
-        <v>5.017242533540752</v>
+        <v>5.045329736129367</v>
       </c>
       <c r="D338">
-        <v>-0.0727574664592483</v>
+        <v>-0.01467026387063264</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6242,13 +6257,13 @@
         <v>341</v>
       </c>
       <c r="B339">
-        <v>5.26</v>
+        <v>5.14</v>
       </c>
       <c r="C339">
-        <v>5.162545679483551</v>
+        <v>4.992334004317445</v>
       </c>
       <c r="D339">
-        <v>-0.09745432051644887</v>
+        <v>-0.147665995682555</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6256,13 +6271,13 @@
         <v>342</v>
       </c>
       <c r="B340">
-        <v>5.31</v>
+        <v>5.17</v>
       </c>
       <c r="C340">
-        <v>5.193200639348187</v>
+        <v>5.008367410150065</v>
       </c>
       <c r="D340">
-        <v>-0.1167993606518127</v>
+        <v>-0.1616325898499351</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6270,13 +6285,13 @@
         <v>343</v>
       </c>
       <c r="B341">
-        <v>5.24</v>
+        <v>5.17</v>
       </c>
       <c r="C341">
-        <v>5.086311955638873</v>
+        <v>5.061898913256246</v>
       </c>
       <c r="D341">
-        <v>-0.153688044361127</v>
+        <v>-0.108101086743754</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6284,13 +6299,13 @@
         <v>344</v>
       </c>
       <c r="B342">
-        <v>5.24</v>
+        <v>5.2</v>
       </c>
       <c r="C342">
-        <v>5.099423755383199</v>
+        <v>4.985934516728863</v>
       </c>
       <c r="D342">
-        <v>-0.1405762446168008</v>
+        <v>-0.2140654832711375</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6298,13 +6313,13 @@
         <v>345</v>
       </c>
       <c r="B343">
-        <v>5.25</v>
+        <v>5.26</v>
       </c>
       <c r="C343">
-        <v>5.089922066851256</v>
+        <v>5.137799007144517</v>
       </c>
       <c r="D343">
-        <v>-0.1600779331487443</v>
+        <v>-0.1222009928554826</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6312,13 +6327,13 @@
         <v>346</v>
       </c>
       <c r="B344">
-        <v>5.25</v>
+        <v>5.23</v>
       </c>
       <c r="C344">
-        <v>5.08849156493643</v>
+        <v>5.08045416606876</v>
       </c>
       <c r="D344">
-        <v>-0.1615084350635705</v>
+        <v>-0.1495458339312403</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6326,13 +6341,13 @@
         <v>347</v>
       </c>
       <c r="B345">
-        <v>5.25</v>
+        <v>5.24</v>
       </c>
       <c r="C345">
-        <v>5.127864335031291</v>
+        <v>5.088112346881504</v>
       </c>
       <c r="D345">
-        <v>-0.1221356649687086</v>
+        <v>-0.1518876531184965</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6340,13 +6355,13 @@
         <v>348</v>
       </c>
       <c r="B346">
-        <v>5.18</v>
+        <v>5.25</v>
       </c>
       <c r="C346">
-        <v>5.03458734272803</v>
+        <v>5.097563217143557</v>
       </c>
       <c r="D346">
-        <v>-0.1454126572719696</v>
+        <v>-0.1524367828564426</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6354,13 +6369,13 @@
         <v>349</v>
       </c>
       <c r="B347">
-        <v>5.32</v>
+        <v>5.24</v>
       </c>
       <c r="C347">
-        <v>5.140908429707289</v>
+        <v>5.090091791540821</v>
       </c>
       <c r="D347">
-        <v>-0.1790915702927114</v>
+        <v>-0.1499082084591787</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6368,13 +6383,13 @@
         <v>350</v>
       </c>
       <c r="B348">
-        <v>5.32</v>
+        <v>5.19</v>
       </c>
       <c r="C348">
-        <v>5.153510112075683</v>
+        <v>5.038213658686409</v>
       </c>
       <c r="D348">
-        <v>-0.1664898879243175</v>
+        <v>-0.1517863413135911</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6382,13 +6397,13 @@
         <v>351</v>
       </c>
       <c r="B349">
-        <v>5.28</v>
+        <v>5.35</v>
       </c>
       <c r="C349">
-        <v>5.158791881789855</v>
+        <v>5.167286358467551</v>
       </c>
       <c r="D349">
-        <v>-0.121208118210145</v>
+        <v>-0.1827136415324491</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6396,13 +6411,13 @@
         <v>352</v>
       </c>
       <c r="B350">
-        <v>5.26</v>
+        <v>5.34</v>
       </c>
       <c r="C350">
-        <v>5.082791505956093</v>
+        <v>5.165611026883208</v>
       </c>
       <c r="D350">
-        <v>-0.1772084940439065</v>
+        <v>-0.174388973116792</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6410,13 +6425,13 @@
         <v>353</v>
       </c>
       <c r="B351">
-        <v>5.34</v>
+        <v>5.32</v>
       </c>
       <c r="C351">
-        <v>5.13532170808063</v>
+        <v>5.110484791447646</v>
       </c>
       <c r="D351">
-        <v>-0.2046782919193699</v>
+        <v>-0.2095152085523546</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6424,13 +6439,13 @@
         <v>354</v>
       </c>
       <c r="B352">
-        <v>5.33</v>
+        <v>5.32</v>
       </c>
       <c r="C352">
-        <v>5.090451646457273</v>
+        <v>5.136523158060241</v>
       </c>
       <c r="D352">
-        <v>-0.2395483535427267</v>
+        <v>-0.1834768419397594</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6438,13 +6453,13 @@
         <v>355</v>
       </c>
       <c r="B353">
-        <v>5.31</v>
+        <v>5.28</v>
       </c>
       <c r="C353">
-        <v>5.068036192396532</v>
+        <v>5.133165380158141</v>
       </c>
       <c r="D353">
-        <v>-0.2419638076034678</v>
+        <v>-0.1468346198418589</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6452,13 +6467,13 @@
         <v>356</v>
       </c>
       <c r="B354">
-        <v>5.38</v>
+        <v>5.27</v>
       </c>
       <c r="C354">
-        <v>5.147181051030165</v>
+        <v>5.159157093899255</v>
       </c>
       <c r="D354">
-        <v>-0.2328189489698351</v>
+        <v>-0.1108429061007445</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6466,13 +6481,13 @@
         <v>357</v>
       </c>
       <c r="B355">
-        <v>5.48</v>
+        <v>5.26</v>
       </c>
       <c r="C355">
-        <v>5.224968308878419</v>
+        <v>5.093559710517592</v>
       </c>
       <c r="D355">
-        <v>-0.2550316911215811</v>
+        <v>-0.1664402894824075</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6480,13 +6495,13 @@
         <v>358</v>
       </c>
       <c r="B356">
-        <v>5.52</v>
+        <v>5.24</v>
       </c>
       <c r="C356">
-        <v>5.223593880445863</v>
+        <v>5.086040835161274</v>
       </c>
       <c r="D356">
-        <v>-0.2964061195541365</v>
+        <v>-0.1539591648387262</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6494,13 +6509,13 @@
         <v>359</v>
       </c>
       <c r="B357">
-        <v>5.53</v>
+        <v>5.33</v>
       </c>
       <c r="C357">
-        <v>5.237762796709311</v>
+        <v>5.108300753527797</v>
       </c>
       <c r="D357">
-        <v>-0.2922372032906893</v>
+        <v>-0.2216992464722027</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6508,13 +6523,13 @@
         <v>360</v>
       </c>
       <c r="B358">
-        <v>5.53</v>
+        <v>5.36</v>
       </c>
       <c r="C358">
-        <v>5.238860251885751</v>
+        <v>5.20107879798374</v>
       </c>
       <c r="D358">
-        <v>-0.291139748114249</v>
+        <v>-0.15892120201626</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6522,13 +6537,13 @@
         <v>361</v>
       </c>
       <c r="B359">
-        <v>5.71</v>
+        <v>5.51</v>
       </c>
       <c r="C359">
-        <v>5.278562071686075</v>
+        <v>5.258774634909042</v>
       </c>
       <c r="D359">
-        <v>-0.4314379283139251</v>
+        <v>-0.2512253650909582</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -6539,10 +6554,10 @@
         <v>5.55</v>
       </c>
       <c r="C360">
-        <v>5.350589109006738</v>
+        <v>5.253717874078641</v>
       </c>
       <c r="D360">
-        <v>-0.1994108909932617</v>
+        <v>-0.2962821259213593</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6550,13 +6565,13 @@
         <v>363</v>
       </c>
       <c r="B361">
-        <v>5.53</v>
+        <v>5.49</v>
       </c>
       <c r="C361">
-        <v>5.342449097311327</v>
+        <v>5.164376058497422</v>
       </c>
       <c r="D361">
-        <v>-0.187550902688673</v>
+        <v>-0.3256239415025783</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6564,13 +6579,13 @@
         <v>364</v>
       </c>
       <c r="B362">
-        <v>5.49</v>
+        <v>5.62</v>
       </c>
       <c r="C362">
-        <v>5.295651842404046</v>
+        <v>5.247236661900566</v>
       </c>
       <c r="D362">
-        <v>-0.1943481575959547</v>
+        <v>-0.3727633380994337</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -6578,13 +6593,13 @@
         <v>365</v>
       </c>
       <c r="B363">
-        <v>5.53</v>
+        <v>5.55</v>
       </c>
       <c r="C363">
-        <v>5.36034472648176</v>
+        <v>5.372773456519698</v>
       </c>
       <c r="D363">
-        <v>-0.1696552735182406</v>
+        <v>-0.1772265434803018</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -6592,13 +6607,13 @@
         <v>366</v>
       </c>
       <c r="B364">
-        <v>5.55</v>
+        <v>5.53</v>
       </c>
       <c r="C364">
-        <v>5.340735801189179</v>
+        <v>5.37255953235351</v>
       </c>
       <c r="D364">
-        <v>-0.2092641988108213</v>
+        <v>-0.1574404676464907</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -6609,10 +6624,10 @@
         <v>5.52</v>
       </c>
       <c r="C365">
-        <v>5.348227527285497</v>
+        <v>5.359107449220014</v>
       </c>
       <c r="D365">
-        <v>-0.1717724727145029</v>
+        <v>-0.1608925507799857</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -6620,13 +6635,13 @@
         <v>368</v>
       </c>
       <c r="B366">
-        <v>5.52</v>
+        <v>5.53</v>
       </c>
       <c r="C366">
-        <v>5.322368417166158</v>
+        <v>5.36295914269138</v>
       </c>
       <c r="D366">
-        <v>-0.1976315828338411</v>
+        <v>-0.1670408573086206</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -6637,10 +6652,10 @@
         <v>5.55</v>
       </c>
       <c r="C367">
-        <v>5.322178704247443</v>
+        <v>5.352905184485283</v>
       </c>
       <c r="D367">
-        <v>-0.2278212957525572</v>
+        <v>-0.197094815514717</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -6648,13 +6663,13 @@
         <v>370</v>
       </c>
       <c r="B368">
-        <v>5.56</v>
+        <v>5.52</v>
       </c>
       <c r="C368">
-        <v>5.345468893524761</v>
+        <v>5.360966116985319</v>
       </c>
       <c r="D368">
-        <v>-0.2145311064752384</v>
+        <v>-0.1590338830146809</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -6662,13 +6677,13 @@
         <v>371</v>
       </c>
       <c r="B369">
-        <v>5.68</v>
+        <v>5.48</v>
       </c>
       <c r="C369">
-        <v>5.338547735213123</v>
+        <v>5.329305387522839</v>
       </c>
       <c r="D369">
-        <v>-0.3414522647868772</v>
+        <v>-0.1506946124771611</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -6676,13 +6691,13 @@
         <v>372</v>
       </c>
       <c r="B370">
-        <v>5.67</v>
+        <v>5.51</v>
       </c>
       <c r="C370">
-        <v>5.340583070313685</v>
+        <v>5.332579007871999</v>
       </c>
       <c r="D370">
-        <v>-0.3294169296863148</v>
+        <v>-0.1774209921280008</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -6690,13 +6705,13 @@
         <v>373</v>
       </c>
       <c r="B371">
-        <v>5.71</v>
+        <v>5.56</v>
       </c>
       <c r="C371">
-        <v>5.405759619391016</v>
+        <v>5.334597568702581</v>
       </c>
       <c r="D371">
-        <v>-0.3042403806089835</v>
+        <v>-0.225402431297419</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -6704,13 +6719,13 @@
         <v>374</v>
       </c>
       <c r="B372">
-        <v>5.77</v>
+        <v>5.57</v>
       </c>
       <c r="C372">
-        <v>5.443011046652463</v>
+        <v>5.359969815669402</v>
       </c>
       <c r="D372">
-        <v>-0.3269889533475361</v>
+        <v>-0.2100301843305985</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -6718,13 +6733,83 @@
         <v>375</v>
       </c>
       <c r="B373">
-        <v>5.69</v>
+        <v>5.56</v>
       </c>
       <c r="C373">
-        <v>5.42646673419432</v>
+        <v>5.334407685326369</v>
       </c>
       <c r="D373">
-        <v>-0.2635332658056804</v>
+        <v>-0.2255923146736309</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B374">
+        <v>5.67</v>
+      </c>
+      <c r="C374">
+        <v>5.350274440738394</v>
+      </c>
+      <c r="D374">
+        <v>-0.319725559261606</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B375">
+        <v>5.66</v>
+      </c>
+      <c r="C375">
+        <v>5.355412082045019</v>
+      </c>
+      <c r="D375">
+        <v>-0.3045879179549811</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B376">
+        <v>5.68</v>
+      </c>
+      <c r="C376">
+        <v>5.373650947274326</v>
+      </c>
+      <c r="D376">
+        <v>-0.3063490527256736</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B377">
+        <v>5.74</v>
+      </c>
+      <c r="C377">
+        <v>5.43922685828321</v>
+      </c>
+      <c r="D377">
+        <v>-0.3007731417167907</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B378">
+        <v>5.77</v>
+      </c>
+      <c r="C378">
+        <v>5.455368669510001</v>
+      </c>
+      <c r="D378">
+        <v>-0.3146313304899984</v>
       </c>
     </row>
   </sheetData>

--- a/temp/stable_test.xlsx
+++ b/temp/stable_test.xlsx
@@ -1947,10 +1947,10 @@
         <v>6.94</v>
       </c>
       <c r="C2">
-        <v>6.467577452118073</v>
+        <v>6.467577452118074</v>
       </c>
       <c r="D2">
-        <v>-0.4724225478819273</v>
+        <v>-0.4724225478819264</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1961,10 +1961,10 @@
         <v>7.03</v>
       </c>
       <c r="C3">
-        <v>6.460464533443044</v>
+        <v>6.460464533443046</v>
       </c>
       <c r="D3">
-        <v>-0.5695354665569559</v>
+        <v>-0.5695354665569541</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1978,7 +1978,7 @@
         <v>6.389348157350732</v>
       </c>
       <c r="D4">
-        <v>-0.4106518426492682</v>
+        <v>-0.4106518426492674</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1989,10 +1989,10 @@
         <v>6.76</v>
       </c>
       <c r="C5">
-        <v>6.367113203852952</v>
+        <v>6.367113203852953</v>
       </c>
       <c r="D5">
-        <v>-0.3928867961470477</v>
+        <v>-0.3928867961470468</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2003,10 +2003,10 @@
         <v>6.87</v>
       </c>
       <c r="C6">
-        <v>6.233019408267798</v>
+        <v>6.233019408267799</v>
       </c>
       <c r="D6">
-        <v>-0.6369805917322022</v>
+        <v>-0.6369805917322013</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2017,10 +2017,10 @@
         <v>6.82</v>
       </c>
       <c r="C7">
-        <v>6.33872588547571</v>
+        <v>6.338725885475711</v>
       </c>
       <c r="D7">
-        <v>-0.4812741145242905</v>
+        <v>-0.4812741145242896</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2031,10 +2031,10 @@
         <v>6.83</v>
       </c>
       <c r="C8">
-        <v>6.331539384727906</v>
+        <v>6.331539384727907</v>
       </c>
       <c r="D8">
-        <v>-0.4984606152720943</v>
+        <v>-0.4984606152720934</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2045,10 +2045,10 @@
         <v>6.4</v>
       </c>
       <c r="C9">
-        <v>6.29526635716681</v>
+        <v>6.295266357166811</v>
       </c>
       <c r="D9">
-        <v>-0.1047336428331906</v>
+        <v>-0.1047336428331898</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2059,10 +2059,10 @@
         <v>6.31</v>
       </c>
       <c r="C10">
-        <v>6.271492787627457</v>
+        <v>6.271492787627458</v>
       </c>
       <c r="D10">
-        <v>-0.03850721237254273</v>
+        <v>-0.03850721237254184</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2076,7 +2076,7 @@
         <v>6.185724846775059</v>
       </c>
       <c r="D11">
-        <v>-0.03427515322494123</v>
+        <v>-0.03427515322494035</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2087,10 +2087,10 @@
         <v>6.19</v>
       </c>
       <c r="C12">
-        <v>6.186944039060168</v>
+        <v>6.18694403906017</v>
       </c>
       <c r="D12">
-        <v>-0.003055960939832403</v>
+        <v>-0.003055960939830626</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2101,10 +2101,10 @@
         <v>6.01</v>
       </c>
       <c r="C13">
-        <v>6.069650934462328</v>
+        <v>6.069650934462329</v>
       </c>
       <c r="D13">
-        <v>0.05965093446232839</v>
+        <v>0.05965093446232927</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2115,10 +2115,10 @@
         <v>6</v>
       </c>
       <c r="C14">
-        <v>6.068283598204654</v>
+        <v>6.068283598204656</v>
       </c>
       <c r="D14">
-        <v>0.06828359820465391</v>
+        <v>0.06828359820465568</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2129,10 +2129,10 @@
         <v>6</v>
       </c>
       <c r="C15">
-        <v>6.084061276259577</v>
+        <v>6.084061276259578</v>
       </c>
       <c r="D15">
-        <v>0.08406127625957716</v>
+        <v>0.08406127625957804</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2143,10 +2143,10 @@
         <v>6.1</v>
       </c>
       <c r="C16">
-        <v>5.987661386370756</v>
+        <v>5.987661386370757</v>
       </c>
       <c r="D16">
-        <v>-0.1123386136292437</v>
+        <v>-0.1123386136292428</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2157,10 +2157,10 @@
         <v>5.81</v>
       </c>
       <c r="C17">
-        <v>5.850635987745191</v>
+        <v>5.850635987745192</v>
       </c>
       <c r="D17">
-        <v>0.04063598774519139</v>
+        <v>0.04063598774519228</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2171,10 +2171,10 @@
         <v>5.93</v>
       </c>
       <c r="C18">
-        <v>5.887401497389839</v>
+        <v>5.88740149738984</v>
       </c>
       <c r="D18">
-        <v>-0.04259850261016052</v>
+        <v>-0.04259850261015963</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2185,10 +2185,10 @@
         <v>5.95</v>
       </c>
       <c r="C19">
-        <v>6.004425329038044</v>
+        <v>6.004425329038045</v>
       </c>
       <c r="D19">
-        <v>0.05442532903804409</v>
+        <v>0.05442532903804498</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2213,10 +2213,10 @@
         <v>6.01</v>
       </c>
       <c r="C21">
-        <v>6.018744141690799</v>
+        <v>6.0187441416908</v>
       </c>
       <c r="D21">
-        <v>0.008744141690799623</v>
+        <v>0.008744141690800511</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2227,10 +2227,10 @@
         <v>6.01</v>
       </c>
       <c r="C22">
-        <v>6.007165268726856</v>
+        <v>6.007165268726857</v>
       </c>
       <c r="D22">
-        <v>-0.002834731273143376</v>
+        <v>-0.002834731273142488</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2255,10 +2255,10 @@
         <v>6</v>
       </c>
       <c r="C24">
-        <v>6.047949056180847</v>
+        <v>6.047949056180848</v>
       </c>
       <c r="D24">
-        <v>0.04794905618084666</v>
+        <v>0.04794905618084755</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2269,10 +2269,10 @@
         <v>5.98</v>
       </c>
       <c r="C25">
-        <v>6.0367764287247</v>
+        <v>6.036776428724699</v>
       </c>
       <c r="D25">
-        <v>0.05677642872469946</v>
+        <v>0.05677642872469857</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2283,10 +2283,10 @@
         <v>5.98</v>
       </c>
       <c r="C26">
-        <v>6.052377582107487</v>
+        <v>6.052377582107489</v>
       </c>
       <c r="D26">
-        <v>0.07237758210748702</v>
+        <v>0.07237758210748879</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2297,10 +2297,10 @@
         <v>5.98</v>
       </c>
       <c r="C27">
-        <v>6.050445072081514</v>
+        <v>6.050445072081515</v>
       </c>
       <c r="D27">
-        <v>0.07044507208151352</v>
+        <v>0.0704450720815144</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2328,7 +2328,7 @@
         <v>6.102198747175072</v>
       </c>
       <c r="D29">
-        <v>0.07219874717507135</v>
+        <v>0.07219874717507224</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2339,10 +2339,10 @@
         <v>6.02</v>
       </c>
       <c r="C30">
-        <v>6.125802711723701</v>
+        <v>6.125802711723702</v>
       </c>
       <c r="D30">
-        <v>0.1058027117237019</v>
+        <v>0.1058027117237028</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2353,10 +2353,10 @@
         <v>6.04</v>
       </c>
       <c r="C31">
-        <v>6.121572347199924</v>
+        <v>6.121572347199923</v>
       </c>
       <c r="D31">
-        <v>0.08157234719992434</v>
+        <v>0.08157234719992346</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2367,10 +2367,10 @@
         <v>5.99</v>
       </c>
       <c r="C32">
-        <v>6.075328539198429</v>
+        <v>6.075328539198428</v>
       </c>
       <c r="D32">
-        <v>0.08532853919842864</v>
+        <v>0.08532853919842776</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2395,10 +2395,10 @@
         <v>5.97</v>
       </c>
       <c r="C34">
-        <v>6.034831420887045</v>
+        <v>6.034831420887046</v>
       </c>
       <c r="D34">
-        <v>0.06483142088704508</v>
+        <v>0.06483142088704597</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2409,10 +2409,10 @@
         <v>6.06</v>
       </c>
       <c r="C35">
-        <v>6.071567518738995</v>
+        <v>6.071567518738996</v>
       </c>
       <c r="D35">
-        <v>0.0115675187389952</v>
+        <v>0.01156751873899609</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2437,10 +2437,10 @@
         <v>6.05</v>
       </c>
       <c r="C37">
-        <v>6.049949480473492</v>
+        <v>6.049949480473493</v>
       </c>
       <c r="D37">
-        <v>-5.051952650791947e-05</v>
+        <v>-5.051952650703129e-05</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2451,10 +2451,10 @@
         <v>6.05</v>
       </c>
       <c r="C38">
-        <v>6.074536098561335</v>
+        <v>6.074536098561336</v>
       </c>
       <c r="D38">
-        <v>0.02453609856133543</v>
+        <v>0.02453609856133632</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2507,10 +2507,10 @@
         <v>5.91</v>
       </c>
       <c r="C42">
-        <v>6.042309275338692</v>
+        <v>6.042309275338693</v>
       </c>
       <c r="D42">
-        <v>0.1323092753386916</v>
+        <v>0.1323092753386925</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2521,10 +2521,10 @@
         <v>5.94</v>
       </c>
       <c r="C43">
-        <v>6.033555360324339</v>
+        <v>6.033555360324341</v>
       </c>
       <c r="D43">
-        <v>0.09355536032433864</v>
+        <v>0.09355536032434042</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2549,10 +2549,10 @@
         <v>5.81</v>
       </c>
       <c r="C45">
-        <v>5.98607297544565</v>
+        <v>5.986072975445651</v>
       </c>
       <c r="D45">
-        <v>0.17607297544565</v>
+        <v>0.1760729754456518</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2591,10 +2591,10 @@
         <v>5.83</v>
       </c>
       <c r="C48">
-        <v>6.054330043699176</v>
+        <v>6.054330043699177</v>
       </c>
       <c r="D48">
-        <v>0.224330043699176</v>
+        <v>0.2243300436991769</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2619,10 +2619,10 @@
         <v>5.76</v>
       </c>
       <c r="C50">
-        <v>6.122787266135589</v>
+        <v>6.122787266135588</v>
       </c>
       <c r="D50">
-        <v>0.3627872661355891</v>
+        <v>0.3627872661355882</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2633,10 +2633,10 @@
         <v>6.04</v>
       </c>
       <c r="C51">
-        <v>6.225183263769626</v>
+        <v>6.225183263769629</v>
       </c>
       <c r="D51">
-        <v>0.185183263769626</v>
+        <v>0.1851832637696287</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2675,10 +2675,10 @@
         <v>6.13</v>
       </c>
       <c r="C54">
-        <v>6.269735510620808</v>
+        <v>6.269735510620809</v>
       </c>
       <c r="D54">
-        <v>0.1397355106208078</v>
+        <v>0.1397355106208096</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2703,10 +2703,10 @@
         <v>6.15</v>
       </c>
       <c r="C56">
-        <v>6.26292520443937</v>
+        <v>6.262925204439371</v>
       </c>
       <c r="D56">
-        <v>0.11292520443937</v>
+        <v>0.1129252044393709</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2759,10 +2759,10 @@
         <v>6.41</v>
       </c>
       <c r="C60">
-        <v>6.398209900246833</v>
+        <v>6.398209900246834</v>
       </c>
       <c r="D60">
-        <v>-0.01179009975316703</v>
+        <v>-0.01179009975316614</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2787,10 +2787,10 @@
         <v>6.5</v>
       </c>
       <c r="C62">
-        <v>6.42595237503348</v>
+        <v>6.425952375033481</v>
       </c>
       <c r="D62">
-        <v>-0.07404762496651962</v>
+        <v>-0.07404762496651873</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2801,10 +2801,10 @@
         <v>6.47</v>
       </c>
       <c r="C63">
-        <v>6.393356447891614</v>
+        <v>6.393356447891615</v>
       </c>
       <c r="D63">
-        <v>-0.07664355210838547</v>
+        <v>-0.07664355210838458</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2832,7 +2832,7 @@
         <v>6.460607877636837</v>
       </c>
       <c r="D65">
-        <v>-0.01939212236316301</v>
+        <v>-0.0193921223631639</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2846,7 +2846,7 @@
         <v>6.492632904982472</v>
       </c>
       <c r="D66">
-        <v>-0.03736709501752866</v>
+        <v>-0.03736709501752777</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2913,10 +2913,10 @@
         <v>6.43</v>
       </c>
       <c r="C71">
-        <v>6.613263706732244</v>
+        <v>6.613263706732243</v>
       </c>
       <c r="D71">
-        <v>0.1832637067322445</v>
+        <v>0.1832637067322436</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2927,10 +2927,10 @@
         <v>6.43</v>
       </c>
       <c r="C72">
-        <v>6.473895434291389</v>
+        <v>6.473895434291392</v>
       </c>
       <c r="D72">
-        <v>0.04389543429138953</v>
+        <v>0.0438954342913922</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2941,10 +2941,10 @@
         <v>6.42</v>
       </c>
       <c r="C73">
-        <v>6.471652274680502</v>
+        <v>6.471652274680503</v>
       </c>
       <c r="D73">
-        <v>0.05165227468050215</v>
+        <v>0.05165227468050304</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2955,10 +2955,10 @@
         <v>6.41</v>
       </c>
       <c r="C74">
-        <v>6.468286814460757</v>
+        <v>6.468286814460758</v>
       </c>
       <c r="D74">
-        <v>0.05828681446075734</v>
+        <v>0.05828681446075823</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2969,10 +2969,10 @@
         <v>6.41</v>
       </c>
       <c r="C75">
-        <v>6.289275522411961</v>
+        <v>6.28927552241196</v>
       </c>
       <c r="D75">
-        <v>-0.1207244775880394</v>
+        <v>-0.1207244775880403</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2997,10 +2997,10 @@
         <v>6.46</v>
       </c>
       <c r="C77">
-        <v>6.266616855059168</v>
+        <v>6.266616855059169</v>
       </c>
       <c r="D77">
-        <v>-0.1933831449408316</v>
+        <v>-0.1933831449408308</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3011,10 +3011,10 @@
         <v>6.46</v>
       </c>
       <c r="C78">
-        <v>6.269246662504475</v>
+        <v>6.269246662504476</v>
       </c>
       <c r="D78">
-        <v>-0.1907533374955248</v>
+        <v>-0.1907533374955239</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3025,10 +3025,10 @@
         <v>6.58</v>
       </c>
       <c r="C79">
-        <v>6.237347475285562</v>
+        <v>6.237347475285563</v>
       </c>
       <c r="D79">
-        <v>-0.3426525247144383</v>
+        <v>-0.3426525247144374</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3039,10 +3039,10 @@
         <v>6.59</v>
       </c>
       <c r="C80">
-        <v>6.177998561692118</v>
+        <v>6.17799856169212</v>
       </c>
       <c r="D80">
-        <v>-0.4120014383078816</v>
+        <v>-0.4120014383078798</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3053,10 +3053,10 @@
         <v>6.61</v>
       </c>
       <c r="C81">
-        <v>6.112545582188126</v>
+        <v>6.112545582188127</v>
       </c>
       <c r="D81">
-        <v>-0.4974544178118743</v>
+        <v>-0.4974544178118734</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3067,10 +3067,10 @@
         <v>6.62</v>
       </c>
       <c r="C82">
-        <v>6.132272076828412</v>
+        <v>6.132272076828414</v>
       </c>
       <c r="D82">
-        <v>-0.4877279231715876</v>
+        <v>-0.4877279231715859</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3095,10 +3095,10 @@
         <v>6.68</v>
       </c>
       <c r="C84">
-        <v>6.193856496627081</v>
+        <v>6.193856496627082</v>
       </c>
       <c r="D84">
-        <v>-0.4861435033729187</v>
+        <v>-0.4861435033729178</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3123,10 +3123,10 @@
         <v>6.29</v>
       </c>
       <c r="C86">
-        <v>6.021722918067607</v>
+        <v>6.021722918067608</v>
       </c>
       <c r="D86">
-        <v>-0.2682770819323927</v>
+        <v>-0.2682770819323919</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3140,7 +3140,7 @@
         <v>6.112579014835092</v>
       </c>
       <c r="D87">
-        <v>-0.197420985164908</v>
+        <v>-0.1974209851649071</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3151,10 +3151,10 @@
         <v>6.33</v>
       </c>
       <c r="C88">
-        <v>6.126321562232357</v>
+        <v>6.126321562232358</v>
       </c>
       <c r="D88">
-        <v>-0.2036784377676426</v>
+        <v>-0.2036784377676417</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3179,10 +3179,10 @@
         <v>6.31</v>
       </c>
       <c r="C90">
-        <v>6.160946626812574</v>
+        <v>6.160946626812573</v>
       </c>
       <c r="D90">
-        <v>-0.1490533731874253</v>
+        <v>-0.1490533731874262</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3193,10 +3193,10 @@
         <v>6.3</v>
       </c>
       <c r="C91">
-        <v>6.123730832150719</v>
+        <v>6.123730832150718</v>
       </c>
       <c r="D91">
-        <v>-0.1762691678492807</v>
+        <v>-0.1762691678492816</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3207,10 +3207,10 @@
         <v>6.43</v>
       </c>
       <c r="C92">
-        <v>6.227930938679826</v>
+        <v>6.227930938679827</v>
       </c>
       <c r="D92">
-        <v>-0.2020690613201737</v>
+        <v>-0.2020690613201728</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3221,10 +3221,10 @@
         <v>6.12</v>
       </c>
       <c r="C93">
-        <v>6.146605502131882</v>
+        <v>6.146605502131885</v>
       </c>
       <c r="D93">
-        <v>0.02660550213188184</v>
+        <v>0.02660550213188451</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3235,10 +3235,10 @@
         <v>6.15</v>
       </c>
       <c r="C94">
-        <v>6.214278981185711</v>
+        <v>6.214278981185712</v>
       </c>
       <c r="D94">
-        <v>0.06427898118571029</v>
+        <v>0.06427898118571118</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3263,10 +3263,10 @@
         <v>6.02</v>
       </c>
       <c r="C96">
-        <v>6.20488995761321</v>
+        <v>6.204889957613211</v>
       </c>
       <c r="D96">
-        <v>0.1848899576132101</v>
+        <v>0.184889957613211</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3280,7 +3280,7 @@
         <v>6.273169425894022</v>
       </c>
       <c r="D97">
-        <v>0.2231694258940218</v>
+        <v>0.2231694258940227</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3294,7 +3294,7 @@
         <v>6.236048754851446</v>
       </c>
       <c r="D98">
-        <v>0.1960487548514456</v>
+        <v>0.1960487548514465</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3305,10 +3305,10 @@
         <v>5.98</v>
       </c>
       <c r="C99">
-        <v>6.270350840374199</v>
+        <v>6.2703508403742</v>
       </c>
       <c r="D99">
-        <v>0.2903508403741988</v>
+        <v>0.2903508403741997</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3319,10 +3319,10 @@
         <v>6.02</v>
       </c>
       <c r="C100">
-        <v>6.289819248613297</v>
+        <v>6.289819248613298</v>
       </c>
       <c r="D100">
-        <v>0.2698192486132971</v>
+        <v>0.269819248613298</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3333,10 +3333,10 @@
         <v>5.97</v>
       </c>
       <c r="C101">
-        <v>6.292018213084915</v>
+        <v>6.292018213084916</v>
       </c>
       <c r="D101">
-        <v>0.322018213084915</v>
+        <v>0.3220182130849167</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3347,10 +3347,10 @@
         <v>6.06</v>
       </c>
       <c r="C102">
-        <v>6.321431217169114</v>
+        <v>6.321431217169115</v>
       </c>
       <c r="D102">
-        <v>0.2614312171691147</v>
+        <v>0.2614312171691155</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3361,10 +3361,10 @@
         <v>6.08</v>
       </c>
       <c r="C103">
-        <v>6.27757338442499</v>
+        <v>6.277573384424991</v>
       </c>
       <c r="D103">
-        <v>0.1975733844249898</v>
+        <v>0.1975733844249907</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3375,10 +3375,10 @@
         <v>6.1</v>
       </c>
       <c r="C104">
-        <v>6.283380707105129</v>
+        <v>6.28338070710513</v>
       </c>
       <c r="D104">
-        <v>0.1833807071051297</v>
+        <v>0.1833807071051305</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3431,10 +3431,10 @@
         <v>6.05</v>
       </c>
       <c r="C108">
-        <v>6.307931378841571</v>
+        <v>6.307931378841572</v>
       </c>
       <c r="D108">
-        <v>0.2579313788415716</v>
+        <v>0.2579313788415725</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3487,10 +3487,10 @@
         <v>6.1</v>
       </c>
       <c r="C112">
-        <v>6.405934750873849</v>
+        <v>6.40593475087385</v>
       </c>
       <c r="D112">
-        <v>0.305934750873849</v>
+        <v>0.3059347508738499</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3515,10 +3515,10 @@
         <v>6.09</v>
       </c>
       <c r="C114">
-        <v>6.396203700693623</v>
+        <v>6.396203700693625</v>
       </c>
       <c r="D114">
-        <v>0.3062037006936231</v>
+        <v>0.3062037006936249</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3543,10 +3543,10 @@
         <v>5.83</v>
       </c>
       <c r="C116">
-        <v>6.125555180724163</v>
+        <v>6.125555180724164</v>
       </c>
       <c r="D116">
-        <v>0.295555180724163</v>
+        <v>0.2955551807241639</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3557,10 +3557,10 @@
         <v>5.77</v>
       </c>
       <c r="C117">
-        <v>6.106007015206858</v>
+        <v>6.106007015206857</v>
       </c>
       <c r="D117">
-        <v>0.3360070152068584</v>
+        <v>0.3360070152068575</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3585,10 +3585,10 @@
         <v>5.61</v>
       </c>
       <c r="C119">
-        <v>5.985817089546211</v>
+        <v>5.985817089546212</v>
       </c>
       <c r="D119">
-        <v>0.375817089546211</v>
+        <v>0.3758170895462118</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3627,10 +3627,10 @@
         <v>5.83</v>
       </c>
       <c r="C122">
-        <v>6.072327875578251</v>
+        <v>6.072327875578252</v>
       </c>
       <c r="D122">
-        <v>0.2423278755782512</v>
+        <v>0.2423278755782521</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3641,10 +3641,10 @@
         <v>5.86</v>
       </c>
       <c r="C123">
-        <v>6.051574012010955</v>
+        <v>6.051574012010957</v>
       </c>
       <c r="D123">
-        <v>0.191574012010955</v>
+        <v>0.1915740120109568</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3669,10 +3669,10 @@
         <v>5.88</v>
       </c>
       <c r="C125">
-        <v>6.075230235632612</v>
+        <v>6.075230235632613</v>
       </c>
       <c r="D125">
-        <v>0.1952302356326125</v>
+        <v>0.1952302356326134</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3683,10 +3683,10 @@
         <v>6.08</v>
       </c>
       <c r="C126">
-        <v>6.105423172337264</v>
+        <v>6.105423172337265</v>
       </c>
       <c r="D126">
-        <v>0.02542317233726354</v>
+        <v>0.02542317233726443</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3697,10 +3697,10 @@
         <v>6.03</v>
       </c>
       <c r="C127">
-        <v>6.095941977848586</v>
+        <v>6.095941977848587</v>
       </c>
       <c r="D127">
-        <v>0.06594197784858569</v>
+        <v>0.06594197784858657</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3725,10 +3725,10 @@
         <v>6.08</v>
       </c>
       <c r="C129">
-        <v>6.043714408531364</v>
+        <v>6.043714408531365</v>
       </c>
       <c r="D129">
-        <v>-0.03628559146863619</v>
+        <v>-0.0362855914686353</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3739,10 +3739,10 @@
         <v>5.66</v>
       </c>
       <c r="C130">
-        <v>6.103094185264979</v>
+        <v>6.10309418526498</v>
       </c>
       <c r="D130">
-        <v>0.4430941852649788</v>
+        <v>0.4430941852649797</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3753,10 +3753,10 @@
         <v>5.72</v>
       </c>
       <c r="C131">
-        <v>6.162543813338998</v>
+        <v>6.162543813339</v>
       </c>
       <c r="D131">
-        <v>0.4425438133389985</v>
+        <v>0.4425438133390003</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3781,10 +3781,10 @@
         <v>5.65</v>
       </c>
       <c r="C133">
-        <v>6.160226044951616</v>
+        <v>6.160226044951618</v>
       </c>
       <c r="D133">
-        <v>0.5102260449516152</v>
+        <v>0.5102260449516178</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3795,10 +3795,10 @@
         <v>5.93</v>
       </c>
       <c r="C134">
-        <v>6.269477485626394</v>
+        <v>6.269477485626395</v>
       </c>
       <c r="D134">
-        <v>0.3394774856263938</v>
+        <v>0.3394774856263956</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3809,10 +3809,10 @@
         <v>6.02</v>
       </c>
       <c r="C135">
-        <v>6.332950764721068</v>
+        <v>6.332950764721069</v>
       </c>
       <c r="D135">
-        <v>0.3129507647210685</v>
+        <v>0.3129507647210694</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3826,7 +3826,7 @@
         <v>6.34841489032465</v>
       </c>
       <c r="D136">
-        <v>0.2984148903246497</v>
+        <v>0.2984148903246506</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3837,10 +3837,10 @@
         <v>6.05</v>
       </c>
       <c r="C137">
-        <v>6.331266628932175</v>
+        <v>6.331266628932176</v>
       </c>
       <c r="D137">
-        <v>0.2812666289321752</v>
+        <v>0.2812666289321761</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3851,10 +3851,10 @@
         <v>6.07</v>
       </c>
       <c r="C138">
-        <v>6.352543922193026</v>
+        <v>6.352543922193027</v>
       </c>
       <c r="D138">
-        <v>0.2825439221930255</v>
+        <v>0.2825439221930264</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3879,10 +3879,10 @@
         <v>6.08</v>
       </c>
       <c r="C140">
-        <v>6.335811139252356</v>
+        <v>6.335811139252357</v>
       </c>
       <c r="D140">
-        <v>0.2558111392523559</v>
+        <v>0.2558111392523568</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3893,10 +3893,10 @@
         <v>6.13</v>
       </c>
       <c r="C141">
-        <v>6.392444014713286</v>
+        <v>6.392444014713289</v>
       </c>
       <c r="D141">
-        <v>0.262444014713286</v>
+        <v>0.2624440147132887</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3907,10 +3907,10 @@
         <v>6.12</v>
       </c>
       <c r="C142">
-        <v>6.566288112478679</v>
+        <v>6.56628811247868</v>
       </c>
       <c r="D142">
-        <v>0.4462881124786788</v>
+        <v>0.4462881124786797</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3938,7 +3938,7 @@
         <v>6.602584579586964</v>
       </c>
       <c r="D144">
-        <v>0.3025845795869637</v>
+        <v>0.3025845795869646</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3966,7 +3966,7 @@
         <v>6.664512375494049</v>
       </c>
       <c r="D146">
-        <v>0.3145123754940489</v>
+        <v>0.3145123754940498</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3977,10 +3977,10 @@
         <v>6.32</v>
       </c>
       <c r="C147">
-        <v>6.670573957414516</v>
+        <v>6.670573957414517</v>
       </c>
       <c r="D147">
-        <v>0.3505739574145155</v>
+        <v>0.3505739574145164</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3991,10 +3991,10 @@
         <v>6.61</v>
       </c>
       <c r="C148">
-        <v>6.73781626327624</v>
+        <v>6.737816263276241</v>
       </c>
       <c r="D148">
-        <v>0.1278162632762401</v>
+        <v>0.127816263276241</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -4005,10 +4005,10 @@
         <v>6.65</v>
       </c>
       <c r="C149">
-        <v>6.709043684565563</v>
+        <v>6.709043684565564</v>
       </c>
       <c r="D149">
-        <v>0.05904368456556242</v>
+        <v>0.0590436845655633</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4022,7 +4022,7 @@
         <v>6.702708511680433</v>
       </c>
       <c r="D150">
-        <v>0.04270851168043244</v>
+        <v>0.04270851168043333</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4033,10 +4033,10 @@
         <v>6.62</v>
       </c>
       <c r="C151">
-        <v>6.676025286731051</v>
+        <v>6.676025286731052</v>
       </c>
       <c r="D151">
-        <v>0.05602528673105045</v>
+        <v>0.05602528673105223</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4047,10 +4047,10 @@
         <v>6.59</v>
       </c>
       <c r="C152">
-        <v>6.671598141938671</v>
+        <v>6.671598141938672</v>
       </c>
       <c r="D152">
-        <v>0.0815981419386711</v>
+        <v>0.08159814193867199</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4061,10 +4061,10 @@
         <v>6.62</v>
       </c>
       <c r="C153">
-        <v>6.563883031407682</v>
+        <v>6.563883031407685</v>
       </c>
       <c r="D153">
-        <v>-0.05611696859231774</v>
+        <v>-0.05611696859231508</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4075,10 +4075,10 @@
         <v>6.59</v>
       </c>
       <c r="C154">
-        <v>6.525936646445698</v>
+        <v>6.5259366464457</v>
       </c>
       <c r="D154">
-        <v>-0.06406335355430137</v>
+        <v>-0.0640633535542996</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4089,10 +4089,10 @@
         <v>6.53</v>
       </c>
       <c r="C155">
-        <v>6.460149951060545</v>
+        <v>6.460149951060546</v>
       </c>
       <c r="D155">
-        <v>-0.0698500489394549</v>
+        <v>-0.06985004893945401</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4106,7 +4106,7 @@
         <v>6.497510625798157</v>
       </c>
       <c r="D156">
-        <v>-0.1024893742018431</v>
+        <v>-0.1024893742018422</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4117,10 +4117,10 @@
         <v>6.57</v>
       </c>
       <c r="C157">
-        <v>6.512289772865429</v>
+        <v>6.51228977286543</v>
       </c>
       <c r="D157">
-        <v>-0.05771022713457086</v>
+        <v>-0.05771022713456997</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4131,10 +4131,10 @@
         <v>6.91</v>
       </c>
       <c r="C158">
-        <v>6.626775278551476</v>
+        <v>6.626775278551477</v>
       </c>
       <c r="D158">
-        <v>-0.2832247214485237</v>
+        <v>-0.2832247214485228</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4145,10 +4145,10 @@
         <v>7.08</v>
       </c>
       <c r="C159">
-        <v>6.710294334115578</v>
+        <v>6.710294334115579</v>
       </c>
       <c r="D159">
-        <v>-0.369705665884422</v>
+        <v>-0.3697056658844211</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4159,10 +4159,10 @@
         <v>7.16</v>
       </c>
       <c r="C160">
-        <v>6.755387874366109</v>
+        <v>6.75538787436611</v>
       </c>
       <c r="D160">
-        <v>-0.404612125633891</v>
+        <v>-0.4046121256338902</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4204,7 +4204,7 @@
         <v>6.723042724772752</v>
       </c>
       <c r="D163">
-        <v>-0.4469572752272484</v>
+        <v>-0.4469572752272475</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4229,10 +4229,10 @@
         <v>7.16</v>
       </c>
       <c r="C165">
-        <v>6.734232957088935</v>
+        <v>6.734232957088936</v>
       </c>
       <c r="D165">
-        <v>-0.4257670429110654</v>
+        <v>-0.4257670429110645</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4243,10 +4243,10 @@
         <v>7.05</v>
       </c>
       <c r="C166">
-        <v>6.717608216052617</v>
+        <v>6.717608216052618</v>
       </c>
       <c r="D166">
-        <v>-0.3323917839473829</v>
+        <v>-0.332391783947382</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4257,10 +4257,10 @@
         <v>6.96</v>
       </c>
       <c r="C167">
-        <v>6.697232533186863</v>
+        <v>6.697232533186864</v>
       </c>
       <c r="D167">
-        <v>-0.2627674668131368</v>
+        <v>-0.2627674668131359</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4271,10 +4271,10 @@
         <v>6.9</v>
       </c>
       <c r="C168">
-        <v>6.673900474414738</v>
+        <v>6.67390047441474</v>
       </c>
       <c r="D168">
-        <v>-0.226099525585262</v>
+        <v>-0.2260995255852603</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4299,10 +4299,10 @@
         <v>6.83</v>
       </c>
       <c r="C170">
-        <v>6.521562126724223</v>
+        <v>6.521562126724224</v>
       </c>
       <c r="D170">
-        <v>-0.3084378732757767</v>
+        <v>-0.3084378732757758</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4313,10 +4313,10 @@
         <v>6.94</v>
       </c>
       <c r="C171">
-        <v>6.609302811634507</v>
+        <v>6.609302811634508</v>
       </c>
       <c r="D171">
-        <v>-0.3306971883654937</v>
+        <v>-0.3306971883654928</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4355,10 +4355,10 @@
         <v>7.14</v>
       </c>
       <c r="C174">
-        <v>6.693134742710054</v>
+        <v>6.693134742710055</v>
       </c>
       <c r="D174">
-        <v>-0.4468652572899456</v>
+        <v>-0.4468652572899448</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4383,10 +4383,10 @@
         <v>7.26</v>
       </c>
       <c r="C176">
-        <v>6.738175316885751</v>
+        <v>6.738175316885752</v>
       </c>
       <c r="D176">
-        <v>-0.5218246831142483</v>
+        <v>-0.5218246831142475</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4397,10 +4397,10 @@
         <v>7.34</v>
       </c>
       <c r="C177">
-        <v>6.89785720101592</v>
+        <v>6.897857201015921</v>
       </c>
       <c r="D177">
-        <v>-0.4421427989840794</v>
+        <v>-0.4421427989840785</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4414,7 +4414,7 @@
         <v>6.895240980204703</v>
       </c>
       <c r="D178">
-        <v>-0.4747590197952976</v>
+        <v>-0.4747590197952967</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4425,10 +4425,10 @@
         <v>7.21</v>
       </c>
       <c r="C179">
-        <v>6.849012930098954</v>
+        <v>6.849012930098955</v>
       </c>
       <c r="D179">
-        <v>-0.3609870699010456</v>
+        <v>-0.3609870699010447</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4439,10 +4439,10 @@
         <v>7.16</v>
       </c>
       <c r="C180">
-        <v>6.911359985446232</v>
+        <v>6.911359985446233</v>
       </c>
       <c r="D180">
-        <v>-0.2486400145537679</v>
+        <v>-0.2486400145537671</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4467,10 +4467,10 @@
         <v>7.07</v>
       </c>
       <c r="C182">
-        <v>6.870580459158452</v>
+        <v>6.870580459158453</v>
       </c>
       <c r="D182">
-        <v>-0.1994195408415482</v>
+        <v>-0.1994195408415473</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4481,10 +4481,10 @@
         <v>6.98</v>
       </c>
       <c r="C183">
-        <v>6.896307006837377</v>
+        <v>6.896307006837378</v>
       </c>
       <c r="D183">
-        <v>-0.08369299316262335</v>
+        <v>-0.08369299316262246</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4495,10 +4495,10 @@
         <v>7.09</v>
       </c>
       <c r="C184">
-        <v>6.92463814136279</v>
+        <v>6.924638141362791</v>
       </c>
       <c r="D184">
-        <v>-0.1653618586372101</v>
+        <v>-0.1653618586372092</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4512,7 +4512,7 @@
         <v>6.901578687811575</v>
       </c>
       <c r="D185">
-        <v>-0.04842131218842471</v>
+        <v>-0.0484213121884256</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4526,7 +4526,7 @@
         <v>6.893551250328144</v>
       </c>
       <c r="D186">
-        <v>-0.05644874967185576</v>
+        <v>-0.05644874967185665</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4537,10 +4537,10 @@
         <v>6.7</v>
       </c>
       <c r="C187">
-        <v>6.91296412566729</v>
+        <v>6.912964125667291</v>
       </c>
       <c r="D187">
-        <v>0.2129641256672903</v>
+        <v>0.2129641256672912</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4579,10 +4579,10 @@
         <v>6.76</v>
       </c>
       <c r="C190">
-        <v>6.877659157555522</v>
+        <v>6.877659157555521</v>
       </c>
       <c r="D190">
-        <v>0.1176591575555221</v>
+        <v>0.1176591575555213</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4607,10 +4607,10 @@
         <v>6.68</v>
       </c>
       <c r="C192">
-        <v>6.810297322926136</v>
+        <v>6.810297322926137</v>
       </c>
       <c r="D192">
-        <v>0.1302973229261362</v>
+        <v>0.130297322926137</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4621,10 +4621,10 @@
         <v>6.67</v>
       </c>
       <c r="C193">
-        <v>6.815996329740669</v>
+        <v>6.815996329740668</v>
       </c>
       <c r="D193">
-        <v>0.1459963297406688</v>
+        <v>0.1459963297406679</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4677,10 +4677,10 @@
         <v>6.53</v>
       </c>
       <c r="C197">
-        <v>6.531318664456496</v>
+        <v>6.531318664456495</v>
       </c>
       <c r="D197">
-        <v>0.001318664456495533</v>
+        <v>0.001318664456494645</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4691,10 +4691,10 @@
         <v>6.56</v>
       </c>
       <c r="C198">
-        <v>6.514056848276317</v>
+        <v>6.514056848276316</v>
       </c>
       <c r="D198">
-        <v>-0.0459431517236828</v>
+        <v>-0.04594315172368368</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4719,10 +4719,10 @@
         <v>6.67</v>
       </c>
       <c r="C200">
-        <v>6.585925272862802</v>
+        <v>6.585925272862801</v>
       </c>
       <c r="D200">
-        <v>-0.08407472713719777</v>
+        <v>-0.08407472713719866</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4761,10 +4761,10 @@
         <v>6.6</v>
       </c>
       <c r="C203">
-        <v>6.567876098547761</v>
+        <v>6.56787609854776</v>
       </c>
       <c r="D203">
-        <v>-0.03212390145223853</v>
+        <v>-0.03212390145223942</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4778,7 +4778,7 @@
         <v>6.587878075101004</v>
       </c>
       <c r="D204">
-        <v>-0.04212192489899547</v>
+        <v>-0.04212192489899635</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4789,10 +4789,10 @@
         <v>6.6</v>
       </c>
       <c r="C205">
-        <v>6.523774076708094</v>
+        <v>6.523774076708095</v>
       </c>
       <c r="D205">
-        <v>-0.07622592329190603</v>
+        <v>-0.07622592329190514</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4834,7 +4834,7 @@
         <v>6.522502443118682</v>
       </c>
       <c r="D208">
-        <v>-0.1874975568813175</v>
+        <v>-0.1874975568813184</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4845,10 +4845,10 @@
         <v>6.62</v>
       </c>
       <c r="C209">
-        <v>6.374292409072834</v>
+        <v>6.374292409072835</v>
       </c>
       <c r="D209">
-        <v>-0.2457075909271662</v>
+        <v>-0.2457075909271653</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4859,10 +4859,10 @@
         <v>6.56</v>
       </c>
       <c r="C210">
-        <v>6.353771078867567</v>
+        <v>6.353771078867568</v>
       </c>
       <c r="D210">
-        <v>-0.2062289211324329</v>
+        <v>-0.206228921132432</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4873,10 +4873,10 @@
         <v>6.58</v>
       </c>
       <c r="C211">
-        <v>6.350094830040511</v>
+        <v>6.350094830040512</v>
       </c>
       <c r="D211">
-        <v>-0.2299051699594887</v>
+        <v>-0.2299051699594878</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4887,10 +4887,10 @@
         <v>6.56</v>
       </c>
       <c r="C212">
-        <v>6.271628741088101</v>
+        <v>6.271628741088102</v>
       </c>
       <c r="D212">
-        <v>-0.2883712589118987</v>
+        <v>-0.2883712589118979</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4901,10 +4901,10 @@
         <v>6.51</v>
       </c>
       <c r="C213">
-        <v>6.268995975035978</v>
+        <v>6.268995975035979</v>
       </c>
       <c r="D213">
-        <v>-0.2410040249640213</v>
+        <v>-0.2410040249640204</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4915,10 +4915,10 @@
         <v>6.74</v>
       </c>
       <c r="C214">
-        <v>6.308131600612354</v>
+        <v>6.308131600612356</v>
       </c>
       <c r="D214">
-        <v>-0.4318683993876462</v>
+        <v>-0.4318683993876444</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4929,10 +4929,10 @@
         <v>6.78</v>
       </c>
       <c r="C215">
-        <v>6.32790983275454</v>
+        <v>6.327909832754542</v>
       </c>
       <c r="D215">
-        <v>-0.4520901672454603</v>
+        <v>-0.4520901672454585</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4957,10 +4957,10 @@
         <v>6.72</v>
       </c>
       <c r="C217">
-        <v>6.410085954349936</v>
+        <v>6.410085954349937</v>
       </c>
       <c r="D217">
-        <v>-0.3099140456500633</v>
+        <v>-0.3099140456500624</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4971,10 +4971,10 @@
         <v>6.79</v>
       </c>
       <c r="C218">
-        <v>6.46432222096044</v>
+        <v>6.464322220960439</v>
       </c>
       <c r="D218">
-        <v>-0.3256777790395597</v>
+        <v>-0.3256777790395606</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -5013,10 +5013,10 @@
         <v>6.6</v>
       </c>
       <c r="C221">
-        <v>6.51637299222237</v>
+        <v>6.516372992222371</v>
       </c>
       <c r="D221">
-        <v>-0.08362700777762999</v>
+        <v>-0.0836270077776291</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -5041,10 +5041,10 @@
         <v>6.37</v>
       </c>
       <c r="C223">
-        <v>6.264698160016798</v>
+        <v>6.2646981600168</v>
       </c>
       <c r="D223">
-        <v>-0.105301839983202</v>
+        <v>-0.1053018399832002</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -5069,10 +5069,10 @@
         <v>6.32</v>
       </c>
       <c r="C225">
-        <v>6.252290690744978</v>
+        <v>6.25229069074498</v>
       </c>
       <c r="D225">
-        <v>-0.06770930925502228</v>
+        <v>-0.0677093092550205</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5083,10 +5083,10 @@
         <v>6.64</v>
       </c>
       <c r="C226">
-        <v>6.363090906522858</v>
+        <v>6.363090906522859</v>
       </c>
       <c r="D226">
-        <v>-0.2769090934771414</v>
+        <v>-0.2769090934771405</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5139,10 +5139,10 @@
         <v>7.04</v>
       </c>
       <c r="C230">
-        <v>6.897858442413067</v>
+        <v>6.897858442413068</v>
       </c>
       <c r="D230">
-        <v>-0.1421415575869327</v>
+        <v>-0.1421415575869318</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5153,10 +5153,10 @@
         <v>7.08</v>
       </c>
       <c r="C231">
-        <v>6.909569555513588</v>
+        <v>6.909569555513589</v>
       </c>
       <c r="D231">
-        <v>-0.1704304444864118</v>
+        <v>-0.1704304444864109</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5167,10 +5167,10 @@
         <v>7.08</v>
       </c>
       <c r="C232">
-        <v>7.048454638525026</v>
+        <v>7.048454638525027</v>
       </c>
       <c r="D232">
-        <v>-0.03154536147497389</v>
+        <v>-0.031545361474973</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5181,10 +5181,10 @@
         <v>7.08</v>
       </c>
       <c r="C233">
-        <v>7.101347470317211</v>
+        <v>7.101347470317212</v>
       </c>
       <c r="D233">
-        <v>0.0213474703172114</v>
+        <v>0.02134747031721229</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5195,10 +5195,10 @@
         <v>7.15</v>
       </c>
       <c r="C234">
-        <v>7.0747720518889</v>
+        <v>7.074772051888901</v>
       </c>
       <c r="D234">
-        <v>-0.07522794811110067</v>
+        <v>-0.07522794811109978</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5209,10 +5209,10 @@
         <v>7.19</v>
       </c>
       <c r="C235">
-        <v>7.105713408916893</v>
+        <v>7.105713408916894</v>
       </c>
       <c r="D235">
-        <v>-0.08428659108310743</v>
+        <v>-0.08428659108310654</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5223,10 +5223,10 @@
         <v>7.07</v>
       </c>
       <c r="C236">
-        <v>7.144732183803683</v>
+        <v>7.144732183803682</v>
       </c>
       <c r="D236">
-        <v>0.07473218380368252</v>
+        <v>0.07473218380368163</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5237,10 +5237,10 @@
         <v>6.92</v>
       </c>
       <c r="C237">
-        <v>7.351695529468918</v>
+        <v>7.351695529468917</v>
       </c>
       <c r="D237">
-        <v>0.431695529468918</v>
+        <v>0.4316955294689171</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5251,10 +5251,10 @@
         <v>6.9</v>
       </c>
       <c r="C238">
-        <v>7.303350081169741</v>
+        <v>7.303350081169742</v>
       </c>
       <c r="D238">
-        <v>0.4033500811697408</v>
+        <v>0.4033500811697417</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5265,10 +5265,10 @@
         <v>6.91</v>
       </c>
       <c r="C239">
-        <v>7.312332667760476</v>
+        <v>7.312332667760477</v>
       </c>
       <c r="D239">
-        <v>0.4023326677604757</v>
+        <v>0.4023326677604766</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5282,7 +5282,7 @@
         <v>7.318428672933575</v>
       </c>
       <c r="D240">
-        <v>0.4684286729335749</v>
+        <v>0.4684286729335758</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5293,10 +5293,10 @@
         <v>6.97</v>
       </c>
       <c r="C241">
-        <v>7.351290228025407</v>
+        <v>7.351290228025408</v>
       </c>
       <c r="D241">
-        <v>0.3812902280254074</v>
+        <v>0.3812902280254082</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5307,10 +5307,10 @@
         <v>6.99</v>
       </c>
       <c r="C242">
-        <v>7.367427273412039</v>
+        <v>7.36742727341204</v>
       </c>
       <c r="D242">
-        <v>0.3774272734120387</v>
+        <v>0.3774272734120396</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5324,7 +5324,7 @@
         <v>7.368944613956709</v>
       </c>
       <c r="D243">
-        <v>0.3789446139567083</v>
+        <v>0.3789446139567092</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5335,10 +5335,10 @@
         <v>7</v>
       </c>
       <c r="C244">
-        <v>7.384609561630116</v>
+        <v>7.384609561630117</v>
       </c>
       <c r="D244">
-        <v>0.3846095616301159</v>
+        <v>0.3846095616301168</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5349,10 +5349,10 @@
         <v>6.99</v>
       </c>
       <c r="C245">
-        <v>7.418435634063108</v>
+        <v>7.418435634063107</v>
       </c>
       <c r="D245">
-        <v>0.4284356340631081</v>
+        <v>0.4284356340631073</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5363,10 +5363,10 @@
         <v>7.1</v>
       </c>
       <c r="C246">
-        <v>7.475416692845714</v>
+        <v>7.475416692845717</v>
       </c>
       <c r="D246">
-        <v>0.3754166928457146</v>
+        <v>0.3754166928457172</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5377,10 +5377,10 @@
         <v>7.21</v>
       </c>
       <c r="C247">
-        <v>7.552751960621856</v>
+        <v>7.552751960621857</v>
       </c>
       <c r="D247">
-        <v>0.3427519606218565</v>
+        <v>0.3427519606218574</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5391,10 +5391,10 @@
         <v>7.19</v>
       </c>
       <c r="C248">
-        <v>7.441769510815826</v>
+        <v>7.441769510815827</v>
       </c>
       <c r="D248">
-        <v>0.2517695108158255</v>
+        <v>0.2517695108158264</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5405,10 +5405,10 @@
         <v>7.24</v>
       </c>
       <c r="C249">
-        <v>7.53735852880928</v>
+        <v>7.537358528809279</v>
       </c>
       <c r="D249">
-        <v>0.2973585288092799</v>
+        <v>0.297358528809279</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5422,7 +5422,7 @@
         <v>7.533354341457692</v>
       </c>
       <c r="D250">
-        <v>0.2733543414576918</v>
+        <v>0.2733543414576927</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5433,10 +5433,10 @@
         <v>7.32</v>
       </c>
       <c r="C251">
-        <v>7.625908436684899</v>
+        <v>7.625908436684898</v>
       </c>
       <c r="D251">
-        <v>0.3059084366848985</v>
+        <v>0.3059084366848976</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5447,10 +5447,10 @@
         <v>7.23</v>
       </c>
       <c r="C252">
-        <v>7.60782262053646</v>
+        <v>7.607822620536459</v>
       </c>
       <c r="D252">
-        <v>0.3778226205364597</v>
+        <v>0.3778226205364588</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5461,10 +5461,10 @@
         <v>7.18</v>
       </c>
       <c r="C253">
-        <v>7.500906541676553</v>
+        <v>7.500906541676552</v>
       </c>
       <c r="D253">
-        <v>0.3209065416765533</v>
+        <v>0.3209065416765524</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5478,7 +5478,7 @@
         <v>7.430715403773728</v>
       </c>
       <c r="D254">
-        <v>0.3307154037737288</v>
+        <v>0.3307154037737279</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5489,10 +5489,10 @@
         <v>7.05</v>
       </c>
       <c r="C255">
-        <v>7.391735365017947</v>
+        <v>7.391735365017948</v>
       </c>
       <c r="D255">
-        <v>0.3417353650179473</v>
+        <v>0.3417353650179482</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5506,7 +5506,7 @@
         <v>7.388921573419513</v>
       </c>
       <c r="D256">
-        <v>0.3189215734195123</v>
+        <v>0.3189215734195132</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5517,10 +5517,10 @@
         <v>7.08</v>
       </c>
       <c r="C257">
-        <v>7.404977566240191</v>
+        <v>7.40497756624019</v>
       </c>
       <c r="D257">
-        <v>0.3249775662401913</v>
+        <v>0.3249775662401904</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5531,10 +5531,10 @@
         <v>6.95</v>
       </c>
       <c r="C258">
-        <v>7.364023199968553</v>
+        <v>7.364023199968554</v>
       </c>
       <c r="D258">
-        <v>0.4140231999685531</v>
+        <v>0.414023199968554</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5545,10 +5545,10 @@
         <v>7.41</v>
       </c>
       <c r="C259">
-        <v>7.544079209126158</v>
+        <v>7.544079209126159</v>
       </c>
       <c r="D259">
-        <v>0.134079209126158</v>
+        <v>0.1340792091261589</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5559,10 +5559,10 @@
         <v>7.55</v>
       </c>
       <c r="C260">
-        <v>7.606102474999506</v>
+        <v>7.606102474999509</v>
       </c>
       <c r="D260">
-        <v>0.05610247499950649</v>
+        <v>0.05610247499950916</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5573,10 +5573,10 @@
         <v>7.67</v>
       </c>
       <c r="C261">
-        <v>7.623729419040208</v>
+        <v>7.623729419040209</v>
       </c>
       <c r="D261">
-        <v>-0.04627058095979208</v>
+        <v>-0.0462705809597912</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5587,10 +5587,10 @@
         <v>7.3</v>
       </c>
       <c r="C262">
-        <v>7.627266377703563</v>
+        <v>7.627266377703562</v>
       </c>
       <c r="D262">
-        <v>0.3272663777035634</v>
+        <v>0.3272663777035625</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5604,7 +5604,7 @@
         <v>7.66152294570951</v>
       </c>
       <c r="D263">
-        <v>0.2615229457095101</v>
+        <v>0.2615229457095092</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5615,10 +5615,10 @@
         <v>7.39</v>
       </c>
       <c r="C264">
-        <v>7.682978398203158</v>
+        <v>7.682978398203157</v>
       </c>
       <c r="D264">
-        <v>0.2929783982031582</v>
+        <v>0.2929783982031573</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5629,10 +5629,10 @@
         <v>7.46</v>
       </c>
       <c r="C265">
-        <v>7.725024364162113</v>
+        <v>7.725024364162116</v>
       </c>
       <c r="D265">
-        <v>0.2650243641621133</v>
+        <v>0.2650243641621159</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5643,10 +5643,10 @@
         <v>7.44</v>
       </c>
       <c r="C266">
-        <v>7.678124626164713</v>
+        <v>7.678124626164714</v>
       </c>
       <c r="D266">
-        <v>0.238124626164713</v>
+        <v>0.2381246261647139</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5657,10 +5657,10 @@
         <v>7.25</v>
       </c>
       <c r="C267">
-        <v>7.503027357299048</v>
+        <v>7.503027357299049</v>
       </c>
       <c r="D267">
-        <v>0.2530273572990485</v>
+        <v>0.2530273572990493</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5671,10 +5671,10 @@
         <v>7.19</v>
       </c>
       <c r="C268">
-        <v>7.499268828811218</v>
+        <v>7.499268828811219</v>
       </c>
       <c r="D268">
-        <v>0.3092688288112173</v>
+        <v>0.3092688288112182</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5685,10 +5685,10 @@
         <v>7.22</v>
       </c>
       <c r="C269">
-        <v>7.50871697712709</v>
+        <v>7.508716977127091</v>
       </c>
       <c r="D269">
-        <v>0.2887169771270903</v>
+        <v>0.2887169771270912</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5699,10 +5699,10 @@
         <v>7.22</v>
       </c>
       <c r="C270">
-        <v>7.532675604665091</v>
+        <v>7.532675604665093</v>
       </c>
       <c r="D270">
-        <v>0.3126756046650909</v>
+        <v>0.3126756046650936</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5713,10 +5713,10 @@
         <v>7.11</v>
       </c>
       <c r="C271">
-        <v>7.469318256276868</v>
+        <v>7.469318256276867</v>
       </c>
       <c r="D271">
-        <v>0.3593182562768673</v>
+        <v>0.3593182562768664</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5727,10 +5727,10 @@
         <v>7.2</v>
       </c>
       <c r="C272">
-        <v>7.454058588704251</v>
+        <v>7.454058588704252</v>
       </c>
       <c r="D272">
-        <v>0.2540585887042512</v>
+        <v>0.2540585887042521</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5741,10 +5741,10 @@
         <v>7.25</v>
       </c>
       <c r="C273">
-        <v>7.381122506407703</v>
+        <v>7.381122506407704</v>
       </c>
       <c r="D273">
-        <v>0.1311225064077028</v>
+        <v>0.1311225064077037</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5755,10 +5755,10 @@
         <v>7.33</v>
       </c>
       <c r="C274">
-        <v>7.420671753541184</v>
+        <v>7.420671753541185</v>
       </c>
       <c r="D274">
-        <v>0.09067175354118362</v>
+        <v>0.09067175354118451</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5769,10 +5769,10 @@
         <v>7.42</v>
       </c>
       <c r="C275">
-        <v>7.446445192262189</v>
+        <v>7.446445192262188</v>
       </c>
       <c r="D275">
-        <v>0.02644519226218911</v>
+        <v>0.02644519226218822</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5783,10 +5783,10 @@
         <v>7.4</v>
       </c>
       <c r="C276">
-        <v>7.416423260947436</v>
+        <v>7.416423260947437</v>
       </c>
       <c r="D276">
-        <v>0.01642326094743574</v>
+        <v>0.01642326094743662</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5797,10 +5797,10 @@
         <v>7.38</v>
       </c>
       <c r="C277">
-        <v>7.3139576496893</v>
+        <v>7.313957649689299</v>
       </c>
       <c r="D277">
-        <v>-0.06604235031069994</v>
+        <v>-0.06604235031070083</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5811,10 +5811,10 @@
         <v>7.38</v>
       </c>
       <c r="C278">
-        <v>7.328099153890122</v>
+        <v>7.328099153890125</v>
       </c>
       <c r="D278">
-        <v>-0.051900846109878</v>
+        <v>-0.05190084610987533</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5825,10 +5825,10 @@
         <v>7.41</v>
       </c>
       <c r="C279">
-        <v>7.294818217772683</v>
+        <v>7.294818217772684</v>
       </c>
       <c r="D279">
-        <v>-0.1151817822273173</v>
+        <v>-0.1151817822273165</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5839,10 +5839,10 @@
         <v>7.24</v>
       </c>
       <c r="C280">
-        <v>7.05113268867356</v>
+        <v>7.051132688673561</v>
       </c>
       <c r="D280">
-        <v>-0.1888673113264403</v>
+        <v>-0.1888673113264394</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5853,10 +5853,10 @@
         <v>7.77</v>
       </c>
       <c r="C281">
-        <v>7.088615428692744</v>
+        <v>7.088615428692747</v>
       </c>
       <c r="D281">
-        <v>-0.6813845713072553</v>
+        <v>-0.6813845713072526</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5867,10 +5867,10 @@
         <v>7.87</v>
       </c>
       <c r="C282">
-        <v>7.152017810073627</v>
+        <v>7.152017810073628</v>
       </c>
       <c r="D282">
-        <v>-0.7179821899263734</v>
+        <v>-0.7179821899263725</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5881,10 +5881,10 @@
         <v>8.029999999999999</v>
       </c>
       <c r="C283">
-        <v>7.451482554813078</v>
+        <v>7.451482554813079</v>
       </c>
       <c r="D283">
-        <v>-0.5785174451869217</v>
+        <v>-0.5785174451869208</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5895,10 +5895,10 @@
         <v>8.16</v>
       </c>
       <c r="C284">
-        <v>7.602186405584524</v>
+        <v>7.602186405584527</v>
       </c>
       <c r="D284">
-        <v>-0.5578135944154763</v>
+        <v>-0.5578135944154736</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5909,10 +5909,10 @@
         <v>7.67</v>
       </c>
       <c r="C285">
-        <v>7.575787622403659</v>
+        <v>7.575787622403662</v>
       </c>
       <c r="D285">
-        <v>-0.0942123775963406</v>
+        <v>-0.09421237759633794</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5923,10 +5923,10 @@
         <v>8.08</v>
       </c>
       <c r="C286">
-        <v>7.751396670279529</v>
+        <v>7.75139667027953</v>
       </c>
       <c r="D286">
-        <v>-0.3286033297204707</v>
+        <v>-0.3286033297204698</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5937,10 +5937,10 @@
         <v>8.15</v>
       </c>
       <c r="C287">
-        <v>7.843839120254088</v>
+        <v>7.843839120254091</v>
       </c>
       <c r="D287">
-        <v>-0.3061608797459119</v>
+        <v>-0.3061608797459092</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5951,10 +5951,10 @@
         <v>7.8</v>
       </c>
       <c r="C288">
-        <v>8.162060904338313</v>
+        <v>8.162060904338315</v>
       </c>
       <c r="D288">
-        <v>0.3620609043383132</v>
+        <v>0.3620609043383149</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5965,10 +5965,10 @@
         <v>7.64</v>
       </c>
       <c r="C289">
-        <v>7.921577871526189</v>
+        <v>7.921577871526192</v>
       </c>
       <c r="D289">
-        <v>0.2815778715261894</v>
+        <v>0.2815778715261921</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5993,10 +5993,10 @@
         <v>7.59</v>
       </c>
       <c r="C291">
-        <v>7.941193384873188</v>
+        <v>7.941193384873189</v>
       </c>
       <c r="D291">
-        <v>0.3511933848731879</v>
+        <v>0.3511933848731887</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -6007,10 +6007,10 @@
         <v>8.109999999999999</v>
       </c>
       <c r="C292">
-        <v>8.075300155655155</v>
+        <v>8.075300155655157</v>
       </c>
       <c r="D292">
-        <v>-0.03469984434484452</v>
+        <v>-0.03469984434484275</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -6035,10 +6035,10 @@
         <v>8.48</v>
       </c>
       <c r="C294">
-        <v>8.051395578332238</v>
+        <v>8.05139557833224</v>
       </c>
       <c r="D294">
-        <v>-0.428604421667762</v>
+        <v>-0.4286044216677602</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -6063,10 +6063,10 @@
         <v>8.460000000000001</v>
       </c>
       <c r="C296">
-        <v>8.028913746116642</v>
+        <v>8.028913746116643</v>
       </c>
       <c r="D296">
-        <v>-0.4310862538833593</v>
+        <v>-0.4310862538833575</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -6105,10 +6105,10 @@
         <v>9.16</v>
       </c>
       <c r="C299">
-        <v>8.422135381458803</v>
+        <v>8.422135381458805</v>
       </c>
       <c r="D299">
-        <v>-0.737864618541197</v>
+        <v>-0.7378646185411952</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -6119,10 +6119,10 @@
         <v>9.25</v>
       </c>
       <c r="C300">
-        <v>8.491684906724387</v>
+        <v>8.491684906724391</v>
       </c>
       <c r="D300">
-        <v>-0.7583150932756126</v>
+        <v>-0.7583150932756091</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -6133,10 +6133,10 @@
         <v>9.34</v>
       </c>
       <c r="C301">
-        <v>8.472396223431366</v>
+        <v>8.472396223431367</v>
       </c>
       <c r="D301">
-        <v>-0.8676037765686342</v>
+        <v>-0.8676037765686324</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6161,10 +6161,10 @@
         <v>8.82</v>
       </c>
       <c r="C303">
-        <v>8.306588363163401</v>
+        <v>8.306588363163403</v>
       </c>
       <c r="D303">
-        <v>-0.5134116368365991</v>
+        <v>-0.5134116368365973</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -6175,10 +6175,10 @@
         <v>8.890000000000001</v>
       </c>
       <c r="C304">
-        <v>8.248486438454121</v>
+        <v>8.248486438454123</v>
       </c>
       <c r="D304">
-        <v>-0.6415135615458798</v>
+        <v>-0.641513561545878</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6203,10 +6203,10 @@
         <v>9.07</v>
       </c>
       <c r="C306">
-        <v>8.289165698950528</v>
+        <v>8.28916569895053</v>
       </c>
       <c r="D306">
-        <v>-0.780834301049472</v>
+        <v>-0.7808343010494703</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6217,10 +6217,10 @@
         <v>8.029999999999999</v>
       </c>
       <c r="C307">
-        <v>8.082766581674568</v>
+        <v>8.082766581674569</v>
       </c>
       <c r="D307">
-        <v>0.05276658167456816</v>
+        <v>0.05276658167456993</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6231,10 +6231,10 @@
         <v>8.039999999999999</v>
       </c>
       <c r="C308">
-        <v>8.063960233145862</v>
+        <v>8.063960233145863</v>
       </c>
       <c r="D308">
-        <v>0.02396023314586238</v>
+        <v>0.02396023314586415</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6273,10 +6273,10 @@
         <v>7.62</v>
       </c>
       <c r="C311">
-        <v>7.743653774897201</v>
+        <v>7.743653774897202</v>
       </c>
       <c r="D311">
-        <v>0.1236537748972006</v>
+        <v>0.1236537748972015</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6287,10 +6287,10 @@
         <v>7.58</v>
       </c>
       <c r="C312">
-        <v>7.804041936260447</v>
+        <v>7.804041936260446</v>
       </c>
       <c r="D312">
-        <v>0.2240419362604467</v>
+        <v>0.2240419362604458</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6301,10 +6301,10 @@
         <v>7.62</v>
       </c>
       <c r="C313">
-        <v>7.823140112605191</v>
+        <v>7.823140112605194</v>
       </c>
       <c r="D313">
-        <v>0.2031401126051913</v>
+        <v>0.2031401126051939</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6315,10 +6315,10 @@
         <v>8.140000000000001</v>
       </c>
       <c r="C314">
-        <v>8.091012116433317</v>
+        <v>8.091012116433319</v>
       </c>
       <c r="D314">
-        <v>-0.04898788356668327</v>
+        <v>-0.04898788356668149</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6329,10 +6329,10 @@
         <v>8.109999999999999</v>
       </c>
       <c r="C315">
-        <v>7.910603949541759</v>
+        <v>7.910603949541758</v>
       </c>
       <c r="D315">
-        <v>-0.1993960504582404</v>
+        <v>-0.1993960504582413</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6346,7 +6346,7 @@
         <v>7.951692648945087</v>
       </c>
       <c r="D316">
-        <v>-0.3783073510549126</v>
+        <v>-0.3783073510549135</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6360,7 +6360,7 @@
         <v>7.942925915722411</v>
       </c>
       <c r="D317">
-        <v>-0.4070740842775891</v>
+        <v>-0.4070740842775882</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6371,10 +6371,10 @@
         <v>7.96</v>
       </c>
       <c r="C318">
-        <v>7.892668643979828</v>
+        <v>7.892668643979829</v>
       </c>
       <c r="D318">
-        <v>-0.06733135602017182</v>
+        <v>-0.06733135602017093</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6385,10 +6385,10 @@
         <v>7.68</v>
       </c>
       <c r="C319">
-        <v>7.79970782870992</v>
+        <v>7.799707828709917</v>
       </c>
       <c r="D319">
-        <v>0.1197078287099202</v>
+        <v>0.1197078287099176</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6399,10 +6399,10 @@
         <v>7.5</v>
       </c>
       <c r="C320">
-        <v>7.747220560722919</v>
+        <v>7.747220560722918</v>
       </c>
       <c r="D320">
-        <v>0.2472205607229192</v>
+        <v>0.2472205607229183</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6413,10 +6413,10 @@
         <v>7.53</v>
       </c>
       <c r="C321">
-        <v>7.688635591007273</v>
+        <v>7.688635591007272</v>
       </c>
       <c r="D321">
-        <v>0.1586355910072728</v>
+        <v>0.1586355910072719</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6427,10 +6427,10 @@
         <v>7.55</v>
       </c>
       <c r="C322">
-        <v>7.689593583854728</v>
+        <v>7.689593583854729</v>
       </c>
       <c r="D322">
-        <v>0.1395935838547286</v>
+        <v>0.1395935838547295</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6497,10 +6497,10 @@
         <v>7.59</v>
       </c>
       <c r="C327">
-        <v>8.075390652747306</v>
+        <v>8.075390652747309</v>
       </c>
       <c r="D327">
-        <v>0.4853906527473058</v>
+        <v>0.4853906527473093</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6511,10 +6511,10 @@
         <v>7.62</v>
       </c>
       <c r="C328">
-        <v>8.077364162022244</v>
+        <v>8.077364162022246</v>
       </c>
       <c r="D328">
-        <v>0.4573641620222437</v>
+        <v>0.4573641620222455</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6525,10 +6525,10 @@
         <v>7.64</v>
       </c>
       <c r="C329">
-        <v>7.961135019057608</v>
+        <v>7.96113501905761</v>
       </c>
       <c r="D329">
-        <v>0.3211350190576079</v>
+        <v>0.3211350190576105</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6539,10 +6539,10 @@
         <v>7.62</v>
       </c>
       <c r="C330">
-        <v>7.942492625595847</v>
+        <v>7.942492625595848</v>
       </c>
       <c r="D330">
-        <v>0.3224926255958467</v>
+        <v>0.3224926255958476</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6553,10 +6553,10 @@
         <v>7.72</v>
       </c>
       <c r="C331">
-        <v>7.98715487422605</v>
+        <v>7.987154874226049</v>
       </c>
       <c r="D331">
-        <v>0.2671548742260503</v>
+        <v>0.2671548742260494</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6567,10 +6567,10 @@
         <v>7.67</v>
       </c>
       <c r="C332">
-        <v>7.974160564065699</v>
+        <v>7.974160564065701</v>
       </c>
       <c r="D332">
-        <v>0.3041605640656986</v>
+        <v>0.3041605640657012</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6581,10 +6581,10 @@
         <v>7.62</v>
       </c>
       <c r="C333">
-        <v>7.881129327031047</v>
+        <v>7.881129327031046</v>
       </c>
       <c r="D333">
-        <v>0.2611293270310471</v>
+        <v>0.2611293270310462</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6595,10 +6595,10 @@
         <v>7.73</v>
       </c>
       <c r="C334">
-        <v>7.943476832681565</v>
+        <v>7.943476832681566</v>
       </c>
       <c r="D334">
-        <v>0.2134768326815646</v>
+        <v>0.2134768326815655</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6609,10 +6609,10 @@
         <v>7.32</v>
       </c>
       <c r="C335">
-        <v>7.588955052356308</v>
+        <v>7.588955052356307</v>
       </c>
       <c r="D335">
-        <v>0.2689550523563078</v>
+        <v>0.2689550523563069</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6623,10 +6623,10 @@
         <v>7.31</v>
       </c>
       <c r="C336">
-        <v>7.483120122756562</v>
+        <v>7.483120122756564</v>
       </c>
       <c r="D336">
-        <v>0.1731201227565622</v>
+        <v>0.1731201227565649</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6637,10 +6637,10 @@
         <v>7.3</v>
       </c>
       <c r="C337">
-        <v>7.48406592911353</v>
+        <v>7.484065929113533</v>
       </c>
       <c r="D337">
-        <v>0.1840659291135305</v>
+        <v>0.1840659291135331</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6651,10 +6651,10 @@
         <v>7.17</v>
       </c>
       <c r="C338">
-        <v>7.414744382353735</v>
+        <v>7.414744382353738</v>
       </c>
       <c r="D338">
-        <v>0.2447443823537352</v>
+        <v>0.2447443823537379</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6665,10 +6665,10 @@
         <v>7.14</v>
       </c>
       <c r="C339">
-        <v>7.443911512508341</v>
+        <v>7.443911512508342</v>
       </c>
       <c r="D339">
-        <v>0.3039115125083418</v>
+        <v>0.3039115125083427</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6679,10 +6679,10 @@
         <v>7.15</v>
       </c>
       <c r="C340">
-        <v>7.443510926536687</v>
+        <v>7.443510926536688</v>
       </c>
       <c r="D340">
-        <v>0.2935109265366869</v>
+        <v>0.2935109265366878</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6693,10 +6693,10 @@
         <v>7.15</v>
       </c>
       <c r="C341">
-        <v>7.414256844969982</v>
+        <v>7.414256844969983</v>
       </c>
       <c r="D341">
-        <v>0.2642568449699816</v>
+        <v>0.2642568449699825</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6707,10 +6707,10 @@
         <v>7.17</v>
       </c>
       <c r="C342">
-        <v>7.431017234937773</v>
+        <v>7.431017234937776</v>
       </c>
       <c r="D342">
-        <v>0.2610172349377731</v>
+        <v>0.2610172349377757</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6721,10 +6721,10 @@
         <v>7.24</v>
       </c>
       <c r="C343">
-        <v>7.462679502493302</v>
+        <v>7.462679502493304</v>
       </c>
       <c r="D343">
-        <v>0.2226795024933015</v>
+        <v>0.2226795024933041</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6735,10 +6735,10 @@
         <v>7.14</v>
       </c>
       <c r="C344">
-        <v>7.635162018746703</v>
+        <v>7.635162018746704</v>
       </c>
       <c r="D344">
-        <v>0.4951620187467034</v>
+        <v>0.4951620187467043</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6749,10 +6749,10 @@
         <v>7.04</v>
       </c>
       <c r="C345">
-        <v>7.579755523919257</v>
+        <v>7.57975552391926</v>
       </c>
       <c r="D345">
-        <v>0.5397555239192569</v>
+        <v>0.5397555239192595</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6763,10 +6763,10 @@
         <v>7.46</v>
       </c>
       <c r="C346">
-        <v>7.638136282138872</v>
+        <v>7.638136282138873</v>
       </c>
       <c r="D346">
-        <v>0.1781362821388717</v>
+        <v>0.1781362821388726</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6777,10 +6777,10 @@
         <v>7.53</v>
       </c>
       <c r="C347">
-        <v>7.719448933908904</v>
+        <v>7.719448933908907</v>
       </c>
       <c r="D347">
-        <v>0.1894489339089036</v>
+        <v>0.1894489339089063</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6847,10 +6847,10 @@
         <v>8.01</v>
       </c>
       <c r="C352">
-        <v>8.064838495233362</v>
+        <v>8.064838495233364</v>
       </c>
       <c r="D352">
-        <v>0.05483849523336204</v>
+        <v>0.05483849523336382</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6861,10 +6861,10 @@
         <v>8.17</v>
       </c>
       <c r="C353">
-        <v>8.157321887299849</v>
+        <v>8.157321887299851</v>
       </c>
       <c r="D353">
-        <v>-0.01267811270015073</v>
+        <v>-0.01267811270014896</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6903,10 +6903,10 @@
         <v>8.5</v>
       </c>
       <c r="C356">
-        <v>8.185805296297444</v>
+        <v>8.185805296297445</v>
       </c>
       <c r="D356">
-        <v>-0.3141947037025563</v>
+        <v>-0.3141947037025545</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6917,10 +6917,10 @@
         <v>8.279999999999999</v>
       </c>
       <c r="C357">
-        <v>8.150685598601816</v>
+        <v>8.150685598601818</v>
       </c>
       <c r="D357">
-        <v>-0.1293144013981831</v>
+        <v>-0.1293144013981813</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6934,7 +6934,7 @@
         <v>7.926057868893793</v>
       </c>
       <c r="D358">
-        <v>-0.09394213110620697</v>
+        <v>-0.09394213110620608</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6945,10 +6945,10 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C359">
-        <v>7.989716994177362</v>
+        <v>7.989716994177363</v>
       </c>
       <c r="D359">
-        <v>-0.210283005822637</v>
+        <v>-0.2102830058226361</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -6959,10 +6959,10 @@
         <v>8.18</v>
       </c>
       <c r="C360">
-        <v>8.25832050958695</v>
+        <v>8.258320509586952</v>
       </c>
       <c r="D360">
-        <v>0.07832050958695014</v>
+        <v>0.07832050958695191</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6973,10 +6973,10 @@
         <v>8.18</v>
       </c>
       <c r="C361">
-        <v>8.207456375979936</v>
+        <v>8.207456375979937</v>
       </c>
       <c r="D361">
-        <v>0.027456375979936</v>
+        <v>0.02745637597993777</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6987,10 +6987,10 @@
         <v>8.220000000000001</v>
       </c>
       <c r="C362">
-        <v>8.246636307552443</v>
+        <v>8.246636307552446</v>
       </c>
       <c r="D362">
-        <v>0.02663630755244206</v>
+        <v>0.02663630755244561</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -7001,10 +7001,10 @@
         <v>8.289999999999999</v>
       </c>
       <c r="C363">
-        <v>8.324732421533463</v>
+        <v>8.324732421533465</v>
       </c>
       <c r="D363">
-        <v>0.03473242153346412</v>
+        <v>0.0347324215334659</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -7015,10 +7015,10 @@
         <v>8.630000000000001</v>
       </c>
       <c r="C364">
-        <v>8.638812816037726</v>
+        <v>8.638812816037728</v>
       </c>
       <c r="D364">
-        <v>0.008812816037725213</v>
+        <v>0.008812816037726989</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -7057,10 +7057,10 @@
         <v>9.32</v>
       </c>
       <c r="C367">
-        <v>8.907807718510945</v>
+        <v>8.907807718510949</v>
       </c>
       <c r="D367">
-        <v>-0.4121922814890553</v>
+        <v>-0.4121922814890517</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -7085,10 +7085,10 @@
         <v>8.699999999999999</v>
       </c>
       <c r="C369">
-        <v>8.422826884526616</v>
+        <v>8.422826884526618</v>
       </c>
       <c r="D369">
-        <v>-0.2771731154733832</v>
+        <v>-0.2771731154733814</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -7197,10 +7197,10 @@
         <v>7.75</v>
       </c>
       <c r="C377">
-        <v>8.048224814052366</v>
+        <v>8.048224814052364</v>
       </c>
       <c r="D377">
-        <v>0.2982248140523662</v>
+        <v>0.2982248140523645</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -7214,7 +7214,7 @@
         <v>7.976361797001736</v>
       </c>
       <c r="D378">
-        <v>0.2263617970017364</v>
+        <v>0.2263617970017355</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -7225,10 +7225,10 @@
         <v>7.62</v>
       </c>
       <c r="C379">
-        <v>7.848133624060086</v>
+        <v>7.848133624060085</v>
       </c>
       <c r="D379">
-        <v>0.228133624060086</v>
+        <v>0.2281336240600851</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -7239,10 +7239,10 @@
         <v>7.66</v>
       </c>
       <c r="C380">
-        <v>7.816707192189714</v>
+        <v>7.816707192189715</v>
       </c>
       <c r="D380">
-        <v>0.1567071921897139</v>
+        <v>0.1567071921897147</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -7253,10 +7253,10 @@
         <v>7.91</v>
       </c>
       <c r="C381">
-        <v>7.817057229376413</v>
+        <v>7.817057229376414</v>
       </c>
       <c r="D381">
-        <v>-0.09294277062358702</v>
+        <v>-0.09294277062358614</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -7267,10 +7267,10 @@
         <v>7.69</v>
       </c>
       <c r="C382">
-        <v>7.733154614770415</v>
+        <v>7.733154614770414</v>
       </c>
       <c r="D382">
-        <v>0.04315461477041449</v>
+        <v>0.0431546147704136</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -7281,10 +7281,10 @@
         <v>7.24</v>
       </c>
       <c r="C383">
-        <v>7.39917834971736</v>
+        <v>7.399178349717359</v>
       </c>
       <c r="D383">
-        <v>0.1591783497173598</v>
+        <v>0.1591783497173589</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -7295,10 +7295,10 @@
         <v>7.22</v>
       </c>
       <c r="C384">
-        <v>7.393404371212979</v>
+        <v>7.393404371212978</v>
       </c>
       <c r="D384">
-        <v>0.1734043712129791</v>
+        <v>0.1734043712129782</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -7309,10 +7309,10 @@
         <v>7.2</v>
       </c>
       <c r="C385">
-        <v>7.386142576426593</v>
+        <v>7.386142576426592</v>
       </c>
       <c r="D385">
-        <v>0.1861425764265929</v>
+        <v>0.186142576426592</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -7323,10 +7323,10 @@
         <v>7.14</v>
       </c>
       <c r="C386">
-        <v>7.3188608864315</v>
+        <v>7.318860886431499</v>
       </c>
       <c r="D386">
-        <v>0.1788608864315</v>
+        <v>0.1788608864314991</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -7337,10 +7337,10 @@
         <v>7.02</v>
       </c>
       <c r="C387">
-        <v>7.192111924493762</v>
+        <v>7.192111924493761</v>
       </c>
       <c r="D387">
-        <v>0.1721119244937626</v>
+        <v>0.1721119244937617</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -7351,10 +7351,10 @@
         <v>7.07</v>
       </c>
       <c r="C388">
-        <v>7.239585623474825</v>
+        <v>7.239585623474826</v>
       </c>
       <c r="D388">
-        <v>0.1695856234748252</v>
+        <v>0.1695856234748261</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -7365,10 +7365,10 @@
         <v>7.17</v>
       </c>
       <c r="C389">
-        <v>7.289664044095057</v>
+        <v>7.289664044095058</v>
       </c>
       <c r="D389">
-        <v>0.1196640440950567</v>
+        <v>0.1196640440950576</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -7379,10 +7379,10 @@
         <v>7.19</v>
       </c>
       <c r="C390">
-        <v>7.305133636587753</v>
+        <v>7.305133636587752</v>
       </c>
       <c r="D390">
-        <v>0.1151336365877524</v>
+        <v>0.1151336365877516</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -7393,10 +7393,10 @@
         <v>7.35</v>
       </c>
       <c r="C391">
-        <v>7.360255599478082</v>
+        <v>7.360255599478083</v>
       </c>
       <c r="D391">
-        <v>0.01025559947808219</v>
+        <v>0.01025559947808308</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -7407,10 +7407,10 @@
         <v>7.28</v>
       </c>
       <c r="C392">
-        <v>7.260783239255238</v>
+        <v>7.260783239255237</v>
       </c>
       <c r="D392">
-        <v>-0.01921676074476242</v>
+        <v>-0.01921676074476331</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -7421,10 +7421,10 @@
         <v>7.71</v>
       </c>
       <c r="C393">
-        <v>7.479399568817003</v>
+        <v>7.479399568817002</v>
       </c>
       <c r="D393">
-        <v>-0.2306004311829968</v>
+        <v>-0.2306004311829977</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -7435,10 +7435,10 @@
         <v>7.6</v>
       </c>
       <c r="C394">
-        <v>7.387283126884508</v>
+        <v>7.387283126884509</v>
       </c>
       <c r="D394">
-        <v>-0.2127168731154914</v>
+        <v>-0.2127168731154905</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -7449,10 +7449,10 @@
         <v>7.5</v>
       </c>
       <c r="C395">
-        <v>7.402833517162204</v>
+        <v>7.402833517162203</v>
       </c>
       <c r="D395">
-        <v>-0.09716648283779605</v>
+        <v>-0.09716648283779694</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -7463,10 +7463,10 @@
         <v>7.51</v>
       </c>
       <c r="C396">
-        <v>7.393667894228292</v>
+        <v>7.393667894228293</v>
       </c>
       <c r="D396">
-        <v>-0.1163321057717077</v>
+        <v>-0.1163321057717068</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -7477,10 +7477,10 @@
         <v>7.14</v>
       </c>
       <c r="C397">
-        <v>7.106127750766753</v>
+        <v>7.106127750766752</v>
       </c>
       <c r="D397">
-        <v>-0.03387224923324705</v>
+        <v>-0.03387224923324794</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -7491,10 +7491,10 @@
         <v>7.19</v>
       </c>
       <c r="C398">
-        <v>6.985191525833232</v>
+        <v>6.985191525833231</v>
       </c>
       <c r="D398">
-        <v>-0.2048084741667688</v>
+        <v>-0.2048084741667697</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -7505,10 +7505,10 @@
         <v>7.09</v>
       </c>
       <c r="C399">
-        <v>6.940725641303317</v>
+        <v>6.940725641303318</v>
       </c>
       <c r="D399">
-        <v>-0.1492743586966832</v>
+        <v>-0.1492743586966823</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -7519,10 +7519,10 @@
         <v>7.13</v>
       </c>
       <c r="C400">
-        <v>6.784154445817814</v>
+        <v>6.784154445817813</v>
       </c>
       <c r="D400">
-        <v>-0.3458455541821861</v>
+        <v>-0.345845554182187</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -7536,7 +7536,7 @@
         <v>6.721905795707634</v>
       </c>
       <c r="D401">
-        <v>-0.3280942042923654</v>
+        <v>-0.3280942042923662</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -7575,10 +7575,10 @@
         <v>7.24</v>
       </c>
       <c r="C404">
-        <v>6.622041397982942</v>
+        <v>6.622041397982941</v>
       </c>
       <c r="D404">
-        <v>-0.6179586020170582</v>
+        <v>-0.6179586020170591</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -7589,10 +7589,10 @@
         <v>7.2</v>
       </c>
       <c r="C405">
-        <v>6.556651078661295</v>
+        <v>6.556651078661294</v>
       </c>
       <c r="D405">
-        <v>-0.6433489213387054</v>
+        <v>-0.6433489213387062</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -7603,10 +7603,10 @@
         <v>7.09</v>
       </c>
       <c r="C406">
-        <v>6.564295148451254</v>
+        <v>6.564295148451257</v>
       </c>
       <c r="D406">
-        <v>-0.5257048515487455</v>
+        <v>-0.5257048515487428</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -7648,7 +7648,7 @@
         <v>6.218980175621525</v>
       </c>
       <c r="D409">
-        <v>-0.4810198243784756</v>
+        <v>-0.4810198243784747</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -7659,10 +7659,10 @@
         <v>6.59</v>
       </c>
       <c r="C410">
-        <v>6.308506462796046</v>
+        <v>6.308506462796048</v>
       </c>
       <c r="D410">
-        <v>-0.2814935372039535</v>
+        <v>-0.2814935372039518</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -7673,10 +7673,10 @@
         <v>6.36</v>
       </c>
       <c r="C411">
-        <v>5.892344973006648</v>
+        <v>5.892344973006649</v>
       </c>
       <c r="D411">
-        <v>-0.4676550269933522</v>
+        <v>-0.4676550269933513</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -7690,7 +7690,7 @@
         <v>5.903109071298124</v>
       </c>
       <c r="D412">
-        <v>-0.0568909287018764</v>
+        <v>-0.05689092870187551</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -7701,10 +7701,10 @@
         <v>5.66</v>
       </c>
       <c r="C413">
-        <v>5.836779517170628</v>
+        <v>5.836779517170629</v>
       </c>
       <c r="D413">
-        <v>0.1767795171706279</v>
+        <v>0.1767795171706288</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -7715,10 +7715,10 @@
         <v>5.68</v>
       </c>
       <c r="C414">
-        <v>5.816891281834717</v>
+        <v>5.816891281834718</v>
       </c>
       <c r="D414">
-        <v>0.1368912818347177</v>
+        <v>0.1368912818347185</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -7729,10 +7729,10 @@
         <v>5.67</v>
       </c>
       <c r="C415">
-        <v>5.821036779565552</v>
+        <v>5.821036779565553</v>
       </c>
       <c r="D415">
-        <v>0.1510367795655521</v>
+        <v>0.1510367795655529</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -7757,10 +7757,10 @@
         <v>5.71</v>
       </c>
       <c r="C417">
-        <v>5.824606150828656</v>
+        <v>5.824606150828657</v>
       </c>
       <c r="D417">
-        <v>0.1146061508286564</v>
+        <v>0.1146061508286573</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -7813,10 +7813,10 @@
         <v>5.38</v>
       </c>
       <c r="C421">
-        <v>5.635912087879147</v>
+        <v>5.635912087879148</v>
       </c>
       <c r="D421">
-        <v>0.255912087879147</v>
+        <v>0.2559120878791479</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -7827,10 +7827,10 @@
         <v>5.52</v>
       </c>
       <c r="C422">
-        <v>5.547779240479274</v>
+        <v>5.547779240479275</v>
       </c>
       <c r="D422">
-        <v>0.02777924047927449</v>
+        <v>0.02777924047927538</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -7841,10 +7841,10 @@
         <v>5.55</v>
       </c>
       <c r="C423">
-        <v>5.555376498056164</v>
+        <v>5.555376498056165</v>
       </c>
       <c r="D423">
-        <v>0.005376498056164358</v>
+        <v>0.005376498056165246</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -7869,10 +7869,10 @@
         <v>5.63</v>
       </c>
       <c r="C425">
-        <v>5.594911261360796</v>
+        <v>5.594911261360797</v>
       </c>
       <c r="D425">
-        <v>-0.03508873863920403</v>
+        <v>-0.03508873863920314</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -7883,10 +7883,10 @@
         <v>5.65</v>
       </c>
       <c r="C426">
-        <v>5.576130734638877</v>
+        <v>5.576130734638878</v>
       </c>
       <c r="D426">
-        <v>-0.07386926536112348</v>
+        <v>-0.07386926536112259</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7925,10 +7925,10 @@
         <v>5.88</v>
       </c>
       <c r="C429">
-        <v>5.672786035296895</v>
+        <v>5.672786035296896</v>
       </c>
       <c r="D429">
-        <v>-0.2072139647031053</v>
+        <v>-0.2072139647031044</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -7939,10 +7939,10 @@
         <v>5.98</v>
       </c>
       <c r="C430">
-        <v>5.619591167577576</v>
+        <v>5.619591167577577</v>
       </c>
       <c r="D430">
-        <v>-0.3604088324224239</v>
+        <v>-0.3604088324224231</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -7967,10 +7967,10 @@
         <v>5.49</v>
       </c>
       <c r="C432">
-        <v>5.537031872691173</v>
+        <v>5.537031872691172</v>
       </c>
       <c r="D432">
-        <v>0.04703187269117315</v>
+        <v>0.04703187269117137</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -8009,10 +8009,10 @@
         <v>5.3</v>
       </c>
       <c r="C435">
-        <v>5.502336695481475</v>
+        <v>5.502336695481476</v>
       </c>
       <c r="D435">
-        <v>0.2023366954814749</v>
+        <v>0.2023366954814758</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -8037,10 +8037,10 @@
         <v>5.2</v>
       </c>
       <c r="C437">
-        <v>5.461537026661064</v>
+        <v>5.461537026661065</v>
       </c>
       <c r="D437">
-        <v>0.2615370266610642</v>
+        <v>0.261537026661065</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -8079,10 +8079,10 @@
         <v>5.12</v>
       </c>
       <c r="C440">
-        <v>5.456926683977034</v>
+        <v>5.456926683977036</v>
       </c>
       <c r="D440">
-        <v>0.3369266839770342</v>
+        <v>0.336926683977036</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -8093,10 +8093,10 @@
         <v>5.05</v>
       </c>
       <c r="C441">
-        <v>5.440118953295169</v>
+        <v>5.44011895329517</v>
       </c>
       <c r="D441">
-        <v>0.3901189532951692</v>
+        <v>0.3901189532951701</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -8107,10 +8107,10 @@
         <v>5.01</v>
       </c>
       <c r="C442">
-        <v>5.407970231716127</v>
+        <v>5.407970231716128</v>
       </c>
       <c r="D442">
-        <v>0.3979702317161271</v>
+        <v>0.397970231716128</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -8124,7 +8124,7 @@
         <v>5.430315053107273</v>
       </c>
       <c r="D443">
-        <v>0.410315053107273</v>
+        <v>0.4103150531072739</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -8135,10 +8135,10 @@
         <v>5</v>
       </c>
       <c r="C444">
-        <v>5.379691336558836</v>
+        <v>5.379691336558837</v>
       </c>
       <c r="D444">
-        <v>0.3796913365588361</v>
+        <v>0.379691336558837</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -8149,10 +8149,10 @@
         <v>5.08</v>
       </c>
       <c r="C445">
-        <v>5.427463628101503</v>
+        <v>5.427463628101504</v>
       </c>
       <c r="D445">
-        <v>0.3474636281015027</v>
+        <v>0.3474636281015036</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -8166,7 +8166,7 @@
         <v>5.431784065247037</v>
       </c>
       <c r="D446">
-        <v>0.2817840652470363</v>
+        <v>0.2817840652470371</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -8233,10 +8233,10 @@
         <v>5.1</v>
       </c>
       <c r="C451">
-        <v>5.308855549276258</v>
+        <v>5.308855549276259</v>
       </c>
       <c r="D451">
-        <v>0.208855549276258</v>
+        <v>0.2088555492762598</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -8247,10 +8247,10 @@
         <v>5.12</v>
       </c>
       <c r="C452">
-        <v>5.306304341497557</v>
+        <v>5.306304341497559</v>
       </c>
       <c r="D452">
-        <v>0.1863043414975571</v>
+        <v>0.1863043414975589</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -8261,10 +8261,10 @@
         <v>5.16</v>
       </c>
       <c r="C453">
-        <v>5.341039832930794</v>
+        <v>5.341039832930795</v>
       </c>
       <c r="D453">
-        <v>0.1810398329307938</v>
+        <v>0.1810398329307947</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -8289,10 +8289,10 @@
         <v>5.07</v>
       </c>
       <c r="C455">
-        <v>5.249552489785716</v>
+        <v>5.249552489785717</v>
       </c>
       <c r="D455">
-        <v>0.1795524897857161</v>
+        <v>0.179552489785717</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -8303,10 +8303,10 @@
         <v>5.07</v>
       </c>
       <c r="C456">
-        <v>5.252867467634903</v>
+        <v>5.252867467634904</v>
       </c>
       <c r="D456">
-        <v>0.1828674676349031</v>
+        <v>0.182867467634904</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -8317,10 +8317,10 @@
         <v>5.08</v>
       </c>
       <c r="C457">
-        <v>5.288122198507289</v>
+        <v>5.28812219850729</v>
       </c>
       <c r="D457">
-        <v>0.2081221985072892</v>
+        <v>0.2081221985072901</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -8331,10 +8331,10 @@
         <v>5.09</v>
       </c>
       <c r="C458">
-        <v>5.290259458072033</v>
+        <v>5.290259458072035</v>
       </c>
       <c r="D458">
-        <v>0.2002594580720327</v>
+        <v>0.2002594580720354</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -8345,10 +8345,10 @@
         <v>5.17</v>
       </c>
       <c r="C459">
-        <v>5.36590292448289</v>
+        <v>5.365902924482891</v>
       </c>
       <c r="D459">
-        <v>0.1959029244828905</v>
+        <v>0.1959029244828914</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -8362,7 +8362,7 @@
         <v>5.317825038126553</v>
       </c>
       <c r="D460">
-        <v>0.1678250381265523</v>
+        <v>0.1678250381265531</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -8373,10 +8373,10 @@
         <v>5.09</v>
       </c>
       <c r="C461">
-        <v>5.244191294808469</v>
+        <v>5.24419129480847</v>
       </c>
       <c r="D461">
-        <v>0.1541912948084692</v>
+        <v>0.15419129480847</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -8387,10 +8387,10 @@
         <v>5.1</v>
       </c>
       <c r="C462">
-        <v>5.24560497616584</v>
+        <v>5.245604976165841</v>
       </c>
       <c r="D462">
-        <v>0.1456049761658402</v>
+        <v>0.1456049761658411</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -8401,10 +8401,10 @@
         <v>5.08</v>
       </c>
       <c r="C463">
-        <v>5.264484402587646</v>
+        <v>5.264484402587648</v>
       </c>
       <c r="D463">
-        <v>0.1844844025876462</v>
+        <v>0.184484402587648</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -8415,10 +8415,10 @@
         <v>5.06</v>
       </c>
       <c r="C464">
-        <v>5.225634528510487</v>
+        <v>5.225634528510489</v>
       </c>
       <c r="D464">
-        <v>0.1656345285104877</v>
+        <v>0.1656345285104894</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -8429,10 +8429,10 @@
         <v>5.05</v>
       </c>
       <c r="C465">
-        <v>5.208381527781325</v>
+        <v>5.208381527781326</v>
       </c>
       <c r="D465">
-        <v>0.1583815277813256</v>
+        <v>0.1583815277813265</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -8443,10 +8443,10 @@
         <v>5.05</v>
       </c>
       <c r="C466">
-        <v>5.20863877290644</v>
+        <v>5.208638772906441</v>
       </c>
       <c r="D466">
-        <v>0.15863877290644</v>
+        <v>0.1586387729064409</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -8457,10 +8457,10 @@
         <v>4.98</v>
       </c>
       <c r="C467">
-        <v>5.129238073703771</v>
+        <v>5.129238073703773</v>
       </c>
       <c r="D467">
-        <v>0.1492380737037706</v>
+        <v>0.1492380737037724</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -8471,10 +8471,10 @@
         <v>4.92</v>
       </c>
       <c r="C468">
-        <v>5.007159364515584</v>
+        <v>5.007159364515585</v>
       </c>
       <c r="D468">
-        <v>0.0871593645155837</v>
+        <v>0.08715936451558459</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -8485,10 +8485,10 @@
         <v>4.95</v>
       </c>
       <c r="C469">
-        <v>4.997524946519039</v>
+        <v>4.997524946519041</v>
       </c>
       <c r="D469">
-        <v>0.04752494651903927</v>
+        <v>0.04752494651904104</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -8499,10 +8499,10 @@
         <v>5.07</v>
       </c>
       <c r="C470">
-        <v>5.033036899308348</v>
+        <v>5.03303689930835</v>
       </c>
       <c r="D470">
-        <v>-0.03696310069165243</v>
+        <v>-0.03696310069165065</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -8513,10 +8513,10 @@
         <v>5.04</v>
       </c>
       <c r="C471">
-        <v>5.012001894622177</v>
+        <v>5.012001894622179</v>
       </c>
       <c r="D471">
-        <v>-0.0279981053778231</v>
+        <v>-0.02799810537782133</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -8527,10 +8527,10 @@
         <v>5.1</v>
       </c>
       <c r="C472">
-        <v>5.026245831741814</v>
+        <v>5.026245831741813</v>
       </c>
       <c r="D472">
-        <v>-0.07375416825818526</v>
+        <v>-0.07375416825818615</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -8544,7 +8544,7 @@
         <v>5.042304158895559</v>
       </c>
       <c r="D473">
-        <v>-0.04769584110444125</v>
+        <v>-0.04769584110444036</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -8555,10 +8555,10 @@
         <v>5.17</v>
       </c>
       <c r="C474">
-        <v>5.044652558502858</v>
+        <v>5.044652558502859</v>
       </c>
       <c r="D474">
-        <v>-0.1253474414971416</v>
+        <v>-0.1253474414971407</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -8569,10 +8569,10 @@
         <v>5.14</v>
       </c>
       <c r="C475">
-        <v>5.027290819689474</v>
+        <v>5.027290819689475</v>
       </c>
       <c r="D475">
-        <v>-0.1127091803105253</v>
+        <v>-0.1127091803105245</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -8583,10 +8583,10 @@
         <v>5.17</v>
       </c>
       <c r="C476">
-        <v>5.065717541141787</v>
+        <v>5.065717541141788</v>
       </c>
       <c r="D476">
-        <v>-0.1042824588582132</v>
+        <v>-0.1042824588582123</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -8597,10 +8597,10 @@
         <v>5.18</v>
       </c>
       <c r="C477">
-        <v>5.06706026564982</v>
+        <v>5.067060265649821</v>
       </c>
       <c r="D477">
-        <v>-0.1129397343501797</v>
+        <v>-0.1129397343501788</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -8611,10 +8611,10 @@
         <v>5.09</v>
       </c>
       <c r="C478">
-        <v>5.081863461038847</v>
+        <v>5.081863461038849</v>
       </c>
       <c r="D478">
-        <v>-0.008136538961152517</v>
+        <v>-0.008136538961150741</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -8625,10 +8625,10 @@
         <v>5.24</v>
       </c>
       <c r="C479">
-        <v>5.181229398661735</v>
+        <v>5.181229398661737</v>
       </c>
       <c r="D479">
-        <v>-0.05877060133826539</v>
+        <v>-0.05877060133826362</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -8639,10 +8639,10 @@
         <v>5.26</v>
       </c>
       <c r="C480">
-        <v>5.195610557109613</v>
+        <v>5.195610557109614</v>
       </c>
       <c r="D480">
-        <v>-0.06438944289038684</v>
+        <v>-0.06438944289038595</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -8653,10 +8653,10 @@
         <v>5.33</v>
       </c>
       <c r="C481">
-        <v>5.174881221250551</v>
+        <v>5.174881221250552</v>
       </c>
       <c r="D481">
-        <v>-0.1551187787494488</v>
+        <v>-0.1551187787494479</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -8667,10 +8667,10 @@
         <v>5.34</v>
       </c>
       <c r="C482">
-        <v>5.175657534120956</v>
+        <v>5.175657534120957</v>
       </c>
       <c r="D482">
-        <v>-0.1643424658790442</v>
+        <v>-0.1643424658790433</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -8681,10 +8681,10 @@
         <v>5.34</v>
       </c>
       <c r="C483">
-        <v>5.182978156023029</v>
+        <v>5.18297815602303</v>
       </c>
       <c r="D483">
-        <v>-0.1570218439769704</v>
+        <v>-0.1570218439769695</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -8709,10 +8709,10 @@
         <v>5.36</v>
       </c>
       <c r="C485">
-        <v>5.161874500021702</v>
+        <v>5.161874500021703</v>
       </c>
       <c r="D485">
-        <v>-0.198125499978298</v>
+        <v>-0.1981254999782971</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -8723,10 +8723,10 @@
         <v>5.3</v>
       </c>
       <c r="C486">
-        <v>5.128825241579363</v>
+        <v>5.128825241579364</v>
       </c>
       <c r="D486">
-        <v>-0.1711747584206371</v>
+        <v>-0.1711747584206353</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -8740,7 +8740,7 @@
         <v>5.153626699716924</v>
       </c>
       <c r="D487">
-        <v>-0.1763733002830765</v>
+        <v>-0.1763733002830756</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -8751,10 +8751,10 @@
         <v>5.37</v>
       </c>
       <c r="C488">
-        <v>5.190634247143746</v>
+        <v>5.190634247143747</v>
       </c>
       <c r="D488">
-        <v>-0.1793657528562544</v>
+        <v>-0.1793657528562536</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -8765,10 +8765,10 @@
         <v>5.36</v>
       </c>
       <c r="C489">
-        <v>5.23058340256596</v>
+        <v>5.230583402565961</v>
       </c>
       <c r="D489">
-        <v>-0.12941659743404</v>
+        <v>-0.1294165974340391</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -8793,10 +8793,10 @@
         <v>5.48</v>
       </c>
       <c r="C491">
-        <v>5.307830009299212</v>
+        <v>5.307830009299213</v>
       </c>
       <c r="D491">
-        <v>-0.1721699907007883</v>
+        <v>-0.1721699907007874</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -8807,10 +8807,10 @@
         <v>5.47</v>
       </c>
       <c r="C492">
-        <v>5.306295494341031</v>
+        <v>5.306295494341032</v>
       </c>
       <c r="D492">
-        <v>-0.163704505658969</v>
+        <v>-0.1637045056589681</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -8821,10 +8821,10 @@
         <v>5.49</v>
       </c>
       <c r="C493">
-        <v>5.304133695530327</v>
+        <v>5.304133695530329</v>
       </c>
       <c r="D493">
-        <v>-0.1858663044696733</v>
+        <v>-0.1858663044696716</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -8835,10 +8835,10 @@
         <v>5.53</v>
       </c>
       <c r="C494">
-        <v>5.305135821747662</v>
+        <v>5.305135821747663</v>
       </c>
       <c r="D494">
-        <v>-0.2248641782523384</v>
+        <v>-0.2248641782523375</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -8863,10 +8863,10 @@
         <v>5.73</v>
       </c>
       <c r="C496">
-        <v>5.391476565999916</v>
+        <v>5.391476565999917</v>
       </c>
       <c r="D496">
-        <v>-0.3385234340000842</v>
+        <v>-0.3385234340000833</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -8877,10 +8877,10 @@
         <v>5.69</v>
       </c>
       <c r="C497">
-        <v>5.38331495445353</v>
+        <v>5.383314954453531</v>
       </c>
       <c r="D497">
-        <v>-0.3066850455464705</v>
+        <v>-0.3066850455464696</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -8891,10 +8891,10 @@
         <v>5.73</v>
       </c>
       <c r="C498">
-        <v>5.409294078255591</v>
+        <v>5.409294078255592</v>
       </c>
       <c r="D498">
-        <v>-0.320705921744409</v>
+        <v>-0.3207059217444082</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -8905,10 +8905,10 @@
         <v>5.55</v>
       </c>
       <c r="C499">
-        <v>5.42714461347748</v>
+        <v>5.427144613477481</v>
       </c>
       <c r="D499">
-        <v>-0.1228553865225201</v>
+        <v>-0.1228553865225184</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -8922,7 +8922,7 @@
         <v>5.431165291864303</v>
       </c>
       <c r="D500">
-        <v>-0.1088347081356975</v>
+        <v>-0.1088347081356966</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -8933,10 +8933,10 @@
         <v>5.55</v>
       </c>
       <c r="C501">
-        <v>5.437804156902459</v>
+        <v>5.43780415690246</v>
       </c>
       <c r="D501">
-        <v>-0.1121958430975409</v>
+        <v>-0.11219584309754</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -8947,10 +8947,10 @@
         <v>5.51</v>
       </c>
       <c r="C502">
-        <v>5.339956906122701</v>
+        <v>5.339956906122702</v>
       </c>
       <c r="D502">
-        <v>-0.1700430938772985</v>
+        <v>-0.1700430938772977</v>
       </c>
     </row>
     <row r="503" spans="1:4">
@@ -8978,7 +8978,7 @@
         <v>5.385740529930207</v>
       </c>
       <c r="D504">
-        <v>-0.134259470069793</v>
+        <v>-0.1342594700697921</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -9003,10 +9003,10 @@
         <v>5.5</v>
       </c>
       <c r="C506">
-        <v>5.373478136964844</v>
+        <v>5.373478136964845</v>
       </c>
       <c r="D506">
-        <v>-0.1265218630351557</v>
+        <v>-0.1265218630351548</v>
       </c>
     </row>
     <row r="507" spans="1:4">
@@ -9017,10 +9017,10 @@
         <v>5.53</v>
       </c>
       <c r="C507">
-        <v>5.347835616039047</v>
+        <v>5.347835616039049</v>
       </c>
       <c r="D507">
-        <v>-0.182164383960953</v>
+        <v>-0.1821643839609512</v>
       </c>
     </row>
     <row r="508" spans="1:4">
@@ -9031,10 +9031,10 @@
         <v>5.56</v>
       </c>
       <c r="C508">
-        <v>5.356969304683079</v>
+        <v>5.356969304683081</v>
       </c>
       <c r="D508">
-        <v>-0.2030306953169205</v>
+        <v>-0.2030306953169188</v>
       </c>
     </row>
     <row r="509" spans="1:4">
@@ -9073,10 +9073,10 @@
         <v>5.67</v>
       </c>
       <c r="C511">
-        <v>5.350084533234237</v>
+        <v>5.350084533234238</v>
       </c>
       <c r="D511">
-        <v>-0.3199154667657629</v>
+        <v>-0.319915466765762</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -9101,10 +9101,10 @@
         <v>5.72</v>
       </c>
       <c r="C513">
-        <v>5.437505883805919</v>
+        <v>5.43750588380592</v>
       </c>
       <c r="D513">
-        <v>-0.2824941161940808</v>
+        <v>-0.2824941161940799</v>
       </c>
     </row>
   </sheetData>
